--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167771</v>
+        <v>0.16763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188235</v>
+        <v>0.188384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182413</v>
+        <v>0.18249</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171487</v>
+        <v>0.171219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191194</v>
+        <v>0.190926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18351</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177937</v>
+        <v>0.177764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199421</v>
+        <v>0.199147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186135</v>
+        <v>0.185456</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186725</v>
+        <v>0.186545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209288</v>
+        <v>0.209309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188235</v>
+        <v>0.188582</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194911</v>
+        <v>0.194931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224797</v>
+        <v>0.224812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19398</v>
+        <v>0.193708</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214389</v>
+        <v>0.214162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249742</v>
+        <v>0.249161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203296</v>
+        <v>0.202543</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245594</v>
+        <v>0.244891</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278714</v>
+        <v>0.278032</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214343</v>
+        <v>0.214082</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294562</v>
+        <v>0.293623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.325557</v>
+        <v>0.324039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177917</v>
+        <v>0.177887</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159954</v>
+        <v>0.159839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175086</v>
+        <v>0.174958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177965</v>
+        <v>0.17785</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160479</v>
+        <v>0.160414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175449</v>
+        <v>0.175938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178435</v>
+        <v>0.17817</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161471</v>
+        <v>0.161631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176528</v>
+        <v>0.176934</v>
       </c>
       <c r="D12" t="n">
-        <v>0.179243</v>
+        <v>0.178839</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162817</v>
+        <v>0.162618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.17763</v>
+        <v>0.178162</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17905</v>
+        <v>0.178926</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164332</v>
+        <v>0.16434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180686</v>
+        <v>0.18127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17985</v>
+        <v>0.179533</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166533</v>
+        <v>0.166595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183347</v>
+        <v>0.183825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180641</v>
+        <v>0.180628</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169842</v>
+        <v>0.169729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187163</v>
+        <v>0.187718</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181487</v>
+        <v>0.181041</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173554</v>
+        <v>0.173399</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191813</v>
+        <v>0.192463</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182814</v>
+        <v>0.18242</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179169</v>
+        <v>0.179252</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197447</v>
+        <v>0.198124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184464</v>
+        <v>0.18397</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187552</v>
+        <v>0.187709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205709</v>
+        <v>0.206347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186975</v>
+        <v>0.18665</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199292</v>
+        <v>0.199621</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218936</v>
+        <v>0.219378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19058</v>
+        <v>0.19109</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219572</v>
+        <v>0.219705</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236595</v>
+        <v>0.237241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.19635</v>
+        <v>0.196072</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248423</v>
+        <v>0.248624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262131</v>
+        <v>0.263312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206024</v>
+        <v>0.206377</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.294077</v>
+        <v>0.293845</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310437</v>
+        <v>0.312401</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177423</v>
+        <v>0.177493</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1616</v>
+        <v>0.161896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174833</v>
+        <v>0.173928</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177931</v>
+        <v>0.17746</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162333</v>
+        <v>0.16263</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175531</v>
+        <v>0.174855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177855</v>
+        <v>0.177814</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163261</v>
+        <v>0.163637</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176449</v>
+        <v>0.175698</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177956</v>
+        <v>0.178154</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164501</v>
+        <v>0.164927</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177959</v>
+        <v>0.177253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178552</v>
+        <v>0.178263</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166108</v>
+        <v>0.166523</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179992</v>
+        <v>0.178975</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178889</v>
+        <v>0.179304</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168298</v>
+        <v>0.168765</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182899</v>
+        <v>0.181994</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179901</v>
+        <v>0.1801</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171386</v>
+        <v>0.171724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185765</v>
+        <v>0.185194</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180593</v>
+        <v>0.180733</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174971</v>
+        <v>0.175082</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189829</v>
+        <v>0.189688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181533</v>
+        <v>0.18179</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180635</v>
+        <v>0.180682</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195791</v>
+        <v>0.195221</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183039</v>
+        <v>0.183851</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188238</v>
+        <v>0.188135</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204534</v>
+        <v>0.204085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185362</v>
+        <v>0.185994</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198878</v>
+        <v>0.19876</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215317</v>
+        <v>0.214922</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188673</v>
+        <v>0.18939</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215709</v>
+        <v>0.215951</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231931</v>
+        <v>0.231748</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193505</v>
+        <v>0.193978</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243758</v>
+        <v>0.244171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259169</v>
+        <v>0.259696</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202843</v>
+        <v>0.203005</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286035</v>
+        <v>0.2866</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300184</v>
+        <v>0.30124</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17809</v>
+        <v>0.177338</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162932</v>
+        <v>0.162884</v>
       </c>
       <c r="C38" t="n">
-        <v>0.175106</v>
+        <v>0.174431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17771</v>
+        <v>0.17729</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163793</v>
+        <v>0.163838</v>
       </c>
       <c r="C39" t="n">
-        <v>0.176183</v>
+        <v>0.175564</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178101</v>
+        <v>0.17774</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164728</v>
+        <v>0.164732</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176976</v>
+        <v>0.176579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178321</v>
+        <v>0.177994</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165735</v>
+        <v>0.165807</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178177</v>
+        <v>0.177754</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178687</v>
+        <v>0.178346</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167354</v>
+        <v>0.167347</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179639</v>
+        <v>0.179305</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179196</v>
+        <v>0.178922</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169196</v>
+        <v>0.1692</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181737</v>
+        <v>0.181623</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17984</v>
+        <v>0.179379</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171864</v>
+        <v>0.171836</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184999</v>
+        <v>0.184821</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180557</v>
+        <v>0.180325</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175376</v>
+        <v>0.175331</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189219</v>
+        <v>0.189027</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181781</v>
+        <v>0.181537</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179991</v>
+        <v>0.179909</v>
       </c>
       <c r="C46" t="n">
-        <v>0.195005</v>
+        <v>0.194775</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183617</v>
+        <v>0.183427</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18743</v>
+        <v>0.187304</v>
       </c>
       <c r="C47" t="n">
-        <v>0.203</v>
+        <v>0.202812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185786</v>
+        <v>0.185316</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197751</v>
+        <v>0.197723</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214314</v>
+        <v>0.214177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.18889</v>
+        <v>0.188635</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213713</v>
+        <v>0.213813</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230474</v>
+        <v>0.230511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19351</v>
+        <v>0.193295</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23773</v>
+        <v>0.238033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257745</v>
+        <v>0.258022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202093</v>
+        <v>0.201875</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275797</v>
+        <v>0.276849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293441</v>
+        <v>0.294343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177882</v>
+        <v>0.178226</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331347</v>
+        <v>0.33289</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349697</v>
+        <v>0.350674</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178149</v>
+        <v>0.17848</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.168322</v>
+        <v>0.16662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.177016</v>
+        <v>0.177498</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178463</v>
+        <v>0.178762</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.168962</v>
+        <v>0.167862</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178174</v>
+        <v>0.178503</v>
       </c>
       <c r="D54" t="n">
-        <v>0.178905</v>
+        <v>0.179136</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.170098</v>
+        <v>0.169164</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179623</v>
+        <v>0.179933</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17938</v>
+        <v>0.179613</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.171597</v>
+        <v>0.170705</v>
       </c>
       <c r="C56" t="n">
-        <v>0.181341</v>
+        <v>0.181739</v>
       </c>
       <c r="D56" t="n">
-        <v>0.17995</v>
+        <v>0.180169</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.173416</v>
+        <v>0.172464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183675</v>
+        <v>0.183976</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180645</v>
+        <v>0.18089</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175933</v>
+        <v>0.175105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.187066</v>
+        <v>0.187473</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181502</v>
+        <v>0.181767</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.179204</v>
+        <v>0.178381</v>
       </c>
       <c r="C59" t="n">
-        <v>0.191484</v>
+        <v>0.191679</v>
       </c>
       <c r="D59" t="n">
-        <v>0.18266</v>
+        <v>0.182846</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.184021</v>
+        <v>0.183258</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1969</v>
+        <v>0.197052</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184118</v>
+        <v>0.184389</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190282</v>
+        <v>0.189418</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204528</v>
+        <v>0.20473</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186104</v>
+        <v>0.186403</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199547</v>
+        <v>0.198578</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215237</v>
+        <v>0.215184</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189171</v>
+        <v>0.189323</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.214158</v>
+        <v>0.213854</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231139</v>
+        <v>0.231543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194175</v>
+        <v>0.194394</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23596</v>
+        <v>0.236157</v>
       </c>
       <c r="C64" t="n">
-        <v>0.255274</v>
+        <v>0.256006</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202286</v>
+        <v>0.202479</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268987</v>
+        <v>0.269761</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2916</v>
+        <v>0.29276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216626</v>
+        <v>0.21698</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32063</v>
+        <v>0.322285</v>
       </c>
       <c r="C66" t="n">
-        <v>0.345103</v>
+        <v>0.346004</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191783</v>
+        <v>0.1895</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183495</v>
+        <v>0.184927</v>
       </c>
       <c r="C67" t="n">
-        <v>0.191957</v>
+        <v>0.190134</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192037</v>
+        <v>0.189981</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183816</v>
+        <v>0.185931</v>
       </c>
       <c r="C68" t="n">
-        <v>0.193169</v>
+        <v>0.19143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.192423</v>
+        <v>0.190183</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185039</v>
+        <v>0.186899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.19479</v>
+        <v>0.192931</v>
       </c>
       <c r="D69" t="n">
-        <v>0.192892</v>
+        <v>0.190804</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186488</v>
+        <v>0.188485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.196617</v>
+        <v>0.194837</v>
       </c>
       <c r="D70" t="n">
-        <v>0.193458</v>
+        <v>0.191259</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188263</v>
+        <v>0.190021</v>
       </c>
       <c r="C71" t="n">
-        <v>0.199109</v>
+        <v>0.197391</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19413</v>
+        <v>0.192176</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190594</v>
+        <v>0.192136</v>
       </c>
       <c r="C72" t="n">
-        <v>0.202271</v>
+        <v>0.200529</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195044</v>
+        <v>0.193136</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.193704</v>
+        <v>0.195496</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206518</v>
+        <v>0.204696</v>
       </c>
       <c r="D73" t="n">
-        <v>0.196321</v>
+        <v>0.194374</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.197854</v>
+        <v>0.199954</v>
       </c>
       <c r="C74" t="n">
-        <v>0.212134</v>
+        <v>0.210619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.197865</v>
+        <v>0.196091</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203992</v>
+        <v>0.20594</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220435</v>
+        <v>0.218927</v>
       </c>
       <c r="D75" t="n">
-        <v>0.200157</v>
+        <v>0.19829</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.212839</v>
+        <v>0.214456</v>
       </c>
       <c r="C76" t="n">
-        <v>0.231347</v>
+        <v>0.229832</v>
       </c>
       <c r="D76" t="n">
-        <v>0.203493</v>
+        <v>0.201872</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.225412</v>
+        <v>0.227598</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246627</v>
+        <v>0.245457</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208517</v>
+        <v>0.206953</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244631</v>
+        <v>0.24597</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269114</v>
+        <v>0.268297</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216672</v>
+        <v>0.21505</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275775</v>
+        <v>0.278332</v>
       </c>
       <c r="C79" t="n">
-        <v>0.303548</v>
+        <v>0.30352</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230288</v>
+        <v>0.229248</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322644</v>
+        <v>0.327239</v>
       </c>
       <c r="C80" t="n">
-        <v>0.353332</v>
+        <v>0.353936</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205437</v>
+        <v>0.20556</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203742</v>
+        <v>0.202599</v>
       </c>
       <c r="C81" t="n">
-        <v>0.206028</v>
+        <v>0.206026</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205687</v>
+        <v>0.205781</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204511</v>
+        <v>0.203375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207022</v>
+        <v>0.207145</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206097</v>
+        <v>0.206162</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205655</v>
+        <v>0.204393</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208262</v>
+        <v>0.208379</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206602</v>
+        <v>0.206708</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206959</v>
+        <v>0.205696</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210031</v>
+        <v>0.210114</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207183</v>
+        <v>0.207227</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20849</v>
+        <v>0.20732</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212073</v>
+        <v>0.212124</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207827</v>
+        <v>0.207989</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210536</v>
+        <v>0.209281</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214811</v>
+        <v>0.214852</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208753</v>
+        <v>0.208912</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213238</v>
+        <v>0.21204</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218458</v>
+        <v>0.21858</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209877</v>
+        <v>0.210029</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216993</v>
+        <v>0.215852</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223728</v>
+        <v>0.223822</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211445</v>
+        <v>0.211631</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222243</v>
+        <v>0.221228</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231105</v>
+        <v>0.231259</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213675</v>
+        <v>0.213948</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.230019</v>
+        <v>0.229036</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241061</v>
+        <v>0.241191</v>
       </c>
       <c r="D90" t="n">
-        <v>0.217041</v>
+        <v>0.217112</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241632</v>
+        <v>0.240787</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255039</v>
+        <v>0.255311</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221749</v>
+        <v>0.221895</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259142</v>
+        <v>0.258684</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275323</v>
+        <v>0.275901</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229345</v>
+        <v>0.229643</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286974</v>
+        <v>0.286904</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306761</v>
+        <v>0.308051</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241887</v>
+        <v>0.242279</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330531</v>
+        <v>0.332604</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354702</v>
+        <v>0.357443</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214422</v>
+        <v>0.214365</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215512</v>
+        <v>0.214985</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216344</v>
+        <v>0.216239</v>
       </c>
       <c r="D95" t="n">
-        <v>0.215035</v>
+        <v>0.214908</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216486</v>
+        <v>0.215907</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217594</v>
+        <v>0.217528</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215395</v>
+        <v>0.215486</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217661</v>
+        <v>0.217201</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219025</v>
+        <v>0.218885</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216131</v>
+        <v>0.215991</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219156</v>
+        <v>0.218734</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220857</v>
+        <v>0.220762</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216741</v>
+        <v>0.216737</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220926</v>
+        <v>0.220635</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223213</v>
+        <v>0.223127</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217519</v>
+        <v>0.217423</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223146</v>
+        <v>0.22299</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226136</v>
+        <v>0.226078</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21859</v>
+        <v>0.218467</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226215</v>
+        <v>0.226226</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230249</v>
+        <v>0.230267</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219851</v>
+        <v>0.219703</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230225</v>
+        <v>0.230569</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23596</v>
+        <v>0.235985</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221378</v>
+        <v>0.221361</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236034</v>
+        <v>0.236735</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243913</v>
+        <v>0.244254</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223854</v>
+        <v>0.223695</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244316</v>
+        <v>0.245401</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254966</v>
+        <v>0.255445</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227151</v>
+        <v>0.227024</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256566</v>
+        <v>0.257965</v>
       </c>
       <c r="C105" t="n">
-        <v>0.270446</v>
+        <v>0.271508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231994</v>
+        <v>0.232033</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.275246</v>
+        <v>0.277072</v>
       </c>
       <c r="C106" t="n">
-        <v>0.292325</v>
+        <v>0.293869</v>
       </c>
       <c r="D106" t="n">
-        <v>0.23972</v>
+        <v>0.239499</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.303355</v>
+        <v>0.305807</v>
       </c>
       <c r="C107" t="n">
-        <v>0.324899</v>
+        <v>0.327129</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252394</v>
+        <v>0.252548</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.346157</v>
+        <v>0.349431</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373009</v>
+        <v>0.376209</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219622</v>
+        <v>0.219582</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410004</v>
+        <v>0.414219</v>
       </c>
       <c r="C109" t="n">
-        <v>0.441485</v>
+        <v>0.446929</v>
       </c>
       <c r="D109" t="n">
-        <v>0.219989</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234388</v>
+        <v>0.235054</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234415</v>
+        <v>0.235252</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221376</v>
+        <v>0.220635</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23552</v>
+        <v>0.238785</v>
       </c>
       <c r="C111" t="n">
-        <v>0.238916</v>
+        <v>0.239035</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222187</v>
+        <v>0.222104</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.24406</v>
+        <v>0.244306</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244939</v>
+        <v>0.246746</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223783</v>
+        <v>0.223684</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245762</v>
+        <v>0.250887</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250672</v>
+        <v>0.253918</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225473</v>
+        <v>0.225621</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.251799</v>
+        <v>0.257914</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259565</v>
+        <v>0.262195</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227803</v>
+        <v>0.226914</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.259493</v>
+        <v>0.266574</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268304</v>
+        <v>0.271504</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230901</v>
+        <v>0.230035</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.268161</v>
+        <v>0.275411</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278236</v>
+        <v>0.282193</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23363</v>
+        <v>0.234398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282703</v>
+        <v>0.281057</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290197</v>
+        <v>0.292596</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239615</v>
+        <v>0.240412</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294572</v>
+        <v>0.297707</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304136</v>
+        <v>0.308846</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246012</v>
+        <v>0.247775</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.305049</v>
+        <v>0.313846</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31894</v>
+        <v>0.327268</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255334</v>
+        <v>0.25686</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329962</v>
+        <v>0.334936</v>
       </c>
       <c r="C120" t="n">
-        <v>0.345631</v>
+        <v>0.35144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266942</v>
+        <v>0.26893</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359724</v>
+        <v>0.365487</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378593</v>
+        <v>0.385706</v>
       </c>
       <c r="D121" t="n">
-        <v>0.28342</v>
+        <v>0.28609</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403614</v>
+        <v>0.41039</v>
       </c>
       <c r="C122" t="n">
-        <v>0.42913</v>
+        <v>0.432826</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307171</v>
+        <v>0.310357</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472042</v>
+        <v>0.472953</v>
       </c>
       <c r="C123" t="n">
-        <v>0.507163</v>
+        <v>0.512193</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248404</v>
+        <v>0.25061</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.283546</v>
+        <v>0.287197</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284122</v>
+        <v>0.292902</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251814</v>
+        <v>0.257224</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287532</v>
+        <v>0.291542</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289015</v>
+        <v>0.293207</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25509</v>
+        <v>0.257113</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.282358</v>
+        <v>0.297146</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294283</v>
+        <v>0.299897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259242</v>
+        <v>0.262203</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.296591</v>
+        <v>0.287898</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299256</v>
+        <v>0.304878</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261764</v>
+        <v>0.265689</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301634</v>
+        <v>0.301832</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306047</v>
+        <v>0.31263</v>
       </c>
       <c r="D128" t="n">
-        <v>0.266002</v>
+        <v>0.269316</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.307266</v>
+        <v>0.312356</v>
       </c>
       <c r="C129" t="n">
-        <v>0.313816</v>
+        <v>0.318812</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269563</v>
+        <v>0.273341</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317815</v>
+        <v>0.310316</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320816</v>
+        <v>0.327806</v>
       </c>
       <c r="D130" t="n">
-        <v>0.273092</v>
+        <v>0.276602</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.32328</v>
+        <v>0.327996</v>
       </c>
       <c r="C131" t="n">
-        <v>0.332303</v>
+        <v>0.337543</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278296</v>
+        <v>0.280565</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.338419</v>
+        <v>0.329691</v>
       </c>
       <c r="C132" t="n">
-        <v>0.345579</v>
+        <v>0.354084</v>
       </c>
       <c r="D132" t="n">
-        <v>0.284308</v>
+        <v>0.287675</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.344878</v>
+        <v>0.340503</v>
       </c>
       <c r="C133" t="n">
-        <v>0.363926</v>
+        <v>0.371284</v>
       </c>
       <c r="D133" t="n">
-        <v>0.290893</v>
+        <v>0.294766</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.355301</v>
+        <v>0.376216</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389367</v>
+        <v>0.397711</v>
       </c>
       <c r="D134" t="n">
-        <v>0.301123</v>
+        <v>0.305408</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.383369</v>
+        <v>0.406645</v>
       </c>
       <c r="C135" t="n">
-        <v>0.422451</v>
+        <v>0.433505</v>
       </c>
       <c r="D135" t="n">
-        <v>0.313971</v>
+        <v>0.318732</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441565</v>
+        <v>0.45305</v>
       </c>
       <c r="C136" t="n">
-        <v>0.476633</v>
+        <v>0.489364</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337991</v>
+        <v>0.344062</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.521696</v>
+        <v>0.506036</v>
       </c>
       <c r="C137" t="n">
-        <v>0.555331</v>
+        <v>0.567253</v>
       </c>
       <c r="D137" t="n">
-        <v>0.391483</v>
+        <v>0.405471</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.442793</v>
+        <v>0.454952</v>
       </c>
       <c r="C138" t="n">
-        <v>0.426387</v>
+        <v>0.447762</v>
       </c>
       <c r="D138" t="n">
-        <v>0.385079</v>
+        <v>0.404235</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.425515</v>
+        <v>0.438951</v>
       </c>
       <c r="C139" t="n">
-        <v>0.43822</v>
+        <v>0.456771</v>
       </c>
       <c r="D139" t="n">
-        <v>0.396637</v>
+        <v>0.411721</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.451324</v>
+        <v>0.472039</v>
       </c>
       <c r="C140" t="n">
-        <v>0.43883</v>
+        <v>0.461087</v>
       </c>
       <c r="D140" t="n">
-        <v>0.393712</v>
+        <v>0.411609</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.433764</v>
+        <v>0.473297</v>
       </c>
       <c r="C141" t="n">
-        <v>0.449269</v>
+        <v>0.468725</v>
       </c>
       <c r="D141" t="n">
-        <v>0.401141</v>
+        <v>0.416722</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4403</v>
+        <v>0.466527</v>
       </c>
       <c r="C142" t="n">
-        <v>0.454893</v>
+        <v>0.476958</v>
       </c>
       <c r="D142" t="n">
-        <v>0.402166</v>
+        <v>0.420579</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.448942</v>
+        <v>0.494723</v>
       </c>
       <c r="C143" t="n">
-        <v>0.465061</v>
+        <v>0.487978</v>
       </c>
       <c r="D143" t="n">
-        <v>0.408309</v>
+        <v>0.426425</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16763</v>
+        <v>0.167466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188384</v>
+        <v>0.188403</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18249</v>
+        <v>0.182539</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171219</v>
+        <v>0.171825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190926</v>
+        <v>0.191151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1831</v>
+        <v>0.182923</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177764</v>
+        <v>0.17805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199147</v>
+        <v>0.199218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185456</v>
+        <v>0.185803</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186545</v>
+        <v>0.18625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209309</v>
+        <v>0.209429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188582</v>
+        <v>0.188238</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194931</v>
+        <v>0.194704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224812</v>
+        <v>0.224786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193708</v>
+        <v>0.19372</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214162</v>
+        <v>0.214231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249161</v>
+        <v>0.249485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202543</v>
+        <v>0.202417</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.244891</v>
+        <v>0.245634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278032</v>
+        <v>0.278458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214082</v>
+        <v>0.214251</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.293623</v>
+        <v>0.294487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.324039</v>
+        <v>0.326096</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177887</v>
+        <v>0.17747</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159839</v>
+        <v>0.159558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174958</v>
+        <v>0.175627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17785</v>
+        <v>0.177732</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160414</v>
+        <v>0.160151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175938</v>
+        <v>0.176276</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17817</v>
+        <v>0.177769</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161631</v>
+        <v>0.161357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176934</v>
+        <v>0.17725</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178839</v>
+        <v>0.178218</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162618</v>
+        <v>0.162447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178162</v>
+        <v>0.178317</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178926</v>
+        <v>0.17867</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16434</v>
+        <v>0.164229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18127</v>
+        <v>0.181106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179533</v>
+        <v>0.179402</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166595</v>
+        <v>0.166507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183825</v>
+        <v>0.18366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180628</v>
+        <v>0.18011</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169729</v>
+        <v>0.169636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187718</v>
+        <v>0.187604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181041</v>
+        <v>0.181556</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173399</v>
+        <v>0.173209</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192463</v>
+        <v>0.192193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18242</v>
+        <v>0.182339</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179252</v>
+        <v>0.179026</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198124</v>
+        <v>0.19765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18397</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187709</v>
+        <v>0.187447</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206347</v>
+        <v>0.205937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18665</v>
+        <v>0.186209</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199621</v>
+        <v>0.198822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219378</v>
+        <v>0.21936</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19109</v>
+        <v>0.190401</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219705</v>
+        <v>0.220408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237241</v>
+        <v>0.237085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196072</v>
+        <v>0.195814</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248624</v>
+        <v>0.249013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.263312</v>
+        <v>0.262108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206377</v>
+        <v>0.206026</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293845</v>
+        <v>0.293642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.312401</v>
+        <v>0.310504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177493</v>
+        <v>0.17747</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161896</v>
+        <v>0.161669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173928</v>
+        <v>0.174696</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17746</v>
+        <v>0.177844</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.16263</v>
+        <v>0.162464</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174855</v>
+        <v>0.175631</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177814</v>
+        <v>0.177951</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163637</v>
+        <v>0.163191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175698</v>
+        <v>0.176791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178154</v>
+        <v>0.177927</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164927</v>
+        <v>0.164449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177253</v>
+        <v>0.17814</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178263</v>
+        <v>0.178192</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166523</v>
+        <v>0.165963</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178975</v>
+        <v>0.180097</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179304</v>
+        <v>0.178612</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168765</v>
+        <v>0.168139</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181994</v>
+        <v>0.182953</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1801</v>
+        <v>0.179286</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171724</v>
+        <v>0.171016</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185194</v>
+        <v>0.185666</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180733</v>
+        <v>0.180142</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.175082</v>
+        <v>0.174439</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189688</v>
+        <v>0.189721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.18179</v>
+        <v>0.181153</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180682</v>
+        <v>0.180427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195221</v>
+        <v>0.195481</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183851</v>
+        <v>0.183567</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188135</v>
+        <v>0.187834</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204085</v>
+        <v>0.204362</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185994</v>
+        <v>0.186178</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19876</v>
+        <v>0.198421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214922</v>
+        <v>0.215286</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18939</v>
+        <v>0.189604</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215951</v>
+        <v>0.215071</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231748</v>
+        <v>0.2318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193978</v>
+        <v>0.194423</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244171</v>
+        <v>0.24338</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259696</v>
+        <v>0.258956</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203005</v>
+        <v>0.203814</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2866</v>
+        <v>0.285627</v>
       </c>
       <c r="C37" t="n">
-        <v>0.30124</v>
+        <v>0.300299</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177338</v>
+        <v>0.177893</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162884</v>
+        <v>0.162808</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174431</v>
+        <v>0.174433</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17729</v>
+        <v>0.177355</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163838</v>
+        <v>0.163653</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175564</v>
+        <v>0.175514</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17774</v>
+        <v>0.177823</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164732</v>
+        <v>0.16457</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176579</v>
+        <v>0.17651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177994</v>
+        <v>0.178023</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165807</v>
+        <v>0.165606</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177754</v>
+        <v>0.177819</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178346</v>
+        <v>0.178583</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167347</v>
+        <v>0.167232</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179305</v>
+        <v>0.17927</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178922</v>
+        <v>0.17897</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1692</v>
+        <v>0.169065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181623</v>
+        <v>0.181498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179379</v>
+        <v>0.179647</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171836</v>
+        <v>0.171698</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184821</v>
+        <v>0.184768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180325</v>
+        <v>0.180396</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175331</v>
+        <v>0.175234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189027</v>
+        <v>0.188933</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181537</v>
+        <v>0.181551</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179909</v>
+        <v>0.179821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194775</v>
+        <v>0.194781</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183427</v>
+        <v>0.183316</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187304</v>
+        <v>0.187211</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202812</v>
+        <v>0.202824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185316</v>
+        <v>0.185491</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197723</v>
+        <v>0.197603</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214177</v>
+        <v>0.214191</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188635</v>
+        <v>0.18873</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213813</v>
+        <v>0.213602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230511</v>
+        <v>0.230583</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193295</v>
+        <v>0.19334</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238033</v>
+        <v>0.237585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258022</v>
+        <v>0.257462</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201875</v>
+        <v>0.201952</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.276849</v>
+        <v>0.275827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294343</v>
+        <v>0.293135</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178226</v>
+        <v>0.178189</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.33289</v>
+        <v>0.331402</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350674</v>
+        <v>0.349369</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17848</v>
+        <v>0.17849</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16662</v>
+        <v>0.166168</v>
       </c>
       <c r="C53" t="n">
-        <v>0.177498</v>
+        <v>0.176827</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178762</v>
+        <v>0.178743</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167862</v>
+        <v>0.166937</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178503</v>
+        <v>0.178001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.179136</v>
+        <v>0.179095</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.169164</v>
+        <v>0.168063</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179933</v>
+        <v>0.179382</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179613</v>
+        <v>0.179485</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170705</v>
+        <v>0.169599</v>
       </c>
       <c r="C56" t="n">
-        <v>0.181739</v>
+        <v>0.181059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180169</v>
+        <v>0.180102</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172464</v>
+        <v>0.171414</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183976</v>
+        <v>0.183379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.18089</v>
+        <v>0.180753</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175105</v>
+        <v>0.173938</v>
       </c>
       <c r="C58" t="n">
-        <v>0.187473</v>
+        <v>0.186722</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181767</v>
+        <v>0.181603</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178381</v>
+        <v>0.177215</v>
       </c>
       <c r="C59" t="n">
-        <v>0.191679</v>
+        <v>0.191044</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182846</v>
+        <v>0.182671</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.183258</v>
+        <v>0.182069</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197052</v>
+        <v>0.196379</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184389</v>
+        <v>0.184172</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189418</v>
+        <v>0.188412</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20473</v>
+        <v>0.203941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186403</v>
+        <v>0.186163</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198578</v>
+        <v>0.197794</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215184</v>
+        <v>0.214635</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189323</v>
+        <v>0.18914</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213854</v>
+        <v>0.212401</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231543</v>
+        <v>0.230443</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194394</v>
+        <v>0.194157</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236157</v>
+        <v>0.234461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.256006</v>
+        <v>0.254457</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202479</v>
+        <v>0.202124</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269761</v>
+        <v>0.26776</v>
       </c>
       <c r="C65" t="n">
-        <v>0.29276</v>
+        <v>0.290817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21698</v>
+        <v>0.216353</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.322285</v>
+        <v>0.319627</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346004</v>
+        <v>0.344246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1895</v>
+        <v>0.18676</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184927</v>
+        <v>0.184471</v>
       </c>
       <c r="C67" t="n">
-        <v>0.190134</v>
+        <v>0.187799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.189981</v>
+        <v>0.186589</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185931</v>
+        <v>0.185405</v>
       </c>
       <c r="C68" t="n">
-        <v>0.19143</v>
+        <v>0.189084</v>
       </c>
       <c r="D68" t="n">
-        <v>0.190183</v>
+        <v>0.186993</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186899</v>
+        <v>0.186549</v>
       </c>
       <c r="C69" t="n">
-        <v>0.192931</v>
+        <v>0.19089</v>
       </c>
       <c r="D69" t="n">
-        <v>0.190804</v>
+        <v>0.187918</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188485</v>
+        <v>0.188097</v>
       </c>
       <c r="C70" t="n">
-        <v>0.194837</v>
+        <v>0.192948</v>
       </c>
       <c r="D70" t="n">
-        <v>0.191259</v>
+        <v>0.188255</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.190021</v>
+        <v>0.189805</v>
       </c>
       <c r="C71" t="n">
-        <v>0.197391</v>
+        <v>0.195721</v>
       </c>
       <c r="D71" t="n">
-        <v>0.192176</v>
+        <v>0.18904</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192136</v>
+        <v>0.192125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.200529</v>
+        <v>0.199046</v>
       </c>
       <c r="D72" t="n">
-        <v>0.193136</v>
+        <v>0.190077</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195496</v>
+        <v>0.195125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.204696</v>
+        <v>0.203472</v>
       </c>
       <c r="D73" t="n">
-        <v>0.194374</v>
+        <v>0.191368</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199954</v>
+        <v>0.199319</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210619</v>
+        <v>0.2094</v>
       </c>
       <c r="D74" t="n">
-        <v>0.196091</v>
+        <v>0.193085</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20594</v>
+        <v>0.205317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218927</v>
+        <v>0.217702</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19829</v>
+        <v>0.195916</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214456</v>
+        <v>0.214192</v>
       </c>
       <c r="C76" t="n">
-        <v>0.229832</v>
+        <v>0.228815</v>
       </c>
       <c r="D76" t="n">
-        <v>0.201872</v>
+        <v>0.198965</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227598</v>
+        <v>0.226623</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245457</v>
+        <v>0.244283</v>
       </c>
       <c r="D77" t="n">
-        <v>0.206953</v>
+        <v>0.20392</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24597</v>
+        <v>0.245758</v>
       </c>
       <c r="C78" t="n">
-        <v>0.268297</v>
+        <v>0.266913</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21505</v>
+        <v>0.211984</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.278332</v>
+        <v>0.276898</v>
       </c>
       <c r="C79" t="n">
-        <v>0.30352</v>
+        <v>0.301389</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229248</v>
+        <v>0.225646</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.327239</v>
+        <v>0.323855</v>
       </c>
       <c r="C80" t="n">
-        <v>0.353936</v>
+        <v>0.350774</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20556</v>
+        <v>0.205356</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.202599</v>
+        <v>0.20361</v>
       </c>
       <c r="C81" t="n">
-        <v>0.206026</v>
+        <v>0.205914</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205781</v>
+        <v>0.205577</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203375</v>
+        <v>0.204472</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207145</v>
+        <v>0.206908</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206162</v>
+        <v>0.206024</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.204393</v>
+        <v>0.205506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208379</v>
+        <v>0.208218</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206708</v>
+        <v>0.206457</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.205696</v>
+        <v>0.20686</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210114</v>
+        <v>0.209933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207227</v>
+        <v>0.207058</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20732</v>
+        <v>0.20845</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212124</v>
+        <v>0.212031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207989</v>
+        <v>0.207732</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209281</v>
+        <v>0.210491</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214852</v>
+        <v>0.214767</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208912</v>
+        <v>0.208634</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21204</v>
+        <v>0.213219</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21858</v>
+        <v>0.218417</v>
       </c>
       <c r="D87" t="n">
-        <v>0.210029</v>
+        <v>0.209708</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215852</v>
+        <v>0.216996</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223822</v>
+        <v>0.223585</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211631</v>
+        <v>0.21138</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221228</v>
+        <v>0.222225</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231259</v>
+        <v>0.231057</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213948</v>
+        <v>0.213602</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229036</v>
+        <v>0.230025</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241191</v>
+        <v>0.241062</v>
       </c>
       <c r="D90" t="n">
-        <v>0.217112</v>
+        <v>0.216845</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.240787</v>
+        <v>0.241664</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255311</v>
+        <v>0.255094</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221895</v>
+        <v>0.221696</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258684</v>
+        <v>0.259209</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275901</v>
+        <v>0.275343</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229643</v>
+        <v>0.229263</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286904</v>
+        <v>0.287006</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308051</v>
+        <v>0.306673</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242279</v>
+        <v>0.241951</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332604</v>
+        <v>0.330594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.357443</v>
+        <v>0.35467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214365</v>
+        <v>0.214523</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.214985</v>
+        <v>0.215759</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216239</v>
+        <v>0.216378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214908</v>
+        <v>0.214949</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.215907</v>
+        <v>0.216696</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217528</v>
+        <v>0.217571</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215486</v>
+        <v>0.215593</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217201</v>
+        <v>0.217849</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218885</v>
+        <v>0.219037</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215991</v>
+        <v>0.216084</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218734</v>
+        <v>0.219382</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220762</v>
+        <v>0.220868</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216737</v>
+        <v>0.216773</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220635</v>
+        <v>0.221123</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223127</v>
+        <v>0.223094</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217423</v>
+        <v>0.217689</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22299</v>
+        <v>0.223394</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226078</v>
+        <v>0.226132</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218467</v>
+        <v>0.218574</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226226</v>
+        <v>0.226497</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230267</v>
+        <v>0.230143</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219703</v>
+        <v>0.219853</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230569</v>
+        <v>0.230527</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235985</v>
+        <v>0.235882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221361</v>
+        <v>0.221444</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236735</v>
+        <v>0.236335</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244254</v>
+        <v>0.243766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223695</v>
+        <v>0.223815</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245401</v>
+        <v>0.244656</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255445</v>
+        <v>0.254837</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227024</v>
+        <v>0.227188</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257965</v>
+        <v>0.256598</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271508</v>
+        <v>0.270502</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232033</v>
+        <v>0.232144</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277072</v>
+        <v>0.27525</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293869</v>
+        <v>0.292636</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239499</v>
+        <v>0.239662</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305807</v>
+        <v>0.303416</v>
       </c>
       <c r="C107" t="n">
-        <v>0.327129</v>
+        <v>0.32531</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252548</v>
+        <v>0.252469</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349431</v>
+        <v>0.346263</v>
       </c>
       <c r="C108" t="n">
-        <v>0.376209</v>
+        <v>0.373459</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219582</v>
+        <v>0.219039</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.414219</v>
+        <v>0.41143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.446929</v>
+        <v>0.443258</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2197</v>
+        <v>0.22036</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235054</v>
+        <v>0.234555</v>
       </c>
       <c r="C110" t="n">
-        <v>0.235252</v>
+        <v>0.233541</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220635</v>
+        <v>0.220713</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238785</v>
+        <v>0.234263</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239035</v>
+        <v>0.237809</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222104</v>
+        <v>0.221996</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244306</v>
+        <v>0.243865</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246746</v>
+        <v>0.245467</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223684</v>
+        <v>0.22385</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250887</v>
+        <v>0.245502</v>
       </c>
       <c r="C113" t="n">
-        <v>0.253918</v>
+        <v>0.250807</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225621</v>
+        <v>0.225825</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257914</v>
+        <v>0.256653</v>
       </c>
       <c r="C114" t="n">
-        <v>0.262195</v>
+        <v>0.259727</v>
       </c>
       <c r="D114" t="n">
-        <v>0.226914</v>
+        <v>0.22684</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.266574</v>
+        <v>0.263798</v>
       </c>
       <c r="C115" t="n">
-        <v>0.271504</v>
+        <v>0.267118</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230035</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.275411</v>
+        <v>0.27228</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282193</v>
+        <v>0.276659</v>
       </c>
       <c r="D116" t="n">
-        <v>0.234398</v>
+        <v>0.234578</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281057</v>
+        <v>0.28232</v>
       </c>
       <c r="C117" t="n">
-        <v>0.292596</v>
+        <v>0.290065</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240412</v>
+        <v>0.240002</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.297707</v>
+        <v>0.289596</v>
       </c>
       <c r="C118" t="n">
-        <v>0.308846</v>
+        <v>0.304071</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247775</v>
+        <v>0.246169</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.313846</v>
+        <v>0.309483</v>
       </c>
       <c r="C119" t="n">
-        <v>0.327268</v>
+        <v>0.319229</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25686</v>
+        <v>0.255542</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.334936</v>
+        <v>0.324814</v>
       </c>
       <c r="C120" t="n">
-        <v>0.35144</v>
+        <v>0.342491</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26893</v>
+        <v>0.265296</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.365487</v>
+        <v>0.359421</v>
       </c>
       <c r="C121" t="n">
-        <v>0.385706</v>
+        <v>0.378577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.28609</v>
+        <v>0.281975</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.41039</v>
+        <v>0.397372</v>
       </c>
       <c r="C122" t="n">
-        <v>0.432826</v>
+        <v>0.428499</v>
       </c>
       <c r="D122" t="n">
-        <v>0.310357</v>
+        <v>0.307029</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472953</v>
+        <v>0.463687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.512193</v>
+        <v>0.50666</v>
       </c>
       <c r="D123" t="n">
-        <v>0.25061</v>
+        <v>0.250389</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.287197</v>
+        <v>0.270037</v>
       </c>
       <c r="C124" t="n">
-        <v>0.292902</v>
+        <v>0.284043</v>
       </c>
       <c r="D124" t="n">
-        <v>0.257224</v>
+        <v>0.251922</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.291542</v>
+        <v>0.277887</v>
       </c>
       <c r="C125" t="n">
-        <v>0.293207</v>
+        <v>0.289804</v>
       </c>
       <c r="D125" t="n">
-        <v>0.257113</v>
+        <v>0.255901</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.297146</v>
+        <v>0.304398</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299897</v>
+        <v>0.295051</v>
       </c>
       <c r="D126" t="n">
-        <v>0.262203</v>
+        <v>0.260281</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.287898</v>
+        <v>0.282727</v>
       </c>
       <c r="C127" t="n">
-        <v>0.304878</v>
+        <v>0.300514</v>
       </c>
       <c r="D127" t="n">
-        <v>0.265689</v>
+        <v>0.263291</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301832</v>
+        <v>0.305652</v>
       </c>
       <c r="C128" t="n">
-        <v>0.31263</v>
+        <v>0.306224</v>
       </c>
       <c r="D128" t="n">
-        <v>0.269316</v>
+        <v>0.267077</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312356</v>
+        <v>0.306854</v>
       </c>
       <c r="C129" t="n">
-        <v>0.318812</v>
+        <v>0.312064</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273341</v>
+        <v>0.269957</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.310316</v>
+        <v>0.300006</v>
       </c>
       <c r="C130" t="n">
-        <v>0.327806</v>
+        <v>0.319509</v>
       </c>
       <c r="D130" t="n">
-        <v>0.276602</v>
+        <v>0.272468</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.327996</v>
+        <v>0.322742</v>
       </c>
       <c r="C131" t="n">
-        <v>0.337543</v>
+        <v>0.331386</v>
       </c>
       <c r="D131" t="n">
-        <v>0.280565</v>
+        <v>0.278012</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.329691</v>
+        <v>0.334924</v>
       </c>
       <c r="C132" t="n">
-        <v>0.354084</v>
+        <v>0.346444</v>
       </c>
       <c r="D132" t="n">
-        <v>0.287675</v>
+        <v>0.285157</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.340503</v>
+        <v>0.348176</v>
       </c>
       <c r="C133" t="n">
-        <v>0.371284</v>
+        <v>0.365286</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294766</v>
+        <v>0.292208</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376216</v>
+        <v>0.370943</v>
       </c>
       <c r="C134" t="n">
-        <v>0.397711</v>
+        <v>0.3906</v>
       </c>
       <c r="D134" t="n">
-        <v>0.305408</v>
+        <v>0.302317</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.406645</v>
+        <v>0.397219</v>
       </c>
       <c r="C135" t="n">
-        <v>0.433505</v>
+        <v>0.424536</v>
       </c>
       <c r="D135" t="n">
-        <v>0.318732</v>
+        <v>0.315364</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.45305</v>
+        <v>0.441101</v>
       </c>
       <c r="C136" t="n">
-        <v>0.489364</v>
+        <v>0.477801</v>
       </c>
       <c r="D136" t="n">
-        <v>0.344062</v>
+        <v>0.339298</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.506036</v>
+        <v>0.51071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.567253</v>
+        <v>0.5511779999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.405471</v>
+        <v>0.390039</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454952</v>
+        <v>0.417233</v>
       </c>
       <c r="C138" t="n">
-        <v>0.447762</v>
+        <v>0.42694</v>
       </c>
       <c r="D138" t="n">
-        <v>0.404235</v>
+        <v>0.385781</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.438951</v>
+        <v>0.444687</v>
       </c>
       <c r="C139" t="n">
-        <v>0.456771</v>
+        <v>0.435661</v>
       </c>
       <c r="D139" t="n">
-        <v>0.411721</v>
+        <v>0.394069</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.472039</v>
+        <v>0.446371</v>
       </c>
       <c r="C140" t="n">
-        <v>0.461087</v>
+        <v>0.440674</v>
       </c>
       <c r="D140" t="n">
-        <v>0.411609</v>
+        <v>0.397093</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.473297</v>
+        <v>0.427283</v>
       </c>
       <c r="C141" t="n">
-        <v>0.468725</v>
+        <v>0.450464</v>
       </c>
       <c r="D141" t="n">
-        <v>0.416722</v>
+        <v>0.403968</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.466527</v>
+        <v>0.439897</v>
       </c>
       <c r="C142" t="n">
-        <v>0.476958</v>
+        <v>0.456879</v>
       </c>
       <c r="D142" t="n">
-        <v>0.420579</v>
+        <v>0.405415</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.494723</v>
+        <v>0.445985</v>
       </c>
       <c r="C143" t="n">
-        <v>0.487978</v>
+        <v>0.463843</v>
       </c>
       <c r="D143" t="n">
-        <v>0.426425</v>
+        <v>0.407361</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167466</v>
+        <v>0.16709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188403</v>
+        <v>0.18801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182539</v>
+        <v>0.181951</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171825</v>
+        <v>0.171599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191151</v>
+        <v>0.191203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182923</v>
+        <v>0.183198</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.17805</v>
+        <v>0.177856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199218</v>
+        <v>0.199274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185803</v>
+        <v>0.18613</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18625</v>
+        <v>0.186768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209429</v>
+        <v>0.209062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188238</v>
+        <v>0.188283</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194704</v>
+        <v>0.194787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224786</v>
+        <v>0.225417</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19372</v>
+        <v>0.193689</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214231</v>
+        <v>0.213989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249485</v>
+        <v>0.249344</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202417</v>
+        <v>0.202545</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245634</v>
+        <v>0.245645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278458</v>
+        <v>0.279195</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214251</v>
+        <v>0.213892</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294487</v>
+        <v>0.294625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326096</v>
+        <v>0.32626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17747</v>
+        <v>0.177508</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159558</v>
+        <v>0.159264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175627</v>
+        <v>0.174623</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177732</v>
+        <v>0.178137</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160151</v>
+        <v>0.160162</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176276</v>
+        <v>0.175383</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177769</v>
+        <v>0.178506</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161357</v>
+        <v>0.16142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.17725</v>
+        <v>0.176524</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178218</v>
+        <v>0.178763</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162447</v>
+        <v>0.16236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178317</v>
+        <v>0.1778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17867</v>
+        <v>0.178424</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164229</v>
+        <v>0.164267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181106</v>
+        <v>0.180455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179402</v>
+        <v>0.179441</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166507</v>
+        <v>0.166272</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18366</v>
+        <v>0.18321</v>
       </c>
       <c r="D15" t="n">
-        <v>0.18011</v>
+        <v>0.180221</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169636</v>
+        <v>0.169482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187604</v>
+        <v>0.187392</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181556</v>
+        <v>0.180858</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173209</v>
+        <v>0.173273</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192193</v>
+        <v>0.191875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182339</v>
+        <v>0.18221</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179026</v>
+        <v>0.179109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19765</v>
+        <v>0.197734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1836</v>
+        <v>0.18409</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187447</v>
+        <v>0.187409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205937</v>
+        <v>0.205517</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186209</v>
+        <v>0.186609</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.198822</v>
+        <v>0.199295</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21936</v>
+        <v>0.218672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190401</v>
+        <v>0.190388</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220408</v>
+        <v>0.219332</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237085</v>
+        <v>0.236583</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195814</v>
+        <v>0.195874</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249013</v>
+        <v>0.248382</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262108</v>
+        <v>0.262726</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206026</v>
+        <v>0.206574</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293642</v>
+        <v>0.293817</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310504</v>
+        <v>0.31152</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17747</v>
+        <v>0.177252</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161669</v>
+        <v>0.161647</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174696</v>
+        <v>0.174274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177844</v>
+        <v>0.177554</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162464</v>
+        <v>0.162373</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175631</v>
+        <v>0.174488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177951</v>
+        <v>0.177621</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163191</v>
+        <v>0.163239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176791</v>
+        <v>0.175476</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177927</v>
+        <v>0.177747</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164449</v>
+        <v>0.164443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17814</v>
+        <v>0.177044</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178192</v>
+        <v>0.178303</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165963</v>
+        <v>0.165967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.180097</v>
+        <v>0.178767</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178612</v>
+        <v>0.178566</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168139</v>
+        <v>0.168132</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182953</v>
+        <v>0.181902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179286</v>
+        <v>0.179207</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171016</v>
+        <v>0.170997</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185666</v>
+        <v>0.18466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180142</v>
+        <v>0.180056</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174439</v>
+        <v>0.174539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189721</v>
+        <v>0.189285</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181153</v>
+        <v>0.181065</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180427</v>
+        <v>0.18009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195481</v>
+        <v>0.194497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183567</v>
+        <v>0.182711</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187834</v>
+        <v>0.187682</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204362</v>
+        <v>0.203544</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186178</v>
+        <v>0.185148</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198421</v>
+        <v>0.198147</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215286</v>
+        <v>0.214618</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189604</v>
+        <v>0.18832</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215071</v>
+        <v>0.21523</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2318</v>
+        <v>0.231105</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194423</v>
+        <v>0.193093</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24338</v>
+        <v>0.243416</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258956</v>
+        <v>0.258401</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203814</v>
+        <v>0.202664</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285627</v>
+        <v>0.28537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300299</v>
+        <v>0.299455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177893</v>
+        <v>0.177752</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162808</v>
+        <v>0.162722</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174433</v>
+        <v>0.174354</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177355</v>
+        <v>0.177894</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163653</v>
+        <v>0.163606</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175514</v>
+        <v>0.175409</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177823</v>
+        <v>0.178177</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16457</v>
+        <v>0.164479</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17651</v>
+        <v>0.17664</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178023</v>
+        <v>0.178396</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165606</v>
+        <v>0.165528</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177819</v>
+        <v>0.177862</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178583</v>
+        <v>0.178762</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167232</v>
+        <v>0.167189</v>
       </c>
       <c r="C42" t="n">
-        <v>0.17927</v>
+        <v>0.179319</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17897</v>
+        <v>0.179245</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169065</v>
+        <v>0.169016</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181498</v>
+        <v>0.181457</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179647</v>
+        <v>0.179642</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171698</v>
+        <v>0.171651</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184768</v>
+        <v>0.184794</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180396</v>
+        <v>0.180521</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175234</v>
+        <v>0.175213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188933</v>
+        <v>0.188967</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181551</v>
+        <v>0.181627</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179821</v>
+        <v>0.17978</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194781</v>
+        <v>0.194742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183316</v>
+        <v>0.183413</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187211</v>
+        <v>0.187155</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202824</v>
+        <v>0.202796</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185491</v>
+        <v>0.185572</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197603</v>
+        <v>0.197556</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214191</v>
+        <v>0.214158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.18873</v>
+        <v>0.188755</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213602</v>
+        <v>0.213531</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230583</v>
+        <v>0.230271</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19334</v>
+        <v>0.193398</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237585</v>
+        <v>0.237503</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257462</v>
+        <v>0.257539</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201952</v>
+        <v>0.201959</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275827</v>
+        <v>0.275652</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293135</v>
+        <v>0.293274</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178189</v>
+        <v>0.177691</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331402</v>
+        <v>0.333023</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349369</v>
+        <v>0.350867</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17849</v>
+        <v>0.178002</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166168</v>
+        <v>0.166684</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176827</v>
+        <v>0.176758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178743</v>
+        <v>0.178324</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.166937</v>
+        <v>0.167606</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178001</v>
+        <v>0.177859</v>
       </c>
       <c r="D54" t="n">
-        <v>0.179095</v>
+        <v>0.17872</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168063</v>
+        <v>0.168531</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179382</v>
+        <v>0.179232</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179485</v>
+        <v>0.179186</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.169599</v>
+        <v>0.170067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.181059</v>
+        <v>0.180945</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180102</v>
+        <v>0.179762</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171414</v>
+        <v>0.171884</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183379</v>
+        <v>0.183248</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180753</v>
+        <v>0.180407</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.173938</v>
+        <v>0.174422</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186722</v>
+        <v>0.186553</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181603</v>
+        <v>0.181274</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177215</v>
+        <v>0.177735</v>
       </c>
       <c r="C59" t="n">
-        <v>0.191044</v>
+        <v>0.190907</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182671</v>
+        <v>0.182377</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182069</v>
+        <v>0.182599</v>
       </c>
       <c r="C60" t="n">
-        <v>0.196379</v>
+        <v>0.19622</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184172</v>
+        <v>0.183865</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188412</v>
+        <v>0.188922</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203941</v>
+        <v>0.203884</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186163</v>
+        <v>0.18586</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197794</v>
+        <v>0.198399</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214635</v>
+        <v>0.214577</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18914</v>
+        <v>0.188892</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212401</v>
+        <v>0.213027</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230443</v>
+        <v>0.230358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194157</v>
+        <v>0.194006</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234461</v>
+        <v>0.235067</v>
       </c>
       <c r="C64" t="n">
-        <v>0.254457</v>
+        <v>0.25435</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202124</v>
+        <v>0.201855</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26776</v>
+        <v>0.268286</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290817</v>
+        <v>0.290711</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216353</v>
+        <v>0.216172</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.319627</v>
+        <v>0.32026</v>
       </c>
       <c r="C66" t="n">
-        <v>0.344246</v>
+        <v>0.343419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18676</v>
+        <v>0.185751</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184471</v>
+        <v>0.185214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.187799</v>
+        <v>0.188184</v>
       </c>
       <c r="D67" t="n">
-        <v>0.186589</v>
+        <v>0.187054</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185405</v>
+        <v>0.18623</v>
       </c>
       <c r="C68" t="n">
-        <v>0.189084</v>
+        <v>0.188924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.186993</v>
+        <v>0.18673</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186549</v>
+        <v>0.186913</v>
       </c>
       <c r="C69" t="n">
-        <v>0.19089</v>
+        <v>0.190716</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187918</v>
+        <v>0.187346</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188097</v>
+        <v>0.188392</v>
       </c>
       <c r="C70" t="n">
-        <v>0.192948</v>
+        <v>0.192766</v>
       </c>
       <c r="D70" t="n">
-        <v>0.188255</v>
+        <v>0.18799</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189805</v>
+        <v>0.19006</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195721</v>
+        <v>0.195481</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18904</v>
+        <v>0.188791</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192125</v>
+        <v>0.192371</v>
       </c>
       <c r="C72" t="n">
-        <v>0.199046</v>
+        <v>0.198836</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190077</v>
+        <v>0.189814</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195125</v>
+        <v>0.195423</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203472</v>
+        <v>0.20329</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191368</v>
+        <v>0.191162</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199319</v>
+        <v>0.199606</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2094</v>
+        <v>0.209195</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193085</v>
+        <v>0.192822</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205317</v>
+        <v>0.205732</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217702</v>
+        <v>0.217544</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195916</v>
+        <v>0.195221</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214192</v>
+        <v>0.214462</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228815</v>
+        <v>0.228673</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198965</v>
+        <v>0.198701</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.226623</v>
+        <v>0.227014</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244283</v>
+        <v>0.244104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20392</v>
+        <v>0.203674</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245758</v>
+        <v>0.2461</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266913</v>
+        <v>0.266734</v>
       </c>
       <c r="D78" t="n">
-        <v>0.211984</v>
+        <v>0.212168</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276898</v>
+        <v>0.277256</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301389</v>
+        <v>0.301201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225646</v>
+        <v>0.225314</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323855</v>
+        <v>0.324182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350774</v>
+        <v>0.350645</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205356</v>
+        <v>0.20525</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.20361</v>
+        <v>0.203176</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205914</v>
+        <v>0.205711</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205577</v>
+        <v>0.205434</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204472</v>
+        <v>0.204121</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206908</v>
+        <v>0.206759</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206024</v>
+        <v>0.205888</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205506</v>
+        <v>0.205208</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208218</v>
+        <v>0.208044</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206457</v>
+        <v>0.20641</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.20686</v>
+        <v>0.206464</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209933</v>
+        <v>0.209822</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207058</v>
+        <v>0.207031</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20845</v>
+        <v>0.208038</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212031</v>
+        <v>0.211869</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207732</v>
+        <v>0.207654</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210491</v>
+        <v>0.210016</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214767</v>
+        <v>0.214573</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208634</v>
+        <v>0.208559</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213219</v>
+        <v>0.212769</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218417</v>
+        <v>0.218305</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209708</v>
+        <v>0.209697</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216996</v>
+        <v>0.216507</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223585</v>
+        <v>0.223495</v>
       </c>
       <c r="D88" t="n">
-        <v>0.21138</v>
+        <v>0.211211</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222225</v>
+        <v>0.221821</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231057</v>
+        <v>0.231006</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213602</v>
+        <v>0.213583</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.230025</v>
+        <v>0.229532</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241062</v>
+        <v>0.240953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216845</v>
+        <v>0.216837</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241664</v>
+        <v>0.241075</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255094</v>
+        <v>0.255088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221696</v>
+        <v>0.221517</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259209</v>
+        <v>0.258641</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275343</v>
+        <v>0.275379</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229263</v>
+        <v>0.229128</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.287006</v>
+        <v>0.28644</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306673</v>
+        <v>0.306991</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241951</v>
+        <v>0.241745</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330594</v>
+        <v>0.330025</v>
       </c>
       <c r="C94" t="n">
-        <v>0.35467</v>
+        <v>0.355154</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214523</v>
+        <v>0.214166</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215759</v>
+        <v>0.215095</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216378</v>
+        <v>0.215962</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214949</v>
+        <v>0.214593</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216696</v>
+        <v>0.216077</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217571</v>
+        <v>0.217262</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215593</v>
+        <v>0.215241</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217849</v>
+        <v>0.217257</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219037</v>
+        <v>0.218625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216084</v>
+        <v>0.215774</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219382</v>
+        <v>0.218665</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220868</v>
+        <v>0.220397</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216773</v>
+        <v>0.216517</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.221123</v>
+        <v>0.220359</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223094</v>
+        <v>0.222699</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217689</v>
+        <v>0.217151</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223394</v>
+        <v>0.222559</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226132</v>
+        <v>0.225756</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218574</v>
+        <v>0.218264</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226497</v>
+        <v>0.225529</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230143</v>
+        <v>0.229861</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219853</v>
+        <v>0.219382</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230527</v>
+        <v>0.229506</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235882</v>
+        <v>0.235657</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221444</v>
+        <v>0.22098</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236335</v>
+        <v>0.235271</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243766</v>
+        <v>0.243778</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223815</v>
+        <v>0.223413</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244656</v>
+        <v>0.243614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254837</v>
+        <v>0.255185</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227188</v>
+        <v>0.226666</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256598</v>
+        <v>0.255461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.270502</v>
+        <v>0.271046</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232144</v>
+        <v>0.231696</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.27525</v>
+        <v>0.274101</v>
       </c>
       <c r="C106" t="n">
-        <v>0.292636</v>
+        <v>0.293163</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239662</v>
+        <v>0.239201</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.303416</v>
+        <v>0.302222</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32531</v>
+        <v>0.325854</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252469</v>
+        <v>0.251962</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.346263</v>
+        <v>0.345285</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373459</v>
+        <v>0.373972</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219039</v>
+        <v>0.219278</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.41143</v>
+        <v>0.410248</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443258</v>
+        <v>0.44166</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22036</v>
+        <v>0.220084</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234555</v>
+        <v>0.233175</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233541</v>
+        <v>0.234269</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220713</v>
+        <v>0.220965</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234263</v>
+        <v>0.234165</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237809</v>
+        <v>0.237881</v>
       </c>
       <c r="D111" t="n">
-        <v>0.221996</v>
+        <v>0.22165</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243865</v>
+        <v>0.242317</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245467</v>
+        <v>0.244492</v>
       </c>
       <c r="D112" t="n">
-        <v>0.22385</v>
+        <v>0.223287</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.245502</v>
+        <v>0.249475</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250807</v>
+        <v>0.251784</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225825</v>
+        <v>0.224699</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256653</v>
+        <v>0.256386</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259727</v>
+        <v>0.259357</v>
       </c>
       <c r="D114" t="n">
-        <v>0.22684</v>
+        <v>0.227874</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263798</v>
+        <v>0.263496</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267118</v>
+        <v>0.26806</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2295</v>
+        <v>0.229987</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.27228</v>
+        <v>0.272047</v>
       </c>
       <c r="C116" t="n">
-        <v>0.276659</v>
+        <v>0.278216</v>
       </c>
       <c r="D116" t="n">
-        <v>0.234578</v>
+        <v>0.23331</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28232</v>
+        <v>0.282029</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290065</v>
+        <v>0.289924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240002</v>
+        <v>0.239163</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289596</v>
+        <v>0.29406</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304071</v>
+        <v>0.303512</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246169</v>
+        <v>0.245655</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309483</v>
+        <v>0.304145</v>
       </c>
       <c r="C119" t="n">
-        <v>0.319229</v>
+        <v>0.31915</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255542</v>
+        <v>0.253456</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.324814</v>
+        <v>0.329305</v>
       </c>
       <c r="C120" t="n">
-        <v>0.342491</v>
+        <v>0.344919</v>
       </c>
       <c r="D120" t="n">
-        <v>0.265296</v>
+        <v>0.266476</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359421</v>
+        <v>0.359134</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378577</v>
+        <v>0.374747</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281975</v>
+        <v>0.283103</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.397372</v>
+        <v>0.403148</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428499</v>
+        <v>0.428421</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307029</v>
+        <v>0.30846</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.463687</v>
+        <v>0.471035</v>
       </c>
       <c r="C123" t="n">
-        <v>0.50666</v>
+        <v>0.506572</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250389</v>
+        <v>0.248594</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.270037</v>
+        <v>0.290387</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284043</v>
+        <v>0.286535</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251922</v>
+        <v>0.254076</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.277887</v>
+        <v>0.287229</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289804</v>
+        <v>0.289188</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255901</v>
+        <v>0.256051</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.304398</v>
+        <v>0.291136</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295051</v>
+        <v>0.294969</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260281</v>
+        <v>0.25927</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.282727</v>
+        <v>0.29725</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300514</v>
+        <v>0.300181</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263291</v>
+        <v>0.263131</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305652</v>
+        <v>0.302458</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306224</v>
+        <v>0.304431</v>
       </c>
       <c r="D128" t="n">
-        <v>0.267077</v>
+        <v>0.264692</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.306854</v>
+        <v>0.313057</v>
       </c>
       <c r="C129" t="n">
-        <v>0.312064</v>
+        <v>0.310464</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269957</v>
+        <v>0.267997</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.300006</v>
+        <v>0.31351</v>
       </c>
       <c r="C130" t="n">
-        <v>0.319509</v>
+        <v>0.320935</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272468</v>
+        <v>0.274148</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322742</v>
+        <v>0.309922</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331386</v>
+        <v>0.331603</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278012</v>
+        <v>0.277689</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334924</v>
+        <v>0.332929</v>
       </c>
       <c r="C132" t="n">
-        <v>0.346444</v>
+        <v>0.34582</v>
       </c>
       <c r="D132" t="n">
-        <v>0.285157</v>
+        <v>0.283954</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.348176</v>
+        <v>0.34877</v>
       </c>
       <c r="C133" t="n">
-        <v>0.365286</v>
+        <v>0.361887</v>
       </c>
       <c r="D133" t="n">
-        <v>0.292208</v>
+        <v>0.289325</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370943</v>
+        <v>0.367707</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3906</v>
+        <v>0.389628</v>
       </c>
       <c r="D134" t="n">
-        <v>0.302317</v>
+        <v>0.300868</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.397219</v>
+        <v>0.397775</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424536</v>
+        <v>0.423499</v>
       </c>
       <c r="D135" t="n">
-        <v>0.315364</v>
+        <v>0.315273</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441101</v>
+        <v>0.441543</v>
       </c>
       <c r="C136" t="n">
-        <v>0.477801</v>
+        <v>0.473939</v>
       </c>
       <c r="D136" t="n">
-        <v>0.339298</v>
+        <v>0.337781</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.51071</v>
+        <v>0.511507</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5511779999999999</v>
+        <v>0.552766</v>
       </c>
       <c r="D137" t="n">
-        <v>0.390039</v>
+        <v>0.38776</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.417233</v>
+        <v>0.449702</v>
       </c>
       <c r="C138" t="n">
-        <v>0.42694</v>
+        <v>0.427474</v>
       </c>
       <c r="D138" t="n">
-        <v>0.385781</v>
+        <v>0.387902</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.444687</v>
+        <v>0.453971</v>
       </c>
       <c r="C139" t="n">
-        <v>0.435661</v>
+        <v>0.432742</v>
       </c>
       <c r="D139" t="n">
-        <v>0.394069</v>
+        <v>0.390751</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.446371</v>
+        <v>0.454913</v>
       </c>
       <c r="C140" t="n">
-        <v>0.440674</v>
+        <v>0.437964</v>
       </c>
       <c r="D140" t="n">
-        <v>0.397093</v>
+        <v>0.391597</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.427283</v>
+        <v>0.461598</v>
       </c>
       <c r="C141" t="n">
-        <v>0.450464</v>
+        <v>0.448305</v>
       </c>
       <c r="D141" t="n">
-        <v>0.403968</v>
+        <v>0.401133</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.439897</v>
+        <v>0.457119</v>
       </c>
       <c r="C142" t="n">
-        <v>0.456879</v>
+        <v>0.455847</v>
       </c>
       <c r="D142" t="n">
-        <v>0.405415</v>
+        <v>0.4047</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.445985</v>
+        <v>0.465654</v>
       </c>
       <c r="C143" t="n">
-        <v>0.463843</v>
+        <v>0.462849</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407361</v>
+        <v>0.406481</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16709</v>
+        <v>0.167254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18801</v>
+        <v>0.188374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181951</v>
+        <v>0.182347</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171599</v>
+        <v>0.17164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191203</v>
+        <v>0.19109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183198</v>
+        <v>0.183519</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177856</v>
+        <v>0.178478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199274</v>
+        <v>0.199172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18613</v>
+        <v>0.186083</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186768</v>
+        <v>0.186665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209062</v>
+        <v>0.209833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188283</v>
+        <v>0.188855</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194787</v>
+        <v>0.194901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225417</v>
+        <v>0.224787</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193689</v>
+        <v>0.193601</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213989</v>
+        <v>0.214637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249344</v>
+        <v>0.249489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202545</v>
+        <v>0.2034</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245645</v>
+        <v>0.245901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279195</v>
+        <v>0.279378</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213892</v>
+        <v>0.214001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294625</v>
+        <v>0.295114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32626</v>
+        <v>0.326767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177508</v>
+        <v>0.177945</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159264</v>
+        <v>0.159832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174623</v>
+        <v>0.175184</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178137</v>
+        <v>0.177929</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160162</v>
+        <v>0.160264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175383</v>
+        <v>0.175637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178506</v>
+        <v>0.178295</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16142</v>
+        <v>0.161606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176524</v>
+        <v>0.176684</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178763</v>
+        <v>0.178542</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.16236</v>
+        <v>0.162635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1778</v>
+        <v>0.178335</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178424</v>
+        <v>0.178967</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164267</v>
+        <v>0.16437</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180455</v>
+        <v>0.181165</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179441</v>
+        <v>0.180141</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166272</v>
+        <v>0.166469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18321</v>
+        <v>0.183263</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180221</v>
+        <v>0.180521</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169482</v>
+        <v>0.169457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187392</v>
+        <v>0.187219</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180858</v>
+        <v>0.18161</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173273</v>
+        <v>0.173412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191875</v>
+        <v>0.191902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18221</v>
+        <v>0.182511</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179109</v>
+        <v>0.179231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197734</v>
+        <v>0.197617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18409</v>
+        <v>0.184101</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187409</v>
+        <v>0.18763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205517</v>
+        <v>0.205815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186609</v>
+        <v>0.186845</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199295</v>
+        <v>0.199307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218672</v>
+        <v>0.219268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190388</v>
+        <v>0.190637</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219332</v>
+        <v>0.219672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236583</v>
+        <v>0.236859</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195874</v>
+        <v>0.196418</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248382</v>
+        <v>0.248721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262726</v>
+        <v>0.262381</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206574</v>
+        <v>0.208203</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293817</v>
+        <v>0.294375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31152</v>
+        <v>0.311367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177252</v>
+        <v>0.177109</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161647</v>
+        <v>0.161504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174274</v>
+        <v>0.174175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177554</v>
+        <v>0.177337</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162373</v>
+        <v>0.162251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174488</v>
+        <v>0.174988</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177621</v>
+        <v>0.177608</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163239</v>
+        <v>0.163944</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175476</v>
+        <v>0.176011</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177747</v>
+        <v>0.177882</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164443</v>
+        <v>0.164845</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177044</v>
+        <v>0.177526</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178303</v>
+        <v>0.178544</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165967</v>
+        <v>0.166173</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178767</v>
+        <v>0.179666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178566</v>
+        <v>0.180015</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168132</v>
+        <v>0.168281</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181902</v>
+        <v>0.182525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179207</v>
+        <v>0.180678</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.170997</v>
+        <v>0.171137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18466</v>
+        <v>0.185367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180056</v>
+        <v>0.181538</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174539</v>
+        <v>0.174623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189285</v>
+        <v>0.189545</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181065</v>
+        <v>0.182541</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18009</v>
+        <v>0.180157</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194497</v>
+        <v>0.195326</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182711</v>
+        <v>0.184195</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187682</v>
+        <v>0.187738</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203544</v>
+        <v>0.20417</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185148</v>
+        <v>0.186586</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198147</v>
+        <v>0.198393</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214618</v>
+        <v>0.215189</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18832</v>
+        <v>0.189887</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.21523</v>
+        <v>0.215488</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231105</v>
+        <v>0.231865</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193093</v>
+        <v>0.194534</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243416</v>
+        <v>0.243481</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258401</v>
+        <v>0.259185</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202664</v>
+        <v>0.203639</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28537</v>
+        <v>0.285832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299455</v>
+        <v>0.300651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177752</v>
+        <v>0.176978</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162722</v>
+        <v>0.162818</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174354</v>
+        <v>0.174727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177894</v>
+        <v>0.177155</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163606</v>
+        <v>0.163616</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175409</v>
+        <v>0.175735</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177</v>
+        <v>0.177584</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164479</v>
+        <v>0.164502</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17664</v>
+        <v>0.176612</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178396</v>
+        <v>0.177865</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165528</v>
+        <v>0.165598</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177862</v>
+        <v>0.177833</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178762</v>
+        <v>0.178294</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167189</v>
+        <v>0.167175</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179319</v>
+        <v>0.179326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179245</v>
+        <v>0.178787</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169016</v>
+        <v>0.168985</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181457</v>
+        <v>0.181466</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179642</v>
+        <v>0.179293</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171651</v>
+        <v>0.171518</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184794</v>
+        <v>0.184731</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180521</v>
+        <v>0.180193</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175213</v>
+        <v>0.175134</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188967</v>
+        <v>0.189028</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181627</v>
+        <v>0.181383</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17978</v>
+        <v>0.179701</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194742</v>
+        <v>0.194813</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183413</v>
+        <v>0.183099</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187155</v>
+        <v>0.187093</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202796</v>
+        <v>0.202866</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185572</v>
+        <v>0.185219</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197556</v>
+        <v>0.197422</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214158</v>
+        <v>0.214212</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188755</v>
+        <v>0.188503</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213531</v>
+        <v>0.213346</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230271</v>
+        <v>0.230327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193398</v>
+        <v>0.193221</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237503</v>
+        <v>0.237473</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257539</v>
+        <v>0.257431</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201959</v>
+        <v>0.202555</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275652</v>
+        <v>0.275353</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293274</v>
+        <v>0.293152</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177691</v>
+        <v>0.17793</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333023</v>
+        <v>0.330901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350867</v>
+        <v>0.349414</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178002</v>
+        <v>0.178305</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166684</v>
+        <v>0.166596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176758</v>
+        <v>0.176225</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178324</v>
+        <v>0.178624</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167606</v>
+        <v>0.167348</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177859</v>
+        <v>0.177369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17872</v>
+        <v>0.178997</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168531</v>
+        <v>0.168465</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179232</v>
+        <v>0.178777</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179186</v>
+        <v>0.179471</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170067</v>
+        <v>0.170013</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180945</v>
+        <v>0.18043</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179762</v>
+        <v>0.179952</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171884</v>
+        <v>0.171847</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183248</v>
+        <v>0.182711</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180407</v>
+        <v>0.180578</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174422</v>
+        <v>0.174414</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186553</v>
+        <v>0.186045</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181274</v>
+        <v>0.181366</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177735</v>
+        <v>0.177702</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190907</v>
+        <v>0.190272</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182377</v>
+        <v>0.182412</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182599</v>
+        <v>0.182533</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19622</v>
+        <v>0.195478</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183865</v>
+        <v>0.183933</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188922</v>
+        <v>0.188857</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203884</v>
+        <v>0.202938</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18586</v>
+        <v>0.185744</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198399</v>
+        <v>0.198167</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214577</v>
+        <v>0.213419</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188892</v>
+        <v>0.188622</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213027</v>
+        <v>0.212785</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230358</v>
+        <v>0.229025</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194006</v>
+        <v>0.193491</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235067</v>
+        <v>0.234788</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25435</v>
+        <v>0.252385</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201855</v>
+        <v>0.201252</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268286</v>
+        <v>0.267891</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290711</v>
+        <v>0.287773</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216172</v>
+        <v>0.215043</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32026</v>
+        <v>0.319839</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343419</v>
+        <v>0.339289</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185751</v>
+        <v>0.184026</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185214</v>
+        <v>0.18378</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188184</v>
+        <v>0.184144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187054</v>
+        <v>0.183819</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18623</v>
+        <v>0.184167</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188924</v>
+        <v>0.185413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18673</v>
+        <v>0.184246</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186913</v>
+        <v>0.185308</v>
       </c>
       <c r="C69" t="n">
-        <v>0.190716</v>
+        <v>0.187112</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187346</v>
+        <v>0.184761</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188392</v>
+        <v>0.186776</v>
       </c>
       <c r="C70" t="n">
-        <v>0.192766</v>
+        <v>0.189072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18799</v>
+        <v>0.185413</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19006</v>
+        <v>0.18857</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195481</v>
+        <v>0.191653</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188791</v>
+        <v>0.186128</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192371</v>
+        <v>0.190888</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198836</v>
+        <v>0.194843</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189814</v>
+        <v>0.187064</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195423</v>
+        <v>0.193968</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20329</v>
+        <v>0.19906</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191162</v>
+        <v>0.18833</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199606</v>
+        <v>0.198202</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209195</v>
+        <v>0.204764</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192822</v>
+        <v>0.1899</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205732</v>
+        <v>0.204268</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217544</v>
+        <v>0.212756</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195221</v>
+        <v>0.19221</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214462</v>
+        <v>0.21313</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228673</v>
+        <v>0.223469</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198701</v>
+        <v>0.195911</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227014</v>
+        <v>0.22573</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244104</v>
+        <v>0.238428</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203674</v>
+        <v>0.200497</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2461</v>
+        <v>0.244865</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266734</v>
+        <v>0.260338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212168</v>
+        <v>0.207498</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277256</v>
+        <v>0.276158</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301201</v>
+        <v>0.293824</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225314</v>
+        <v>0.22054</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324182</v>
+        <v>0.323242</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350645</v>
+        <v>0.342086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20525</v>
+        <v>0.203651</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203176</v>
+        <v>0.203369</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205711</v>
+        <v>0.204123</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205434</v>
+        <v>0.203841</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204121</v>
+        <v>0.204017</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206759</v>
+        <v>0.205161</v>
       </c>
       <c r="D82" t="n">
-        <v>0.205888</v>
+        <v>0.204268</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205208</v>
+        <v>0.205094</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208044</v>
+        <v>0.206375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20641</v>
+        <v>0.204795</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206464</v>
+        <v>0.206588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209822</v>
+        <v>0.208144</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207031</v>
+        <v>0.205243</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208038</v>
+        <v>0.208091</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211869</v>
+        <v>0.210259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207654</v>
+        <v>0.205919</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210016</v>
+        <v>0.210116</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214573</v>
+        <v>0.212904</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208559</v>
+        <v>0.206914</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212769</v>
+        <v>0.212798</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218305</v>
+        <v>0.216665</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209697</v>
+        <v>0.207953</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216507</v>
+        <v>0.216647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223495</v>
+        <v>0.221828</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211211</v>
+        <v>0.209504</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221821</v>
+        <v>0.221989</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231006</v>
+        <v>0.229155</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213583</v>
+        <v>0.211824</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229532</v>
+        <v>0.229748</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240953</v>
+        <v>0.239167</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216837</v>
+        <v>0.215095</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241075</v>
+        <v>0.241291</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255088</v>
+        <v>0.253146</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221517</v>
+        <v>0.219806</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258641</v>
+        <v>0.258871</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275379</v>
+        <v>0.273389</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229128</v>
+        <v>0.227301</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.28644</v>
+        <v>0.286673</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306991</v>
+        <v>0.304786</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241745</v>
+        <v>0.239759</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330025</v>
+        <v>0.33028</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355154</v>
+        <v>0.352719</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214166</v>
+        <v>0.213448</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215095</v>
+        <v>0.213664</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215962</v>
+        <v>0.21503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214593</v>
+        <v>0.213712</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216077</v>
+        <v>0.214492</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217262</v>
+        <v>0.216155</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215241</v>
+        <v>0.214264</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217257</v>
+        <v>0.215835</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218625</v>
+        <v>0.217668</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215774</v>
+        <v>0.214771</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218665</v>
+        <v>0.217245</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220397</v>
+        <v>0.219434</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216517</v>
+        <v>0.21543</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220359</v>
+        <v>0.219096</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222699</v>
+        <v>0.221724</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217151</v>
+        <v>0.216202</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222559</v>
+        <v>0.22132</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225756</v>
+        <v>0.224825</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218264</v>
+        <v>0.217197</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225529</v>
+        <v>0.224433</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229861</v>
+        <v>0.229066</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219382</v>
+        <v>0.218289</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229506</v>
+        <v>0.228653</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235657</v>
+        <v>0.234723</v>
       </c>
       <c r="D102" t="n">
-        <v>0.22098</v>
+        <v>0.219772</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.235271</v>
+        <v>0.234566</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243778</v>
+        <v>0.242944</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223413</v>
+        <v>0.222291</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243614</v>
+        <v>0.243201</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255185</v>
+        <v>0.254485</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226666</v>
+        <v>0.225543</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255461</v>
+        <v>0.255528</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271046</v>
+        <v>0.270185</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231696</v>
+        <v>0.230533</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274101</v>
+        <v>0.274304</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293163</v>
+        <v>0.291907</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239201</v>
+        <v>0.238199</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302222</v>
+        <v>0.302637</v>
       </c>
       <c r="C107" t="n">
-        <v>0.325854</v>
+        <v>0.324511</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251962</v>
+        <v>0.25124</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345285</v>
+        <v>0.345584</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373972</v>
+        <v>0.372422</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219278</v>
+        <v>0.219452</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410248</v>
+        <v>0.413502</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44166</v>
+        <v>0.444219</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220084</v>
+        <v>0.219937</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.233175</v>
+        <v>0.235191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234269</v>
+        <v>0.234378</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220965</v>
+        <v>0.221408</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234165</v>
+        <v>0.235401</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237881</v>
+        <v>0.240064</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22165</v>
+        <v>0.222574</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242317</v>
+        <v>0.241506</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244492</v>
+        <v>0.246254</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223287</v>
+        <v>0.223725</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249475</v>
+        <v>0.249938</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251784</v>
+        <v>0.252511</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224699</v>
+        <v>0.225843</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256386</v>
+        <v>0.252585</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259357</v>
+        <v>0.260265</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227874</v>
+        <v>0.228345</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263496</v>
+        <v>0.263776</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26806</v>
+        <v>0.2682</v>
       </c>
       <c r="D115" t="n">
-        <v>0.229987</v>
+        <v>0.23141</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272047</v>
+        <v>0.272636</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278216</v>
+        <v>0.278288</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23331</v>
+        <v>0.235492</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282029</v>
+        <v>0.282277</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289924</v>
+        <v>0.289855</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239163</v>
+        <v>0.240699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29406</v>
+        <v>0.289348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303512</v>
+        <v>0.303793</v>
       </c>
       <c r="D118" t="n">
-        <v>0.245655</v>
+        <v>0.246939</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304145</v>
+        <v>0.309218</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31915</v>
+        <v>0.32159</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253456</v>
+        <v>0.25542</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329305</v>
+        <v>0.329935</v>
       </c>
       <c r="C120" t="n">
-        <v>0.344919</v>
+        <v>0.342579</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266476</v>
+        <v>0.266858</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359134</v>
+        <v>0.359511</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374747</v>
+        <v>0.375037</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283103</v>
+        <v>0.281698</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403148</v>
+        <v>0.403096</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428421</v>
+        <v>0.429172</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30846</v>
+        <v>0.308623</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471035</v>
+        <v>0.470728</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506572</v>
+        <v>0.5072719999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248594</v>
+        <v>0.249103</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.290387</v>
+        <v>0.282763</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286535</v>
+        <v>0.283889</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254076</v>
+        <v>0.251625</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287229</v>
+        <v>0.287397</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289188</v>
+        <v>0.287426</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256051</v>
+        <v>0.254434</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291136</v>
+        <v>0.292849</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294969</v>
+        <v>0.294283</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25927</v>
+        <v>0.258772</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29725</v>
+        <v>0.301433</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300181</v>
+        <v>0.298718</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263131</v>
+        <v>0.261616</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302458</v>
+        <v>0.303379</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304431</v>
+        <v>0.304322</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264692</v>
+        <v>0.264895</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313057</v>
+        <v>0.293327</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310464</v>
+        <v>0.311742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267997</v>
+        <v>0.268818</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31351</v>
+        <v>0.314763</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320935</v>
+        <v>0.321498</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274148</v>
+        <v>0.274193</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.309922</v>
+        <v>0.322681</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331603</v>
+        <v>0.332003</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277689</v>
+        <v>0.278215</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.332929</v>
+        <v>0.333895</v>
       </c>
       <c r="C132" t="n">
-        <v>0.34582</v>
+        <v>0.345306</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283954</v>
+        <v>0.283663</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.34877</v>
+        <v>0.350485</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361887</v>
+        <v>0.361745</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289325</v>
+        <v>0.290062</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367707</v>
+        <v>0.368641</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389628</v>
+        <v>0.388962</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300868</v>
+        <v>0.30108</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.397775</v>
+        <v>0.400215</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423499</v>
+        <v>0.422258</v>
       </c>
       <c r="D135" t="n">
-        <v>0.315273</v>
+        <v>0.314867</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441543</v>
+        <v>0.44057</v>
       </c>
       <c r="C136" t="n">
-        <v>0.473939</v>
+        <v>0.476271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337781</v>
+        <v>0.338661</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511507</v>
+        <v>0.509806</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552766</v>
+        <v>0.552287</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38776</v>
+        <v>0.38721</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449702</v>
+        <v>0.417377</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427474</v>
+        <v>0.43527</v>
       </c>
       <c r="D138" t="n">
-        <v>0.387902</v>
+        <v>0.395995</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453971</v>
+        <v>0.448408</v>
       </c>
       <c r="C139" t="n">
-        <v>0.432742</v>
+        <v>0.440018</v>
       </c>
       <c r="D139" t="n">
-        <v>0.390751</v>
+        <v>0.39821</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454913</v>
+        <v>0.448459</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437964</v>
+        <v>0.439341</v>
       </c>
       <c r="D140" t="n">
-        <v>0.391597</v>
+        <v>0.395507</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461598</v>
+        <v>0.447593</v>
       </c>
       <c r="C141" t="n">
-        <v>0.448305</v>
+        <v>0.450819</v>
       </c>
       <c r="D141" t="n">
-        <v>0.401133</v>
+        <v>0.404143</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.457119</v>
+        <v>0.466226</v>
       </c>
       <c r="C142" t="n">
-        <v>0.455847</v>
+        <v>0.462806</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4047</v>
+        <v>0.41449</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.465654</v>
+        <v>0.45005</v>
       </c>
       <c r="C143" t="n">
-        <v>0.462849</v>
+        <v>0.468935</v>
       </c>
       <c r="D143" t="n">
-        <v>0.406481</v>
+        <v>0.415127</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167254</v>
+        <v>0.169344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188374</v>
+        <v>0.188798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182347</v>
+        <v>0.182612</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17164</v>
+        <v>0.171447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19109</v>
+        <v>0.191241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183519</v>
+        <v>0.183278</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178478</v>
+        <v>0.178313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199172</v>
+        <v>0.199328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186083</v>
+        <v>0.185709</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186665</v>
+        <v>0.188024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209833</v>
+        <v>0.209326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188855</v>
+        <v>0.188249</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194901</v>
+        <v>0.196458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224787</v>
+        <v>0.223835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193601</v>
+        <v>0.193995</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214637</v>
+        <v>0.216083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249489</v>
+        <v>0.248513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2034</v>
+        <v>0.202458</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245901</v>
+        <v>0.245619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279378</v>
+        <v>0.279537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214001</v>
+        <v>0.213749</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295114</v>
+        <v>0.295668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326767</v>
+        <v>0.326507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177945</v>
+        <v>0.177724</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159832</v>
+        <v>0.159886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175184</v>
+        <v>0.17477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177929</v>
+        <v>0.177979</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160264</v>
+        <v>0.160353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175637</v>
+        <v>0.175394</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178295</v>
+        <v>0.178339</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161606</v>
+        <v>0.161506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176684</v>
+        <v>0.176432</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178542</v>
+        <v>0.178493</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162635</v>
+        <v>0.163038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178335</v>
+        <v>0.177744</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178967</v>
+        <v>0.178854</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16437</v>
+        <v>0.164497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181165</v>
+        <v>0.180511</v>
       </c>
       <c r="D14" t="n">
-        <v>0.180141</v>
+        <v>0.179389</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166469</v>
+        <v>0.16668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183263</v>
+        <v>0.182971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180521</v>
+        <v>0.180475</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169457</v>
+        <v>0.16993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187219</v>
+        <v>0.186816</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18161</v>
+        <v>0.180981</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173412</v>
+        <v>0.173818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191902</v>
+        <v>0.191587</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182511</v>
+        <v>0.18246</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179231</v>
+        <v>0.179282</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197617</v>
+        <v>0.197002</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184101</v>
+        <v>0.183898</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18763</v>
+        <v>0.187504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205815</v>
+        <v>0.205323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186845</v>
+        <v>0.186577</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199307</v>
+        <v>0.199231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.219268</v>
+        <v>0.218583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190637</v>
+        <v>0.19038</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219672</v>
+        <v>0.219496</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236859</v>
+        <v>0.236268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196418</v>
+        <v>0.195877</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248721</v>
+        <v>0.248483</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262381</v>
+        <v>0.261907</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208203</v>
+        <v>0.206063</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.294375</v>
+        <v>0.293578</v>
       </c>
       <c r="C23" t="n">
-        <v>0.311367</v>
+        <v>0.310382</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177109</v>
+        <v>0.177516</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161504</v>
+        <v>0.161708</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174175</v>
+        <v>0.173609</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177337</v>
+        <v>0.177437</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162251</v>
+        <v>0.16296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174988</v>
+        <v>0.174482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177608</v>
+        <v>0.177656</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163944</v>
+        <v>0.163305</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176011</v>
+        <v>0.175419</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177882</v>
+        <v>0.177951</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164845</v>
+        <v>0.16503</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177526</v>
+        <v>0.177011</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178544</v>
+        <v>0.178175</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166173</v>
+        <v>0.166209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179666</v>
+        <v>0.178689</v>
       </c>
       <c r="D28" t="n">
-        <v>0.180015</v>
+        <v>0.17869</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168281</v>
+        <v>0.16843</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182525</v>
+        <v>0.181643</v>
       </c>
       <c r="D29" t="n">
-        <v>0.180678</v>
+        <v>0.17935</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171137</v>
+        <v>0.171305</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185367</v>
+        <v>0.184489</v>
       </c>
       <c r="D30" t="n">
-        <v>0.181538</v>
+        <v>0.180238</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174623</v>
+        <v>0.175452</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189545</v>
+        <v>0.188997</v>
       </c>
       <c r="D31" t="n">
-        <v>0.182541</v>
+        <v>0.181214</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180157</v>
+        <v>0.180465</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195326</v>
+        <v>0.194403</v>
       </c>
       <c r="D32" t="n">
-        <v>0.184195</v>
+        <v>0.182965</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187738</v>
+        <v>0.187597</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20417</v>
+        <v>0.203496</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186586</v>
+        <v>0.186187</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198393</v>
+        <v>0.198177</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215189</v>
+        <v>0.214315</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189887</v>
+        <v>0.189281</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215488</v>
+        <v>0.215111</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231865</v>
+        <v>0.230987</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194534</v>
+        <v>0.194012</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243481</v>
+        <v>0.243442</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259185</v>
+        <v>0.25828</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203639</v>
+        <v>0.202689</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285832</v>
+        <v>0.285882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300651</v>
+        <v>0.299828</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176978</v>
+        <v>0.177491</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162818</v>
+        <v>0.162755</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174727</v>
+        <v>0.174464</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177155</v>
+        <v>0.177235</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163616</v>
+        <v>0.163661</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175735</v>
+        <v>0.175536</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177584</v>
+        <v>0.17772</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164502</v>
+        <v>0.164574</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176612</v>
+        <v>0.176469</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177865</v>
+        <v>0.178011</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165598</v>
+        <v>0.165626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177833</v>
+        <v>0.17768</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178294</v>
+        <v>0.178369</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167175</v>
+        <v>0.167231</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179326</v>
+        <v>0.179228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178787</v>
+        <v>0.178864</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.168985</v>
+        <v>0.169018</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181466</v>
+        <v>0.181347</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179293</v>
+        <v>0.179412</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171518</v>
+        <v>0.171657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184731</v>
+        <v>0.184592</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180193</v>
+        <v>0.180363</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175134</v>
+        <v>0.175245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189028</v>
+        <v>0.188831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181383</v>
+        <v>0.181549</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179701</v>
+        <v>0.179876</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194813</v>
+        <v>0.194592</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183099</v>
+        <v>0.183349</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187093</v>
+        <v>0.187282</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202866</v>
+        <v>0.202542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185219</v>
+        <v>0.185429</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197422</v>
+        <v>0.197765</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214212</v>
+        <v>0.21392</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188503</v>
+        <v>0.188589</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213346</v>
+        <v>0.213689</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230327</v>
+        <v>0.229788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193221</v>
+        <v>0.193826</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237473</v>
+        <v>0.237868</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257431</v>
+        <v>0.257166</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202555</v>
+        <v>0.201682</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275353</v>
+        <v>0.275666</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293152</v>
+        <v>0.29383</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17793</v>
+        <v>0.179769</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.330901</v>
+        <v>0.331807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349414</v>
+        <v>0.349036</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178305</v>
+        <v>0.179898</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166596</v>
+        <v>0.166711</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176225</v>
+        <v>0.179317</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178624</v>
+        <v>0.180302</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167348</v>
+        <v>0.16737</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177369</v>
+        <v>0.180526</v>
       </c>
       <c r="D54" t="n">
-        <v>0.178997</v>
+        <v>0.180701</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168465</v>
+        <v>0.168507</v>
       </c>
       <c r="C55" t="n">
-        <v>0.178777</v>
+        <v>0.182009</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179471</v>
+        <v>0.181158</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170013</v>
+        <v>0.170079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.18043</v>
+        <v>0.183762</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179952</v>
+        <v>0.181766</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171847</v>
+        <v>0.171869</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182711</v>
+        <v>0.186159</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180578</v>
+        <v>0.182452</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174414</v>
+        <v>0.1744</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186045</v>
+        <v>0.18965</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181366</v>
+        <v>0.183412</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177702</v>
+        <v>0.177718</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190272</v>
+        <v>0.194104</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182412</v>
+        <v>0.184487</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182533</v>
+        <v>0.182568</v>
       </c>
       <c r="C60" t="n">
-        <v>0.195478</v>
+        <v>0.199508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183933</v>
+        <v>0.186115</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188857</v>
+        <v>0.188944</v>
       </c>
       <c r="C61" t="n">
-        <v>0.202938</v>
+        <v>0.207132</v>
       </c>
       <c r="D61" t="n">
-        <v>0.185744</v>
+        <v>0.188146</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198167</v>
+        <v>0.198345</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213419</v>
+        <v>0.217888</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188622</v>
+        <v>0.191233</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212785</v>
+        <v>0.212934</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229025</v>
+        <v>0.23366</v>
       </c>
       <c r="D63" t="n">
-        <v>0.193491</v>
+        <v>0.196333</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234788</v>
+        <v>0.235256</v>
       </c>
       <c r="C64" t="n">
-        <v>0.252385</v>
+        <v>0.257785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201252</v>
+        <v>0.204594</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267891</v>
+        <v>0.268354</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287773</v>
+        <v>0.294282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215043</v>
+        <v>0.218903</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.319839</v>
+        <v>0.32032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339289</v>
+        <v>0.347193</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184026</v>
+        <v>0.187342</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18378</v>
+        <v>0.184133</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184144</v>
+        <v>0.188175</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183819</v>
+        <v>0.187276</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184167</v>
+        <v>0.184558</v>
       </c>
       <c r="C68" t="n">
-        <v>0.185413</v>
+        <v>0.18943</v>
       </c>
       <c r="D68" t="n">
-        <v>0.184246</v>
+        <v>0.187714</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185308</v>
+        <v>0.185788</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187112</v>
+        <v>0.191204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.184761</v>
+        <v>0.188257</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186776</v>
+        <v>0.187161</v>
       </c>
       <c r="C70" t="n">
-        <v>0.189072</v>
+        <v>0.193195</v>
       </c>
       <c r="D70" t="n">
-        <v>0.185413</v>
+        <v>0.188875</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18857</v>
+        <v>0.188954</v>
       </c>
       <c r="C71" t="n">
-        <v>0.191653</v>
+        <v>0.195889</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186128</v>
+        <v>0.189595</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190888</v>
+        <v>0.191202</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194843</v>
+        <v>0.199222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.187064</v>
+        <v>0.190635</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.193968</v>
+        <v>0.194386</v>
       </c>
       <c r="C73" t="n">
-        <v>0.19906</v>
+        <v>0.203547</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18833</v>
+        <v>0.191948</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198202</v>
+        <v>0.198649</v>
       </c>
       <c r="C74" t="n">
-        <v>0.204764</v>
+        <v>0.209467</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1899</v>
+        <v>0.193575</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204268</v>
+        <v>0.204586</v>
       </c>
       <c r="C75" t="n">
-        <v>0.212756</v>
+        <v>0.217796</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19221</v>
+        <v>0.195956</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21313</v>
+        <v>0.213554</v>
       </c>
       <c r="C76" t="n">
-        <v>0.223469</v>
+        <v>0.228799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.195911</v>
+        <v>0.199403</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22573</v>
+        <v>0.226186</v>
       </c>
       <c r="C77" t="n">
-        <v>0.238428</v>
+        <v>0.244212</v>
       </c>
       <c r="D77" t="n">
-        <v>0.200497</v>
+        <v>0.204366</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244865</v>
+        <v>0.245425</v>
       </c>
       <c r="C78" t="n">
-        <v>0.260338</v>
+        <v>0.266668</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207498</v>
+        <v>0.212318</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276158</v>
+        <v>0.276907</v>
       </c>
       <c r="C79" t="n">
-        <v>0.293824</v>
+        <v>0.301134</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22054</v>
+        <v>0.225986</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323242</v>
+        <v>0.323323</v>
       </c>
       <c r="C80" t="n">
-        <v>0.342086</v>
+        <v>0.350655</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203651</v>
+        <v>0.205368</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203369</v>
+        <v>0.203243</v>
       </c>
       <c r="C81" t="n">
-        <v>0.204123</v>
+        <v>0.205935</v>
       </c>
       <c r="D81" t="n">
-        <v>0.203841</v>
+        <v>0.205649</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204017</v>
+        <v>0.203987</v>
       </c>
       <c r="C82" t="n">
-        <v>0.205161</v>
+        <v>0.20691</v>
       </c>
       <c r="D82" t="n">
-        <v>0.204268</v>
+        <v>0.206045</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205094</v>
+        <v>0.205086</v>
       </c>
       <c r="C83" t="n">
-        <v>0.206375</v>
+        <v>0.208196</v>
       </c>
       <c r="D83" t="n">
-        <v>0.204795</v>
+        <v>0.206456</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206588</v>
+        <v>0.206358</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208144</v>
+        <v>0.209938</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205243</v>
+        <v>0.207068</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208091</v>
+        <v>0.20791</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210259</v>
+        <v>0.212001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.205919</v>
+        <v>0.207747</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210116</v>
+        <v>0.209979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.212904</v>
+        <v>0.214722</v>
       </c>
       <c r="D86" t="n">
-        <v>0.206914</v>
+        <v>0.208634</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212798</v>
+        <v>0.212652</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216665</v>
+        <v>0.218394</v>
       </c>
       <c r="D87" t="n">
-        <v>0.207953</v>
+        <v>0.20984</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216647</v>
+        <v>0.216491</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221828</v>
+        <v>0.223578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209504</v>
+        <v>0.211406</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221989</v>
+        <v>0.221733</v>
       </c>
       <c r="C89" t="n">
-        <v>0.229155</v>
+        <v>0.230966</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211824</v>
+        <v>0.213719</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229748</v>
+        <v>0.229619</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239167</v>
+        <v>0.240924</v>
       </c>
       <c r="D90" t="n">
-        <v>0.215095</v>
+        <v>0.216905</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241291</v>
+        <v>0.241166</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253146</v>
+        <v>0.25478</v>
       </c>
       <c r="D91" t="n">
-        <v>0.219806</v>
+        <v>0.22171</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258871</v>
+        <v>0.258912</v>
       </c>
       <c r="C92" t="n">
-        <v>0.273389</v>
+        <v>0.274911</v>
       </c>
       <c r="D92" t="n">
-        <v>0.227301</v>
+        <v>0.229259</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286673</v>
+        <v>0.286715</v>
       </c>
       <c r="C93" t="n">
-        <v>0.304786</v>
+        <v>0.306214</v>
       </c>
       <c r="D93" t="n">
-        <v>0.239759</v>
+        <v>0.241799</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.33028</v>
+        <v>0.330496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.352719</v>
+        <v>0.354126</v>
       </c>
       <c r="D94" t="n">
-        <v>0.213448</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.213664</v>
+        <v>0.213546</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21503</v>
+        <v>0.214848</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213712</v>
+        <v>0.213616</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.214492</v>
+        <v>0.214438</v>
       </c>
       <c r="C96" t="n">
-        <v>0.216155</v>
+        <v>0.215958</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214264</v>
+        <v>0.214064</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.215835</v>
+        <v>0.21546</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217668</v>
+        <v>0.217286</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214771</v>
+        <v>0.214551</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.217245</v>
+        <v>0.216797</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219434</v>
+        <v>0.219104</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21543</v>
+        <v>0.215207</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.219096</v>
+        <v>0.218518</v>
       </c>
       <c r="C99" t="n">
-        <v>0.221724</v>
+        <v>0.221354</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216202</v>
+        <v>0.215891</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.22132</v>
+        <v>0.220857</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224825</v>
+        <v>0.224385</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217197</v>
+        <v>0.216785</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.224433</v>
+        <v>0.223983</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229066</v>
+        <v>0.228428</v>
       </c>
       <c r="D101" t="n">
-        <v>0.218289</v>
+        <v>0.217951</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228653</v>
+        <v>0.228249</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234723</v>
+        <v>0.234266</v>
       </c>
       <c r="D102" t="n">
-        <v>0.219772</v>
+        <v>0.219537</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.234566</v>
+        <v>0.234176</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242944</v>
+        <v>0.24265</v>
       </c>
       <c r="D103" t="n">
-        <v>0.222291</v>
+        <v>0.221803</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243201</v>
+        <v>0.242752</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254485</v>
+        <v>0.253969</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225543</v>
+        <v>0.225053</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255528</v>
+        <v>0.255122</v>
       </c>
       <c r="C105" t="n">
-        <v>0.270185</v>
+        <v>0.26967</v>
       </c>
       <c r="D105" t="n">
-        <v>0.230533</v>
+        <v>0.229965</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274304</v>
+        <v>0.274058</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291907</v>
+        <v>0.291606</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238199</v>
+        <v>0.237459</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302637</v>
+        <v>0.302249</v>
       </c>
       <c r="C107" t="n">
-        <v>0.324511</v>
+        <v>0.32423</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25124</v>
+        <v>0.25022</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345584</v>
+        <v>0.345436</v>
       </c>
       <c r="C108" t="n">
-        <v>0.372422</v>
+        <v>0.372271</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219452</v>
+        <v>0.219544</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.413502</v>
+        <v>0.413202</v>
       </c>
       <c r="C109" t="n">
-        <v>0.444219</v>
+        <v>0.443862</v>
       </c>
       <c r="D109" t="n">
-        <v>0.219937</v>
+        <v>0.220361</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235191</v>
+        <v>0.234933</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234378</v>
+        <v>0.2355</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221408</v>
+        <v>0.221531</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235401</v>
+        <v>0.235825</v>
       </c>
       <c r="C111" t="n">
-        <v>0.240064</v>
+        <v>0.239603</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222574</v>
+        <v>0.222374</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.241506</v>
+        <v>0.243966</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246254</v>
+        <v>0.245082</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223725</v>
+        <v>0.223884</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249938</v>
+        <v>0.250287</v>
       </c>
       <c r="C113" t="n">
-        <v>0.252511</v>
+        <v>0.251895</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225843</v>
+        <v>0.225424</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.252585</v>
+        <v>0.257389</v>
       </c>
       <c r="C114" t="n">
-        <v>0.260265</v>
+        <v>0.259566</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228345</v>
+        <v>0.228212</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263776</v>
+        <v>0.263967</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2682</v>
+        <v>0.268291</v>
       </c>
       <c r="D115" t="n">
-        <v>0.23141</v>
+        <v>0.231322</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272636</v>
+        <v>0.26813</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278288</v>
+        <v>0.27815</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235492</v>
+        <v>0.235451</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282277</v>
+        <v>0.2778</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289855</v>
+        <v>0.290004</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240699</v>
+        <v>0.240082</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289348</v>
+        <v>0.289432</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303793</v>
+        <v>0.303485</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246939</v>
+        <v>0.246674</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309218</v>
+        <v>0.309138</v>
       </c>
       <c r="C119" t="n">
-        <v>0.32159</v>
+        <v>0.32146</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25542</v>
+        <v>0.255037</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329935</v>
+        <v>0.330238</v>
       </c>
       <c r="C120" t="n">
-        <v>0.342579</v>
+        <v>0.345154</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266858</v>
+        <v>0.266867</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359511</v>
+        <v>0.359545</v>
       </c>
       <c r="C121" t="n">
-        <v>0.375037</v>
+        <v>0.378334</v>
       </c>
       <c r="D121" t="n">
-        <v>0.281698</v>
+        <v>0.283199</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403096</v>
+        <v>0.403244</v>
       </c>
       <c r="C122" t="n">
-        <v>0.429172</v>
+        <v>0.428404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308623</v>
+        <v>0.308738</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470728</v>
+        <v>0.471508</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5072719999999999</v>
+        <v>0.506183</v>
       </c>
       <c r="D123" t="n">
-        <v>0.249103</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.282763</v>
+        <v>0.27058</v>
       </c>
       <c r="C124" t="n">
-        <v>0.283889</v>
+        <v>0.284669</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251625</v>
+        <v>0.252056</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287397</v>
+        <v>0.28731</v>
       </c>
       <c r="C125" t="n">
-        <v>0.287426</v>
+        <v>0.287931</v>
       </c>
       <c r="D125" t="n">
-        <v>0.254434</v>
+        <v>0.255022</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.292849</v>
+        <v>0.30094</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294283</v>
+        <v>0.293599</v>
       </c>
       <c r="D126" t="n">
-        <v>0.258772</v>
+        <v>0.259042</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301433</v>
+        <v>0.297749</v>
       </c>
       <c r="C127" t="n">
-        <v>0.298718</v>
+        <v>0.300363</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261616</v>
+        <v>0.263535</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.303379</v>
+        <v>0.302345</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304322</v>
+        <v>0.30455</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264895</v>
+        <v>0.264869</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293327</v>
+        <v>0.31087</v>
       </c>
       <c r="C129" t="n">
-        <v>0.311742</v>
+        <v>0.311921</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268818</v>
+        <v>0.269007</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314763</v>
+        <v>0.314787</v>
       </c>
       <c r="C130" t="n">
-        <v>0.321498</v>
+        <v>0.320553</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274193</v>
+        <v>0.273195</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322681</v>
+        <v>0.322845</v>
       </c>
       <c r="C131" t="n">
-        <v>0.332003</v>
+        <v>0.330737</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278215</v>
+        <v>0.277293</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.333895</v>
+        <v>0.334825</v>
       </c>
       <c r="C132" t="n">
-        <v>0.345306</v>
+        <v>0.343986</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283663</v>
+        <v>0.282774</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.350485</v>
+        <v>0.354436</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361745</v>
+        <v>0.363859</v>
       </c>
       <c r="D133" t="n">
-        <v>0.290062</v>
+        <v>0.291167</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.368641</v>
+        <v>0.354695</v>
       </c>
       <c r="C134" t="n">
-        <v>0.388962</v>
+        <v>0.3883</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30108</v>
+        <v>0.300216</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.400215</v>
+        <v>0.398419</v>
       </c>
       <c r="C135" t="n">
-        <v>0.422258</v>
+        <v>0.426516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.314867</v>
+        <v>0.316822</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.44057</v>
+        <v>0.442484</v>
       </c>
       <c r="C136" t="n">
-        <v>0.476271</v>
+        <v>0.475661</v>
       </c>
       <c r="D136" t="n">
-        <v>0.338661</v>
+        <v>0.337997</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509806</v>
+        <v>0.509401</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552287</v>
+        <v>0.551936</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38721</v>
+        <v>0.389318</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.417377</v>
+        <v>0.441691</v>
       </c>
       <c r="C138" t="n">
-        <v>0.43527</v>
+        <v>0.432613</v>
       </c>
       <c r="D138" t="n">
-        <v>0.395995</v>
+        <v>0.393106</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.448408</v>
+        <v>0.450519</v>
       </c>
       <c r="C139" t="n">
-        <v>0.440018</v>
+        <v>0.437358</v>
       </c>
       <c r="D139" t="n">
-        <v>0.39821</v>
+        <v>0.395725</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.448459</v>
+        <v>0.42927</v>
       </c>
       <c r="C140" t="n">
-        <v>0.439341</v>
+        <v>0.445104</v>
       </c>
       <c r="D140" t="n">
-        <v>0.395507</v>
+        <v>0.401957</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.447593</v>
+        <v>0.458293</v>
       </c>
       <c r="C141" t="n">
-        <v>0.450819</v>
+        <v>0.452138</v>
       </c>
       <c r="D141" t="n">
-        <v>0.404143</v>
+        <v>0.406119</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.466226</v>
+        <v>0.474383</v>
       </c>
       <c r="C142" t="n">
-        <v>0.462806</v>
+        <v>0.456956</v>
       </c>
       <c r="D142" t="n">
-        <v>0.41449</v>
+        <v>0.406247</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.45005</v>
+        <v>0.472406</v>
       </c>
       <c r="C143" t="n">
-        <v>0.468935</v>
+        <v>0.468563</v>
       </c>
       <c r="D143" t="n">
-        <v>0.415127</v>
+        <v>0.415009</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.169344</v>
+        <v>0.168001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188798</v>
+        <v>0.188011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182612</v>
+        <v>0.181678</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171447</v>
+        <v>0.171393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191241</v>
+        <v>0.190652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183278</v>
+        <v>0.182704</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178313</v>
+        <v>0.179673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199328</v>
+        <v>0.198859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185709</v>
+        <v>0.185333</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188024</v>
+        <v>0.188124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209326</v>
+        <v>0.208897</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188249</v>
+        <v>0.187778</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196458</v>
+        <v>0.19512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223835</v>
+        <v>0.223713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193995</v>
+        <v>0.193114</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216083</v>
+        <v>0.216169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248513</v>
+        <v>0.249837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202458</v>
+        <v>0.202059</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245619</v>
+        <v>0.247029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279537</v>
+        <v>0.278399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213749</v>
+        <v>0.212963</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295668</v>
+        <v>0.294202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326507</v>
+        <v>0.325772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177724</v>
+        <v>0.177397</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159886</v>
+        <v>0.159757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17477</v>
+        <v>0.175202</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177979</v>
+        <v>0.177804</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160353</v>
+        <v>0.160154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175394</v>
+        <v>0.175718</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178339</v>
+        <v>0.177939</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161506</v>
+        <v>0.161408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176432</v>
+        <v>0.176419</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178493</v>
+        <v>0.178439</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.163038</v>
+        <v>0.163066</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177744</v>
+        <v>0.177814</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178854</v>
+        <v>0.178687</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164497</v>
+        <v>0.164348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180511</v>
+        <v>0.18069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179389</v>
+        <v>0.179448</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16668</v>
+        <v>0.16653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.182971</v>
+        <v>0.183362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180475</v>
+        <v>0.180035</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.16993</v>
+        <v>0.169376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186816</v>
+        <v>0.187076</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180981</v>
+        <v>0.181099</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173818</v>
+        <v>0.173537</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191587</v>
+        <v>0.191804</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18246</v>
+        <v>0.182267</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179282</v>
+        <v>0.17915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197002</v>
+        <v>0.197402</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183898</v>
+        <v>0.184103</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187504</v>
+        <v>0.188356</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205323</v>
+        <v>0.205803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186577</v>
+        <v>0.186543</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199231</v>
+        <v>0.199322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218583</v>
+        <v>0.218509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19038</v>
+        <v>0.19004</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219496</v>
+        <v>0.220616</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236268</v>
+        <v>0.236542</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195877</v>
+        <v>0.196105</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248483</v>
+        <v>0.248529</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261907</v>
+        <v>0.262032</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206063</v>
+        <v>0.206058</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293578</v>
+        <v>0.2934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310382</v>
+        <v>0.311054</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177516</v>
+        <v>0.177193</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161708</v>
+        <v>0.161605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173609</v>
+        <v>0.174678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177437</v>
+        <v>0.177282</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.16296</v>
+        <v>0.162321</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174482</v>
+        <v>0.175461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177656</v>
+        <v>0.178002</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163305</v>
+        <v>0.163213</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175419</v>
+        <v>0.176462</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177951</v>
+        <v>0.178098</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.16503</v>
+        <v>0.165099</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177011</v>
+        <v>0.17809</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178175</v>
+        <v>0.178393</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166209</v>
+        <v>0.166741</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178689</v>
+        <v>0.179745</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17869</v>
+        <v>0.179084</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.16843</v>
+        <v>0.168968</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181643</v>
+        <v>0.182883</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17935</v>
+        <v>0.179454</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171305</v>
+        <v>0.171773</v>
       </c>
       <c r="C30" t="n">
-        <v>0.184489</v>
+        <v>0.185319</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180238</v>
+        <v>0.180455</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.175452</v>
+        <v>0.174734</v>
       </c>
       <c r="C31" t="n">
-        <v>0.188997</v>
+        <v>0.189295</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181214</v>
+        <v>0.181484</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180465</v>
+        <v>0.180291</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194403</v>
+        <v>0.194829</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182965</v>
+        <v>0.183066</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187597</v>
+        <v>0.187979</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203496</v>
+        <v>0.203558</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186187</v>
+        <v>0.185202</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198177</v>
+        <v>0.198633</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214315</v>
+        <v>0.21455</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189281</v>
+        <v>0.188735</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215111</v>
+        <v>0.215804</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230987</v>
+        <v>0.231281</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194012</v>
+        <v>0.194113</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243442</v>
+        <v>0.243623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25828</v>
+        <v>0.258482</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202689</v>
+        <v>0.202955</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285882</v>
+        <v>0.28597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299828</v>
+        <v>0.299764</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177491</v>
+        <v>0.177139</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162755</v>
+        <v>0.162743</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174464</v>
+        <v>0.174441</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177235</v>
+        <v>0.177377</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163661</v>
+        <v>0.163626</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175536</v>
+        <v>0.175555</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17772</v>
+        <v>0.177849</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164574</v>
+        <v>0.164581</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176469</v>
+        <v>0.176523</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178011</v>
+        <v>0.178114</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165626</v>
+        <v>0.165596</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17768</v>
+        <v>0.177806</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178369</v>
+        <v>0.178507</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167231</v>
+        <v>0.167223</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179228</v>
+        <v>0.179284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178864</v>
+        <v>0.179027</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169018</v>
+        <v>0.169057</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181347</v>
+        <v>0.181462</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179412</v>
+        <v>0.179442</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171657</v>
+        <v>0.171704</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184592</v>
+        <v>0.184735</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180363</v>
+        <v>0.18057</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175245</v>
+        <v>0.175257</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188831</v>
+        <v>0.188947</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181549</v>
+        <v>0.181726</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179876</v>
+        <v>0.179851</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194592</v>
+        <v>0.194719</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183349</v>
+        <v>0.18346</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187282</v>
+        <v>0.187331</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202542</v>
+        <v>0.202662</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185429</v>
+        <v>0.185581</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197765</v>
+        <v>0.197705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21392</v>
+        <v>0.214042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188589</v>
+        <v>0.188758</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213689</v>
+        <v>0.21368</v>
       </c>
       <c r="C49" t="n">
-        <v>0.229788</v>
+        <v>0.230092</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193826</v>
+        <v>0.193312</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237868</v>
+        <v>0.238015</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257166</v>
+        <v>0.257434</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201682</v>
+        <v>0.201709</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275666</v>
+        <v>0.275748</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29383</v>
+        <v>0.29327</v>
       </c>
       <c r="D51" t="n">
-        <v>0.179769</v>
+        <v>0.178217</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331807</v>
+        <v>0.333748</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349036</v>
+        <v>0.350766</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179898</v>
+        <v>0.178406</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166711</v>
+        <v>0.16685</v>
       </c>
       <c r="C53" t="n">
-        <v>0.179317</v>
+        <v>0.176789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.180302</v>
+        <v>0.178656</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.16737</v>
+        <v>0.167802</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180526</v>
+        <v>0.177948</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180701</v>
+        <v>0.179081</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168507</v>
+        <v>0.168652</v>
       </c>
       <c r="C55" t="n">
-        <v>0.182009</v>
+        <v>0.17924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181158</v>
+        <v>0.179486</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170079</v>
+        <v>0.170182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.183762</v>
+        <v>0.180871</v>
       </c>
       <c r="D56" t="n">
-        <v>0.181766</v>
+        <v>0.180061</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171869</v>
+        <v>0.17203</v>
       </c>
       <c r="C57" t="n">
-        <v>0.186159</v>
+        <v>0.183189</v>
       </c>
       <c r="D57" t="n">
-        <v>0.182452</v>
+        <v>0.180684</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1744</v>
+        <v>0.174565</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18965</v>
+        <v>0.18658</v>
       </c>
       <c r="D58" t="n">
-        <v>0.183412</v>
+        <v>0.18157</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177718</v>
+        <v>0.177904</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194104</v>
+        <v>0.190897</v>
       </c>
       <c r="D59" t="n">
-        <v>0.184487</v>
+        <v>0.182645</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182568</v>
+        <v>0.182763</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199508</v>
+        <v>0.196184</v>
       </c>
       <c r="D60" t="n">
-        <v>0.186115</v>
+        <v>0.184187</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188944</v>
+        <v>0.189113</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207132</v>
+        <v>0.203717</v>
       </c>
       <c r="D61" t="n">
-        <v>0.188146</v>
+        <v>0.186118</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198345</v>
+        <v>0.198502</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217888</v>
+        <v>0.214355</v>
       </c>
       <c r="D62" t="n">
-        <v>0.191233</v>
+        <v>0.189051</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212934</v>
+        <v>0.213094</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23366</v>
+        <v>0.230124</v>
       </c>
       <c r="D63" t="n">
-        <v>0.196333</v>
+        <v>0.193993</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235256</v>
+        <v>0.235354</v>
       </c>
       <c r="C64" t="n">
-        <v>0.257785</v>
+        <v>0.254201</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204594</v>
+        <v>0.202042</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268354</v>
+        <v>0.268216</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294282</v>
+        <v>0.290717</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218903</v>
+        <v>0.21622</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32032</v>
+        <v>0.32018</v>
       </c>
       <c r="C66" t="n">
-        <v>0.347193</v>
+        <v>0.343274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187342</v>
+        <v>0.185672</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184133</v>
+        <v>0.183863</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188175</v>
+        <v>0.188138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187276</v>
+        <v>0.18712</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184558</v>
+        <v>0.184827</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18943</v>
+        <v>0.18935</v>
       </c>
       <c r="D68" t="n">
-        <v>0.187714</v>
+        <v>0.186764</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185788</v>
+        <v>0.18541</v>
       </c>
       <c r="C69" t="n">
-        <v>0.191204</v>
+        <v>0.19067</v>
       </c>
       <c r="D69" t="n">
-        <v>0.188257</v>
+        <v>0.187344</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187161</v>
+        <v>0.186774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.193195</v>
+        <v>0.19265</v>
       </c>
       <c r="D70" t="n">
-        <v>0.188875</v>
+        <v>0.188004</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188954</v>
+        <v>0.188602</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195889</v>
+        <v>0.195417</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189595</v>
+        <v>0.18885</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.191202</v>
+        <v>0.190934</v>
       </c>
       <c r="C72" t="n">
-        <v>0.199222</v>
+        <v>0.198777</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190635</v>
+        <v>0.189862</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194386</v>
+        <v>0.194061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203547</v>
+        <v>0.203002</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191948</v>
+        <v>0.191991</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198649</v>
+        <v>0.198221</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209467</v>
+        <v>0.209162</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193575</v>
+        <v>0.192828</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204586</v>
+        <v>0.204202</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217796</v>
+        <v>0.217496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195956</v>
+        <v>0.195219</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213554</v>
+        <v>0.213018</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228799</v>
+        <v>0.228541</v>
       </c>
       <c r="D76" t="n">
-        <v>0.199403</v>
+        <v>0.198758</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.226186</v>
+        <v>0.225786</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244212</v>
+        <v>0.243989</v>
       </c>
       <c r="D77" t="n">
-        <v>0.204366</v>
+        <v>0.203675</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245425</v>
+        <v>0.244942</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266668</v>
+        <v>0.266401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212318</v>
+        <v>0.211618</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276907</v>
+        <v>0.276287</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301134</v>
+        <v>0.300878</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225986</v>
+        <v>0.225323</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323323</v>
+        <v>0.322826</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350655</v>
+        <v>0.350566</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205368</v>
+        <v>0.206055</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203243</v>
+        <v>0.203311</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205935</v>
+        <v>0.206278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205649</v>
+        <v>0.205925</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203987</v>
+        <v>0.204171</v>
       </c>
       <c r="C82" t="n">
-        <v>0.20691</v>
+        <v>0.207166</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206045</v>
+        <v>0.206353</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205086</v>
+        <v>0.205334</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208196</v>
+        <v>0.208524</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206456</v>
+        <v>0.20689</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206358</v>
+        <v>0.206567</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209938</v>
+        <v>0.210237</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207068</v>
+        <v>0.207375</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20791</v>
+        <v>0.208194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212001</v>
+        <v>0.21228</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207747</v>
+        <v>0.208113</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209979</v>
+        <v>0.210175</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214722</v>
+        <v>0.214951</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208634</v>
+        <v>0.208993</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212652</v>
+        <v>0.212758</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218394</v>
+        <v>0.218667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.20984</v>
+        <v>0.210219</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216491</v>
+        <v>0.216538</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223578</v>
+        <v>0.223863</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211406</v>
+        <v>0.21173</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221733</v>
+        <v>0.221923</v>
       </c>
       <c r="C89" t="n">
-        <v>0.230966</v>
+        <v>0.231167</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213719</v>
+        <v>0.213992</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229619</v>
+        <v>0.229635</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240924</v>
+        <v>0.241085</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216905</v>
+        <v>0.217277</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241166</v>
+        <v>0.241301</v>
       </c>
       <c r="C91" t="n">
-        <v>0.25478</v>
+        <v>0.255019</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22171</v>
+        <v>0.221951</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258912</v>
+        <v>0.258911</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274911</v>
+        <v>0.275223</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229259</v>
+        <v>0.229494</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286715</v>
+        <v>0.286778</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306214</v>
+        <v>0.306459</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241799</v>
+        <v>0.241992</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330496</v>
+        <v>0.330357</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354126</v>
+        <v>0.35466</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2133</v>
+        <v>0.214058</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.213546</v>
+        <v>0.215414</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214848</v>
+        <v>0.215927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213616</v>
+        <v>0.214586</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.214438</v>
+        <v>0.216247</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215958</v>
+        <v>0.217062</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214064</v>
+        <v>0.21501</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.21546</v>
+        <v>0.217437</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217286</v>
+        <v>0.218515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214551</v>
+        <v>0.215637</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.216797</v>
+        <v>0.218902</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219104</v>
+        <v>0.220302</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215207</v>
+        <v>0.216326</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.218518</v>
+        <v>0.220664</v>
       </c>
       <c r="C99" t="n">
-        <v>0.221354</v>
+        <v>0.222491</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215891</v>
+        <v>0.217055</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220857</v>
+        <v>0.222927</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224385</v>
+        <v>0.225405</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216785</v>
+        <v>0.218113</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223983</v>
+        <v>0.226078</v>
       </c>
       <c r="C101" t="n">
-        <v>0.228428</v>
+        <v>0.229495</v>
       </c>
       <c r="D101" t="n">
-        <v>0.217951</v>
+        <v>0.219305</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228249</v>
+        <v>0.23005</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234266</v>
+        <v>0.235129</v>
       </c>
       <c r="D102" t="n">
-        <v>0.219537</v>
+        <v>0.220942</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.234176</v>
+        <v>0.235979</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24265</v>
+        <v>0.24313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.221803</v>
+        <v>0.22314</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242752</v>
+        <v>0.244663</v>
       </c>
       <c r="C104" t="n">
-        <v>0.253969</v>
+        <v>0.254293</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225053</v>
+        <v>0.226616</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255122</v>
+        <v>0.257119</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26967</v>
+        <v>0.269922</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229965</v>
+        <v>0.231561</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274058</v>
+        <v>0.276088</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291606</v>
+        <v>0.291958</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237459</v>
+        <v>0.23905</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302249</v>
+        <v>0.304325</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32423</v>
+        <v>0.324511</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25022</v>
+        <v>0.251884</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345436</v>
+        <v>0.347553</v>
       </c>
       <c r="C108" t="n">
-        <v>0.372271</v>
+        <v>0.37264</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219544</v>
+        <v>0.219292</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.413202</v>
+        <v>0.410983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443862</v>
+        <v>0.44236</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220361</v>
+        <v>0.220057</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234933</v>
+        <v>0.234967</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2355</v>
+        <v>0.234266</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221531</v>
+        <v>0.221062</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235825</v>
+        <v>0.23911</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239603</v>
+        <v>0.240074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222374</v>
+        <v>0.222233</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243966</v>
+        <v>0.244253</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245082</v>
+        <v>0.245363</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223884</v>
+        <v>0.223791</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250287</v>
+        <v>0.250191</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251895</v>
+        <v>0.252039</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225424</v>
+        <v>0.225351</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257389</v>
+        <v>0.257093</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259566</v>
+        <v>0.259872</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228212</v>
+        <v>0.228146</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263967</v>
+        <v>0.259955</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268291</v>
+        <v>0.268686</v>
       </c>
       <c r="D115" t="n">
-        <v>0.231322</v>
+        <v>0.231152</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.26813</v>
+        <v>0.272281</v>
       </c>
       <c r="C116" t="n">
-        <v>0.27815</v>
+        <v>0.278241</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235451</v>
+        <v>0.234896</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2778</v>
+        <v>0.282434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290004</v>
+        <v>0.289895</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240082</v>
+        <v>0.239057</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289432</v>
+        <v>0.293647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303485</v>
+        <v>0.301106</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246674</v>
+        <v>0.246539</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309138</v>
+        <v>0.309197</v>
       </c>
       <c r="C119" t="n">
-        <v>0.32146</v>
+        <v>0.31849</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255037</v>
+        <v>0.255341</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.330238</v>
+        <v>0.329633</v>
       </c>
       <c r="C120" t="n">
-        <v>0.345154</v>
+        <v>0.344727</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266867</v>
+        <v>0.266495</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359545</v>
+        <v>0.359599</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378334</v>
+        <v>0.378011</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283199</v>
+        <v>0.283143</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403244</v>
+        <v>0.403112</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428404</v>
+        <v>0.428188</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308738</v>
+        <v>0.308722</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471508</v>
+        <v>0.464435</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506183</v>
+        <v>0.506444</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2502</v>
+        <v>0.249383</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.27058</v>
+        <v>0.287423</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284669</v>
+        <v>0.284336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.252056</v>
+        <v>0.251711</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.28731</v>
+        <v>0.291234</v>
       </c>
       <c r="C125" t="n">
-        <v>0.287931</v>
+        <v>0.290048</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255022</v>
+        <v>0.256622</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30094</v>
+        <v>0.291354</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293599</v>
+        <v>0.293339</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259042</v>
+        <v>0.258806</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297749</v>
+        <v>0.29594</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300363</v>
+        <v>0.299899</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263535</v>
+        <v>0.263488</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302345</v>
+        <v>0.300711</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30455</v>
+        <v>0.30492</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264869</v>
+        <v>0.265469</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31087</v>
+        <v>0.306835</v>
       </c>
       <c r="C129" t="n">
-        <v>0.311921</v>
+        <v>0.311216</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269007</v>
+        <v>0.269463</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314787</v>
+        <v>0.314388</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320553</v>
+        <v>0.319684</v>
       </c>
       <c r="D130" t="n">
-        <v>0.273195</v>
+        <v>0.272158</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322845</v>
+        <v>0.322633</v>
       </c>
       <c r="C131" t="n">
-        <v>0.330737</v>
+        <v>0.330768</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277293</v>
+        <v>0.277334</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334825</v>
+        <v>0.336339</v>
       </c>
       <c r="C132" t="n">
-        <v>0.343986</v>
+        <v>0.344061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.282774</v>
+        <v>0.282238</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354436</v>
+        <v>0.355852</v>
       </c>
       <c r="C133" t="n">
-        <v>0.363859</v>
+        <v>0.361953</v>
       </c>
       <c r="D133" t="n">
-        <v>0.291167</v>
+        <v>0.289081</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354695</v>
+        <v>0.369218</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3883</v>
+        <v>0.386944</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300216</v>
+        <v>0.299337</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.398419</v>
+        <v>0.399601</v>
       </c>
       <c r="C135" t="n">
-        <v>0.426516</v>
+        <v>0.423184</v>
       </c>
       <c r="D135" t="n">
-        <v>0.316822</v>
+        <v>0.314766</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.442484</v>
+        <v>0.425855</v>
       </c>
       <c r="C136" t="n">
-        <v>0.475661</v>
+        <v>0.472973</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337997</v>
+        <v>0.337575</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509401</v>
+        <v>0.515266</v>
       </c>
       <c r="C137" t="n">
-        <v>0.551936</v>
+        <v>0.553168</v>
       </c>
       <c r="D137" t="n">
-        <v>0.389318</v>
+        <v>0.388737</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.441691</v>
+        <v>0.464717</v>
       </c>
       <c r="C138" t="n">
-        <v>0.432613</v>
+        <v>0.430828</v>
       </c>
       <c r="D138" t="n">
-        <v>0.393106</v>
+        <v>0.391252</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450519</v>
+        <v>0.447583</v>
       </c>
       <c r="C139" t="n">
-        <v>0.437358</v>
+        <v>0.435579</v>
       </c>
       <c r="D139" t="n">
-        <v>0.395725</v>
+        <v>0.393985</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.42927</v>
+        <v>0.443221</v>
       </c>
       <c r="C140" t="n">
-        <v>0.445104</v>
+        <v>0.439954</v>
       </c>
       <c r="D140" t="n">
-        <v>0.401957</v>
+        <v>0.395465</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.458293</v>
+        <v>0.436871</v>
       </c>
       <c r="C141" t="n">
-        <v>0.452138</v>
+        <v>0.447961</v>
       </c>
       <c r="D141" t="n">
-        <v>0.406119</v>
+        <v>0.400669</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.474383</v>
+        <v>0.474867</v>
       </c>
       <c r="C142" t="n">
-        <v>0.456956</v>
+        <v>0.458355</v>
       </c>
       <c r="D142" t="n">
-        <v>0.406247</v>
+        <v>0.408477</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.472406</v>
+        <v>0.454317</v>
       </c>
       <c r="C143" t="n">
-        <v>0.468563</v>
+        <v>0.463664</v>
       </c>
       <c r="D143" t="n">
-        <v>0.415009</v>
+        <v>0.408636</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.168001</v>
+        <v>0.169262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188011</v>
+        <v>0.18822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181678</v>
+        <v>0.181784</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171393</v>
+        <v>0.173237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190652</v>
+        <v>0.19074</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182704</v>
+        <v>0.182935</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179673</v>
+        <v>0.177788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.198859</v>
+        <v>0.199047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185333</v>
+        <v>0.185612</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188124</v>
+        <v>0.18756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208897</v>
+        <v>0.20894</v>
       </c>
       <c r="D5" t="n">
-        <v>0.187778</v>
+        <v>0.188111</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.19512</v>
+        <v>0.196368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223713</v>
+        <v>0.223851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193114</v>
+        <v>0.193742</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216169</v>
+        <v>0.21471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249837</v>
+        <v>0.248015</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202059</v>
+        <v>0.202333</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247029</v>
+        <v>0.245734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278399</v>
+        <v>0.277825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.212963</v>
+        <v>0.213497</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294202</v>
+        <v>0.295426</v>
       </c>
       <c r="C9" t="n">
-        <v>0.325772</v>
+        <v>0.324633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177397</v>
+        <v>0.177731</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159757</v>
+        <v>0.159768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175202</v>
+        <v>0.174931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177804</v>
+        <v>0.177958</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160154</v>
+        <v>0.160426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175718</v>
+        <v>0.175603</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177939</v>
+        <v>0.177973</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161408</v>
+        <v>0.161433</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176419</v>
+        <v>0.176746</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178439</v>
+        <v>0.178499</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.163066</v>
+        <v>0.162394</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177814</v>
+        <v>0.178221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178687</v>
+        <v>0.17863</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164348</v>
+        <v>0.164194</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18069</v>
+        <v>0.180977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179448</v>
+        <v>0.179422</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16653</v>
+        <v>0.166474</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183362</v>
+        <v>0.183614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180035</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169376</v>
+        <v>0.169482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187076</v>
+        <v>0.187495</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181099</v>
+        <v>0.181092</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173537</v>
+        <v>0.173561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191804</v>
+        <v>0.192445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182267</v>
+        <v>0.182302</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.17915</v>
+        <v>0.179161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197402</v>
+        <v>0.198031</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184103</v>
+        <v>0.184029</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188356</v>
+        <v>0.18728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205803</v>
+        <v>0.206388</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186543</v>
+        <v>0.187591</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199322</v>
+        <v>0.199153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218509</v>
+        <v>0.220123</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19004</v>
+        <v>0.191279</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220616</v>
+        <v>0.218916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236542</v>
+        <v>0.237916</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196105</v>
+        <v>0.196988</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248529</v>
+        <v>0.248285</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262032</v>
+        <v>0.263828</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206058</v>
+        <v>0.20719</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2934</v>
+        <v>0.293817</v>
       </c>
       <c r="C23" t="n">
-        <v>0.311054</v>
+        <v>0.31294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177193</v>
+        <v>0.178061</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161605</v>
+        <v>0.16146</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174678</v>
+        <v>0.174428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177282</v>
+        <v>0.178363</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162321</v>
+        <v>0.162161</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175461</v>
+        <v>0.175258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178002</v>
+        <v>0.178585</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163213</v>
+        <v>0.163131</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176462</v>
+        <v>0.176327</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178098</v>
+        <v>0.178851</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.165099</v>
+        <v>0.164432</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17809</v>
+        <v>0.1779</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178393</v>
+        <v>0.179177</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166741</v>
+        <v>0.166071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179745</v>
+        <v>0.179535</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179084</v>
+        <v>0.179805</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168968</v>
+        <v>0.168397</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182883</v>
+        <v>0.182336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179454</v>
+        <v>0.180491</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171773</v>
+        <v>0.171244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185319</v>
+        <v>0.185307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180455</v>
+        <v>0.181321</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174734</v>
+        <v>0.174619</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189295</v>
+        <v>0.189772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181484</v>
+        <v>0.182356</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180291</v>
+        <v>0.180447</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194829</v>
+        <v>0.195396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183066</v>
+        <v>0.183995</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187979</v>
+        <v>0.188067</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203558</v>
+        <v>0.204193</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185202</v>
+        <v>0.186518</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198633</v>
+        <v>0.19883</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21455</v>
+        <v>0.215143</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188735</v>
+        <v>0.189581</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215804</v>
+        <v>0.215951</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231281</v>
+        <v>0.231951</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194113</v>
+        <v>0.194591</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243623</v>
+        <v>0.244279</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258482</v>
+        <v>0.259572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202955</v>
+        <v>0.203359</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28597</v>
+        <v>0.287172</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299764</v>
+        <v>0.30134</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177139</v>
+        <v>0.177672</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162743</v>
+        <v>0.162987</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174441</v>
+        <v>0.174563</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177377</v>
+        <v>0.177771</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163626</v>
+        <v>0.163841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175555</v>
+        <v>0.175655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177849</v>
+        <v>0.178329</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164581</v>
+        <v>0.16477</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176523</v>
+        <v>0.176636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178114</v>
+        <v>0.178518</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165596</v>
+        <v>0.165791</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177806</v>
+        <v>0.177939</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178507</v>
+        <v>0.179033</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167223</v>
+        <v>0.167439</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179284</v>
+        <v>0.179362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179027</v>
+        <v>0.179531</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169057</v>
+        <v>0.169271</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181462</v>
+        <v>0.181464</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179442</v>
+        <v>0.180056</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171704</v>
+        <v>0.17189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184735</v>
+        <v>0.184799</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18057</v>
+        <v>0.180982</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175257</v>
+        <v>0.175438</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188947</v>
+        <v>0.189005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181726</v>
+        <v>0.181973</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179851</v>
+        <v>0.180053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194719</v>
+        <v>0.194829</v>
       </c>
       <c r="D46" t="n">
-        <v>0.18346</v>
+        <v>0.183597</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187331</v>
+        <v>0.187503</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202662</v>
+        <v>0.202871</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185581</v>
+        <v>0.18557</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197705</v>
+        <v>0.19795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214042</v>
+        <v>0.214278</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188758</v>
+        <v>0.188664</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.21368</v>
+        <v>0.214117</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230092</v>
+        <v>0.230389</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193312</v>
+        <v>0.193335</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238015</v>
+        <v>0.238065</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257434</v>
+        <v>0.257953</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201709</v>
+        <v>0.20174</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275748</v>
+        <v>0.275783</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29327</v>
+        <v>0.294117</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178217</v>
+        <v>0.178354</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333748</v>
+        <v>0.333183</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350766</v>
+        <v>0.350601</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178406</v>
+        <v>0.178795</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16685</v>
+        <v>0.166882</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176789</v>
+        <v>0.177748</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178656</v>
+        <v>0.179036</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167802</v>
+        <v>0.167594</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177948</v>
+        <v>0.179037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.179081</v>
+        <v>0.1795</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168652</v>
+        <v>0.168957</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17924</v>
+        <v>0.180669</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179486</v>
+        <v>0.180028</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170182</v>
+        <v>0.170556</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180871</v>
+        <v>0.182382</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180061</v>
+        <v>0.180557</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.17203</v>
+        <v>0.17229</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183189</v>
+        <v>0.184804</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180684</v>
+        <v>0.181359</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174565</v>
+        <v>0.174727</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18658</v>
+        <v>0.188246</v>
       </c>
       <c r="D58" t="n">
-        <v>0.18157</v>
+        <v>0.182199</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177904</v>
+        <v>0.17831</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190897</v>
+        <v>0.192677</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182645</v>
+        <v>0.183371</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182763</v>
+        <v>0.18324</v>
       </c>
       <c r="C60" t="n">
-        <v>0.196184</v>
+        <v>0.198068</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184187</v>
+        <v>0.18553</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189113</v>
+        <v>0.189562</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203717</v>
+        <v>0.205671</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186118</v>
+        <v>0.186957</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198502</v>
+        <v>0.199111</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214355</v>
+        <v>0.216441</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189051</v>
+        <v>0.190074</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213094</v>
+        <v>0.213874</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230124</v>
+        <v>0.232284</v>
       </c>
       <c r="D63" t="n">
-        <v>0.193993</v>
+        <v>0.195202</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235354</v>
+        <v>0.236454</v>
       </c>
       <c r="C64" t="n">
-        <v>0.254201</v>
+        <v>0.256715</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202042</v>
+        <v>0.203343</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268216</v>
+        <v>0.269977</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290717</v>
+        <v>0.293746</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21622</v>
+        <v>0.217817</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32018</v>
+        <v>0.322649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343274</v>
+        <v>0.346899</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185672</v>
+        <v>0.191256</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183863</v>
+        <v>0.183359</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188138</v>
+        <v>0.192216</v>
       </c>
       <c r="D67" t="n">
-        <v>0.18712</v>
+        <v>0.191889</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184827</v>
+        <v>0.184148</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18935</v>
+        <v>0.193368</v>
       </c>
       <c r="D68" t="n">
-        <v>0.186764</v>
+        <v>0.192293</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18541</v>
+        <v>0.184825</v>
       </c>
       <c r="C69" t="n">
-        <v>0.19067</v>
+        <v>0.194874</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187344</v>
+        <v>0.192872</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186774</v>
+        <v>0.187117</v>
       </c>
       <c r="C70" t="n">
-        <v>0.19265</v>
+        <v>0.196696</v>
       </c>
       <c r="D70" t="n">
-        <v>0.188004</v>
+        <v>0.193333</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188602</v>
+        <v>0.188885</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195417</v>
+        <v>0.199189</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18885</v>
+        <v>0.194033</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190934</v>
+        <v>0.191242</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198777</v>
+        <v>0.20219</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189862</v>
+        <v>0.195027</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194061</v>
+        <v>0.194405</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203002</v>
+        <v>0.206333</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191991</v>
+        <v>0.196249</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198221</v>
+        <v>0.198651</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209162</v>
+        <v>0.212085</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192828</v>
+        <v>0.197993</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204202</v>
+        <v>0.20476</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217496</v>
+        <v>0.220321</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195219</v>
+        <v>0.20027</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213018</v>
+        <v>0.21332</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228541</v>
+        <v>0.231156</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198758</v>
+        <v>0.203767</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.225786</v>
+        <v>0.226668</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243989</v>
+        <v>0.246575</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203675</v>
+        <v>0.208436</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244942</v>
+        <v>0.245741</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266401</v>
+        <v>0.269315</v>
       </c>
       <c r="D78" t="n">
-        <v>0.211618</v>
+        <v>0.216958</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276287</v>
+        <v>0.278475</v>
       </c>
       <c r="C79" t="n">
-        <v>0.300878</v>
+        <v>0.304664</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225323</v>
+        <v>0.230836</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322826</v>
+        <v>0.324964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350566</v>
+        <v>0.355526</v>
       </c>
       <c r="D80" t="n">
-        <v>0.206055</v>
+        <v>0.205705</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203311</v>
+        <v>0.202732</v>
       </c>
       <c r="C81" t="n">
-        <v>0.206278</v>
+        <v>0.206021</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205925</v>
+        <v>0.205827</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204171</v>
+        <v>0.203561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207166</v>
+        <v>0.207053</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206353</v>
+        <v>0.206539</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205334</v>
+        <v>0.20479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208524</v>
+        <v>0.208303</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20689</v>
+        <v>0.206809</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206567</v>
+        <v>0.206024</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210237</v>
+        <v>0.210027</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207375</v>
+        <v>0.207317</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208194</v>
+        <v>0.207574</v>
       </c>
       <c r="C85" t="n">
-        <v>0.21228</v>
+        <v>0.212053</v>
       </c>
       <c r="D85" t="n">
-        <v>0.208113</v>
+        <v>0.207963</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210175</v>
+        <v>0.209602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214951</v>
+        <v>0.214846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208993</v>
+        <v>0.208911</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212758</v>
+        <v>0.212358</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218667</v>
+        <v>0.218577</v>
       </c>
       <c r="D87" t="n">
-        <v>0.210219</v>
+        <v>0.210096</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216538</v>
+        <v>0.216145</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223863</v>
+        <v>0.223784</v>
       </c>
       <c r="D88" t="n">
-        <v>0.21173</v>
+        <v>0.211693</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221923</v>
+        <v>0.221453</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231167</v>
+        <v>0.231127</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213992</v>
+        <v>0.213911</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229635</v>
+        <v>0.229214</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241085</v>
+        <v>0.241197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.217277</v>
+        <v>0.217213</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241301</v>
+        <v>0.241051</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255019</v>
+        <v>0.255247</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221951</v>
+        <v>0.221936</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258911</v>
+        <v>0.259145</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275223</v>
+        <v>0.27579</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229494</v>
+        <v>0.229624</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286778</v>
+        <v>0.287969</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306459</v>
+        <v>0.308007</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241992</v>
+        <v>0.242313</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330357</v>
+        <v>0.333009</v>
       </c>
       <c r="C94" t="n">
-        <v>0.35466</v>
+        <v>0.357645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214058</v>
+        <v>0.214315</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215414</v>
+        <v>0.21473</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215927</v>
+        <v>0.21604</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214586</v>
+        <v>0.2148</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216247</v>
+        <v>0.215729</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217062</v>
+        <v>0.217241</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21501</v>
+        <v>0.215479</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217437</v>
+        <v>0.216881</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218515</v>
+        <v>0.218662</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215637</v>
+        <v>0.215996</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218902</v>
+        <v>0.218462</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220302</v>
+        <v>0.220554</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216326</v>
+        <v>0.216726</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220664</v>
+        <v>0.220356</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222491</v>
+        <v>0.222798</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217055</v>
+        <v>0.217475</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222927</v>
+        <v>0.222695</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225405</v>
+        <v>0.225785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218113</v>
+        <v>0.218538</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226078</v>
+        <v>0.225947</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229495</v>
+        <v>0.229915</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219305</v>
+        <v>0.219711</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.23005</v>
+        <v>0.230157</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235129</v>
+        <v>0.235698</v>
       </c>
       <c r="D102" t="n">
-        <v>0.220942</v>
+        <v>0.221354</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.235979</v>
+        <v>0.236212</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24313</v>
+        <v>0.243996</v>
       </c>
       <c r="D103" t="n">
-        <v>0.22314</v>
+        <v>0.223687</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244663</v>
+        <v>0.244942</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254293</v>
+        <v>0.25503</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226616</v>
+        <v>0.227085</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257119</v>
+        <v>0.257478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.269922</v>
+        <v>0.270287</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231561</v>
+        <v>0.232007</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.276088</v>
+        <v>0.276758</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291958</v>
+        <v>0.293405</v>
       </c>
       <c r="D106" t="n">
-        <v>0.23905</v>
+        <v>0.239693</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.304325</v>
+        <v>0.305538</v>
       </c>
       <c r="C107" t="n">
-        <v>0.324511</v>
+        <v>0.326843</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251884</v>
+        <v>0.252554</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.347553</v>
+        <v>0.349465</v>
       </c>
       <c r="C108" t="n">
-        <v>0.37264</v>
+        <v>0.376396</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219292</v>
+        <v>0.219909</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410983</v>
+        <v>0.415002</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44236</v>
+        <v>0.447981</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220057</v>
+        <v>0.220571</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234967</v>
+        <v>0.235821</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234266</v>
+        <v>0.235991</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221062</v>
+        <v>0.221443</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23911</v>
+        <v>0.239849</v>
       </c>
       <c r="C111" t="n">
-        <v>0.240074</v>
+        <v>0.2413</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222233</v>
+        <v>0.222686</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244253</v>
+        <v>0.245153</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245363</v>
+        <v>0.246697</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223791</v>
+        <v>0.224188</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250191</v>
+        <v>0.252482</v>
       </c>
       <c r="C113" t="n">
-        <v>0.252039</v>
+        <v>0.254659</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225351</v>
+        <v>0.225421</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257093</v>
+        <v>0.258773</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259872</v>
+        <v>0.261612</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228146</v>
+        <v>0.228771</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.259955</v>
+        <v>0.266513</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268686</v>
+        <v>0.271357</v>
       </c>
       <c r="D115" t="n">
-        <v>0.231152</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272281</v>
+        <v>0.275433</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278241</v>
+        <v>0.282577</v>
       </c>
       <c r="D116" t="n">
-        <v>0.234896</v>
+        <v>0.235982</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282434</v>
+        <v>0.28569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289895</v>
+        <v>0.293927</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239057</v>
+        <v>0.240849</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293647</v>
+        <v>0.297728</v>
       </c>
       <c r="C118" t="n">
-        <v>0.301106</v>
+        <v>0.308614</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246539</v>
+        <v>0.248389</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309197</v>
+        <v>0.314063</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31849</v>
+        <v>0.325063</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255341</v>
+        <v>0.257272</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329633</v>
+        <v>0.33503</v>
       </c>
       <c r="C120" t="n">
-        <v>0.344727</v>
+        <v>0.35144</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266495</v>
+        <v>0.26854</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359599</v>
+        <v>0.36553</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378011</v>
+        <v>0.383586</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283143</v>
+        <v>0.285947</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403112</v>
+        <v>0.410703</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428188</v>
+        <v>0.434786</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308722</v>
+        <v>0.312282</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.464435</v>
+        <v>0.480485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506444</v>
+        <v>0.51696</v>
       </c>
       <c r="D123" t="n">
-        <v>0.249383</v>
+        <v>0.250218</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.287423</v>
+        <v>0.286617</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284336</v>
+        <v>0.28986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251711</v>
+        <v>0.254228</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.291234</v>
+        <v>0.294163</v>
       </c>
       <c r="C125" t="n">
-        <v>0.290048</v>
+        <v>0.294088</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256622</v>
+        <v>0.258259</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291354</v>
+        <v>0.296705</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293339</v>
+        <v>0.298696</v>
       </c>
       <c r="D126" t="n">
-        <v>0.258806</v>
+        <v>0.261579</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29594</v>
+        <v>0.301568</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299899</v>
+        <v>0.303563</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263488</v>
+        <v>0.26432</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.300711</v>
+        <v>0.292878</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30492</v>
+        <v>0.311563</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265469</v>
+        <v>0.269124</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.306835</v>
+        <v>0.314665</v>
       </c>
       <c r="C129" t="n">
-        <v>0.311216</v>
+        <v>0.319961</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269463</v>
+        <v>0.273894</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314388</v>
+        <v>0.320018</v>
       </c>
       <c r="C130" t="n">
-        <v>0.319684</v>
+        <v>0.326816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272158</v>
+        <v>0.275841</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322633</v>
+        <v>0.332969</v>
       </c>
       <c r="C131" t="n">
-        <v>0.330768</v>
+        <v>0.338505</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277334</v>
+        <v>0.281493</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.336339</v>
+        <v>0.339966</v>
       </c>
       <c r="C132" t="n">
-        <v>0.344061</v>
+        <v>0.353128</v>
       </c>
       <c r="D132" t="n">
-        <v>0.282238</v>
+        <v>0.287714</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.355852</v>
+        <v>0.363705</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361953</v>
+        <v>0.373112</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289081</v>
+        <v>0.294623</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369218</v>
+        <v>0.376022</v>
       </c>
       <c r="C134" t="n">
-        <v>0.386944</v>
+        <v>0.398319</v>
       </c>
       <c r="D134" t="n">
-        <v>0.299337</v>
+        <v>0.304203</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.399601</v>
+        <v>0.408867</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423184</v>
+        <v>0.43325</v>
       </c>
       <c r="D135" t="n">
-        <v>0.314766</v>
+        <v>0.319108</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.425855</v>
+        <v>0.454101</v>
       </c>
       <c r="C136" t="n">
-        <v>0.472973</v>
+        <v>0.489131</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337575</v>
+        <v>0.344327</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515266</v>
+        <v>0.530429</v>
       </c>
       <c r="C137" t="n">
-        <v>0.553168</v>
+        <v>0.567149</v>
       </c>
       <c r="D137" t="n">
-        <v>0.388737</v>
+        <v>0.409496</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.464717</v>
+        <v>0.46282</v>
       </c>
       <c r="C138" t="n">
-        <v>0.430828</v>
+        <v>0.455965</v>
       </c>
       <c r="D138" t="n">
-        <v>0.391252</v>
+        <v>0.413026</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.447583</v>
+        <v>0.474202</v>
       </c>
       <c r="C139" t="n">
-        <v>0.435579</v>
+        <v>0.461183</v>
       </c>
       <c r="D139" t="n">
-        <v>0.393985</v>
+        <v>0.415426</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.443221</v>
+        <v>0.479607</v>
       </c>
       <c r="C140" t="n">
-        <v>0.439954</v>
+        <v>0.469261</v>
       </c>
       <c r="D140" t="n">
-        <v>0.395465</v>
+        <v>0.421718</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.436871</v>
+        <v>0.485894</v>
       </c>
       <c r="C141" t="n">
-        <v>0.447961</v>
+        <v>0.4728</v>
       </c>
       <c r="D141" t="n">
-        <v>0.400669</v>
+        <v>0.420593</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.474867</v>
+        <v>0.490319</v>
       </c>
       <c r="C142" t="n">
-        <v>0.458355</v>
+        <v>0.483045</v>
       </c>
       <c r="D142" t="n">
-        <v>0.408477</v>
+        <v>0.426524</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.454317</v>
+        <v>0.498596</v>
       </c>
       <c r="C143" t="n">
-        <v>0.463664</v>
+        <v>0.489819</v>
       </c>
       <c r="D143" t="n">
-        <v>0.408636</v>
+        <v>0.430282</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.169262</v>
+        <v>0.167322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18822</v>
+        <v>0.187985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181784</v>
+        <v>0.181769</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.173237</v>
+        <v>0.173153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19074</v>
+        <v>0.190986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182935</v>
+        <v>0.182683</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177788</v>
+        <v>0.179707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199047</v>
+        <v>0.198787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185612</v>
+        <v>0.185288</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18756</v>
+        <v>0.186502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20894</v>
+        <v>0.208705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188111</v>
+        <v>0.187957</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196368</v>
+        <v>0.196183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223851</v>
+        <v>0.223669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193742</v>
+        <v>0.193455</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21471</v>
+        <v>0.214579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248015</v>
+        <v>0.248229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202333</v>
+        <v>0.202278</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245734</v>
+        <v>0.246437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277825</v>
+        <v>0.279554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213497</v>
+        <v>0.213716</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295426</v>
+        <v>0.295019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.324633</v>
+        <v>0.325552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177731</v>
+        <v>0.177402</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159768</v>
+        <v>0.160804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174931</v>
+        <v>0.174837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177958</v>
+        <v>0.17767</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160426</v>
+        <v>0.159986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175603</v>
+        <v>0.175342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177973</v>
+        <v>0.177762</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161433</v>
+        <v>0.161467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176746</v>
+        <v>0.176443</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178499</v>
+        <v>0.178181</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162394</v>
+        <v>0.162388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.178221</v>
+        <v>0.177729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17863</v>
+        <v>0.17835</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164194</v>
+        <v>0.164035</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180977</v>
+        <v>0.180559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179422</v>
+        <v>0.179105</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166474</v>
+        <v>0.166518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183614</v>
+        <v>0.183219</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180165</v>
+        <v>0.179824</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169482</v>
+        <v>0.170457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187495</v>
+        <v>0.186956</v>
       </c>
       <c r="D16" t="n">
-        <v>0.181092</v>
+        <v>0.180855</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173561</v>
+        <v>0.173427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192445</v>
+        <v>0.191729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182302</v>
+        <v>0.181897</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179161</v>
+        <v>0.179034</v>
       </c>
       <c r="C18" t="n">
-        <v>0.198031</v>
+        <v>0.196885</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184029</v>
+        <v>0.183571</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18728</v>
+        <v>0.187478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206388</v>
+        <v>0.205404</v>
       </c>
       <c r="D19" t="n">
-        <v>0.187591</v>
+        <v>0.186611</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199153</v>
+        <v>0.199957</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220123</v>
+        <v>0.218826</v>
       </c>
       <c r="D20" t="n">
-        <v>0.191279</v>
+        <v>0.19018</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.218916</v>
+        <v>0.220324</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237916</v>
+        <v>0.236212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196988</v>
+        <v>0.195809</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248285</v>
+        <v>0.247979</v>
       </c>
       <c r="C22" t="n">
-        <v>0.263828</v>
+        <v>0.262099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20719</v>
+        <v>0.206478</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293817</v>
+        <v>0.293221</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31294</v>
+        <v>0.310915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.178061</v>
+        <v>0.177153</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.16146</v>
+        <v>0.16187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174428</v>
+        <v>0.174071</v>
       </c>
       <c r="D24" t="n">
-        <v>0.178363</v>
+        <v>0.177494</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162161</v>
+        <v>0.162652</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175258</v>
+        <v>0.17463</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178585</v>
+        <v>0.177714</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163131</v>
+        <v>0.163697</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176327</v>
+        <v>0.17653</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178851</v>
+        <v>0.177813</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164432</v>
+        <v>0.164824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1779</v>
+        <v>0.177542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179177</v>
+        <v>0.178256</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166071</v>
+        <v>0.166376</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179535</v>
+        <v>0.179146</v>
       </c>
       <c r="D28" t="n">
-        <v>0.179805</v>
+        <v>0.178997</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168397</v>
+        <v>0.168662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182336</v>
+        <v>0.181939</v>
       </c>
       <c r="D29" t="n">
-        <v>0.180491</v>
+        <v>0.179328</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171244</v>
+        <v>0.171461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185307</v>
+        <v>0.184813</v>
       </c>
       <c r="D30" t="n">
-        <v>0.181321</v>
+        <v>0.180443</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174619</v>
+        <v>0.174919</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189772</v>
+        <v>0.18911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.182356</v>
+        <v>0.181527</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180447</v>
+        <v>0.18063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195396</v>
+        <v>0.194901</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183995</v>
+        <v>0.183275</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188067</v>
+        <v>0.188278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.204193</v>
+        <v>0.203915</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186518</v>
+        <v>0.185831</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19883</v>
+        <v>0.198759</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215143</v>
+        <v>0.214713</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189581</v>
+        <v>0.189041</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215951</v>
+        <v>0.2158</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231951</v>
+        <v>0.231389</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194591</v>
+        <v>0.194677</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244279</v>
+        <v>0.24378</v>
       </c>
       <c r="C36" t="n">
-        <v>0.259572</v>
+        <v>0.258633</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203359</v>
+        <v>0.203346</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.287172</v>
+        <v>0.285947</v>
       </c>
       <c r="C37" t="n">
-        <v>0.30134</v>
+        <v>0.300023</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177672</v>
+        <v>0.177574</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162987</v>
+        <v>0.162846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174563</v>
+        <v>0.174969</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177771</v>
+        <v>0.177868</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163841</v>
+        <v>0.16376</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175655</v>
+        <v>0.175901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178329</v>
+        <v>0.178274</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.16477</v>
+        <v>0.164627</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176636</v>
+        <v>0.176897</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178518</v>
+        <v>0.178506</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165791</v>
+        <v>0.165683</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177939</v>
+        <v>0.178115</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179033</v>
+        <v>0.178862</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167439</v>
+        <v>0.167261</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179362</v>
+        <v>0.179538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179531</v>
+        <v>0.179382</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169271</v>
+        <v>0.16907</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181464</v>
+        <v>0.181758</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180056</v>
+        <v>0.179915</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.17189</v>
+        <v>0.17167</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184799</v>
+        <v>0.185009</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180982</v>
+        <v>0.180764</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175438</v>
+        <v>0.175226</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189005</v>
+        <v>0.189141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181973</v>
+        <v>0.181811</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.180053</v>
+        <v>0.179831</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194829</v>
+        <v>0.194879</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183597</v>
+        <v>0.18354</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187503</v>
+        <v>0.187253</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202871</v>
+        <v>0.202799</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18557</v>
+        <v>0.185716</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19795</v>
+        <v>0.197625</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214278</v>
+        <v>0.214077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188664</v>
+        <v>0.189709</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.214117</v>
+        <v>0.213502</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230389</v>
+        <v>0.229946</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193335</v>
+        <v>0.194245</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238065</v>
+        <v>0.237774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257953</v>
+        <v>0.257264</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20174</v>
+        <v>0.202503</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275783</v>
+        <v>0.275472</v>
       </c>
       <c r="C51" t="n">
-        <v>0.294117</v>
+        <v>0.293101</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178354</v>
+        <v>0.177512</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333183</v>
+        <v>0.331102</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350601</v>
+        <v>0.349315</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178795</v>
+        <v>0.177785</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166882</v>
+        <v>0.167497</v>
       </c>
       <c r="C53" t="n">
-        <v>0.177748</v>
+        <v>0.175954</v>
       </c>
       <c r="D53" t="n">
-        <v>0.179036</v>
+        <v>0.178083</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167594</v>
+        <v>0.168071</v>
       </c>
       <c r="C54" t="n">
-        <v>0.179037</v>
+        <v>0.177114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1795</v>
+        <v>0.178455</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168957</v>
+        <v>0.169263</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180669</v>
+        <v>0.178466</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180028</v>
+        <v>0.17889</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170556</v>
+        <v>0.170857</v>
       </c>
       <c r="C56" t="n">
-        <v>0.182382</v>
+        <v>0.180108</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180557</v>
+        <v>0.179417</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.17229</v>
+        <v>0.172755</v>
       </c>
       <c r="C57" t="n">
-        <v>0.184804</v>
+        <v>0.182407</v>
       </c>
       <c r="D57" t="n">
-        <v>0.181359</v>
+        <v>0.180041</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174727</v>
+        <v>0.175299</v>
       </c>
       <c r="C58" t="n">
-        <v>0.188246</v>
+        <v>0.185736</v>
       </c>
       <c r="D58" t="n">
-        <v>0.182199</v>
+        <v>0.180909</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.17831</v>
+        <v>0.178658</v>
       </c>
       <c r="C59" t="n">
-        <v>0.192677</v>
+        <v>0.189999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.183371</v>
+        <v>0.181926</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.18324</v>
+        <v>0.183551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198068</v>
+        <v>0.195217</v>
       </c>
       <c r="D60" t="n">
-        <v>0.18553</v>
+        <v>0.183459</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189562</v>
+        <v>0.189979</v>
       </c>
       <c r="C61" t="n">
-        <v>0.205671</v>
+        <v>0.202609</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186957</v>
+        <v>0.185373</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199111</v>
+        <v>0.199377</v>
       </c>
       <c r="C62" t="n">
-        <v>0.216441</v>
+        <v>0.21302</v>
       </c>
       <c r="D62" t="n">
-        <v>0.190074</v>
+        <v>0.18829</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213874</v>
+        <v>0.21402</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232284</v>
+        <v>0.228401</v>
       </c>
       <c r="D63" t="n">
-        <v>0.195202</v>
+        <v>0.193105</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236454</v>
+        <v>0.236338</v>
       </c>
       <c r="C64" t="n">
-        <v>0.256715</v>
+        <v>0.251909</v>
       </c>
       <c r="D64" t="n">
-        <v>0.203343</v>
+        <v>0.200871</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269977</v>
+        <v>0.269246</v>
       </c>
       <c r="C65" t="n">
-        <v>0.293746</v>
+        <v>0.287492</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217817</v>
+        <v>0.214713</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.322649</v>
+        <v>0.321262</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346899</v>
+        <v>0.338705</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191256</v>
+        <v>0.192183</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183359</v>
+        <v>0.185323</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192216</v>
+        <v>0.19179</v>
       </c>
       <c r="D67" t="n">
-        <v>0.191889</v>
+        <v>0.192688</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184148</v>
+        <v>0.185853</v>
       </c>
       <c r="C68" t="n">
-        <v>0.193368</v>
+        <v>0.192778</v>
       </c>
       <c r="D68" t="n">
-        <v>0.192293</v>
+        <v>0.193352</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.184825</v>
+        <v>0.187052</v>
       </c>
       <c r="C69" t="n">
-        <v>0.194874</v>
+        <v>0.194272</v>
       </c>
       <c r="D69" t="n">
-        <v>0.192872</v>
+        <v>0.193853</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187117</v>
+        <v>0.18847</v>
       </c>
       <c r="C70" t="n">
-        <v>0.196696</v>
+        <v>0.195967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.193333</v>
+        <v>0.19416</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188885</v>
+        <v>0.190197</v>
       </c>
       <c r="C71" t="n">
-        <v>0.199189</v>
+        <v>0.198283</v>
       </c>
       <c r="D71" t="n">
-        <v>0.194033</v>
+        <v>0.194594</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.191242</v>
+        <v>0.192508</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20219</v>
+        <v>0.201198</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195027</v>
+        <v>0.195449</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194405</v>
+        <v>0.195615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206333</v>
+        <v>0.205143</v>
       </c>
       <c r="D73" t="n">
-        <v>0.196249</v>
+        <v>0.196996</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198651</v>
+        <v>0.199802</v>
       </c>
       <c r="C74" t="n">
-        <v>0.212085</v>
+        <v>0.210494</v>
       </c>
       <c r="D74" t="n">
-        <v>0.197993</v>
+        <v>0.198448</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.20476</v>
+        <v>0.205858</v>
       </c>
       <c r="C75" t="n">
-        <v>0.220321</v>
+        <v>0.218351</v>
       </c>
       <c r="D75" t="n">
-        <v>0.20027</v>
+        <v>0.200564</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21332</v>
+        <v>0.214734</v>
       </c>
       <c r="C76" t="n">
-        <v>0.231156</v>
+        <v>0.228833</v>
       </c>
       <c r="D76" t="n">
-        <v>0.203767</v>
+        <v>0.203488</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.226668</v>
+        <v>0.227322</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246575</v>
+        <v>0.24364</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208436</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245741</v>
+        <v>0.246478</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269315</v>
+        <v>0.265493</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216958</v>
+        <v>0.216027</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.278475</v>
+        <v>0.277936</v>
       </c>
       <c r="C79" t="n">
-        <v>0.304664</v>
+        <v>0.299347</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230836</v>
+        <v>0.229628</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324964</v>
+        <v>0.324574</v>
       </c>
       <c r="C80" t="n">
-        <v>0.355526</v>
+        <v>0.34869</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205705</v>
+        <v>0.203753</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.202732</v>
+        <v>0.203047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.206021</v>
+        <v>0.204287</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205827</v>
+        <v>0.204149</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203561</v>
+        <v>0.20383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207053</v>
+        <v>0.205347</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206539</v>
+        <v>0.20451</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.20479</v>
+        <v>0.204938</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208303</v>
+        <v>0.206662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206809</v>
+        <v>0.204942</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206024</v>
+        <v>0.20624</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210027</v>
+        <v>0.208386</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207317</v>
+        <v>0.205522</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.207574</v>
+        <v>0.207837</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212053</v>
+        <v>0.210423</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207963</v>
+        <v>0.206492</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209602</v>
+        <v>0.209982</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214846</v>
+        <v>0.213109</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208911</v>
+        <v>0.207128</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212358</v>
+        <v>0.212625</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218577</v>
+        <v>0.21684</v>
       </c>
       <c r="D87" t="n">
-        <v>0.210096</v>
+        <v>0.208244</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216145</v>
+        <v>0.216373</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223784</v>
+        <v>0.221941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211693</v>
+        <v>0.209746</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221453</v>
+        <v>0.221628</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231127</v>
+        <v>0.229263</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213911</v>
+        <v>0.211973</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229214</v>
+        <v>0.229517</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241197</v>
+        <v>0.239159</v>
       </c>
       <c r="D90" t="n">
-        <v>0.217213</v>
+        <v>0.215238</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241051</v>
+        <v>0.24108</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255247</v>
+        <v>0.253099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221936</v>
+        <v>0.21989</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259145</v>
+        <v>0.258784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27579</v>
+        <v>0.273152</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229624</v>
+        <v>0.227454</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.287969</v>
+        <v>0.286695</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308007</v>
+        <v>0.30456</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242313</v>
+        <v>0.239739</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.333009</v>
+        <v>0.330146</v>
       </c>
       <c r="C94" t="n">
-        <v>0.357645</v>
+        <v>0.352556</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214315</v>
+        <v>0.214835</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.21473</v>
+        <v>0.215807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21604</v>
+        <v>0.21684</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2148</v>
+        <v>0.215358</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.215729</v>
+        <v>0.216782</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217241</v>
+        <v>0.218025</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215479</v>
+        <v>0.215738</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.216881</v>
+        <v>0.217998</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218662</v>
+        <v>0.21959</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215996</v>
+        <v>0.216379</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218462</v>
+        <v>0.219508</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220554</v>
+        <v>0.221581</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216726</v>
+        <v>0.217011</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220356</v>
+        <v>0.221294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222798</v>
+        <v>0.224099</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217475</v>
+        <v>0.21789</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222695</v>
+        <v>0.223568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225785</v>
+        <v>0.227188</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218538</v>
+        <v>0.218877</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225947</v>
+        <v>0.226792</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229915</v>
+        <v>0.231461</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219711</v>
+        <v>0.220178</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230157</v>
+        <v>0.231075</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235698</v>
+        <v>0.237487</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221354</v>
+        <v>0.221861</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236212</v>
+        <v>0.236989</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243996</v>
+        <v>0.245788</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223687</v>
+        <v>0.224482</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244942</v>
+        <v>0.245747</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25503</v>
+        <v>0.257117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227085</v>
+        <v>0.227867</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257478</v>
+        <v>0.258315</v>
       </c>
       <c r="C105" t="n">
-        <v>0.270287</v>
+        <v>0.272761</v>
       </c>
       <c r="D105" t="n">
-        <v>0.232007</v>
+        <v>0.233009</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.276758</v>
+        <v>0.277488</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293405</v>
+        <v>0.294583</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239693</v>
+        <v>0.240826</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305538</v>
+        <v>0.305897</v>
       </c>
       <c r="C107" t="n">
-        <v>0.326843</v>
+        <v>0.327182</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252554</v>
+        <v>0.25409</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349465</v>
+        <v>0.349122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.376396</v>
+        <v>0.375521</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219909</v>
+        <v>0.219781</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.415002</v>
+        <v>0.413197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.447981</v>
+        <v>0.443323</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220571</v>
+        <v>0.220636</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235821</v>
+        <v>0.235904</v>
       </c>
       <c r="C110" t="n">
-        <v>0.235991</v>
+        <v>0.235456</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221443</v>
+        <v>0.221336</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239849</v>
+        <v>0.240152</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2413</v>
+        <v>0.238992</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222686</v>
+        <v>0.222553</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245153</v>
+        <v>0.244664</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246697</v>
+        <v>0.244756</v>
       </c>
       <c r="D112" t="n">
-        <v>0.224188</v>
+        <v>0.223958</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.252482</v>
+        <v>0.249842</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254659</v>
+        <v>0.252173</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225421</v>
+        <v>0.22564</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.258773</v>
+        <v>0.256908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.261612</v>
+        <v>0.258844</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228771</v>
+        <v>0.228356</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.266513</v>
+        <v>0.263853</v>
       </c>
       <c r="C115" t="n">
-        <v>0.271357</v>
+        <v>0.26837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2322</v>
+        <v>0.229999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.275433</v>
+        <v>0.273279</v>
       </c>
       <c r="C116" t="n">
-        <v>0.282577</v>
+        <v>0.276924</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235982</v>
+        <v>0.234437</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28569</v>
+        <v>0.282784</v>
       </c>
       <c r="C117" t="n">
-        <v>0.293927</v>
+        <v>0.290373</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240849</v>
+        <v>0.240211</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.297728</v>
+        <v>0.289922</v>
       </c>
       <c r="C118" t="n">
-        <v>0.308614</v>
+        <v>0.304137</v>
       </c>
       <c r="D118" t="n">
-        <v>0.248389</v>
+        <v>0.24719</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.314063</v>
+        <v>0.309776</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325063</v>
+        <v>0.321775</v>
       </c>
       <c r="D119" t="n">
-        <v>0.257272</v>
+        <v>0.25594</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.33503</v>
+        <v>0.325368</v>
       </c>
       <c r="C120" t="n">
-        <v>0.35144</v>
+        <v>0.345629</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26854</v>
+        <v>0.267056</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.36553</v>
+        <v>0.360177</v>
       </c>
       <c r="C121" t="n">
-        <v>0.383586</v>
+        <v>0.378614</v>
       </c>
       <c r="D121" t="n">
-        <v>0.285947</v>
+        <v>0.283599</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.410703</v>
+        <v>0.403866</v>
       </c>
       <c r="C122" t="n">
-        <v>0.434786</v>
+        <v>0.429113</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312282</v>
+        <v>0.309304</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.480485</v>
+        <v>0.465435</v>
       </c>
       <c r="C123" t="n">
-        <v>0.51696</v>
+        <v>0.50225</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250218</v>
+        <v>0.250851</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.286617</v>
+        <v>0.286382</v>
       </c>
       <c r="C124" t="n">
-        <v>0.28986</v>
+        <v>0.288723</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254228</v>
+        <v>0.256326</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.294163</v>
+        <v>0.287896</v>
       </c>
       <c r="C125" t="n">
-        <v>0.294088</v>
+        <v>0.293357</v>
       </c>
       <c r="D125" t="n">
-        <v>0.258259</v>
+        <v>0.259416</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.296705</v>
+        <v>0.287783</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298696</v>
+        <v>0.295057</v>
       </c>
       <c r="D126" t="n">
-        <v>0.261579</v>
+        <v>0.259943</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301568</v>
+        <v>0.301137</v>
       </c>
       <c r="C127" t="n">
-        <v>0.303563</v>
+        <v>0.301247</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26432</v>
+        <v>0.263845</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292878</v>
+        <v>0.291409</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311563</v>
+        <v>0.3052</v>
       </c>
       <c r="D128" t="n">
-        <v>0.269124</v>
+        <v>0.265398</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314665</v>
+        <v>0.311388</v>
       </c>
       <c r="C129" t="n">
-        <v>0.319961</v>
+        <v>0.313797</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273894</v>
+        <v>0.270535</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.320018</v>
+        <v>0.3194</v>
       </c>
       <c r="C130" t="n">
-        <v>0.326816</v>
+        <v>0.321082</v>
       </c>
       <c r="D130" t="n">
-        <v>0.275841</v>
+        <v>0.272725</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.332969</v>
+        <v>0.30923</v>
       </c>
       <c r="C131" t="n">
-        <v>0.338505</v>
+        <v>0.332724</v>
       </c>
       <c r="D131" t="n">
-        <v>0.281493</v>
+        <v>0.278825</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.339966</v>
+        <v>0.324863</v>
       </c>
       <c r="C132" t="n">
-        <v>0.353128</v>
+        <v>0.346774</v>
       </c>
       <c r="D132" t="n">
-        <v>0.287714</v>
+        <v>0.284445</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363705</v>
+        <v>0.351139</v>
       </c>
       <c r="C133" t="n">
-        <v>0.373112</v>
+        <v>0.365106</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294623</v>
+        <v>0.291601</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376022</v>
+        <v>0.372332</v>
       </c>
       <c r="C134" t="n">
-        <v>0.398319</v>
+        <v>0.391858</v>
       </c>
       <c r="D134" t="n">
-        <v>0.304203</v>
+        <v>0.30156</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.408867</v>
+        <v>0.400245</v>
       </c>
       <c r="C135" t="n">
-        <v>0.43325</v>
+        <v>0.428464</v>
       </c>
       <c r="D135" t="n">
-        <v>0.319108</v>
+        <v>0.318517</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.454101</v>
+        <v>0.445022</v>
       </c>
       <c r="C136" t="n">
-        <v>0.489131</v>
+        <v>0.478762</v>
       </c>
       <c r="D136" t="n">
-        <v>0.344327</v>
+        <v>0.340425</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.530429</v>
+        <v>0.51306</v>
       </c>
       <c r="C137" t="n">
-        <v>0.567149</v>
+        <v>0.5577569999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.409496</v>
+        <v>0.396717</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.46282</v>
+        <v>0.447297</v>
       </c>
       <c r="C138" t="n">
-        <v>0.455965</v>
+        <v>0.431801</v>
       </c>
       <c r="D138" t="n">
-        <v>0.413026</v>
+        <v>0.392446</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.474202</v>
+        <v>0.43257</v>
       </c>
       <c r="C139" t="n">
-        <v>0.461183</v>
+        <v>0.440472</v>
       </c>
       <c r="D139" t="n">
-        <v>0.415426</v>
+        <v>0.398109</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.479607</v>
+        <v>0.454437</v>
       </c>
       <c r="C140" t="n">
-        <v>0.469261</v>
+        <v>0.447444</v>
       </c>
       <c r="D140" t="n">
-        <v>0.421718</v>
+        <v>0.404135</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.485894</v>
+        <v>0.46219</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4728</v>
+        <v>0.456266</v>
       </c>
       <c r="D141" t="n">
-        <v>0.420593</v>
+        <v>0.41013</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.490319</v>
+        <v>0.468595</v>
       </c>
       <c r="C142" t="n">
-        <v>0.483045</v>
+        <v>0.4626</v>
       </c>
       <c r="D142" t="n">
-        <v>0.426524</v>
+        <v>0.411901</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.498596</v>
+        <v>0.447586</v>
       </c>
       <c r="C143" t="n">
-        <v>0.489819</v>
+        <v>0.468886</v>
       </c>
       <c r="D143" t="n">
-        <v>0.430282</v>
+        <v>0.412482</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167322</v>
+        <v>0.167332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187985</v>
+        <v>0.188193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181769</v>
+        <v>0.182148</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.173153</v>
+        <v>0.171154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190986</v>
+        <v>0.191031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182683</v>
+        <v>0.18299</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179707</v>
+        <v>0.178584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.198787</v>
+        <v>0.199041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185288</v>
+        <v>0.1856</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186502</v>
+        <v>0.186741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208705</v>
+        <v>0.209154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.187957</v>
+        <v>0.188193</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196183</v>
+        <v>0.196513</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223669</v>
+        <v>0.223925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193455</v>
+        <v>0.193673</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.214579</v>
+        <v>0.216128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248229</v>
+        <v>0.247984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202278</v>
+        <v>0.202179</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246437</v>
+        <v>0.246162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279554</v>
+        <v>0.278374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213716</v>
+        <v>0.213409</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295019</v>
+        <v>0.294807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.325552</v>
+        <v>0.325668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177402</v>
+        <v>0.177305</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.160804</v>
+        <v>0.159922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174837</v>
+        <v>0.175036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17767</v>
+        <v>0.177975</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.159986</v>
+        <v>0.160087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175342</v>
+        <v>0.175679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177762</v>
+        <v>0.177953</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161467</v>
+        <v>0.161277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176443</v>
+        <v>0.176574</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178181</v>
+        <v>0.178424</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162388</v>
+        <v>0.162462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177729</v>
+        <v>0.177799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17835</v>
+        <v>0.17875</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164035</v>
+        <v>0.164253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180559</v>
+        <v>0.18101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179105</v>
+        <v>0.179301</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166518</v>
+        <v>0.166346</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183219</v>
+        <v>0.183255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179824</v>
+        <v>0.179875</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.170457</v>
+        <v>0.169694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186956</v>
+        <v>0.187391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180855</v>
+        <v>0.180944</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173427</v>
+        <v>0.173662</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191729</v>
+        <v>0.191904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.181897</v>
+        <v>0.182108</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179034</v>
+        <v>0.179028</v>
       </c>
       <c r="C18" t="n">
-        <v>0.196885</v>
+        <v>0.197674</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183571</v>
+        <v>0.183574</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187478</v>
+        <v>0.18756</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205404</v>
+        <v>0.205689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186611</v>
+        <v>0.186783</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199957</v>
+        <v>0.199226</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218826</v>
+        <v>0.218617</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19018</v>
+        <v>0.190093</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220324</v>
+        <v>0.220265</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236212</v>
+        <v>0.236705</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195809</v>
+        <v>0.195952</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247979</v>
+        <v>0.24822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262099</v>
+        <v>0.261895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206478</v>
+        <v>0.206204</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293221</v>
+        <v>0.293471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310915</v>
+        <v>0.311354</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177153</v>
+        <v>0.177109</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.16187</v>
+        <v>0.161877</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174071</v>
+        <v>0.173649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177494</v>
+        <v>0.177315</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162652</v>
+        <v>0.162475</v>
       </c>
       <c r="C25" t="n">
-        <v>0.17463</v>
+        <v>0.174461</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177714</v>
+        <v>0.177495</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163697</v>
+        <v>0.163162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17653</v>
+        <v>0.175421</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177813</v>
+        <v>0.177812</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164824</v>
+        <v>0.164372</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177542</v>
+        <v>0.177012</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178256</v>
+        <v>0.178179</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166376</v>
+        <v>0.165986</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179146</v>
+        <v>0.178717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178997</v>
+        <v>0.178805</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168662</v>
+        <v>0.168195</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181939</v>
+        <v>0.181592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179328</v>
+        <v>0.179484</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171461</v>
+        <v>0.171061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.184813</v>
+        <v>0.18446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180443</v>
+        <v>0.180282</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174919</v>
+        <v>0.174518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.18911</v>
+        <v>0.188951</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181527</v>
+        <v>0.181282</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18063</v>
+        <v>0.180153</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194901</v>
+        <v>0.194366</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183275</v>
+        <v>0.183042</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188278</v>
+        <v>0.187852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203915</v>
+        <v>0.203255</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185831</v>
+        <v>0.185499</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198759</v>
+        <v>0.198247</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214713</v>
+        <v>0.214134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189041</v>
+        <v>0.18836</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2158</v>
+        <v>0.215257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231389</v>
+        <v>0.230792</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194677</v>
+        <v>0.193138</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24378</v>
+        <v>0.243235</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258633</v>
+        <v>0.257921</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203346</v>
+        <v>0.201895</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285947</v>
+        <v>0.285122</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300023</v>
+        <v>0.298894</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177574</v>
+        <v>0.177029</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162846</v>
+        <v>0.162754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174969</v>
+        <v>0.174048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177868</v>
+        <v>0.177192</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.16376</v>
+        <v>0.163664</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175901</v>
+        <v>0.175348</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178274</v>
+        <v>0.177657</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164627</v>
+        <v>0.164552</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176897</v>
+        <v>0.176387</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178506</v>
+        <v>0.178044</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165683</v>
+        <v>0.165565</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178115</v>
+        <v>0.177589</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178862</v>
+        <v>0.178421</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167261</v>
+        <v>0.167228</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179538</v>
+        <v>0.179117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179382</v>
+        <v>0.179011</v>
       </c>
     </row>
     <row r="43">
@@ -3825,10 +3825,10 @@
         <v>0.16907</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181758</v>
+        <v>0.181237</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179915</v>
+        <v>0.179541</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.17167</v>
+        <v>0.171644</v>
       </c>
       <c r="C44" t="n">
-        <v>0.185009</v>
+        <v>0.184579</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180764</v>
+        <v>0.180448</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175226</v>
+        <v>0.175195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.189141</v>
+        <v>0.188828</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181811</v>
+        <v>0.181522</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179831</v>
+        <v>0.179807</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194879</v>
+        <v>0.194655</v>
       </c>
       <c r="D46" t="n">
-        <v>0.18354</v>
+        <v>0.183316</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187253</v>
+        <v>0.187267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202799</v>
+        <v>0.202623</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185716</v>
+        <v>0.1854</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197625</v>
+        <v>0.19768</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214077</v>
+        <v>0.213937</v>
       </c>
       <c r="D48" t="n">
-        <v>0.189709</v>
+        <v>0.188662</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213502</v>
+        <v>0.213642</v>
       </c>
       <c r="C49" t="n">
-        <v>0.229946</v>
+        <v>0.229897</v>
       </c>
       <c r="D49" t="n">
-        <v>0.194245</v>
+        <v>0.193234</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237774</v>
+        <v>0.238021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257264</v>
+        <v>0.257202</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202503</v>
+        <v>0.201691</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275472</v>
+        <v>0.27561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293101</v>
+        <v>0.29299</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177512</v>
+        <v>0.178176</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331102</v>
+        <v>0.333115</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349315</v>
+        <v>0.350473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.177785</v>
+        <v>0.178506</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.167497</v>
+        <v>0.1662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175954</v>
+        <v>0.176853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178083</v>
+        <v>0.178862</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.168071</v>
+        <v>0.166897</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177114</v>
+        <v>0.177893</v>
       </c>
       <c r="D54" t="n">
-        <v>0.178455</v>
+        <v>0.179223</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.169263</v>
+        <v>0.168058</v>
       </c>
       <c r="C55" t="n">
-        <v>0.178466</v>
+        <v>0.179294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17889</v>
+        <v>0.179646</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170857</v>
+        <v>0.169628</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180108</v>
+        <v>0.180959</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179417</v>
+        <v>0.180246</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172755</v>
+        <v>0.17144</v>
       </c>
       <c r="C57" t="n">
-        <v>0.182407</v>
+        <v>0.183244</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180041</v>
+        <v>0.180841</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175299</v>
+        <v>0.173959</v>
       </c>
       <c r="C58" t="n">
-        <v>0.185736</v>
+        <v>0.186568</v>
       </c>
       <c r="D58" t="n">
-        <v>0.180909</v>
+        <v>0.181675</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178658</v>
+        <v>0.177258</v>
       </c>
       <c r="C59" t="n">
-        <v>0.189999</v>
+        <v>0.190921</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181926</v>
+        <v>0.182723</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.183551</v>
+        <v>0.182128</v>
       </c>
       <c r="C60" t="n">
-        <v>0.195217</v>
+        <v>0.196206</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183459</v>
+        <v>0.184273</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189979</v>
+        <v>0.188453</v>
       </c>
       <c r="C61" t="n">
-        <v>0.202609</v>
+        <v>0.20378</v>
       </c>
       <c r="D61" t="n">
-        <v>0.185373</v>
+        <v>0.186149</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199377</v>
+        <v>0.197854</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21302</v>
+        <v>0.214418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18829</v>
+        <v>0.189213</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.21402</v>
+        <v>0.212405</v>
       </c>
       <c r="C63" t="n">
-        <v>0.228401</v>
+        <v>0.230079</v>
       </c>
       <c r="D63" t="n">
-        <v>0.193105</v>
+        <v>0.194097</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236338</v>
+        <v>0.234599</v>
       </c>
       <c r="C64" t="n">
-        <v>0.251909</v>
+        <v>0.254107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200871</v>
+        <v>0.202023</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.269246</v>
+        <v>0.267611</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287492</v>
+        <v>0.290481</v>
       </c>
       <c r="D65" t="n">
-        <v>0.214713</v>
+        <v>0.216204</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.321262</v>
+        <v>0.319778</v>
       </c>
       <c r="C66" t="n">
-        <v>0.338705</v>
+        <v>0.343137</v>
       </c>
       <c r="D66" t="n">
-        <v>0.192183</v>
+        <v>0.194088</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185323</v>
+        <v>0.184081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.19179</v>
+        <v>0.194644</v>
       </c>
       <c r="D67" t="n">
-        <v>0.192688</v>
+        <v>0.194711</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185853</v>
+        <v>0.184553</v>
       </c>
       <c r="C68" t="n">
-        <v>0.192778</v>
+        <v>0.195586</v>
       </c>
       <c r="D68" t="n">
-        <v>0.193352</v>
+        <v>0.195043</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.187052</v>
+        <v>0.185635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.194272</v>
+        <v>0.197132</v>
       </c>
       <c r="D69" t="n">
-        <v>0.193853</v>
+        <v>0.195548</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.18847</v>
+        <v>0.1871</v>
       </c>
       <c r="C70" t="n">
-        <v>0.195967</v>
+        <v>0.198898</v>
       </c>
       <c r="D70" t="n">
-        <v>0.19416</v>
+        <v>0.196089</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.190197</v>
+        <v>0.188905</v>
       </c>
       <c r="C71" t="n">
-        <v>0.198283</v>
+        <v>0.201334</v>
       </c>
       <c r="D71" t="n">
-        <v>0.194594</v>
+        <v>0.196732</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192508</v>
+        <v>0.191174</v>
       </c>
       <c r="C72" t="n">
-        <v>0.201198</v>
+        <v>0.204357</v>
       </c>
       <c r="D72" t="n">
-        <v>0.195449</v>
+        <v>0.197685</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195615</v>
+        <v>0.194257</v>
       </c>
       <c r="C73" t="n">
-        <v>0.205143</v>
+        <v>0.208299</v>
       </c>
       <c r="D73" t="n">
-        <v>0.196996</v>
+        <v>0.198895</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199802</v>
+        <v>0.198503</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210494</v>
+        <v>0.21406</v>
       </c>
       <c r="D74" t="n">
-        <v>0.198448</v>
+        <v>0.200376</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205858</v>
+        <v>0.204604</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218351</v>
+        <v>0.222162</v>
       </c>
       <c r="D75" t="n">
-        <v>0.200564</v>
+        <v>0.20273</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214734</v>
+        <v>0.21353</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228833</v>
+        <v>0.232885</v>
       </c>
       <c r="D76" t="n">
-        <v>0.203488</v>
+        <v>0.206083</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227322</v>
+        <v>0.226118</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24364</v>
+        <v>0.247994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2082</v>
+        <v>0.211044</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.246478</v>
+        <v>0.245317</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265493</v>
+        <v>0.27028</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216027</v>
+        <v>0.219055</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277936</v>
+        <v>0.276679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.299347</v>
+        <v>0.304619</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229628</v>
+        <v>0.23271</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324574</v>
+        <v>0.323314</v>
       </c>
       <c r="C80" t="n">
-        <v>0.34869</v>
+        <v>0.354558</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203753</v>
+        <v>0.205303</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203047</v>
+        <v>0.2031</v>
       </c>
       <c r="C81" t="n">
-        <v>0.204287</v>
+        <v>0.205912</v>
       </c>
       <c r="D81" t="n">
-        <v>0.204149</v>
+        <v>0.2056</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.20383</v>
+        <v>0.203953</v>
       </c>
       <c r="C82" t="n">
-        <v>0.205347</v>
+        <v>0.206837</v>
       </c>
       <c r="D82" t="n">
-        <v>0.20451</v>
+        <v>0.205954</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.204938</v>
+        <v>0.205053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.206662</v>
+        <v>0.208054</v>
       </c>
       <c r="D83" t="n">
-        <v>0.204942</v>
+        <v>0.206402</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.20624</v>
+        <v>0.206296</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208386</v>
+        <v>0.209816</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205522</v>
+        <v>0.207025</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.207837</v>
+        <v>0.207869</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210423</v>
+        <v>0.211874</v>
       </c>
       <c r="D85" t="n">
-        <v>0.206492</v>
+        <v>0.208022</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209982</v>
+        <v>0.209882</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213109</v>
+        <v>0.214475</v>
       </c>
       <c r="D86" t="n">
-        <v>0.207128</v>
+        <v>0.208627</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212625</v>
+        <v>0.212564</v>
       </c>
       <c r="C87" t="n">
-        <v>0.21684</v>
+        <v>0.218229</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208244</v>
+        <v>0.209757</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216373</v>
+        <v>0.216369</v>
       </c>
       <c r="C88" t="n">
-        <v>0.221941</v>
+        <v>0.223444</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209746</v>
+        <v>0.211444</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221628</v>
+        <v>0.221685</v>
       </c>
       <c r="C89" t="n">
-        <v>0.229263</v>
+        <v>0.230789</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211973</v>
+        <v>0.213621</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229517</v>
+        <v>0.229428</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239159</v>
+        <v>0.240693</v>
       </c>
       <c r="D90" t="n">
-        <v>0.215238</v>
+        <v>0.216864</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.24108</v>
+        <v>0.240988</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253099</v>
+        <v>0.254608</v>
       </c>
       <c r="D91" t="n">
-        <v>0.21989</v>
+        <v>0.221687</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258784</v>
+        <v>0.258662</v>
       </c>
       <c r="C92" t="n">
-        <v>0.273152</v>
+        <v>0.274818</v>
       </c>
       <c r="D92" t="n">
-        <v>0.227454</v>
+        <v>0.22923</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286695</v>
+        <v>0.286533</v>
       </c>
       <c r="C93" t="n">
-        <v>0.30456</v>
+        <v>0.30619</v>
       </c>
       <c r="D93" t="n">
-        <v>0.239739</v>
+        <v>0.241929</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330146</v>
+        <v>0.330164</v>
       </c>
       <c r="C94" t="n">
-        <v>0.352556</v>
+        <v>0.354133</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214835</v>
+        <v>0.212549</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215807</v>
+        <v>0.208952</v>
       </c>
       <c r="C95" t="n">
-        <v>0.21684</v>
+        <v>0.213966</v>
       </c>
       <c r="D95" t="n">
-        <v>0.215358</v>
+        <v>0.212854</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216782</v>
+        <v>0.209802</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218025</v>
+        <v>0.21485</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215738</v>
+        <v>0.213284</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217998</v>
+        <v>0.210885</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21959</v>
+        <v>0.216349</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216379</v>
+        <v>0.213698</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219508</v>
+        <v>0.212294</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221581</v>
+        <v>0.21797</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217011</v>
+        <v>0.214284</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.221294</v>
+        <v>0.214069</v>
       </c>
       <c r="C99" t="n">
-        <v>0.224099</v>
+        <v>0.220261</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21789</v>
+        <v>0.214945</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223568</v>
+        <v>0.216245</v>
       </c>
       <c r="C100" t="n">
-        <v>0.227188</v>
+        <v>0.223044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218877</v>
+        <v>0.215878</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226792</v>
+        <v>0.219341</v>
       </c>
       <c r="C101" t="n">
-        <v>0.231461</v>
+        <v>0.227281</v>
       </c>
       <c r="D101" t="n">
-        <v>0.220178</v>
+        <v>0.216931</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.231075</v>
+        <v>0.223378</v>
       </c>
       <c r="C102" t="n">
-        <v>0.237487</v>
+        <v>0.232994</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221861</v>
+        <v>0.21847</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236989</v>
+        <v>0.229151</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245788</v>
+        <v>0.241189</v>
       </c>
       <c r="D103" t="n">
-        <v>0.224482</v>
+        <v>0.220655</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245747</v>
+        <v>0.237647</v>
       </c>
       <c r="C104" t="n">
-        <v>0.257117</v>
+        <v>0.252355</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227867</v>
+        <v>0.223983</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258315</v>
+        <v>0.249933</v>
       </c>
       <c r="C105" t="n">
-        <v>0.272761</v>
+        <v>0.268101</v>
       </c>
       <c r="D105" t="n">
-        <v>0.233009</v>
+        <v>0.228673</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277488</v>
+        <v>0.268613</v>
       </c>
       <c r="C106" t="n">
-        <v>0.294583</v>
+        <v>0.290025</v>
       </c>
       <c r="D106" t="n">
-        <v>0.240826</v>
+        <v>0.236096</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305897</v>
+        <v>0.29692</v>
       </c>
       <c r="C107" t="n">
-        <v>0.327182</v>
+        <v>0.322639</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25409</v>
+        <v>0.248732</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349122</v>
+        <v>0.340113</v>
       </c>
       <c r="C108" t="n">
-        <v>0.375521</v>
+        <v>0.370635</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219781</v>
+        <v>0.219423</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.413197</v>
+        <v>0.408349</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443323</v>
+        <v>0.442925</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220636</v>
+        <v>0.22002</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235904</v>
+        <v>0.234608</v>
       </c>
       <c r="C110" t="n">
-        <v>0.235456</v>
+        <v>0.234196</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221336</v>
+        <v>0.220951</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.240152</v>
+        <v>0.239863</v>
       </c>
       <c r="C111" t="n">
-        <v>0.238992</v>
+        <v>0.239548</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222553</v>
+        <v>0.222193</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244664</v>
+        <v>0.244662</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244756</v>
+        <v>0.244963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223958</v>
+        <v>0.223522</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249842</v>
+        <v>0.250377</v>
       </c>
       <c r="C113" t="n">
-        <v>0.252173</v>
+        <v>0.25182</v>
       </c>
       <c r="D113" t="n">
-        <v>0.22564</v>
+        <v>0.225318</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256908</v>
+        <v>0.256872</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258844</v>
+        <v>0.259401</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228356</v>
+        <v>0.227039</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263853</v>
+        <v>0.264103</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26837</v>
+        <v>0.267857</v>
       </c>
       <c r="D115" t="n">
-        <v>0.229999</v>
+        <v>0.230854</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273279</v>
+        <v>0.2717</v>
       </c>
       <c r="C116" t="n">
-        <v>0.276924</v>
+        <v>0.278025</v>
       </c>
       <c r="D116" t="n">
-        <v>0.234437</v>
+        <v>0.235281</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282784</v>
+        <v>0.282054</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290373</v>
+        <v>0.289811</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240211</v>
+        <v>0.239885</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289922</v>
+        <v>0.293682</v>
       </c>
       <c r="C118" t="n">
-        <v>0.304137</v>
+        <v>0.301152</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24719</v>
+        <v>0.246519</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309776</v>
+        <v>0.304313</v>
       </c>
       <c r="C119" t="n">
-        <v>0.321775</v>
+        <v>0.32111</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25594</v>
+        <v>0.255283</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.325368</v>
+        <v>0.324938</v>
       </c>
       <c r="C120" t="n">
-        <v>0.345629</v>
+        <v>0.341744</v>
       </c>
       <c r="D120" t="n">
-        <v>0.267056</v>
+        <v>0.265301</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.360177</v>
+        <v>0.359922</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378614</v>
+        <v>0.374673</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283599</v>
+        <v>0.282786</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403866</v>
+        <v>0.403396</v>
       </c>
       <c r="C122" t="n">
-        <v>0.429113</v>
+        <v>0.424075</v>
       </c>
       <c r="D122" t="n">
-        <v>0.309304</v>
+        <v>0.308466</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465435</v>
+        <v>0.471874</v>
       </c>
       <c r="C123" t="n">
-        <v>0.50225</v>
+        <v>0.506746</v>
       </c>
       <c r="D123" t="n">
-        <v>0.250851</v>
+        <v>0.249667</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.286382</v>
+        <v>0.287225</v>
       </c>
       <c r="C124" t="n">
-        <v>0.288723</v>
+        <v>0.283647</v>
       </c>
       <c r="D124" t="n">
-        <v>0.256326</v>
+        <v>0.251668</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287896</v>
+        <v>0.286898</v>
       </c>
       <c r="C125" t="n">
-        <v>0.293357</v>
+        <v>0.289307</v>
       </c>
       <c r="D125" t="n">
-        <v>0.259416</v>
+        <v>0.255791</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.287783</v>
+        <v>0.292081</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295057</v>
+        <v>0.297008</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259943</v>
+        <v>0.261776</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301137</v>
+        <v>0.29826</v>
       </c>
       <c r="C127" t="n">
-        <v>0.301247</v>
+        <v>0.298362</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263845</v>
+        <v>0.261803</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291409</v>
+        <v>0.288281</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3052</v>
+        <v>0.306217</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265398</v>
+        <v>0.267047</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.311388</v>
+        <v>0.311024</v>
       </c>
       <c r="C129" t="n">
-        <v>0.313797</v>
+        <v>0.312978</v>
       </c>
       <c r="D129" t="n">
-        <v>0.270535</v>
+        <v>0.269273</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3194</v>
+        <v>0.314633</v>
       </c>
       <c r="C130" t="n">
-        <v>0.321082</v>
+        <v>0.321133</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272725</v>
+        <v>0.273612</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.30923</v>
+        <v>0.324509</v>
       </c>
       <c r="C131" t="n">
-        <v>0.332724</v>
+        <v>0.333437</v>
       </c>
       <c r="D131" t="n">
-        <v>0.278825</v>
+        <v>0.279556</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.324863</v>
+        <v>0.335355</v>
       </c>
       <c r="C132" t="n">
-        <v>0.346774</v>
+        <v>0.346311</v>
       </c>
       <c r="D132" t="n">
-        <v>0.284445</v>
+        <v>0.284365</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351139</v>
+        <v>0.351008</v>
       </c>
       <c r="C133" t="n">
-        <v>0.365106</v>
+        <v>0.3662</v>
       </c>
       <c r="D133" t="n">
-        <v>0.291601</v>
+        <v>0.293142</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.372332</v>
+        <v>0.370559</v>
       </c>
       <c r="C134" t="n">
-        <v>0.391858</v>
+        <v>0.388722</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30156</v>
+        <v>0.302237</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.400245</v>
+        <v>0.401559</v>
       </c>
       <c r="C135" t="n">
-        <v>0.428464</v>
+        <v>0.424141</v>
       </c>
       <c r="D135" t="n">
-        <v>0.318517</v>
+        <v>0.314222</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.445022</v>
+        <v>0.442907</v>
       </c>
       <c r="C136" t="n">
-        <v>0.478762</v>
+        <v>0.476293</v>
       </c>
       <c r="D136" t="n">
-        <v>0.340425</v>
+        <v>0.339712</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.51306</v>
+        <v>0.512706</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5577569999999999</v>
+        <v>0.549814</v>
       </c>
       <c r="D137" t="n">
-        <v>0.396717</v>
+        <v>0.392523</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.447297</v>
+        <v>0.450606</v>
       </c>
       <c r="C138" t="n">
-        <v>0.431801</v>
+        <v>0.436332</v>
       </c>
       <c r="D138" t="n">
-        <v>0.392446</v>
+        <v>0.39762</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.43257</v>
+        <v>0.452352</v>
       </c>
       <c r="C139" t="n">
-        <v>0.440472</v>
+        <v>0.434225</v>
       </c>
       <c r="D139" t="n">
-        <v>0.398109</v>
+        <v>0.392099</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454437</v>
+        <v>0.430727</v>
       </c>
       <c r="C140" t="n">
-        <v>0.447444</v>
+        <v>0.446006</v>
       </c>
       <c r="D140" t="n">
-        <v>0.404135</v>
+        <v>0.400604</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46219</v>
+        <v>0.437791</v>
       </c>
       <c r="C141" t="n">
-        <v>0.456266</v>
+        <v>0.454114</v>
       </c>
       <c r="D141" t="n">
-        <v>0.41013</v>
+        <v>0.407469</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.468595</v>
+        <v>0.474756</v>
       </c>
       <c r="C142" t="n">
-        <v>0.4626</v>
+        <v>0.457728</v>
       </c>
       <c r="D142" t="n">
-        <v>0.411901</v>
+        <v>0.406206</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.447586</v>
+        <v>0.472156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.468886</v>
+        <v>0.464014</v>
       </c>
       <c r="D143" t="n">
-        <v>0.412482</v>
+        <v>0.40652</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167332</v>
+        <v>0.168571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188193</v>
+        <v>0.187878</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182148</v>
+        <v>0.181503</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171154</v>
+        <v>0.1719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191031</v>
+        <v>0.190518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18299</v>
+        <v>0.182562</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178584</v>
+        <v>0.177625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199041</v>
+        <v>0.198646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1856</v>
+        <v>0.185149</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186741</v>
+        <v>0.18655</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209154</v>
+        <v>0.208809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188193</v>
+        <v>0.187804</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196513</v>
+        <v>0.196212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223925</v>
+        <v>0.223308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193673</v>
+        <v>0.193281</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216128</v>
+        <v>0.216124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.247984</v>
+        <v>0.248322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202179</v>
+        <v>0.202059</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246162</v>
+        <v>0.246886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278374</v>
+        <v>0.278182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213409</v>
+        <v>0.213112</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294807</v>
+        <v>0.294864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.325668</v>
+        <v>0.326518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177305</v>
+        <v>0.177289</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159922</v>
+        <v>0.159431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175036</v>
+        <v>0.174548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177975</v>
+        <v>0.177505</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160087</v>
+        <v>0.159984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175679</v>
+        <v>0.175352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.177953</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161277</v>
+        <v>0.161196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176574</v>
+        <v>0.176292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178424</v>
+        <v>0.178108</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162462</v>
+        <v>0.162326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177799</v>
+        <v>0.177507</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17875</v>
+        <v>0.178365</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164253</v>
+        <v>0.164062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18101</v>
+        <v>0.180429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179301</v>
+        <v>0.17905</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166346</v>
+        <v>0.166323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183255</v>
+        <v>0.182909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179875</v>
+        <v>0.179811</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169694</v>
+        <v>0.169432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187391</v>
+        <v>0.186758</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180944</v>
+        <v>0.180782</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173662</v>
+        <v>0.173253</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191904</v>
+        <v>0.191643</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182108</v>
+        <v>0.182308</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179028</v>
+        <v>0.178711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197674</v>
+        <v>0.197158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183574</v>
+        <v>0.18375</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18756</v>
+        <v>0.187035</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205689</v>
+        <v>0.205559</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186783</v>
+        <v>0.186481</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199226</v>
+        <v>0.199006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218617</v>
+        <v>0.218608</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190093</v>
+        <v>0.190107</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.220265</v>
+        <v>0.21883</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236705</v>
+        <v>0.236349</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195952</v>
+        <v>0.195683</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24822</v>
+        <v>0.247887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261895</v>
+        <v>0.262207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206204</v>
+        <v>0.205925</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293471</v>
+        <v>0.293354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.311354</v>
+        <v>0.310342</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177109</v>
+        <v>0.176816</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161877</v>
+        <v>0.162052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173649</v>
+        <v>0.175065</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177315</v>
+        <v>0.177078</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162475</v>
+        <v>0.16253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174461</v>
+        <v>0.175779</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177495</v>
+        <v>0.17734</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163162</v>
+        <v>0.163645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175421</v>
+        <v>0.176664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177812</v>
+        <v>0.177598</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164372</v>
+        <v>0.164853</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177012</v>
+        <v>0.178106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178179</v>
+        <v>0.177942</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165986</v>
+        <v>0.166492</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178717</v>
+        <v>0.179518</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178805</v>
+        <v>0.178601</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168195</v>
+        <v>0.168813</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181592</v>
+        <v>0.182421</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179484</v>
+        <v>0.179281</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171061</v>
+        <v>0.171751</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18446</v>
+        <v>0.185115</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180282</v>
+        <v>0.18019</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174518</v>
+        <v>0.175278</v>
       </c>
       <c r="C31" t="n">
-        <v>0.188951</v>
+        <v>0.189236</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181282</v>
+        <v>0.181178</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180153</v>
+        <v>0.180887</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194366</v>
+        <v>0.194945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183042</v>
+        <v>0.183287</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187852</v>
+        <v>0.188392</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203255</v>
+        <v>0.20392</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185499</v>
+        <v>0.185667</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198247</v>
+        <v>0.199021</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214134</v>
+        <v>0.214773</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18836</v>
+        <v>0.188864</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215257</v>
+        <v>0.215999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230792</v>
+        <v>0.2316</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193138</v>
+        <v>0.193621</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243235</v>
+        <v>0.243897</v>
       </c>
       <c r="C36" t="n">
-        <v>0.257921</v>
+        <v>0.258805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201895</v>
+        <v>0.202402</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285122</v>
+        <v>0.28623</v>
       </c>
       <c r="C37" t="n">
-        <v>0.298894</v>
+        <v>0.300171</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177029</v>
+        <v>0.177627</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162754</v>
+        <v>0.16277</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174048</v>
+        <v>0.174825</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177192</v>
+        <v>0.177139</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163664</v>
+        <v>0.163766</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175348</v>
+        <v>0.175989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177657</v>
+        <v>0.177721</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164552</v>
+        <v>0.164642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176387</v>
+        <v>0.176935</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178044</v>
+        <v>0.177938</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165565</v>
+        <v>0.16563</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177589</v>
+        <v>0.177894</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178421</v>
+        <v>0.178606</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167228</v>
+        <v>0.16728</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179117</v>
+        <v>0.179519</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179011</v>
+        <v>0.179007</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.16907</v>
+        <v>0.169103</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181237</v>
+        <v>0.1816</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179541</v>
+        <v>0.179385</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171644</v>
+        <v>0.171716</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184579</v>
+        <v>0.184817</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180448</v>
+        <v>0.180515</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175195</v>
+        <v>0.175252</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188828</v>
+        <v>0.18905</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181522</v>
+        <v>0.181663</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179807</v>
+        <v>0.179856</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194655</v>
+        <v>0.194696</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183316</v>
+        <v>0.183352</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187267</v>
+        <v>0.187325</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202623</v>
+        <v>0.202538</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1854</v>
+        <v>0.185505</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19768</v>
+        <v>0.197742</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213937</v>
+        <v>0.213879</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188662</v>
+        <v>0.1887</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213642</v>
+        <v>0.213752</v>
       </c>
       <c r="C49" t="n">
-        <v>0.229897</v>
+        <v>0.22992</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193234</v>
+        <v>0.193418</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238021</v>
+        <v>0.237912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257202</v>
+        <v>0.257217</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201691</v>
+        <v>0.201704</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27561</v>
+        <v>0.275936</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29299</v>
+        <v>0.293136</v>
       </c>
       <c r="D51" t="n">
-        <v>0.178176</v>
+        <v>0.181019</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333115</v>
+        <v>0.333397</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350473</v>
+        <v>0.349254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178506</v>
+        <v>0.181341</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1662</v>
+        <v>0.167171</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176853</v>
+        <v>0.180245</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178862</v>
+        <v>0.181689</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.166897</v>
+        <v>0.167796</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177893</v>
+        <v>0.181408</v>
       </c>
       <c r="D54" t="n">
-        <v>0.179223</v>
+        <v>0.182054</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168058</v>
+        <v>0.168978</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179294</v>
+        <v>0.182821</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179646</v>
+        <v>0.182572</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.169628</v>
+        <v>0.170566</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180959</v>
+        <v>0.184577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.180246</v>
+        <v>0.183113</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.17144</v>
+        <v>0.172402</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183244</v>
+        <v>0.186981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180841</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.173959</v>
+        <v>0.174931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186568</v>
+        <v>0.190348</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181675</v>
+        <v>0.184694</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177258</v>
+        <v>0.178266</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190921</v>
+        <v>0.194686</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182723</v>
+        <v>0.185782</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182128</v>
+        <v>0.183126</v>
       </c>
       <c r="C60" t="n">
-        <v>0.196206</v>
+        <v>0.200004</v>
       </c>
       <c r="D60" t="n">
-        <v>0.184273</v>
+        <v>0.187272</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188453</v>
+        <v>0.189518</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20378</v>
+        <v>0.207769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.186149</v>
+        <v>0.189318</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197854</v>
+        <v>0.198872</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214418</v>
+        <v>0.218199</v>
       </c>
       <c r="D62" t="n">
-        <v>0.189213</v>
+        <v>0.192334</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212405</v>
+        <v>0.213421</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230079</v>
+        <v>0.233982</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194097</v>
+        <v>0.197381</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234599</v>
+        <v>0.235561</v>
       </c>
       <c r="C64" t="n">
-        <v>0.254107</v>
+        <v>0.257977</v>
       </c>
       <c r="D64" t="n">
-        <v>0.202023</v>
+        <v>0.205418</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267611</v>
+        <v>0.268786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290481</v>
+        <v>0.29451</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216204</v>
+        <v>0.219845</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.319778</v>
+        <v>0.320725</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343137</v>
+        <v>0.348559</v>
       </c>
       <c r="D66" t="n">
-        <v>0.194088</v>
+        <v>0.188838</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184081</v>
+        <v>0.184611</v>
       </c>
       <c r="C67" t="n">
-        <v>0.194644</v>
+        <v>0.189579</v>
       </c>
       <c r="D67" t="n">
-        <v>0.194711</v>
+        <v>0.189175</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184553</v>
+        <v>0.185419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.195586</v>
+        <v>0.190899</v>
       </c>
       <c r="D68" t="n">
-        <v>0.195043</v>
+        <v>0.189591</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185635</v>
+        <v>0.186637</v>
       </c>
       <c r="C69" t="n">
-        <v>0.197132</v>
+        <v>0.192588</v>
       </c>
       <c r="D69" t="n">
-        <v>0.195548</v>
+        <v>0.190129</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1871</v>
+        <v>0.188059</v>
       </c>
       <c r="C70" t="n">
-        <v>0.198898</v>
+        <v>0.194526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.196089</v>
+        <v>0.190738</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188905</v>
+        <v>0.189802</v>
       </c>
       <c r="C71" t="n">
-        <v>0.201334</v>
+        <v>0.197152</v>
       </c>
       <c r="D71" t="n">
-        <v>0.196732</v>
+        <v>0.191459</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.191174</v>
+        <v>0.192053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.204357</v>
+        <v>0.200411</v>
       </c>
       <c r="D72" t="n">
-        <v>0.197685</v>
+        <v>0.192459</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194257</v>
+        <v>0.195157</v>
       </c>
       <c r="C73" t="n">
-        <v>0.208299</v>
+        <v>0.204725</v>
       </c>
       <c r="D73" t="n">
-        <v>0.198895</v>
+        <v>0.193685</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198503</v>
+        <v>0.199352</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21406</v>
+        <v>0.210529</v>
       </c>
       <c r="D74" t="n">
-        <v>0.200376</v>
+        <v>0.195351</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204604</v>
+        <v>0.205386</v>
       </c>
       <c r="C75" t="n">
-        <v>0.222162</v>
+        <v>0.21887</v>
       </c>
       <c r="D75" t="n">
-        <v>0.20273</v>
+        <v>0.197648</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.21353</v>
+        <v>0.214266</v>
       </c>
       <c r="C76" t="n">
-        <v>0.232885</v>
+        <v>0.229844</v>
       </c>
       <c r="D76" t="n">
-        <v>0.206083</v>
+        <v>0.201118</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.226118</v>
+        <v>0.22692</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247994</v>
+        <v>0.245228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.211044</v>
+        <v>0.206158</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245317</v>
+        <v>0.246033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.27028</v>
+        <v>0.267695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.219055</v>
+        <v>0.214051</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276679</v>
+        <v>0.277342</v>
       </c>
       <c r="C79" t="n">
-        <v>0.304619</v>
+        <v>0.302141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23271</v>
+        <v>0.227774</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323314</v>
+        <v>0.323996</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354558</v>
+        <v>0.352079</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205303</v>
+        <v>0.205362</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2031</v>
+        <v>0.203359</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205912</v>
+        <v>0.206038</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2056</v>
+        <v>0.205668</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203953</v>
+        <v>0.204294</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206837</v>
+        <v>0.20695</v>
       </c>
       <c r="D82" t="n">
-        <v>0.205954</v>
+        <v>0.206123</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205053</v>
+        <v>0.205325</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208054</v>
+        <v>0.208185</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206402</v>
+        <v>0.206574</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206296</v>
+        <v>0.206631</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209816</v>
+        <v>0.210006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207025</v>
+        <v>0.207174</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.207869</v>
+        <v>0.20822</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211874</v>
+        <v>0.212008</v>
       </c>
       <c r="D85" t="n">
-        <v>0.208022</v>
+        <v>0.207803</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209882</v>
+        <v>0.210216</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214475</v>
+        <v>0.214681</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208627</v>
+        <v>0.208735</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212564</v>
+        <v>0.212937</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218229</v>
+        <v>0.218398</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209757</v>
+        <v>0.209888</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216369</v>
+        <v>0.216703</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223444</v>
+        <v>0.223673</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211444</v>
+        <v>0.211474</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221685</v>
+        <v>0.221948</v>
       </c>
       <c r="C89" t="n">
-        <v>0.230789</v>
+        <v>0.231027</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213621</v>
+        <v>0.213746</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229428</v>
+        <v>0.22974</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240693</v>
+        <v>0.240931</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216864</v>
+        <v>0.216982</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.240988</v>
+        <v>0.24132</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254608</v>
+        <v>0.254879</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221687</v>
+        <v>0.221743</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258662</v>
+        <v>0.258977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274818</v>
+        <v>0.275013</v>
       </c>
       <c r="D92" t="n">
-        <v>0.22923</v>
+        <v>0.229257</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286533</v>
+        <v>0.286865</v>
       </c>
       <c r="C93" t="n">
-        <v>0.30619</v>
+        <v>0.306352</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241929</v>
+        <v>0.241732</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330164</v>
+        <v>0.330482</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354133</v>
+        <v>0.354344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.212549</v>
+        <v>0.214486</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.208952</v>
+        <v>0.215549</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213966</v>
+        <v>0.216281</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212854</v>
+        <v>0.214951</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.209802</v>
+        <v>0.216478</v>
       </c>
       <c r="C96" t="n">
-        <v>0.21485</v>
+        <v>0.217499</v>
       </c>
       <c r="D96" t="n">
-        <v>0.213284</v>
+        <v>0.215465</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.210885</v>
+        <v>0.21764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.216349</v>
+        <v>0.21896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213698</v>
+        <v>0.216132</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.212294</v>
+        <v>0.219093</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21797</v>
+        <v>0.22078</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214284</v>
+        <v>0.216742</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.214069</v>
+        <v>0.220885</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220261</v>
+        <v>0.223087</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214945</v>
+        <v>0.217592</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.216245</v>
+        <v>0.223113</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223044</v>
+        <v>0.22609</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215878</v>
+        <v>0.218548</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.219341</v>
+        <v>0.22617</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227281</v>
+        <v>0.230065</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216931</v>
+        <v>0.219736</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.223378</v>
+        <v>0.23023</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232994</v>
+        <v>0.235792</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21847</v>
+        <v>0.221406</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.229151</v>
+        <v>0.236182</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241189</v>
+        <v>0.243853</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220655</v>
+        <v>0.223701</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.237647</v>
+        <v>0.244704</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252355</v>
+        <v>0.25486</v>
       </c>
       <c r="D104" t="n">
-        <v>0.223983</v>
+        <v>0.227088</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.249933</v>
+        <v>0.256909</v>
       </c>
       <c r="C105" t="n">
-        <v>0.268101</v>
+        <v>0.27038</v>
       </c>
       <c r="D105" t="n">
-        <v>0.228673</v>
+        <v>0.23205</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.268613</v>
+        <v>0.275634</v>
       </c>
       <c r="C106" t="n">
-        <v>0.290025</v>
+        <v>0.292377</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236096</v>
+        <v>0.239648</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.29692</v>
+        <v>0.303901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.322639</v>
+        <v>0.32501</v>
       </c>
       <c r="D107" t="n">
-        <v>0.248732</v>
+        <v>0.252362</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.340113</v>
+        <v>0.346849</v>
       </c>
       <c r="C108" t="n">
-        <v>0.370635</v>
+        <v>0.373215</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219423</v>
+        <v>0.219397</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.408349</v>
+        <v>0.410894</v>
       </c>
       <c r="C109" t="n">
-        <v>0.442925</v>
+        <v>0.443601</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22002</v>
+        <v>0.220395</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234608</v>
+        <v>0.234665</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234196</v>
+        <v>0.234683</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220951</v>
+        <v>0.221329</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239863</v>
+        <v>0.238995</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239548</v>
+        <v>0.239335</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222193</v>
+        <v>0.222453</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244662</v>
+        <v>0.244208</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244963</v>
+        <v>0.244947</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223522</v>
+        <v>0.223505</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250377</v>
+        <v>0.249929</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25182</v>
+        <v>0.251859</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225318</v>
+        <v>0.225659</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256872</v>
+        <v>0.256302</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259401</v>
+        <v>0.259254</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227039</v>
+        <v>0.22783</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.264103</v>
+        <v>0.263453</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267857</v>
+        <v>0.267798</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230854</v>
+        <v>0.231493</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2717</v>
+        <v>0.27204</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278025</v>
+        <v>0.277556</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235281</v>
+        <v>0.23492</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282054</v>
+        <v>0.281673</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289811</v>
+        <v>0.289345</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239885</v>
+        <v>0.240237</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293682</v>
+        <v>0.293514</v>
       </c>
       <c r="C118" t="n">
-        <v>0.301152</v>
+        <v>0.302861</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246519</v>
+        <v>0.24661</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304313</v>
+        <v>0.308819</v>
       </c>
       <c r="C119" t="n">
-        <v>0.32111</v>
+        <v>0.320463</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255283</v>
+        <v>0.254867</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.324938</v>
+        <v>0.32917</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341744</v>
+        <v>0.34396</v>
       </c>
       <c r="D120" t="n">
-        <v>0.265301</v>
+        <v>0.266597</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359922</v>
+        <v>0.358738</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374673</v>
+        <v>0.376937</v>
       </c>
       <c r="D121" t="n">
-        <v>0.282786</v>
+        <v>0.282808</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403396</v>
+        <v>0.402231</v>
       </c>
       <c r="C122" t="n">
-        <v>0.424075</v>
+        <v>0.427124</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308466</v>
+        <v>0.307526</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471874</v>
+        <v>0.470442</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506746</v>
+        <v>0.50543</v>
       </c>
       <c r="D123" t="n">
-        <v>0.249667</v>
+        <v>0.248763</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.287225</v>
+        <v>0.282875</v>
       </c>
       <c r="C124" t="n">
-        <v>0.283647</v>
+        <v>0.285907</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251668</v>
+        <v>0.253286</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.286898</v>
+        <v>0.288515</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289307</v>
+        <v>0.289338</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255791</v>
+        <v>0.256328</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.292081</v>
+        <v>0.293458</v>
       </c>
       <c r="C126" t="n">
-        <v>0.297008</v>
+        <v>0.295814</v>
       </c>
       <c r="D126" t="n">
-        <v>0.261776</v>
+        <v>0.260114</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29826</v>
+        <v>0.298959</v>
       </c>
       <c r="C127" t="n">
-        <v>0.298362</v>
+        <v>0.297809</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261803</v>
+        <v>0.261056</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.288281</v>
+        <v>0.302245</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306217</v>
+        <v>0.305617</v>
       </c>
       <c r="D128" t="n">
-        <v>0.267047</v>
+        <v>0.265831</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.311024</v>
+        <v>0.311324</v>
       </c>
       <c r="C129" t="n">
-        <v>0.312978</v>
+        <v>0.313376</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269273</v>
+        <v>0.270273</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314633</v>
+        <v>0.317102</v>
       </c>
       <c r="C130" t="n">
-        <v>0.321133</v>
+        <v>0.322257</v>
       </c>
       <c r="D130" t="n">
-        <v>0.273612</v>
+        <v>0.275296</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.324509</v>
+        <v>0.325259</v>
       </c>
       <c r="C131" t="n">
-        <v>0.333437</v>
+        <v>0.331256</v>
       </c>
       <c r="D131" t="n">
-        <v>0.279556</v>
+        <v>0.276996</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335355</v>
+        <v>0.334442</v>
       </c>
       <c r="C132" t="n">
-        <v>0.346311</v>
+        <v>0.348065</v>
       </c>
       <c r="D132" t="n">
-        <v>0.284365</v>
+        <v>0.286708</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351008</v>
+        <v>0.350085</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3662</v>
+        <v>0.367695</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293142</v>
+        <v>0.294691</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370559</v>
+        <v>0.37015</v>
       </c>
       <c r="C134" t="n">
-        <v>0.388722</v>
+        <v>0.387011</v>
       </c>
       <c r="D134" t="n">
-        <v>0.302237</v>
+        <v>0.29905</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.401559</v>
+        <v>0.400269</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424141</v>
+        <v>0.424058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.314222</v>
+        <v>0.314974</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.442907</v>
+        <v>0.451314</v>
       </c>
       <c r="C136" t="n">
-        <v>0.476293</v>
+        <v>0.474065</v>
       </c>
       <c r="D136" t="n">
-        <v>0.339712</v>
+        <v>0.336909</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512706</v>
+        <v>0.510308</v>
       </c>
       <c r="C137" t="n">
-        <v>0.549814</v>
+        <v>0.551395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.392523</v>
+        <v>0.386833</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.450606</v>
+        <v>0.446752</v>
       </c>
       <c r="C138" t="n">
-        <v>0.436332</v>
+        <v>0.428317</v>
       </c>
       <c r="D138" t="n">
-        <v>0.39762</v>
+        <v>0.388624</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.452352</v>
+        <v>0.446677</v>
       </c>
       <c r="C139" t="n">
-        <v>0.434225</v>
+        <v>0.435278</v>
       </c>
       <c r="D139" t="n">
-        <v>0.392099</v>
+        <v>0.394325</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.430727</v>
+        <v>0.456107</v>
       </c>
       <c r="C140" t="n">
-        <v>0.446006</v>
+        <v>0.43778</v>
       </c>
       <c r="D140" t="n">
-        <v>0.400604</v>
+        <v>0.392478</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.437791</v>
+        <v>0.456843</v>
       </c>
       <c r="C141" t="n">
-        <v>0.454114</v>
+        <v>0.448892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.407469</v>
+        <v>0.40311</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.474756</v>
+        <v>0.468835</v>
       </c>
       <c r="C142" t="n">
-        <v>0.457728</v>
+        <v>0.457042</v>
       </c>
       <c r="D142" t="n">
-        <v>0.406206</v>
+        <v>0.406311</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.472156</v>
+        <v>0.476129</v>
       </c>
       <c r="C143" t="n">
-        <v>0.464014</v>
+        <v>0.465236</v>
       </c>
       <c r="D143" t="n">
-        <v>0.40652</v>
+        <v>0.408985</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.168571</v>
+        <v>0.171215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187878</v>
+        <v>0.185162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181503</v>
+        <v>0.179503</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1719</v>
+        <v>0.174937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190518</v>
+        <v>0.187859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182562</v>
+        <v>0.180441</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177625</v>
+        <v>0.181684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.198646</v>
+        <v>0.195763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185149</v>
+        <v>0.182997</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18655</v>
+        <v>0.189962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208809</v>
+        <v>0.205774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.187804</v>
+        <v>0.185563</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196212</v>
+        <v>0.197337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223308</v>
+        <v>0.22082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193281</v>
+        <v>0.190643</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216124</v>
+        <v>0.216408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248322</v>
+        <v>0.245543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202059</v>
+        <v>0.198954</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246886</v>
+        <v>0.247155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.278182</v>
+        <v>0.275553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213112</v>
+        <v>0.209999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294864</v>
+        <v>0.295872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326518</v>
+        <v>0.322582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177289</v>
+        <v>0.175278</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159431</v>
+        <v>0.163703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174548</v>
+        <v>0.172549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177505</v>
+        <v>0.175649</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.159984</v>
+        <v>0.163525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175352</v>
+        <v>0.173133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1776</v>
+        <v>0.175724</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161196</v>
+        <v>0.164629</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176292</v>
+        <v>0.1741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178108</v>
+        <v>0.176178</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.162326</v>
+        <v>0.165714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177507</v>
+        <v>0.17539</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178365</v>
+        <v>0.176359</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164062</v>
+        <v>0.167454</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180429</v>
+        <v>0.178346</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17905</v>
+        <v>0.177137</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166323</v>
+        <v>0.169627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.182909</v>
+        <v>0.180781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.179811</v>
+        <v>0.177819</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169432</v>
+        <v>0.173271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186758</v>
+        <v>0.18457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180782</v>
+        <v>0.178684</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173253</v>
+        <v>0.176355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191643</v>
+        <v>0.189257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182308</v>
+        <v>0.179872</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.178711</v>
+        <v>0.182017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197158</v>
+        <v>0.194636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18375</v>
+        <v>0.181211</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187035</v>
+        <v>0.190253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205559</v>
+        <v>0.203046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186481</v>
+        <v>0.183867</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199006</v>
+        <v>0.201658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218608</v>
+        <v>0.216512</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190107</v>
+        <v>0.187404</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.21883</v>
+        <v>0.221432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236349</v>
+        <v>0.23378</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195683</v>
+        <v>0.192872</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247887</v>
+        <v>0.250763</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262207</v>
+        <v>0.25971</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205925</v>
+        <v>0.202736</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293354</v>
+        <v>0.295873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310342</v>
+        <v>0.308584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.176816</v>
+        <v>0.174946</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.162052</v>
+        <v>0.164021</v>
       </c>
       <c r="C24" t="n">
-        <v>0.175065</v>
+        <v>0.171732</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177078</v>
+        <v>0.175187</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.16253</v>
+        <v>0.164781</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175779</v>
+        <v>0.172626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.17734</v>
+        <v>0.175474</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163645</v>
+        <v>0.165807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176664</v>
+        <v>0.173587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177598</v>
+        <v>0.175745</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164853</v>
+        <v>0.167028</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178106</v>
+        <v>0.175127</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177942</v>
+        <v>0.176084</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166492</v>
+        <v>0.168635</v>
       </c>
       <c r="C28" t="n">
-        <v>0.179518</v>
+        <v>0.176822</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178601</v>
+        <v>0.176676</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168813</v>
+        <v>0.170899</v>
       </c>
       <c r="C29" t="n">
-        <v>0.182421</v>
+        <v>0.179735</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179281</v>
+        <v>0.177324</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171751</v>
+        <v>0.173749</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185115</v>
+        <v>0.182526</v>
       </c>
       <c r="D30" t="n">
-        <v>0.18019</v>
+        <v>0.178149</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.175278</v>
+        <v>0.177223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189236</v>
+        <v>0.186632</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181178</v>
+        <v>0.179173</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180887</v>
+        <v>0.182899</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194945</v>
+        <v>0.192486</v>
       </c>
       <c r="D32" t="n">
-        <v>0.183287</v>
+        <v>0.180771</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.188392</v>
+        <v>0.190402</v>
       </c>
       <c r="C33" t="n">
-        <v>0.20392</v>
+        <v>0.201371</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185667</v>
+        <v>0.183094</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.199021</v>
+        <v>0.201002</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214773</v>
+        <v>0.212227</v>
       </c>
       <c r="D34" t="n">
-        <v>0.188864</v>
+        <v>0.186146</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215999</v>
+        <v>0.218162</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2316</v>
+        <v>0.228846</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193621</v>
+        <v>0.190846</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243897</v>
+        <v>0.246293</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258805</v>
+        <v>0.255639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202402</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28623</v>
+        <v>0.289057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300171</v>
+        <v>0.296838</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177627</v>
+        <v>0.175006</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16277</v>
+        <v>0.165018</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174825</v>
+        <v>0.17237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177139</v>
+        <v>0.175202</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163766</v>
+        <v>0.165834</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175989</v>
+        <v>0.173489</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177721</v>
+        <v>0.175622</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164642</v>
+        <v>0.166751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176935</v>
+        <v>0.174549</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177938</v>
+        <v>0.175917</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.16563</v>
+        <v>0.167857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177894</v>
+        <v>0.175811</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178606</v>
+        <v>0.176341</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.16728</v>
+        <v>0.169525</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179519</v>
+        <v>0.177243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179007</v>
+        <v>0.176814</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169103</v>
+        <v>0.17133</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1816</v>
+        <v>0.179414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179385</v>
+        <v>0.177305</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171716</v>
+        <v>0.17405</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184817</v>
+        <v>0.18267</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180515</v>
+        <v>0.178187</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175252</v>
+        <v>0.177614</v>
       </c>
       <c r="C45" t="n">
-        <v>0.18905</v>
+        <v>0.18689</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181663</v>
+        <v>0.179305</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179856</v>
+        <v>0.182314</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194696</v>
+        <v>0.192679</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183352</v>
+        <v>0.181017</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187325</v>
+        <v>0.18989</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202538</v>
+        <v>0.200544</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185505</v>
+        <v>0.183035</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197742</v>
+        <v>0.200471</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213879</v>
+        <v>0.211831</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1887</v>
+        <v>0.186111</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213752</v>
+        <v>0.216566</v>
       </c>
       <c r="C49" t="n">
-        <v>0.22992</v>
+        <v>0.227716</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193418</v>
+        <v>0.190691</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237912</v>
+        <v>0.241161</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257217</v>
+        <v>0.254938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201704</v>
+        <v>0.198962</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275936</v>
+        <v>0.27985</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293136</v>
+        <v>0.291051</v>
       </c>
       <c r="D51" t="n">
-        <v>0.181019</v>
+        <v>0.177549</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333397</v>
+        <v>0.336825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349254</v>
+        <v>0.346246</v>
       </c>
       <c r="D52" t="n">
-        <v>0.181341</v>
+        <v>0.177857</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.167171</v>
+        <v>0.16776</v>
       </c>
       <c r="C53" t="n">
-        <v>0.180245</v>
+        <v>0.177017</v>
       </c>
       <c r="D53" t="n">
-        <v>0.181689</v>
+        <v>0.178178</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167796</v>
+        <v>0.168507</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181408</v>
+        <v>0.17827</v>
       </c>
       <c r="D54" t="n">
-        <v>0.182054</v>
+        <v>0.178549</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168978</v>
+        <v>0.169686</v>
       </c>
       <c r="C55" t="n">
-        <v>0.182821</v>
+        <v>0.179702</v>
       </c>
       <c r="D55" t="n">
-        <v>0.182572</v>
+        <v>0.179055</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170566</v>
+        <v>0.171219</v>
       </c>
       <c r="C56" t="n">
-        <v>0.184577</v>
+        <v>0.181191</v>
       </c>
       <c r="D56" t="n">
-        <v>0.183113</v>
+        <v>0.179611</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172402</v>
+        <v>0.173063</v>
       </c>
       <c r="C57" t="n">
-        <v>0.186981</v>
+        <v>0.183602</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1838</v>
+        <v>0.180304</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174931</v>
+        <v>0.175591</v>
       </c>
       <c r="C58" t="n">
-        <v>0.190348</v>
+        <v>0.186835</v>
       </c>
       <c r="D58" t="n">
-        <v>0.184694</v>
+        <v>0.181155</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178266</v>
+        <v>0.178909</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194686</v>
+        <v>0.191254</v>
       </c>
       <c r="D59" t="n">
-        <v>0.185782</v>
+        <v>0.18225</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.183126</v>
+        <v>0.183762</v>
       </c>
       <c r="C60" t="n">
-        <v>0.200004</v>
+        <v>0.196515</v>
       </c>
       <c r="D60" t="n">
-        <v>0.187272</v>
+        <v>0.18377</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189518</v>
+        <v>0.190166</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207769</v>
+        <v>0.204123</v>
       </c>
       <c r="D61" t="n">
-        <v>0.189318</v>
+        <v>0.185706</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198872</v>
+        <v>0.199717</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218199</v>
+        <v>0.214774</v>
       </c>
       <c r="D62" t="n">
-        <v>0.192334</v>
+        <v>0.188671</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213421</v>
+        <v>0.214577</v>
       </c>
       <c r="C63" t="n">
-        <v>0.233982</v>
+        <v>0.230584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.197381</v>
+        <v>0.193592</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235561</v>
+        <v>0.236927</v>
       </c>
       <c r="C64" t="n">
-        <v>0.257977</v>
+        <v>0.254491</v>
       </c>
       <c r="D64" t="n">
-        <v>0.205418</v>
+        <v>0.201526</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268786</v>
+        <v>0.270697</v>
       </c>
       <c r="C65" t="n">
-        <v>0.29451</v>
+        <v>0.290325</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219845</v>
+        <v>0.215783</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.320725</v>
+        <v>0.324018</v>
       </c>
       <c r="C66" t="n">
-        <v>0.348559</v>
+        <v>0.343031</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188838</v>
+        <v>0.188173</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184611</v>
+        <v>0.183565</v>
       </c>
       <c r="C67" t="n">
-        <v>0.189579</v>
+        <v>0.188707</v>
       </c>
       <c r="D67" t="n">
-        <v>0.189175</v>
+        <v>0.188445</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185419</v>
+        <v>0.185414</v>
       </c>
       <c r="C68" t="n">
-        <v>0.190899</v>
+        <v>0.18994</v>
       </c>
       <c r="D68" t="n">
-        <v>0.189591</v>
+        <v>0.188852</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186637</v>
+        <v>0.186614</v>
       </c>
       <c r="C69" t="n">
-        <v>0.192588</v>
+        <v>0.191583</v>
       </c>
       <c r="D69" t="n">
-        <v>0.190129</v>
+        <v>0.18934</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188059</v>
+        <v>0.188054</v>
       </c>
       <c r="C70" t="n">
-        <v>0.194526</v>
+        <v>0.193524</v>
       </c>
       <c r="D70" t="n">
-        <v>0.190738</v>
+        <v>0.189904</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189802</v>
+        <v>0.189839</v>
       </c>
       <c r="C71" t="n">
-        <v>0.197152</v>
+        <v>0.196101</v>
       </c>
       <c r="D71" t="n">
-        <v>0.191459</v>
+        <v>0.190629</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192053</v>
+        <v>0.192167</v>
       </c>
       <c r="C72" t="n">
-        <v>0.200411</v>
+        <v>0.199263</v>
       </c>
       <c r="D72" t="n">
-        <v>0.192459</v>
+        <v>0.191567</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195157</v>
+        <v>0.1953</v>
       </c>
       <c r="C73" t="n">
-        <v>0.204725</v>
+        <v>0.203535</v>
       </c>
       <c r="D73" t="n">
-        <v>0.193685</v>
+        <v>0.19278</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199352</v>
+        <v>0.19947</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210529</v>
+        <v>0.209313</v>
       </c>
       <c r="D74" t="n">
-        <v>0.195351</v>
+        <v>0.194374</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205386</v>
+        <v>0.205688</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21887</v>
+        <v>0.217476</v>
       </c>
       <c r="D75" t="n">
-        <v>0.197648</v>
+        <v>0.196626</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214266</v>
+        <v>0.214691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.229844</v>
+        <v>0.228331</v>
       </c>
       <c r="D76" t="n">
-        <v>0.201118</v>
+        <v>0.199976</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22692</v>
+        <v>0.227486</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245228</v>
+        <v>0.24351</v>
       </c>
       <c r="D77" t="n">
-        <v>0.206158</v>
+        <v>0.204778</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.246033</v>
+        <v>0.246642</v>
       </c>
       <c r="C78" t="n">
-        <v>0.267695</v>
+        <v>0.265649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.214051</v>
+        <v>0.212637</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277342</v>
+        <v>0.278371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.302141</v>
+        <v>0.29979</v>
       </c>
       <c r="D79" t="n">
-        <v>0.227774</v>
+        <v>0.226064</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323996</v>
+        <v>0.326576</v>
       </c>
       <c r="C80" t="n">
-        <v>0.352079</v>
+        <v>0.348899</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205362</v>
+        <v>0.20365</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203359</v>
+        <v>0.203795</v>
       </c>
       <c r="C81" t="n">
-        <v>0.206038</v>
+        <v>0.205033</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205668</v>
+        <v>0.20404</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204294</v>
+        <v>0.20453</v>
       </c>
       <c r="C82" t="n">
-        <v>0.20695</v>
+        <v>0.20606</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206123</v>
+        <v>0.204384</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205325</v>
+        <v>0.205601</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208185</v>
+        <v>0.20727</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206574</v>
+        <v>0.204822</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206631</v>
+        <v>0.206972</v>
       </c>
       <c r="C84" t="n">
-        <v>0.210006</v>
+        <v>0.208984</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207174</v>
+        <v>0.205467</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20822</v>
+        <v>0.208502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212008</v>
+        <v>0.211038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207803</v>
+        <v>0.206137</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210216</v>
+        <v>0.210591</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214681</v>
+        <v>0.213622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208735</v>
+        <v>0.206985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212937</v>
+        <v>0.213362</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218398</v>
+        <v>0.217342</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209888</v>
+        <v>0.208113</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216703</v>
+        <v>0.217132</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223673</v>
+        <v>0.222449</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211474</v>
+        <v>0.209655</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221948</v>
+        <v>0.222504</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231027</v>
+        <v>0.229676</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213746</v>
+        <v>0.211893</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.22974</v>
+        <v>0.230389</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240931</v>
+        <v>0.239582</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216982</v>
+        <v>0.215101</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.24132</v>
+        <v>0.242141</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254879</v>
+        <v>0.253248</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221743</v>
+        <v>0.219809</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258977</v>
+        <v>0.260055</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275013</v>
+        <v>0.273254</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229257</v>
+        <v>0.227286</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286865</v>
+        <v>0.287974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306352</v>
+        <v>0.304203</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241732</v>
+        <v>0.239481</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330482</v>
+        <v>0.332846</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354344</v>
+        <v>0.351555</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214486</v>
+        <v>0.212032</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215549</v>
+        <v>0.215974</v>
       </c>
       <c r="C95" t="n">
-        <v>0.216281</v>
+        <v>0.215355</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214951</v>
+        <v>0.212373</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216478</v>
+        <v>0.216835</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217499</v>
+        <v>0.216569</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215465</v>
+        <v>0.212931</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.21764</v>
+        <v>0.218058</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21896</v>
+        <v>0.217907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216132</v>
+        <v>0.213559</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219093</v>
+        <v>0.219606</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22078</v>
+        <v>0.219781</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216742</v>
+        <v>0.214149</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220885</v>
+        <v>0.221364</v>
       </c>
       <c r="C99" t="n">
-        <v>0.223087</v>
+        <v>0.222137</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217592</v>
+        <v>0.214941</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223113</v>
+        <v>0.223726</v>
       </c>
       <c r="C100" t="n">
-        <v>0.22609</v>
+        <v>0.225117</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218548</v>
+        <v>0.215939</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.22617</v>
+        <v>0.226821</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230065</v>
+        <v>0.229162</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219736</v>
+        <v>0.217014</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.23023</v>
+        <v>0.230923</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235792</v>
+        <v>0.234904</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221406</v>
+        <v>0.21866</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236182</v>
+        <v>0.236759</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243853</v>
+        <v>0.243022</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223701</v>
+        <v>0.221131</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244704</v>
+        <v>0.245205</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25486</v>
+        <v>0.25425</v>
       </c>
       <c r="D104" t="n">
-        <v>0.227088</v>
+        <v>0.224362</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256909</v>
+        <v>0.25729</v>
       </c>
       <c r="C105" t="n">
-        <v>0.27038</v>
+        <v>0.269602</v>
       </c>
       <c r="D105" t="n">
-        <v>0.23205</v>
+        <v>0.22918</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.275634</v>
+        <v>0.27614</v>
       </c>
       <c r="C106" t="n">
-        <v>0.292377</v>
+        <v>0.291042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239648</v>
+        <v>0.236746</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.303901</v>
+        <v>0.304273</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32501</v>
+        <v>0.323159</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252362</v>
+        <v>0.249466</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.346849</v>
+        <v>0.348105</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373215</v>
+        <v>0.370464</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219397</v>
+        <v>0.217055</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410894</v>
+        <v>0.41502</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443601</v>
+        <v>0.43873</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220395</v>
+        <v>0.217496</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234665</v>
+        <v>0.235231</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234683</v>
+        <v>0.233476</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221329</v>
+        <v>0.21839</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238995</v>
+        <v>0.239014</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239335</v>
+        <v>0.238678</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222453</v>
+        <v>0.219817</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244208</v>
+        <v>0.244175</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244947</v>
+        <v>0.24431</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223505</v>
+        <v>0.221315</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249929</v>
+        <v>0.250414</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251859</v>
+        <v>0.251295</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225659</v>
+        <v>0.222561</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256302</v>
+        <v>0.25681</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259254</v>
+        <v>0.258658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.22783</v>
+        <v>0.225133</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263453</v>
+        <v>0.2643</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267798</v>
+        <v>0.26714</v>
       </c>
       <c r="D115" t="n">
-        <v>0.231493</v>
+        <v>0.228075</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.27204</v>
+        <v>0.272796</v>
       </c>
       <c r="C116" t="n">
-        <v>0.277556</v>
+        <v>0.276975</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23492</v>
+        <v>0.232124</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281673</v>
+        <v>0.282528</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289345</v>
+        <v>0.288467</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240237</v>
+        <v>0.237188</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293514</v>
+        <v>0.294257</v>
       </c>
       <c r="C118" t="n">
-        <v>0.302861</v>
+        <v>0.302143</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24661</v>
+        <v>0.243707</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.308819</v>
+        <v>0.309933</v>
       </c>
       <c r="C119" t="n">
-        <v>0.320463</v>
+        <v>0.319637</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254867</v>
+        <v>0.252188</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.32917</v>
+        <v>0.330767</v>
       </c>
       <c r="C120" t="n">
-        <v>0.34396</v>
+        <v>0.342912</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266597</v>
+        <v>0.263553</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.358738</v>
+        <v>0.360797</v>
       </c>
       <c r="C121" t="n">
-        <v>0.376937</v>
+        <v>0.375364</v>
       </c>
       <c r="D121" t="n">
-        <v>0.282808</v>
+        <v>0.279932</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.402231</v>
+        <v>0.404912</v>
       </c>
       <c r="C122" t="n">
-        <v>0.427124</v>
+        <v>0.424863</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307526</v>
+        <v>0.305162</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470442</v>
+        <v>0.474253</v>
       </c>
       <c r="C123" t="n">
-        <v>0.50543</v>
+        <v>0.501826</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248763</v>
+        <v>0.246806</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.282875</v>
+        <v>0.284009</v>
       </c>
       <c r="C124" t="n">
-        <v>0.285907</v>
+        <v>0.285069</v>
       </c>
       <c r="D124" t="n">
-        <v>0.253286</v>
+        <v>0.250222</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.288515</v>
+        <v>0.287782</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289338</v>
+        <v>0.288914</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256328</v>
+        <v>0.252644</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.293458</v>
+        <v>0.29319</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295814</v>
+        <v>0.293684</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260114</v>
+        <v>0.256529</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.298959</v>
+        <v>0.303743</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297809</v>
+        <v>0.299412</v>
       </c>
       <c r="D127" t="n">
-        <v>0.261056</v>
+        <v>0.259874</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302245</v>
+        <v>0.303576</v>
       </c>
       <c r="C128" t="n">
-        <v>0.305617</v>
+        <v>0.304091</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265831</v>
+        <v>0.262428</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.311324</v>
+        <v>0.309451</v>
       </c>
       <c r="C129" t="n">
-        <v>0.313376</v>
+        <v>0.313742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.270273</v>
+        <v>0.268294</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317102</v>
+        <v>0.317548</v>
       </c>
       <c r="C130" t="n">
-        <v>0.322257</v>
+        <v>0.320216</v>
       </c>
       <c r="D130" t="n">
-        <v>0.275296</v>
+        <v>0.270101</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.325259</v>
+        <v>0.324551</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331256</v>
+        <v>0.331392</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276996</v>
+        <v>0.276393</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334442</v>
+        <v>0.336654</v>
       </c>
       <c r="C132" t="n">
-        <v>0.348065</v>
+        <v>0.344632</v>
       </c>
       <c r="D132" t="n">
-        <v>0.286708</v>
+        <v>0.280654</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.350085</v>
+        <v>0.352384</v>
       </c>
       <c r="C133" t="n">
-        <v>0.367695</v>
+        <v>0.36251</v>
       </c>
       <c r="D133" t="n">
-        <v>0.294691</v>
+        <v>0.287742</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.37015</v>
+        <v>0.372375</v>
       </c>
       <c r="C134" t="n">
-        <v>0.387011</v>
+        <v>0.38754</v>
       </c>
       <c r="D134" t="n">
-        <v>0.29905</v>
+        <v>0.297851</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.400269</v>
+        <v>0.404914</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424058</v>
+        <v>0.425587</v>
       </c>
       <c r="D135" t="n">
-        <v>0.314974</v>
+        <v>0.3145</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.451314</v>
+        <v>0.445517</v>
       </c>
       <c r="C136" t="n">
-        <v>0.474065</v>
+        <v>0.478188</v>
       </c>
       <c r="D136" t="n">
-        <v>0.336909</v>
+        <v>0.339153</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.510308</v>
+        <v>0.515022</v>
       </c>
       <c r="C137" t="n">
-        <v>0.551395</v>
+        <v>0.553534</v>
       </c>
       <c r="D137" t="n">
-        <v>0.386833</v>
+        <v>0.389257</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.446752</v>
+        <v>0.451992</v>
       </c>
       <c r="C138" t="n">
-        <v>0.428317</v>
+        <v>0.436407</v>
       </c>
       <c r="D138" t="n">
-        <v>0.388624</v>
+        <v>0.395591</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.446677</v>
+        <v>0.450962</v>
       </c>
       <c r="C139" t="n">
-        <v>0.435278</v>
+        <v>0.4313</v>
       </c>
       <c r="D139" t="n">
-        <v>0.394325</v>
+        <v>0.38575</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.456107</v>
+        <v>0.45381</v>
       </c>
       <c r="C140" t="n">
-        <v>0.43778</v>
+        <v>0.441193</v>
       </c>
       <c r="D140" t="n">
-        <v>0.392478</v>
+        <v>0.393656</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.456843</v>
+        <v>0.463074</v>
       </c>
       <c r="C141" t="n">
-        <v>0.448892</v>
+        <v>0.449973</v>
       </c>
       <c r="D141" t="n">
-        <v>0.40311</v>
+        <v>0.400583</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.468835</v>
+        <v>0.47183</v>
       </c>
       <c r="C142" t="n">
-        <v>0.457042</v>
+        <v>0.455423</v>
       </c>
       <c r="D142" t="n">
-        <v>0.406311</v>
+        <v>0.401378</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.476129</v>
+        <v>0.479652</v>
       </c>
       <c r="C143" t="n">
-        <v>0.465236</v>
+        <v>0.468356</v>
       </c>
       <c r="D143" t="n">
-        <v>0.408985</v>
+        <v>0.411171</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.171215</v>
+        <v>0.171713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185162</v>
+        <v>0.185591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179503</v>
+        <v>0.179598</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.174937</v>
+        <v>0.175672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187859</v>
+        <v>0.18807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.180441</v>
+        <v>0.1807</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181684</v>
+        <v>0.182666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195763</v>
+        <v>0.196263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.182997</v>
+        <v>0.183045</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189962</v>
+        <v>0.190477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205774</v>
+        <v>0.206231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185563</v>
+        <v>0.185793</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.197337</v>
+        <v>0.197636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22082</v>
+        <v>0.22117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.190643</v>
+        <v>0.190885</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216408</v>
+        <v>0.216904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.245543</v>
+        <v>0.246039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198954</v>
+        <v>0.199498</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247155</v>
+        <v>0.247516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.275553</v>
+        <v>0.276498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209999</v>
+        <v>0.210324</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295872</v>
+        <v>0.297334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.322582</v>
+        <v>0.323634</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175278</v>
+        <v>0.175222</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.163703</v>
+        <v>0.165165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172549</v>
+        <v>0.172823</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175649</v>
+        <v>0.175642</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.163525</v>
+        <v>0.165234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173133</v>
+        <v>0.173656</v>
       </c>
       <c r="D11" t="n">
-        <v>0.175724</v>
+        <v>0.175703</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.164629</v>
+        <v>0.166279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1741</v>
+        <v>0.174223</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176178</v>
+        <v>0.176122</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.165714</v>
+        <v>0.166468</v>
       </c>
       <c r="C13" t="n">
-        <v>0.17539</v>
+        <v>0.175643</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176359</v>
+        <v>0.176357</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.167454</v>
+        <v>0.168173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.178346</v>
+        <v>0.178503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177137</v>
+        <v>0.177186</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.169627</v>
+        <v>0.169977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.180781</v>
+        <v>0.181103</v>
       </c>
       <c r="D15" t="n">
-        <v>0.177819</v>
+        <v>0.177737</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173271</v>
+        <v>0.174659</v>
       </c>
       <c r="C16" t="n">
-        <v>0.18457</v>
+        <v>0.184757</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178684</v>
+        <v>0.178907</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.176355</v>
+        <v>0.178397</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189257</v>
+        <v>0.189641</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179872</v>
+        <v>0.179886</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.182017</v>
+        <v>0.18372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.194636</v>
+        <v>0.195032</v>
       </c>
       <c r="D18" t="n">
-        <v>0.181211</v>
+        <v>0.181359</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190253</v>
+        <v>0.190969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.203046</v>
+        <v>0.203212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183867</v>
+        <v>0.184139</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.201658</v>
+        <v>0.202154</v>
       </c>
       <c r="C20" t="n">
-        <v>0.216512</v>
+        <v>0.21665</v>
       </c>
       <c r="D20" t="n">
-        <v>0.187404</v>
+        <v>0.187691</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.221432</v>
+        <v>0.221886</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23378</v>
+        <v>0.233921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192872</v>
+        <v>0.193039</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250763</v>
+        <v>0.250622</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25971</v>
+        <v>0.259806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202736</v>
+        <v>0.203013</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.295873</v>
+        <v>0.296659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.308584</v>
+        <v>0.307865</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174946</v>
+        <v>0.174775</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.164021</v>
+        <v>0.165998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.171732</v>
+        <v>0.17161</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175187</v>
+        <v>0.175177</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.164781</v>
+        <v>0.165176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172626</v>
+        <v>0.172396</v>
       </c>
       <c r="D25" t="n">
-        <v>0.175474</v>
+        <v>0.175368</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.165807</v>
+        <v>0.167626</v>
       </c>
       <c r="C26" t="n">
-        <v>0.173587</v>
+        <v>0.17336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175745</v>
+        <v>0.175668</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.167028</v>
+        <v>0.167191</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175127</v>
+        <v>0.174956</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176084</v>
+        <v>0.175963</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.168635</v>
+        <v>0.169105</v>
       </c>
       <c r="C28" t="n">
-        <v>0.176822</v>
+        <v>0.176667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.176676</v>
+        <v>0.176786</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.170899</v>
+        <v>0.170902</v>
       </c>
       <c r="C29" t="n">
-        <v>0.179735</v>
+        <v>0.179552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177324</v>
+        <v>0.177282</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.173749</v>
+        <v>0.173458</v>
       </c>
       <c r="C30" t="n">
-        <v>0.182526</v>
+        <v>0.182497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.178149</v>
+        <v>0.178186</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.177223</v>
+        <v>0.17699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186632</v>
+        <v>0.186802</v>
       </c>
       <c r="D31" t="n">
-        <v>0.179173</v>
+        <v>0.179255</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182899</v>
+        <v>0.182598</v>
       </c>
       <c r="C32" t="n">
-        <v>0.192486</v>
+        <v>0.192347</v>
       </c>
       <c r="D32" t="n">
-        <v>0.180771</v>
+        <v>0.18065</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.190402</v>
+        <v>0.190344</v>
       </c>
       <c r="C33" t="n">
-        <v>0.201371</v>
+        <v>0.201344</v>
       </c>
       <c r="D33" t="n">
-        <v>0.183094</v>
+        <v>0.183137</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201002</v>
+        <v>0.201338</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212227</v>
+        <v>0.212307</v>
       </c>
       <c r="D34" t="n">
-        <v>0.186146</v>
+        <v>0.186181</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.218162</v>
+        <v>0.218163</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228846</v>
+        <v>0.228919</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190846</v>
+        <v>0.190975</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246293</v>
+        <v>0.246225</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255639</v>
+        <v>0.255882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1994</v>
+        <v>0.199634</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.289057</v>
+        <v>0.289317</v>
       </c>
       <c r="C37" t="n">
-        <v>0.296838</v>
+        <v>0.297373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.175006</v>
+        <v>0.175399</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.165018</v>
+        <v>0.165198</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17237</v>
+        <v>0.172896</v>
       </c>
       <c r="D38" t="n">
-        <v>0.175202</v>
+        <v>0.175561</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.165834</v>
+        <v>0.165996</v>
       </c>
       <c r="C39" t="n">
-        <v>0.173489</v>
+        <v>0.173995</v>
       </c>
       <c r="D39" t="n">
-        <v>0.175622</v>
+        <v>0.175973</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166751</v>
+        <v>0.166756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.174549</v>
+        <v>0.175083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.175917</v>
+        <v>0.176266</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167857</v>
+        <v>0.167956</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175811</v>
+        <v>0.176199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176341</v>
+        <v>0.176686</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169525</v>
+        <v>0.169623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177243</v>
+        <v>0.177664</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176814</v>
+        <v>0.177128</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.17133</v>
+        <v>0.171371</v>
       </c>
       <c r="C43" t="n">
-        <v>0.179414</v>
+        <v>0.179706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177305</v>
+        <v>0.17754</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.17405</v>
+        <v>0.174014</v>
       </c>
       <c r="C44" t="n">
-        <v>0.18267</v>
+        <v>0.182978</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178187</v>
+        <v>0.178406</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.177614</v>
+        <v>0.177587</v>
       </c>
       <c r="C45" t="n">
-        <v>0.18689</v>
+        <v>0.187125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.179305</v>
+        <v>0.179573</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.182314</v>
+        <v>0.182328</v>
       </c>
       <c r="C46" t="n">
-        <v>0.192679</v>
+        <v>0.192851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.181017</v>
+        <v>0.181232</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.18989</v>
+        <v>0.189778</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200544</v>
+        <v>0.200668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.183035</v>
+        <v>0.183348</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.200471</v>
+        <v>0.200209</v>
       </c>
       <c r="C48" t="n">
-        <v>0.211831</v>
+        <v>0.21202</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186111</v>
+        <v>0.186418</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.216566</v>
+        <v>0.216358</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227716</v>
+        <v>0.22809</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190691</v>
+        <v>0.191066</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241161</v>
+        <v>0.240746</v>
       </c>
       <c r="C50" t="n">
-        <v>0.254938</v>
+        <v>0.255245</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198962</v>
+        <v>0.199315</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27985</v>
+        <v>0.279427</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291051</v>
+        <v>0.290889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177549</v>
+        <v>0.175753</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.336825</v>
+        <v>0.338259</v>
       </c>
       <c r="C52" t="n">
-        <v>0.346246</v>
+        <v>0.34699</v>
       </c>
       <c r="D52" t="n">
-        <v>0.177857</v>
+        <v>0.176208</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16776</v>
+        <v>0.171109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.177017</v>
+        <v>0.174968</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178178</v>
+        <v>0.176467</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.168507</v>
+        <v>0.171755</v>
       </c>
       <c r="C54" t="n">
-        <v>0.17827</v>
+        <v>0.176083</v>
       </c>
       <c r="D54" t="n">
-        <v>0.178549</v>
+        <v>0.17685</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.169686</v>
+        <v>0.172861</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179702</v>
+        <v>0.177451</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179055</v>
+        <v>0.177402</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.171219</v>
+        <v>0.174419</v>
       </c>
       <c r="C56" t="n">
-        <v>0.181191</v>
+        <v>0.179159</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179611</v>
+        <v>0.177907</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.173063</v>
+        <v>0.176222</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183602</v>
+        <v>0.181448</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180304</v>
+        <v>0.178585</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.175591</v>
+        <v>0.178763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186835</v>
+        <v>0.18485</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181155</v>
+        <v>0.179513</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178909</v>
+        <v>0.182048</v>
       </c>
       <c r="C59" t="n">
-        <v>0.191254</v>
+        <v>0.189251</v>
       </c>
       <c r="D59" t="n">
-        <v>0.18225</v>
+        <v>0.180598</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.183762</v>
+        <v>0.1869</v>
       </c>
       <c r="C60" t="n">
-        <v>0.196515</v>
+        <v>0.194431</v>
       </c>
       <c r="D60" t="n">
-        <v>0.18377</v>
+        <v>0.182063</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190166</v>
+        <v>0.193259</v>
       </c>
       <c r="C61" t="n">
-        <v>0.204123</v>
+        <v>0.202033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.185706</v>
+        <v>0.184054</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.199717</v>
+        <v>0.202697</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214774</v>
+        <v>0.212656</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188671</v>
+        <v>0.186993</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.214577</v>
+        <v>0.217478</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230584</v>
+        <v>0.228363</v>
       </c>
       <c r="D63" t="n">
-        <v>0.193592</v>
+        <v>0.191905</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236927</v>
+        <v>0.23965</v>
       </c>
       <c r="C64" t="n">
-        <v>0.254491</v>
+        <v>0.252162</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201526</v>
+        <v>0.199858</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.270697</v>
+        <v>0.273485</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290325</v>
+        <v>0.28843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215783</v>
+        <v>0.214546</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.324018</v>
+        <v>0.326312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343031</v>
+        <v>0.340929</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188173</v>
+        <v>0.186059</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183565</v>
+        <v>0.184589</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188707</v>
+        <v>0.186894</v>
       </c>
       <c r="D67" t="n">
-        <v>0.188445</v>
+        <v>0.186352</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185414</v>
+        <v>0.184978</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18994</v>
+        <v>0.188156</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188852</v>
+        <v>0.186686</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186614</v>
+        <v>0.186164</v>
       </c>
       <c r="C69" t="n">
-        <v>0.191583</v>
+        <v>0.189872</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18934</v>
+        <v>0.187281</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188054</v>
+        <v>0.187672</v>
       </c>
       <c r="C70" t="n">
-        <v>0.193524</v>
+        <v>0.191854</v>
       </c>
       <c r="D70" t="n">
-        <v>0.189904</v>
+        <v>0.187817</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189839</v>
+        <v>0.189477</v>
       </c>
       <c r="C71" t="n">
-        <v>0.196101</v>
+        <v>0.194511</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190629</v>
+        <v>0.18859</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192167</v>
+        <v>0.19183</v>
       </c>
       <c r="C72" t="n">
-        <v>0.199263</v>
+        <v>0.197806</v>
       </c>
       <c r="D72" t="n">
-        <v>0.191567</v>
+        <v>0.189599</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1953</v>
+        <v>0.194984</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203535</v>
+        <v>0.202204</v>
       </c>
       <c r="D73" t="n">
-        <v>0.19278</v>
+        <v>0.190848</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19947</v>
+        <v>0.199217</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209313</v>
+        <v>0.208099</v>
       </c>
       <c r="D74" t="n">
-        <v>0.194374</v>
+        <v>0.192449</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205688</v>
+        <v>0.205422</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217476</v>
+        <v>0.21638</v>
       </c>
       <c r="D75" t="n">
-        <v>0.196626</v>
+        <v>0.194784</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214691</v>
+        <v>0.214464</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228331</v>
+        <v>0.227388</v>
       </c>
       <c r="D76" t="n">
-        <v>0.199976</v>
+        <v>0.198141</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227486</v>
+        <v>0.227338</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24351</v>
+        <v>0.242682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.204778</v>
+        <v>0.203007</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.246642</v>
+        <v>0.246515</v>
       </c>
       <c r="C78" t="n">
-        <v>0.265649</v>
+        <v>0.264935</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212637</v>
+        <v>0.210942</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.278371</v>
+        <v>0.278295</v>
       </c>
       <c r="C79" t="n">
-        <v>0.29979</v>
+        <v>0.299095</v>
       </c>
       <c r="D79" t="n">
-        <v>0.226064</v>
+        <v>0.224408</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326576</v>
+        <v>0.326686</v>
       </c>
       <c r="C80" t="n">
-        <v>0.348899</v>
+        <v>0.348273</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20365</v>
+        <v>0.203246</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203795</v>
+        <v>0.204161</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205033</v>
+        <v>0.204518</v>
       </c>
       <c r="D81" t="n">
-        <v>0.20404</v>
+        <v>0.203514</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.20453</v>
+        <v>0.204885</v>
       </c>
       <c r="C82" t="n">
-        <v>0.20606</v>
+        <v>0.205511</v>
       </c>
       <c r="D82" t="n">
-        <v>0.204384</v>
+        <v>0.204022</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205601</v>
+        <v>0.205894</v>
       </c>
       <c r="C83" t="n">
-        <v>0.20727</v>
+        <v>0.206829</v>
       </c>
       <c r="D83" t="n">
-        <v>0.204822</v>
+        <v>0.204446</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206972</v>
+        <v>0.207332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208984</v>
+        <v>0.208528</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205467</v>
+        <v>0.205008</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208502</v>
+        <v>0.208892</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211038</v>
+        <v>0.210631</v>
       </c>
       <c r="D85" t="n">
-        <v>0.206137</v>
+        <v>0.20568</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210591</v>
+        <v>0.211019</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213622</v>
+        <v>0.213216</v>
       </c>
       <c r="D86" t="n">
-        <v>0.206985</v>
+        <v>0.206735</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213362</v>
+        <v>0.21363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.217342</v>
+        <v>0.216989</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208113</v>
+        <v>0.207694</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217132</v>
+        <v>0.217512</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222449</v>
+        <v>0.222116</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209655</v>
+        <v>0.209214</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222504</v>
+        <v>0.222896</v>
       </c>
       <c r="C89" t="n">
-        <v>0.229676</v>
+        <v>0.229377</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211893</v>
+        <v>0.211503</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.230389</v>
+        <v>0.230791</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239582</v>
+        <v>0.239236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.215101</v>
+        <v>0.214649</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.242141</v>
+        <v>0.242547</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253248</v>
+        <v>0.253</v>
       </c>
       <c r="D91" t="n">
-        <v>0.219809</v>
+        <v>0.219399</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260055</v>
+        <v>0.260481</v>
       </c>
       <c r="C92" t="n">
-        <v>0.273254</v>
+        <v>0.272935</v>
       </c>
       <c r="D92" t="n">
-        <v>0.227286</v>
+        <v>0.226856</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.287974</v>
+        <v>0.288417</v>
       </c>
       <c r="C93" t="n">
-        <v>0.304203</v>
+        <v>0.30387</v>
       </c>
       <c r="D93" t="n">
-        <v>0.239481</v>
+        <v>0.239157</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332846</v>
+        <v>0.332776</v>
       </c>
       <c r="C94" t="n">
-        <v>0.351555</v>
+        <v>0.351347</v>
       </c>
       <c r="D94" t="n">
-        <v>0.212032</v>
+        <v>0.211839</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215974</v>
+        <v>0.215819</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215355</v>
+        <v>0.215235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212373</v>
+        <v>0.212395</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216835</v>
+        <v>0.216762</v>
       </c>
       <c r="C96" t="n">
-        <v>0.216569</v>
+        <v>0.216403</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212931</v>
+        <v>0.21277</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.218058</v>
+        <v>0.217987</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217907</v>
+        <v>0.217866</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213559</v>
+        <v>0.213375</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219606</v>
+        <v>0.219491</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219781</v>
+        <v>0.219666</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214149</v>
+        <v>0.214046</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.221364</v>
+        <v>0.221333</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222137</v>
+        <v>0.221898</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214941</v>
+        <v>0.214798</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223726</v>
+        <v>0.223576</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225117</v>
+        <v>0.224862</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215939</v>
+        <v>0.215834</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226821</v>
+        <v>0.226853</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229162</v>
+        <v>0.229062</v>
       </c>
       <c r="D101" t="n">
-        <v>0.217014</v>
+        <v>0.21697</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230923</v>
+        <v>0.231016</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234904</v>
+        <v>0.23474</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21866</v>
+        <v>0.218731</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236759</v>
+        <v>0.237118</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243022</v>
+        <v>0.242781</v>
       </c>
       <c r="D103" t="n">
-        <v>0.221131</v>
+        <v>0.220988</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245205</v>
+        <v>0.245789</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25425</v>
+        <v>0.254044</v>
       </c>
       <c r="D104" t="n">
-        <v>0.224362</v>
+        <v>0.224223</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25729</v>
+        <v>0.258363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.269602</v>
+        <v>0.269634</v>
       </c>
       <c r="D105" t="n">
-        <v>0.22918</v>
+        <v>0.229173</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.27614</v>
+        <v>0.277179</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291042</v>
+        <v>0.291463</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236746</v>
+        <v>0.236691</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.304273</v>
+        <v>0.305959</v>
       </c>
       <c r="C107" t="n">
-        <v>0.323159</v>
+        <v>0.323508</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249466</v>
+        <v>0.249485</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.348105</v>
+        <v>0.349222</v>
       </c>
       <c r="C108" t="n">
-        <v>0.370464</v>
+        <v>0.370902</v>
       </c>
       <c r="D108" t="n">
-        <v>0.217055</v>
+        <v>0.217053</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.41502</v>
+        <v>0.416345</v>
       </c>
       <c r="C109" t="n">
-        <v>0.43873</v>
+        <v>0.439637</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217496</v>
+        <v>0.21803</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235231</v>
+        <v>0.235268</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233476</v>
+        <v>0.234056</v>
       </c>
       <c r="D110" t="n">
-        <v>0.21839</v>
+        <v>0.218498</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239014</v>
+        <v>0.239354</v>
       </c>
       <c r="C111" t="n">
-        <v>0.238678</v>
+        <v>0.238864</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219817</v>
+        <v>0.219831</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244175</v>
+        <v>0.244354</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24431</v>
+        <v>0.244559</v>
       </c>
       <c r="D112" t="n">
-        <v>0.221315</v>
+        <v>0.22092</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250414</v>
+        <v>0.250479</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251295</v>
+        <v>0.250891</v>
       </c>
       <c r="D113" t="n">
-        <v>0.222561</v>
+        <v>0.22314</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.25681</v>
+        <v>0.257121</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258658</v>
+        <v>0.258581</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225133</v>
+        <v>0.225253</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2643</v>
+        <v>0.264164</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26714</v>
+        <v>0.266883</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228075</v>
+        <v>0.228304</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272796</v>
+        <v>0.272877</v>
       </c>
       <c r="C116" t="n">
-        <v>0.276975</v>
+        <v>0.27688</v>
       </c>
       <c r="D116" t="n">
-        <v>0.232124</v>
+        <v>0.232411</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282528</v>
+        <v>0.282527</v>
       </c>
       <c r="C117" t="n">
-        <v>0.288467</v>
+        <v>0.288585</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237188</v>
+        <v>0.237018</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294257</v>
+        <v>0.294268</v>
       </c>
       <c r="C118" t="n">
-        <v>0.302143</v>
+        <v>0.301849</v>
       </c>
       <c r="D118" t="n">
-        <v>0.243707</v>
+        <v>0.243909</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309933</v>
+        <v>0.30983</v>
       </c>
       <c r="C119" t="n">
-        <v>0.319637</v>
+        <v>0.319314</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252188</v>
+        <v>0.252768</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.330767</v>
+        <v>0.33024</v>
       </c>
       <c r="C120" t="n">
-        <v>0.342912</v>
+        <v>0.342694</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263553</v>
+        <v>0.263107</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.360797</v>
+        <v>0.359804</v>
       </c>
       <c r="C121" t="n">
-        <v>0.375364</v>
+        <v>0.375359</v>
       </c>
       <c r="D121" t="n">
-        <v>0.279932</v>
+        <v>0.279843</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.404912</v>
+        <v>0.403867</v>
       </c>
       <c r="C122" t="n">
-        <v>0.424863</v>
+        <v>0.424491</v>
       </c>
       <c r="D122" t="n">
-        <v>0.305162</v>
+        <v>0.305369</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.474253</v>
+        <v>0.473538</v>
       </c>
       <c r="C123" t="n">
-        <v>0.501826</v>
+        <v>0.501221</v>
       </c>
       <c r="D123" t="n">
-        <v>0.246806</v>
+        <v>0.24886</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.284009</v>
+        <v>0.284729</v>
       </c>
       <c r="C124" t="n">
-        <v>0.285069</v>
+        <v>0.283637</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250222</v>
+        <v>0.249839</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287782</v>
+        <v>0.290304</v>
       </c>
       <c r="C125" t="n">
-        <v>0.288914</v>
+        <v>0.288041</v>
       </c>
       <c r="D125" t="n">
-        <v>0.252644</v>
+        <v>0.25269</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.29319</v>
+        <v>0.293594</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293684</v>
+        <v>0.294373</v>
       </c>
       <c r="D126" t="n">
-        <v>0.256529</v>
+        <v>0.257755</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.303743</v>
+        <v>0.29656</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299412</v>
+        <v>0.299831</v>
       </c>
       <c r="D127" t="n">
-        <v>0.259874</v>
+        <v>0.260586</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.303576</v>
+        <v>0.301745</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304091</v>
+        <v>0.303004</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262428</v>
+        <v>0.261996</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.309451</v>
+        <v>0.308947</v>
       </c>
       <c r="C129" t="n">
-        <v>0.313742</v>
+        <v>0.310191</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268294</v>
+        <v>0.26559</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.317548</v>
+        <v>0.314794</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320216</v>
+        <v>0.319409</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270101</v>
+        <v>0.270003</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.324551</v>
+        <v>0.326907</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331392</v>
+        <v>0.331867</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276393</v>
+        <v>0.276164</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.336654</v>
+        <v>0.335047</v>
       </c>
       <c r="C132" t="n">
-        <v>0.344632</v>
+        <v>0.341234</v>
       </c>
       <c r="D132" t="n">
-        <v>0.280654</v>
+        <v>0.278986</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.352384</v>
+        <v>0.353084</v>
       </c>
       <c r="C133" t="n">
-        <v>0.36251</v>
+        <v>0.361358</v>
       </c>
       <c r="D133" t="n">
-        <v>0.287742</v>
+        <v>0.288475</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.372375</v>
+        <v>0.376398</v>
       </c>
       <c r="C134" t="n">
-        <v>0.38754</v>
+        <v>0.387417</v>
       </c>
       <c r="D134" t="n">
-        <v>0.297851</v>
+        <v>0.298507</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.404914</v>
+        <v>0.400479</v>
       </c>
       <c r="C135" t="n">
-        <v>0.425587</v>
+        <v>0.420292</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3145</v>
+        <v>0.310769</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.445517</v>
+        <v>0.445691</v>
       </c>
       <c r="C136" t="n">
-        <v>0.478188</v>
+        <v>0.470545</v>
       </c>
       <c r="D136" t="n">
-        <v>0.339153</v>
+        <v>0.333847</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515022</v>
+        <v>0.5122370000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.553534</v>
+        <v>0.54722</v>
       </c>
       <c r="D137" t="n">
-        <v>0.389257</v>
+        <v>0.389284</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.451992</v>
+        <v>0.445388</v>
       </c>
       <c r="C138" t="n">
-        <v>0.436407</v>
+        <v>0.434006</v>
       </c>
       <c r="D138" t="n">
-        <v>0.395591</v>
+        <v>0.39264</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450962</v>
+        <v>0.44521</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4313</v>
+        <v>0.436357</v>
       </c>
       <c r="D139" t="n">
-        <v>0.38575</v>
+        <v>0.393188</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.45381</v>
+        <v>0.457275</v>
       </c>
       <c r="C140" t="n">
-        <v>0.441193</v>
+        <v>0.444287</v>
       </c>
       <c r="D140" t="n">
-        <v>0.393656</v>
+        <v>0.399387</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.463074</v>
+        <v>0.462545</v>
       </c>
       <c r="C141" t="n">
-        <v>0.449973</v>
+        <v>0.44975</v>
       </c>
       <c r="D141" t="n">
-        <v>0.400583</v>
+        <v>0.400151</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.47183</v>
+        <v>0.465081</v>
       </c>
       <c r="C142" t="n">
-        <v>0.455423</v>
+        <v>0.457394</v>
       </c>
       <c r="D142" t="n">
-        <v>0.401378</v>
+        <v>0.404799</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.479652</v>
+        <v>0.474965</v>
       </c>
       <c r="C143" t="n">
-        <v>0.468356</v>
+        <v>0.469454</v>
       </c>
       <c r="D143" t="n">
-        <v>0.411171</v>
+        <v>0.413875</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.171713</v>
+        <v>0.161766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185591</v>
+        <v>0.182363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179598</v>
+        <v>0.173818</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175672</v>
+        <v>0.165608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18807</v>
+        <v>0.185773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1807</v>
+        <v>0.174945</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.182666</v>
+        <v>0.172559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196263</v>
+        <v>0.194116</v>
       </c>
       <c r="D4" t="n">
-        <v>0.183045</v>
+        <v>0.177578</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.190477</v>
+        <v>0.18133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206231</v>
+        <v>0.205125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185793</v>
+        <v>0.180114</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.197636</v>
+        <v>0.189875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22117</v>
+        <v>0.221016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.190885</v>
+        <v>0.185496</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216904</v>
+        <v>0.209854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.246039</v>
+        <v>0.24585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199498</v>
+        <v>0.194084</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247516</v>
+        <v>0.242075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276498</v>
+        <v>0.277267</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210324</v>
+        <v>0.205432</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.297334</v>
+        <v>0.292117</v>
       </c>
       <c r="C9" t="n">
-        <v>0.323634</v>
+        <v>0.325523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175222</v>
+        <v>0.169739</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.165165</v>
+        <v>0.155616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.172823</v>
+        <v>0.168104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175642</v>
+        <v>0.170093</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.165234</v>
+        <v>0.156317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.173656</v>
+        <v>0.168999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.175703</v>
+        <v>0.170124</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.166279</v>
+        <v>0.157445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.174223</v>
+        <v>0.169741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.176122</v>
+        <v>0.170598</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.166468</v>
+        <v>0.158618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.175643</v>
+        <v>0.1706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176357</v>
+        <v>0.170796</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.168173</v>
+        <v>0.160411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.178503</v>
+        <v>0.174155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.177186</v>
+        <v>0.171568</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.169977</v>
+        <v>0.16258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.181103</v>
+        <v>0.176837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.177737</v>
+        <v>0.172266</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.174659</v>
+        <v>0.165703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.184757</v>
+        <v>0.180927</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178907</v>
+        <v>0.173186</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.178397</v>
+        <v>0.169681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189641</v>
+        <v>0.186064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179886</v>
+        <v>0.174428</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.18372</v>
+        <v>0.175323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.195032</v>
+        <v>0.191724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.181359</v>
+        <v>0.175944</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.190969</v>
+        <v>0.18386</v>
       </c>
       <c r="C19" t="n">
-        <v>0.203212</v>
+        <v>0.200765</v>
       </c>
       <c r="D19" t="n">
-        <v>0.184139</v>
+        <v>0.178679</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.202154</v>
+        <v>0.195472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21665</v>
+        <v>0.214678</v>
       </c>
       <c r="D20" t="n">
-        <v>0.187691</v>
+        <v>0.182477</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.221886</v>
+        <v>0.215915</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233921</v>
+        <v>0.232615</v>
       </c>
       <c r="D21" t="n">
-        <v>0.193039</v>
+        <v>0.188192</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250622</v>
+        <v>0.245887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259806</v>
+        <v>0.259015</v>
       </c>
       <c r="D22" t="n">
-        <v>0.203013</v>
+        <v>0.198337</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.296659</v>
+        <v>0.290885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.307865</v>
+        <v>0.308795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174775</v>
+        <v>0.169489</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.165998</v>
+        <v>0.159837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.17161</v>
+        <v>0.166746</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175177</v>
+        <v>0.169822</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.165176</v>
+        <v>0.16041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.172396</v>
+        <v>0.16764</v>
       </c>
       <c r="D25" t="n">
-        <v>0.175368</v>
+        <v>0.170042</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.167626</v>
+        <v>0.161338</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17336</v>
+        <v>0.168621</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175668</v>
+        <v>0.170277</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.167191</v>
+        <v>0.162625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.174956</v>
+        <v>0.170229</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175963</v>
+        <v>0.170613</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.169105</v>
+        <v>0.164219</v>
       </c>
       <c r="C28" t="n">
-        <v>0.176667</v>
+        <v>0.171993</v>
       </c>
       <c r="D28" t="n">
-        <v>0.176786</v>
+        <v>0.171248</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.170902</v>
+        <v>0.166388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.179552</v>
+        <v>0.175025</v>
       </c>
       <c r="D29" t="n">
-        <v>0.177282</v>
+        <v>0.17192</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.173458</v>
+        <v>0.169246</v>
       </c>
       <c r="C30" t="n">
-        <v>0.182497</v>
+        <v>0.177965</v>
       </c>
       <c r="D30" t="n">
-        <v>0.178186</v>
+        <v>0.172739</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17699</v>
+        <v>0.172683</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186802</v>
+        <v>0.182199</v>
       </c>
       <c r="D31" t="n">
-        <v>0.179255</v>
+        <v>0.173798</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.182598</v>
+        <v>0.178338</v>
       </c>
       <c r="C32" t="n">
-        <v>0.192347</v>
+        <v>0.18836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.18065</v>
+        <v>0.175548</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.190344</v>
+        <v>0.185891</v>
       </c>
       <c r="C33" t="n">
-        <v>0.201344</v>
+        <v>0.197692</v>
       </c>
       <c r="D33" t="n">
-        <v>0.183137</v>
+        <v>0.178039</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.201338</v>
+        <v>0.196538</v>
       </c>
       <c r="C34" t="n">
-        <v>0.212307</v>
+        <v>0.208935</v>
       </c>
       <c r="D34" t="n">
-        <v>0.186181</v>
+        <v>0.181372</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.218163</v>
+        <v>0.213606</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228919</v>
+        <v>0.225994</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190975</v>
+        <v>0.186413</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246225</v>
+        <v>0.241393</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255882</v>
+        <v>0.253939</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199634</v>
+        <v>0.196773</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.289317</v>
+        <v>0.283192</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297373</v>
+        <v>0.296157</v>
       </c>
       <c r="D37" t="n">
-        <v>0.175399</v>
+        <v>0.171575</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.165198</v>
+        <v>0.16147</v>
       </c>
       <c r="C38" t="n">
-        <v>0.172896</v>
+        <v>0.167543</v>
       </c>
       <c r="D38" t="n">
-        <v>0.175561</v>
+        <v>0.171676</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.165996</v>
+        <v>0.162284</v>
       </c>
       <c r="C39" t="n">
-        <v>0.173995</v>
+        <v>0.168699</v>
       </c>
       <c r="D39" t="n">
-        <v>0.175973</v>
+        <v>0.172104</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.166756</v>
+        <v>0.163201</v>
       </c>
       <c r="C40" t="n">
-        <v>0.175083</v>
+        <v>0.169833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.176266</v>
+        <v>0.172373</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.167956</v>
+        <v>0.164198</v>
       </c>
       <c r="C41" t="n">
-        <v>0.176199</v>
+        <v>0.171069</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176686</v>
+        <v>0.172732</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.169623</v>
+        <v>0.165805</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177664</v>
+        <v>0.172576</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177128</v>
+        <v>0.173176</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.171371</v>
+        <v>0.167629</v>
       </c>
       <c r="C43" t="n">
-        <v>0.179706</v>
+        <v>0.174849</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17754</v>
+        <v>0.173709</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.174014</v>
+        <v>0.170196</v>
       </c>
       <c r="C44" t="n">
-        <v>0.182978</v>
+        <v>0.178123</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178406</v>
+        <v>0.174627</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.177587</v>
+        <v>0.173708</v>
       </c>
       <c r="C45" t="n">
-        <v>0.187125</v>
+        <v>0.182522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.179573</v>
+        <v>0.175846</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.182328</v>
+        <v>0.178218</v>
       </c>
       <c r="C46" t="n">
-        <v>0.192851</v>
+        <v>0.188452</v>
       </c>
       <c r="D46" t="n">
-        <v>0.181232</v>
+        <v>0.177644</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.189778</v>
+        <v>0.185537</v>
       </c>
       <c r="C47" t="n">
-        <v>0.200668</v>
+        <v>0.196437</v>
       </c>
       <c r="D47" t="n">
-        <v>0.183348</v>
+        <v>0.17985</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.200209</v>
+        <v>0.195805</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21202</v>
+        <v>0.208126</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186418</v>
+        <v>0.183193</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.216358</v>
+        <v>0.211636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.22809</v>
+        <v>0.224503</v>
       </c>
       <c r="D49" t="n">
-        <v>0.191066</v>
+        <v>0.187989</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240746</v>
+        <v>0.235624</v>
       </c>
       <c r="C50" t="n">
-        <v>0.255245</v>
+        <v>0.252348</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199315</v>
+        <v>0.19686</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.279427</v>
+        <v>0.273687</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290889</v>
+        <v>0.288718</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175753</v>
+        <v>0.170872</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.338259</v>
+        <v>0.331131</v>
       </c>
       <c r="C52" t="n">
-        <v>0.34699</v>
+        <v>0.346272</v>
       </c>
       <c r="D52" t="n">
-        <v>0.176208</v>
+        <v>0.171287</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.171109</v>
+        <v>0.165318</v>
       </c>
       <c r="C53" t="n">
-        <v>0.174968</v>
+        <v>0.170682</v>
       </c>
       <c r="D53" t="n">
-        <v>0.176467</v>
+        <v>0.171638</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.171755</v>
+        <v>0.165975</v>
       </c>
       <c r="C54" t="n">
-        <v>0.176083</v>
+        <v>0.171663</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17685</v>
+        <v>0.172056</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.172861</v>
+        <v>0.1671</v>
       </c>
       <c r="C55" t="n">
-        <v>0.177451</v>
+        <v>0.173083</v>
       </c>
       <c r="D55" t="n">
-        <v>0.177402</v>
+        <v>0.17255</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.174419</v>
+        <v>0.168658</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179159</v>
+        <v>0.174749</v>
       </c>
       <c r="D56" t="n">
-        <v>0.177907</v>
+        <v>0.173126</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.176222</v>
+        <v>0.170471</v>
       </c>
       <c r="C57" t="n">
-        <v>0.181448</v>
+        <v>0.177432</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178585</v>
+        <v>0.173836</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.178763</v>
+        <v>0.172999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18485</v>
+        <v>0.180573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.179513</v>
+        <v>0.17476</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.182048</v>
+        <v>0.17628</v>
       </c>
       <c r="C59" t="n">
-        <v>0.189251</v>
+        <v>0.18503</v>
       </c>
       <c r="D59" t="n">
-        <v>0.180598</v>
+        <v>0.175912</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1869</v>
+        <v>0.181109</v>
       </c>
       <c r="C60" t="n">
-        <v>0.194431</v>
+        <v>0.19043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.182063</v>
+        <v>0.177529</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.193259</v>
+        <v>0.187424</v>
       </c>
       <c r="C61" t="n">
-        <v>0.202033</v>
+        <v>0.198157</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184054</v>
+        <v>0.179626</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.202697</v>
+        <v>0.196743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.212656</v>
+        <v>0.208979</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186993</v>
+        <v>0.182831</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.217478</v>
+        <v>0.211335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.228363</v>
+        <v>0.224934</v>
       </c>
       <c r="D63" t="n">
-        <v>0.191905</v>
+        <v>0.188076</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23965</v>
+        <v>0.233168</v>
       </c>
       <c r="C64" t="n">
-        <v>0.252162</v>
+        <v>0.249087</v>
       </c>
       <c r="D64" t="n">
-        <v>0.199858</v>
+        <v>0.196474</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.273485</v>
+        <v>0.266005</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28843</v>
+        <v>0.286035</v>
       </c>
       <c r="D65" t="n">
-        <v>0.214546</v>
+        <v>0.211317</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.326312</v>
+        <v>0.317576</v>
       </c>
       <c r="C66" t="n">
-        <v>0.340929</v>
+        <v>0.339805</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186059</v>
+        <v>0.183147</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184589</v>
+        <v>0.184548</v>
       </c>
       <c r="C67" t="n">
-        <v>0.186894</v>
+        <v>0.184215</v>
       </c>
       <c r="D67" t="n">
-        <v>0.186352</v>
+        <v>0.18319</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184978</v>
+        <v>0.184963</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188156</v>
+        <v>0.185413</v>
       </c>
       <c r="D68" t="n">
-        <v>0.186686</v>
+        <v>0.183566</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186164</v>
+        <v>0.186183</v>
       </c>
       <c r="C69" t="n">
-        <v>0.189872</v>
+        <v>0.187126</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187281</v>
+        <v>0.184224</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187672</v>
+        <v>0.187591</v>
       </c>
       <c r="C70" t="n">
-        <v>0.191854</v>
+        <v>0.189072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.187817</v>
+        <v>0.184754</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.189477</v>
+        <v>0.18932</v>
       </c>
       <c r="C71" t="n">
-        <v>0.194511</v>
+        <v>0.191756</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18859</v>
+        <v>0.185468</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.19183</v>
+        <v>0.191532</v>
       </c>
       <c r="C72" t="n">
-        <v>0.197806</v>
+        <v>0.194975</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189599</v>
+        <v>0.186464</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194984</v>
+        <v>0.194553</v>
       </c>
       <c r="C73" t="n">
-        <v>0.202204</v>
+        <v>0.199309</v>
       </c>
       <c r="D73" t="n">
-        <v>0.190848</v>
+        <v>0.187783</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199217</v>
+        <v>0.198695</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208099</v>
+        <v>0.205154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192449</v>
+        <v>0.189674</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205422</v>
+        <v>0.204633</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21638</v>
+        <v>0.2134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.194784</v>
+        <v>0.191823</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214464</v>
+        <v>0.213369</v>
       </c>
       <c r="C76" t="n">
-        <v>0.227388</v>
+        <v>0.22436</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198141</v>
+        <v>0.195276</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227338</v>
+        <v>0.225838</v>
       </c>
       <c r="C77" t="n">
-        <v>0.242682</v>
+        <v>0.23961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203007</v>
+        <v>0.200295</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.246515</v>
+        <v>0.244758</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264935</v>
+        <v>0.261898</v>
       </c>
       <c r="D78" t="n">
-        <v>0.210942</v>
+        <v>0.208334</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.278295</v>
+        <v>0.275746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.299095</v>
+        <v>0.296208</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224408</v>
+        <v>0.222048</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326686</v>
+        <v>0.322252</v>
       </c>
       <c r="C80" t="n">
-        <v>0.348273</v>
+        <v>0.346087</v>
       </c>
       <c r="D80" t="n">
-        <v>0.203246</v>
+        <v>0.201614</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.204161</v>
+        <v>0.202763</v>
       </c>
       <c r="C81" t="n">
-        <v>0.204518</v>
+        <v>0.20236</v>
       </c>
       <c r="D81" t="n">
-        <v>0.203514</v>
+        <v>0.201808</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204885</v>
+        <v>0.203417</v>
       </c>
       <c r="C82" t="n">
-        <v>0.205511</v>
+        <v>0.203222</v>
       </c>
       <c r="D82" t="n">
-        <v>0.204022</v>
+        <v>0.20205</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205894</v>
+        <v>0.204489</v>
       </c>
       <c r="C83" t="n">
-        <v>0.206829</v>
+        <v>0.204472</v>
       </c>
       <c r="D83" t="n">
-        <v>0.204446</v>
+        <v>0.202588</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.207332</v>
+        <v>0.205801</v>
       </c>
       <c r="C84" t="n">
-        <v>0.208528</v>
+        <v>0.20612</v>
       </c>
       <c r="D84" t="n">
-        <v>0.205008</v>
+        <v>0.20317</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208892</v>
+        <v>0.207446</v>
       </c>
       <c r="C85" t="n">
-        <v>0.210631</v>
+        <v>0.208186</v>
       </c>
       <c r="D85" t="n">
-        <v>0.20568</v>
+        <v>0.203809</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.211019</v>
+        <v>0.209414</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213216</v>
+        <v>0.210768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.206735</v>
+        <v>0.204791</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21363</v>
+        <v>0.212072</v>
       </c>
       <c r="C87" t="n">
-        <v>0.216989</v>
+        <v>0.214412</v>
       </c>
       <c r="D87" t="n">
-        <v>0.207694</v>
+        <v>0.205854</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.217512</v>
+        <v>0.215763</v>
       </c>
       <c r="C88" t="n">
-        <v>0.222116</v>
+        <v>0.219557</v>
       </c>
       <c r="D88" t="n">
-        <v>0.209214</v>
+        <v>0.207391</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.222896</v>
+        <v>0.22101</v>
       </c>
       <c r="C89" t="n">
-        <v>0.229377</v>
+        <v>0.226756</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211503</v>
+        <v>0.209623</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.230791</v>
+        <v>0.228697</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239236</v>
+        <v>0.236601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.214649</v>
+        <v>0.213296</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.242547</v>
+        <v>0.240163</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253</v>
+        <v>0.250259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.219399</v>
+        <v>0.217612</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260481</v>
+        <v>0.257421</v>
       </c>
       <c r="C92" t="n">
-        <v>0.272935</v>
+        <v>0.27013</v>
       </c>
       <c r="D92" t="n">
-        <v>0.226856</v>
+        <v>0.225382</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.288417</v>
+        <v>0.284973</v>
       </c>
       <c r="C93" t="n">
-        <v>0.30387</v>
+        <v>0.301147</v>
       </c>
       <c r="D93" t="n">
-        <v>0.239157</v>
+        <v>0.237273</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332776</v>
+        <v>0.328105</v>
       </c>
       <c r="C94" t="n">
-        <v>0.351347</v>
+        <v>0.348836</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211839</v>
+        <v>0.211123</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215819</v>
+        <v>0.215192</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215235</v>
+        <v>0.213246</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212395</v>
+        <v>0.211569</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216762</v>
+        <v>0.216233</v>
       </c>
       <c r="C96" t="n">
-        <v>0.216403</v>
+        <v>0.214468</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21277</v>
+        <v>0.212053</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217987</v>
+        <v>0.217362</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217866</v>
+        <v>0.215865</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213375</v>
+        <v>0.21259</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219491</v>
+        <v>0.218911</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219666</v>
+        <v>0.217706</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214046</v>
+        <v>0.213385</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.221333</v>
+        <v>0.220716</v>
       </c>
       <c r="C99" t="n">
-        <v>0.221898</v>
+        <v>0.219963</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214798</v>
+        <v>0.21418</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223576</v>
+        <v>0.223058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224862</v>
+        <v>0.222952</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215834</v>
+        <v>0.215155</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226853</v>
+        <v>0.226269</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229062</v>
+        <v>0.227116</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21697</v>
+        <v>0.21632</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.231016</v>
+        <v>0.230548</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23474</v>
+        <v>0.23296</v>
       </c>
       <c r="D102" t="n">
-        <v>0.218731</v>
+        <v>0.21785</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.237118</v>
+        <v>0.236529</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242781</v>
+        <v>0.241209</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220988</v>
+        <v>0.220483</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245789</v>
+        <v>0.245058</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254044</v>
+        <v>0.252461</v>
       </c>
       <c r="D104" t="n">
-        <v>0.224223</v>
+        <v>0.223593</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258363</v>
+        <v>0.257416</v>
       </c>
       <c r="C105" t="n">
-        <v>0.269634</v>
+        <v>0.268067</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229173</v>
+        <v>0.228713</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277179</v>
+        <v>0.276262</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291463</v>
+        <v>0.289729</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236691</v>
+        <v>0.236354</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305959</v>
+        <v>0.304618</v>
       </c>
       <c r="C107" t="n">
-        <v>0.323508</v>
+        <v>0.321849</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249485</v>
+        <v>0.248937</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349222</v>
+        <v>0.347394</v>
       </c>
       <c r="C108" t="n">
-        <v>0.370902</v>
+        <v>0.369265</v>
       </c>
       <c r="D108" t="n">
-        <v>0.217053</v>
+        <v>0.216988</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.416345</v>
+        <v>0.411321</v>
       </c>
       <c r="C109" t="n">
-        <v>0.439637</v>
+        <v>0.436575</v>
       </c>
       <c r="D109" t="n">
-        <v>0.21803</v>
+        <v>0.217589</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.235268</v>
+        <v>0.23559</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234056</v>
+        <v>0.232507</v>
       </c>
       <c r="D110" t="n">
-        <v>0.218498</v>
+        <v>0.218561</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239354</v>
+        <v>0.239576</v>
       </c>
       <c r="C111" t="n">
-        <v>0.238864</v>
+        <v>0.237074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219831</v>
+        <v>0.219759</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244354</v>
+        <v>0.243558</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244559</v>
+        <v>0.24235</v>
       </c>
       <c r="D112" t="n">
-        <v>0.22092</v>
+        <v>0.221273</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250479</v>
+        <v>0.250095</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250891</v>
+        <v>0.249119</v>
       </c>
       <c r="D113" t="n">
-        <v>0.22314</v>
+        <v>0.22308</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257121</v>
+        <v>0.256267</v>
       </c>
       <c r="C114" t="n">
-        <v>0.258581</v>
+        <v>0.25628</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225253</v>
+        <v>0.225237</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.264164</v>
+        <v>0.262896</v>
       </c>
       <c r="C115" t="n">
-        <v>0.266883</v>
+        <v>0.265155</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228304</v>
+        <v>0.228383</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272877</v>
+        <v>0.271637</v>
       </c>
       <c r="C116" t="n">
-        <v>0.27688</v>
+        <v>0.274599</v>
       </c>
       <c r="D116" t="n">
-        <v>0.232411</v>
+        <v>0.232296</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282527</v>
+        <v>0.280878</v>
       </c>
       <c r="C117" t="n">
-        <v>0.288585</v>
+        <v>0.286182</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237018</v>
+        <v>0.237176</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294268</v>
+        <v>0.292441</v>
       </c>
       <c r="C118" t="n">
-        <v>0.301849</v>
+        <v>0.299563</v>
       </c>
       <c r="D118" t="n">
-        <v>0.243909</v>
+        <v>0.243755</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.30983</v>
+        <v>0.307938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.319314</v>
+        <v>0.316822</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252768</v>
+        <v>0.252106</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.33024</v>
+        <v>0.327941</v>
       </c>
       <c r="C120" t="n">
-        <v>0.342694</v>
+        <v>0.340044</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263107</v>
+        <v>0.263407</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359804</v>
+        <v>0.357828</v>
       </c>
       <c r="C121" t="n">
-        <v>0.375359</v>
+        <v>0.372312</v>
       </c>
       <c r="D121" t="n">
-        <v>0.279843</v>
+        <v>0.279226</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403867</v>
+        <v>0.400793</v>
       </c>
       <c r="C122" t="n">
-        <v>0.424491</v>
+        <v>0.421461</v>
       </c>
       <c r="D122" t="n">
-        <v>0.305369</v>
+        <v>0.303871</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473538</v>
+        <v>0.468421</v>
       </c>
       <c r="C123" t="n">
-        <v>0.501221</v>
+        <v>0.498403</v>
       </c>
       <c r="D123" t="n">
-        <v>0.24886</v>
+        <v>0.245499</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.284729</v>
+        <v>0.284306</v>
       </c>
       <c r="C124" t="n">
-        <v>0.283637</v>
+        <v>0.28339</v>
       </c>
       <c r="D124" t="n">
-        <v>0.249839</v>
+        <v>0.251063</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.290304</v>
+        <v>0.290277</v>
       </c>
       <c r="C125" t="n">
-        <v>0.288041</v>
+        <v>0.286155</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25269</v>
+        <v>0.252643</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.293594</v>
+        <v>0.291796</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294373</v>
+        <v>0.293148</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257755</v>
+        <v>0.258331</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29656</v>
+        <v>0.29888</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299831</v>
+        <v>0.295016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.260586</v>
+        <v>0.258258</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301745</v>
+        <v>0.301525</v>
       </c>
       <c r="C128" t="n">
-        <v>0.303004</v>
+        <v>0.30235</v>
       </c>
       <c r="D128" t="n">
-        <v>0.261996</v>
+        <v>0.262794</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.308947</v>
+        <v>0.30668</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310191</v>
+        <v>0.307525</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26559</v>
+        <v>0.264864</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314794</v>
+        <v>0.314528</v>
       </c>
       <c r="C130" t="n">
-        <v>0.319409</v>
+        <v>0.317418</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270003</v>
+        <v>0.269644</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.326907</v>
+        <v>0.322404</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331867</v>
+        <v>0.327427</v>
       </c>
       <c r="D131" t="n">
-        <v>0.276164</v>
+        <v>0.274314</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335047</v>
+        <v>0.335607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.341234</v>
+        <v>0.341446</v>
       </c>
       <c r="D132" t="n">
-        <v>0.278986</v>
+        <v>0.280508</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.353084</v>
+        <v>0.349032</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361358</v>
+        <v>0.357399</v>
       </c>
       <c r="D133" t="n">
-        <v>0.288475</v>
+        <v>0.286122</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376398</v>
+        <v>0.370868</v>
       </c>
       <c r="C134" t="n">
-        <v>0.387417</v>
+        <v>0.382908</v>
       </c>
       <c r="D134" t="n">
-        <v>0.298507</v>
+        <v>0.295976</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.400479</v>
+        <v>0.399876</v>
       </c>
       <c r="C135" t="n">
-        <v>0.420292</v>
+        <v>0.418418</v>
       </c>
       <c r="D135" t="n">
-        <v>0.310769</v>
+        <v>0.310817</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.445691</v>
+        <v>0.441887</v>
       </c>
       <c r="C136" t="n">
-        <v>0.470545</v>
+        <v>0.468558</v>
       </c>
       <c r="D136" t="n">
-        <v>0.333847</v>
+        <v>0.3326</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.509898</v>
       </c>
       <c r="C137" t="n">
-        <v>0.54722</v>
+        <v>0.547498</v>
       </c>
       <c r="D137" t="n">
-        <v>0.389284</v>
+        <v>0.38838</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445388</v>
+        <v>0.444915</v>
       </c>
       <c r="C138" t="n">
-        <v>0.434006</v>
+        <v>0.427227</v>
       </c>
       <c r="D138" t="n">
-        <v>0.39264</v>
+        <v>0.387243</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.44521</v>
+        <v>0.448324</v>
       </c>
       <c r="C139" t="n">
-        <v>0.436357</v>
+        <v>0.436298</v>
       </c>
       <c r="D139" t="n">
-        <v>0.393188</v>
+        <v>0.395031</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.457275</v>
+        <v>0.454767</v>
       </c>
       <c r="C140" t="n">
-        <v>0.444287</v>
+        <v>0.437267</v>
       </c>
       <c r="D140" t="n">
-        <v>0.399387</v>
+        <v>0.392347</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.462545</v>
+        <v>0.460616</v>
       </c>
       <c r="C141" t="n">
-        <v>0.44975</v>
+        <v>0.444311</v>
       </c>
       <c r="D141" t="n">
-        <v>0.400151</v>
+        <v>0.39572</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.465081</v>
+        <v>0.46244</v>
       </c>
       <c r="C142" t="n">
-        <v>0.457394</v>
+        <v>0.454112</v>
       </c>
       <c r="D142" t="n">
-        <v>0.404799</v>
+        <v>0.403605</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474965</v>
+        <v>0.477472</v>
       </c>
       <c r="C143" t="n">
-        <v>0.469454</v>
+        <v>0.46457</v>
       </c>
       <c r="D143" t="n">
-        <v>0.413875</v>
+        <v>0.409044</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.161766</v>
+        <v>0.161677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.182363</v>
+        <v>0.182336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173818</v>
+        <v>0.173723</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.165608</v>
+        <v>0.165464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185773</v>
+        <v>0.18535</v>
       </c>
       <c r="D3" t="n">
-        <v>0.174945</v>
+        <v>0.174781</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172559</v>
+        <v>0.172284</v>
       </c>
       <c r="C4" t="n">
-        <v>0.194116</v>
+        <v>0.193783</v>
       </c>
       <c r="D4" t="n">
-        <v>0.177578</v>
+        <v>0.177373</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18133</v>
+        <v>0.180954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205125</v>
+        <v>0.204345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.180114</v>
+        <v>0.179952</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189875</v>
+        <v>0.189465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.221016</v>
+        <v>0.220252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.185496</v>
+        <v>0.185333</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.209854</v>
+        <v>0.209553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.24585</v>
+        <v>0.245459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194084</v>
+        <v>0.193883</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242075</v>
+        <v>0.241724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.277267</v>
+        <v>0.276062</v>
       </c>
       <c r="D8" t="n">
-        <v>0.205432</v>
+        <v>0.20521</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292117</v>
+        <v>0.292418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.325523</v>
+        <v>0.324248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169739</v>
+        <v>0.16968</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.155616</v>
+        <v>0.155771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168104</v>
+        <v>0.167739</v>
       </c>
       <c r="D10" t="n">
-        <v>0.170093</v>
+        <v>0.169976</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.156317</v>
+        <v>0.156504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168999</v>
+        <v>0.168631</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170124</v>
+        <v>0.170121</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.157445</v>
+        <v>0.157652</v>
       </c>
       <c r="C12" t="n">
-        <v>0.169741</v>
+        <v>0.169509</v>
       </c>
       <c r="D12" t="n">
-        <v>0.170598</v>
+        <v>0.170522</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.158618</v>
+        <v>0.158522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1706</v>
+        <v>0.171008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.170796</v>
+        <v>0.170711</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.160411</v>
+        <v>0.160268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.174155</v>
+        <v>0.174026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.171568</v>
+        <v>0.17151</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16258</v>
+        <v>0.162512</v>
       </c>
       <c r="C15" t="n">
-        <v>0.176837</v>
+        <v>0.176782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172266</v>
+        <v>0.172196</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.165703</v>
+        <v>0.165723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.180927</v>
+        <v>0.180795</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173186</v>
+        <v>0.173144</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169681</v>
+        <v>0.169511</v>
       </c>
       <c r="C17" t="n">
-        <v>0.186064</v>
+        <v>0.185761</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174428</v>
+        <v>0.174388</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.175323</v>
+        <v>0.175239</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191724</v>
+        <v>0.191618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175944</v>
+        <v>0.175802</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18386</v>
+        <v>0.183778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200765</v>
+        <v>0.200271</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178679</v>
+        <v>0.178622</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195472</v>
+        <v>0.195479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214678</v>
+        <v>0.214878</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182477</v>
+        <v>0.182337</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.215915</v>
+        <v>0.215692</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232615</v>
+        <v>0.232718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188192</v>
+        <v>0.188173</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245887</v>
+        <v>0.246198</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259015</v>
+        <v>0.260016</v>
       </c>
       <c r="D22" t="n">
-        <v>0.198337</v>
+        <v>0.198394</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290885</v>
+        <v>0.292491</v>
       </c>
       <c r="C23" t="n">
-        <v>0.308795</v>
+        <v>0.309337</v>
       </c>
       <c r="D23" t="n">
-        <v>0.169489</v>
+        <v>0.169478</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.159837</v>
+        <v>0.159783</v>
       </c>
       <c r="C24" t="n">
-        <v>0.166746</v>
+        <v>0.166901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.169822</v>
+        <v>0.169784</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.16041</v>
+        <v>0.160371</v>
       </c>
       <c r="C25" t="n">
-        <v>0.16764</v>
+        <v>0.167629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170042</v>
+        <v>0.170008</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.161338</v>
+        <v>0.16134</v>
       </c>
       <c r="C26" t="n">
-        <v>0.168621</v>
+        <v>0.168592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.170277</v>
+        <v>0.170231</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.162625</v>
+        <v>0.162553</v>
       </c>
       <c r="C27" t="n">
-        <v>0.170229</v>
+        <v>0.17018</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170613</v>
+        <v>0.170552</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.164219</v>
+        <v>0.164159</v>
       </c>
       <c r="C28" t="n">
-        <v>0.171993</v>
+        <v>0.171937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.171248</v>
+        <v>0.171179</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.166388</v>
+        <v>0.166375</v>
       </c>
       <c r="C29" t="n">
-        <v>0.175025</v>
+        <v>0.174949</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17192</v>
+        <v>0.171888</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.169246</v>
+        <v>0.169181</v>
       </c>
       <c r="C30" t="n">
-        <v>0.177965</v>
+        <v>0.177894</v>
       </c>
       <c r="D30" t="n">
-        <v>0.172739</v>
+        <v>0.172733</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.172683</v>
+        <v>0.172641</v>
       </c>
       <c r="C31" t="n">
-        <v>0.182199</v>
+        <v>0.182495</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173798</v>
+        <v>0.173816</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.178338</v>
+        <v>0.178336</v>
       </c>
       <c r="C32" t="n">
-        <v>0.18836</v>
+        <v>0.188301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.175548</v>
+        <v>0.175537</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.185891</v>
+        <v>0.185886</v>
       </c>
       <c r="C33" t="n">
-        <v>0.197692</v>
+        <v>0.197572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.178039</v>
+        <v>0.178049</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196538</v>
+        <v>0.196578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208935</v>
+        <v>0.208912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.181372</v>
+        <v>0.181335</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.213606</v>
+        <v>0.213845</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225994</v>
+        <v>0.225819</v>
       </c>
       <c r="D35" t="n">
-        <v>0.186413</v>
+        <v>0.186273</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.241393</v>
+        <v>0.24208</v>
       </c>
       <c r="C36" t="n">
-        <v>0.253939</v>
+        <v>0.253825</v>
       </c>
       <c r="D36" t="n">
-        <v>0.196773</v>
+        <v>0.195344</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283192</v>
+        <v>0.284788</v>
       </c>
       <c r="C37" t="n">
-        <v>0.296157</v>
+        <v>0.295906</v>
       </c>
       <c r="D37" t="n">
-        <v>0.171575</v>
+        <v>0.169832</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16147</v>
+        <v>0.161558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.167543</v>
+        <v>0.167359</v>
       </c>
       <c r="D38" t="n">
-        <v>0.171676</v>
+        <v>0.169788</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.162284</v>
+        <v>0.162426</v>
       </c>
       <c r="C39" t="n">
-        <v>0.168699</v>
+        <v>0.168877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.172104</v>
+        <v>0.170256</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.163201</v>
+        <v>0.163302</v>
       </c>
       <c r="C40" t="n">
-        <v>0.169833</v>
+        <v>0.169483</v>
       </c>
       <c r="D40" t="n">
-        <v>0.172373</v>
+        <v>0.170554</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.164198</v>
+        <v>0.164324</v>
       </c>
       <c r="C41" t="n">
-        <v>0.171069</v>
+        <v>0.170694</v>
       </c>
       <c r="D41" t="n">
-        <v>0.172732</v>
+        <v>0.170967</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165805</v>
+        <v>0.165921</v>
       </c>
       <c r="C42" t="n">
-        <v>0.172576</v>
+        <v>0.172175</v>
       </c>
       <c r="D42" t="n">
-        <v>0.173176</v>
+        <v>0.17149</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167629</v>
+        <v>0.167761</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174849</v>
+        <v>0.174612</v>
       </c>
       <c r="D43" t="n">
-        <v>0.173709</v>
+        <v>0.172056</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.170196</v>
+        <v>0.170389</v>
       </c>
       <c r="C44" t="n">
-        <v>0.178123</v>
+        <v>0.178144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174627</v>
+        <v>0.173008</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.173708</v>
+        <v>0.173918</v>
       </c>
       <c r="C45" t="n">
-        <v>0.182522</v>
+        <v>0.182128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175846</v>
+        <v>0.174327</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.178218</v>
+        <v>0.178206</v>
       </c>
       <c r="C46" t="n">
-        <v>0.188452</v>
+        <v>0.188416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177644</v>
+        <v>0.177551</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.185537</v>
+        <v>0.185483</v>
       </c>
       <c r="C47" t="n">
-        <v>0.196437</v>
+        <v>0.196462</v>
       </c>
       <c r="D47" t="n">
-        <v>0.17985</v>
+        <v>0.179749</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.195805</v>
+        <v>0.19583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208126</v>
+        <v>0.207909</v>
       </c>
       <c r="D48" t="n">
-        <v>0.183193</v>
+        <v>0.181861</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.211636</v>
+        <v>0.21248</v>
       </c>
       <c r="C49" t="n">
-        <v>0.224503</v>
+        <v>0.224396</v>
       </c>
       <c r="D49" t="n">
-        <v>0.187989</v>
+        <v>0.187305</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235624</v>
+        <v>0.236111</v>
       </c>
       <c r="C50" t="n">
-        <v>0.252348</v>
+        <v>0.252239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.19686</v>
+        <v>0.195736</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.273687</v>
+        <v>0.27461</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288718</v>
+        <v>0.288673</v>
       </c>
       <c r="D51" t="n">
-        <v>0.170872</v>
+        <v>0.171469</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331131</v>
+        <v>0.332595</v>
       </c>
       <c r="C52" t="n">
-        <v>0.346272</v>
+        <v>0.346436</v>
       </c>
       <c r="D52" t="n">
-        <v>0.171287</v>
+        <v>0.171767</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.165318</v>
+        <v>0.167132</v>
       </c>
       <c r="C53" t="n">
-        <v>0.170682</v>
+        <v>0.171319</v>
       </c>
       <c r="D53" t="n">
-        <v>0.171638</v>
+        <v>0.172107</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.165975</v>
+        <v>0.167757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.171663</v>
+        <v>0.172239</v>
       </c>
       <c r="D54" t="n">
-        <v>0.172056</v>
+        <v>0.172513</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1671</v>
+        <v>0.168886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.173083</v>
+        <v>0.173937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17255</v>
+        <v>0.173014</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.168658</v>
+        <v>0.170452</v>
       </c>
       <c r="C56" t="n">
-        <v>0.174749</v>
+        <v>0.175335</v>
       </c>
       <c r="D56" t="n">
-        <v>0.173126</v>
+        <v>0.173582</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.170471</v>
+        <v>0.172298</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177432</v>
+        <v>0.177733</v>
       </c>
       <c r="D57" t="n">
-        <v>0.173836</v>
+        <v>0.174283</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.172999</v>
+        <v>0.174799</v>
       </c>
       <c r="C58" t="n">
-        <v>0.180573</v>
+        <v>0.181153</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17476</v>
+        <v>0.175192</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.17628</v>
+        <v>0.178085</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18503</v>
+        <v>0.185649</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175912</v>
+        <v>0.176297</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.181109</v>
+        <v>0.182869</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19043</v>
+        <v>0.190969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177529</v>
+        <v>0.177889</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187424</v>
+        <v>0.189195</v>
       </c>
       <c r="C61" t="n">
-        <v>0.198157</v>
+        <v>0.198695</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179626</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196743</v>
+        <v>0.198462</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208979</v>
+        <v>0.209453</v>
       </c>
       <c r="D62" t="n">
-        <v>0.182831</v>
+        <v>0.1832</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.211335</v>
+        <v>0.213207</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224934</v>
+        <v>0.225439</v>
       </c>
       <c r="D63" t="n">
-        <v>0.188076</v>
+        <v>0.188435</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.233168</v>
+        <v>0.235275</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249087</v>
+        <v>0.249557</v>
       </c>
       <c r="D64" t="n">
-        <v>0.196474</v>
+        <v>0.196812</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266005</v>
+        <v>0.268479</v>
       </c>
       <c r="C65" t="n">
-        <v>0.286035</v>
+        <v>0.287961</v>
       </c>
       <c r="D65" t="n">
-        <v>0.211317</v>
+        <v>0.211728</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.317576</v>
+        <v>0.320775</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339805</v>
+        <v>0.339887</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183147</v>
+        <v>0.185142</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184548</v>
+        <v>0.187055</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184215</v>
+        <v>0.186423</v>
       </c>
       <c r="D67" t="n">
-        <v>0.18319</v>
+        <v>0.185646</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184963</v>
+        <v>0.187682</v>
       </c>
       <c r="C68" t="n">
-        <v>0.185413</v>
+        <v>0.187493</v>
       </c>
       <c r="D68" t="n">
-        <v>0.183566</v>
+        <v>0.186005</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186183</v>
+        <v>0.188831</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187126</v>
+        <v>0.18919</v>
       </c>
       <c r="D69" t="n">
-        <v>0.184224</v>
+        <v>0.186519</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187591</v>
+        <v>0.190232</v>
       </c>
       <c r="C70" t="n">
-        <v>0.189072</v>
+        <v>0.190997</v>
       </c>
       <c r="D70" t="n">
-        <v>0.184754</v>
+        <v>0.187085</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18932</v>
+        <v>0.191926</v>
       </c>
       <c r="C71" t="n">
-        <v>0.191756</v>
+        <v>0.193585</v>
       </c>
       <c r="D71" t="n">
-        <v>0.185468</v>
+        <v>0.187787</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.191532</v>
+        <v>0.19416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.194975</v>
+        <v>0.196756</v>
       </c>
       <c r="D72" t="n">
-        <v>0.186464</v>
+        <v>0.188779</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194553</v>
+        <v>0.197181</v>
       </c>
       <c r="C73" t="n">
-        <v>0.199309</v>
+        <v>0.200982</v>
       </c>
       <c r="D73" t="n">
-        <v>0.187783</v>
+        <v>0.190219</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198695</v>
+        <v>0.201222</v>
       </c>
       <c r="C74" t="n">
-        <v>0.205154</v>
+        <v>0.206736</v>
       </c>
       <c r="D74" t="n">
-        <v>0.189674</v>
+        <v>0.191645</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204633</v>
+        <v>0.207107</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2134</v>
+        <v>0.214883</v>
       </c>
       <c r="D75" t="n">
-        <v>0.191823</v>
+        <v>0.193978</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213369</v>
+        <v>0.215793</v>
       </c>
       <c r="C76" t="n">
-        <v>0.22436</v>
+        <v>0.225754</v>
       </c>
       <c r="D76" t="n">
-        <v>0.195276</v>
+        <v>0.19741</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.225838</v>
+        <v>0.228137</v>
       </c>
       <c r="C77" t="n">
-        <v>0.23961</v>
+        <v>0.240888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.200295</v>
+        <v>0.202451</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244758</v>
+        <v>0.247378</v>
       </c>
       <c r="C78" t="n">
-        <v>0.261898</v>
+        <v>0.263127</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208334</v>
+        <v>0.210514</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275746</v>
+        <v>0.278583</v>
       </c>
       <c r="C79" t="n">
-        <v>0.296208</v>
+        <v>0.297408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.222048</v>
+        <v>0.224367</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322252</v>
+        <v>0.325831</v>
       </c>
       <c r="C80" t="n">
-        <v>0.346087</v>
+        <v>0.347406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201614</v>
+        <v>0.20246</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.202763</v>
+        <v>0.203054</v>
       </c>
       <c r="C81" t="n">
-        <v>0.20236</v>
+        <v>0.202734</v>
       </c>
       <c r="D81" t="n">
-        <v>0.201808</v>
+        <v>0.202653</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203417</v>
+        <v>0.203954</v>
       </c>
       <c r="C82" t="n">
-        <v>0.203222</v>
+        <v>0.203855</v>
       </c>
       <c r="D82" t="n">
-        <v>0.20205</v>
+        <v>0.20267</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.204489</v>
+        <v>0.204885</v>
       </c>
       <c r="C83" t="n">
-        <v>0.204472</v>
+        <v>0.204981</v>
       </c>
       <c r="D83" t="n">
-        <v>0.202588</v>
+        <v>0.203395</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.205801</v>
+        <v>0.206342</v>
       </c>
       <c r="C84" t="n">
-        <v>0.20612</v>
+        <v>0.206635</v>
       </c>
       <c r="D84" t="n">
-        <v>0.20317</v>
+        <v>0.203703</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.207446</v>
+        <v>0.207844</v>
       </c>
       <c r="C85" t="n">
-        <v>0.208186</v>
+        <v>0.208634</v>
       </c>
       <c r="D85" t="n">
-        <v>0.203809</v>
+        <v>0.204408</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209414</v>
+        <v>0.209846</v>
       </c>
       <c r="C86" t="n">
-        <v>0.210768</v>
+        <v>0.211294</v>
       </c>
       <c r="D86" t="n">
-        <v>0.204791</v>
+        <v>0.205337</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212072</v>
+        <v>0.212542</v>
       </c>
       <c r="C87" t="n">
-        <v>0.214412</v>
+        <v>0.215051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.205854</v>
+        <v>0.206856</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.215763</v>
+        <v>0.216293</v>
       </c>
       <c r="C88" t="n">
-        <v>0.219557</v>
+        <v>0.220067</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207391</v>
+        <v>0.207972</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.22101</v>
+        <v>0.221519</v>
       </c>
       <c r="C89" t="n">
-        <v>0.226756</v>
+        <v>0.227286</v>
       </c>
       <c r="D89" t="n">
-        <v>0.209623</v>
+        <v>0.210213</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.228697</v>
+        <v>0.229127</v>
       </c>
       <c r="C90" t="n">
-        <v>0.236601</v>
+        <v>0.237003</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213296</v>
+        <v>0.213394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.240163</v>
+        <v>0.240668</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250259</v>
+        <v>0.250673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217612</v>
+        <v>0.21806</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257421</v>
+        <v>0.258311</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27013</v>
+        <v>0.270455</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225382</v>
+        <v>0.225412</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.284973</v>
+        <v>0.286156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.301147</v>
+        <v>0.301372</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237273</v>
+        <v>0.237832</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.328105</v>
+        <v>0.329856</v>
       </c>
       <c r="C94" t="n">
-        <v>0.348836</v>
+        <v>0.348989</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211123</v>
+        <v>0.211656</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215192</v>
+        <v>0.215505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213246</v>
+        <v>0.213918</v>
       </c>
       <c r="D95" t="n">
-        <v>0.211569</v>
+        <v>0.212351</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216233</v>
+        <v>0.216539</v>
       </c>
       <c r="C96" t="n">
-        <v>0.214468</v>
+        <v>0.215058</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212053</v>
+        <v>0.212775</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217362</v>
+        <v>0.217679</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215865</v>
+        <v>0.216475</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21259</v>
+        <v>0.213257</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218911</v>
+        <v>0.219092</v>
       </c>
       <c r="C98" t="n">
-        <v>0.217706</v>
+        <v>0.218285</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213385</v>
+        <v>0.213939</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220716</v>
+        <v>0.22094</v>
       </c>
       <c r="C99" t="n">
-        <v>0.219963</v>
+        <v>0.220537</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21418</v>
+        <v>0.214808</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223058</v>
+        <v>0.223254</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222952</v>
+        <v>0.223564</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215155</v>
+        <v>0.215694</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226269</v>
+        <v>0.226379</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227116</v>
+        <v>0.227555</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21632</v>
+        <v>0.216859</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230548</v>
+        <v>0.230536</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23296</v>
+        <v>0.233321</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21785</v>
+        <v>0.218504</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236529</v>
+        <v>0.236507</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241209</v>
+        <v>0.241333</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220483</v>
+        <v>0.221114</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.245058</v>
+        <v>0.244997</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252461</v>
+        <v>0.252415</v>
       </c>
       <c r="D104" t="n">
-        <v>0.223593</v>
+        <v>0.224037</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257416</v>
+        <v>0.25724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.268067</v>
+        <v>0.267774</v>
       </c>
       <c r="D105" t="n">
-        <v>0.228713</v>
+        <v>0.228905</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.276262</v>
+        <v>0.276164</v>
       </c>
       <c r="C106" t="n">
-        <v>0.289729</v>
+        <v>0.289087</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236354</v>
+        <v>0.236407</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.304618</v>
+        <v>0.304384</v>
       </c>
       <c r="C107" t="n">
-        <v>0.321849</v>
+        <v>0.32088</v>
       </c>
       <c r="D107" t="n">
-        <v>0.248937</v>
+        <v>0.249065</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.347394</v>
+        <v>0.347372</v>
       </c>
       <c r="C108" t="n">
-        <v>0.369265</v>
+        <v>0.368269</v>
       </c>
       <c r="D108" t="n">
-        <v>0.216988</v>
+        <v>0.216565</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.411321</v>
+        <v>0.410931</v>
       </c>
       <c r="C109" t="n">
-        <v>0.436575</v>
+        <v>0.435253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217589</v>
+        <v>0.217883</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.23559</v>
+        <v>0.234627</v>
       </c>
       <c r="C110" t="n">
-        <v>0.232507</v>
+        <v>0.23265</v>
       </c>
       <c r="D110" t="n">
-        <v>0.218561</v>
+        <v>0.218569</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239576</v>
+        <v>0.238516</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237074</v>
+        <v>0.237213</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219759</v>
+        <v>0.219894</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243558</v>
+        <v>0.243805</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24235</v>
+        <v>0.242164</v>
       </c>
       <c r="D112" t="n">
-        <v>0.221273</v>
+        <v>0.221228</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250095</v>
+        <v>0.249252</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249119</v>
+        <v>0.249309</v>
       </c>
       <c r="D113" t="n">
-        <v>0.22308</v>
+        <v>0.223325</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256267</v>
+        <v>0.255794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25628</v>
+        <v>0.256215</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225237</v>
+        <v>0.225596</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.262896</v>
+        <v>0.263022</v>
       </c>
       <c r="C115" t="n">
-        <v>0.265155</v>
+        <v>0.264875</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228383</v>
+        <v>0.228599</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271637</v>
+        <v>0.271386</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274599</v>
+        <v>0.274455</v>
       </c>
       <c r="D116" t="n">
-        <v>0.232296</v>
+        <v>0.231647</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.280878</v>
+        <v>0.280866</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286182</v>
+        <v>0.285861</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237176</v>
+        <v>0.237119</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292441</v>
+        <v>0.292306</v>
       </c>
       <c r="C118" t="n">
-        <v>0.299563</v>
+        <v>0.299092</v>
       </c>
       <c r="D118" t="n">
-        <v>0.243755</v>
+        <v>0.243331</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.307938</v>
+        <v>0.307472</v>
       </c>
       <c r="C119" t="n">
-        <v>0.316822</v>
+        <v>0.316195</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252106</v>
+        <v>0.251497</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.327941</v>
+        <v>0.327907</v>
       </c>
       <c r="C120" t="n">
-        <v>0.340044</v>
+        <v>0.338977</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263407</v>
+        <v>0.262546</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.357828</v>
+        <v>0.357255</v>
       </c>
       <c r="C121" t="n">
-        <v>0.372312</v>
+        <v>0.371464</v>
       </c>
       <c r="D121" t="n">
-        <v>0.279226</v>
+        <v>0.278671</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.400793</v>
+        <v>0.400823</v>
       </c>
       <c r="C122" t="n">
-        <v>0.421461</v>
+        <v>0.420146</v>
       </c>
       <c r="D122" t="n">
-        <v>0.303871</v>
+        <v>0.303348</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.468421</v>
+        <v>0.468235</v>
       </c>
       <c r="C123" t="n">
-        <v>0.498403</v>
+        <v>0.49654</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245499</v>
+        <v>0.247998</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.284306</v>
+        <v>0.284723</v>
       </c>
       <c r="C124" t="n">
-        <v>0.28339</v>
+        <v>0.281333</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251063</v>
+        <v>0.248935</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.290277</v>
+        <v>0.288962</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286155</v>
+        <v>0.286378</v>
       </c>
       <c r="D125" t="n">
-        <v>0.252643</v>
+        <v>0.252593</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291796</v>
+        <v>0.291501</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293148</v>
+        <v>0.29038</v>
       </c>
       <c r="D126" t="n">
-        <v>0.258331</v>
+        <v>0.255269</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29888</v>
+        <v>0.298995</v>
       </c>
       <c r="C127" t="n">
-        <v>0.295016</v>
+        <v>0.295757</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258258</v>
+        <v>0.258275</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.301525</v>
+        <v>0.304332</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30235</v>
+        <v>0.301939</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262794</v>
+        <v>0.262121</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.30668</v>
+        <v>0.306814</v>
       </c>
       <c r="C129" t="n">
-        <v>0.307525</v>
+        <v>0.309634</v>
       </c>
       <c r="D129" t="n">
-        <v>0.264864</v>
+        <v>0.266746</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314528</v>
+        <v>0.315545</v>
       </c>
       <c r="C130" t="n">
-        <v>0.317418</v>
+        <v>0.315568</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269644</v>
+        <v>0.268239</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322404</v>
+        <v>0.330717</v>
       </c>
       <c r="C131" t="n">
-        <v>0.327427</v>
+        <v>0.327351</v>
       </c>
       <c r="D131" t="n">
-        <v>0.274314</v>
+        <v>0.273426</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.335607</v>
+        <v>0.333474</v>
       </c>
       <c r="C132" t="n">
-        <v>0.341446</v>
+        <v>0.340474</v>
       </c>
       <c r="D132" t="n">
-        <v>0.280508</v>
+        <v>0.279541</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.349032</v>
+        <v>0.351726</v>
       </c>
       <c r="C133" t="n">
-        <v>0.357399</v>
+        <v>0.360356</v>
       </c>
       <c r="D133" t="n">
-        <v>0.286122</v>
+        <v>0.287631</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370868</v>
+        <v>0.371758</v>
       </c>
       <c r="C134" t="n">
-        <v>0.382908</v>
+        <v>0.382934</v>
       </c>
       <c r="D134" t="n">
-        <v>0.295976</v>
+        <v>0.296139</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.399876</v>
+        <v>0.401061</v>
       </c>
       <c r="C135" t="n">
-        <v>0.418418</v>
+        <v>0.418235</v>
       </c>
       <c r="D135" t="n">
-        <v>0.310817</v>
+        <v>0.310721</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441887</v>
+        <v>0.440692</v>
       </c>
       <c r="C136" t="n">
-        <v>0.468558</v>
+        <v>0.467422</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3326</v>
+        <v>0.332318</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509898</v>
+        <v>0.510324</v>
       </c>
       <c r="C137" t="n">
-        <v>0.547498</v>
+        <v>0.546041</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38838</v>
+        <v>0.385995</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.444915</v>
+        <v>0.440191</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427227</v>
+        <v>0.429822</v>
       </c>
       <c r="D138" t="n">
-        <v>0.387243</v>
+        <v>0.391973</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.448324</v>
+        <v>0.446475</v>
       </c>
       <c r="C139" t="n">
-        <v>0.436298</v>
+        <v>0.43331</v>
       </c>
       <c r="D139" t="n">
-        <v>0.395031</v>
+        <v>0.392192</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454767</v>
+        <v>0.453352</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437267</v>
+        <v>0.437597</v>
       </c>
       <c r="D140" t="n">
-        <v>0.392347</v>
+        <v>0.393833</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.460616</v>
+        <v>0.462311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.444311</v>
+        <v>0.445173</v>
       </c>
       <c r="D141" t="n">
-        <v>0.39572</v>
+        <v>0.396933</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.46244</v>
+        <v>0.46487</v>
       </c>
       <c r="C142" t="n">
-        <v>0.454112</v>
+        <v>0.451265</v>
       </c>
       <c r="D142" t="n">
-        <v>0.403605</v>
+        <v>0.399342</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.477472</v>
+        <v>0.468123</v>
       </c>
       <c r="C143" t="n">
-        <v>0.46457</v>
+        <v>0.462865</v>
       </c>
       <c r="D143" t="n">
-        <v>0.409044</v>
+        <v>0.407801</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.161677</v>
+        <v>0.0733886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.182336</v>
+        <v>0.08797480000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173723</v>
+        <v>0.0877822</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.165464</v>
+        <v>0.0759369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18535</v>
+        <v>0.0915125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.174781</v>
+        <v>0.08865770000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172284</v>
+        <v>0.08004650000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193783</v>
+        <v>0.0980864</v>
       </c>
       <c r="D4" t="n">
-        <v>0.177373</v>
+        <v>0.090375</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.180954</v>
+        <v>0.0871651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204345</v>
+        <v>0.108477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.179952</v>
+        <v>0.09346069999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189465</v>
+        <v>0.0981233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220252</v>
+        <v>0.122287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.185333</v>
+        <v>0.096067</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.209553</v>
+        <v>0.123542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.245459</v>
+        <v>0.141709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193883</v>
+        <v>0.101318</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241724</v>
+        <v>0.158953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276062</v>
+        <v>0.177607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20521</v>
+        <v>0.113836</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292418</v>
+        <v>0.209077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.324248</v>
+        <v>0.220292</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16968</v>
+        <v>0.0845825</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.155771</v>
+        <v>0.0678241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167739</v>
+        <v>0.0785631</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169976</v>
+        <v>0.084707</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.156504</v>
+        <v>0.06861829999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168631</v>
+        <v>0.079392</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170121</v>
+        <v>0.0848265</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.157652</v>
+        <v>0.06970519999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.169509</v>
+        <v>0.0808007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.170522</v>
+        <v>0.08530980000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.158522</v>
+        <v>0.0709114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.171008</v>
+        <v>0.0819824</v>
       </c>
       <c r="D13" t="n">
-        <v>0.170711</v>
+        <v>0.08549370000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.160268</v>
+        <v>0.0722671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.174026</v>
+        <v>0.0843148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.17151</v>
+        <v>0.0861975</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.162512</v>
+        <v>0.0739633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.176782</v>
+        <v>0.0865568</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172196</v>
+        <v>0.086676</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.165723</v>
+        <v>0.0765743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.180795</v>
+        <v>0.0893312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173144</v>
+        <v>0.0874617</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.169511</v>
+        <v>0.08018980000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.185761</v>
+        <v>0.0938281</v>
       </c>
       <c r="D17" t="n">
-        <v>0.174388</v>
+        <v>0.0886348</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.175239</v>
+        <v>0.0854539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191618</v>
+        <v>0.09941659999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175802</v>
+        <v>0.0904631</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.183778</v>
+        <v>0.0936613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200271</v>
+        <v>0.108527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178622</v>
+        <v>0.0931076</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.195479</v>
+        <v>0.106107</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214878</v>
+        <v>0.122281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182337</v>
+        <v>0.0965811</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.215692</v>
+        <v>0.126169</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232718</v>
+        <v>0.143746</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188173</v>
+        <v>0.103043</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.246198</v>
+        <v>0.154424</v>
       </c>
       <c r="C22" t="n">
-        <v>0.260016</v>
+        <v>0.175312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.198394</v>
+        <v>0.115182</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.292491</v>
+        <v>0.197742</v>
       </c>
       <c r="C23" t="n">
-        <v>0.309337</v>
+        <v>0.220868</v>
       </c>
       <c r="D23" t="n">
-        <v>0.169478</v>
+        <v>0.0849409</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.159783</v>
+        <v>0.0702328</v>
       </c>
       <c r="C24" t="n">
-        <v>0.166901</v>
+        <v>0.0804999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.169784</v>
+        <v>0.0851721</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.160371</v>
+        <v>0.0706431</v>
       </c>
       <c r="C25" t="n">
-        <v>0.167629</v>
+        <v>0.08115550000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170008</v>
+        <v>0.08527</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.16134</v>
+        <v>0.07173119999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.168592</v>
+        <v>0.08189249999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.170231</v>
+        <v>0.0855225</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.162553</v>
+        <v>0.0728722</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17018</v>
+        <v>0.0832637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170552</v>
+        <v>0.08591989999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.164159</v>
+        <v>0.07414279999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.171937</v>
+        <v>0.08526789999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.171179</v>
+        <v>0.08654009999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.166375</v>
+        <v>0.0757601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174949</v>
+        <v>0.0878582</v>
       </c>
       <c r="D29" t="n">
-        <v>0.171888</v>
+        <v>0.08717709999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.169181</v>
+        <v>0.07785590000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.177894</v>
+        <v>0.0907818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.172733</v>
+        <v>0.08797629999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.172641</v>
+        <v>0.08081869999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.182495</v>
+        <v>0.09511319999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173816</v>
+        <v>0.0891366</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.178336</v>
+        <v>0.0864777</v>
       </c>
       <c r="C32" t="n">
-        <v>0.188301</v>
+        <v>0.100532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.175537</v>
+        <v>0.09077590000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.185886</v>
+        <v>0.0943885</v>
       </c>
       <c r="C33" t="n">
-        <v>0.197572</v>
+        <v>0.109161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.178049</v>
+        <v>0.0928682</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.196578</v>
+        <v>0.106206</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208912</v>
+        <v>0.121463</v>
       </c>
       <c r="D34" t="n">
-        <v>0.181335</v>
+        <v>0.0962438</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.213845</v>
+        <v>0.123422</v>
       </c>
       <c r="C35" t="n">
-        <v>0.225819</v>
+        <v>0.139324</v>
       </c>
       <c r="D35" t="n">
-        <v>0.186273</v>
+        <v>0.101844</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24208</v>
+        <v>0.151271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.253825</v>
+        <v>0.167248</v>
       </c>
       <c r="D36" t="n">
-        <v>0.195344</v>
+        <v>0.111861</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284788</v>
+        <v>0.191565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.295906</v>
+        <v>0.210084</v>
       </c>
       <c r="D37" t="n">
-        <v>0.169832</v>
+        <v>0.0851957</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161558</v>
+        <v>0.07103569999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.167359</v>
+        <v>0.0813686</v>
       </c>
       <c r="D38" t="n">
-        <v>0.169788</v>
+        <v>0.0854665</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.162426</v>
+        <v>0.07181070000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.168877</v>
+        <v>0.0820446</v>
       </c>
       <c r="D39" t="n">
-        <v>0.170256</v>
+        <v>0.085758</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.163302</v>
+        <v>0.0727421</v>
       </c>
       <c r="C40" t="n">
-        <v>0.169483</v>
+        <v>0.08314290000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.170554</v>
+        <v>0.0860924</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.164324</v>
+        <v>0.07355589999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.170694</v>
+        <v>0.0843508</v>
       </c>
       <c r="D41" t="n">
-        <v>0.170967</v>
+        <v>0.08641749999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.165921</v>
+        <v>0.07488110000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.172175</v>
+        <v>0.08573219999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17149</v>
+        <v>0.08691599999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.167761</v>
+        <v>0.0766347</v>
       </c>
       <c r="C43" t="n">
-        <v>0.174612</v>
+        <v>0.08790679999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.172056</v>
+        <v>0.0875513</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.170389</v>
+        <v>0.0792915</v>
       </c>
       <c r="C44" t="n">
-        <v>0.178144</v>
+        <v>0.09099550000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173008</v>
+        <v>0.08834110000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.173918</v>
+        <v>0.08258450000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.182128</v>
+        <v>0.0946456</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174327</v>
+        <v>0.08939660000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.178206</v>
+        <v>0.0874038</v>
       </c>
       <c r="C46" t="n">
-        <v>0.188416</v>
+        <v>0.101047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177551</v>
+        <v>0.0911004</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.185483</v>
+        <v>0.0946279</v>
       </c>
       <c r="C47" t="n">
-        <v>0.196462</v>
+        <v>0.109165</v>
       </c>
       <c r="D47" t="n">
-        <v>0.179749</v>
+        <v>0.09332559999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19583</v>
+        <v>0.104715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207909</v>
+        <v>0.120316</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181861</v>
+        <v>0.09694220000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.21248</v>
+        <v>0.121601</v>
       </c>
       <c r="C49" t="n">
-        <v>0.224396</v>
+        <v>0.136564</v>
       </c>
       <c r="D49" t="n">
-        <v>0.187305</v>
+        <v>0.102218</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236111</v>
+        <v>0.145025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.252239</v>
+        <v>0.161329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195736</v>
+        <v>0.111004</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27461</v>
+        <v>0.181296</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288673</v>
+        <v>0.195545</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171469</v>
+        <v>0.0871021</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.332595</v>
+        <v>0.237638</v>
       </c>
       <c r="C52" t="n">
-        <v>0.346436</v>
+        <v>0.2525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.171767</v>
+        <v>0.087614</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.167132</v>
+        <v>0.0731274</v>
       </c>
       <c r="C53" t="n">
-        <v>0.171319</v>
+        <v>0.0839375</v>
       </c>
       <c r="D53" t="n">
-        <v>0.172107</v>
+        <v>0.0879089</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167757</v>
+        <v>0.0742288</v>
       </c>
       <c r="C54" t="n">
-        <v>0.172239</v>
+        <v>0.08487500000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.172513</v>
+        <v>0.0883221</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168886</v>
+        <v>0.0754335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.173937</v>
+        <v>0.08618580000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.173014</v>
+        <v>0.0887907</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170452</v>
+        <v>0.0768195</v>
       </c>
       <c r="C56" t="n">
-        <v>0.175335</v>
+        <v>0.0878554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.173582</v>
+        <v>0.08938500000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.172298</v>
+        <v>0.0785401</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177733</v>
+        <v>0.0900219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.174283</v>
+        <v>0.0899992</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174799</v>
+        <v>0.0806722</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181153</v>
+        <v>0.0927205</v>
       </c>
       <c r="D58" t="n">
-        <v>0.175192</v>
+        <v>0.0908282</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.178085</v>
+        <v>0.08357290000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.185649</v>
+        <v>0.096626</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176297</v>
+        <v>0.0918858</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182869</v>
+        <v>0.08797430000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.190969</v>
+        <v>0.102411</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177889</v>
+        <v>0.09358809999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189195</v>
+        <v>0.0944218</v>
       </c>
       <c r="C61" t="n">
-        <v>0.198695</v>
+        <v>0.110005</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18</v>
+        <v>0.0958678</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198462</v>
+        <v>0.103771</v>
       </c>
       <c r="C62" t="n">
-        <v>0.209453</v>
+        <v>0.120588</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1832</v>
+        <v>0.0990683</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213207</v>
+        <v>0.117682</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225439</v>
+        <v>0.135307</v>
       </c>
       <c r="D63" t="n">
-        <v>0.188435</v>
+        <v>0.103854</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235275</v>
+        <v>0.139235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249557</v>
+        <v>0.157493</v>
       </c>
       <c r="D64" t="n">
-        <v>0.196812</v>
+        <v>0.111978</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268479</v>
+        <v>0.171452</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287961</v>
+        <v>0.193252</v>
       </c>
       <c r="D65" t="n">
-        <v>0.211728</v>
+        <v>0.12602</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.320775</v>
+        <v>0.2197</v>
       </c>
       <c r="C66" t="n">
-        <v>0.339887</v>
+        <v>0.244157</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185142</v>
+        <v>0.0984212</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.187055</v>
+        <v>0.0840712</v>
       </c>
       <c r="C67" t="n">
-        <v>0.186423</v>
+        <v>0.0943707</v>
       </c>
       <c r="D67" t="n">
-        <v>0.185646</v>
+        <v>0.09939919999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.187682</v>
+        <v>0.0849036</v>
       </c>
       <c r="C68" t="n">
-        <v>0.187493</v>
+        <v>0.0954069</v>
       </c>
       <c r="D68" t="n">
-        <v>0.186005</v>
+        <v>0.09987649999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.188831</v>
+        <v>0.0859429</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18919</v>
+        <v>0.0966292</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186519</v>
+        <v>0.100357</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.190232</v>
+        <v>0.08712250000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.190997</v>
+        <v>0.0981061</v>
       </c>
       <c r="D70" t="n">
-        <v>0.187085</v>
+        <v>0.100886</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.191926</v>
+        <v>0.088584</v>
       </c>
       <c r="C71" t="n">
-        <v>0.193585</v>
+        <v>0.100149</v>
       </c>
       <c r="D71" t="n">
-        <v>0.187787</v>
+        <v>0.101582</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.19416</v>
+        <v>0.0906536</v>
       </c>
       <c r="C72" t="n">
-        <v>0.196756</v>
+        <v>0.10276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.188779</v>
+        <v>0.102438</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.197181</v>
+        <v>0.09333809999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200982</v>
+        <v>0.1063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.190219</v>
+        <v>0.103482</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201222</v>
+        <v>0.0971979</v>
       </c>
       <c r="C74" t="n">
-        <v>0.206736</v>
+        <v>0.111223</v>
       </c>
       <c r="D74" t="n">
-        <v>0.191645</v>
+        <v>0.104947</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.207107</v>
+        <v>0.102794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214883</v>
+        <v>0.117677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.193978</v>
+        <v>0.106944</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.215793</v>
+        <v>0.11112</v>
       </c>
       <c r="C76" t="n">
-        <v>0.225754</v>
+        <v>0.127692</v>
       </c>
       <c r="D76" t="n">
-        <v>0.19741</v>
+        <v>0.110001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.228137</v>
+        <v>0.123125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240888</v>
+        <v>0.141414</v>
       </c>
       <c r="D77" t="n">
-        <v>0.202451</v>
+        <v>0.114745</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.247378</v>
+        <v>0.141602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.263127</v>
+        <v>0.161404</v>
       </c>
       <c r="D78" t="n">
-        <v>0.210514</v>
+        <v>0.122116</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.278583</v>
+        <v>0.170394</v>
       </c>
       <c r="C79" t="n">
-        <v>0.297408</v>
+        <v>0.192429</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224367</v>
+        <v>0.134678</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.325831</v>
+        <v>0.217779</v>
       </c>
       <c r="C80" t="n">
-        <v>0.347406</v>
+        <v>0.240718</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20246</v>
+        <v>0.113269</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203054</v>
+        <v>0.09166439999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.202734</v>
+        <v>0.104967</v>
       </c>
       <c r="D81" t="n">
-        <v>0.202653</v>
+        <v>0.113613</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203954</v>
+        <v>0.0925343</v>
       </c>
       <c r="C82" t="n">
-        <v>0.203855</v>
+        <v>0.105874</v>
       </c>
       <c r="D82" t="n">
-        <v>0.20267</v>
+        <v>0.113978</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.204885</v>
+        <v>0.0934208</v>
       </c>
       <c r="C83" t="n">
-        <v>0.204981</v>
+        <v>0.106937</v>
       </c>
       <c r="D83" t="n">
-        <v>0.203395</v>
+        <v>0.114376</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206342</v>
+        <v>0.0945875</v>
       </c>
       <c r="C84" t="n">
-        <v>0.206635</v>
+        <v>0.108301</v>
       </c>
       <c r="D84" t="n">
-        <v>0.203703</v>
+        <v>0.114846</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.207844</v>
+        <v>0.0960925</v>
       </c>
       <c r="C85" t="n">
-        <v>0.208634</v>
+        <v>0.110006</v>
       </c>
       <c r="D85" t="n">
-        <v>0.204408</v>
+        <v>0.115419</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209846</v>
+        <v>0.0979595</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211294</v>
+        <v>0.11253</v>
       </c>
       <c r="D86" t="n">
-        <v>0.205337</v>
+        <v>0.116137</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212542</v>
+        <v>0.100621</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215051</v>
+        <v>0.115688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.206856</v>
+        <v>0.117064</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216293</v>
+        <v>0.104215</v>
       </c>
       <c r="C88" t="n">
-        <v>0.220067</v>
+        <v>0.120113</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207972</v>
+        <v>0.11836</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221519</v>
+        <v>0.109439</v>
       </c>
       <c r="C89" t="n">
-        <v>0.227286</v>
+        <v>0.12647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210213</v>
+        <v>0.120263</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229127</v>
+        <v>0.116858</v>
       </c>
       <c r="C90" t="n">
-        <v>0.237003</v>
+        <v>0.13532</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213394</v>
+        <v>0.122993</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.240668</v>
+        <v>0.128214</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250673</v>
+        <v>0.147803</v>
       </c>
       <c r="D91" t="n">
-        <v>0.21806</v>
+        <v>0.127153</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258311</v>
+        <v>0.144669</v>
       </c>
       <c r="C92" t="n">
-        <v>0.270455</v>
+        <v>0.166273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225412</v>
+        <v>0.133855</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286156</v>
+        <v>0.170532</v>
       </c>
       <c r="C93" t="n">
-        <v>0.301372</v>
+        <v>0.195348</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237832</v>
+        <v>0.145295</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.329856</v>
+        <v>0.213593</v>
       </c>
       <c r="C94" t="n">
-        <v>0.348989</v>
+        <v>0.239388</v>
       </c>
       <c r="D94" t="n">
-        <v>0.211656</v>
+        <v>0.120537</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215505</v>
+        <v>0.0979275</v>
       </c>
       <c r="C95" t="n">
-        <v>0.213918</v>
+        <v>0.111885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.212351</v>
+        <v>0.120815</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216539</v>
+        <v>0.098915</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215058</v>
+        <v>0.11292</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212775</v>
+        <v>0.121251</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217679</v>
+        <v>0.100092</v>
       </c>
       <c r="C97" t="n">
-        <v>0.216475</v>
+        <v>0.114183</v>
       </c>
       <c r="D97" t="n">
-        <v>0.213257</v>
+        <v>0.121756</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.219092</v>
+        <v>0.101479</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218285</v>
+        <v>0.115647</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213939</v>
+        <v>0.122265</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22094</v>
+        <v>0.103139</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220537</v>
+        <v>0.117751</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214808</v>
+        <v>0.122953</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.223254</v>
+        <v>0.105491</v>
       </c>
       <c r="C100" t="n">
-        <v>0.223564</v>
+        <v>0.120416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215694</v>
+        <v>0.123787</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.226379</v>
+        <v>0.108523</v>
       </c>
       <c r="C101" t="n">
-        <v>0.227555</v>
+        <v>0.124314</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216859</v>
+        <v>0.124755</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.230536</v>
+        <v>0.112765</v>
       </c>
       <c r="C102" t="n">
-        <v>0.233321</v>
+        <v>0.129385</v>
       </c>
       <c r="D102" t="n">
-        <v>0.218504</v>
+        <v>0.126284</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.236507</v>
+        <v>0.118575</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241333</v>
+        <v>0.136724</v>
       </c>
       <c r="D103" t="n">
-        <v>0.221114</v>
+        <v>0.128181</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.244997</v>
+        <v>0.126935</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252415</v>
+        <v>0.146559</v>
       </c>
       <c r="D104" t="n">
-        <v>0.224037</v>
+        <v>0.130989</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25724</v>
+        <v>0.138699</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267774</v>
+        <v>0.160642</v>
       </c>
       <c r="D105" t="n">
-        <v>0.228905</v>
+        <v>0.135199</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.276164</v>
+        <v>0.156416</v>
       </c>
       <c r="C106" t="n">
-        <v>0.289087</v>
+        <v>0.18038</v>
       </c>
       <c r="D106" t="n">
-        <v>0.236407</v>
+        <v>0.141803</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.304384</v>
+        <v>0.182989</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32088</v>
+        <v>0.208932</v>
       </c>
       <c r="D107" t="n">
-        <v>0.249065</v>
+        <v>0.152653</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.347372</v>
+        <v>0.224771</v>
       </c>
       <c r="C108" t="n">
-        <v>0.368269</v>
+        <v>0.253877</v>
       </c>
       <c r="D108" t="n">
-        <v>0.216565</v>
+        <v>0.12452</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410931</v>
+        <v>0.286628</v>
       </c>
       <c r="C109" t="n">
-        <v>0.435253</v>
+        <v>0.320525</v>
       </c>
       <c r="D109" t="n">
-        <v>0.217883</v>
+        <v>0.125149</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234627</v>
+        <v>0.114171</v>
       </c>
       <c r="C110" t="n">
-        <v>0.23265</v>
+        <v>0.130039</v>
       </c>
       <c r="D110" t="n">
-        <v>0.218569</v>
+        <v>0.126027</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238516</v>
+        <v>0.118831</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237213</v>
+        <v>0.13503</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219894</v>
+        <v>0.127281</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243805</v>
+        <v>0.1245</v>
       </c>
       <c r="C112" t="n">
-        <v>0.242164</v>
+        <v>0.141174</v>
       </c>
       <c r="D112" t="n">
-        <v>0.221228</v>
+        <v>0.128603</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249252</v>
+        <v>0.130381</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249309</v>
+        <v>0.147291</v>
       </c>
       <c r="D113" t="n">
-        <v>0.223325</v>
+        <v>0.130093</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.255794</v>
+        <v>0.136337</v>
       </c>
       <c r="C114" t="n">
-        <v>0.256215</v>
+        <v>0.154723</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225596</v>
+        <v>0.132591</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263022</v>
+        <v>0.143187</v>
       </c>
       <c r="C115" t="n">
-        <v>0.264875</v>
+        <v>0.162481</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228599</v>
+        <v>0.134764</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271386</v>
+        <v>0.151586</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274455</v>
+        <v>0.172255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.231647</v>
+        <v>0.138446</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.280866</v>
+        <v>0.160857</v>
       </c>
       <c r="C117" t="n">
-        <v>0.285861</v>
+        <v>0.182935</v>
       </c>
       <c r="D117" t="n">
-        <v>0.237119</v>
+        <v>0.142852</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292306</v>
+        <v>0.171986</v>
       </c>
       <c r="C118" t="n">
-        <v>0.299092</v>
+        <v>0.195728</v>
       </c>
       <c r="D118" t="n">
-        <v>0.243331</v>
+        <v>0.149421</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.307472</v>
+        <v>0.185792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.316195</v>
+        <v>0.211312</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251497</v>
+        <v>0.157445</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.327907</v>
+        <v>0.204589</v>
       </c>
       <c r="C120" t="n">
-        <v>0.338977</v>
+        <v>0.232277</v>
       </c>
       <c r="D120" t="n">
-        <v>0.262546</v>
+        <v>0.167953</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.357255</v>
+        <v>0.230642</v>
       </c>
       <c r="C121" t="n">
-        <v>0.371464</v>
+        <v>0.261807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.278671</v>
+        <v>0.182881</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.400823</v>
+        <v>0.269658</v>
       </c>
       <c r="C122" t="n">
-        <v>0.420146</v>
+        <v>0.306648</v>
       </c>
       <c r="D122" t="n">
-        <v>0.303348</v>
+        <v>0.20592</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.468235</v>
+        <v>0.329324</v>
       </c>
       <c r="C123" t="n">
-        <v>0.49654</v>
+        <v>0.375081</v>
       </c>
       <c r="D123" t="n">
-        <v>0.247998</v>
+        <v>0.156037</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.284723</v>
+        <v>0.159377</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281333</v>
+        <v>0.181575</v>
       </c>
       <c r="D124" t="n">
-        <v>0.248935</v>
+        <v>0.157692</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.288962</v>
+        <v>0.169208</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286378</v>
+        <v>0.185714</v>
       </c>
       <c r="D125" t="n">
-        <v>0.252593</v>
+        <v>0.161039</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291501</v>
+        <v>0.166926</v>
       </c>
       <c r="C126" t="n">
-        <v>0.29038</v>
+        <v>0.189673</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255269</v>
+        <v>0.164585</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.298995</v>
+        <v>0.173917</v>
       </c>
       <c r="C127" t="n">
-        <v>0.295757</v>
+        <v>0.193644</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258275</v>
+        <v>0.166491</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.304332</v>
+        <v>0.175567</v>
       </c>
       <c r="C128" t="n">
-        <v>0.301939</v>
+        <v>0.201321</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262121</v>
+        <v>0.172327</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.306814</v>
+        <v>0.186438</v>
       </c>
       <c r="C129" t="n">
-        <v>0.309634</v>
+        <v>0.203522</v>
       </c>
       <c r="D129" t="n">
-        <v>0.266746</v>
+        <v>0.171935</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.315545</v>
+        <v>0.187002</v>
       </c>
       <c r="C130" t="n">
-        <v>0.315568</v>
+        <v>0.211085</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268239</v>
+        <v>0.176101</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.330717</v>
+        <v>0.195344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.327351</v>
+        <v>0.224066</v>
       </c>
       <c r="D131" t="n">
-        <v>0.273426</v>
+        <v>0.183099</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.333474</v>
+        <v>0.204103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.340474</v>
+        <v>0.239625</v>
       </c>
       <c r="D132" t="n">
-        <v>0.279541</v>
+        <v>0.191388</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351726</v>
+        <v>0.221433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.360356</v>
+        <v>0.250623</v>
       </c>
       <c r="D133" t="n">
-        <v>0.287631</v>
+        <v>0.192441</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.371758</v>
+        <v>0.238284</v>
       </c>
       <c r="C134" t="n">
-        <v>0.382934</v>
+        <v>0.270089</v>
       </c>
       <c r="D134" t="n">
-        <v>0.296139</v>
+        <v>0.201106</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.401061</v>
+        <v>0.259604</v>
       </c>
       <c r="C135" t="n">
-        <v>0.418235</v>
+        <v>0.303808</v>
       </c>
       <c r="D135" t="n">
-        <v>0.310721</v>
+        <v>0.216869</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.440692</v>
+        <v>0.299741</v>
       </c>
       <c r="C136" t="n">
-        <v>0.467422</v>
+        <v>0.345371</v>
       </c>
       <c r="D136" t="n">
-        <v>0.332318</v>
+        <v>0.235385</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.510324</v>
+        <v>0.354697</v>
       </c>
       <c r="C137" t="n">
-        <v>0.546041</v>
+        <v>0.414069</v>
       </c>
       <c r="D137" t="n">
-        <v>0.385995</v>
+        <v>0.29259</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.440191</v>
+        <v>0.280619</v>
       </c>
       <c r="C138" t="n">
-        <v>0.429822</v>
+        <v>0.31112</v>
       </c>
       <c r="D138" t="n">
-        <v>0.391973</v>
+        <v>0.287788</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.446475</v>
+        <v>0.281803</v>
       </c>
       <c r="C139" t="n">
-        <v>0.43331</v>
+        <v>0.316435</v>
       </c>
       <c r="D139" t="n">
-        <v>0.392192</v>
+        <v>0.290604</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.453352</v>
+        <v>0.287652</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437597</v>
+        <v>0.317225</v>
       </c>
       <c r="D140" t="n">
-        <v>0.393833</v>
+        <v>0.287426</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.462311</v>
+        <v>0.288093</v>
       </c>
       <c r="C141" t="n">
-        <v>0.445173</v>
+        <v>0.326542</v>
       </c>
       <c r="D141" t="n">
-        <v>0.396933</v>
+        <v>0.296826</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.46487</v>
+        <v>0.294032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.451265</v>
+        <v>0.332542</v>
       </c>
       <c r="D142" t="n">
-        <v>0.399342</v>
+        <v>0.299124</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.468123</v>
+        <v>0.298571</v>
       </c>
       <c r="C143" t="n">
-        <v>0.462865</v>
+        <v>0.340475</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407801</v>
+        <v>0.304536</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0733886</v>
+        <v>0.07320260000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08797480000000001</v>
+        <v>0.08793860000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0877822</v>
+        <v>0.0882724</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0759369</v>
+        <v>0.0759329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0915125</v>
+        <v>0.0915001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08865770000000001</v>
+        <v>0.0890529</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08004650000000001</v>
+        <v>0.0803504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0980864</v>
+        <v>0.0978551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.090375</v>
+        <v>0.0908286</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0871651</v>
+        <v>0.0875596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108477</v>
+        <v>0.108147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09346069999999999</v>
+        <v>0.09378930000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0981233</v>
+        <v>0.09864829999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.122287</v>
+        <v>0.121758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.096067</v>
+        <v>0.0961612</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123542</v>
+        <v>0.123334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.141709</v>
+        <v>0.141874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101318</v>
+        <v>0.101512</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.158953</v>
+        <v>0.159116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.177607</v>
+        <v>0.17718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.113836</v>
+        <v>0.113455</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209077</v>
+        <v>0.208837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220292</v>
+        <v>0.220142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0845825</v>
+        <v>0.0846601</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0678241</v>
+        <v>0.0677074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0785631</v>
+        <v>0.0780732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.084707</v>
+        <v>0.08479490000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06861829999999999</v>
+        <v>0.06848070000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.079392</v>
+        <v>0.07890949999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0848265</v>
+        <v>0.0849114</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06970519999999999</v>
+        <v>0.0695611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0808007</v>
+        <v>0.08030039999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08530980000000001</v>
+        <v>0.085415</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0709114</v>
+        <v>0.0707571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0819824</v>
+        <v>0.0815013</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08549370000000001</v>
+        <v>0.08557140000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0722671</v>
+        <v>0.0720364</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0843148</v>
+        <v>0.083741</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0861975</v>
+        <v>0.08630790000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0739633</v>
+        <v>0.0736029</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0865568</v>
+        <v>0.0857369</v>
       </c>
       <c r="D15" t="n">
-        <v>0.086676</v>
+        <v>0.086738</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0765743</v>
+        <v>0.0760927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0893312</v>
+        <v>0.0884556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0874617</v>
+        <v>0.08753610000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08018980000000001</v>
+        <v>0.07984430000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0938281</v>
+        <v>0.0932547</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0886348</v>
+        <v>0.0886986</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0854539</v>
+        <v>0.0850654</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09941659999999999</v>
+        <v>0.0989882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0904631</v>
+        <v>0.0904852</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0936613</v>
+        <v>0.0935473</v>
       </c>
       <c r="C19" t="n">
-        <v>0.108527</v>
+        <v>0.107641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0931076</v>
+        <v>0.0930561</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.106107</v>
+        <v>0.106201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.122281</v>
+        <v>0.121416</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0965811</v>
+        <v>0.0965632</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.126169</v>
+        <v>0.126165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.143746</v>
+        <v>0.142999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103043</v>
+        <v>0.102832</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154424</v>
+        <v>0.154214</v>
       </c>
       <c r="C22" t="n">
-        <v>0.175312</v>
+        <v>0.174166</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115182</v>
+        <v>0.115022</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.197742</v>
+        <v>0.197421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.220868</v>
+        <v>0.218584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0849409</v>
+        <v>0.0850427</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0702328</v>
+        <v>0.070092</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0804999</v>
+        <v>0.0805312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0851721</v>
+        <v>0.0852657</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0706431</v>
+        <v>0.07072730000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08115550000000001</v>
+        <v>0.0812228</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08527</v>
+        <v>0.0853624</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07173119999999999</v>
+        <v>0.071812</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08189249999999999</v>
+        <v>0.081992</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0855225</v>
+        <v>0.0856248</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0728722</v>
+        <v>0.0729711</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0832637</v>
+        <v>0.0833498</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08591989999999999</v>
+        <v>0.08601930000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07414279999999999</v>
+        <v>0.0742032</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08526789999999999</v>
+        <v>0.0853695</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08654009999999999</v>
+        <v>0.08663999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0757601</v>
+        <v>0.0757734</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0878582</v>
+        <v>0.0879562</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08717709999999999</v>
+        <v>0.08728370000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07785590000000001</v>
+        <v>0.07787860000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0907818</v>
+        <v>0.09103799999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08797629999999999</v>
+        <v>0.0880835</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08081869999999999</v>
+        <v>0.0809096</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09511319999999999</v>
+        <v>0.0949591</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0891366</v>
+        <v>0.0892574</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0864777</v>
+        <v>0.0864466</v>
       </c>
       <c r="C32" t="n">
-        <v>0.100532</v>
+        <v>0.100506</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09077590000000001</v>
+        <v>0.09078170000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0943885</v>
+        <v>0.09429899999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.109161</v>
+        <v>0.109299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0928682</v>
+        <v>0.0929738</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.106206</v>
+        <v>0.106214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.121463</v>
+        <v>0.121186</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0962438</v>
+        <v>0.096318</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.123422</v>
+        <v>0.123304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.139324</v>
+        <v>0.139009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101844</v>
+        <v>0.101988</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.151271</v>
+        <v>0.150956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167248</v>
+        <v>0.166603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111861</v>
+        <v>0.111976</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.191565</v>
+        <v>0.19055</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210084</v>
+        <v>0.208653</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0851957</v>
+        <v>0.0852149</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07103569999999999</v>
+        <v>0.0709461</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0813686</v>
+        <v>0.08146050000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0854665</v>
+        <v>0.0855168</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07181070000000001</v>
+        <v>0.0720026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0820446</v>
+        <v>0.0821625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.085758</v>
+        <v>0.0858483</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0727421</v>
+        <v>0.0727375</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08314290000000001</v>
+        <v>0.08325059999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0860924</v>
+        <v>0.0861784</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07355589999999999</v>
+        <v>0.0736778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0843508</v>
+        <v>0.0844838</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08641749999999999</v>
+        <v>0.0865084</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07488110000000001</v>
+        <v>0.0750062</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08573219999999999</v>
+        <v>0.0858936</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08691599999999999</v>
+        <v>0.0869814</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0766347</v>
+        <v>0.076766</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08790679999999999</v>
+        <v>0.0881536</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0875513</v>
+        <v>0.08762499999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0792915</v>
+        <v>0.0795623</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09099550000000001</v>
+        <v>0.0911839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08834110000000001</v>
+        <v>0.0883953</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08258450000000001</v>
+        <v>0.0829124</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0946456</v>
+        <v>0.0948275</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08939660000000001</v>
+        <v>0.08947860000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0874038</v>
+        <v>0.0874804</v>
       </c>
       <c r="C46" t="n">
-        <v>0.101047</v>
+        <v>0.101201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0911004</v>
+        <v>0.0910609</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0946279</v>
+        <v>0.0947736</v>
       </c>
       <c r="C47" t="n">
-        <v>0.109165</v>
+        <v>0.10928</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09332559999999999</v>
+        <v>0.093366</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104715</v>
+        <v>0.104729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.120316</v>
+        <v>0.12039</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09694220000000001</v>
+        <v>0.09690219999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.121601</v>
+        <v>0.121659</v>
       </c>
       <c r="C49" t="n">
-        <v>0.136564</v>
+        <v>0.13627</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102218</v>
+        <v>0.102298</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.145025</v>
+        <v>0.144637</v>
       </c>
       <c r="C50" t="n">
-        <v>0.161329</v>
+        <v>0.160511</v>
       </c>
       <c r="D50" t="n">
-        <v>0.111004</v>
+        <v>0.111057</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181296</v>
+        <v>0.179796</v>
       </c>
       <c r="C51" t="n">
-        <v>0.195545</v>
+        <v>0.194076</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0871021</v>
+        <v>0.0872192</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.237638</v>
+        <v>0.237225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2525</v>
+        <v>0.250645</v>
       </c>
       <c r="D52" t="n">
-        <v>0.087614</v>
+        <v>0.08784889999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0731274</v>
+        <v>0.07383339999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0839375</v>
+        <v>0.084297</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0879089</v>
+        <v>0.08814230000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0742288</v>
+        <v>0.0747829</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08487500000000001</v>
+        <v>0.0852425</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0883221</v>
+        <v>0.0885509</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0754335</v>
+        <v>0.07595929999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08618580000000001</v>
+        <v>0.0865612</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0887907</v>
+        <v>0.089019</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0768195</v>
+        <v>0.07732219999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0878554</v>
+        <v>0.0882343</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08938500000000001</v>
+        <v>0.0896069</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0785401</v>
+        <v>0.0790526</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0900219</v>
+        <v>0.0904331</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0899992</v>
+        <v>0.0902699</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0806722</v>
+        <v>0.0811692</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0927205</v>
+        <v>0.09326710000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0908282</v>
+        <v>0.09113980000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08357290000000001</v>
+        <v>0.08406039999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.096626</v>
+        <v>0.0969082</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0918858</v>
+        <v>0.0922115</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08797430000000001</v>
+        <v>0.0884689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.102411</v>
+        <v>0.102637</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09358809999999999</v>
+        <v>0.09393</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0944218</v>
+        <v>0.0948721</v>
       </c>
       <c r="C61" t="n">
-        <v>0.110005</v>
+        <v>0.11002</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0958678</v>
+        <v>0.0962442</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103771</v>
+        <v>0.103994</v>
       </c>
       <c r="C62" t="n">
-        <v>0.120588</v>
+        <v>0.120427</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0990683</v>
+        <v>0.0993961</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117682</v>
+        <v>0.117907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.135307</v>
+        <v>0.134813</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103854</v>
+        <v>0.104149</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.139235</v>
+        <v>0.138992</v>
       </c>
       <c r="C64" t="n">
-        <v>0.157493</v>
+        <v>0.156389</v>
       </c>
       <c r="D64" t="n">
-        <v>0.111978</v>
+        <v>0.112162</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.171452</v>
+        <v>0.17028</v>
       </c>
       <c r="C65" t="n">
-        <v>0.193252</v>
+        <v>0.191072</v>
       </c>
       <c r="D65" t="n">
-        <v>0.12602</v>
+        <v>0.126105</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2197</v>
+        <v>0.217407</v>
       </c>
       <c r="C66" t="n">
-        <v>0.244157</v>
+        <v>0.240963</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0984212</v>
+        <v>0.101407</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0840712</v>
+        <v>0.081507</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0943707</v>
+        <v>0.0955824</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09939919999999999</v>
+        <v>0.101521</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0849036</v>
+        <v>0.0830289</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0954069</v>
+        <v>0.0964989</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09987649999999999</v>
+        <v>0.101954</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0859429</v>
+        <v>0.08405700000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0966292</v>
+        <v>0.09762800000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.100357</v>
+        <v>0.10239</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08712250000000001</v>
+        <v>0.0852768</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0981061</v>
+        <v>0.0990259</v>
       </c>
       <c r="D70" t="n">
-        <v>0.100886</v>
+        <v>0.102852</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.088584</v>
+        <v>0.0867753</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100149</v>
+        <v>0.100941</v>
       </c>
       <c r="D71" t="n">
-        <v>0.101582</v>
+        <v>0.103501</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0906536</v>
+        <v>0.08885410000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.10276</v>
+        <v>0.103386</v>
       </c>
       <c r="D72" t="n">
-        <v>0.102438</v>
+        <v>0.104267</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09333809999999999</v>
+        <v>0.0915228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1063</v>
+        <v>0.106722</v>
       </c>
       <c r="D73" t="n">
-        <v>0.103482</v>
+        <v>0.10533</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0971979</v>
+        <v>0.0954421</v>
       </c>
       <c r="C74" t="n">
-        <v>0.111223</v>
+        <v>0.111493</v>
       </c>
       <c r="D74" t="n">
-        <v>0.104947</v>
+        <v>0.106693</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.102794</v>
+        <v>0.101036</v>
       </c>
       <c r="C75" t="n">
-        <v>0.117677</v>
+        <v>0.117597</v>
       </c>
       <c r="D75" t="n">
-        <v>0.106944</v>
+        <v>0.108548</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.11112</v>
+        <v>0.109267</v>
       </c>
       <c r="C76" t="n">
-        <v>0.127692</v>
+        <v>0.127302</v>
       </c>
       <c r="D76" t="n">
-        <v>0.110001</v>
+        <v>0.111427</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.123125</v>
+        <v>0.121277</v>
       </c>
       <c r="C77" t="n">
-        <v>0.141414</v>
+        <v>0.140478</v>
       </c>
       <c r="D77" t="n">
-        <v>0.114745</v>
+        <v>0.115966</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.141602</v>
+        <v>0.13929</v>
       </c>
       <c r="C78" t="n">
-        <v>0.161404</v>
+        <v>0.159866</v>
       </c>
       <c r="D78" t="n">
-        <v>0.122116</v>
+        <v>0.123084</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.170394</v>
+        <v>0.167251</v>
       </c>
       <c r="C79" t="n">
-        <v>0.192429</v>
+        <v>0.189831</v>
       </c>
       <c r="D79" t="n">
-        <v>0.134678</v>
+        <v>0.135227</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217779</v>
+        <v>0.212127</v>
       </c>
       <c r="C80" t="n">
-        <v>0.240718</v>
+        <v>0.236522</v>
       </c>
       <c r="D80" t="n">
-        <v>0.113269</v>
+        <v>0.113413</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09166439999999999</v>
+        <v>0.0924667</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104967</v>
+        <v>0.105722</v>
       </c>
       <c r="D81" t="n">
-        <v>0.113613</v>
+        <v>0.11374</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0925343</v>
+        <v>0.09319280000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.105874</v>
+        <v>0.106519</v>
       </c>
       <c r="D82" t="n">
-        <v>0.113978</v>
+        <v>0.114129</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0934208</v>
+        <v>0.09405289999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106937</v>
+        <v>0.107591</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114376</v>
+        <v>0.114537</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0945875</v>
+        <v>0.0951781</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108301</v>
+        <v>0.108981</v>
       </c>
       <c r="D84" t="n">
-        <v>0.114846</v>
+        <v>0.115041</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0960925</v>
+        <v>0.096627</v>
       </c>
       <c r="C85" t="n">
-        <v>0.110006</v>
+        <v>0.110705</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115419</v>
+        <v>0.115614</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0979595</v>
+        <v>0.0985415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.11253</v>
+        <v>0.113052</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116137</v>
+        <v>0.116307</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.100621</v>
+        <v>0.101103</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115688</v>
+        <v>0.1163</v>
       </c>
       <c r="D87" t="n">
-        <v>0.117064</v>
+        <v>0.117307</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.104215</v>
+        <v>0.104736</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120113</v>
+        <v>0.120627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.11836</v>
+        <v>0.118596</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.109439</v>
+        <v>0.10993</v>
       </c>
       <c r="C89" t="n">
-        <v>0.12647</v>
+        <v>0.126836</v>
       </c>
       <c r="D89" t="n">
-        <v>0.120263</v>
+        <v>0.120494</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.116858</v>
+        <v>0.117228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.13532</v>
+        <v>0.135567</v>
       </c>
       <c r="D90" t="n">
-        <v>0.122993</v>
+        <v>0.123149</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.128214</v>
+        <v>0.12844</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147803</v>
+        <v>0.147819</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127153</v>
+        <v>0.127203</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.144669</v>
+        <v>0.144551</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166273</v>
+        <v>0.165636</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133855</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.170532</v>
+        <v>0.169535</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195348</v>
+        <v>0.193771</v>
       </c>
       <c r="D93" t="n">
-        <v>0.145295</v>
+        <v>0.144955</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.213593</v>
+        <v>0.210811</v>
       </c>
       <c r="C94" t="n">
-        <v>0.239388</v>
+        <v>0.23581</v>
       </c>
       <c r="D94" t="n">
-        <v>0.120537</v>
+        <v>0.120584</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0979275</v>
+        <v>0.09837170000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111885</v>
+        <v>0.112795</v>
       </c>
       <c r="D95" t="n">
-        <v>0.120815</v>
+        <v>0.12104</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.098915</v>
+        <v>0.099255</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11292</v>
+        <v>0.11399</v>
       </c>
       <c r="D96" t="n">
-        <v>0.121251</v>
+        <v>0.121479</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.100092</v>
+        <v>0.100325</v>
       </c>
       <c r="C97" t="n">
-        <v>0.114183</v>
+        <v>0.115214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.121756</v>
+        <v>0.122026</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.101479</v>
+        <v>0.101663</v>
       </c>
       <c r="C98" t="n">
-        <v>0.115647</v>
+        <v>0.116758</v>
       </c>
       <c r="D98" t="n">
-        <v>0.122265</v>
+        <v>0.122553</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.103139</v>
+        <v>0.103289</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117751</v>
+        <v>0.118774</v>
       </c>
       <c r="D99" t="n">
-        <v>0.122953</v>
+        <v>0.123259</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.105491</v>
+        <v>0.105579</v>
       </c>
       <c r="C100" t="n">
-        <v>0.120416</v>
+        <v>0.121435</v>
       </c>
       <c r="D100" t="n">
-        <v>0.123787</v>
+        <v>0.124014</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.108523</v>
+        <v>0.108511</v>
       </c>
       <c r="C101" t="n">
-        <v>0.124314</v>
+        <v>0.125095</v>
       </c>
       <c r="D101" t="n">
-        <v>0.124755</v>
+        <v>0.12512</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.112765</v>
+        <v>0.112548</v>
       </c>
       <c r="C102" t="n">
-        <v>0.129385</v>
+        <v>0.129889</v>
       </c>
       <c r="D102" t="n">
-        <v>0.126284</v>
+        <v>0.126505</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.118575</v>
+        <v>0.118258</v>
       </c>
       <c r="C103" t="n">
-        <v>0.136724</v>
+        <v>0.136734</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128181</v>
+        <v>0.128429</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.126935</v>
+        <v>0.12638</v>
       </c>
       <c r="C104" t="n">
-        <v>0.146559</v>
+        <v>0.146093</v>
       </c>
       <c r="D104" t="n">
-        <v>0.130989</v>
+        <v>0.131245</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.138699</v>
+        <v>0.137842</v>
       </c>
       <c r="C105" t="n">
-        <v>0.160642</v>
+        <v>0.159416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.135199</v>
+        <v>0.135304</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.156416</v>
+        <v>0.155143</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18038</v>
+        <v>0.178491</v>
       </c>
       <c r="D106" t="n">
-        <v>0.141803</v>
+        <v>0.141784</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182989</v>
+        <v>0.180655</v>
       </c>
       <c r="C107" t="n">
-        <v>0.208932</v>
+        <v>0.206673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.152653</v>
+        <v>0.152228</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224771</v>
+        <v>0.220623</v>
       </c>
       <c r="C108" t="n">
-        <v>0.253877</v>
+        <v>0.249427</v>
       </c>
       <c r="D108" t="n">
-        <v>0.12452</v>
+        <v>0.124743</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.286628</v>
+        <v>0.280409</v>
       </c>
       <c r="C109" t="n">
-        <v>0.320525</v>
+        <v>0.311382</v>
       </c>
       <c r="D109" t="n">
-        <v>0.125149</v>
+        <v>0.12557</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114171</v>
+        <v>0.113454</v>
       </c>
       <c r="C110" t="n">
-        <v>0.130039</v>
+        <v>0.12923</v>
       </c>
       <c r="D110" t="n">
-        <v>0.126027</v>
+        <v>0.126151</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.118831</v>
+        <v>0.116832</v>
       </c>
       <c r="C111" t="n">
-        <v>0.13503</v>
+        <v>0.13366</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127281</v>
+        <v>0.127286</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1245</v>
+        <v>0.121698</v>
       </c>
       <c r="C112" t="n">
-        <v>0.141174</v>
+        <v>0.138016</v>
       </c>
       <c r="D112" t="n">
-        <v>0.128603</v>
+        <v>0.128058</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.130381</v>
+        <v>0.126981</v>
       </c>
       <c r="C113" t="n">
-        <v>0.147291</v>
+        <v>0.144152</v>
       </c>
       <c r="D113" t="n">
-        <v>0.130093</v>
+        <v>0.12975</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.136337</v>
+        <v>0.133043</v>
       </c>
       <c r="C114" t="n">
-        <v>0.154723</v>
+        <v>0.150481</v>
       </c>
       <c r="D114" t="n">
-        <v>0.132591</v>
+        <v>0.131471</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.143187</v>
+        <v>0.139388</v>
       </c>
       <c r="C115" t="n">
-        <v>0.162481</v>
+        <v>0.158359</v>
       </c>
       <c r="D115" t="n">
-        <v>0.134764</v>
+        <v>0.133503</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.151586</v>
+        <v>0.147068</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172255</v>
+        <v>0.166706</v>
       </c>
       <c r="D116" t="n">
-        <v>0.138446</v>
+        <v>0.137019</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.160857</v>
+        <v>0.155536</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182935</v>
+        <v>0.17675</v>
       </c>
       <c r="D117" t="n">
-        <v>0.142852</v>
+        <v>0.141167</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.171986</v>
+        <v>0.166028</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195728</v>
+        <v>0.189012</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149421</v>
+        <v>0.146658</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.185792</v>
+        <v>0.17945</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211312</v>
+        <v>0.20443</v>
       </c>
       <c r="D119" t="n">
-        <v>0.157445</v>
+        <v>0.154296</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.204589</v>
+        <v>0.197259</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232277</v>
+        <v>0.224511</v>
       </c>
       <c r="D120" t="n">
-        <v>0.167953</v>
+        <v>0.163374</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.230642</v>
+        <v>0.222162</v>
       </c>
       <c r="C121" t="n">
-        <v>0.261807</v>
+        <v>0.253354</v>
       </c>
       <c r="D121" t="n">
-        <v>0.182881</v>
+        <v>0.177727</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.269658</v>
+        <v>0.259728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.306648</v>
+        <v>0.296366</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20592</v>
+        <v>0.200177</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.329324</v>
+        <v>0.316051</v>
       </c>
       <c r="C123" t="n">
-        <v>0.375081</v>
+        <v>0.360854</v>
       </c>
       <c r="D123" t="n">
-        <v>0.156037</v>
+        <v>0.149907</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.159377</v>
+        <v>0.153433</v>
       </c>
       <c r="C124" t="n">
-        <v>0.181575</v>
+        <v>0.17307</v>
       </c>
       <c r="D124" t="n">
-        <v>0.157692</v>
+        <v>0.152875</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.169208</v>
+        <v>0.156657</v>
       </c>
       <c r="C125" t="n">
-        <v>0.185714</v>
+        <v>0.177419</v>
       </c>
       <c r="D125" t="n">
-        <v>0.161039</v>
+        <v>0.15572</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.166926</v>
+        <v>0.163499</v>
       </c>
       <c r="C126" t="n">
-        <v>0.189673</v>
+        <v>0.181065</v>
       </c>
       <c r="D126" t="n">
-        <v>0.164585</v>
+        <v>0.158804</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.173917</v>
+        <v>0.164857</v>
       </c>
       <c r="C127" t="n">
-        <v>0.193644</v>
+        <v>0.185999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.166491</v>
+        <v>0.162689</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.175567</v>
+        <v>0.170726</v>
       </c>
       <c r="C128" t="n">
-        <v>0.201321</v>
+        <v>0.190868</v>
       </c>
       <c r="D128" t="n">
-        <v>0.172327</v>
+        <v>0.165493</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.186438</v>
+        <v>0.177599</v>
       </c>
       <c r="C129" t="n">
-        <v>0.203522</v>
+        <v>0.197738</v>
       </c>
       <c r="D129" t="n">
-        <v>0.171935</v>
+        <v>0.169436</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.187002</v>
+        <v>0.179374</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211085</v>
+        <v>0.203474</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176101</v>
+        <v>0.171987</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.195344</v>
+        <v>0.18725</v>
       </c>
       <c r="C131" t="n">
-        <v>0.224066</v>
+        <v>0.214302</v>
       </c>
       <c r="D131" t="n">
-        <v>0.183099</v>
+        <v>0.177331</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.204103</v>
+        <v>0.195632</v>
       </c>
       <c r="C132" t="n">
-        <v>0.239625</v>
+        <v>0.223466</v>
       </c>
       <c r="D132" t="n">
-        <v>0.191388</v>
+        <v>0.180896</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.221433</v>
+        <v>0.207427</v>
       </c>
       <c r="C133" t="n">
-        <v>0.250623</v>
+        <v>0.239048</v>
       </c>
       <c r="D133" t="n">
-        <v>0.192441</v>
+        <v>0.187547</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.238284</v>
+        <v>0.225139</v>
       </c>
       <c r="C134" t="n">
-        <v>0.270089</v>
+        <v>0.259078</v>
       </c>
       <c r="D134" t="n">
-        <v>0.201106</v>
+        <v>0.196305</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.259604</v>
+        <v>0.249919</v>
       </c>
       <c r="C135" t="n">
-        <v>0.303808</v>
+        <v>0.288466</v>
       </c>
       <c r="D135" t="n">
-        <v>0.216869</v>
+        <v>0.209779</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.299741</v>
+        <v>0.284644</v>
       </c>
       <c r="C136" t="n">
-        <v>0.345371</v>
+        <v>0.329705</v>
       </c>
       <c r="D136" t="n">
-        <v>0.235385</v>
+        <v>0.22907</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.354697</v>
+        <v>0.339123</v>
       </c>
       <c r="C137" t="n">
-        <v>0.414069</v>
+        <v>0.39189</v>
       </c>
       <c r="D137" t="n">
-        <v>0.29259</v>
+        <v>0.268555</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.280619</v>
+        <v>0.255532</v>
       </c>
       <c r="C138" t="n">
-        <v>0.31112</v>
+        <v>0.285716</v>
       </c>
       <c r="D138" t="n">
-        <v>0.287788</v>
+        <v>0.265308</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.281803</v>
+        <v>0.258302</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316435</v>
+        <v>0.295132</v>
       </c>
       <c r="D139" t="n">
-        <v>0.290604</v>
+        <v>0.275956</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.287652</v>
+        <v>0.263134</v>
       </c>
       <c r="C140" t="n">
-        <v>0.317225</v>
+        <v>0.296302</v>
       </c>
       <c r="D140" t="n">
-        <v>0.287426</v>
+        <v>0.27385</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.288093</v>
+        <v>0.270562</v>
       </c>
       <c r="C141" t="n">
-        <v>0.326542</v>
+        <v>0.30293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.296826</v>
+        <v>0.279067</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.294032</v>
+        <v>0.271228</v>
       </c>
       <c r="C142" t="n">
-        <v>0.332542</v>
+        <v>0.306194</v>
       </c>
       <c r="D142" t="n">
-        <v>0.299124</v>
+        <v>0.278974</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.298571</v>
+        <v>0.276171</v>
       </c>
       <c r="C143" t="n">
-        <v>0.340475</v>
+        <v>0.31425</v>
       </c>
       <c r="D143" t="n">
-        <v>0.304536</v>
+        <v>0.284917</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07320260000000001</v>
+        <v>0.0395715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08793860000000001</v>
+        <v>0.0385173</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0882724</v>
+        <v>0.0375802</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0759329</v>
+        <v>0.0410284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0915001</v>
+        <v>0.0406994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0890529</v>
+        <v>0.038288</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0803504</v>
+        <v>0.043122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0978551</v>
+        <v>0.0455004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0908286</v>
+        <v>0.0397552</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0875596</v>
+        <v>0.0501975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108147</v>
+        <v>0.0552276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09378930000000001</v>
+        <v>0.0417413</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09864829999999999</v>
+        <v>0.061608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.121758</v>
+        <v>0.07033059999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0961612</v>
+        <v>0.0442786</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123334</v>
+        <v>0.0829169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.141874</v>
+        <v>0.091671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101512</v>
+        <v>0.0497756</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159116</v>
+        <v>0.11611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17718</v>
+        <v>0.119875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.113455</v>
+        <v>0.0600604</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.208837</v>
+        <v>0.15812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220142</v>
+        <v>0.164475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0846601</v>
+        <v>0.0348442</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0677074</v>
+        <v>0.0362167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0780732</v>
+        <v>0.0334239</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08479490000000001</v>
+        <v>0.0350716</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06848070000000001</v>
+        <v>0.0369196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07890949999999999</v>
+        <v>0.034084</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0849114</v>
+        <v>0.0353459</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0695611</v>
+        <v>0.0373564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08030039999999999</v>
+        <v>0.0353521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.085415</v>
+        <v>0.0357162</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0707571</v>
+        <v>0.0381111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0815013</v>
+        <v>0.0361116</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08557140000000001</v>
+        <v>0.0362494</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0720364</v>
+        <v>0.0388595</v>
       </c>
       <c r="C14" t="n">
-        <v>0.083741</v>
+        <v>0.0373074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08630790000000001</v>
+        <v>0.0367034</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0736029</v>
+        <v>0.0395477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0857369</v>
+        <v>0.0387866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.086738</v>
+        <v>0.0373129</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0760927</v>
+        <v>0.0409601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0884556</v>
+        <v>0.0421137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08753610000000001</v>
+        <v>0.037976</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07984430000000001</v>
+        <v>0.0435202</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0932547</v>
+        <v>0.0450791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0886986</v>
+        <v>0.0386443</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0850654</v>
+        <v>0.0468397</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0989882</v>
+        <v>0.0520168</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0904852</v>
+        <v>0.0402675</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0935473</v>
+        <v>0.0539096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.107641</v>
+        <v>0.0604317</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0930561</v>
+        <v>0.0417468</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.106201</v>
+        <v>0.06623179999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.121416</v>
+        <v>0.0721696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0965632</v>
+        <v>0.0447051</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.126165</v>
+        <v>0.0828677</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142999</v>
+        <v>0.0923069</v>
       </c>
       <c r="D21" t="n">
-        <v>0.102832</v>
+        <v>0.051007</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.154214</v>
+        <v>0.109084</v>
       </c>
       <c r="C22" t="n">
-        <v>0.174166</v>
+        <v>0.117815</v>
       </c>
       <c r="D22" t="n">
-        <v>0.115022</v>
+        <v>0.0623195</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.197421</v>
+        <v>0.14961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.218584</v>
+        <v>0.160031</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0850427</v>
+        <v>0.0354262</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.070092</v>
+        <v>0.037736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0805312</v>
+        <v>0.034906</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0852657</v>
+        <v>0.0357791</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07072730000000001</v>
+        <v>0.0386074</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0812228</v>
+        <v>0.0356296</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0853624</v>
+        <v>0.0360307</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.071812</v>
+        <v>0.039305</v>
       </c>
       <c r="C26" t="n">
-        <v>0.081992</v>
+        <v>0.0365432</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0856248</v>
+        <v>0.036454</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0729711</v>
+        <v>0.040062</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0833498</v>
+        <v>0.0378146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08601930000000001</v>
+        <v>0.0369126</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0742032</v>
+        <v>0.0408194</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0853695</v>
+        <v>0.0391958</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08663999999999999</v>
+        <v>0.037466</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0757734</v>
+        <v>0.0423865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0879562</v>
+        <v>0.040787</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08728370000000001</v>
+        <v>0.0379993</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07787860000000001</v>
+        <v>0.0443211</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09103799999999999</v>
+        <v>0.0435783</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0880835</v>
+        <v>0.0386626</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0809096</v>
+        <v>0.0470954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0949591</v>
+        <v>0.047648</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0892574</v>
+        <v>0.039746</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0864466</v>
+        <v>0.0516615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.100506</v>
+        <v>0.0538235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09078170000000001</v>
+        <v>0.0409162</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09429899999999999</v>
+        <v>0.0589205</v>
       </c>
       <c r="C33" t="n">
-        <v>0.109299</v>
+        <v>0.0618891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0929738</v>
+        <v>0.0429966</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.106214</v>
+        <v>0.0689617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.121186</v>
+        <v>0.07265149999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.096318</v>
+        <v>0.0463736</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.123304</v>
+        <v>0.08428099999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.139009</v>
+        <v>0.0870205</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101988</v>
+        <v>0.0523935</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.150956</v>
+        <v>0.106242</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166603</v>
+        <v>0.114119</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111976</v>
+        <v>0.0631261</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.19055</v>
+        <v>0.137876</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208653</v>
+        <v>0.15269</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0852149</v>
+        <v>0.0359966</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0709461</v>
+        <v>0.0387046</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08146050000000001</v>
+        <v>0.0356859</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0855168</v>
+        <v>0.0362973</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0720026</v>
+        <v>0.0393345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0821625</v>
+        <v>0.0362406</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0858483</v>
+        <v>0.0365576</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0727375</v>
+        <v>0.0401</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08325059999999999</v>
+        <v>0.0371594</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0861784</v>
+        <v>0.0369495</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0736778</v>
+        <v>0.0410426</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0844838</v>
+        <v>0.0381549</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0865084</v>
+        <v>0.0373526</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0750062</v>
+        <v>0.0419866</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0858936</v>
+        <v>0.0398102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0869814</v>
+        <v>0.03786</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.076766</v>
+        <v>0.0437168</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0881536</v>
+        <v>0.0418684</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08762499999999999</v>
+        <v>0.0385055</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0795623</v>
+        <v>0.0456113</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0911839</v>
+        <v>0.0444687</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0883953</v>
+        <v>0.0391883</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0829124</v>
+        <v>0.048301</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0948275</v>
+        <v>0.0486688</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08947860000000001</v>
+        <v>0.0401456</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0874804</v>
+        <v>0.0523591</v>
       </c>
       <c r="C46" t="n">
-        <v>0.101201</v>
+        <v>0.054336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0910609</v>
+        <v>0.041642</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0947736</v>
+        <v>0.0582756</v>
       </c>
       <c r="C47" t="n">
-        <v>0.10928</v>
+        <v>0.060923</v>
       </c>
       <c r="D47" t="n">
-        <v>0.093366</v>
+        <v>0.0436874</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104729</v>
+        <v>0.067534</v>
       </c>
       <c r="C48" t="n">
-        <v>0.12039</v>
+        <v>0.0710495</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09690219999999999</v>
+        <v>0.0472658</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.121659</v>
+        <v>0.07976</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13627</v>
+        <v>0.086119</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102298</v>
+        <v>0.0524633</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.144637</v>
+        <v>0.09826509999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.160511</v>
+        <v>0.10701</v>
       </c>
       <c r="D50" t="n">
-        <v>0.111057</v>
+        <v>0.0608794</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179796</v>
+        <v>0.127316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.194076</v>
+        <v>0.141173</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0872192</v>
+        <v>0.0377337</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.237225</v>
+        <v>0.17343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250645</v>
+        <v>0.18878</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08784889999999999</v>
+        <v>0.0377307</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07383339999999999</v>
+        <v>0.0402115</v>
       </c>
       <c r="C53" t="n">
-        <v>0.084297</v>
+        <v>0.0376473</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08814230000000001</v>
+        <v>0.0380292</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0747829</v>
+        <v>0.0409347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0852425</v>
+        <v>0.0384274</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0885509</v>
+        <v>0.0384345</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07595929999999999</v>
+        <v>0.0418075</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0865612</v>
+        <v>0.0396103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.089019</v>
+        <v>0.0388209</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07732219999999999</v>
+        <v>0.0428894</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0882343</v>
+        <v>0.0409435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0896069</v>
+        <v>0.0392388</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0790526</v>
+        <v>0.044335</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0904331</v>
+        <v>0.0429399</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0902699</v>
+        <v>0.0397923</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0811692</v>
+        <v>0.0463119</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09326710000000001</v>
+        <v>0.0457846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09113980000000001</v>
+        <v>0.0405692</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08406039999999999</v>
+        <v>0.0489676</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0969082</v>
+        <v>0.0490155</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0922115</v>
+        <v>0.0415306</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0884689</v>
+        <v>0.0530377</v>
       </c>
       <c r="C60" t="n">
-        <v>0.102637</v>
+        <v>0.0535754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09393</v>
+        <v>0.0428173</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0948721</v>
+        <v>0.0582182</v>
       </c>
       <c r="C61" t="n">
-        <v>0.11002</v>
+        <v>0.060618</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0962442</v>
+        <v>0.0448712</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103994</v>
+        <v>0.0660533</v>
       </c>
       <c r="C62" t="n">
-        <v>0.120427</v>
+        <v>0.0700032</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0993961</v>
+        <v>0.0480773</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117907</v>
+        <v>0.07718949999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.134813</v>
+        <v>0.08356619999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104149</v>
+        <v>0.0530505</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.138992</v>
+        <v>0.09550980000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.156389</v>
+        <v>0.102864</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112162</v>
+        <v>0.0609628</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17028</v>
+        <v>0.121383</v>
       </c>
       <c r="C65" t="n">
-        <v>0.191072</v>
+        <v>0.134246</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126105</v>
+        <v>0.07454239999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.217407</v>
+        <v>0.161195</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240963</v>
+        <v>0.180976</v>
       </c>
       <c r="D66" t="n">
-        <v>0.101407</v>
+        <v>0.0436482</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.081507</v>
+        <v>0.0453768</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0955824</v>
+        <v>0.0416719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.101521</v>
+        <v>0.0437716</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0830289</v>
+        <v>0.0459388</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0964989</v>
+        <v>0.042617</v>
       </c>
       <c r="D68" t="n">
-        <v>0.101954</v>
+        <v>0.0441036</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08405700000000001</v>
+        <v>0.0468964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09762800000000001</v>
+        <v>0.0436773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10239</v>
+        <v>0.0445781</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0852768</v>
+        <v>0.0479026</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0990259</v>
+        <v>0.0450117</v>
       </c>
       <c r="D70" t="n">
-        <v>0.102852</v>
+        <v>0.0450043</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0867753</v>
+        <v>0.0492599</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100941</v>
+        <v>0.046643</v>
       </c>
       <c r="D71" t="n">
-        <v>0.103501</v>
+        <v>0.0455676</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08885410000000001</v>
+        <v>0.0509341</v>
       </c>
       <c r="C72" t="n">
-        <v>0.103386</v>
+        <v>0.0489834</v>
       </c>
       <c r="D72" t="n">
-        <v>0.104267</v>
+        <v>0.046228</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0915228</v>
+        <v>0.0533672</v>
       </c>
       <c r="C73" t="n">
-        <v>0.106722</v>
+        <v>0.0522061</v>
       </c>
       <c r="D73" t="n">
-        <v>0.10533</v>
+        <v>0.0472118</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0954421</v>
+        <v>0.0566619</v>
       </c>
       <c r="C74" t="n">
-        <v>0.111493</v>
+        <v>0.0564834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.106693</v>
+        <v>0.0484535</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.101036</v>
+        <v>0.0615249</v>
       </c>
       <c r="C75" t="n">
-        <v>0.117597</v>
+        <v>0.0626955</v>
       </c>
       <c r="D75" t="n">
-        <v>0.108548</v>
+        <v>0.0503275</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.109267</v>
+        <v>0.0683798</v>
       </c>
       <c r="C76" t="n">
-        <v>0.127302</v>
+        <v>0.0713915</v>
       </c>
       <c r="D76" t="n">
-        <v>0.111427</v>
+        <v>0.0531433</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.121277</v>
+        <v>0.07897750000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.140478</v>
+        <v>0.0837434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.115966</v>
+        <v>0.0573538</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.13929</v>
+        <v>0.09480719999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.159866</v>
+        <v>0.10078</v>
       </c>
       <c r="D78" t="n">
-        <v>0.123084</v>
+        <v>0.0641116</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.167251</v>
+        <v>0.119662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.189831</v>
+        <v>0.127698</v>
       </c>
       <c r="D79" t="n">
-        <v>0.135227</v>
+        <v>0.075767</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.212127</v>
+        <v>0.157587</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236522</v>
+        <v>0.169799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.113413</v>
+        <v>0.048123</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0924667</v>
+        <v>0.0500971</v>
       </c>
       <c r="C81" t="n">
-        <v>0.105722</v>
+        <v>0.0462583</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11374</v>
+        <v>0.048422</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09319280000000001</v>
+        <v>0.0507032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.106519</v>
+        <v>0.0472301</v>
       </c>
       <c r="D82" t="n">
-        <v>0.114129</v>
+        <v>0.0488296</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09405289999999999</v>
+        <v>0.0519012</v>
       </c>
       <c r="C83" t="n">
-        <v>0.107591</v>
+        <v>0.0484963</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114537</v>
+        <v>0.0493317</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0951781</v>
+        <v>0.0529733</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108981</v>
+        <v>0.0500355</v>
       </c>
       <c r="D84" t="n">
-        <v>0.115041</v>
+        <v>0.0498247</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.096627</v>
+        <v>0.0544185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.110705</v>
+        <v>0.0519834</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115614</v>
+        <v>0.0504979</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0985415</v>
+        <v>0.056325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.113052</v>
+        <v>0.0544857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116307</v>
+        <v>0.0511999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.101103</v>
+        <v>0.0587195</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1163</v>
+        <v>0.0576318</v>
       </c>
       <c r="D87" t="n">
-        <v>0.117307</v>
+        <v>0.0521592</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.104736</v>
+        <v>0.0622267</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120627</v>
+        <v>0.0622426</v>
       </c>
       <c r="D88" t="n">
-        <v>0.118596</v>
+        <v>0.0536206</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.10993</v>
+        <v>0.0673525</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126836</v>
+        <v>0.06833309999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.120494</v>
+        <v>0.0555949</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.117228</v>
+        <v>0.0744958</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135567</v>
+        <v>0.07722710000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.123149</v>
+        <v>0.0585219</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.12844</v>
+        <v>0.0851444</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147819</v>
+        <v>0.0892831</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127203</v>
+        <v>0.0630937</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.144551</v>
+        <v>0.1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165636</v>
+        <v>0.105927</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1338</v>
+        <v>0.06994889999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.169535</v>
+        <v>0.123633</v>
       </c>
       <c r="C93" t="n">
-        <v>0.193771</v>
+        <v>0.131528</v>
       </c>
       <c r="D93" t="n">
-        <v>0.144955</v>
+        <v>0.0817341</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.210811</v>
+        <v>0.159339</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23581</v>
+        <v>0.170437</v>
       </c>
       <c r="D94" t="n">
-        <v>0.120584</v>
+        <v>0.0523319</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09837170000000001</v>
+        <v>0.0610247</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112795</v>
+        <v>0.0576308</v>
       </c>
       <c r="D95" t="n">
-        <v>0.12104</v>
+        <v>0.053245</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.099255</v>
+        <v>0.06389010000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11399</v>
+        <v>0.0610563</v>
       </c>
       <c r="D96" t="n">
-        <v>0.121479</v>
+        <v>0.0544872</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.100325</v>
+        <v>0.0672785</v>
       </c>
       <c r="C97" t="n">
-        <v>0.115214</v>
+        <v>0.06489929999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.122026</v>
+        <v>0.0560438</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.101663</v>
+        <v>0.0710554</v>
       </c>
       <c r="C98" t="n">
-        <v>0.116758</v>
+        <v>0.0692598</v>
       </c>
       <c r="D98" t="n">
-        <v>0.122553</v>
+        <v>0.058032</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.103289</v>
+        <v>0.0752072</v>
       </c>
       <c r="C99" t="n">
-        <v>0.118774</v>
+        <v>0.0740806</v>
       </c>
       <c r="D99" t="n">
-        <v>0.123259</v>
+        <v>0.0602313</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.105579</v>
+        <v>0.0798476</v>
       </c>
       <c r="C100" t="n">
-        <v>0.121435</v>
+        <v>0.07923959999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.124014</v>
+        <v>0.0630575</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.108511</v>
+        <v>0.0850702</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125095</v>
+        <v>0.08487160000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12512</v>
+        <v>0.06641859999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.112548</v>
+        <v>0.0908863</v>
       </c>
       <c r="C102" t="n">
-        <v>0.129889</v>
+        <v>0.09061760000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.126505</v>
+        <v>0.0701561</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.118258</v>
+        <v>0.09773270000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.136734</v>
+        <v>0.0974324</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128429</v>
+        <v>0.0743727</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12638</v>
+        <v>0.106092</v>
       </c>
       <c r="C104" t="n">
-        <v>0.146093</v>
+        <v>0.10615</v>
       </c>
       <c r="D104" t="n">
-        <v>0.131245</v>
+        <v>0.0793051</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.137842</v>
+        <v>0.116841</v>
       </c>
       <c r="C105" t="n">
-        <v>0.159416</v>
+        <v>0.117011</v>
       </c>
       <c r="D105" t="n">
-        <v>0.135304</v>
+        <v>0.0853496</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.155143</v>
+        <v>0.130589</v>
       </c>
       <c r="C106" t="n">
-        <v>0.178491</v>
+        <v>0.131807</v>
       </c>
       <c r="D106" t="n">
-        <v>0.141784</v>
+        <v>0.09334729999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180655</v>
+        <v>0.150247</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206673</v>
+        <v>0.153255</v>
       </c>
       <c r="D107" t="n">
-        <v>0.152228</v>
+        <v>0.104744</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.220623</v>
+        <v>0.179686</v>
       </c>
       <c r="C108" t="n">
-        <v>0.249427</v>
+        <v>0.187762</v>
       </c>
       <c r="D108" t="n">
-        <v>0.124743</v>
+        <v>0.0717163</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.280409</v>
+        <v>0.229067</v>
       </c>
       <c r="C109" t="n">
-        <v>0.311382</v>
+        <v>0.243444</v>
       </c>
       <c r="D109" t="n">
-        <v>0.12557</v>
+        <v>0.07346</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.113454</v>
+        <v>0.0943987</v>
       </c>
       <c r="C110" t="n">
-        <v>0.12923</v>
+        <v>0.0895078</v>
       </c>
       <c r="D110" t="n">
-        <v>0.126151</v>
+        <v>0.0757732</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.116832</v>
+        <v>0.0967587</v>
       </c>
       <c r="C111" t="n">
-        <v>0.13366</v>
+        <v>0.0922675</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127286</v>
+        <v>0.0779017</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.121698</v>
+        <v>0.0995014</v>
       </c>
       <c r="C112" t="n">
-        <v>0.138016</v>
+        <v>0.09505479999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.128058</v>
+        <v>0.07992680000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.126981</v>
+        <v>0.102765</v>
       </c>
       <c r="C113" t="n">
-        <v>0.144152</v>
+        <v>0.0985063</v>
       </c>
       <c r="D113" t="n">
-        <v>0.12975</v>
+        <v>0.0821011</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.133043</v>
+        <v>0.105962</v>
       </c>
       <c r="C114" t="n">
-        <v>0.150481</v>
+        <v>0.102132</v>
       </c>
       <c r="D114" t="n">
-        <v>0.131471</v>
+        <v>0.084052</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139388</v>
+        <v>0.109737</v>
       </c>
       <c r="C115" t="n">
-        <v>0.158359</v>
+        <v>0.106495</v>
       </c>
       <c r="D115" t="n">
-        <v>0.133503</v>
+        <v>0.0863951</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.147068</v>
+        <v>0.114307</v>
       </c>
       <c r="C116" t="n">
-        <v>0.166706</v>
+        <v>0.111655</v>
       </c>
       <c r="D116" t="n">
-        <v>0.137019</v>
+        <v>0.08915480000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.155536</v>
+        <v>0.119767</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17675</v>
+        <v>0.117868</v>
       </c>
       <c r="D117" t="n">
-        <v>0.141167</v>
+        <v>0.0925752</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.166028</v>
+        <v>0.127118</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189012</v>
+        <v>0.126163</v>
       </c>
       <c r="D118" t="n">
-        <v>0.146658</v>
+        <v>0.0964038</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.17945</v>
+        <v>0.136568</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20443</v>
+        <v>0.136789</v>
       </c>
       <c r="D119" t="n">
-        <v>0.154296</v>
+        <v>0.101727</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.197259</v>
+        <v>0.149542</v>
       </c>
       <c r="C120" t="n">
-        <v>0.224511</v>
+        <v>0.15167</v>
       </c>
       <c r="D120" t="n">
-        <v>0.163374</v>
+        <v>0.109429</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.222162</v>
+        <v>0.167551</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253354</v>
+        <v>0.172225</v>
       </c>
       <c r="D121" t="n">
-        <v>0.177727</v>
+        <v>0.120562</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.259728</v>
+        <v>0.194876</v>
       </c>
       <c r="C122" t="n">
-        <v>0.296366</v>
+        <v>0.204081</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200177</v>
+        <v>0.139114</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.316051</v>
+        <v>0.239791</v>
       </c>
       <c r="C123" t="n">
-        <v>0.360854</v>
+        <v>0.255899</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149907</v>
+        <v>0.09119770000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.153433</v>
+        <v>0.106688</v>
       </c>
       <c r="C124" t="n">
-        <v>0.17307</v>
+        <v>0.105863</v>
       </c>
       <c r="D124" t="n">
-        <v>0.152875</v>
+        <v>0.0908231</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.156657</v>
+        <v>0.11354</v>
       </c>
       <c r="C125" t="n">
-        <v>0.177419</v>
+        <v>0.108246</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15572</v>
+        <v>0.0924122</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163499</v>
+        <v>0.112557</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181065</v>
+        <v>0.110806</v>
       </c>
       <c r="D126" t="n">
-        <v>0.158804</v>
+        <v>0.0936816</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.164857</v>
+        <v>0.116688</v>
       </c>
       <c r="C127" t="n">
-        <v>0.185999</v>
+        <v>0.113592</v>
       </c>
       <c r="D127" t="n">
-        <v>0.162689</v>
+        <v>0.09509670000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.170726</v>
+        <v>0.11905</v>
       </c>
       <c r="C128" t="n">
-        <v>0.190868</v>
+        <v>0.117385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.165493</v>
+        <v>0.097743</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.177599</v>
+        <v>0.126536</v>
       </c>
       <c r="C129" t="n">
-        <v>0.197738</v>
+        <v>0.124493</v>
       </c>
       <c r="D129" t="n">
-        <v>0.169436</v>
+        <v>0.10361</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.179374</v>
+        <v>0.128218</v>
       </c>
       <c r="C130" t="n">
-        <v>0.203474</v>
+        <v>0.12863</v>
       </c>
       <c r="D130" t="n">
-        <v>0.171987</v>
+        <v>0.104877</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.18725</v>
+        <v>0.131855</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214302</v>
+        <v>0.132657</v>
       </c>
       <c r="D131" t="n">
-        <v>0.177331</v>
+        <v>0.104733</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.195632</v>
+        <v>0.139657</v>
       </c>
       <c r="C132" t="n">
-        <v>0.223466</v>
+        <v>0.143698</v>
       </c>
       <c r="D132" t="n">
-        <v>0.180896</v>
+        <v>0.112745</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.207427</v>
+        <v>0.147851</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239048</v>
+        <v>0.152909</v>
       </c>
       <c r="D133" t="n">
-        <v>0.187547</v>
+        <v>0.115184</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.225139</v>
+        <v>0.160261</v>
       </c>
       <c r="C134" t="n">
-        <v>0.259078</v>
+        <v>0.168324</v>
       </c>
       <c r="D134" t="n">
-        <v>0.196305</v>
+        <v>0.123929</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.249919</v>
+        <v>0.178212</v>
       </c>
       <c r="C135" t="n">
-        <v>0.288466</v>
+        <v>0.187414</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209779</v>
+        <v>0.133034</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.284644</v>
+        <v>0.204596</v>
       </c>
       <c r="C136" t="n">
-        <v>0.329705</v>
+        <v>0.217907</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22907</v>
+        <v>0.149991</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.339123</v>
+        <v>0.246504</v>
       </c>
       <c r="C137" t="n">
-        <v>0.39189</v>
+        <v>0.265614</v>
       </c>
       <c r="D137" t="n">
-        <v>0.268555</v>
+        <v>0.17369</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.255532</v>
+        <v>0.179082</v>
       </c>
       <c r="C138" t="n">
-        <v>0.285716</v>
+        <v>0.174806</v>
       </c>
       <c r="D138" t="n">
-        <v>0.265308</v>
+        <v>0.177594</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.258302</v>
+        <v>0.180842</v>
       </c>
       <c r="C139" t="n">
-        <v>0.295132</v>
+        <v>0.176411</v>
       </c>
       <c r="D139" t="n">
-        <v>0.275956</v>
+        <v>0.177964</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.263134</v>
+        <v>0.182316</v>
       </c>
       <c r="C140" t="n">
-        <v>0.296302</v>
+        <v>0.178581</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27385</v>
+        <v>0.178861</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.270562</v>
+        <v>0.183869</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30293</v>
+        <v>0.181365</v>
       </c>
       <c r="D141" t="n">
-        <v>0.279067</v>
+        <v>0.180884</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.271228</v>
+        <v>0.188256</v>
       </c>
       <c r="C142" t="n">
-        <v>0.306194</v>
+        <v>0.184143</v>
       </c>
       <c r="D142" t="n">
-        <v>0.278974</v>
+        <v>0.182122</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.276171</v>
+        <v>0.18898</v>
       </c>
       <c r="C143" t="n">
-        <v>0.31425</v>
+        <v>0.187757</v>
       </c>
       <c r="D143" t="n">
-        <v>0.284917</v>
+        <v>0.183828</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0395715</v>
+        <v>0.0322146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0385173</v>
+        <v>0.0334235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0375802</v>
+        <v>0.0325793</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0410284</v>
+        <v>0.033724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0406994</v>
+        <v>0.0348883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038288</v>
+        <v>0.0331008</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.043122</v>
+        <v>0.0354726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0455004</v>
+        <v>0.0395403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0397552</v>
+        <v>0.0344454</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0501975</v>
+        <v>0.0411305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0552276</v>
+        <v>0.0491805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0417413</v>
+        <v>0.0359445</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.061608</v>
+        <v>0.0553495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07033059999999999</v>
+        <v>0.0647534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0442786</v>
+        <v>0.037819</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0829169</v>
+        <v>0.07953200000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.091671</v>
+        <v>0.0898094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0497756</v>
+        <v>0.0432861</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11611</v>
+        <v>0.120488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119875</v>
+        <v>0.117031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0600604</v>
+        <v>0.0556998</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15812</v>
+        <v>0.160381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164475</v>
+        <v>0.162983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0348442</v>
+        <v>0.0302539</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0362167</v>
+        <v>0.0311475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0334239</v>
+        <v>0.029605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0350716</v>
+        <v>0.0304996</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0369196</v>
+        <v>0.031714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.034084</v>
+        <v>0.0302796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0353459</v>
+        <v>0.0307759</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0373564</v>
+        <v>0.0320223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0353521</v>
+        <v>0.0312162</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0357162</v>
+        <v>0.0311307</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0381111</v>
+        <v>0.0326555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0361116</v>
+        <v>0.0318664</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0362494</v>
+        <v>0.031508</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0388595</v>
+        <v>0.0332656</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0373074</v>
+        <v>0.0330082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0367034</v>
+        <v>0.0319273</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0395477</v>
+        <v>0.03401</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0387866</v>
+        <v>0.0343454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0373129</v>
+        <v>0.0326321</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0409601</v>
+        <v>0.0349643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0421137</v>
+        <v>0.0376601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.037976</v>
+        <v>0.0334314</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0435202</v>
+        <v>0.0368125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0450791</v>
+        <v>0.04073</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0386443</v>
+        <v>0.0341194</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0468397</v>
+        <v>0.0407504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0520168</v>
+        <v>0.0480339</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0402675</v>
+        <v>0.0355024</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0539096</v>
+        <v>0.0489629</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0604317</v>
+        <v>0.0568421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0417468</v>
+        <v>0.0372587</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06623179999999999</v>
+        <v>0.0611329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0721696</v>
+        <v>0.0695964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0447051</v>
+        <v>0.0403671</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0828677</v>
+        <v>0.0799634</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0923069</v>
+        <v>0.0896653</v>
       </c>
       <c r="D21" t="n">
-        <v>0.051007</v>
+        <v>0.0474006</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.109084</v>
+        <v>0.107283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117815</v>
+        <v>0.115955</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623195</v>
+        <v>0.0597806</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14961</v>
+        <v>0.14792</v>
       </c>
       <c r="C23" t="n">
-        <v>0.160031</v>
+        <v>0.159353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0354262</v>
+        <v>0.0307947</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.037736</v>
+        <v>0.0327954</v>
       </c>
       <c r="C24" t="n">
-        <v>0.034906</v>
+        <v>0.0313566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0357791</v>
+        <v>0.0313742</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0386074</v>
+        <v>0.0335851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0356296</v>
+        <v>0.0320212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0360307</v>
+        <v>0.0316661</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.039305</v>
+        <v>0.0343838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0365432</v>
+        <v>0.0328531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.036454</v>
+        <v>0.032094</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.040062</v>
+        <v>0.0351003</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0378146</v>
+        <v>0.0340328</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0369126</v>
+        <v>0.0324116</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0408194</v>
+        <v>0.0359176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0391958</v>
+        <v>0.0354354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.037466</v>
+        <v>0.0330867</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0423865</v>
+        <v>0.0375215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.040787</v>
+        <v>0.0371051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0379993</v>
+        <v>0.0336199</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0443211</v>
+        <v>0.0394369</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0435783</v>
+        <v>0.040138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0386626</v>
+        <v>0.0343776</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0470954</v>
+        <v>0.0424096</v>
       </c>
       <c r="C31" t="n">
-        <v>0.047648</v>
+        <v>0.0442148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.039746</v>
+        <v>0.035318</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0516615</v>
+        <v>0.0469103</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0538235</v>
+        <v>0.0507873</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0409162</v>
+        <v>0.0367098</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0589205</v>
+        <v>0.0539303</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0618891</v>
+        <v>0.0590843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0429966</v>
+        <v>0.0388193</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0689617</v>
+        <v>0.0643734</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07265149999999999</v>
+        <v>0.0701146</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0463736</v>
+        <v>0.0425503</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08428099999999999</v>
+        <v>0.079218</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0870205</v>
+        <v>0.0848969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0523935</v>
+        <v>0.0492645</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.106242</v>
+        <v>0.100415</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114119</v>
+        <v>0.112525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0631261</v>
+        <v>0.0607706</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.137876</v>
+        <v>0.135098</v>
       </c>
       <c r="C37" t="n">
-        <v>0.15269</v>
+        <v>0.152345</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0359966</v>
+        <v>0.0318321</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0387046</v>
+        <v>0.0335421</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0356859</v>
+        <v>0.0322979</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0362973</v>
+        <v>0.0321583</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0393345</v>
+        <v>0.0344965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0362406</v>
+        <v>0.0328895</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0365576</v>
+        <v>0.0324517</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0401</v>
+        <v>0.0351243</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0371594</v>
+        <v>0.033858</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0369495</v>
+        <v>0.0328036</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0410426</v>
+        <v>0.0360726</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0381549</v>
+        <v>0.0349841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0373526</v>
+        <v>0.0331675</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0419866</v>
+        <v>0.0369821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0398102</v>
+        <v>0.0366486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03786</v>
+        <v>0.0337121</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0437168</v>
+        <v>0.0386094</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0418684</v>
+        <v>0.0388214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0385055</v>
+        <v>0.0344158</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0456113</v>
+        <v>0.0405584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0444687</v>
+        <v>0.0413205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0391883</v>
+        <v>0.0350512</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.048301</v>
+        <v>0.0434027</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0486688</v>
+        <v>0.0457838</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0401456</v>
+        <v>0.0360745</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0523591</v>
+        <v>0.0475106</v>
       </c>
       <c r="C46" t="n">
-        <v>0.054336</v>
+        <v>0.0515952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.041642</v>
+        <v>0.0376682</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0582756</v>
+        <v>0.0538452</v>
       </c>
       <c r="C47" t="n">
-        <v>0.060923</v>
+        <v>0.0582912</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0436874</v>
+        <v>0.0400194</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.067534</v>
+        <v>0.0632138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0710495</v>
+        <v>0.0684399</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0472658</v>
+        <v>0.0438725</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07976</v>
+        <v>0.07553459999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.086119</v>
+        <v>0.0836971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0524633</v>
+        <v>0.049386</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09826509999999999</v>
+        <v>0.0949827</v>
       </c>
       <c r="C50" t="n">
-        <v>0.10701</v>
+        <v>0.105384</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0608794</v>
+        <v>0.058212</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127316</v>
+        <v>0.126971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141173</v>
+        <v>0.139663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0377337</v>
+        <v>0.0372856</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17343</v>
+        <v>0.172093</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18878</v>
+        <v>0.19017</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0377307</v>
+        <v>0.0374395</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0402115</v>
+        <v>0.0354649</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0376473</v>
+        <v>0.0362934</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0380292</v>
+        <v>0.0375944</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0409347</v>
+        <v>0.0362274</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0384274</v>
+        <v>0.0371383</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0384345</v>
+        <v>0.0379604</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0418075</v>
+        <v>0.0370883</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0396103</v>
+        <v>0.0383123</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0388209</v>
+        <v>0.0383459</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0428894</v>
+        <v>0.0383422</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0409435</v>
+        <v>0.0395819</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0392388</v>
+        <v>0.0387265</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.044335</v>
+        <v>0.0398036</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0429399</v>
+        <v>0.0415909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0397923</v>
+        <v>0.0393539</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0463119</v>
+        <v>0.0418834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0457846</v>
+        <v>0.0443575</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0405692</v>
+        <v>0.0400915</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0489676</v>
+        <v>0.0445029</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0490155</v>
+        <v>0.0475212</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0415306</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0530377</v>
+        <v>0.0483425</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0535754</v>
+        <v>0.0521661</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0428173</v>
+        <v>0.0423103</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0582182</v>
+        <v>0.0536688</v>
       </c>
       <c r="C61" t="n">
-        <v>0.060618</v>
+        <v>0.0589897</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0448712</v>
+        <v>0.0444606</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0660533</v>
+        <v>0.0613394</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0700032</v>
+        <v>0.06857249999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0480773</v>
+        <v>0.0477555</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07718949999999999</v>
+        <v>0.0725788</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08356619999999999</v>
+        <v>0.08220420000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0530505</v>
+        <v>0.0528269</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09550980000000001</v>
+        <v>0.0907143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102864</v>
+        <v>0.101974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0609628</v>
+        <v>0.0609477</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.121383</v>
+        <v>0.118433</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134246</v>
+        <v>0.134709</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07454239999999999</v>
+        <v>0.074964</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161195</v>
+        <v>0.160352</v>
       </c>
       <c r="C66" t="n">
-        <v>0.180976</v>
+        <v>0.18308</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0436482</v>
+        <v>0.0416665</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0453768</v>
+        <v>0.0408727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0416719</v>
+        <v>0.0405192</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0437716</v>
+        <v>0.0419971</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0459388</v>
+        <v>0.0415785</v>
       </c>
       <c r="C68" t="n">
-        <v>0.042617</v>
+        <v>0.0414107</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0441036</v>
+        <v>0.0424256</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0468964</v>
+        <v>0.0423791</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0436773</v>
+        <v>0.0425761</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0445781</v>
+        <v>0.0428576</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0479026</v>
+        <v>0.0434258</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0450117</v>
+        <v>0.0439829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0450043</v>
+        <v>0.0433244</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0492599</v>
+        <v>0.0447878</v>
       </c>
       <c r="C71" t="n">
-        <v>0.046643</v>
+        <v>0.0456696</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0455676</v>
+        <v>0.0439431</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0509341</v>
+        <v>0.046386</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0489834</v>
+        <v>0.048063</v>
       </c>
       <c r="D72" t="n">
-        <v>0.046228</v>
+        <v>0.0446854</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0533672</v>
+        <v>0.0486384</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0522061</v>
+        <v>0.0513508</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0472118</v>
+        <v>0.045704</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0566619</v>
+        <v>0.0518257</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0564834</v>
+        <v>0.0557624</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0484535</v>
+        <v>0.0470469</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0615249</v>
+        <v>0.0565809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0626955</v>
+        <v>0.0621091</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0503275</v>
+        <v>0.0491425</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0683798</v>
+        <v>0.063398</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0713915</v>
+        <v>0.0708548</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0531433</v>
+        <v>0.0519698</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07897750000000001</v>
+        <v>0.0737926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0837434</v>
+        <v>0.08342670000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0573538</v>
+        <v>0.0564616</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09480719999999999</v>
+        <v>0.08944009999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.10078</v>
+        <v>0.100996</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0641116</v>
+        <v>0.0635049</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.119662</v>
+        <v>0.113444</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127698</v>
+        <v>0.128875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.075767</v>
+        <v>0.07568950000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.157587</v>
+        <v>0.153002</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169799</v>
+        <v>0.173161</v>
       </c>
       <c r="D80" t="n">
-        <v>0.048123</v>
+        <v>0.0452598</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0500971</v>
+        <v>0.0465299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0462583</v>
+        <v>0.046974</v>
       </c>
       <c r="D81" t="n">
-        <v>0.048422</v>
+        <v>0.0456647</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0507032</v>
+        <v>0.0473375</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0472301</v>
+        <v>0.0490524</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0488296</v>
+        <v>0.0461703</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0519012</v>
+        <v>0.0484118</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0484963</v>
+        <v>0.0518266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0493317</v>
+        <v>0.0468045</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0529733</v>
+        <v>0.0496395</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0500355</v>
+        <v>0.055147</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0498247</v>
+        <v>0.0476749</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0544185</v>
+        <v>0.0512376</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0519834</v>
+        <v>0.0591444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0504979</v>
+        <v>0.0487282</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.056325</v>
+        <v>0.0533465</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0544857</v>
+        <v>0.0638459</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0511999</v>
+        <v>0.0501276</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0587195</v>
+        <v>0.0565104</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0576318</v>
+        <v>0.06892769999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0521592</v>
+        <v>0.0519373</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0622267</v>
+        <v>0.0606683</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0622426</v>
+        <v>0.0754517</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0536206</v>
+        <v>0.0544414</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0673525</v>
+        <v>0.0664096</v>
       </c>
       <c r="C89" t="n">
-        <v>0.06833309999999999</v>
+        <v>0.0830154</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0555949</v>
+        <v>0.0577344</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744958</v>
+        <v>0.0749565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07722710000000001</v>
+        <v>0.0931352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0585219</v>
+        <v>0.0622419</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0851444</v>
+        <v>0.08664959999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0892831</v>
+        <v>0.105299</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0630937</v>
+        <v>0.0683523</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1</v>
+        <v>0.104428</v>
       </c>
       <c r="C92" t="n">
-        <v>0.105927</v>
+        <v>0.121817</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06994889999999999</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.123633</v>
+        <v>0.129985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.131528</v>
+        <v>0.146907</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0817341</v>
+        <v>0.0906144</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.159339</v>
+        <v>0.166736</v>
       </c>
       <c r="C94" t="n">
-        <v>0.170437</v>
+        <v>0.18541</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0523319</v>
+        <v>0.052743</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0610247</v>
+        <v>0.0590913</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0576308</v>
+        <v>0.07299609999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.053245</v>
+        <v>0.0553937</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06389010000000001</v>
+        <v>0.0621364</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0610563</v>
+        <v>0.076917</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0544872</v>
+        <v>0.058219</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0672785</v>
+        <v>0.06660820000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06489929999999999</v>
+        <v>0.0804858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0560438</v>
+        <v>0.0612448</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0710554</v>
+        <v>0.071211</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0692598</v>
+        <v>0.084227</v>
       </c>
       <c r="D98" t="n">
-        <v>0.058032</v>
+        <v>0.0643922</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752072</v>
+        <v>0.0765913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0740806</v>
+        <v>0.0881523</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0602313</v>
+        <v>0.0672465</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0798476</v>
+        <v>0.0821413</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07923959999999999</v>
+        <v>0.0922449</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0630575</v>
+        <v>0.0706045</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0850702</v>
+        <v>0.08840240000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08487160000000001</v>
+        <v>0.0971399</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06641859999999999</v>
+        <v>0.07379529999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0908863</v>
+        <v>0.09529070000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09061760000000001</v>
+        <v>0.102251</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0701561</v>
+        <v>0.077075</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09773270000000001</v>
+        <v>0.103409</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0974324</v>
+        <v>0.10917</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0743727</v>
+        <v>0.08065940000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.106092</v>
+        <v>0.111987</v>
       </c>
       <c r="C104" t="n">
-        <v>0.10615</v>
+        <v>0.118075</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0793051</v>
+        <v>0.0853042</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116841</v>
+        <v>0.123272</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117011</v>
+        <v>0.129413</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0853496</v>
+        <v>0.0910816</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130589</v>
+        <v>0.137752</v>
       </c>
       <c r="C106" t="n">
-        <v>0.131807</v>
+        <v>0.144933</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09334729999999999</v>
+        <v>0.09918689999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.150247</v>
+        <v>0.157849</v>
       </c>
       <c r="C107" t="n">
-        <v>0.153255</v>
+        <v>0.167894</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104744</v>
+        <v>0.111387</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179686</v>
+        <v>0.186503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.187762</v>
+        <v>0.203804</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0717163</v>
+        <v>0.0708083</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229067</v>
+        <v>0.232276</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243444</v>
+        <v>0.263855</v>
       </c>
       <c r="D109" t="n">
-        <v>0.07346</v>
+        <v>0.07261330000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0943987</v>
+        <v>0.0915295</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0895078</v>
+        <v>0.09067749999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0757732</v>
+        <v>0.0742403</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0967587</v>
+        <v>0.09422609999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0922675</v>
+        <v>0.0935474</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0779017</v>
+        <v>0.0762317</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0995014</v>
+        <v>0.0966921</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09505479999999999</v>
+        <v>0.0963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07992680000000001</v>
+        <v>0.0779244</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.102765</v>
+        <v>0.100033</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0985063</v>
+        <v>0.100084</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0821011</v>
+        <v>0.0802568</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.105962</v>
+        <v>0.103454</v>
       </c>
       <c r="C114" t="n">
-        <v>0.102132</v>
+        <v>0.103649</v>
       </c>
       <c r="D114" t="n">
-        <v>0.084052</v>
+        <v>0.0821926</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.109737</v>
+        <v>0.107267</v>
       </c>
       <c r="C115" t="n">
-        <v>0.106495</v>
+        <v>0.108533</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0863951</v>
+        <v>0.08449710000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.114307</v>
+        <v>0.112333</v>
       </c>
       <c r="C116" t="n">
-        <v>0.111655</v>
+        <v>0.114383</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08915480000000001</v>
+        <v>0.0873708</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.119767</v>
+        <v>0.118163</v>
       </c>
       <c r="C117" t="n">
-        <v>0.117868</v>
+        <v>0.121054</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0925752</v>
+        <v>0.09070209999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.127118</v>
+        <v>0.125273</v>
       </c>
       <c r="C118" t="n">
-        <v>0.126163</v>
+        <v>0.130203</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0964038</v>
+        <v>0.0954108</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.136568</v>
+        <v>0.134986</v>
       </c>
       <c r="C119" t="n">
-        <v>0.136789</v>
+        <v>0.14136</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101727</v>
+        <v>0.10088</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.149542</v>
+        <v>0.147637</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15167</v>
+        <v>0.156628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.109429</v>
+        <v>0.108731</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.167551</v>
+        <v>0.165983</v>
       </c>
       <c r="C121" t="n">
-        <v>0.172225</v>
+        <v>0.178247</v>
       </c>
       <c r="D121" t="n">
-        <v>0.120562</v>
+        <v>0.120452</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.194876</v>
+        <v>0.192302</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204081</v>
+        <v>0.21138</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139114</v>
+        <v>0.139621</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.239791</v>
+        <v>0.233523</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255899</v>
+        <v>0.266246</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09119770000000001</v>
+        <v>0.0908547</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.106688</v>
+        <v>0.104495</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105863</v>
+        <v>0.111198</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0908231</v>
+        <v>0.092684</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.11354</v>
+        <v>0.107874</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108246</v>
+        <v>0.115136</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0924122</v>
+        <v>0.0940642</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.112557</v>
+        <v>0.108555</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110806</v>
+        <v>0.117782</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0936816</v>
+        <v>0.09594080000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.116688</v>
+        <v>0.111826</v>
       </c>
       <c r="C127" t="n">
-        <v>0.113592</v>
+        <v>0.123582</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09509670000000001</v>
+        <v>0.100006</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.11905</v>
+        <v>0.113758</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117385</v>
+        <v>0.129644</v>
       </c>
       <c r="D128" t="n">
-        <v>0.097743</v>
+        <v>0.105442</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.126536</v>
+        <v>0.116924</v>
       </c>
       <c r="C129" t="n">
-        <v>0.124493</v>
+        <v>0.133295</v>
       </c>
       <c r="D129" t="n">
-        <v>0.10361</v>
+        <v>0.104992</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.128218</v>
+        <v>0.121035</v>
       </c>
       <c r="C130" t="n">
-        <v>0.12863</v>
+        <v>0.13706</v>
       </c>
       <c r="D130" t="n">
-        <v>0.104877</v>
+        <v>0.10528</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.131855</v>
+        <v>0.127134</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132657</v>
+        <v>0.146747</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104733</v>
+        <v>0.112905</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139657</v>
+        <v>0.133138</v>
       </c>
       <c r="C132" t="n">
-        <v>0.143698</v>
+        <v>0.154452</v>
       </c>
       <c r="D132" t="n">
-        <v>0.112745</v>
+        <v>0.115592</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.147851</v>
+        <v>0.143751</v>
       </c>
       <c r="C133" t="n">
-        <v>0.152909</v>
+        <v>0.165523</v>
       </c>
       <c r="D133" t="n">
-        <v>0.115184</v>
+        <v>0.1223</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.160261</v>
+        <v>0.154469</v>
       </c>
       <c r="C134" t="n">
-        <v>0.168324</v>
+        <v>0.180205</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123929</v>
+        <v>0.128411</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.178212</v>
+        <v>0.171836</v>
       </c>
       <c r="C135" t="n">
-        <v>0.187414</v>
+        <v>0.201002</v>
       </c>
       <c r="D135" t="n">
-        <v>0.133034</v>
+        <v>0.140547</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.204596</v>
+        <v>0.197304</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217907</v>
+        <v>0.230964</v>
       </c>
       <c r="D136" t="n">
-        <v>0.149991</v>
+        <v>0.155007</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.246504</v>
+        <v>0.236088</v>
       </c>
       <c r="C137" t="n">
-        <v>0.265614</v>
+        <v>0.280583</v>
       </c>
       <c r="D137" t="n">
-        <v>0.17369</v>
+        <v>0.172574</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.179082</v>
+        <v>0.168789</v>
       </c>
       <c r="C138" t="n">
-        <v>0.174806</v>
+        <v>0.175196</v>
       </c>
       <c r="D138" t="n">
-        <v>0.177594</v>
+        <v>0.174179</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.180842</v>
+        <v>0.16953</v>
       </c>
       <c r="C139" t="n">
-        <v>0.176411</v>
+        <v>0.178063</v>
       </c>
       <c r="D139" t="n">
-        <v>0.177964</v>
+        <v>0.177134</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.182316</v>
+        <v>0.172035</v>
       </c>
       <c r="C140" t="n">
-        <v>0.178581</v>
+        <v>0.181057</v>
       </c>
       <c r="D140" t="n">
-        <v>0.178861</v>
+        <v>0.178122</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.183869</v>
+        <v>0.172204</v>
       </c>
       <c r="C141" t="n">
-        <v>0.181365</v>
+        <v>0.184344</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180884</v>
+        <v>0.180437</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.188256</v>
+        <v>0.17575</v>
       </c>
       <c r="C142" t="n">
-        <v>0.184143</v>
+        <v>0.188466</v>
       </c>
       <c r="D142" t="n">
-        <v>0.182122</v>
+        <v>0.182713</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.18898</v>
+        <v>0.177088</v>
       </c>
       <c r="C143" t="n">
-        <v>0.187757</v>
+        <v>0.192403</v>
       </c>
       <c r="D143" t="n">
-        <v>0.183828</v>
+        <v>0.185086</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322146</v>
+        <v>0.0319142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0334235</v>
+        <v>0.0329276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0325793</v>
+        <v>0.0324407</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.033724</v>
+        <v>0.0337487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348883</v>
+        <v>0.0343023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0331008</v>
+        <v>0.033218</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0354726</v>
+        <v>0.0349061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0395403</v>
+        <v>0.0391699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0344454</v>
+        <v>0.03444</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0411305</v>
+        <v>0.0404953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0491805</v>
+        <v>0.0487135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0359445</v>
+        <v>0.036438</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0553495</v>
+        <v>0.0548095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0647534</v>
+        <v>0.064455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037819</v>
+        <v>0.0383394</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07953200000000001</v>
+        <v>0.0795551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0898094</v>
+        <v>0.08909789999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0432861</v>
+        <v>0.0442667</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120488</v>
+        <v>0.119752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117031</v>
+        <v>0.117047</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0556998</v>
+        <v>0.0558178</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160381</v>
+        <v>0.160717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162983</v>
+        <v>0.162289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0302539</v>
+        <v>0.0300352</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0311475</v>
+        <v>0.0311403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.029605</v>
+        <v>0.0295673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0304996</v>
+        <v>0.0302695</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031714</v>
+        <v>0.0315931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0302796</v>
+        <v>0.0302667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0307759</v>
+        <v>0.030538</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0320223</v>
+        <v>0.0318963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0312162</v>
+        <v>0.0311152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0311307</v>
+        <v>0.030936</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0326555</v>
+        <v>0.0323133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0318664</v>
+        <v>0.0317396</v>
       </c>
       <c r="D13" t="n">
-        <v>0.031508</v>
+        <v>0.0313157</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0332656</v>
+        <v>0.0330158</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0330082</v>
+        <v>0.0329785</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0319273</v>
+        <v>0.0317849</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03401</v>
+        <v>0.0337208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0343454</v>
+        <v>0.0342192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0326321</v>
+        <v>0.0324547</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349643</v>
+        <v>0.0348829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0376601</v>
+        <v>0.0373293</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0334314</v>
+        <v>0.0330785</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0368125</v>
+        <v>0.037185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04073</v>
+        <v>0.0404591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0341194</v>
+        <v>0.0339287</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0407504</v>
+        <v>0.0410407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0480339</v>
+        <v>0.0479468</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0355024</v>
+        <v>0.0354362</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0489629</v>
+        <v>0.0489635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0568421</v>
+        <v>0.0564833</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0372587</v>
+        <v>0.0370033</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0611329</v>
+        <v>0.0615041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0695964</v>
+        <v>0.0693807</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0403671</v>
+        <v>0.0405409</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0799634</v>
+        <v>0.0805333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0896653</v>
+        <v>0.0895809</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0474006</v>
+        <v>0.0470402</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107283</v>
+        <v>0.107701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115955</v>
+        <v>0.115578</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0597806</v>
+        <v>0.0593822</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14792</v>
+        <v>0.148202</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159353</v>
+        <v>0.158976</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307947</v>
+        <v>0.0306744</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0327954</v>
+        <v>0.0328056</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0313566</v>
+        <v>0.0313749</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0313742</v>
+        <v>0.0310432</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0335851</v>
+        <v>0.0337073</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0320212</v>
+        <v>0.0321159</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0316661</v>
+        <v>0.0313663</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0343838</v>
+        <v>0.0344428</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0328531</v>
+        <v>0.0329237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.032094</v>
+        <v>0.0319127</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0351003</v>
+        <v>0.0352442</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0340328</v>
+        <v>0.0342481</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0324116</v>
+        <v>0.0324064</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0359176</v>
+        <v>0.0360587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0354354</v>
+        <v>0.0355679</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0330867</v>
+        <v>0.0329174</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375215</v>
+        <v>0.0374615</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371051</v>
+        <v>0.0371083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0336199</v>
+        <v>0.0334615</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394369</v>
+        <v>0.0393793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.040138</v>
+        <v>0.0401713</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0343776</v>
+        <v>0.0342154</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424096</v>
+        <v>0.0423187</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442148</v>
+        <v>0.0440535</v>
       </c>
       <c r="D31" t="n">
-        <v>0.035318</v>
+        <v>0.0353204</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0469103</v>
+        <v>0.0468809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0507873</v>
+        <v>0.0506964</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0367098</v>
+        <v>0.0365481</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539303</v>
+        <v>0.0539894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590843</v>
+        <v>0.0589402</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0388193</v>
+        <v>0.0388081</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643734</v>
+        <v>0.0643816</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0701146</v>
+        <v>0.0699994</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0425503</v>
+        <v>0.0420785</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.079218</v>
+        <v>0.07936609999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0848969</v>
+        <v>0.084546</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0492645</v>
+        <v>0.0488979</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100415</v>
+        <v>0.100782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.112525</v>
+        <v>0.111802</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0607706</v>
+        <v>0.0601541</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135098</v>
+        <v>0.135057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.152345</v>
+        <v>0.151151</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0318321</v>
+        <v>0.0314177</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335421</v>
+        <v>0.0335795</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0322979</v>
+        <v>0.0324637</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0321583</v>
+        <v>0.0317078</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0344965</v>
+        <v>0.0345425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0328895</v>
+        <v>0.0330813</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0324517</v>
+        <v>0.0320433</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351243</v>
+        <v>0.0351986</v>
       </c>
       <c r="C40" t="n">
-        <v>0.033858</v>
+        <v>0.0342078</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0328036</v>
+        <v>0.0324329</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360726</v>
+        <v>0.0362543</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0349841</v>
+        <v>0.0351524</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0331675</v>
+        <v>0.0328658</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369821</v>
+        <v>0.0370834</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0366486</v>
+        <v>0.0369132</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0337121</v>
+        <v>0.03334</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386094</v>
+        <v>0.0387962</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0388214</v>
+        <v>0.0389673</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0344158</v>
+        <v>0.0340882</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405584</v>
+        <v>0.0407215</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0413205</v>
+        <v>0.0414916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0350512</v>
+        <v>0.0348026</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0434027</v>
+        <v>0.0432977</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0457838</v>
+        <v>0.0457256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0360745</v>
+        <v>0.0358643</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475106</v>
+        <v>0.0473766</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0515952</v>
+        <v>0.0514228</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0376682</v>
+        <v>0.0374902</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538452</v>
+        <v>0.0538021</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0582912</v>
+        <v>0.0582688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0400194</v>
+        <v>0.0397671</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0632138</v>
+        <v>0.0631915</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0684399</v>
+        <v>0.06830369999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0438725</v>
+        <v>0.0435637</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07553459999999999</v>
+        <v>0.07575270000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0836971</v>
+        <v>0.0836943</v>
       </c>
       <c r="D49" t="n">
-        <v>0.049386</v>
+        <v>0.0489766</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0949827</v>
+        <v>0.0952764</v>
       </c>
       <c r="C50" t="n">
-        <v>0.105384</v>
+        <v>0.1048</v>
       </c>
       <c r="D50" t="n">
-        <v>0.058212</v>
+        <v>0.0577675</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126971</v>
+        <v>0.12726</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139663</v>
+        <v>0.14004</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0372856</v>
+        <v>0.0369818</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.172093</v>
+        <v>0.173087</v>
       </c>
       <c r="C52" t="n">
-        <v>0.19017</v>
+        <v>0.188535</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0374395</v>
+        <v>0.0371054</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354649</v>
+        <v>0.0361548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0362934</v>
+        <v>0.0369715</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0375944</v>
+        <v>0.0374263</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362274</v>
+        <v>0.0369765</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0371383</v>
+        <v>0.0373381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0379604</v>
+        <v>0.037469</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0370883</v>
+        <v>0.0378673</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0383123</v>
+        <v>0.0385686</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0383459</v>
+        <v>0.0378668</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0383422</v>
+        <v>0.0389231</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0395819</v>
+        <v>0.0399852</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0387265</v>
+        <v>0.0384019</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398036</v>
+        <v>0.0403873</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0415909</v>
+        <v>0.0418387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0393539</v>
+        <v>0.0387888</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418834</v>
+        <v>0.0423899</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0443575</v>
+        <v>0.0445431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0400915</v>
+        <v>0.0395974</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0445029</v>
+        <v>0.0449871</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0475212</v>
+        <v>0.0476465</v>
       </c>
       <c r="D59" t="n">
-        <v>0.041</v>
+        <v>0.0404851</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483425</v>
+        <v>0.0487461</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0521661</v>
+        <v>0.0521842</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0423103</v>
+        <v>0.0418212</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0536688</v>
+        <v>0.0540036</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0589897</v>
+        <v>0.059065</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0444606</v>
+        <v>0.0438592</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0613394</v>
+        <v>0.0617251</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06857249999999999</v>
+        <v>0.0685268</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0477555</v>
+        <v>0.0470022</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725788</v>
+        <v>0.07296560000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08220420000000001</v>
+        <v>0.08215550000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0528269</v>
+        <v>0.0520654</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0907143</v>
+        <v>0.09111519999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101974</v>
+        <v>0.101921</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0609477</v>
+        <v>0.0599801</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118433</v>
+        <v>0.118972</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134709</v>
+        <v>0.134504</v>
       </c>
       <c r="D65" t="n">
-        <v>0.074964</v>
+        <v>0.0738148</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.160352</v>
+        <v>0.161148</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18308</v>
+        <v>0.182772</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0416665</v>
+        <v>0.0406398</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0408727</v>
+        <v>0.0416647</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0405192</v>
+        <v>0.0401351</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0419971</v>
+        <v>0.0409202</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415785</v>
+        <v>0.0424732</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0414107</v>
+        <v>0.0409691</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0424256</v>
+        <v>0.0413531</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0423791</v>
+        <v>0.0432451</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0425761</v>
+        <v>0.042326</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0428576</v>
+        <v>0.0417628</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434258</v>
+        <v>0.0441826</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0439829</v>
+        <v>0.0435304</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0433244</v>
+        <v>0.042198</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447878</v>
+        <v>0.0455378</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0456696</v>
+        <v>0.0451247</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0439431</v>
+        <v>0.0427607</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.046386</v>
+        <v>0.0471347</v>
       </c>
       <c r="C72" t="n">
-        <v>0.048063</v>
+        <v>0.0473846</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0446854</v>
+        <v>0.0434166</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0486384</v>
+        <v>0.0494467</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0513508</v>
+        <v>0.0506184</v>
       </c>
       <c r="D73" t="n">
-        <v>0.045704</v>
+        <v>0.0444091</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518257</v>
+        <v>0.0526173</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0557624</v>
+        <v>0.0549987</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0470469</v>
+        <v>0.0457479</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0565809</v>
+        <v>0.0574129</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0621091</v>
+        <v>0.0614029</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0491425</v>
+        <v>0.0477352</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.063398</v>
+        <v>0.064114</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0708548</v>
+        <v>0.0702786</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0519698</v>
+        <v>0.0505271</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0737926</v>
+        <v>0.0745652</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08342670000000001</v>
+        <v>0.0828821</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0564616</v>
+        <v>0.0547936</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08944009999999999</v>
+        <v>0.09020549999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100996</v>
+        <v>0.100233</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0635049</v>
+        <v>0.0616638</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113444</v>
+        <v>0.114336</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128875</v>
+        <v>0.128135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07568950000000001</v>
+        <v>0.0732556</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153002</v>
+        <v>0.153681</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173161</v>
+        <v>0.171831</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0452598</v>
+        <v>0.0452172</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0465299</v>
+        <v>0.04683</v>
       </c>
       <c r="C81" t="n">
-        <v>0.046974</v>
+        <v>0.0454115</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0456647</v>
+        <v>0.0455868</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473375</v>
+        <v>0.0476048</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0490524</v>
+        <v>0.0469672</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0461703</v>
+        <v>0.046065</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0484118</v>
+        <v>0.0487122</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0518266</v>
+        <v>0.0490045</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0468045</v>
+        <v>0.046564</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0496395</v>
+        <v>0.0498592</v>
       </c>
       <c r="C84" t="n">
-        <v>0.055147</v>
+        <v>0.051398</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0476749</v>
+        <v>0.047125</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512376</v>
+        <v>0.0514584</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0591444</v>
+        <v>0.0544408</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0487282</v>
+        <v>0.0478312</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0533465</v>
+        <v>0.0534476</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0638459</v>
+        <v>0.0585178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0501276</v>
+        <v>0.0487752</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0565104</v>
+        <v>0.0562197</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06892769999999999</v>
+        <v>0.0630821</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0519373</v>
+        <v>0.0499774</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0606683</v>
+        <v>0.0600523</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0754517</v>
+        <v>0.0695481</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0544414</v>
+        <v>0.0515987</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0664096</v>
+        <v>0.0659698</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0830154</v>
+        <v>0.0775405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0577344</v>
+        <v>0.0541205</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0749565</v>
+        <v>0.0742283</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0931352</v>
+        <v>0.0881654</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0622419</v>
+        <v>0.0576498</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08664959999999999</v>
+        <v>0.0860123</v>
       </c>
       <c r="C91" t="n">
-        <v>0.105299</v>
+        <v>0.101313</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0683523</v>
+        <v>0.0627746</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.104428</v>
+        <v>0.10334</v>
       </c>
       <c r="C92" t="n">
-        <v>0.121817</v>
+        <v>0.119138</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0771216</v>
+        <v>0.0704219</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129985</v>
+        <v>0.129012</v>
       </c>
       <c r="C93" t="n">
-        <v>0.146907</v>
+        <v>0.145363</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0906144</v>
+        <v>0.08322889999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166736</v>
+        <v>0.165532</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18541</v>
+        <v>0.184533</v>
       </c>
       <c r="D94" t="n">
-        <v>0.052743</v>
+        <v>0.0497058</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0590913</v>
+        <v>0.0593831</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07299609999999999</v>
+        <v>0.066771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0553937</v>
+        <v>0.0512011</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0621364</v>
+        <v>0.06279460000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.076917</v>
+        <v>0.07086290000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.058219</v>
+        <v>0.052747</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06660820000000001</v>
+        <v>0.0666756</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0804858</v>
+        <v>0.0744964</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0612448</v>
+        <v>0.0538661</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.071211</v>
+        <v>0.07184550000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.084227</v>
+        <v>0.078565</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0643922</v>
+        <v>0.0567418</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0765913</v>
+        <v>0.0766442</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0881523</v>
+        <v>0.08290699999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0672465</v>
+        <v>0.058876</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0821413</v>
+        <v>0.0824501</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0922449</v>
+        <v>0.08789230000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0706045</v>
+        <v>0.06261650000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08840240000000001</v>
+        <v>0.0882961</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0971399</v>
+        <v>0.0932349</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07379529999999999</v>
+        <v>0.0658921</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09529070000000001</v>
+        <v>0.0951697</v>
       </c>
       <c r="C102" t="n">
-        <v>0.102251</v>
+        <v>0.0998343</v>
       </c>
       <c r="D102" t="n">
-        <v>0.077075</v>
+        <v>0.07073459999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.103409</v>
+        <v>0.102999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.10917</v>
+        <v>0.107113</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08065940000000001</v>
+        <v>0.0755454</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.111987</v>
+        <v>0.1122</v>
       </c>
       <c r="C104" t="n">
-        <v>0.118075</v>
+        <v>0.116751</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0853042</v>
+        <v>0.08164109999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123272</v>
+        <v>0.123257</v>
       </c>
       <c r="C105" t="n">
-        <v>0.129413</v>
+        <v>0.12861</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0910816</v>
+        <v>0.08865770000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.137752</v>
+        <v>0.138004</v>
       </c>
       <c r="C106" t="n">
-        <v>0.144933</v>
+        <v>0.144453</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09918689999999999</v>
+        <v>0.0980645</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157849</v>
+        <v>0.157684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.167894</v>
+        <v>0.167155</v>
       </c>
       <c r="D107" t="n">
-        <v>0.111387</v>
+        <v>0.111058</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186503</v>
+        <v>0.186208</v>
       </c>
       <c r="C108" t="n">
-        <v>0.203804</v>
+        <v>0.203501</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0708083</v>
+        <v>0.06807100000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232276</v>
+        <v>0.232216</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263855</v>
+        <v>0.262872</v>
       </c>
       <c r="D109" t="n">
-        <v>0.07261330000000001</v>
+        <v>0.0703804</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0915295</v>
+        <v>0.0909256</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09067749999999999</v>
+        <v>0.0893996</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0742403</v>
+        <v>0.07277</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09422609999999999</v>
+        <v>0.09393369999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0935474</v>
+        <v>0.0922076</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0762317</v>
+        <v>0.0749138</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966921</v>
+        <v>0.0966399</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0963</v>
+        <v>0.09573230000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0779244</v>
+        <v>0.0774249</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100033</v>
+        <v>0.0998745</v>
       </c>
       <c r="C113" t="n">
-        <v>0.100084</v>
+        <v>0.0990857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0802568</v>
+        <v>0.0797441</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103454</v>
+        <v>0.103325</v>
       </c>
       <c r="C114" t="n">
-        <v>0.103649</v>
+        <v>0.103246</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0821926</v>
+        <v>0.0824377</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107267</v>
+        <v>0.107154</v>
       </c>
       <c r="C115" t="n">
-        <v>0.108533</v>
+        <v>0.108129</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08449710000000001</v>
+        <v>0.08541849999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112333</v>
+        <v>0.112022</v>
       </c>
       <c r="C116" t="n">
-        <v>0.114383</v>
+        <v>0.112968</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0873708</v>
+        <v>0.0871257</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.118163</v>
+        <v>0.117811</v>
       </c>
       <c r="C117" t="n">
-        <v>0.121054</v>
+        <v>0.119596</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09070209999999999</v>
+        <v>0.09055589999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125273</v>
+        <v>0.12481</v>
       </c>
       <c r="C118" t="n">
-        <v>0.130203</v>
+        <v>0.128142</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0954108</v>
+        <v>0.09502529999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134986</v>
+        <v>0.134532</v>
       </c>
       <c r="C119" t="n">
-        <v>0.14136</v>
+        <v>0.139252</v>
       </c>
       <c r="D119" t="n">
-        <v>0.10088</v>
+        <v>0.100793</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147637</v>
+        <v>0.147354</v>
       </c>
       <c r="C120" t="n">
-        <v>0.156628</v>
+        <v>0.154846</v>
       </c>
       <c r="D120" t="n">
-        <v>0.108731</v>
+        <v>0.108913</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165983</v>
+        <v>0.165735</v>
       </c>
       <c r="C121" t="n">
-        <v>0.178247</v>
+        <v>0.176244</v>
       </c>
       <c r="D121" t="n">
-        <v>0.120452</v>
+        <v>0.120401</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192302</v>
+        <v>0.192128</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21138</v>
+        <v>0.209712</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139621</v>
+        <v>0.139598</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233523</v>
+        <v>0.233383</v>
       </c>
       <c r="C123" t="n">
-        <v>0.266246</v>
+        <v>0.263938</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0908547</v>
+        <v>0.08935949999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104495</v>
+        <v>0.103032</v>
       </c>
       <c r="C124" t="n">
-        <v>0.111198</v>
+        <v>0.105372</v>
       </c>
       <c r="D124" t="n">
-        <v>0.092684</v>
+        <v>0.0901704</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107874</v>
+        <v>0.104609</v>
       </c>
       <c r="C125" t="n">
-        <v>0.115136</v>
+        <v>0.110542</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0940642</v>
+        <v>0.0943543</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108555</v>
+        <v>0.109237</v>
       </c>
       <c r="C126" t="n">
-        <v>0.117782</v>
+        <v>0.110708</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09594080000000001</v>
+        <v>0.091862</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111826</v>
+        <v>0.111027</v>
       </c>
       <c r="C127" t="n">
-        <v>0.123582</v>
+        <v>0.114601</v>
       </c>
       <c r="D127" t="n">
-        <v>0.100006</v>
+        <v>0.0954627</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113758</v>
+        <v>0.113413</v>
       </c>
       <c r="C128" t="n">
-        <v>0.129644</v>
+        <v>0.117187</v>
       </c>
       <c r="D128" t="n">
-        <v>0.105442</v>
+        <v>0.0956665</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116924</v>
+        <v>0.115611</v>
       </c>
       <c r="C129" t="n">
-        <v>0.133295</v>
+        <v>0.122811</v>
       </c>
       <c r="D129" t="n">
-        <v>0.104992</v>
+        <v>0.0994472</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121035</v>
+        <v>0.120573</v>
       </c>
       <c r="C130" t="n">
-        <v>0.13706</v>
+        <v>0.126998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.10528</v>
+        <v>0.100478</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127134</v>
+        <v>0.12871</v>
       </c>
       <c r="C131" t="n">
-        <v>0.146747</v>
+        <v>0.134713</v>
       </c>
       <c r="D131" t="n">
-        <v>0.112905</v>
+        <v>0.105395</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133138</v>
+        <v>0.13265</v>
       </c>
       <c r="C132" t="n">
-        <v>0.154452</v>
+        <v>0.14231</v>
       </c>
       <c r="D132" t="n">
-        <v>0.115592</v>
+        <v>0.107887</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143751</v>
+        <v>0.141597</v>
       </c>
       <c r="C133" t="n">
-        <v>0.165523</v>
+        <v>0.1546</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1223</v>
+        <v>0.115939</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154469</v>
+        <v>0.15457</v>
       </c>
       <c r="C134" t="n">
-        <v>0.180205</v>
+        <v>0.168172</v>
       </c>
       <c r="D134" t="n">
-        <v>0.128411</v>
+        <v>0.121139</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171836</v>
+        <v>0.172316</v>
       </c>
       <c r="C135" t="n">
-        <v>0.201002</v>
+        <v>0.189948</v>
       </c>
       <c r="D135" t="n">
-        <v>0.140547</v>
+        <v>0.133599</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197304</v>
+        <v>0.196115</v>
       </c>
       <c r="C136" t="n">
-        <v>0.230964</v>
+        <v>0.219444</v>
       </c>
       <c r="D136" t="n">
-        <v>0.155007</v>
+        <v>0.147982</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236088</v>
+        <v>0.234932</v>
       </c>
       <c r="C137" t="n">
-        <v>0.280583</v>
+        <v>0.271671</v>
       </c>
       <c r="D137" t="n">
-        <v>0.172574</v>
+        <v>0.163368</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168789</v>
+        <v>0.167705</v>
       </c>
       <c r="C138" t="n">
-        <v>0.175196</v>
+        <v>0.164398</v>
       </c>
       <c r="D138" t="n">
-        <v>0.174179</v>
+        <v>0.165412</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16953</v>
+        <v>0.16971</v>
       </c>
       <c r="C139" t="n">
-        <v>0.178063</v>
+        <v>0.166482</v>
       </c>
       <c r="D139" t="n">
-        <v>0.177134</v>
+        <v>0.166861</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172035</v>
+        <v>0.170541</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181057</v>
+        <v>0.169214</v>
       </c>
       <c r="D140" t="n">
-        <v>0.178122</v>
+        <v>0.169036</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172204</v>
+        <v>0.172382</v>
       </c>
       <c r="C141" t="n">
-        <v>0.184344</v>
+        <v>0.171549</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180437</v>
+        <v>0.169895</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17575</v>
+        <v>0.174921</v>
       </c>
       <c r="C142" t="n">
-        <v>0.188466</v>
+        <v>0.175445</v>
       </c>
       <c r="D142" t="n">
-        <v>0.182713</v>
+        <v>0.172026</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177088</v>
+        <v>0.177124</v>
       </c>
       <c r="C143" t="n">
-        <v>0.192403</v>
+        <v>0.179341</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185086</v>
+        <v>0.174147</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319142</v>
+        <v>0.0323365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0329276</v>
+        <v>0.0338387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324407</v>
+        <v>0.0324442</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0337487</v>
+        <v>0.0331988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0343023</v>
+        <v>0.0355461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.033218</v>
+        <v>0.0330014</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349061</v>
+        <v>0.0354853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0391699</v>
+        <v>0.0410078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03444</v>
+        <v>0.0340205</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0404953</v>
+        <v>0.0410717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0487135</v>
+        <v>0.0508176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.036438</v>
+        <v>0.0356633</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0548095</v>
+        <v>0.0541656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.064455</v>
+        <v>0.0667338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0383394</v>
+        <v>0.0378917</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0795551</v>
+        <v>0.0810481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08909789999999999</v>
+        <v>0.0893635</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0442667</v>
+        <v>0.0431176</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119752</v>
+        <v>0.12103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117047</v>
+        <v>0.117623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0558178</v>
+        <v>0.0551436</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160717</v>
+        <v>0.162642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162289</v>
+        <v>0.165218</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300352</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0311403</v>
+        <v>0.031558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0295673</v>
+        <v>0.0294438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302695</v>
+        <v>0.0302383</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315931</v>
+        <v>0.0321372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0302667</v>
+        <v>0.0298871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030538</v>
+        <v>0.030517</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0318963</v>
+        <v>0.0322791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311152</v>
+        <v>0.0310122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.030936</v>
+        <v>0.0308585</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323133</v>
+        <v>0.0327025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0317396</v>
+        <v>0.0319765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0313157</v>
+        <v>0.0312583</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330158</v>
+        <v>0.0336919</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0329785</v>
+        <v>0.0333594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317849</v>
+        <v>0.0317688</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0337208</v>
+        <v>0.0341404</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0342192</v>
+        <v>0.0351008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0324547</v>
+        <v>0.0323641</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0348829</v>
+        <v>0.0354786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0373293</v>
+        <v>0.0378049</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0330785</v>
+        <v>0.0331479</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.037185</v>
+        <v>0.0374369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0404591</v>
+        <v>0.0409843</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0339287</v>
+        <v>0.0337552</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0410407</v>
+        <v>0.04096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0479468</v>
+        <v>0.0485278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0354362</v>
+        <v>0.0353591</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0489635</v>
+        <v>0.0492682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0564833</v>
+        <v>0.0570061</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0370033</v>
+        <v>0.0367087</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0615041</v>
+        <v>0.0621914</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0693807</v>
+        <v>0.06989289999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0405409</v>
+        <v>0.0400701</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0805333</v>
+        <v>0.0811824</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0895809</v>
+        <v>0.09058380000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0470402</v>
+        <v>0.0468825</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107701</v>
+        <v>0.108411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115578</v>
+        <v>0.117596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0593822</v>
+        <v>0.0592884</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.148202</v>
+        <v>0.149052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.158976</v>
+        <v>0.162334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0306744</v>
+        <v>0.0307685</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0328056</v>
+        <v>0.0333065</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0313749</v>
+        <v>0.0313934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0310432</v>
+        <v>0.031232</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0337073</v>
+        <v>0.0340571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0321159</v>
+        <v>0.0320407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0313663</v>
+        <v>0.0314514</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0344428</v>
+        <v>0.0346129</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0329237</v>
+        <v>0.0330039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0319127</v>
+        <v>0.0318482</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0352442</v>
+        <v>0.0354008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0342481</v>
+        <v>0.0343889</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0324064</v>
+        <v>0.0324001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360587</v>
+        <v>0.0359694</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0355679</v>
+        <v>0.0354954</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0329174</v>
+        <v>0.0327727</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374615</v>
+        <v>0.0374383</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371083</v>
+        <v>0.0372441</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0334615</v>
+        <v>0.0334127</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0393793</v>
+        <v>0.0394487</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0401713</v>
+        <v>0.0402495</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0342154</v>
+        <v>0.034195</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0423187</v>
+        <v>0.0424394</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0440535</v>
+        <v>0.0441274</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0353204</v>
+        <v>0.0352546</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468809</v>
+        <v>0.0470124</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0506964</v>
+        <v>0.0506631</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0365481</v>
+        <v>0.0364806</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539894</v>
+        <v>0.0539879</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0589402</v>
+        <v>0.0590738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0388081</v>
+        <v>0.0386601</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643816</v>
+        <v>0.0645905</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0699994</v>
+        <v>0.07060859999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0420785</v>
+        <v>0.0422162</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07936609999999999</v>
+        <v>0.0797194</v>
       </c>
       <c r="C35" t="n">
-        <v>0.084546</v>
+        <v>0.08564620000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0488979</v>
+        <v>0.0488806</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100782</v>
+        <v>0.101098</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111802</v>
+        <v>0.113832</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0601541</v>
+        <v>0.0601906</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135057</v>
+        <v>0.136086</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151151</v>
+        <v>0.154787</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0314177</v>
+        <v>0.0316688</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335795</v>
+        <v>0.0339089</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0324637</v>
+        <v>0.0324347</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0317078</v>
+        <v>0.0318129</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345425</v>
+        <v>0.0345586</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0330813</v>
+        <v>0.0329451</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0320433</v>
+        <v>0.0320815</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351986</v>
+        <v>0.0352459</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0342078</v>
+        <v>0.0339001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0324329</v>
+        <v>0.0324359</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0362543</v>
+        <v>0.0361434</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0351524</v>
+        <v>0.0348705</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0328658</v>
+        <v>0.0328058</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370834</v>
+        <v>0.037191</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0369132</v>
+        <v>0.0365986</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03334</v>
+        <v>0.0333326</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387962</v>
+        <v>0.0388307</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0389673</v>
+        <v>0.0387847</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0340882</v>
+        <v>0.0340089</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0407215</v>
+        <v>0.0407412</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0414916</v>
+        <v>0.0411294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0348026</v>
+        <v>0.0347014</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432977</v>
+        <v>0.0435426</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0457256</v>
+        <v>0.0456217</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0358643</v>
+        <v>0.0357256</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473766</v>
+        <v>0.0476444</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0514228</v>
+        <v>0.0515917</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0374902</v>
+        <v>0.037413</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538021</v>
+        <v>0.0539827</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0582688</v>
+        <v>0.0585157</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0397671</v>
+        <v>0.0397482</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631915</v>
+        <v>0.0633736</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06830369999999999</v>
+        <v>0.0689333</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0435637</v>
+        <v>0.0436274</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07575270000000001</v>
+        <v>0.0759036</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0836943</v>
+        <v>0.0845277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0489766</v>
+        <v>0.0491148</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0952764</v>
+        <v>0.0956423</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1048</v>
+        <v>0.106603</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0577675</v>
+        <v>0.0578509</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12726</v>
+        <v>0.12793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14004</v>
+        <v>0.142647</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0369818</v>
+        <v>0.0331695</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173087</v>
+        <v>0.17413</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188535</v>
+        <v>0.193134</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0371054</v>
+        <v>0.0334494</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0361548</v>
+        <v>0.0361039</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0369715</v>
+        <v>0.0345318</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0374263</v>
+        <v>0.0337988</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369765</v>
+        <v>0.036589</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0373381</v>
+        <v>0.0353236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.037469</v>
+        <v>0.0342681</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378673</v>
+        <v>0.0374541</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0385686</v>
+        <v>0.0363145</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0378668</v>
+        <v>0.0346563</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0389231</v>
+        <v>0.0387787</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0399852</v>
+        <v>0.0377306</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0384019</v>
+        <v>0.0350813</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0403873</v>
+        <v>0.0401547</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0418387</v>
+        <v>0.0397173</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0387888</v>
+        <v>0.035482</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423899</v>
+        <v>0.0421384</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0445431</v>
+        <v>0.0424987</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0395974</v>
+        <v>0.0364566</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0449871</v>
+        <v>0.0447292</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0476465</v>
+        <v>0.0457258</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0404851</v>
+        <v>0.0375332</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0487461</v>
+        <v>0.048521</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0521842</v>
+        <v>0.050392</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0418212</v>
+        <v>0.0387344</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0540036</v>
+        <v>0.0538109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.059065</v>
+        <v>0.0574091</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0438592</v>
+        <v>0.0409146</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0617251</v>
+        <v>0.0614782</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0685268</v>
+        <v>0.0671095</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0470022</v>
+        <v>0.0442967</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07296560000000001</v>
+        <v>0.0728142</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08215550000000001</v>
+        <v>0.0809879</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0520654</v>
+        <v>0.049239</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09111519999999999</v>
+        <v>0.0912116</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101921</v>
+        <v>0.101168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0599801</v>
+        <v>0.057282</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118972</v>
+        <v>0.119348</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134504</v>
+        <v>0.13391</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0738148</v>
+        <v>0.0712216</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161148</v>
+        <v>0.161653</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182772</v>
+        <v>0.182234</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0406398</v>
+        <v>0.0395257</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0416647</v>
+        <v>0.0411093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0401351</v>
+        <v>0.0396139</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0409202</v>
+        <v>0.0399039</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0424732</v>
+        <v>0.0417598</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0409691</v>
+        <v>0.040465</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0413531</v>
+        <v>0.0402924</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0432451</v>
+        <v>0.0425046</v>
       </c>
       <c r="C69" t="n">
-        <v>0.042326</v>
+        <v>0.0416067</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0417628</v>
+        <v>0.0407426</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441826</v>
+        <v>0.0436236</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0435304</v>
+        <v>0.0428981</v>
       </c>
       <c r="D70" t="n">
-        <v>0.042198</v>
+        <v>0.0411956</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455378</v>
+        <v>0.0449412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0451247</v>
+        <v>0.0444918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0427607</v>
+        <v>0.0417659</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0471347</v>
+        <v>0.0465162</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0473846</v>
+        <v>0.0468419</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0434166</v>
+        <v>0.0424392</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0494467</v>
+        <v>0.0486247</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0506184</v>
+        <v>0.0496822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0444091</v>
+        <v>0.043475</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0526173</v>
+        <v>0.0517835</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0549987</v>
+        <v>0.0541038</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0457479</v>
+        <v>0.0447879</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0574129</v>
+        <v>0.056589</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0614029</v>
+        <v>0.0607922</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0477352</v>
+        <v>0.0467972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.064114</v>
+        <v>0.0638703</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0702786</v>
+        <v>0.0698882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0505271</v>
+        <v>0.049585</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745652</v>
+        <v>0.0746192</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0828821</v>
+        <v>0.08295859999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0547936</v>
+        <v>0.0538244</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09020549999999999</v>
+        <v>0.0908361</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100233</v>
+        <v>0.100878</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0616638</v>
+        <v>0.0610442</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114336</v>
+        <v>0.114394</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128135</v>
+        <v>0.129217</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0732556</v>
+        <v>0.0729794</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153681</v>
+        <v>0.154295</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171831</v>
+        <v>0.173367</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0452172</v>
+        <v>0.0451754</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04683</v>
+        <v>0.0477504</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0454115</v>
+        <v>0.0479672</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0455868</v>
+        <v>0.0456815</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0476048</v>
+        <v>0.049004</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0469672</v>
+        <v>0.0502499</v>
       </c>
       <c r="D82" t="n">
-        <v>0.046065</v>
+        <v>0.0463248</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0487122</v>
+        <v>0.0508367</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0490045</v>
+        <v>0.0526907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.046564</v>
+        <v>0.0471313</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0498592</v>
+        <v>0.0527471</v>
       </c>
       <c r="C84" t="n">
-        <v>0.051398</v>
+        <v>0.0557437</v>
       </c>
       <c r="D84" t="n">
-        <v>0.047125</v>
+        <v>0.0479161</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0514584</v>
+        <v>0.0552661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0544408</v>
+        <v>0.0595791</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0478312</v>
+        <v>0.0490926</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0534476</v>
+        <v>0.0582242</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0585178</v>
+        <v>0.0637244</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0487752</v>
+        <v>0.050493</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0562197</v>
+        <v>0.0624305</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0630821</v>
+        <v>0.0684674</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0499774</v>
+        <v>0.0522581</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0600523</v>
+        <v>0.0676599</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0695481</v>
+        <v>0.07483380000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0515987</v>
+        <v>0.0547292</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0659698</v>
+        <v>0.07424500000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0775405</v>
+        <v>0.0821117</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0541205</v>
+        <v>0.0578675</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0742283</v>
+        <v>0.08326749999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0881654</v>
+        <v>0.092151</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0576498</v>
+        <v>0.0623566</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0860123</v>
+        <v>0.0948934</v>
       </c>
       <c r="C91" t="n">
-        <v>0.101313</v>
+        <v>0.104348</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0627746</v>
+        <v>0.0685583</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10334</v>
+        <v>0.110945</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119138</v>
+        <v>0.120879</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0704219</v>
+        <v>0.0772587</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129012</v>
+        <v>0.13405</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145363</v>
+        <v>0.145995</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08322889999999999</v>
+        <v>0.0905342</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165532</v>
+        <v>0.167842</v>
       </c>
       <c r="C94" t="n">
-        <v>0.184533</v>
+        <v>0.184154</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0497058</v>
+        <v>0.0550373</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0593831</v>
+        <v>0.0672913</v>
       </c>
       <c r="C95" t="n">
-        <v>0.066771</v>
+        <v>0.0681662</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0512011</v>
+        <v>0.0570172</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06279460000000001</v>
+        <v>0.0702889</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07086290000000001</v>
+        <v>0.0709084</v>
       </c>
       <c r="D96" t="n">
-        <v>0.052747</v>
+        <v>0.0583705</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0666756</v>
+        <v>0.0732158</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0744964</v>
+        <v>0.0739242</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0538661</v>
+        <v>0.0601571</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07184550000000001</v>
+        <v>0.0757656</v>
       </c>
       <c r="C98" t="n">
-        <v>0.078565</v>
+        <v>0.077265</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0567418</v>
+        <v>0.0620278</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0766442</v>
+        <v>0.07842780000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08290699999999999</v>
+        <v>0.08084570000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.058876</v>
+        <v>0.063806</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0824501</v>
+        <v>0.0819927</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08789230000000001</v>
+        <v>0.08532960000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06261650000000001</v>
+        <v>0.0659638</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0882961</v>
+        <v>0.0855909</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0932349</v>
+        <v>0.0905625</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0658921</v>
+        <v>0.0680407</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0951697</v>
+        <v>0.0905445</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0998343</v>
+        <v>0.0961716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07073459999999999</v>
+        <v>0.07031519999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.102999</v>
+        <v>0.0964573</v>
       </c>
       <c r="C103" t="n">
-        <v>0.107113</v>
+        <v>0.103385</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0755454</v>
+        <v>0.073437</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1122</v>
+        <v>0.104056</v>
       </c>
       <c r="C104" t="n">
-        <v>0.116751</v>
+        <v>0.112746</v>
       </c>
       <c r="D104" t="n">
-        <v>0.08164109999999999</v>
+        <v>0.0773585</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.123257</v>
+        <v>0.115564</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12861</v>
+        <v>0.125325</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08865770000000001</v>
+        <v>0.0829854</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.138004</v>
+        <v>0.131087</v>
       </c>
       <c r="C106" t="n">
-        <v>0.144453</v>
+        <v>0.141859</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0980645</v>
+        <v>0.0909889</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.157684</v>
+        <v>0.152903</v>
       </c>
       <c r="C107" t="n">
-        <v>0.167155</v>
+        <v>0.165488</v>
       </c>
       <c r="D107" t="n">
-        <v>0.111058</v>
+        <v>0.103764</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.186208</v>
+        <v>0.183458</v>
       </c>
       <c r="C108" t="n">
-        <v>0.203501</v>
+        <v>0.202382</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06807100000000001</v>
+        <v>0.0627847</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232216</v>
+        <v>0.230357</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262872</v>
+        <v>0.263245</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0703804</v>
+        <v>0.0638758</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0909256</v>
+        <v>0.0803541</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0893996</v>
+        <v>0.08618720000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07277</v>
+        <v>0.0650226</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09393369999999999</v>
+        <v>0.08367230000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0922076</v>
+        <v>0.0888384</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0749138</v>
+        <v>0.0662131</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0966399</v>
+        <v>0.0869606</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09573230000000001</v>
+        <v>0.0918653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0774249</v>
+        <v>0.06771919999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0998745</v>
+        <v>0.0913549</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0990857</v>
+        <v>0.0953333</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0797441</v>
+        <v>0.07016020000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103325</v>
+        <v>0.0958098</v>
       </c>
       <c r="C114" t="n">
-        <v>0.103246</v>
+        <v>0.0992485</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0824377</v>
+        <v>0.0723323</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107154</v>
+        <v>0.100982</v>
       </c>
       <c r="C115" t="n">
-        <v>0.108129</v>
+        <v>0.104092</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08541849999999999</v>
+        <v>0.07527449999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.112022</v>
+        <v>0.10686</v>
       </c>
       <c r="C116" t="n">
-        <v>0.112968</v>
+        <v>0.110033</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0871257</v>
+        <v>0.0789305</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117811</v>
+        <v>0.113788</v>
       </c>
       <c r="C117" t="n">
-        <v>0.119596</v>
+        <v>0.11726</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09055589999999999</v>
+        <v>0.0835611</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12481</v>
+        <v>0.122093</v>
       </c>
       <c r="C118" t="n">
-        <v>0.128142</v>
+        <v>0.126468</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09502529999999999</v>
+        <v>0.0894442</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134532</v>
+        <v>0.132312</v>
       </c>
       <c r="C119" t="n">
-        <v>0.139252</v>
+        <v>0.137918</v>
       </c>
       <c r="D119" t="n">
-        <v>0.100793</v>
+        <v>0.096419</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147354</v>
+        <v>0.145674</v>
       </c>
       <c r="C120" t="n">
-        <v>0.154846</v>
+        <v>0.153722</v>
       </c>
       <c r="D120" t="n">
-        <v>0.108913</v>
+        <v>0.105394</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165735</v>
+        <v>0.164469</v>
       </c>
       <c r="C121" t="n">
-        <v>0.176244</v>
+        <v>0.175657</v>
       </c>
       <c r="D121" t="n">
-        <v>0.120401</v>
+        <v>0.118344</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192128</v>
+        <v>0.191516</v>
       </c>
       <c r="C122" t="n">
-        <v>0.209712</v>
+        <v>0.209159</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139598</v>
+        <v>0.138109</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233383</v>
+        <v>0.232535</v>
       </c>
       <c r="C123" t="n">
-        <v>0.263938</v>
+        <v>0.264207</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08935949999999999</v>
+        <v>0.08453579999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103032</v>
+        <v>0.103333</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105372</v>
+        <v>0.10447</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0901704</v>
+        <v>0.0880446</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104609</v>
+        <v>0.105236</v>
       </c>
       <c r="C125" t="n">
-        <v>0.110542</v>
+        <v>0.107411</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0943543</v>
+        <v>0.0903693</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109237</v>
+        <v>0.109679</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110708</v>
+        <v>0.110183</v>
       </c>
       <c r="D126" t="n">
-        <v>0.091862</v>
+        <v>0.09253359999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111027</v>
+        <v>0.111943</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114601</v>
+        <v>0.115597</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0954627</v>
+        <v>0.0977261</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113413</v>
+        <v>0.113262</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117187</v>
+        <v>0.11749</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0956665</v>
+        <v>0.0960308</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.115611</v>
+        <v>0.119175</v>
       </c>
       <c r="C129" t="n">
-        <v>0.122811</v>
+        <v>0.123392</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0994472</v>
+        <v>0.100823</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120573</v>
+        <v>0.124932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.126998</v>
+        <v>0.126956</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100478</v>
+        <v>0.100598</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12871</v>
+        <v>0.127108</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134713</v>
+        <v>0.13422</v>
       </c>
       <c r="D131" t="n">
-        <v>0.105395</v>
+        <v>0.105224</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13265</v>
+        <v>0.133105</v>
       </c>
       <c r="C132" t="n">
-        <v>0.14231</v>
+        <v>0.142228</v>
       </c>
       <c r="D132" t="n">
-        <v>0.107887</v>
+        <v>0.108447</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141597</v>
+        <v>0.142556</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1546</v>
+        <v>0.153435</v>
       </c>
       <c r="D133" t="n">
-        <v>0.115939</v>
+        <v>0.114549</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.15457</v>
+        <v>0.153975</v>
       </c>
       <c r="C134" t="n">
-        <v>0.168172</v>
+        <v>0.167201</v>
       </c>
       <c r="D134" t="n">
-        <v>0.121139</v>
+        <v>0.120596</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172316</v>
+        <v>0.171792</v>
       </c>
       <c r="C135" t="n">
-        <v>0.189948</v>
+        <v>0.188726</v>
       </c>
       <c r="D135" t="n">
-        <v>0.133599</v>
+        <v>0.132505</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196115</v>
+        <v>0.196071</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219444</v>
+        <v>0.220142</v>
       </c>
       <c r="D136" t="n">
-        <v>0.147982</v>
+        <v>0.149178</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234932</v>
+        <v>0.235079</v>
       </c>
       <c r="C137" t="n">
-        <v>0.271671</v>
+        <v>0.270216</v>
       </c>
       <c r="D137" t="n">
-        <v>0.163368</v>
+        <v>0.163896</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167705</v>
+        <v>0.166329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164398</v>
+        <v>0.164843</v>
       </c>
       <c r="D138" t="n">
-        <v>0.165412</v>
+        <v>0.165862</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16971</v>
+        <v>0.169046</v>
       </c>
       <c r="C139" t="n">
-        <v>0.166482</v>
+        <v>0.167375</v>
       </c>
       <c r="D139" t="n">
-        <v>0.166861</v>
+        <v>0.167521</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170541</v>
+        <v>0.171078</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169214</v>
+        <v>0.169871</v>
       </c>
       <c r="D140" t="n">
-        <v>0.169036</v>
+        <v>0.169517</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172382</v>
+        <v>0.171696</v>
       </c>
       <c r="C141" t="n">
-        <v>0.171549</v>
+        <v>0.172711</v>
       </c>
       <c r="D141" t="n">
-        <v>0.169895</v>
+        <v>0.171017</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174921</v>
+        <v>0.174138</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175445</v>
+        <v>0.175485</v>
       </c>
       <c r="D142" t="n">
-        <v>0.172026</v>
+        <v>0.172827</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177124</v>
+        <v>0.177365</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179341</v>
+        <v>0.179566</v>
       </c>
       <c r="D143" t="n">
-        <v>0.174147</v>
+        <v>0.174432</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323365</v>
+        <v>0.0322788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338387</v>
+        <v>0.0342768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324442</v>
+        <v>0.0324687</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331988</v>
+        <v>0.0331332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0355461</v>
+        <v>0.0357721</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0330014</v>
+        <v>0.0330661</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0354853</v>
+        <v>0.035062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0410078</v>
+        <v>0.0411116</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0340205</v>
+        <v>0.0340105</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410717</v>
+        <v>0.0403201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0508176</v>
+        <v>0.0507413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0356633</v>
+        <v>0.0354644</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0541656</v>
+        <v>0.0541045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0667338</v>
+        <v>0.0669471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0378917</v>
+        <v>0.0378637</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0810481</v>
+        <v>0.0810686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0893635</v>
+        <v>0.089833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0431176</v>
+        <v>0.043267</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12103</v>
+        <v>0.12154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117623</v>
+        <v>0.118492</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0551436</v>
+        <v>0.0552275</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162642</v>
+        <v>0.163321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165218</v>
+        <v>0.16615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03</v>
+        <v>0.0300425</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.031558</v>
+        <v>0.0312787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294438</v>
+        <v>0.0294441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302383</v>
+        <v>0.0302644</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0321372</v>
+        <v>0.0318789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0298871</v>
+        <v>0.0300666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030517</v>
+        <v>0.030591</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0322791</v>
+        <v>0.0321046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0310122</v>
+        <v>0.0310424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308585</v>
+        <v>0.0309711</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0327025</v>
+        <v>0.032697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0319765</v>
+        <v>0.0320281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0312583</v>
+        <v>0.0313899</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336919</v>
+        <v>0.0334331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0333594</v>
+        <v>0.0334452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317688</v>
+        <v>0.0317529</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341404</v>
+        <v>0.0341454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0351008</v>
+        <v>0.0350749</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0323641</v>
+        <v>0.0323372</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0354786</v>
+        <v>0.0354781</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378049</v>
+        <v>0.0378331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0331479</v>
+        <v>0.0331889</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0374369</v>
+        <v>0.0371925</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0409843</v>
+        <v>0.0413075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0337552</v>
+        <v>0.0339247</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04096</v>
+        <v>0.0410831</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0485278</v>
+        <v>0.0485321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0353591</v>
+        <v>0.0354085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0492682</v>
+        <v>0.0488542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0570061</v>
+        <v>0.0571255</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367087</v>
+        <v>0.0367422</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621914</v>
+        <v>0.0621658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06989289999999999</v>
+        <v>0.06986580000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0400701</v>
+        <v>0.0399659</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0811824</v>
+        <v>0.080896</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09058380000000001</v>
+        <v>0.09080770000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468825</v>
+        <v>0.0468203</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108411</v>
+        <v>0.108327</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117596</v>
+        <v>0.117738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0592884</v>
+        <v>0.0592316</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149052</v>
+        <v>0.149093</v>
       </c>
       <c r="C23" t="n">
-        <v>0.162334</v>
+        <v>0.16195</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307685</v>
+        <v>0.0309315</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333065</v>
+        <v>0.0333848</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0313934</v>
+        <v>0.0314397</v>
       </c>
       <c r="D24" t="n">
-        <v>0.031232</v>
+        <v>0.0313086</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340571</v>
+        <v>0.0339545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0320407</v>
+        <v>0.032223</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0314514</v>
+        <v>0.0316063</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346129</v>
+        <v>0.0345781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0330039</v>
+        <v>0.0329279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0318482</v>
+        <v>0.0319913</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0354008</v>
+        <v>0.0353015</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0343889</v>
+        <v>0.0342199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0324001</v>
+        <v>0.0325796</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0359694</v>
+        <v>0.0359469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0354954</v>
+        <v>0.0355328</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0327727</v>
+        <v>0.0331034</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374383</v>
+        <v>0.0374776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0372441</v>
+        <v>0.0372901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0334127</v>
+        <v>0.0335586</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394487</v>
+        <v>0.0393763</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0402495</v>
+        <v>0.0403122</v>
       </c>
       <c r="D30" t="n">
-        <v>0.034195</v>
+        <v>0.0341919</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424394</v>
+        <v>0.0424466</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0441274</v>
+        <v>0.0441935</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0352546</v>
+        <v>0.0352286</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0470124</v>
+        <v>0.0470328</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0506631</v>
+        <v>0.0508222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0364806</v>
+        <v>0.0365862</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539879</v>
+        <v>0.0539159</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590738</v>
+        <v>0.0590921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0386601</v>
+        <v>0.0387865</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645905</v>
+        <v>0.0644861</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07060859999999999</v>
+        <v>0.0707547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0422162</v>
+        <v>0.0421876</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797194</v>
+        <v>0.0796148</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08564620000000001</v>
+        <v>0.0859333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0488806</v>
+        <v>0.0490286</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101098</v>
+        <v>0.101083</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113832</v>
+        <v>0.114191</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0601906</v>
+        <v>0.0602343</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136086</v>
+        <v>0.136122</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154787</v>
+        <v>0.153962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0316688</v>
+        <v>0.0313965</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0339089</v>
+        <v>0.0337801</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0324347</v>
+        <v>0.0323573</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0318129</v>
+        <v>0.0316983</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345586</v>
+        <v>0.0344943</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0329451</v>
+        <v>0.0330289</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0320815</v>
+        <v>0.031878</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352459</v>
+        <v>0.0351494</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0339001</v>
+        <v>0.0338368</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0324359</v>
+        <v>0.0323256</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0361434</v>
+        <v>0.0360683</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0348705</v>
+        <v>0.0348458</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0328058</v>
+        <v>0.0326954</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.037191</v>
+        <v>0.037024</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0365986</v>
+        <v>0.0366249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0333326</v>
+        <v>0.0332002</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0388307</v>
+        <v>0.0386109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0387847</v>
+        <v>0.0387234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0340089</v>
+        <v>0.0338815</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0407412</v>
+        <v>0.0405893</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0411294</v>
+        <v>0.0410739</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0347014</v>
+        <v>0.0345806</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0435426</v>
+        <v>0.043338</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0456217</v>
+        <v>0.0456576</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0357256</v>
+        <v>0.0356033</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0476444</v>
+        <v>0.0474667</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0515917</v>
+        <v>0.0514457</v>
       </c>
       <c r="D46" t="n">
-        <v>0.037413</v>
+        <v>0.0373165</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0539827</v>
+        <v>0.0538245</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0585157</v>
+        <v>0.0584404</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0397482</v>
+        <v>0.0396745</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0633736</v>
+        <v>0.06324390000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0689333</v>
+        <v>0.06880360000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0436274</v>
+        <v>0.0434986</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0759036</v>
+        <v>0.0758756</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0845277</v>
+        <v>0.08444749999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0491148</v>
+        <v>0.0490119</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0956423</v>
+        <v>0.09564739999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106603</v>
+        <v>0.106693</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0578509</v>
+        <v>0.057688</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12793</v>
+        <v>0.128064</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142647</v>
+        <v>0.141379</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0331695</v>
+        <v>0.0332751</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17413</v>
+        <v>0.174362</v>
       </c>
       <c r="C52" t="n">
-        <v>0.193134</v>
+        <v>0.192713</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0334494</v>
+        <v>0.0335544</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0361039</v>
+        <v>0.0363712</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0345318</v>
+        <v>0.0344067</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0337988</v>
+        <v>0.0335605</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.036589</v>
+        <v>0.0367844</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0353236</v>
+        <v>0.0351583</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0342681</v>
+        <v>0.0340801</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0374541</v>
+        <v>0.0376975</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0363145</v>
+        <v>0.0362659</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0346563</v>
+        <v>0.0344188</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387787</v>
+        <v>0.0387889</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0377306</v>
+        <v>0.0376491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0350813</v>
+        <v>0.0348081</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401547</v>
+        <v>0.0402999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0397173</v>
+        <v>0.0395773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.035482</v>
+        <v>0.0354303</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0421384</v>
+        <v>0.0423051</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0424987</v>
+        <v>0.042517</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0364566</v>
+        <v>0.0362023</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447292</v>
+        <v>0.0448696</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0457258</v>
+        <v>0.0457143</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0375332</v>
+        <v>0.0373475</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.048521</v>
+        <v>0.0485835</v>
       </c>
       <c r="C60" t="n">
-        <v>0.050392</v>
+        <v>0.0503799</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0387344</v>
+        <v>0.0386129</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538109</v>
+        <v>0.0538281</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0574091</v>
+        <v>0.0573583</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0409146</v>
+        <v>0.0408002</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0614782</v>
+        <v>0.0615067</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0671095</v>
+        <v>0.06705029999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0442967</v>
+        <v>0.04419</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728142</v>
+        <v>0.0728101</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0809879</v>
+        <v>0.08098859999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.049239</v>
+        <v>0.0492731</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0912116</v>
+        <v>0.0910905</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101168</v>
+        <v>0.101036</v>
       </c>
       <c r="D64" t="n">
-        <v>0.057282</v>
+        <v>0.0573459</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119348</v>
+        <v>0.119134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13391</v>
+        <v>0.133804</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0712216</v>
+        <v>0.0712188</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161653</v>
+        <v>0.161413</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182234</v>
+        <v>0.182148</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0395257</v>
+        <v>0.0400476</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411093</v>
+        <v>0.0411869</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0396139</v>
+        <v>0.0398268</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0399039</v>
+        <v>0.0403413</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417598</v>
+        <v>0.0418171</v>
       </c>
       <c r="C68" t="n">
-        <v>0.040465</v>
+        <v>0.0407373</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0402924</v>
+        <v>0.040697</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425046</v>
+        <v>0.0425826</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0416067</v>
+        <v>0.0418459</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0407426</v>
+        <v>0.0411593</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436236</v>
+        <v>0.0437326</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0428981</v>
+        <v>0.0430639</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0411956</v>
+        <v>0.0416086</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449412</v>
+        <v>0.0450523</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0444918</v>
+        <v>0.0446732</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0417659</v>
+        <v>0.0421913</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465162</v>
+        <v>0.0466204</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0468419</v>
+        <v>0.047106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0424392</v>
+        <v>0.0429105</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0486247</v>
+        <v>0.0487838</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0496822</v>
+        <v>0.0503886</v>
       </c>
       <c r="D73" t="n">
-        <v>0.043475</v>
+        <v>0.0439075</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517835</v>
+        <v>0.0519552</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0541038</v>
+        <v>0.0554221</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0447879</v>
+        <v>0.0452386</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.056589</v>
+        <v>0.0568162</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0607922</v>
+        <v>0.0619671</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0467972</v>
+        <v>0.047256</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0638703</v>
+        <v>0.0636867</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0698882</v>
+        <v>0.07113070000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.049585</v>
+        <v>0.0501678</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0746192</v>
+        <v>0.0745051</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08295859999999999</v>
+        <v>0.0840167</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0538244</v>
+        <v>0.0545767</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0908361</v>
+        <v>0.09036959999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100878</v>
+        <v>0.101844</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0610442</v>
+        <v>0.0615775</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114394</v>
+        <v>0.114923</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129217</v>
+        <v>0.129989</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0729794</v>
+        <v>0.0737004</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154295</v>
+        <v>0.154773</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173367</v>
+        <v>0.1738</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0451754</v>
+        <v>0.0452086</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0477504</v>
+        <v>0.0476761</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0479672</v>
+        <v>0.0480148</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0456815</v>
+        <v>0.0456823</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.049004</v>
+        <v>0.0488244</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0502499</v>
+        <v>0.0501748</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0463248</v>
+        <v>0.0463029</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0508367</v>
+        <v>0.0504838</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0526907</v>
+        <v>0.0526947</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0471313</v>
+        <v>0.0470957</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0527471</v>
+        <v>0.0524327</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0557437</v>
+        <v>0.0558312</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0479161</v>
+        <v>0.0479925</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0552661</v>
+        <v>0.0547837</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0595791</v>
+        <v>0.0595277</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0490926</v>
+        <v>0.0490129</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0582242</v>
+        <v>0.0580179</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0637244</v>
+        <v>0.0639624</v>
       </c>
       <c r="D86" t="n">
-        <v>0.050493</v>
+        <v>0.0504759</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0624305</v>
+        <v>0.0622594</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0684674</v>
+        <v>0.0687599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0522581</v>
+        <v>0.0522964</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0676599</v>
+        <v>0.0675658</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07483380000000001</v>
+        <v>0.0751131</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0547292</v>
+        <v>0.0547446</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07424500000000001</v>
+        <v>0.0743448</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0821117</v>
+        <v>0.0822234</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0578675</v>
+        <v>0.0580425</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08326749999999999</v>
+        <v>0.0832603</v>
       </c>
       <c r="C90" t="n">
-        <v>0.092151</v>
+        <v>0.09200369999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0623566</v>
+        <v>0.0626736</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0948934</v>
+        <v>0.0948248</v>
       </c>
       <c r="C91" t="n">
-        <v>0.104348</v>
+        <v>0.104268</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0685583</v>
+        <v>0.0687743</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110945</v>
+        <v>0.110685</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120879</v>
+        <v>0.12088</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0772587</v>
+        <v>0.0771766</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13405</v>
+        <v>0.133439</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145995</v>
+        <v>0.145971</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0905342</v>
+        <v>0.0903467</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167842</v>
+        <v>0.1676</v>
       </c>
       <c r="C94" t="n">
-        <v>0.184154</v>
+        <v>0.184587</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0550373</v>
+        <v>0.0556051</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0672913</v>
+        <v>0.06735240000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0681662</v>
+        <v>0.0684641</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0570172</v>
+        <v>0.056916</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0702889</v>
+        <v>0.07026159999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0709084</v>
+        <v>0.0710538</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0583705</v>
+        <v>0.0587317</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0732158</v>
+        <v>0.07311230000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0739242</v>
+        <v>0.0738413</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0601571</v>
+        <v>0.0602151</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0757656</v>
+        <v>0.0756184</v>
       </c>
       <c r="C98" t="n">
-        <v>0.077265</v>
+        <v>0.0770549</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0620278</v>
+        <v>0.0618569</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07842780000000001</v>
+        <v>0.0782456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08084570000000001</v>
+        <v>0.0807877</v>
       </c>
       <c r="D99" t="n">
-        <v>0.063806</v>
+        <v>0.0638918</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0819927</v>
+        <v>0.08173999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08532960000000001</v>
+        <v>0.0853753</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0659638</v>
+        <v>0.06594460000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0855909</v>
+        <v>0.08557480000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0905625</v>
+        <v>0.0902154</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0680407</v>
+        <v>0.0680143</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0905445</v>
+        <v>0.0903692</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0961716</v>
+        <v>0.0962956</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07031519999999999</v>
+        <v>0.07070559999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0964573</v>
+        <v>0.0959801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.103385</v>
+        <v>0.103188</v>
       </c>
       <c r="D103" t="n">
-        <v>0.073437</v>
+        <v>0.073513</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104056</v>
+        <v>0.104386</v>
       </c>
       <c r="C104" t="n">
-        <v>0.112746</v>
+        <v>0.113085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0773585</v>
+        <v>0.0776097</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115564</v>
+        <v>0.115607</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125325</v>
+        <v>0.125092</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0829854</v>
+        <v>0.0829889</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131087</v>
+        <v>0.131257</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141859</v>
+        <v>0.141733</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0909889</v>
+        <v>0.0909517</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152903</v>
+        <v>0.152521</v>
       </c>
       <c r="C107" t="n">
-        <v>0.165488</v>
+        <v>0.165456</v>
       </c>
       <c r="D107" t="n">
-        <v>0.103764</v>
+        <v>0.103451</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183458</v>
+        <v>0.183221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.202382</v>
+        <v>0.202399</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0627847</v>
+        <v>0.0626067</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230357</v>
+        <v>0.230077</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263245</v>
+        <v>0.262971</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0638758</v>
+        <v>0.0641909</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803541</v>
+        <v>0.0803656</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08618720000000001</v>
+        <v>0.0859494</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0650226</v>
+        <v>0.06457350000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08367230000000001</v>
+        <v>0.08352420000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0888384</v>
+        <v>0.0888675</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0662131</v>
+        <v>0.06648610000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0869606</v>
+        <v>0.0870297</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0918653</v>
+        <v>0.0916889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06771919999999999</v>
+        <v>0.0677749</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0913549</v>
+        <v>0.0911419</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0953333</v>
+        <v>0.0951482</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07016020000000001</v>
+        <v>0.0696175</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0958098</v>
+        <v>0.0957117</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0992485</v>
+        <v>0.09905079999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0723323</v>
+        <v>0.0720476</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100982</v>
+        <v>0.100815</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104092</v>
+        <v>0.103767</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07527449999999999</v>
+        <v>0.0748904</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10686</v>
+        <v>0.106985</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110033</v>
+        <v>0.109637</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0789305</v>
+        <v>0.0787817</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113788</v>
+        <v>0.113827</v>
       </c>
       <c r="C117" t="n">
-        <v>0.11726</v>
+        <v>0.117023</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0835611</v>
+        <v>0.083523</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122093</v>
+        <v>0.122079</v>
       </c>
       <c r="C118" t="n">
-        <v>0.126468</v>
+        <v>0.126317</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0894442</v>
+        <v>0.08879040000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132312</v>
+        <v>0.132287</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137918</v>
+        <v>0.137989</v>
       </c>
       <c r="D119" t="n">
-        <v>0.096419</v>
+        <v>0.0961263</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145674</v>
+        <v>0.145904</v>
       </c>
       <c r="C120" t="n">
-        <v>0.153722</v>
+        <v>0.153973</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105394</v>
+        <v>0.105543</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164469</v>
+        <v>0.164617</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175657</v>
+        <v>0.175633</v>
       </c>
       <c r="D121" t="n">
-        <v>0.118344</v>
+        <v>0.118383</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191516</v>
+        <v>0.191564</v>
       </c>
       <c r="C122" t="n">
-        <v>0.209159</v>
+        <v>0.209288</v>
       </c>
       <c r="D122" t="n">
-        <v>0.138109</v>
+        <v>0.13852</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232535</v>
+        <v>0.23252</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264207</v>
+        <v>0.264362</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08453579999999999</v>
+        <v>0.08857810000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103333</v>
+        <v>0.103076</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10447</v>
+        <v>0.10709</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0880446</v>
+        <v>0.0921534</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105236</v>
+        <v>0.106457</v>
       </c>
       <c r="C125" t="n">
-        <v>0.107411</v>
+        <v>0.108792</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0903693</v>
+        <v>0.0922935</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109679</v>
+        <v>0.107499</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110183</v>
+        <v>0.111552</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09253359999999999</v>
+        <v>0.0936671</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111943</v>
+        <v>0.111679</v>
       </c>
       <c r="C127" t="n">
-        <v>0.115597</v>
+        <v>0.114127</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0977261</v>
+        <v>0.09419719999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113262</v>
+        <v>0.112201</v>
       </c>
       <c r="C128" t="n">
-        <v>0.11749</v>
+        <v>0.118618</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0960308</v>
+        <v>0.0978033</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119175</v>
+        <v>0.117004</v>
       </c>
       <c r="C129" t="n">
-        <v>0.123392</v>
+        <v>0.121627</v>
       </c>
       <c r="D129" t="n">
-        <v>0.100823</v>
+        <v>0.0981585</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.124932</v>
+        <v>0.121404</v>
       </c>
       <c r="C130" t="n">
-        <v>0.126956</v>
+        <v>0.129428</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100598</v>
+        <v>0.104466</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127108</v>
+        <v>0.126163</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13422</v>
+        <v>0.134888</v>
       </c>
       <c r="D131" t="n">
-        <v>0.105224</v>
+        <v>0.106477</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133105</v>
+        <v>0.133839</v>
       </c>
       <c r="C132" t="n">
-        <v>0.142228</v>
+        <v>0.143239</v>
       </c>
       <c r="D132" t="n">
-        <v>0.108447</v>
+        <v>0.110911</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142556</v>
+        <v>0.142018</v>
       </c>
       <c r="C133" t="n">
-        <v>0.153435</v>
+        <v>0.154672</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114549</v>
+        <v>0.116661</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153975</v>
+        <v>0.153203</v>
       </c>
       <c r="C134" t="n">
-        <v>0.167201</v>
+        <v>0.168745</v>
       </c>
       <c r="D134" t="n">
-        <v>0.120596</v>
+        <v>0.122494</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171792</v>
+        <v>0.171171</v>
       </c>
       <c r="C135" t="n">
-        <v>0.188726</v>
+        <v>0.189485</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132505</v>
+        <v>0.133504</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196071</v>
+        <v>0.195713</v>
       </c>
       <c r="C136" t="n">
-        <v>0.220142</v>
+        <v>0.220749</v>
       </c>
       <c r="D136" t="n">
-        <v>0.149178</v>
+        <v>0.150018</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235079</v>
+        <v>0.235514</v>
       </c>
       <c r="C137" t="n">
-        <v>0.270216</v>
+        <v>0.270407</v>
       </c>
       <c r="D137" t="n">
-        <v>0.163896</v>
+        <v>0.165206</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166329</v>
+        <v>0.167191</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164843</v>
+        <v>0.164195</v>
       </c>
       <c r="D138" t="n">
-        <v>0.165862</v>
+        <v>0.16518</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169046</v>
+        <v>0.168273</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167375</v>
+        <v>0.166909</v>
       </c>
       <c r="D139" t="n">
-        <v>0.167521</v>
+        <v>0.167532</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171078</v>
+        <v>0.170813</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169871</v>
+        <v>0.168988</v>
       </c>
       <c r="D140" t="n">
-        <v>0.169517</v>
+        <v>0.168205</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.171696</v>
+        <v>0.172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172711</v>
+        <v>0.172684</v>
       </c>
       <c r="D141" t="n">
-        <v>0.171017</v>
+        <v>0.170925</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174138</v>
+        <v>0.173219</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175485</v>
+        <v>0.175499</v>
       </c>
       <c r="D142" t="n">
-        <v>0.172827</v>
+        <v>0.17234</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177365</v>
+        <v>0.17651</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179566</v>
+        <v>0.17966</v>
       </c>
       <c r="D143" t="n">
-        <v>0.174432</v>
+        <v>0.174837</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322788</v>
+        <v>0.0323151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0342768</v>
+        <v>0.0338794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324687</v>
+        <v>0.0323838</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331332</v>
+        <v>0.0331556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357721</v>
+        <v>0.035789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0330661</v>
+        <v>0.0330192</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.035062</v>
+        <v>0.0349535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0411116</v>
+        <v>0.0411131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0340105</v>
+        <v>0.0340448</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0403201</v>
+        <v>0.0407009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0507413</v>
+        <v>0.050516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0354644</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0541045</v>
+        <v>0.0542908</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0669471</v>
+        <v>0.0670888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0378637</v>
+        <v>0.0380801</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0810686</v>
+        <v>0.080564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.089833</v>
+        <v>0.0899732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.043267</v>
+        <v>0.0432626</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12154</v>
+        <v>0.12113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118492</v>
+        <v>0.118327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0552275</v>
+        <v>0.0551339</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.163321</v>
+        <v>0.162678</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16615</v>
+        <v>0.165609</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300425</v>
+        <v>0.0300276</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0312787</v>
+        <v>0.0314451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294441</v>
+        <v>0.0293587</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302644</v>
+        <v>0.0302312</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0318789</v>
+        <v>0.0320766</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0300666</v>
+        <v>0.0299893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030591</v>
+        <v>0.0305356</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0321046</v>
+        <v>0.0322158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0310424</v>
+        <v>0.0309649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0309711</v>
+        <v>0.0308382</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032697</v>
+        <v>0.0326814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0320281</v>
+        <v>0.0320293</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0313899</v>
+        <v>0.0312793</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334331</v>
+        <v>0.0334043</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0334452</v>
+        <v>0.0334574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317529</v>
+        <v>0.0317671</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341454</v>
+        <v>0.0341066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0350749</v>
+        <v>0.0351136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0323372</v>
+        <v>0.0322812</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0354781</v>
+        <v>0.0354493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378331</v>
+        <v>0.0376618</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0331889</v>
+        <v>0.0331131</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0371925</v>
+        <v>0.0372884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0413075</v>
+        <v>0.0411769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0339247</v>
+        <v>0.0338388</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0410831</v>
+        <v>0.0411052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0485321</v>
+        <v>0.0485092</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0354085</v>
+        <v>0.0353067</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488542</v>
+        <v>0.0491065</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0571255</v>
+        <v>0.0566624</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367422</v>
+        <v>0.0367332</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621658</v>
+        <v>0.0619855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06986580000000001</v>
+        <v>0.06997390000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0399659</v>
+        <v>0.0401538</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.080896</v>
+        <v>0.0809455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09080770000000001</v>
+        <v>0.09079420000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468203</v>
+        <v>0.046772</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108327</v>
+        <v>0.108337</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117738</v>
+        <v>0.11783</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0592316</v>
+        <v>0.059146</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149093</v>
+        <v>0.149553</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16195</v>
+        <v>0.162328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0309315</v>
+        <v>0.0307061</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333848</v>
+        <v>0.0331891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0314397</v>
+        <v>0.0313847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0313086</v>
+        <v>0.0310604</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0339545</v>
+        <v>0.0338386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.032223</v>
+        <v>0.0320027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0316063</v>
+        <v>0.0313011</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345781</v>
+        <v>0.0345195</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0329279</v>
+        <v>0.0328445</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0319913</v>
+        <v>0.0317333</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0353015</v>
+        <v>0.035207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0342199</v>
+        <v>0.0342402</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0325796</v>
+        <v>0.0322554</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0359469</v>
+        <v>0.0359246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0355328</v>
+        <v>0.0356017</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0331034</v>
+        <v>0.0326286</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374776</v>
+        <v>0.037398</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0372901</v>
+        <v>0.0372687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0335586</v>
+        <v>0.0331743</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0393763</v>
+        <v>0.0394494</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0403122</v>
+        <v>0.040209</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0341919</v>
+        <v>0.0340947</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424466</v>
+        <v>0.0424221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0441935</v>
+        <v>0.0442562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0352286</v>
+        <v>0.0349695</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0470328</v>
+        <v>0.0471251</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0508222</v>
+        <v>0.0506972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0365862</v>
+        <v>0.036216</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539159</v>
+        <v>0.0540341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590921</v>
+        <v>0.0591509</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0387865</v>
+        <v>0.0385609</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644861</v>
+        <v>0.0645559</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0707547</v>
+        <v>0.0706986</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0421876</v>
+        <v>0.0419655</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0796148</v>
+        <v>0.07970869999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0859333</v>
+        <v>0.08587450000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0490286</v>
+        <v>0.04884</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101083</v>
+        <v>0.101214</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114191</v>
+        <v>0.113959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0602343</v>
+        <v>0.0600111</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136122</v>
+        <v>0.136295</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153962</v>
+        <v>0.153778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0313965</v>
+        <v>0.0311936</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0337801</v>
+        <v>0.033484</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0323573</v>
+        <v>0.0321212</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0316983</v>
+        <v>0.0314316</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0344943</v>
+        <v>0.0343619</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0330289</v>
+        <v>0.0327594</v>
       </c>
       <c r="D39" t="n">
-        <v>0.031878</v>
+        <v>0.0316539</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351494</v>
+        <v>0.0350351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0338368</v>
+        <v>0.0337336</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0323256</v>
+        <v>0.0320506</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360683</v>
+        <v>0.0359856</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0348458</v>
+        <v>0.0348056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0326954</v>
+        <v>0.0324339</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.037024</v>
+        <v>0.0370662</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0366249</v>
+        <v>0.0364459</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0332002</v>
+        <v>0.0329765</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386109</v>
+        <v>0.0385565</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0387234</v>
+        <v>0.0387803</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0338815</v>
+        <v>0.0336413</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405893</v>
+        <v>0.0405496</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410739</v>
+        <v>0.0410714</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0345806</v>
+        <v>0.034329</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.043338</v>
+        <v>0.0433964</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0456576</v>
+        <v>0.0455335</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0356033</v>
+        <v>0.0353838</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474667</v>
+        <v>0.0475205</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0514457</v>
+        <v>0.0513355</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0373165</v>
+        <v>0.0370686</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538245</v>
+        <v>0.053851</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0584404</v>
+        <v>0.0582668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0396745</v>
+        <v>0.039518</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06324390000000001</v>
+        <v>0.0633046</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06880360000000001</v>
+        <v>0.0686995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0434986</v>
+        <v>0.0433126</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0758756</v>
+        <v>0.0758635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08444749999999999</v>
+        <v>0.08435520000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0490119</v>
+        <v>0.0488702</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09564739999999999</v>
+        <v>0.095556</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106693</v>
+        <v>0.106605</v>
       </c>
       <c r="D50" t="n">
-        <v>0.057688</v>
+        <v>0.0575799</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.128064</v>
+        <v>0.12815</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141379</v>
+        <v>0.141913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0332751</v>
+        <v>0.033279</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174362</v>
+        <v>0.17423</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192713</v>
+        <v>0.192622</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0335544</v>
+        <v>0.0333467</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0363712</v>
+        <v>0.0360828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0344067</v>
+        <v>0.0344284</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0335605</v>
+        <v>0.0334862</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0367844</v>
+        <v>0.0366331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0351583</v>
+        <v>0.0351542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0340801</v>
+        <v>0.0339917</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0376975</v>
+        <v>0.0375517</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0362659</v>
+        <v>0.0363037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0344188</v>
+        <v>0.0343182</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387889</v>
+        <v>0.0388184</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0376491</v>
+        <v>0.0376561</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0348081</v>
+        <v>0.0348504</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402999</v>
+        <v>0.0402042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0395773</v>
+        <v>0.0396524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0354303</v>
+        <v>0.0353959</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423051</v>
+        <v>0.0422107</v>
       </c>
       <c r="C58" t="n">
-        <v>0.042517</v>
+        <v>0.0425586</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0362023</v>
+        <v>0.0361797</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0448696</v>
+        <v>0.0447972</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0457143</v>
+        <v>0.0457621</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0373475</v>
+        <v>0.0372756</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485835</v>
+        <v>0.0485457</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0503799</v>
+        <v>0.0504231</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0386129</v>
+        <v>0.0385887</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538281</v>
+        <v>0.0538629</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0573583</v>
+        <v>0.0573845</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0408002</v>
+        <v>0.0407473</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0615067</v>
+        <v>0.0615348</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06705029999999999</v>
+        <v>0.0670907</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04419</v>
+        <v>0.0441428</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728101</v>
+        <v>0.0728086</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08098859999999999</v>
+        <v>0.0810389</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0492731</v>
+        <v>0.0492622</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0910905</v>
+        <v>0.0911761</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101036</v>
+        <v>0.101118</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0573459</v>
+        <v>0.0572294</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119134</v>
+        <v>0.119261</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133804</v>
+        <v>0.134009</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0712188</v>
+        <v>0.07114620000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161413</v>
+        <v>0.161377</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182148</v>
+        <v>0.182397</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0400476</v>
+        <v>0.0395779</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411869</v>
+        <v>0.0417157</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0398268</v>
+        <v>0.0396612</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0403413</v>
+        <v>0.0399043</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0418171</v>
+        <v>0.0423114</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0407373</v>
+        <v>0.0406029</v>
       </c>
       <c r="D68" t="n">
-        <v>0.040697</v>
+        <v>0.0403213</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425826</v>
+        <v>0.0431605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0418459</v>
+        <v>0.041722</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0411593</v>
+        <v>0.0407282</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437326</v>
+        <v>0.0442759</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0430639</v>
+        <v>0.0430057</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0416086</v>
+        <v>0.0412458</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450523</v>
+        <v>0.0455658</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0446732</v>
+        <v>0.044598</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0421913</v>
+        <v>0.0418425</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466204</v>
+        <v>0.0471473</v>
       </c>
       <c r="C72" t="n">
-        <v>0.047106</v>
+        <v>0.0469616</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0429105</v>
+        <v>0.0425497</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487838</v>
+        <v>0.0492954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0503886</v>
+        <v>0.0502298</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0439075</v>
+        <v>0.0435466</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0519552</v>
+        <v>0.0524338</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0554221</v>
+        <v>0.0546583</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0452386</v>
+        <v>0.0448569</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0568162</v>
+        <v>0.0572417</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0619671</v>
+        <v>0.0611422</v>
       </c>
       <c r="D75" t="n">
-        <v>0.047256</v>
+        <v>0.0468624</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0636867</v>
+        <v>0.0641029</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07113070000000001</v>
+        <v>0.0701672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0501678</v>
+        <v>0.0496555</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745051</v>
+        <v>0.0746632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0840167</v>
+        <v>0.0831317</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0545767</v>
+        <v>0.0539403</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09036959999999999</v>
+        <v>0.0905103</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101844</v>
+        <v>0.101035</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0615775</v>
+        <v>0.0606508</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114923</v>
+        <v>0.115073</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129989</v>
+        <v>0.129328</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0737004</v>
+        <v>0.072356</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154773</v>
+        <v>0.155048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1738</v>
+        <v>0.173349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0452086</v>
+        <v>0.0450865</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476761</v>
+        <v>0.0477743</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0480148</v>
+        <v>0.0475515</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0456823</v>
+        <v>0.0454672</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0488244</v>
+        <v>0.0490832</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0501748</v>
+        <v>0.0498146</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0463029</v>
+        <v>0.0460229</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504838</v>
+        <v>0.0509188</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0526947</v>
+        <v>0.0524238</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0470957</v>
+        <v>0.0466762</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0524327</v>
+        <v>0.0529913</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0558312</v>
+        <v>0.0556444</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0479925</v>
+        <v>0.0475931</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547837</v>
+        <v>0.0559208</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0595277</v>
+        <v>0.0594874</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0490129</v>
+        <v>0.0488586</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580179</v>
+        <v>0.058776</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0639624</v>
+        <v>0.0635821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0504759</v>
+        <v>0.0502462</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0622594</v>
+        <v>0.0628263</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0687599</v>
+        <v>0.0683983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0522964</v>
+        <v>0.0520503</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675658</v>
+        <v>0.06805509999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0751131</v>
+        <v>0.0747843</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0547446</v>
+        <v>0.0548586</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0743448</v>
+        <v>0.07477159999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0822234</v>
+        <v>0.0823188</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0580425</v>
+        <v>0.0579528</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0832603</v>
+        <v>0.0838169</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09200369999999999</v>
+        <v>0.0924571</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0626736</v>
+        <v>0.0622677</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0948248</v>
+        <v>0.0955319</v>
       </c>
       <c r="C91" t="n">
-        <v>0.104268</v>
+        <v>0.104631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0687743</v>
+        <v>0.068484</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110685</v>
+        <v>0.111711</v>
       </c>
       <c r="C92" t="n">
-        <v>0.12088</v>
+        <v>0.121204</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0771766</v>
+        <v>0.07710699999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133439</v>
+        <v>0.134789</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145971</v>
+        <v>0.146268</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0903467</v>
+        <v>0.09031790000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1676</v>
+        <v>0.168961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.184587</v>
+        <v>0.18469</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0556051</v>
+        <v>0.0542971</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06735240000000001</v>
+        <v>0.0684902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0684641</v>
+        <v>0.0681369</v>
       </c>
       <c r="D95" t="n">
-        <v>0.056916</v>
+        <v>0.0558693</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07026159999999999</v>
+        <v>0.0708709</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0710538</v>
+        <v>0.0711026</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0587317</v>
+        <v>0.0576542</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07311230000000001</v>
+        <v>0.07254770000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0738413</v>
+        <v>0.0742066</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0602151</v>
+        <v>0.0600169</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0756184</v>
+        <v>0.0753026</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0770549</v>
+        <v>0.0778051</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0618569</v>
+        <v>0.0617599</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0782456</v>
+        <v>0.07871880000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0807877</v>
+        <v>0.0812174</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0638918</v>
+        <v>0.0627229</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08173999999999999</v>
+        <v>0.08238570000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0853753</v>
+        <v>0.08608150000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06594460000000001</v>
+        <v>0.06486</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08557480000000001</v>
+        <v>0.085316</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0902154</v>
+        <v>0.0912404</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0680143</v>
+        <v>0.06776359999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0903692</v>
+        <v>0.09083919999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0962956</v>
+        <v>0.09691180000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07070559999999999</v>
+        <v>0.06944409999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0959801</v>
+        <v>0.09727710000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.103188</v>
+        <v>0.104228</v>
       </c>
       <c r="D103" t="n">
-        <v>0.073513</v>
+        <v>0.07368329999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104386</v>
+        <v>0.103826</v>
       </c>
       <c r="C104" t="n">
-        <v>0.113085</v>
+        <v>0.114196</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0776097</v>
+        <v>0.07773679999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115607</v>
+        <v>0.114522</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125092</v>
+        <v>0.126317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0829889</v>
+        <v>0.0834001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131257</v>
+        <v>0.131753</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141733</v>
+        <v>0.140748</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0909517</v>
+        <v>0.089971</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152521</v>
+        <v>0.151551</v>
       </c>
       <c r="C107" t="n">
-        <v>0.165456</v>
+        <v>0.166503</v>
       </c>
       <c r="D107" t="n">
-        <v>0.103451</v>
+        <v>0.104202</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183221</v>
+        <v>0.184261</v>
       </c>
       <c r="C108" t="n">
-        <v>0.202399</v>
+        <v>0.203465</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0626067</v>
+        <v>0.0630317</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230077</v>
+        <v>0.230949</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262971</v>
+        <v>0.264033</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0641909</v>
+        <v>0.06434040000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803656</v>
+        <v>0.0813634</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0859494</v>
+        <v>0.0868709</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06457350000000001</v>
+        <v>0.0653712</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08352420000000001</v>
+        <v>0.0844825</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0888675</v>
+        <v>0.09006790000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06648610000000001</v>
+        <v>0.0670568</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0870297</v>
+        <v>0.08660080000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0916889</v>
+        <v>0.09275</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0677749</v>
+        <v>0.06890400000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0911419</v>
+        <v>0.09075809999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0951482</v>
+        <v>0.0966909</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0696175</v>
+        <v>0.071101</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0957117</v>
+        <v>0.09659230000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09905079999999999</v>
+        <v>0.100596</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0720476</v>
+        <v>0.07317319999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100815</v>
+        <v>0.101537</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103767</v>
+        <v>0.105076</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0748904</v>
+        <v>0.0761177</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106985</v>
+        <v>0.107778</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109637</v>
+        <v>0.111286</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0787817</v>
+        <v>0.0800973</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113827</v>
+        <v>0.114491</v>
       </c>
       <c r="C117" t="n">
-        <v>0.117023</v>
+        <v>0.118273</v>
       </c>
       <c r="D117" t="n">
-        <v>0.083523</v>
+        <v>0.084261</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122079</v>
+        <v>0.123061</v>
       </c>
       <c r="C118" t="n">
-        <v>0.126317</v>
+        <v>0.127123</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08879040000000001</v>
+        <v>0.09017210000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132287</v>
+        <v>0.133282</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137989</v>
+        <v>0.139091</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0961263</v>
+        <v>0.0971649</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145904</v>
+        <v>0.14676</v>
       </c>
       <c r="C120" t="n">
-        <v>0.153973</v>
+        <v>0.154985</v>
       </c>
       <c r="D120" t="n">
-        <v>0.105543</v>
+        <v>0.106413</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164617</v>
+        <v>0.165652</v>
       </c>
       <c r="C121" t="n">
-        <v>0.175633</v>
+        <v>0.176901</v>
       </c>
       <c r="D121" t="n">
-        <v>0.118383</v>
+        <v>0.119188</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191564</v>
+        <v>0.192721</v>
       </c>
       <c r="C122" t="n">
-        <v>0.209288</v>
+        <v>0.210525</v>
       </c>
       <c r="D122" t="n">
-        <v>0.13852</v>
+        <v>0.138962</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23252</v>
+        <v>0.234269</v>
       </c>
       <c r="C123" t="n">
-        <v>0.264362</v>
+        <v>0.265491</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08857810000000001</v>
+        <v>0.0852918</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103076</v>
+        <v>0.105423</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10709</v>
+        <v>0.109161</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0921534</v>
+        <v>0.0938095</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106457</v>
+        <v>0.105544</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108792</v>
+        <v>0.109943</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0922935</v>
+        <v>0.09192210000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107499</v>
+        <v>0.10894</v>
       </c>
       <c r="C126" t="n">
-        <v>0.111552</v>
+        <v>0.11376</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0936671</v>
+        <v>0.09573520000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111679</v>
+        <v>0.110838</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114127</v>
+        <v>0.114633</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09419719999999999</v>
+        <v>0.0941316</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112201</v>
+        <v>0.114771</v>
       </c>
       <c r="C128" t="n">
-        <v>0.118618</v>
+        <v>0.119352</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0978033</v>
+        <v>0.097831</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117004</v>
+        <v>0.118086</v>
       </c>
       <c r="C129" t="n">
-        <v>0.121627</v>
+        <v>0.12249</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0981585</v>
+        <v>0.0985149</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121404</v>
+        <v>0.12344</v>
       </c>
       <c r="C130" t="n">
-        <v>0.129428</v>
+        <v>0.129223</v>
       </c>
       <c r="D130" t="n">
-        <v>0.104466</v>
+        <v>0.10304</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126163</v>
+        <v>0.127045</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134888</v>
+        <v>0.134746</v>
       </c>
       <c r="D131" t="n">
-        <v>0.106477</v>
+        <v>0.104518</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133839</v>
+        <v>0.135507</v>
       </c>
       <c r="C132" t="n">
-        <v>0.143239</v>
+        <v>0.144041</v>
       </c>
       <c r="D132" t="n">
-        <v>0.110911</v>
+        <v>0.109597</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142018</v>
+        <v>0.146382</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154672</v>
+        <v>0.153977</v>
       </c>
       <c r="D133" t="n">
-        <v>0.116661</v>
+        <v>0.113726</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153203</v>
+        <v>0.156702</v>
       </c>
       <c r="C134" t="n">
-        <v>0.168745</v>
+        <v>0.170463</v>
       </c>
       <c r="D134" t="n">
-        <v>0.122494</v>
+        <v>0.123479</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171171</v>
+        <v>0.171837</v>
       </c>
       <c r="C135" t="n">
-        <v>0.189485</v>
+        <v>0.189541</v>
       </c>
       <c r="D135" t="n">
-        <v>0.133504</v>
+        <v>0.131717</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195713</v>
+        <v>0.197839</v>
       </c>
       <c r="C136" t="n">
-        <v>0.220749</v>
+        <v>0.223293</v>
       </c>
       <c r="D136" t="n">
-        <v>0.150018</v>
+        <v>0.151934</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235514</v>
+        <v>0.237717</v>
       </c>
       <c r="C137" t="n">
-        <v>0.270407</v>
+        <v>0.269877</v>
       </c>
       <c r="D137" t="n">
-        <v>0.165206</v>
+        <v>0.173951</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167191</v>
+        <v>0.169636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164195</v>
+        <v>0.172892</v>
       </c>
       <c r="D138" t="n">
-        <v>0.16518</v>
+        <v>0.175114</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168273</v>
+        <v>0.165826</v>
       </c>
       <c r="C139" t="n">
-        <v>0.166909</v>
+        <v>0.174118</v>
       </c>
       <c r="D139" t="n">
-        <v>0.167532</v>
+        <v>0.175687</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170813</v>
+        <v>0.172896</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168988</v>
+        <v>0.176414</v>
       </c>
       <c r="D140" t="n">
-        <v>0.168205</v>
+        <v>0.176395</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172</v>
+        <v>0.17511</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172684</v>
+        <v>0.179239</v>
       </c>
       <c r="D141" t="n">
-        <v>0.170925</v>
+        <v>0.178543</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.173219</v>
+        <v>0.179208</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175499</v>
+        <v>0.181721</v>
       </c>
       <c r="D142" t="n">
-        <v>0.17234</v>
+        <v>0.179178</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17651</v>
+        <v>0.185928</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17966</v>
+        <v>0.185984</v>
       </c>
       <c r="D143" t="n">
-        <v>0.174837</v>
+        <v>0.181482</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323151</v>
+        <v>0.0322331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338794</v>
+        <v>0.034071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0323838</v>
+        <v>0.0324046</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331556</v>
+        <v>0.0330485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.035789</v>
+        <v>0.0357366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0330192</v>
+        <v>0.0329275</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349535</v>
+        <v>0.0350936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0411131</v>
+        <v>0.040988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0340448</v>
+        <v>0.0341716</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0407009</v>
+        <v>0.0408207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.050516</v>
+        <v>0.0507201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355</v>
+        <v>0.0355581</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0542908</v>
+        <v>0.0542717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0670888</v>
+        <v>0.06682920000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0380801</v>
+        <v>0.0381613</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.080564</v>
+        <v>0.0807498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0899732</v>
+        <v>0.08978269999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0432626</v>
+        <v>0.0431168</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12113</v>
+        <v>0.121545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118327</v>
+        <v>0.118494</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0551339</v>
+        <v>0.0556869</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162678</v>
+        <v>0.1628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165609</v>
+        <v>0.165765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300276</v>
+        <v>0.029983</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0314451</v>
+        <v>0.0315846</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0293587</v>
+        <v>0.0294249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302312</v>
+        <v>0.0302251</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0320766</v>
+        <v>0.0321544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0299893</v>
+        <v>0.0300397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0305356</v>
+        <v>0.0305511</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0322158</v>
+        <v>0.0322878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0309649</v>
+        <v>0.0310611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308382</v>
+        <v>0.0308132</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0326814</v>
+        <v>0.0327444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0320293</v>
+        <v>0.0319622</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0312793</v>
+        <v>0.0312379</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0334043</v>
+        <v>0.0335134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0334574</v>
+        <v>0.033367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317671</v>
+        <v>0.0317159</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341066</v>
+        <v>0.0341231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0351136</v>
+        <v>0.0350421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0322812</v>
+        <v>0.0322953</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0354493</v>
+        <v>0.0356433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0376618</v>
+        <v>0.0378048</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0331131</v>
+        <v>0.0331443</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0372884</v>
+        <v>0.0373382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0411769</v>
+        <v>0.0412266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0338388</v>
+        <v>0.0338399</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0411052</v>
+        <v>0.0412258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0485092</v>
+        <v>0.0486739</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0353067</v>
+        <v>0.0353771</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491065</v>
+        <v>0.0490927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0566624</v>
+        <v>0.0568536</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367332</v>
+        <v>0.0366627</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0619855</v>
+        <v>0.0621953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06997390000000001</v>
+        <v>0.06996910000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0401538</v>
+        <v>0.0401048</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0809455</v>
+        <v>0.0808701</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09079420000000001</v>
+        <v>0.09093130000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.046772</v>
+        <v>0.0472512</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108337</v>
+        <v>0.108312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11783</v>
+        <v>0.118077</v>
       </c>
       <c r="D22" t="n">
-        <v>0.059146</v>
+        <v>0.0593901</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149553</v>
+        <v>0.149461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.162328</v>
+        <v>0.163142</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307061</v>
+        <v>0.0307498</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0331891</v>
+        <v>0.0333798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0313847</v>
+        <v>0.0312544</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0310604</v>
+        <v>0.031142</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338386</v>
+        <v>0.0341346</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0320027</v>
+        <v>0.0321344</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0313011</v>
+        <v>0.0313908</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345195</v>
+        <v>0.0346872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0328445</v>
+        <v>0.0329445</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0317333</v>
+        <v>0.0317964</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.035207</v>
+        <v>0.0354184</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0342402</v>
+        <v>0.0341746</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0322554</v>
+        <v>0.0323288</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0359246</v>
+        <v>0.0360305</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0356017</v>
+        <v>0.0353401</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0326286</v>
+        <v>0.0328083</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.037398</v>
+        <v>0.0374874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0372687</v>
+        <v>0.0371772</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0331743</v>
+        <v>0.0332618</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394494</v>
+        <v>0.0394869</v>
       </c>
       <c r="C30" t="n">
-        <v>0.040209</v>
+        <v>0.0400349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0340947</v>
+        <v>0.0339941</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0424221</v>
+        <v>0.042504</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442562</v>
+        <v>0.0439507</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0349695</v>
+        <v>0.0350286</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0471251</v>
+        <v>0.0470694</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0506972</v>
+        <v>0.0506284</v>
       </c>
       <c r="D32" t="n">
-        <v>0.036216</v>
+        <v>0.0362891</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0540341</v>
+        <v>0.0539981</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0591509</v>
+        <v>0.0591224</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0385609</v>
+        <v>0.0385046</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645559</v>
+        <v>0.0645297</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0706986</v>
+        <v>0.07061340000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0419655</v>
+        <v>0.0421342</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07970869999999999</v>
+        <v>0.0795752</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08587450000000001</v>
+        <v>0.0856775</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04884</v>
+        <v>0.0489208</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101214</v>
+        <v>0.1012</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113959</v>
+        <v>0.113825</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0600111</v>
+        <v>0.06009</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136295</v>
+        <v>0.136203</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153778</v>
+        <v>0.154712</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0311936</v>
+        <v>0.0312047</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033484</v>
+        <v>0.0334764</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0321212</v>
+        <v>0.0321901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0314316</v>
+        <v>0.0314722</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343619</v>
+        <v>0.0343733</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327594</v>
+        <v>0.0327394</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0316539</v>
+        <v>0.0316733</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350351</v>
+        <v>0.0350523</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0337336</v>
+        <v>0.0337859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0320506</v>
+        <v>0.0320899</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359856</v>
+        <v>0.0359942</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0348056</v>
+        <v>0.0346331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0324339</v>
+        <v>0.0324482</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370662</v>
+        <v>0.0370931</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0364459</v>
+        <v>0.036505</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0329765</v>
+        <v>0.0329613</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385565</v>
+        <v>0.0386232</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0387803</v>
+        <v>0.038648</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0336413</v>
+        <v>0.0336447</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405496</v>
+        <v>0.0405454</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410714</v>
+        <v>0.0409577</v>
       </c>
       <c r="D44" t="n">
-        <v>0.034329</v>
+        <v>0.0343941</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433964</v>
+        <v>0.0434457</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455335</v>
+        <v>0.0455177</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0353838</v>
+        <v>0.0354022</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475205</v>
+        <v>0.0475168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0513355</v>
+        <v>0.0513755</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0370686</v>
+        <v>0.0371172</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053851</v>
+        <v>0.0538675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0582668</v>
+        <v>0.0582472</v>
       </c>
       <c r="D47" t="n">
-        <v>0.039518</v>
+        <v>0.0394345</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0633046</v>
+        <v>0.0632075</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0686995</v>
+        <v>0.06866269999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0433126</v>
+        <v>0.04335</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0758635</v>
+        <v>0.0758176</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08435520000000001</v>
+        <v>0.0843756</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0488702</v>
+        <v>0.0488714</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.095556</v>
+        <v>0.0955833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106605</v>
+        <v>0.106293</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0575799</v>
+        <v>0.0575722</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12815</v>
+        <v>0.128083</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141913</v>
+        <v>0.142732</v>
       </c>
       <c r="D51" t="n">
-        <v>0.033279</v>
+        <v>0.0330741</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17423</v>
+        <v>0.174151</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192622</v>
+        <v>0.193342</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0333467</v>
+        <v>0.0330459</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0360828</v>
+        <v>0.0365825</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0344284</v>
+        <v>0.034145</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0334862</v>
+        <v>0.0333892</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366331</v>
+        <v>0.0373265</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0351542</v>
+        <v>0.0348977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0339917</v>
+        <v>0.0338502</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375517</v>
+        <v>0.0380033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0363037</v>
+        <v>0.0360507</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0343182</v>
+        <v>0.0343903</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388184</v>
+        <v>0.0393262</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0376561</v>
+        <v>0.0373719</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0348504</v>
+        <v>0.0348202</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402042</v>
+        <v>0.0406364</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0396524</v>
+        <v>0.0394061</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0353959</v>
+        <v>0.0351909</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0422107</v>
+        <v>0.0424921</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0425586</v>
+        <v>0.0423061</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0361797</v>
+        <v>0.035943</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447972</v>
+        <v>0.0451037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0457621</v>
+        <v>0.045489</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0372756</v>
+        <v>0.0369836</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485457</v>
+        <v>0.0489264</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0504231</v>
+        <v>0.0501571</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0385887</v>
+        <v>0.0383543</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538629</v>
+        <v>0.0542074</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0573845</v>
+        <v>0.0571484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0407473</v>
+        <v>0.0404921</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0615348</v>
+        <v>0.0617824</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0670907</v>
+        <v>0.0667938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0441428</v>
+        <v>0.0439107</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728086</v>
+        <v>0.07299940000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0810389</v>
+        <v>0.0806991</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0492622</v>
+        <v>0.0489466</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0911761</v>
+        <v>0.0914078</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101118</v>
+        <v>0.100983</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0572294</v>
+        <v>0.0569851</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119261</v>
+        <v>0.119458</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134009</v>
+        <v>0.13392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07114620000000001</v>
+        <v>0.07087259999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161377</v>
+        <v>0.161637</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182397</v>
+        <v>0.182575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0395779</v>
+        <v>0.0399491</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0417157</v>
+        <v>0.0412713</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0396612</v>
+        <v>0.0397976</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0399043</v>
+        <v>0.0401978</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0423114</v>
+        <v>0.0418882</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0406029</v>
+        <v>0.0407401</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0403213</v>
+        <v>0.0406385</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0431605</v>
+        <v>0.0427024</v>
       </c>
       <c r="C69" t="n">
-        <v>0.041722</v>
+        <v>0.0418687</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0407282</v>
+        <v>0.0410583</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0442759</v>
+        <v>0.0437866</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0430057</v>
+        <v>0.0431037</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0412458</v>
+        <v>0.0414895</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455658</v>
+        <v>0.0451092</v>
       </c>
       <c r="C71" t="n">
-        <v>0.044598</v>
+        <v>0.0446342</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0418425</v>
+        <v>0.042073</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0471473</v>
+        <v>0.0466667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0469616</v>
+        <v>0.0468698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0425497</v>
+        <v>0.0428075</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492954</v>
+        <v>0.0488557</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0502298</v>
+        <v>0.0500368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0435466</v>
+        <v>0.0437958</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0524338</v>
+        <v>0.0521626</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0546583</v>
+        <v>0.0551097</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0448569</v>
+        <v>0.045335</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572417</v>
+        <v>0.0569971</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0611422</v>
+        <v>0.0614793</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0468624</v>
+        <v>0.0473417</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0641029</v>
+        <v>0.0639647</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0701672</v>
+        <v>0.0705436</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0496555</v>
+        <v>0.0501641</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0746632</v>
+        <v>0.07474889999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0831317</v>
+        <v>0.0833443</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0539403</v>
+        <v>0.054612</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0905103</v>
+        <v>0.0903751</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101035</v>
+        <v>0.101313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0606508</v>
+        <v>0.0614635</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115073</v>
+        <v>0.114753</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129328</v>
+        <v>0.129853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.072356</v>
+        <v>0.0735995</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155048</v>
+        <v>0.154612</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173349</v>
+        <v>0.173954</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0450865</v>
+        <v>0.0453671</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0477743</v>
+        <v>0.047953</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0475515</v>
+        <v>0.0485795</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0454672</v>
+        <v>0.0458621</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0490832</v>
+        <v>0.0491274</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0498146</v>
+        <v>0.0507018</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0460229</v>
+        <v>0.0464285</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509188</v>
+        <v>0.0509907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0524238</v>
+        <v>0.0531832</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0466762</v>
+        <v>0.047122</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0529913</v>
+        <v>0.0529781</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0556444</v>
+        <v>0.0562298</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0475931</v>
+        <v>0.048069</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559208</v>
+        <v>0.055715</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0594874</v>
+        <v>0.0598052</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0488586</v>
+        <v>0.0492353</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.058776</v>
+        <v>0.0587861</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0635821</v>
+        <v>0.0637287</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0502462</v>
+        <v>0.0507393</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0628263</v>
+        <v>0.0630893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0683983</v>
+        <v>0.0684657</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0520503</v>
+        <v>0.0525176</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06805509999999999</v>
+        <v>0.0680859</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0747843</v>
+        <v>0.07470010000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0548586</v>
+        <v>0.0550851</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07477159999999999</v>
+        <v>0.0746368</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0823188</v>
+        <v>0.0819515</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0579528</v>
+        <v>0.0581274</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0838169</v>
+        <v>0.0836237</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0924571</v>
+        <v>0.09185210000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0622677</v>
+        <v>0.0624097</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0955319</v>
+        <v>0.0949232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.104631</v>
+        <v>0.104346</v>
       </c>
       <c r="D91" t="n">
-        <v>0.068484</v>
+        <v>0.0683873</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111711</v>
+        <v>0.110936</v>
       </c>
       <c r="C92" t="n">
-        <v>0.121204</v>
+        <v>0.121035</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07710699999999999</v>
+        <v>0.0766082</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134789</v>
+        <v>0.134021</v>
       </c>
       <c r="C93" t="n">
-        <v>0.146268</v>
+        <v>0.146272</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09031790000000001</v>
+        <v>0.089642</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168961</v>
+        <v>0.16832</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18469</v>
+        <v>0.184765</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0542971</v>
+        <v>0.0545378</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0684902</v>
+        <v>0.067082</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0681369</v>
+        <v>0.0684473</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0558693</v>
+        <v>0.0568486</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0708709</v>
+        <v>0.0702598</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0711026</v>
+        <v>0.07121479999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0576542</v>
+        <v>0.0579159</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07254770000000001</v>
+        <v>0.07307710000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0742066</v>
+        <v>0.0741372</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0600169</v>
+        <v>0.0596547</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753026</v>
+        <v>0.0765092</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0778051</v>
+        <v>0.07743</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0617599</v>
+        <v>0.061712</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07871880000000001</v>
+        <v>0.0793026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0812174</v>
+        <v>0.0812905</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0627229</v>
+        <v>0.06331009999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08238570000000001</v>
+        <v>0.08262360000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08608150000000001</v>
+        <v>0.085426</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06486</v>
+        <v>0.06465949999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.085316</v>
+        <v>0.086461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0912404</v>
+        <v>0.09026339999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06776359999999999</v>
+        <v>0.06712120000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09083919999999999</v>
+        <v>0.0907617</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09691180000000001</v>
+        <v>0.0963711</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06944409999999999</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09727710000000001</v>
+        <v>0.0970516</v>
       </c>
       <c r="C103" t="n">
-        <v>0.104228</v>
+        <v>0.103529</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07368329999999999</v>
+        <v>0.072682</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.103826</v>
+        <v>0.105242</v>
       </c>
       <c r="C104" t="n">
-        <v>0.114196</v>
+        <v>0.11306</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07773679999999999</v>
+        <v>0.0765952</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114522</v>
+        <v>0.116585</v>
       </c>
       <c r="C105" t="n">
-        <v>0.126317</v>
+        <v>0.125006</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0834001</v>
+        <v>0.0819749</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131753</v>
+        <v>0.13196</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140748</v>
+        <v>0.142672</v>
       </c>
       <c r="D106" t="n">
-        <v>0.089971</v>
+        <v>0.0898526</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.151551</v>
+        <v>0.153378</v>
       </c>
       <c r="C107" t="n">
-        <v>0.166503</v>
+        <v>0.166004</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104202</v>
+        <v>0.102449</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184261</v>
+        <v>0.184378</v>
       </c>
       <c r="C108" t="n">
-        <v>0.203465</v>
+        <v>0.200233</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0630317</v>
+        <v>0.062981</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230949</v>
+        <v>0.231311</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264033</v>
+        <v>0.259938</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06434040000000001</v>
+        <v>0.0644219</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0813634</v>
+        <v>0.0818266</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0868709</v>
+        <v>0.0867851</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0653712</v>
+        <v>0.0653149</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0844825</v>
+        <v>0.0839649</v>
       </c>
       <c r="C111" t="n">
-        <v>0.09006790000000001</v>
+        <v>0.0898277</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0670568</v>
+        <v>0.0669328</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08660080000000001</v>
+        <v>0.0882227</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09275</v>
+        <v>0.09268170000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06890400000000001</v>
+        <v>0.06838900000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09075809999999999</v>
+        <v>0.0927877</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0966909</v>
+        <v>0.0963869</v>
       </c>
       <c r="D113" t="n">
-        <v>0.071101</v>
+        <v>0.070525</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09659230000000001</v>
+        <v>0.0966823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.100596</v>
+        <v>0.100568</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07317319999999999</v>
+        <v>0.07311719999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101537</v>
+        <v>0.102037</v>
       </c>
       <c r="C115" t="n">
-        <v>0.105076</v>
+        <v>0.10529</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0761177</v>
+        <v>0.0759706</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107778</v>
+        <v>0.10761</v>
       </c>
       <c r="C116" t="n">
-        <v>0.111286</v>
+        <v>0.110738</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0800973</v>
+        <v>0.0796254</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114491</v>
+        <v>0.114546</v>
       </c>
       <c r="C117" t="n">
-        <v>0.118273</v>
+        <v>0.118083</v>
       </c>
       <c r="D117" t="n">
-        <v>0.084261</v>
+        <v>0.084079</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123061</v>
+        <v>0.122907</v>
       </c>
       <c r="C118" t="n">
-        <v>0.127123</v>
+        <v>0.126945</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09017210000000001</v>
+        <v>0.0900618</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133282</v>
+        <v>0.131968</v>
       </c>
       <c r="C119" t="n">
-        <v>0.139091</v>
+        <v>0.138116</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0971649</v>
+        <v>0.09697500000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14676</v>
+        <v>0.147018</v>
       </c>
       <c r="C120" t="n">
-        <v>0.154985</v>
+        <v>0.154757</v>
       </c>
       <c r="D120" t="n">
-        <v>0.106413</v>
+        <v>0.106112</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165652</v>
+        <v>0.165663</v>
       </c>
       <c r="C121" t="n">
-        <v>0.176901</v>
+        <v>0.17666</v>
       </c>
       <c r="D121" t="n">
-        <v>0.119188</v>
+        <v>0.119153</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192721</v>
+        <v>0.190831</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210525</v>
+        <v>0.210549</v>
       </c>
       <c r="D122" t="n">
-        <v>0.138962</v>
+        <v>0.138973</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234269</v>
+        <v>0.233914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.265491</v>
+        <v>0.263661</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0852918</v>
+        <v>0.0868395</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.105423</v>
+        <v>0.103534</v>
       </c>
       <c r="C124" t="n">
-        <v>0.109161</v>
+        <v>0.10511</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0938095</v>
+        <v>0.0885808</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105544</v>
+        <v>0.105066</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109943</v>
+        <v>0.108999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09192210000000001</v>
+        <v>0.0921843</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10894</v>
+        <v>0.108512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.11376</v>
+        <v>0.11037</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09573520000000001</v>
+        <v>0.0909238</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110838</v>
+        <v>0.111279</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114633</v>
+        <v>0.114392</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0941316</v>
+        <v>0.0944489</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114771</v>
+        <v>0.114691</v>
       </c>
       <c r="C128" t="n">
-        <v>0.119352</v>
+        <v>0.117467</v>
       </c>
       <c r="D128" t="n">
-        <v>0.097831</v>
+        <v>0.0954222</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118086</v>
+        <v>0.117847</v>
       </c>
       <c r="C129" t="n">
-        <v>0.12249</v>
+        <v>0.122397</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0985149</v>
+        <v>0.0988496</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12344</v>
+        <v>0.12241</v>
       </c>
       <c r="C130" t="n">
-        <v>0.129223</v>
+        <v>0.127106</v>
       </c>
       <c r="D130" t="n">
-        <v>0.10304</v>
+        <v>0.100568</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127045</v>
+        <v>0.128479</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134746</v>
+        <v>0.134359</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104518</v>
+        <v>0.104803</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135507</v>
+        <v>0.136129</v>
       </c>
       <c r="C132" t="n">
-        <v>0.144041</v>
+        <v>0.142133</v>
       </c>
       <c r="D132" t="n">
-        <v>0.109597</v>
+        <v>0.107735</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.146382</v>
+        <v>0.143732</v>
       </c>
       <c r="C133" t="n">
-        <v>0.153977</v>
+        <v>0.154284</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113726</v>
+        <v>0.115142</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156702</v>
+        <v>0.155867</v>
       </c>
       <c r="C134" t="n">
-        <v>0.170463</v>
+        <v>0.167805</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123479</v>
+        <v>0.119725</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171837</v>
+        <v>0.172637</v>
       </c>
       <c r="C135" t="n">
-        <v>0.189541</v>
+        <v>0.189309</v>
       </c>
       <c r="D135" t="n">
-        <v>0.131717</v>
+        <v>0.132235</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197839</v>
+        <v>0.198153</v>
       </c>
       <c r="C136" t="n">
-        <v>0.223293</v>
+        <v>0.219629</v>
       </c>
       <c r="D136" t="n">
-        <v>0.151934</v>
+        <v>0.146823</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237717</v>
+        <v>0.23633</v>
       </c>
       <c r="C137" t="n">
-        <v>0.269877</v>
+        <v>0.271132</v>
       </c>
       <c r="D137" t="n">
-        <v>0.173951</v>
+        <v>0.165228</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169636</v>
+        <v>0.170757</v>
       </c>
       <c r="C138" t="n">
-        <v>0.172892</v>
+        <v>0.165662</v>
       </c>
       <c r="D138" t="n">
-        <v>0.175114</v>
+        <v>0.166408</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.165826</v>
+        <v>0.17144</v>
       </c>
       <c r="C139" t="n">
-        <v>0.174118</v>
+        <v>0.168477</v>
       </c>
       <c r="D139" t="n">
-        <v>0.175687</v>
+        <v>0.168302</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172896</v>
+        <v>0.174658</v>
       </c>
       <c r="C140" t="n">
-        <v>0.176414</v>
+        <v>0.170822</v>
       </c>
       <c r="D140" t="n">
-        <v>0.176395</v>
+        <v>0.170131</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17511</v>
+        <v>0.169255</v>
       </c>
       <c r="C141" t="n">
-        <v>0.179239</v>
+        <v>0.173775</v>
       </c>
       <c r="D141" t="n">
-        <v>0.178543</v>
+        <v>0.171827</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.179208</v>
+        <v>0.178947</v>
       </c>
       <c r="C142" t="n">
-        <v>0.181721</v>
+        <v>0.177006</v>
       </c>
       <c r="D142" t="n">
-        <v>0.179178</v>
+        <v>0.173255</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.185928</v>
+        <v>0.181233</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185984</v>
+        <v>0.180518</v>
       </c>
       <c r="D143" t="n">
-        <v>0.181482</v>
+        <v>0.174709</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322331</v>
+        <v>0.0325486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.034071</v>
+        <v>0.0339125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324046</v>
+        <v>0.0324764</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330485</v>
+        <v>0.0331038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357366</v>
+        <v>0.0357435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0329275</v>
+        <v>0.0330223</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350936</v>
+        <v>0.0353309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.040988</v>
+        <v>0.0406347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0341716</v>
+        <v>0.0341754</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0408207</v>
+        <v>0.0405045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0507201</v>
+        <v>0.0506789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355581</v>
+        <v>0.0354546</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0542717</v>
+        <v>0.0540447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06682920000000001</v>
+        <v>0.0664638</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0381613</v>
+        <v>0.0378717</v>
       </c>
     </row>
     <row r="7">
@@ -3321,10 +3321,10 @@
         <v>0.0807498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08978269999999999</v>
+        <v>0.0893837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0431168</v>
+        <v>0.0433645</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121545</v>
+        <v>0.121217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118494</v>
+        <v>0.11789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0556869</v>
+        <v>0.0553281</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1628</v>
+        <v>0.163036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165765</v>
+        <v>0.164897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.029983</v>
+        <v>0.0300342</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315846</v>
+        <v>0.0314528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294249</v>
+        <v>0.0294354</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302251</v>
+        <v>0.0302759</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0321544</v>
+        <v>0.0320599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0300397</v>
+        <v>0.030154</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0305511</v>
+        <v>0.030605</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0322878</v>
+        <v>0.0323113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0310611</v>
+        <v>0.0311181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308132</v>
+        <v>0.0309682</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0327444</v>
+        <v>0.0328843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0319622</v>
+        <v>0.0320861</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0312379</v>
+        <v>0.0313731</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0335134</v>
+        <v>0.0335745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.033367</v>
+        <v>0.0334111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317159</v>
+        <v>0.0318183</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341231</v>
+        <v>0.0342579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0350421</v>
+        <v>0.0349031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0322953</v>
+        <v>0.0323576</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0356433</v>
+        <v>0.0356765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378048</v>
+        <v>0.0378088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0331443</v>
+        <v>0.0331754</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373382</v>
+        <v>0.0373135</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0412266</v>
+        <v>0.041426</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0338399</v>
+        <v>0.0338982</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0412258</v>
+        <v>0.0412783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0486739</v>
+        <v>0.0486802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0353771</v>
+        <v>0.0354221</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0490927</v>
+        <v>0.0491803</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0568536</v>
+        <v>0.0569099</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0366627</v>
+        <v>0.03668</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621953</v>
+        <v>0.0622502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06996910000000001</v>
+        <v>0.07011589999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0401048</v>
+        <v>0.0400493</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0808701</v>
+        <v>0.08107250000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09093130000000001</v>
+        <v>0.09110650000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0472512</v>
+        <v>0.0468848</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108312</v>
+        <v>0.108599</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118077</v>
+        <v>0.118065</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0593901</v>
+        <v>0.0593435</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149461</v>
+        <v>0.149634</v>
       </c>
       <c r="C23" t="n">
-        <v>0.163142</v>
+        <v>0.162957</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307498</v>
+        <v>0.0307089</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333798</v>
+        <v>0.0329724</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0312544</v>
+        <v>0.0311343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.031142</v>
+        <v>0.0310526</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341346</v>
+        <v>0.0335728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0321344</v>
+        <v>0.0317838</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0313908</v>
+        <v>0.0312821</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346872</v>
+        <v>0.0342291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0329445</v>
+        <v>0.0325984</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0317964</v>
+        <v>0.0316769</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0354184</v>
+        <v>0.0349825</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0341746</v>
+        <v>0.0339905</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0323288</v>
+        <v>0.0322081</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360305</v>
+        <v>0.0356199</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0353401</v>
+        <v>0.0351814</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0328083</v>
+        <v>0.0326042</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374874</v>
+        <v>0.0371107</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371772</v>
+        <v>0.0371989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0332618</v>
+        <v>0.0332193</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394869</v>
+        <v>0.0391767</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0400349</v>
+        <v>0.0400917</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0339941</v>
+        <v>0.0339003</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.042504</v>
+        <v>0.0423273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0439507</v>
+        <v>0.0439457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0350286</v>
+        <v>0.034943</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0470694</v>
+        <v>0.047001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0506284</v>
+        <v>0.0505286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0362891</v>
+        <v>0.0363218</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539981</v>
+        <v>0.0539857</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0591224</v>
+        <v>0.0590499</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0385046</v>
+        <v>0.038377</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645297</v>
+        <v>0.0645332</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07061340000000001</v>
+        <v>0.0704395</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0421342</v>
+        <v>0.0419722</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0795752</v>
+        <v>0.0797467</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0856775</v>
+        <v>0.085655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0489208</v>
+        <v>0.0487918</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1012</v>
+        <v>0.101676</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113825</v>
+        <v>0.114206</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06009</v>
+        <v>0.0600766</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136203</v>
+        <v>0.13716</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154712</v>
+        <v>0.155507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0312047</v>
+        <v>0.0312213</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334764</v>
+        <v>0.0336074</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0321901</v>
+        <v>0.0321601</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0314722</v>
+        <v>0.0314579</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343733</v>
+        <v>0.0341312</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327394</v>
+        <v>0.03273</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0316733</v>
+        <v>0.0317019</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350523</v>
+        <v>0.0348153</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0337859</v>
+        <v>0.0337294</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0320899</v>
+        <v>0.0320845</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359942</v>
+        <v>0.0357892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0346331</v>
+        <v>0.0346715</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0324482</v>
+        <v>0.0324434</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370931</v>
+        <v>0.0368679</v>
       </c>
       <c r="C42" t="n">
-        <v>0.036505</v>
+        <v>0.0364465</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0329613</v>
+        <v>0.0329978</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386232</v>
+        <v>0.0383924</v>
       </c>
       <c r="C43" t="n">
-        <v>0.038648</v>
+        <v>0.0386015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0336447</v>
+        <v>0.0337028</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405454</v>
+        <v>0.0404144</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0409577</v>
+        <v>0.0410207</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0343941</v>
+        <v>0.0344377</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0434457</v>
+        <v>0.0432057</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455177</v>
+        <v>0.0455146</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0354022</v>
+        <v>0.0353716</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475168</v>
+        <v>0.0473244</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0513755</v>
+        <v>0.0513229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0371172</v>
+        <v>0.0371361</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538675</v>
+        <v>0.0537801</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0582472</v>
+        <v>0.0582886</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394345</v>
+        <v>0.0395075</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0632075</v>
+        <v>0.0632089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06866269999999999</v>
+        <v>0.0687044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04335</v>
+        <v>0.0433902</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0758176</v>
+        <v>0.07589269999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0843756</v>
+        <v>0.08458209999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0488714</v>
+        <v>0.048926</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0955833</v>
+        <v>0.09604269999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106293</v>
+        <v>0.107099</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0575722</v>
+        <v>0.0576199</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.128083</v>
+        <v>0.129094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142732</v>
+        <v>0.143287</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0330741</v>
+        <v>0.0336212</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174151</v>
+        <v>0.17616</v>
       </c>
       <c r="C52" t="n">
-        <v>0.193342</v>
+        <v>0.194319</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0330459</v>
+        <v>0.033848</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365825</v>
+        <v>0.0360195</v>
       </c>
       <c r="C53" t="n">
-        <v>0.034145</v>
+        <v>0.0343283</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0333892</v>
+        <v>0.0337739</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0373265</v>
+        <v>0.0366313</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0348977</v>
+        <v>0.0351172</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0338502</v>
+        <v>0.0341829</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380033</v>
+        <v>0.0374972</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0360507</v>
+        <v>0.0362035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0343903</v>
+        <v>0.0345427</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0393262</v>
+        <v>0.0388</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0373719</v>
+        <v>0.037583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0348202</v>
+        <v>0.0349857</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0406364</v>
+        <v>0.0401111</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0394061</v>
+        <v>0.0395511</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0351909</v>
+        <v>0.0355245</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424921</v>
+        <v>0.0421365</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0423061</v>
+        <v>0.0424432</v>
       </c>
       <c r="D58" t="n">
-        <v>0.035943</v>
+        <v>0.036365</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0451037</v>
+        <v>0.0446085</v>
       </c>
       <c r="C59" t="n">
-        <v>0.045489</v>
+        <v>0.0455789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0369836</v>
+        <v>0.0373258</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0489264</v>
+        <v>0.0485056</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0501571</v>
+        <v>0.0502727</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0383543</v>
+        <v>0.0387887</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542074</v>
+        <v>0.0537892</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0571484</v>
+        <v>0.057307</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0404921</v>
+        <v>0.0409684</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0617824</v>
+        <v>0.0614804</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0667938</v>
+        <v>0.0670665</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0439107</v>
+        <v>0.0442282</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07299940000000001</v>
+        <v>0.0729079</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0806991</v>
+        <v>0.0812181</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0489466</v>
+        <v>0.0494255</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0914078</v>
+        <v>0.0916198</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100983</v>
+        <v>0.101928</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0569851</v>
+        <v>0.0573869</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119458</v>
+        <v>0.120492</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13392</v>
+        <v>0.135916</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07087259999999999</v>
+        <v>0.07144929999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161637</v>
+        <v>0.164044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182575</v>
+        <v>0.185207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0399491</v>
+        <v>0.0397407</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412713</v>
+        <v>0.0412558</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0397976</v>
+        <v>0.0394205</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0401978</v>
+        <v>0.0399372</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0418882</v>
+        <v>0.0419222</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0407401</v>
+        <v>0.0402926</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0406385</v>
+        <v>0.0405057</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427024</v>
+        <v>0.0426314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0418687</v>
+        <v>0.0413872</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0410583</v>
+        <v>0.0408696</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437866</v>
+        <v>0.0438132</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0431037</v>
+        <v>0.0426906</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0414895</v>
+        <v>0.0413133</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451092</v>
+        <v>0.0450772</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0446342</v>
+        <v>0.0442852</v>
       </c>
       <c r="D71" t="n">
-        <v>0.042073</v>
+        <v>0.0418722</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466667</v>
+        <v>0.0467585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0468698</v>
+        <v>0.0467127</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0428075</v>
+        <v>0.0426892</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488557</v>
+        <v>0.0489722</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0500368</v>
+        <v>0.0499151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0437958</v>
+        <v>0.0437066</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521626</v>
+        <v>0.0520292</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0551097</v>
+        <v>0.0543834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.045335</v>
+        <v>0.0450273</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569971</v>
+        <v>0.0570118</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0614793</v>
+        <v>0.0607947</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0473417</v>
+        <v>0.047035</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639647</v>
+        <v>0.0639001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0705436</v>
+        <v>0.06988809999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0501641</v>
+        <v>0.0498344</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07474889999999999</v>
+        <v>0.0747337</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0833443</v>
+        <v>0.08299090000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.054612</v>
+        <v>0.05428</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0903751</v>
+        <v>0.0910701</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101313</v>
+        <v>0.101143</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0614635</v>
+        <v>0.0612386</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114753</v>
+        <v>0.116663</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129853</v>
+        <v>0.130814</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0735995</v>
+        <v>0.0732911</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154612</v>
+        <v>0.15881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173954</v>
+        <v>0.177054</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0453671</v>
+        <v>0.0450585</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.047953</v>
+        <v>0.0476212</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0485795</v>
+        <v>0.0476603</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0458621</v>
+        <v>0.0455297</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491274</v>
+        <v>0.0490858</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0507018</v>
+        <v>0.050376</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0464285</v>
+        <v>0.0461014</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509907</v>
+        <v>0.0512688</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0531832</v>
+        <v>0.0535077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.047122</v>
+        <v>0.0471323</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0529781</v>
+        <v>0.0531481</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0562298</v>
+        <v>0.0565653</v>
       </c>
       <c r="D84" t="n">
-        <v>0.048069</v>
+        <v>0.0479522</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.055715</v>
+        <v>0.0562984</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0598052</v>
+        <v>0.0606851</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0492353</v>
+        <v>0.0491517</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0587861</v>
+        <v>0.0597851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0637287</v>
+        <v>0.0652073</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0507393</v>
+        <v>0.0508373</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0630893</v>
+        <v>0.0641607</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0684657</v>
+        <v>0.0706102</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0525176</v>
+        <v>0.0526432</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0680859</v>
+        <v>0.0696175</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07470010000000001</v>
+        <v>0.0775034</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0550851</v>
+        <v>0.0552431</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0746368</v>
+        <v>0.0768181</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0819515</v>
+        <v>0.085145</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0581274</v>
+        <v>0.0586305</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0836237</v>
+        <v>0.086331</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09185210000000001</v>
+        <v>0.0951388</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0624097</v>
+        <v>0.06330330000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0949232</v>
+        <v>0.0990804</v>
       </c>
       <c r="C91" t="n">
-        <v>0.104346</v>
+        <v>0.107458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0683873</v>
+        <v>0.0694844</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110936</v>
+        <v>0.117168</v>
       </c>
       <c r="C92" t="n">
-        <v>0.121035</v>
+        <v>0.126172</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0766082</v>
+        <v>0.07820290000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134021</v>
+        <v>0.142281</v>
       </c>
       <c r="C93" t="n">
-        <v>0.146272</v>
+        <v>0.155158</v>
       </c>
       <c r="D93" t="n">
-        <v>0.089642</v>
+        <v>0.0912203</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16832</v>
+        <v>0.178921</v>
       </c>
       <c r="C94" t="n">
-        <v>0.184765</v>
+        <v>0.198452</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0545378</v>
+        <v>0.0532908</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.067082</v>
+        <v>0.0671616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0684473</v>
+        <v>0.071462</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0568486</v>
+        <v>0.0558633</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0702598</v>
+        <v>0.06937069999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07121479999999999</v>
+        <v>0.07504089999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0579159</v>
+        <v>0.0563993</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07307710000000001</v>
+        <v>0.0729163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0741372</v>
+        <v>0.07923959999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0596547</v>
+        <v>0.0571279</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0765092</v>
+        <v>0.0762949</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07743</v>
+        <v>0.08346000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.061712</v>
+        <v>0.0598167</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0793026</v>
+        <v>0.0809671</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0812905</v>
+        <v>0.08828569999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06331009999999999</v>
+        <v>0.0618842</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08262360000000001</v>
+        <v>0.0847842</v>
       </c>
       <c r="C100" t="n">
-        <v>0.085426</v>
+        <v>0.09366620000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06465949999999999</v>
+        <v>0.0649551</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.086461</v>
+        <v>0.09276769999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09026339999999999</v>
+        <v>0.0993124</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06712120000000001</v>
+        <v>0.06924379999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0907617</v>
+        <v>0.100651</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0963711</v>
+        <v>0.106515</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0696</v>
+        <v>0.0732048</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0970516</v>
+        <v>0.108732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.103529</v>
+        <v>0.114386</v>
       </c>
       <c r="D103" t="n">
-        <v>0.072682</v>
+        <v>0.0789469</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.105242</v>
+        <v>0.119957</v>
       </c>
       <c r="C104" t="n">
-        <v>0.11306</v>
+        <v>0.122652</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0765952</v>
+        <v>0.0861396</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116585</v>
+        <v>0.132697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125006</v>
+        <v>0.137281</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0819749</v>
+        <v>0.0938818</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.13196</v>
+        <v>0.148815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.142672</v>
+        <v>0.155971</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0898526</v>
+        <v>0.103845</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153378</v>
+        <v>0.169129</v>
       </c>
       <c r="C107" t="n">
-        <v>0.166004</v>
+        <v>0.178843</v>
       </c>
       <c r="D107" t="n">
-        <v>0.102449</v>
+        <v>0.117742</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184378</v>
+        <v>0.201888</v>
       </c>
       <c r="C108" t="n">
-        <v>0.200233</v>
+        <v>0.222778</v>
       </c>
       <c r="D108" t="n">
-        <v>0.062981</v>
+        <v>0.0717742</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231311</v>
+        <v>0.248057</v>
       </c>
       <c r="C109" t="n">
-        <v>0.259938</v>
+        <v>0.286014</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0644219</v>
+        <v>0.07395980000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0818266</v>
+        <v>0.09787369999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0867851</v>
+        <v>0.0961709</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0653149</v>
+        <v>0.0764553</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839649</v>
+        <v>0.0995684</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0898277</v>
+        <v>0.0989593</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0669328</v>
+        <v>0.07851519999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0882227</v>
+        <v>0.103546</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09268170000000001</v>
+        <v>0.102387</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06838900000000001</v>
+        <v>0.08087809999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0927877</v>
+        <v>0.106993</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0963869</v>
+        <v>0.106311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.070525</v>
+        <v>0.0834556</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0966823</v>
+        <v>0.11053</v>
       </c>
       <c r="C114" t="n">
-        <v>0.100568</v>
+        <v>0.110417</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07311719999999999</v>
+        <v>0.085991</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102037</v>
+        <v>0.113185</v>
       </c>
       <c r="C115" t="n">
-        <v>0.10529</v>
+        <v>0.114653</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0759706</v>
+        <v>0.08878949999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10761</v>
+        <v>0.119619</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110738</v>
+        <v>0.120301</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0796254</v>
+        <v>0.09183429999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114546</v>
+        <v>0.124657</v>
       </c>
       <c r="C117" t="n">
-        <v>0.118083</v>
+        <v>0.128453</v>
       </c>
       <c r="D117" t="n">
-        <v>0.084079</v>
+        <v>0.0957441</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122907</v>
+        <v>0.134256</v>
       </c>
       <c r="C118" t="n">
-        <v>0.126945</v>
+        <v>0.136486</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0900618</v>
+        <v>0.100329</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131968</v>
+        <v>0.143185</v>
       </c>
       <c r="C119" t="n">
-        <v>0.138116</v>
+        <v>0.148737</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09697500000000001</v>
+        <v>0.106665</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147018</v>
+        <v>0.158785</v>
       </c>
       <c r="C120" t="n">
-        <v>0.154757</v>
+        <v>0.167117</v>
       </c>
       <c r="D120" t="n">
-        <v>0.106112</v>
+        <v>0.115111</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165663</v>
+        <v>0.178783</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17666</v>
+        <v>0.192947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.119153</v>
+        <v>0.127476</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.190831</v>
+        <v>0.207762</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210549</v>
+        <v>0.229712</v>
       </c>
       <c r="D122" t="n">
-        <v>0.138973</v>
+        <v>0.148499</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233914</v>
+        <v>0.248968</v>
       </c>
       <c r="C123" t="n">
-        <v>0.263661</v>
+        <v>0.288807</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0868395</v>
+        <v>0.09114609999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103534</v>
+        <v>0.110864</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10511</v>
+        <v>0.114423</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0885808</v>
+        <v>0.0968403</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105066</v>
+        <v>0.114904</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108999</v>
+        <v>0.115102</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0921843</v>
+        <v>0.0945957</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108512</v>
+        <v>0.114912</v>
       </c>
       <c r="C126" t="n">
-        <v>0.11037</v>
+        <v>0.120031</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0909238</v>
+        <v>0.0988465</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111279</v>
+        <v>0.119783</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114392</v>
+        <v>0.121666</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0944489</v>
+        <v>0.09768300000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114691</v>
+        <v>0.12146</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117467</v>
+        <v>0.128279</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0954222</v>
+        <v>0.103648</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117847</v>
+        <v>0.12543</v>
       </c>
       <c r="C129" t="n">
-        <v>0.122397</v>
+        <v>0.129441</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0988496</v>
+        <v>0.101095</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12241</v>
+        <v>0.129687</v>
       </c>
       <c r="C130" t="n">
-        <v>0.127106</v>
+        <v>0.140314</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100568</v>
+        <v>0.111719</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128479</v>
+        <v>0.135518</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134359</v>
+        <v>0.143314</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104803</v>
+        <v>0.109211</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.136129</v>
+        <v>0.14292</v>
       </c>
       <c r="C132" t="n">
-        <v>0.142133</v>
+        <v>0.156067</v>
       </c>
       <c r="D132" t="n">
-        <v>0.107735</v>
+        <v>0.119124</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143732</v>
+        <v>0.153114</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154284</v>
+        <v>0.164836</v>
       </c>
       <c r="D133" t="n">
-        <v>0.115142</v>
+        <v>0.119618</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155867</v>
+        <v>0.165818</v>
       </c>
       <c r="C134" t="n">
-        <v>0.167805</v>
+        <v>0.185164</v>
       </c>
       <c r="D134" t="n">
-        <v>0.119725</v>
+        <v>0.131709</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172637</v>
+        <v>0.185723</v>
       </c>
       <c r="C135" t="n">
-        <v>0.189309</v>
+        <v>0.205717</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132235</v>
+        <v>0.139218</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198153</v>
+        <v>0.212179</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219629</v>
+        <v>0.242832</v>
       </c>
       <c r="D136" t="n">
-        <v>0.146823</v>
+        <v>0.161366</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23633</v>
+        <v>0.254036</v>
       </c>
       <c r="C137" t="n">
-        <v>0.271132</v>
+        <v>0.294162</v>
       </c>
       <c r="D137" t="n">
-        <v>0.165228</v>
+        <v>0.181497</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170757</v>
+        <v>0.187654</v>
       </c>
       <c r="C138" t="n">
-        <v>0.165662</v>
+        <v>0.184098</v>
       </c>
       <c r="D138" t="n">
-        <v>0.166408</v>
+        <v>0.185614</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17144</v>
+        <v>0.190823</v>
       </c>
       <c r="C139" t="n">
-        <v>0.168477</v>
+        <v>0.185414</v>
       </c>
       <c r="D139" t="n">
-        <v>0.168302</v>
+        <v>0.18482</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.174658</v>
+        <v>0.183528</v>
       </c>
       <c r="C140" t="n">
-        <v>0.170822</v>
+        <v>0.188588</v>
       </c>
       <c r="D140" t="n">
-        <v>0.170131</v>
+        <v>0.18749</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.169255</v>
+        <v>0.196447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.173775</v>
+        <v>0.190255</v>
       </c>
       <c r="D141" t="n">
-        <v>0.171827</v>
+        <v>0.18682</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178947</v>
+        <v>0.197495</v>
       </c>
       <c r="C142" t="n">
-        <v>0.177006</v>
+        <v>0.195284</v>
       </c>
       <c r="D142" t="n">
-        <v>0.173255</v>
+        <v>0.191922</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181233</v>
+        <v>0.19769</v>
       </c>
       <c r="C143" t="n">
-        <v>0.180518</v>
+        <v>0.198092</v>
       </c>
       <c r="D143" t="n">
-        <v>0.174709</v>
+        <v>0.191239</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0325486</v>
+        <v>0.0323269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0339125</v>
+        <v>0.0339123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324764</v>
+        <v>0.0324093</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331038</v>
+        <v>0.0331496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0357435</v>
+        <v>0.0361143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0330223</v>
+        <v>0.0329906</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0353309</v>
+        <v>0.0350714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0406347</v>
+        <v>0.0410578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0341754</v>
+        <v>0.0341426</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0405045</v>
+        <v>0.0406432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0506789</v>
+        <v>0.0513832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0354546</v>
+        <v>0.0355391</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0540447</v>
+        <v>0.0534281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0664638</v>
+        <v>0.0667007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0378717</v>
+        <v>0.0383022</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0807498</v>
+        <v>0.080779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0893837</v>
+        <v>0.0896734</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0433645</v>
+        <v>0.0435716</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121217</v>
+        <v>0.121703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11789</v>
+        <v>0.118404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0553281</v>
+        <v>0.0549087</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.163036</v>
+        <v>0.163003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164897</v>
+        <v>0.165337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300342</v>
+        <v>0.0300164</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0314528</v>
+        <v>0.0312671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294354</v>
+        <v>0.0294755</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302759</v>
+        <v>0.0302721</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0320599</v>
+        <v>0.0318402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.030154</v>
+        <v>0.0300816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.030605</v>
+        <v>0.0305359</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0323113</v>
+        <v>0.0319898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311181</v>
+        <v>0.0311677</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0309682</v>
+        <v>0.0308886</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0328843</v>
+        <v>0.0326801</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0320861</v>
+        <v>0.032003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0313731</v>
+        <v>0.0313057</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0335745</v>
+        <v>0.0333023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0334111</v>
+        <v>0.033366</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0318183</v>
+        <v>0.0317411</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342579</v>
+        <v>0.0340338</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0349031</v>
+        <v>0.0350814</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0323576</v>
+        <v>0.0323067</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0356765</v>
+        <v>0.0354434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378088</v>
+        <v>0.0378792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0331754</v>
+        <v>0.0330456</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373135</v>
+        <v>0.0370464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.041426</v>
+        <v>0.0413107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0338982</v>
+        <v>0.0338434</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0412783</v>
+        <v>0.0410621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0486802</v>
+        <v>0.0486454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0354221</v>
+        <v>0.0353584</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491803</v>
+        <v>0.0488606</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0569099</v>
+        <v>0.0570447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03668</v>
+        <v>0.0367067</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0622502</v>
+        <v>0.0619393</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07011589999999999</v>
+        <v>0.0699883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0400493</v>
+        <v>0.0400805</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08107250000000001</v>
+        <v>0.08085639999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09110650000000001</v>
+        <v>0.09099839999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468848</v>
+        <v>0.0468381</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108599</v>
+        <v>0.108248</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118065</v>
+        <v>0.1178</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0593435</v>
+        <v>0.0592641</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149634</v>
+        <v>0.149261</v>
       </c>
       <c r="C23" t="n">
-        <v>0.162957</v>
+        <v>0.161985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307089</v>
+        <v>0.0307179</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0329724</v>
+        <v>0.0333049</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0311343</v>
+        <v>0.0312789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0310526</v>
+        <v>0.0311008</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0335728</v>
+        <v>0.033877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0317838</v>
+        <v>0.0319917</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0312821</v>
+        <v>0.0313596</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0342291</v>
+        <v>0.0345024</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0325984</v>
+        <v>0.0328046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0316769</v>
+        <v>0.0317865</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0349825</v>
+        <v>0.0352349</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0339905</v>
+        <v>0.0340617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0322081</v>
+        <v>0.0322724</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0356199</v>
+        <v>0.0358889</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0351814</v>
+        <v>0.0354118</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0326042</v>
+        <v>0.0326502</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0371107</v>
+        <v>0.0373747</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371989</v>
+        <v>0.0373491</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0332193</v>
+        <v>0.0332205</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0391767</v>
+        <v>0.0394216</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0400917</v>
+        <v>0.0400298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0339003</v>
+        <v>0.0340744</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0423273</v>
+        <v>0.0423655</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0439457</v>
+        <v>0.0442131</v>
       </c>
       <c r="D31" t="n">
-        <v>0.034943</v>
+        <v>0.0350002</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.047001</v>
+        <v>0.0470734</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0505286</v>
+        <v>0.0506983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0363218</v>
+        <v>0.0362603</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539857</v>
+        <v>0.0539784</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590499</v>
+        <v>0.0590428</v>
       </c>
       <c r="D33" t="n">
-        <v>0.038377</v>
+        <v>0.0384237</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645332</v>
+        <v>0.0645739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0704395</v>
+        <v>0.0706302</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0419722</v>
+        <v>0.0419492</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797467</v>
+        <v>0.07965029999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.085655</v>
+        <v>0.08564960000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0487918</v>
+        <v>0.0488479</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101676</v>
+        <v>0.101195</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114206</v>
+        <v>0.114035</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0600766</v>
+        <v>0.0601232</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13716</v>
+        <v>0.136121</v>
       </c>
       <c r="C37" t="n">
-        <v>0.155507</v>
+        <v>0.153995</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0312213</v>
+        <v>0.0312084</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336074</v>
+        <v>0.0335361</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0321601</v>
+        <v>0.0321655</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0314579</v>
+        <v>0.0314585</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341312</v>
+        <v>0.0344208</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03273</v>
+        <v>0.0327062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0317019</v>
+        <v>0.0316492</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0348153</v>
+        <v>0.0350653</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0337294</v>
+        <v>0.0336295</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0320845</v>
+        <v>0.0320901</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0357892</v>
+        <v>0.0360041</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0346715</v>
+        <v>0.0346657</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0324434</v>
+        <v>0.0324431</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0368679</v>
+        <v>0.0370761</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0364465</v>
+        <v>0.036501</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0329978</v>
+        <v>0.0329683</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0383924</v>
+        <v>0.0385885</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0386015</v>
+        <v>0.0384594</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0337028</v>
+        <v>0.0336669</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404144</v>
+        <v>0.0406476</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410207</v>
+        <v>0.0409754</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0344377</v>
+        <v>0.0343402</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432057</v>
+        <v>0.0433612</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455146</v>
+        <v>0.0454504</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0353716</v>
+        <v>0.0353586</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473244</v>
+        <v>0.047497</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0513229</v>
+        <v>0.0512415</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0371361</v>
+        <v>0.037071</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537801</v>
+        <v>0.0538704</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0582886</v>
+        <v>0.058295</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0395075</v>
+        <v>0.0394346</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0632089</v>
+        <v>0.0633128</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0687044</v>
+        <v>0.0687572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0433902</v>
+        <v>0.0432905</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07589269999999999</v>
+        <v>0.0758641</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08458209999999999</v>
+        <v>0.08451060000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.048926</v>
+        <v>0.048831</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09604269999999999</v>
+        <v>0.0955558</v>
       </c>
       <c r="C50" t="n">
-        <v>0.107099</v>
+        <v>0.106737</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0576199</v>
+        <v>0.0575596</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.129094</v>
+        <v>0.128087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.143287</v>
+        <v>0.142786</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0336212</v>
+        <v>0.0335268</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17616</v>
+        <v>0.174396</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194319</v>
+        <v>0.193316</v>
       </c>
       <c r="D52" t="n">
-        <v>0.033848</v>
+        <v>0.0337967</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0360195</v>
+        <v>0.0368355</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0343283</v>
+        <v>0.0346628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0337739</v>
+        <v>0.0340723</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366313</v>
+        <v>0.0373141</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0351172</v>
+        <v>0.0354421</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0341829</v>
+        <v>0.0341515</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0374972</v>
+        <v>0.0381357</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0362035</v>
+        <v>0.0364512</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0345427</v>
+        <v>0.0348699</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388</v>
+        <v>0.0393938</v>
       </c>
       <c r="C56" t="n">
-        <v>0.037583</v>
+        <v>0.0378129</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0349857</v>
+        <v>0.035125</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401111</v>
+        <v>0.0407398</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0395511</v>
+        <v>0.0398089</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0355245</v>
+        <v>0.0357832</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0421365</v>
+        <v>0.0427017</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0424432</v>
+        <v>0.0426826</v>
       </c>
       <c r="D58" t="n">
-        <v>0.036365</v>
+        <v>0.0363841</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0446085</v>
+        <v>0.0452242</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0455789</v>
+        <v>0.0458574</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0373258</v>
+        <v>0.0373615</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485056</v>
+        <v>0.0489702</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0502727</v>
+        <v>0.0505154</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0387887</v>
+        <v>0.0388566</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0537892</v>
+        <v>0.0542019</v>
       </c>
       <c r="C61" t="n">
-        <v>0.057307</v>
+        <v>0.0575145</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0409684</v>
+        <v>0.0409617</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0614804</v>
+        <v>0.0618192</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0670665</v>
+        <v>0.0671938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0442282</v>
+        <v>0.0442907</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0729079</v>
+        <v>0.0730914</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0812181</v>
+        <v>0.0811346</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0494255</v>
+        <v>0.0493943</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0916198</v>
+        <v>0.09134349999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101928</v>
+        <v>0.101207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0573869</v>
+        <v>0.0573924</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.120492</v>
+        <v>0.119472</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135916</v>
+        <v>0.134026</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07144929999999999</v>
+        <v>0.0713208</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164044</v>
+        <v>0.161688</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185207</v>
+        <v>0.182552</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0397407</v>
+        <v>0.0384042</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412558</v>
+        <v>0.0412928</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0394205</v>
+        <v>0.0384413</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0399372</v>
+        <v>0.0387117</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0419222</v>
+        <v>0.0419335</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0402926</v>
+        <v>0.039329</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0405057</v>
+        <v>0.0390626</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426314</v>
+        <v>0.0427529</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413872</v>
+        <v>0.0404403</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0408696</v>
+        <v>0.0395073</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438132</v>
+        <v>0.0438706</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0426906</v>
+        <v>0.0417029</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0413133</v>
+        <v>0.0399785</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450772</v>
+        <v>0.0451104</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0442852</v>
+        <v>0.0432965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0418722</v>
+        <v>0.040546</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467585</v>
+        <v>0.0467475</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0467127</v>
+        <v>0.0455954</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0426892</v>
+        <v>0.0412332</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0489722</v>
+        <v>0.0488849</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0499151</v>
+        <v>0.0487158</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0437066</v>
+        <v>0.0422164</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520292</v>
+        <v>0.0520261</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0543834</v>
+        <v>0.053069</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0450273</v>
+        <v>0.0435078</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570118</v>
+        <v>0.0567568</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0607947</v>
+        <v>0.0596067</v>
       </c>
       <c r="D75" t="n">
-        <v>0.047035</v>
+        <v>0.0454573</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639001</v>
+        <v>0.0635595</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06988809999999999</v>
+        <v>0.0686406</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0498344</v>
+        <v>0.0481943</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0747337</v>
+        <v>0.07447719999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08299090000000001</v>
+        <v>0.08137750000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05428</v>
+        <v>0.0526492</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0910701</v>
+        <v>0.090032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101143</v>
+        <v>0.0990502</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0612386</v>
+        <v>0.0593409</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116663</v>
+        <v>0.114488</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130814</v>
+        <v>0.127084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0732911</v>
+        <v>0.0711753</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15881</v>
+        <v>0.154467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177054</v>
+        <v>0.17084</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0450585</v>
+        <v>0.0443922</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476212</v>
+        <v>0.0481508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0476603</v>
+        <v>0.0478809</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0455297</v>
+        <v>0.044936</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0490858</v>
+        <v>0.0491565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.050376</v>
+        <v>0.0501917</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0461014</v>
+        <v>0.0455641</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0512688</v>
+        <v>0.0508288</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0535077</v>
+        <v>0.052757</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0471323</v>
+        <v>0.0462759</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0531481</v>
+        <v>0.0525871</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0565653</v>
+        <v>0.0557508</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0479522</v>
+        <v>0.047056</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0562984</v>
+        <v>0.055088</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0606851</v>
+        <v>0.0594843</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0491517</v>
+        <v>0.0481744</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0597851</v>
+        <v>0.0583427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0652073</v>
+        <v>0.0635752</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0508373</v>
+        <v>0.0495738</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0641607</v>
+        <v>0.0626274</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0706102</v>
+        <v>0.0686122</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0526432</v>
+        <v>0.0513947</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0696175</v>
+        <v>0.0680024</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0775034</v>
+        <v>0.0748902</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0552431</v>
+        <v>0.0540787</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0768181</v>
+        <v>0.0749063</v>
       </c>
       <c r="C89" t="n">
-        <v>0.085145</v>
+        <v>0.0822146</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0586305</v>
+        <v>0.0574351</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.086331</v>
+        <v>0.0838777</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0951388</v>
+        <v>0.0920948</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06330330000000001</v>
+        <v>0.0619759</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0990804</v>
+        <v>0.0954816</v>
       </c>
       <c r="C91" t="n">
-        <v>0.107458</v>
+        <v>0.104241</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0694844</v>
+        <v>0.06799180000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.117168</v>
+        <v>0.111728</v>
       </c>
       <c r="C92" t="n">
-        <v>0.126172</v>
+        <v>0.12071</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07820290000000001</v>
+        <v>0.07643750000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.142281</v>
+        <v>0.134475</v>
       </c>
       <c r="C93" t="n">
-        <v>0.155158</v>
+        <v>0.145927</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0912203</v>
+        <v>0.0896113</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.178921</v>
+        <v>0.168539</v>
       </c>
       <c r="C94" t="n">
-        <v>0.198452</v>
+        <v>0.183977</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0532908</v>
+        <v>0.0547922</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0671616</v>
+        <v>0.0675062</v>
       </c>
       <c r="C95" t="n">
-        <v>0.071462</v>
+        <v>0.0679814</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0558633</v>
+        <v>0.055743</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06937069999999999</v>
+        <v>0.0702584</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07504089999999999</v>
+        <v>0.0711253</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0563993</v>
+        <v>0.0581058</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0729163</v>
+        <v>0.0733704</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07923959999999999</v>
+        <v>0.0739233</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0571279</v>
+        <v>0.0595603</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0762949</v>
+        <v>0.07623489999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.08346000000000001</v>
+        <v>0.07739260000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0598167</v>
+        <v>0.0608643</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0809671</v>
+        <v>0.07898760000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08828569999999999</v>
+        <v>0.0813149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0618842</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0847842</v>
+        <v>0.0827513</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09366620000000001</v>
+        <v>0.0857202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0649551</v>
+        <v>0.0657528</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.09276769999999999</v>
+        <v>0.08632869999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0993124</v>
+        <v>0.0909059</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06924379999999999</v>
+        <v>0.06698320000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.100651</v>
+        <v>0.09095590000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.106515</v>
+        <v>0.09672070000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0732048</v>
+        <v>0.0704915</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.108732</v>
+        <v>0.09681869999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.114386</v>
+        <v>0.104013</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0789469</v>
+        <v>0.0736856</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.119957</v>
+        <v>0.104759</v>
       </c>
       <c r="C104" t="n">
-        <v>0.122652</v>
+        <v>0.113541</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0861396</v>
+        <v>0.0765088</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.132697</v>
+        <v>0.116241</v>
       </c>
       <c r="C105" t="n">
-        <v>0.137281</v>
+        <v>0.125921</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0938818</v>
+        <v>0.0833343</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.148815</v>
+        <v>0.131486</v>
       </c>
       <c r="C106" t="n">
-        <v>0.155971</v>
+        <v>0.140733</v>
       </c>
       <c r="D106" t="n">
-        <v>0.103845</v>
+        <v>0.0909123</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.169129</v>
+        <v>0.153278</v>
       </c>
       <c r="C107" t="n">
-        <v>0.178843</v>
+        <v>0.163815</v>
       </c>
       <c r="D107" t="n">
-        <v>0.117742</v>
+        <v>0.102227</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.201888</v>
+        <v>0.184357</v>
       </c>
       <c r="C108" t="n">
-        <v>0.222778</v>
+        <v>0.203324</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0717742</v>
+        <v>0.062927</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.248057</v>
+        <v>0.231342</v>
       </c>
       <c r="C109" t="n">
-        <v>0.286014</v>
+        <v>0.263829</v>
       </c>
       <c r="D109" t="n">
-        <v>0.07395980000000001</v>
+        <v>0.0638488</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09787369999999999</v>
+        <v>0.0811065</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0961709</v>
+        <v>0.0871388</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0764553</v>
+        <v>0.0649868</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0995684</v>
+        <v>0.08398609999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0989593</v>
+        <v>0.0898939</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07851519999999999</v>
+        <v>0.0665071</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.103546</v>
+        <v>0.08774129999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.102387</v>
+        <v>0.0928141</v>
       </c>
       <c r="D112" t="n">
-        <v>0.08087809999999999</v>
+        <v>0.0682714</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.106993</v>
+        <v>0.0918168</v>
       </c>
       <c r="C113" t="n">
-        <v>0.106311</v>
+        <v>0.0963123</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0834556</v>
+        <v>0.07035429999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.11053</v>
+        <v>0.09639929999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.110417</v>
+        <v>0.100053</v>
       </c>
       <c r="D114" t="n">
-        <v>0.085991</v>
+        <v>0.0728335</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.113185</v>
+        <v>0.101644</v>
       </c>
       <c r="C115" t="n">
-        <v>0.114653</v>
+        <v>0.104828</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08878949999999999</v>
+        <v>0.0757472</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.119619</v>
+        <v>0.106335</v>
       </c>
       <c r="C116" t="n">
-        <v>0.120301</v>
+        <v>0.110858</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09183429999999999</v>
+        <v>0.07950790000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.124657</v>
+        <v>0.114442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.128453</v>
+        <v>0.118295</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0957441</v>
+        <v>0.0842548</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.134256</v>
+        <v>0.123065</v>
       </c>
       <c r="C118" t="n">
-        <v>0.136486</v>
+        <v>0.127307</v>
       </c>
       <c r="D118" t="n">
-        <v>0.100329</v>
+        <v>0.0900475</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.143185</v>
+        <v>0.131857</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148737</v>
+        <v>0.139027</v>
       </c>
       <c r="D119" t="n">
-        <v>0.106665</v>
+        <v>0.0973005</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.158785</v>
+        <v>0.145438</v>
       </c>
       <c r="C120" t="n">
-        <v>0.167117</v>
+        <v>0.154806</v>
       </c>
       <c r="D120" t="n">
-        <v>0.115111</v>
+        <v>0.10646</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.178783</v>
+        <v>0.164081</v>
       </c>
       <c r="C121" t="n">
-        <v>0.192947</v>
+        <v>0.176833</v>
       </c>
       <c r="D121" t="n">
-        <v>0.127476</v>
+        <v>0.119221</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.207762</v>
+        <v>0.190819</v>
       </c>
       <c r="C122" t="n">
-        <v>0.229712</v>
+        <v>0.210581</v>
       </c>
       <c r="D122" t="n">
-        <v>0.148499</v>
+        <v>0.139105</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.248968</v>
+        <v>0.231014</v>
       </c>
       <c r="C123" t="n">
-        <v>0.288807</v>
+        <v>0.265617</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09114609999999999</v>
+        <v>0.08983439999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.110864</v>
+        <v>0.104421</v>
       </c>
       <c r="C124" t="n">
-        <v>0.114423</v>
+        <v>0.104696</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0968403</v>
+        <v>0.08781990000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.114904</v>
+        <v>0.106136</v>
       </c>
       <c r="C125" t="n">
-        <v>0.115102</v>
+        <v>0.108841</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0945957</v>
+        <v>0.091252</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.114912</v>
+        <v>0.108534</v>
       </c>
       <c r="C126" t="n">
-        <v>0.120031</v>
+        <v>0.110431</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0988465</v>
+        <v>0.0916144</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.119783</v>
+        <v>0.110622</v>
       </c>
       <c r="C127" t="n">
-        <v>0.121666</v>
+        <v>0.114871</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09768300000000001</v>
+        <v>0.09492920000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.12146</v>
+        <v>0.115435</v>
       </c>
       <c r="C128" t="n">
-        <v>0.128279</v>
+        <v>0.119013</v>
       </c>
       <c r="D128" t="n">
-        <v>0.103648</v>
+        <v>0.0981085</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.12543</v>
+        <v>0.118694</v>
       </c>
       <c r="C129" t="n">
-        <v>0.129441</v>
+        <v>0.123424</v>
       </c>
       <c r="D129" t="n">
-        <v>0.101095</v>
+        <v>0.10015</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.129687</v>
+        <v>0.122743</v>
       </c>
       <c r="C130" t="n">
-        <v>0.140314</v>
+        <v>0.12988</v>
       </c>
       <c r="D130" t="n">
-        <v>0.111719</v>
+        <v>0.104227</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.135518</v>
+        <v>0.127968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.143314</v>
+        <v>0.134885</v>
       </c>
       <c r="D131" t="n">
-        <v>0.109211</v>
+        <v>0.105168</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14292</v>
+        <v>0.13474</v>
       </c>
       <c r="C132" t="n">
-        <v>0.156067</v>
+        <v>0.14443</v>
       </c>
       <c r="D132" t="n">
-        <v>0.119124</v>
+        <v>0.110978</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.153114</v>
+        <v>0.142821</v>
       </c>
       <c r="C133" t="n">
-        <v>0.164836</v>
+        <v>0.154159</v>
       </c>
       <c r="D133" t="n">
-        <v>0.119618</v>
+        <v>0.114368</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.165818</v>
+        <v>0.156587</v>
       </c>
       <c r="C134" t="n">
-        <v>0.185164</v>
+        <v>0.169784</v>
       </c>
       <c r="D134" t="n">
-        <v>0.131709</v>
+        <v>0.123306</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185723</v>
+        <v>0.172853</v>
       </c>
       <c r="C135" t="n">
-        <v>0.205717</v>
+        <v>0.188962</v>
       </c>
       <c r="D135" t="n">
-        <v>0.139218</v>
+        <v>0.131238</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.212179</v>
+        <v>0.197701</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242832</v>
+        <v>0.220688</v>
       </c>
       <c r="D136" t="n">
-        <v>0.161366</v>
+        <v>0.148586</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.254036</v>
+        <v>0.237498</v>
       </c>
       <c r="C137" t="n">
-        <v>0.294162</v>
+        <v>0.269709</v>
       </c>
       <c r="D137" t="n">
-        <v>0.181497</v>
+        <v>0.165553</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.187654</v>
+        <v>0.17041</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184098</v>
+        <v>0.165613</v>
       </c>
       <c r="D138" t="n">
-        <v>0.185614</v>
+        <v>0.166022</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.190823</v>
+        <v>0.164301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.185414</v>
+        <v>0.167397</v>
       </c>
       <c r="D139" t="n">
-        <v>0.18482</v>
+        <v>0.167034</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.183528</v>
+        <v>0.17486</v>
       </c>
       <c r="C140" t="n">
-        <v>0.188588</v>
+        <v>0.169951</v>
       </c>
       <c r="D140" t="n">
-        <v>0.18749</v>
+        <v>0.16879</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.196447</v>
+        <v>0.176252</v>
       </c>
       <c r="C141" t="n">
-        <v>0.190255</v>
+        <v>0.172804</v>
       </c>
       <c r="D141" t="n">
-        <v>0.18682</v>
+        <v>0.170393</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.197495</v>
+        <v>0.178048</v>
       </c>
       <c r="C142" t="n">
-        <v>0.195284</v>
+        <v>0.176386</v>
       </c>
       <c r="D142" t="n">
-        <v>0.191922</v>
+        <v>0.172752</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.19769</v>
+        <v>0.182401</v>
       </c>
       <c r="C143" t="n">
-        <v>0.198092</v>
+        <v>0.180845</v>
       </c>
       <c r="D143" t="n">
-        <v>0.191239</v>
+        <v>0.175112</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323269</v>
+        <v>0.032075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0339123</v>
+        <v>0.0322329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0324093</v>
+        <v>0.0343142</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331496</v>
+        <v>0.0330747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0361143</v>
+        <v>0.0345217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0329906</v>
+        <v>0.0350022</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350714</v>
+        <v>0.0345274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0410578</v>
+        <v>0.0388181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0341426</v>
+        <v>0.0358772</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0406432</v>
+        <v>0.0412635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0513832</v>
+        <v>0.049133</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355391</v>
+        <v>0.0373088</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0534281</v>
+        <v>0.0538619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0667007</v>
+        <v>0.0655631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0383022</v>
+        <v>0.0394509</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.080779</v>
+        <v>0.0805968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896734</v>
+        <v>0.0908574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0435716</v>
+        <v>0.0439576</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121703</v>
+        <v>0.120673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118404</v>
+        <v>0.117716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0549087</v>
+        <v>0.0569256</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.163003</v>
+        <v>0.161969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165337</v>
+        <v>0.162484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0300164</v>
+        <v>0.0318159</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0312671</v>
+        <v>0.0311866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294755</v>
+        <v>0.0290258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0302721</v>
+        <v>0.032074</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0318402</v>
+        <v>0.0317062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0300816</v>
+        <v>0.0295862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0305359</v>
+        <v>0.0323403</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0319898</v>
+        <v>0.0321963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311677</v>
+        <v>0.0303923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308886</v>
+        <v>0.0326898</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0326801</v>
+        <v>0.0326694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.032003</v>
+        <v>0.0313732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0313057</v>
+        <v>0.0330094</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0333023</v>
+        <v>0.0332742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.033366</v>
+        <v>0.0324614</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317411</v>
+        <v>0.0334739</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0340338</v>
+        <v>0.0339053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0350814</v>
+        <v>0.0338147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0323067</v>
+        <v>0.0341801</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0354434</v>
+        <v>0.0350491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0378792</v>
+        <v>0.0374662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0330456</v>
+        <v>0.0348715</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370464</v>
+        <v>0.0368029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0413107</v>
+        <v>0.040744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0338434</v>
+        <v>0.0355688</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0410621</v>
+        <v>0.0404996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0486454</v>
+        <v>0.0483442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0353584</v>
+        <v>0.0369496</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488606</v>
+        <v>0.0485472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0570447</v>
+        <v>0.0580468</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367067</v>
+        <v>0.0386108</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0619393</v>
+        <v>0.0618654</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0699883</v>
+        <v>0.0708462</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0400805</v>
+        <v>0.0413502</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08085639999999999</v>
+        <v>0.0808682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09099839999999999</v>
+        <v>0.0914604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0468381</v>
+        <v>0.0486114</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108248</v>
+        <v>0.107976</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1178</v>
+        <v>0.117253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0592641</v>
+        <v>0.060651</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149261</v>
+        <v>0.149022</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161985</v>
+        <v>0.159495</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0307179</v>
+        <v>0.0323449</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333049</v>
+        <v>0.0328397</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0312789</v>
+        <v>0.0306773</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0311008</v>
+        <v>0.0327537</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.033877</v>
+        <v>0.0338228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0319917</v>
+        <v>0.0314847</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0313596</v>
+        <v>0.0329927</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345024</v>
+        <v>0.0343769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0328046</v>
+        <v>0.0322078</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0317865</v>
+        <v>0.0333685</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0352349</v>
+        <v>0.0352059</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0340617</v>
+        <v>0.0335254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0322724</v>
+        <v>0.0339077</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0358889</v>
+        <v>0.0358897</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0354118</v>
+        <v>0.0350918</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0326502</v>
+        <v>0.0342726</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0373747</v>
+        <v>0.0373964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0373491</v>
+        <v>0.0367971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0332205</v>
+        <v>0.0348923</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394216</v>
+        <v>0.0390431</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0400298</v>
+        <v>0.0398337</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0340744</v>
+        <v>0.0355428</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0423655</v>
+        <v>0.0420285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442131</v>
+        <v>0.0442211</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0350002</v>
+        <v>0.0366222</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0470734</v>
+        <v>0.0468669</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0506983</v>
+        <v>0.0508461</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0362603</v>
+        <v>0.0378915</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539784</v>
+        <v>0.0539436</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590428</v>
+        <v>0.0597662</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0384237</v>
+        <v>0.040242</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645739</v>
+        <v>0.0643205</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0706302</v>
+        <v>0.0713432</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0419492</v>
+        <v>0.043698</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07965029999999999</v>
+        <v>0.07937039999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08564960000000001</v>
+        <v>0.0860766</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0488479</v>
+        <v>0.0504581</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101195</v>
+        <v>0.100929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114035</v>
+        <v>0.113208</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0601232</v>
+        <v>0.0615913</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136121</v>
+        <v>0.135854</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153995</v>
+        <v>0.151102</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0312084</v>
+        <v>0.0326753</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0335361</v>
+        <v>0.0332752</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0321655</v>
+        <v>0.0316449</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0314585</v>
+        <v>0.0329193</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0344208</v>
+        <v>0.03431</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327062</v>
+        <v>0.0321738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0316492</v>
+        <v>0.0331952</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350653</v>
+        <v>0.0349358</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0336295</v>
+        <v>0.0332289</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0320901</v>
+        <v>0.0335401</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360041</v>
+        <v>0.0359008</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0346657</v>
+        <v>0.0341372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0324431</v>
+        <v>0.0338984</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370761</v>
+        <v>0.03685</v>
       </c>
       <c r="C42" t="n">
-        <v>0.036501</v>
+        <v>0.0360137</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0329683</v>
+        <v>0.034414</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385885</v>
+        <v>0.038451</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0384594</v>
+        <v>0.0381924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0336669</v>
+        <v>0.0350904</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406476</v>
+        <v>0.0405697</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0409754</v>
+        <v>0.0410063</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0343402</v>
+        <v>0.0357902</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433612</v>
+        <v>0.0432327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0454504</v>
+        <v>0.0453515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0353586</v>
+        <v>0.0368653</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.047497</v>
+        <v>0.0473505</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0512415</v>
+        <v>0.0514625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.037071</v>
+        <v>0.0385084</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538704</v>
+        <v>0.0537279</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058295</v>
+        <v>0.0587988</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394346</v>
+        <v>0.0409832</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0633128</v>
+        <v>0.0631541</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0687572</v>
+        <v>0.06889430000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0432905</v>
+        <v>0.0449342</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0758641</v>
+        <v>0.07564990000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08451060000000001</v>
+        <v>0.0848955</v>
       </c>
       <c r="D49" t="n">
-        <v>0.048831</v>
+        <v>0.0503992</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0955558</v>
+        <v>0.09534769999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106737</v>
+        <v>0.106829</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0575596</v>
+        <v>0.0591502</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.128087</v>
+        <v>0.127551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142786</v>
+        <v>0.14097</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0335268</v>
+        <v>0.0354813</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174396</v>
+        <v>0.173834</v>
       </c>
       <c r="C52" t="n">
-        <v>0.193316</v>
+        <v>0.188602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0337967</v>
+        <v>0.0356825</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0368355</v>
+        <v>0.0368901</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0346628</v>
+        <v>0.0341444</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0340723</v>
+        <v>0.0357152</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0373141</v>
+        <v>0.0375127</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0354421</v>
+        <v>0.0349561</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0341515</v>
+        <v>0.036085</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0381357</v>
+        <v>0.0383983</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0364512</v>
+        <v>0.036216</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0348699</v>
+        <v>0.0365848</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0393938</v>
+        <v>0.0394797</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0378129</v>
+        <v>0.0376255</v>
       </c>
       <c r="D56" t="n">
-        <v>0.035125</v>
+        <v>0.036907</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0407398</v>
+        <v>0.04082</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0398089</v>
+        <v>0.0397356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0357832</v>
+        <v>0.0375277</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0427017</v>
+        <v>0.0427604</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0426826</v>
+        <v>0.0426399</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0363841</v>
+        <v>0.0383495</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0452242</v>
+        <v>0.0453346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458574</v>
+        <v>0.0458349</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0373615</v>
+        <v>0.0393484</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0489702</v>
+        <v>0.0490386</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0505154</v>
+        <v>0.0507495</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0388566</v>
+        <v>0.0407328</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542019</v>
+        <v>0.054223</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0575145</v>
+        <v>0.0577989</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0409617</v>
+        <v>0.0430995</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0618192</v>
+        <v>0.0618253</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0671938</v>
+        <v>0.0678559</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0442907</v>
+        <v>0.0463602</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730914</v>
+        <v>0.0730412</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0811346</v>
+        <v>0.08191370000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0493943</v>
+        <v>0.0514714</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09134349999999999</v>
+        <v>0.0913283</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101207</v>
+        <v>0.101713</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0573924</v>
+        <v>0.0593187</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119472</v>
+        <v>0.119309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134026</v>
+        <v>0.133223</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0713208</v>
+        <v>0.0729643</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161688</v>
+        <v>0.161649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182552</v>
+        <v>0.179554</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0384042</v>
+        <v>0.0417131</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412928</v>
+        <v>0.0411905</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0384413</v>
+        <v>0.0391877</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0387117</v>
+        <v>0.0419323</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0419335</v>
+        <v>0.0419166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.039329</v>
+        <v>0.0401701</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0390626</v>
+        <v>0.0423906</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427529</v>
+        <v>0.0427857</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0404403</v>
+        <v>0.0413599</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0395073</v>
+        <v>0.0428254</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438706</v>
+        <v>0.043657</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0417029</v>
+        <v>0.0428441</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0399785</v>
+        <v>0.0432169</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451104</v>
+        <v>0.0450404</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0432965</v>
+        <v>0.0445144</v>
       </c>
       <c r="D71" t="n">
-        <v>0.040546</v>
+        <v>0.0438501</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467475</v>
+        <v>0.0466446</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0455954</v>
+        <v>0.0468436</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0412332</v>
+        <v>0.0445251</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488849</v>
+        <v>0.0489283</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0487158</v>
+        <v>0.0504395</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0422164</v>
+        <v>0.0455433</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520261</v>
+        <v>0.0520952</v>
       </c>
       <c r="C74" t="n">
-        <v>0.053069</v>
+        <v>0.0551787</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0435078</v>
+        <v>0.0470291</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567568</v>
+        <v>0.0568408</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0596067</v>
+        <v>0.0617017</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0454573</v>
+        <v>0.0490445</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0635595</v>
+        <v>0.0639569</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0686406</v>
+        <v>0.071309</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0481943</v>
+        <v>0.0520902</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07447719999999999</v>
+        <v>0.0745247</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08137750000000001</v>
+        <v>0.0840648</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0526492</v>
+        <v>0.0563861</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.090032</v>
+        <v>0.0903056</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0990502</v>
+        <v>0.102164</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0593409</v>
+        <v>0.06329419999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114488</v>
+        <v>0.114721</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127084</v>
+        <v>0.129636</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0711753</v>
+        <v>0.07482759999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154467</v>
+        <v>0.154556</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17084</v>
+        <v>0.171618</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0443922</v>
+        <v>0.047586</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0481508</v>
+        <v>0.0479884</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0478809</v>
+        <v>0.0470922</v>
       </c>
       <c r="D81" t="n">
-        <v>0.044936</v>
+        <v>0.0479816</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491565</v>
+        <v>0.0491265</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0501917</v>
+        <v>0.0490779</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0455641</v>
+        <v>0.0486954</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0508288</v>
+        <v>0.0506108</v>
       </c>
       <c r="C83" t="n">
-        <v>0.052757</v>
+        <v>0.0514594</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0462759</v>
+        <v>0.0493227</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525871</v>
+        <v>0.0524828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0557508</v>
+        <v>0.0544731</v>
       </c>
       <c r="D84" t="n">
-        <v>0.047056</v>
+        <v>0.0501171</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.055088</v>
+        <v>0.0549471</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0594843</v>
+        <v>0.0582987</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0481744</v>
+        <v>0.0512668</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0583427</v>
+        <v>0.0578421</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0635752</v>
+        <v>0.0623905</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0495738</v>
+        <v>0.0525239</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0626274</v>
+        <v>0.061997</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0686122</v>
+        <v>0.06739920000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0513947</v>
+        <v>0.0541621</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0680024</v>
+        <v>0.0672904</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0748902</v>
+        <v>0.0736831</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0540787</v>
+        <v>0.0565849</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0749063</v>
+        <v>0.0742396</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0822146</v>
+        <v>0.0812539</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0574351</v>
+        <v>0.059727</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0838777</v>
+        <v>0.08323949999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0920948</v>
+        <v>0.0913972</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0619759</v>
+        <v>0.06400740000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0954816</v>
+        <v>0.0949763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.104241</v>
+        <v>0.103546</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06799180000000001</v>
+        <v>0.0698898</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111728</v>
+        <v>0.111063</v>
       </c>
       <c r="C92" t="n">
-        <v>0.12071</v>
+        <v>0.120198</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07643750000000001</v>
+        <v>0.0780985</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134475</v>
+        <v>0.133877</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145927</v>
+        <v>0.14487</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0896113</v>
+        <v>0.09104660000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168539</v>
+        <v>0.167671</v>
       </c>
       <c r="C94" t="n">
-        <v>0.183977</v>
+        <v>0.181055</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0547922</v>
+        <v>0.0566434</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0675062</v>
+        <v>0.0677209</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0679814</v>
+        <v>0.0673417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.055743</v>
+        <v>0.0583255</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0702584</v>
+        <v>0.0697961</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0711253</v>
+        <v>0.06996429999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0581058</v>
+        <v>0.0599666</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0733704</v>
+        <v>0.0732442</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0739233</v>
+        <v>0.07300130000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0595603</v>
+        <v>0.0617289</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07623489999999999</v>
+        <v>0.0761327</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07739260000000001</v>
+        <v>0.07660119999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0608643</v>
+        <v>0.0630087</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07898760000000001</v>
+        <v>0.0789014</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0813149</v>
+        <v>0.08025640000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0635</v>
+        <v>0.06538819999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0827513</v>
+        <v>0.0826091</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0857202</v>
+        <v>0.0848136</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0657528</v>
+        <v>0.067097</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08632869999999999</v>
+        <v>0.0864584</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0909059</v>
+        <v>0.0897068</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06698320000000001</v>
+        <v>0.0694848</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09095590000000001</v>
+        <v>0.09087000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09672070000000001</v>
+        <v>0.0955389</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0704915</v>
+        <v>0.07183539999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09681869999999999</v>
+        <v>0.09678299999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.104013</v>
+        <v>0.102769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0736856</v>
+        <v>0.0746961</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104759</v>
+        <v>0.104889</v>
       </c>
       <c r="C104" t="n">
-        <v>0.113541</v>
+        <v>0.11272</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0765088</v>
+        <v>0.07888539999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116241</v>
+        <v>0.116544</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125921</v>
+        <v>0.125222</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0833343</v>
+        <v>0.0840899</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131486</v>
+        <v>0.131701</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140733</v>
+        <v>0.141655</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0909123</v>
+        <v>0.0921008</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153278</v>
+        <v>0.153368</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163815</v>
+        <v>0.164615</v>
       </c>
       <c r="D107" t="n">
-        <v>0.102227</v>
+        <v>0.104896</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184357</v>
+        <v>0.183907</v>
       </c>
       <c r="C108" t="n">
-        <v>0.203324</v>
+        <v>0.199104</v>
       </c>
       <c r="D108" t="n">
-        <v>0.062927</v>
+        <v>0.064362</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231342</v>
+        <v>0.231291</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263829</v>
+        <v>0.254214</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0638488</v>
+        <v>0.0661554</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0811065</v>
+        <v>0.0811612</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0871388</v>
+        <v>0.086274</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0649868</v>
+        <v>0.06741419999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08398609999999999</v>
+        <v>0.0828778</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0898939</v>
+        <v>0.088564</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0665071</v>
+        <v>0.0687591</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08774129999999999</v>
+        <v>0.0862122</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0928141</v>
+        <v>0.0917567</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0682714</v>
+        <v>0.0705104</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0918168</v>
+        <v>0.0927704</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0963123</v>
+        <v>0.0951341</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07035429999999999</v>
+        <v>0.07278</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09639929999999999</v>
+        <v>0.09773510000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.100053</v>
+        <v>0.09945710000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0728335</v>
+        <v>0.0759026</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101644</v>
+        <v>0.102566</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104828</v>
+        <v>0.104334</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0757472</v>
+        <v>0.07995380000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106335</v>
+        <v>0.109948</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110858</v>
+        <v>0.110409</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07950790000000001</v>
+        <v>0.0847325</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114442</v>
+        <v>0.116534</v>
       </c>
       <c r="C117" t="n">
-        <v>0.118295</v>
+        <v>0.117485</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0842548</v>
+        <v>0.0896429</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123065</v>
+        <v>0.124373</v>
       </c>
       <c r="C118" t="n">
-        <v>0.127307</v>
+        <v>0.125663</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0900475</v>
+        <v>0.0951982</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131857</v>
+        <v>0.134398</v>
       </c>
       <c r="C119" t="n">
-        <v>0.139027</v>
+        <v>0.136537</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0973005</v>
+        <v>0.101146</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145438</v>
+        <v>0.147573</v>
       </c>
       <c r="C120" t="n">
-        <v>0.154806</v>
+        <v>0.152974</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10646</v>
+        <v>0.109499</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.164081</v>
+        <v>0.166087</v>
       </c>
       <c r="C121" t="n">
-        <v>0.176833</v>
+        <v>0.17382</v>
       </c>
       <c r="D121" t="n">
-        <v>0.119221</v>
+        <v>0.121155</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.190819</v>
+        <v>0.19294</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210581</v>
+        <v>0.205702</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139105</v>
+        <v>0.139768</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231014</v>
+        <v>0.230905</v>
       </c>
       <c r="C123" t="n">
-        <v>0.265617</v>
+        <v>0.253724</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08983439999999999</v>
+        <v>0.08991979999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104421</v>
+        <v>0.104388</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104696</v>
+        <v>0.103893</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08781990000000001</v>
+        <v>0.09065049999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106136</v>
+        <v>0.109068</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108841</v>
+        <v>0.107862</v>
       </c>
       <c r="D125" t="n">
-        <v>0.091252</v>
+        <v>0.09433229999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108534</v>
+        <v>0.108635</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110431</v>
+        <v>0.110367</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0916144</v>
+        <v>0.0944368</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110622</v>
+        <v>0.11202</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114871</v>
+        <v>0.114417</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09492920000000001</v>
+        <v>0.09831520000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115435</v>
+        <v>0.116172</v>
       </c>
       <c r="C128" t="n">
-        <v>0.119013</v>
+        <v>0.116727</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0981085</v>
+        <v>0.0984515</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118694</v>
+        <v>0.118044</v>
       </c>
       <c r="C129" t="n">
-        <v>0.123424</v>
+        <v>0.121776</v>
       </c>
       <c r="D129" t="n">
-        <v>0.10015</v>
+        <v>0.10204</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122743</v>
+        <v>0.122841</v>
       </c>
       <c r="C130" t="n">
-        <v>0.12988</v>
+        <v>0.128218</v>
       </c>
       <c r="D130" t="n">
-        <v>0.104227</v>
+        <v>0.105966</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127968</v>
+        <v>0.128096</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134885</v>
+        <v>0.133967</v>
       </c>
       <c r="D131" t="n">
-        <v>0.105168</v>
+        <v>0.107773</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13474</v>
+        <v>0.135076</v>
       </c>
       <c r="C132" t="n">
-        <v>0.14443</v>
+        <v>0.142131</v>
       </c>
       <c r="D132" t="n">
-        <v>0.110978</v>
+        <v>0.112759</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142821</v>
+        <v>0.143086</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154159</v>
+        <v>0.152469</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114368</v>
+        <v>0.117052</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156587</v>
+        <v>0.15612</v>
       </c>
       <c r="C134" t="n">
-        <v>0.169784</v>
+        <v>0.166221</v>
       </c>
       <c r="D134" t="n">
-        <v>0.123306</v>
+        <v>0.122931</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172853</v>
+        <v>0.171944</v>
       </c>
       <c r="C135" t="n">
-        <v>0.188962</v>
+        <v>0.186312</v>
       </c>
       <c r="D135" t="n">
-        <v>0.131238</v>
+        <v>0.133313</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197701</v>
+        <v>0.198171</v>
       </c>
       <c r="C136" t="n">
-        <v>0.220688</v>
+        <v>0.215993</v>
       </c>
       <c r="D136" t="n">
-        <v>0.148586</v>
+        <v>0.149617</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237498</v>
+        <v>0.237867</v>
       </c>
       <c r="C137" t="n">
-        <v>0.269709</v>
+        <v>0.262464</v>
       </c>
       <c r="D137" t="n">
-        <v>0.165553</v>
+        <v>0.172631</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.17041</v>
+        <v>0.163174</v>
       </c>
       <c r="C138" t="n">
-        <v>0.165613</v>
+        <v>0.166002</v>
       </c>
       <c r="D138" t="n">
-        <v>0.166022</v>
+        <v>0.176134</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.164301</v>
+        <v>0.171425</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167397</v>
+        <v>0.167391</v>
       </c>
       <c r="D139" t="n">
-        <v>0.167034</v>
+        <v>0.175981</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17486</v>
+        <v>0.173603</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169951</v>
+        <v>0.169769</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16879</v>
+        <v>0.178132</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176252</v>
+        <v>0.175756</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172804</v>
+        <v>0.172352</v>
       </c>
       <c r="D141" t="n">
-        <v>0.170393</v>
+        <v>0.17896</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178048</v>
+        <v>0.177974</v>
       </c>
       <c r="C142" t="n">
-        <v>0.176386</v>
+        <v>0.175932</v>
       </c>
       <c r="D142" t="n">
-        <v>0.172752</v>
+        <v>0.181113</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.182401</v>
+        <v>0.180474</v>
       </c>
       <c r="C143" t="n">
-        <v>0.180845</v>
+        <v>0.179341</v>
       </c>
       <c r="D143" t="n">
-        <v>0.175112</v>
+        <v>0.182379</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032075</v>
+        <v>0.0323061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0322329</v>
+        <v>0.0317329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0343142</v>
+        <v>0.0343084</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330747</v>
+        <v>0.0333591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0345217</v>
+        <v>0.0344655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0350022</v>
+        <v>0.0348741</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0345274</v>
+        <v>0.0351653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0388181</v>
+        <v>0.0384096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0358772</v>
+        <v>0.0360307</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412635</v>
+        <v>0.0411968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.049133</v>
+        <v>0.0474901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0373088</v>
+        <v>0.0371838</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0538619</v>
+        <v>0.0550138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0655631</v>
+        <v>0.06592870000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0394509</v>
+        <v>0.0391954</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0805968</v>
+        <v>0.0816395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0908574</v>
+        <v>0.0902982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0439576</v>
+        <v>0.0445713</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120673</v>
+        <v>0.121267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117716</v>
+        <v>0.117429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0569256</v>
+        <v>0.0562107</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161969</v>
+        <v>0.162825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162484</v>
+        <v>0.162276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0318159</v>
+        <v>0.0317714</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0311866</v>
+        <v>0.0317118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0290258</v>
+        <v>0.0292022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.032074</v>
+        <v>0.0320474</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0317062</v>
+        <v>0.0323037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0295862</v>
+        <v>0.0297564</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0323403</v>
+        <v>0.0323312</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0321963</v>
+        <v>0.0326343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0303923</v>
+        <v>0.0304813</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0326898</v>
+        <v>0.0326824</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0326694</v>
+        <v>0.0333673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313732</v>
+        <v>0.0313444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0330094</v>
+        <v>0.0330323</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0332742</v>
+        <v>0.0336744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0324614</v>
+        <v>0.0324781</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0334739</v>
+        <v>0.033446</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339053</v>
+        <v>0.0343361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0338147</v>
+        <v>0.0339314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0341801</v>
+        <v>0.0341428</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350491</v>
+        <v>0.0355607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0374662</v>
+        <v>0.0370676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0348715</v>
+        <v>0.0348188</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0368029</v>
+        <v>0.0375552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.040744</v>
+        <v>0.0407537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0355688</v>
+        <v>0.035502</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0404996</v>
+        <v>0.0414826</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0483442</v>
+        <v>0.0484283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0369496</v>
+        <v>0.0369532</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0485472</v>
+        <v>0.0491201</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0580468</v>
+        <v>0.0579308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0386108</v>
+        <v>0.0385933</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0618654</v>
+        <v>0.061711</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0708462</v>
+        <v>0.07075919999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0413502</v>
+        <v>0.0415877</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0808682</v>
+        <v>0.08093110000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0914604</v>
+        <v>0.0910699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0486114</v>
+        <v>0.0487282</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107976</v>
+        <v>0.109041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117253</v>
+        <v>0.117325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.060651</v>
+        <v>0.0606819</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149022</v>
+        <v>0.15016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159495</v>
+        <v>0.159589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0323449</v>
+        <v>0.032276</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0328397</v>
+        <v>0.0334978</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0306773</v>
+        <v>0.0310139</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0327537</v>
+        <v>0.0325989</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338228</v>
+        <v>0.0341667</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0314847</v>
+        <v>0.0316599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0329927</v>
+        <v>0.0328156</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0343769</v>
+        <v>0.0348045</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0322078</v>
+        <v>0.0325951</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0333685</v>
+        <v>0.0332277</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0352059</v>
+        <v>0.0355023</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0335254</v>
+        <v>0.0337953</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0339077</v>
+        <v>0.0338361</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0358897</v>
+        <v>0.0362116</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0350918</v>
+        <v>0.0349184</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0342726</v>
+        <v>0.0343895</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0373964</v>
+        <v>0.0375407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0367971</v>
+        <v>0.0368118</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0348923</v>
+        <v>0.0347988</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0390431</v>
+        <v>0.0395867</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398337</v>
+        <v>0.0398806</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0355428</v>
+        <v>0.0353689</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420285</v>
+        <v>0.0422115</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442211</v>
+        <v>0.0442528</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0366222</v>
+        <v>0.0364587</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468669</v>
+        <v>0.0468452</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0508461</v>
+        <v>0.0511078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0378915</v>
+        <v>0.0378194</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539436</v>
+        <v>0.0538109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0597662</v>
+        <v>0.0597276</v>
       </c>
       <c r="D33" t="n">
-        <v>0.040242</v>
+        <v>0.0398897</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643205</v>
+        <v>0.0645699</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0713432</v>
+        <v>0.07099279999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.043698</v>
+        <v>0.0434561</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07937039999999999</v>
+        <v>0.07969909999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0860766</v>
+        <v>0.08588079999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0504581</v>
+        <v>0.0504816</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100929</v>
+        <v>0.101294</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113208</v>
+        <v>0.113906</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0615913</v>
+        <v>0.0615955</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135854</v>
+        <v>0.136324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151102</v>
+        <v>0.151459</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0326753</v>
+        <v>0.0335781</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332752</v>
+        <v>0.033588</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0316449</v>
+        <v>0.0322321</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0329193</v>
+        <v>0.0335751</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03431</v>
+        <v>0.0345621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0321738</v>
+        <v>0.0327595</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0331952</v>
+        <v>0.0337777</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349358</v>
+        <v>0.0352449</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0332289</v>
+        <v>0.0336993</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0335401</v>
+        <v>0.0340594</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359008</v>
+        <v>0.0361664</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0341372</v>
+        <v>0.0347161</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0338984</v>
+        <v>0.0345235</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03685</v>
+        <v>0.0370668</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0360137</v>
+        <v>0.0364207</v>
       </c>
       <c r="D42" t="n">
-        <v>0.034414</v>
+        <v>0.0349905</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038451</v>
+        <v>0.0385808</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0381924</v>
+        <v>0.0387922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0350904</v>
+        <v>0.0357418</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405697</v>
+        <v>0.0405787</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410063</v>
+        <v>0.0414048</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0357902</v>
+        <v>0.0364574</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432327</v>
+        <v>0.0432638</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0453515</v>
+        <v>0.0458597</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0368653</v>
+        <v>0.037496</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473505</v>
+        <v>0.0472683</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0514625</v>
+        <v>0.0517568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0385084</v>
+        <v>0.0390637</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537279</v>
+        <v>0.053799</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0587988</v>
+        <v>0.058747</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0409832</v>
+        <v>0.0415048</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631541</v>
+        <v>0.063321</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06889430000000001</v>
+        <v>0.06914099999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0449342</v>
+        <v>0.0453729</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07564990000000001</v>
+        <v>0.07597089999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0848955</v>
+        <v>0.08495510000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0503992</v>
+        <v>0.050811</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09534769999999999</v>
+        <v>0.09554509999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106829</v>
+        <v>0.106938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0591502</v>
+        <v>0.0595671</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127551</v>
+        <v>0.127942</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14097</v>
+        <v>0.141556</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0354813</v>
+        <v>0.0353901</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173834</v>
+        <v>0.174455</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188602</v>
+        <v>0.189329</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0356825</v>
+        <v>0.0356483</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0368901</v>
+        <v>0.0365146</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0341444</v>
+        <v>0.0343793</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0357152</v>
+        <v>0.0359797</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0375127</v>
+        <v>0.0371252</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0349561</v>
+        <v>0.0351694</v>
       </c>
       <c r="D54" t="n">
-        <v>0.036085</v>
+        <v>0.0359729</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0383983</v>
+        <v>0.0380104</v>
       </c>
       <c r="C55" t="n">
-        <v>0.036216</v>
+        <v>0.0364197</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0365848</v>
+        <v>0.0367549</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0394797</v>
+        <v>0.0389824</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0376255</v>
+        <v>0.0376889</v>
       </c>
       <c r="D56" t="n">
-        <v>0.036907</v>
+        <v>0.0369227</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04082</v>
+        <v>0.040442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0397356</v>
+        <v>0.0398212</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0375277</v>
+        <v>0.0373983</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0427604</v>
+        <v>0.0423471</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0426399</v>
+        <v>0.0425728</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0383495</v>
+        <v>0.0385937</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0453346</v>
+        <v>0.0450049</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458349</v>
+        <v>0.0458837</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0393484</v>
+        <v>0.0395818</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0490386</v>
+        <v>0.0486044</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0507495</v>
+        <v>0.0504785</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0407328</v>
+        <v>0.0407621</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.054223</v>
+        <v>0.0539331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577989</v>
+        <v>0.0575941</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0430995</v>
+        <v>0.0430699</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0618253</v>
+        <v>0.0616323</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0678559</v>
+        <v>0.0674288</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0463602</v>
+        <v>0.0463743</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730412</v>
+        <v>0.0730888</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08191370000000001</v>
+        <v>0.0813281</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0514714</v>
+        <v>0.0513048</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0913283</v>
+        <v>0.091304</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101713</v>
+        <v>0.101264</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0593187</v>
+        <v>0.0590831</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119309</v>
+        <v>0.119258</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133223</v>
+        <v>0.133174</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0729643</v>
+        <v>0.07313790000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161649</v>
+        <v>0.16183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179554</v>
+        <v>0.179162</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0417131</v>
+        <v>0.0419235</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411905</v>
+        <v>0.0411853</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0391877</v>
+        <v>0.0392476</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0419323</v>
+        <v>0.0422329</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0419166</v>
+        <v>0.041795</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0401701</v>
+        <v>0.0402171</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0423906</v>
+        <v>0.0426299</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427857</v>
+        <v>0.0425284</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413599</v>
+        <v>0.0413687</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0428254</v>
+        <v>0.0430178</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.043657</v>
+        <v>0.0435984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0428441</v>
+        <v>0.042686</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0432169</v>
+        <v>0.0435201</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450404</v>
+        <v>0.0450084</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0445144</v>
+        <v>0.0443708</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0438501</v>
+        <v>0.044054</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466446</v>
+        <v>0.0466009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0468436</v>
+        <v>0.0464185</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0445251</v>
+        <v>0.0447813</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0489283</v>
+        <v>0.048721</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0504395</v>
+        <v>0.0496047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0455433</v>
+        <v>0.0458285</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520952</v>
+        <v>0.0520377</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0551787</v>
+        <v>0.0542617</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0470291</v>
+        <v>0.0472985</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0568408</v>
+        <v>0.0570303</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0617017</v>
+        <v>0.0607795</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0490445</v>
+        <v>0.049286</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639569</v>
+        <v>0.0638691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.071309</v>
+        <v>0.0698155</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0520902</v>
+        <v>0.0521595</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745247</v>
+        <v>0.07471709999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0840648</v>
+        <v>0.08277320000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0563861</v>
+        <v>0.0565084</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0903056</v>
+        <v>0.0902094</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102164</v>
+        <v>0.100682</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06329419999999999</v>
+        <v>0.06331630000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114721</v>
+        <v>0.114732</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129636</v>
+        <v>0.128593</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07482759999999999</v>
+        <v>0.07518519999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154556</v>
+        <v>0.154912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171618</v>
+        <v>0.170829</v>
       </c>
       <c r="D80" t="n">
-        <v>0.047586</v>
+        <v>0.0472487</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0479884</v>
+        <v>0.0476369</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0470922</v>
+        <v>0.0473374</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0479816</v>
+        <v>0.0476408</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491265</v>
+        <v>0.0487624</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0490779</v>
+        <v>0.0495688</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0486954</v>
+        <v>0.0482157</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0506108</v>
+        <v>0.0504343</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0514594</v>
+        <v>0.0520933</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0493227</v>
+        <v>0.0490295</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0524828</v>
+        <v>0.0525563</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0544731</v>
+        <v>0.0550879</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0501171</v>
+        <v>0.0499131</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0549471</v>
+        <v>0.0551053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0582987</v>
+        <v>0.0585052</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0512668</v>
+        <v>0.0509894</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0578421</v>
+        <v>0.0581019</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0623905</v>
+        <v>0.0623841</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0525239</v>
+        <v>0.0524169</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.061997</v>
+        <v>0.0622303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06739920000000001</v>
+        <v>0.0671895</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0541621</v>
+        <v>0.0541682</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0672904</v>
+        <v>0.0675709</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0736831</v>
+        <v>0.0733294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0565849</v>
+        <v>0.0566473</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0742396</v>
+        <v>0.0745734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0812539</v>
+        <v>0.0806486</v>
       </c>
       <c r="D89" t="n">
-        <v>0.059727</v>
+        <v>0.0596683</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08323949999999999</v>
+        <v>0.0835042</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0913972</v>
+        <v>0.09047860000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06400740000000001</v>
+        <v>0.0639142</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0949763</v>
+        <v>0.0950477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.103546</v>
+        <v>0.102671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0698898</v>
+        <v>0.06975199999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111063</v>
+        <v>0.111341</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120198</v>
+        <v>0.119107</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0780985</v>
+        <v>0.07793070000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133877</v>
+        <v>0.13434</v>
       </c>
       <c r="C93" t="n">
-        <v>0.14487</v>
+        <v>0.143883</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09104660000000001</v>
+        <v>0.0905996</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167671</v>
+        <v>0.167937</v>
       </c>
       <c r="C94" t="n">
-        <v>0.181055</v>
+        <v>0.180314</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0566434</v>
+        <v>0.0566791</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0677209</v>
+        <v>0.0673449</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0673417</v>
+        <v>0.0670053</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0583255</v>
+        <v>0.0583254</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0697961</v>
+        <v>0.07034269999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06996429999999999</v>
+        <v>0.06949660000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0599666</v>
+        <v>0.0600953</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0732442</v>
+        <v>0.0722439</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07300130000000001</v>
+        <v>0.07246180000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0617289</v>
+        <v>0.0615721</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0761327</v>
+        <v>0.0755996</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07660119999999999</v>
+        <v>0.0755589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0630087</v>
+        <v>0.0631282</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0789014</v>
+        <v>0.0788465</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08025640000000001</v>
+        <v>0.07920720000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06538819999999999</v>
+        <v>0.0653845</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0826091</v>
+        <v>0.0817944</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0848136</v>
+        <v>0.0838015</v>
       </c>
       <c r="D100" t="n">
-        <v>0.067097</v>
+        <v>0.06737949999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864584</v>
+        <v>0.08526350000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0897068</v>
+        <v>0.0886063</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0694848</v>
+        <v>0.0691198</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09087000000000001</v>
+        <v>0.09033480000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0955389</v>
+        <v>0.0944919</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07183539999999999</v>
+        <v>0.0721253</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09678299999999999</v>
+        <v>0.0959337</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102769</v>
+        <v>0.101245</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0746961</v>
+        <v>0.0742758</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104889</v>
+        <v>0.104266</v>
       </c>
       <c r="C104" t="n">
-        <v>0.11272</v>
+        <v>0.111088</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07888539999999999</v>
+        <v>0.0787511</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116544</v>
+        <v>0.115303</v>
       </c>
       <c r="C105" t="n">
-        <v>0.125222</v>
+        <v>0.123062</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0840899</v>
+        <v>0.0843145</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131701</v>
+        <v>0.130738</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141655</v>
+        <v>0.139272</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0921008</v>
+        <v>0.0918631</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153368</v>
+        <v>0.152226</v>
       </c>
       <c r="C107" t="n">
-        <v>0.164615</v>
+        <v>0.162018</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104896</v>
+        <v>0.103897</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183907</v>
+        <v>0.182491</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199104</v>
+        <v>0.196737</v>
       </c>
       <c r="D108" t="n">
-        <v>0.064362</v>
+        <v>0.0644547</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231291</v>
+        <v>0.229389</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254214</v>
+        <v>0.251033</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0661554</v>
+        <v>0.0659159</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0811612</v>
+        <v>0.0809539</v>
       </c>
       <c r="C110" t="n">
-        <v>0.086274</v>
+        <v>0.0855214</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06741419999999999</v>
+        <v>0.06710190000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0828778</v>
+        <v>0.0840514</v>
       </c>
       <c r="C111" t="n">
-        <v>0.088564</v>
+        <v>0.0885555</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0687591</v>
+        <v>0.06840359999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0862122</v>
+        <v>0.08758050000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0917567</v>
+        <v>0.0915928</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0705104</v>
+        <v>0.0699245</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0927704</v>
+        <v>0.0919291</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0951341</v>
+        <v>0.0949106</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07278</v>
+        <v>0.07261579999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09773510000000001</v>
+        <v>0.0961042</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09945710000000001</v>
+        <v>0.09909519999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0759026</v>
+        <v>0.07481640000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102566</v>
+        <v>0.101551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104334</v>
+        <v>0.103817</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07995380000000001</v>
+        <v>0.07799490000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109948</v>
+        <v>0.107614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110409</v>
+        <v>0.109237</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0847325</v>
+        <v>0.08153340000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116534</v>
+        <v>0.114639</v>
       </c>
       <c r="C117" t="n">
-        <v>0.117485</v>
+        <v>0.116445</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0896429</v>
+        <v>0.0863768</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.124373</v>
+        <v>0.122893</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125663</v>
+        <v>0.125535</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0951982</v>
+        <v>0.09185169999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134398</v>
+        <v>0.13342</v>
       </c>
       <c r="C119" t="n">
-        <v>0.136537</v>
+        <v>0.13695</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101146</v>
+        <v>0.0987198</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147573</v>
+        <v>0.147025</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152974</v>
+        <v>0.152229</v>
       </c>
       <c r="D120" t="n">
-        <v>0.109499</v>
+        <v>0.10755</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166087</v>
+        <v>0.165738</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17382</v>
+        <v>0.173284</v>
       </c>
       <c r="D121" t="n">
-        <v>0.121155</v>
+        <v>0.119611</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.19294</v>
+        <v>0.192691</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205702</v>
+        <v>0.20507</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139768</v>
+        <v>0.138812</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230905</v>
+        <v>0.233979</v>
       </c>
       <c r="C123" t="n">
-        <v>0.253724</v>
+        <v>0.25319</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08991979999999999</v>
+        <v>0.0897954</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104388</v>
+        <v>0.104294</v>
       </c>
       <c r="C124" t="n">
-        <v>0.103893</v>
+        <v>0.10192</v>
       </c>
       <c r="D124" t="n">
-        <v>0.09065049999999999</v>
+        <v>0.0886686</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.109068</v>
+        <v>0.10515</v>
       </c>
       <c r="C125" t="n">
-        <v>0.107862</v>
+        <v>0.106765</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09433229999999999</v>
+        <v>0.09335499999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108635</v>
+        <v>0.10889</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110367</v>
+        <v>0.10879</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0944368</v>
+        <v>0.0939497</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11202</v>
+        <v>0.111544</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114417</v>
+        <v>0.111614</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09831520000000001</v>
+        <v>0.0942875</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116172</v>
+        <v>0.114686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.116727</v>
+        <v>0.115389</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0984515</v>
+        <v>0.0968575</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118044</v>
+        <v>0.118165</v>
       </c>
       <c r="C129" t="n">
-        <v>0.121776</v>
+        <v>0.120443</v>
       </c>
       <c r="D129" t="n">
-        <v>0.10204</v>
+        <v>0.0999872</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122841</v>
+        <v>0.122977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.128218</v>
+        <v>0.124963</v>
       </c>
       <c r="D130" t="n">
-        <v>0.105966</v>
+        <v>0.102384</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128096</v>
+        <v>0.12657</v>
       </c>
       <c r="C131" t="n">
-        <v>0.133967</v>
+        <v>0.13209</v>
       </c>
       <c r="D131" t="n">
-        <v>0.107773</v>
+        <v>0.106062</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135076</v>
+        <v>0.134342</v>
       </c>
       <c r="C132" t="n">
-        <v>0.142131</v>
+        <v>0.140824</v>
       </c>
       <c r="D132" t="n">
-        <v>0.112759</v>
+        <v>0.111078</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143086</v>
+        <v>0.14293</v>
       </c>
       <c r="C133" t="n">
-        <v>0.152469</v>
+        <v>0.150643</v>
       </c>
       <c r="D133" t="n">
-        <v>0.117052</v>
+        <v>0.114897</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.15612</v>
+        <v>0.155168</v>
       </c>
       <c r="C134" t="n">
-        <v>0.166221</v>
+        <v>0.164849</v>
       </c>
       <c r="D134" t="n">
-        <v>0.122931</v>
+        <v>0.121451</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171944</v>
+        <v>0.172594</v>
       </c>
       <c r="C135" t="n">
-        <v>0.186312</v>
+        <v>0.184973</v>
       </c>
       <c r="D135" t="n">
-        <v>0.133313</v>
+        <v>0.132018</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198171</v>
+        <v>0.197901</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215993</v>
+        <v>0.214233</v>
       </c>
       <c r="D136" t="n">
-        <v>0.149617</v>
+        <v>0.148509</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237867</v>
+        <v>0.236888</v>
       </c>
       <c r="C137" t="n">
-        <v>0.262464</v>
+        <v>0.258887</v>
       </c>
       <c r="D137" t="n">
-        <v>0.172631</v>
+        <v>0.172303</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.163174</v>
+        <v>0.169019</v>
       </c>
       <c r="C138" t="n">
-        <v>0.166002</v>
+        <v>0.164064</v>
       </c>
       <c r="D138" t="n">
-        <v>0.176134</v>
+        <v>0.173391</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171425</v>
+        <v>0.169317</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167391</v>
+        <v>0.166407</v>
       </c>
       <c r="D139" t="n">
-        <v>0.175981</v>
+        <v>0.175806</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173603</v>
+        <v>0.171248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169769</v>
+        <v>0.168385</v>
       </c>
       <c r="D140" t="n">
-        <v>0.178132</v>
+        <v>0.176556</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175756</v>
+        <v>0.173568</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172352</v>
+        <v>0.17192</v>
       </c>
       <c r="D141" t="n">
-        <v>0.17896</v>
+        <v>0.178713</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177974</v>
+        <v>0.175426</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175932</v>
+        <v>0.174575</v>
       </c>
       <c r="D142" t="n">
-        <v>0.181113</v>
+        <v>0.18016</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.180474</v>
+        <v>0.17834</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179341</v>
+        <v>0.17878</v>
       </c>
       <c r="D143" t="n">
-        <v>0.182379</v>
+        <v>0.182383</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323061</v>
+        <v>0.0322502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0317329</v>
+        <v>0.0408689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0343084</v>
+        <v>0.0382014</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333591</v>
+        <v>0.0329725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0344655</v>
+        <v>0.0436036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0348741</v>
+        <v>0.0394233</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351653</v>
+        <v>0.0346752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0384096</v>
+        <v>0.0489309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0360307</v>
+        <v>0.040698</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0411968</v>
+        <v>0.0399078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0474901</v>
+        <v>0.0579498</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0371838</v>
+        <v>0.0415212</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550138</v>
+        <v>0.0555467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06592870000000001</v>
+        <v>0.0678015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0391954</v>
+        <v>0.0444981</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0816395</v>
+        <v>0.0817715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0902982</v>
+        <v>0.08685379999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0445713</v>
+        <v>0.0522196</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121267</v>
+        <v>0.121148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117429</v>
+        <v>0.0302752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0562107</v>
+        <v>0.0683559</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162825</v>
+        <v>0.162475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162276</v>
+        <v>0.0308012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0317714</v>
+        <v>0.0352973</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317118</v>
+        <v>0.0312994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0292022</v>
+        <v>0.0312965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320474</v>
+        <v>0.0354305</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0323037</v>
+        <v>0.0318265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0297564</v>
+        <v>0.0322207</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0323312</v>
+        <v>0.03577</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0326343</v>
+        <v>0.0322368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0304813</v>
+        <v>0.0333612</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0326824</v>
+        <v>0.0360572</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333673</v>
+        <v>0.0326815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313444</v>
+        <v>0.0348278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0330323</v>
+        <v>0.0363112</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336744</v>
+        <v>0.0332019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0324781</v>
+        <v>0.0362987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.033446</v>
+        <v>0.0366088</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343361</v>
+        <v>0.0339083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0339314</v>
+        <v>0.0384047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0341428</v>
+        <v>0.0373553</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355607</v>
+        <v>0.035272</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0370676</v>
+        <v>0.0412242</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0348188</v>
+        <v>0.0380448</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0375552</v>
+        <v>0.0368895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0407537</v>
+        <v>0.0456276</v>
       </c>
       <c r="D17" t="n">
-        <v>0.035502</v>
+        <v>0.0390556</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414826</v>
+        <v>0.0411868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0484283</v>
+        <v>0.051797</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0369532</v>
+        <v>0.0402312</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491201</v>
+        <v>0.0491282</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579308</v>
+        <v>0.0601213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0385933</v>
+        <v>0.0422568</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.061711</v>
+        <v>0.06187</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07075919999999999</v>
+        <v>0.07248250000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0415877</v>
+        <v>0.045936</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08093110000000001</v>
+        <v>0.0807626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0910699</v>
+        <v>0.08799319999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0487282</v>
+        <v>0.0531939</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.109041</v>
+        <v>0.108351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117325</v>
+        <v>0.0353933</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0606819</v>
+        <v>0.0693402</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15016</v>
+        <v>0.149454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159589</v>
+        <v>0.0359239</v>
       </c>
       <c r="D23" t="n">
-        <v>0.032276</v>
+        <v>0.035596</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0334978</v>
+        <v>0.0332656</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0310139</v>
+        <v>0.0366379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0325989</v>
+        <v>0.0359719</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341667</v>
+        <v>0.033907</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0316599</v>
+        <v>0.0372968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0328156</v>
+        <v>0.0364782</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0348045</v>
+        <v>0.0345719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0325951</v>
+        <v>0.0382124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0332277</v>
+        <v>0.036728</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0355023</v>
+        <v>0.0354242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0337953</v>
+        <v>0.0399765</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0338361</v>
+        <v>0.0371854</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0362116</v>
+        <v>0.0361977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0349184</v>
+        <v>0.0413198</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0343895</v>
+        <v>0.0377053</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375407</v>
+        <v>0.0376343</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0368118</v>
+        <v>0.0427504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0347988</v>
+        <v>0.0384246</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395867</v>
+        <v>0.0392922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398806</v>
+        <v>0.046178</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0353689</v>
+        <v>0.0392362</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0422115</v>
+        <v>0.0422791</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442528</v>
+        <v>0.0501961</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0364587</v>
+        <v>0.0403236</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468452</v>
+        <v>0.0472492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0511078</v>
+        <v>0.056231</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0378194</v>
+        <v>0.041941</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0538109</v>
+        <v>0.0539494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0597276</v>
+        <v>0.0633374</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0398897</v>
+        <v>0.0445735</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645699</v>
+        <v>0.064776</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07099279999999999</v>
+        <v>0.07393</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0434561</v>
+        <v>0.049642</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07969909999999999</v>
+        <v>0.0797254</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08588079999999999</v>
+        <v>0.0878978</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0504816</v>
+        <v>0.0555059</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101294</v>
+        <v>0.101326</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113906</v>
+        <v>0.106518</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0615955</v>
+        <v>0.0669057</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136324</v>
+        <v>0.13618</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151459</v>
+        <v>0.0398886</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0335781</v>
+        <v>0.0364486</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033588</v>
+        <v>0.0334073</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0322321</v>
+        <v>0.0404159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0335751</v>
+        <v>0.0368891</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345621</v>
+        <v>0.0342813</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327595</v>
+        <v>0.0413894</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0337777</v>
+        <v>0.037248</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352449</v>
+        <v>0.0349885</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0336993</v>
+        <v>0.0424945</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0340594</v>
+        <v>0.0376319</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0361664</v>
+        <v>0.0360282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0347161</v>
+        <v>0.0437982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0345235</v>
+        <v>0.0380845</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370668</v>
+        <v>0.0369346</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0364207</v>
+        <v>0.0452728</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0349905</v>
+        <v>0.0385679</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385808</v>
+        <v>0.0385519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0387922</v>
+        <v>0.0474649</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0357418</v>
+        <v>0.0392322</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405787</v>
+        <v>0.0406926</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0414048</v>
+        <v>0.0503605</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0364574</v>
+        <v>0.0399992</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432638</v>
+        <v>0.043511</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0458597</v>
+        <v>0.054657</v>
       </c>
       <c r="D45" t="n">
-        <v>0.037496</v>
+        <v>0.0410903</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472683</v>
+        <v>0.0477276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0517568</v>
+        <v>0.0601621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0390637</v>
+        <v>0.0425774</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053799</v>
+        <v>0.0539058</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058747</v>
+        <v>0.0680415</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0415048</v>
+        <v>0.0449266</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.063321</v>
+        <v>0.06339309999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06914099999999999</v>
+        <v>0.0777837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0453729</v>
+        <v>0.0490469</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07597089999999999</v>
+        <v>0.0758846</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08495510000000001</v>
+        <v>0.09040570000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.050811</v>
+        <v>0.0553334</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09554509999999999</v>
+        <v>0.0955425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106938</v>
+        <v>0.107017</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0595671</v>
+        <v>0.06476460000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127942</v>
+        <v>0.127878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141556</v>
+        <v>0.0415544</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0353901</v>
+        <v>0.0383491</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174455</v>
+        <v>0.175905</v>
       </c>
       <c r="C52" t="n">
-        <v>0.189329</v>
+        <v>0.0422849</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0356483</v>
+        <v>0.0383922</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365146</v>
+        <v>0.0358868</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0343793</v>
+        <v>0.0430108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0359797</v>
+        <v>0.0383913</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0371252</v>
+        <v>0.036659</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0351694</v>
+        <v>0.0440902</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0359729</v>
+        <v>0.0387795</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380104</v>
+        <v>0.0375271</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0364197</v>
+        <v>0.0454045</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0367549</v>
+        <v>0.0394565</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0389824</v>
+        <v>0.0388698</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0376889</v>
+        <v>0.0470286</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0369227</v>
+        <v>0.0400162</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040442</v>
+        <v>0.0400692</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0398212</v>
+        <v>0.0493067</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0373983</v>
+        <v>0.0406811</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423471</v>
+        <v>0.0422305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0425728</v>
+        <v>0.0523159</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0385937</v>
+        <v>0.0415353</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0450049</v>
+        <v>0.0447953</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458837</v>
+        <v>0.0564212</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0395818</v>
+        <v>0.0422565</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486044</v>
+        <v>0.0485522</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0504785</v>
+        <v>0.0619688</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0407621</v>
+        <v>0.0440778</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0539331</v>
+        <v>0.0539251</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0575941</v>
+        <v>0.0693199</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0430699</v>
+        <v>0.0464191</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0616323</v>
+        <v>0.061477</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0674288</v>
+        <v>0.0793068</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0463743</v>
+        <v>0.0494628</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730888</v>
+        <v>0.0727019</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0813281</v>
+        <v>0.0912362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0513048</v>
+        <v>0.0549184</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.091304</v>
+        <v>0.09106839999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101264</v>
+        <v>0.106276</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0590831</v>
+        <v>0.06379029999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119258</v>
+        <v>0.118984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133174</v>
+        <v>0.0421375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07313790000000001</v>
+        <v>0.0785612</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16183</v>
+        <v>0.161342</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179162</v>
+        <v>0.0428296</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0419235</v>
+        <v>0.0453173</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411853</v>
+        <v>0.0417411</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0392476</v>
+        <v>0.043494</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0422329</v>
+        <v>0.0456857</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041795</v>
+        <v>0.0422925</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0402171</v>
+        <v>0.0447289</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0426299</v>
+        <v>0.0460885</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425284</v>
+        <v>0.0430965</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413687</v>
+        <v>0.0457692</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0430178</v>
+        <v>0.0465349</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435984</v>
+        <v>0.044418</v>
       </c>
       <c r="C70" t="n">
-        <v>0.042686</v>
+        <v>0.0475</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0435201</v>
+        <v>0.0471212</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450084</v>
+        <v>0.0456543</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0443708</v>
+        <v>0.0501938</v>
       </c>
       <c r="D71" t="n">
-        <v>0.044054</v>
+        <v>0.047664</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466009</v>
+        <v>0.0473225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0464185</v>
+        <v>0.0531123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0447813</v>
+        <v>0.0484795</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048721</v>
+        <v>0.0495169</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0496047</v>
+        <v>0.0572164</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0458285</v>
+        <v>0.0494649</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520377</v>
+        <v>0.0528413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0542617</v>
+        <v>0.0628238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0472985</v>
+        <v>0.050863</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570303</v>
+        <v>0.0575758</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0607795</v>
+        <v>0.06994649999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.049286</v>
+        <v>0.0528879</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0638691</v>
+        <v>0.0648478</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0698155</v>
+        <v>0.07981480000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0521595</v>
+        <v>0.0562774</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07471709999999999</v>
+        <v>0.07520300000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08277320000000001</v>
+        <v>0.0912531</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0565084</v>
+        <v>0.0610935</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0902094</v>
+        <v>0.0910753</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100682</v>
+        <v>0.106263</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06331630000000001</v>
+        <v>0.0685071</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114732</v>
+        <v>0.115535</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128593</v>
+        <v>0.050587</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07518519999999999</v>
+        <v>0.08147600000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154912</v>
+        <v>0.155651</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170829</v>
+        <v>0.051479</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0472487</v>
+        <v>0.050041</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476369</v>
+        <v>0.0453245</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0473374</v>
+        <v>0.0523563</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0476408</v>
+        <v>0.0503939</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487624</v>
+        <v>0.0464392</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0495688</v>
+        <v>0.0537152</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0482157</v>
+        <v>0.0508429</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504343</v>
+        <v>0.0479565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0520933</v>
+        <v>0.0549886</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0490295</v>
+        <v>0.0513251</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525563</v>
+        <v>0.0499552</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0550879</v>
+        <v>0.0564161</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0499131</v>
+        <v>0.0520103</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0551053</v>
+        <v>0.0522472</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0585052</v>
+        <v>0.0584881</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0509894</v>
+        <v>0.0528698</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0581019</v>
+        <v>0.0554631</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0623841</v>
+        <v>0.0616839</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0524169</v>
+        <v>0.054248</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0622303</v>
+        <v>0.0598078</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0671895</v>
+        <v>0.0655579</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0541682</v>
+        <v>0.0559788</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675709</v>
+        <v>0.0652784</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0733294</v>
+        <v>0.0708051</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0566473</v>
+        <v>0.0585192</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0745734</v>
+        <v>0.0727911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0806486</v>
+        <v>0.0776346</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0596683</v>
+        <v>0.061805</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0835042</v>
+        <v>0.0821162</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09047860000000001</v>
+        <v>0.0862073</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0639142</v>
+        <v>0.0663907</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0950477</v>
+        <v>0.0941439</v>
       </c>
       <c r="C91" t="n">
-        <v>0.102671</v>
+        <v>0.097331</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06975199999999999</v>
+        <v>0.0728007</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111341</v>
+        <v>0.110218</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119107</v>
+        <v>0.111237</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07793070000000001</v>
+        <v>0.08212469999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13434</v>
+        <v>0.133095</v>
       </c>
       <c r="C93" t="n">
-        <v>0.143883</v>
+        <v>0.129984</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0905996</v>
+        <v>0.0958151</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167937</v>
+        <v>0.166652</v>
       </c>
       <c r="C94" t="n">
-        <v>0.180314</v>
+        <v>0.14571</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0566791</v>
+        <v>0.0609369</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0673449</v>
+        <v>0.06762369999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0670053</v>
+        <v>0.144911</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0583254</v>
+        <v>0.0628387</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07034269999999999</v>
+        <v>0.07048459999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06949660000000001</v>
+        <v>0.14672</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0600953</v>
+        <v>0.0646665</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722439</v>
+        <v>0.0742014</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07246180000000001</v>
+        <v>0.14636</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0615721</v>
+        <v>0.0660601</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0755996</v>
+        <v>0.07683520000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0755589</v>
+        <v>0.147571</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0631282</v>
+        <v>0.06816709999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788465</v>
+        <v>0.0800898</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07920720000000001</v>
+        <v>0.148965</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0653845</v>
+        <v>0.0688897</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817944</v>
+        <v>0.0826809</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0838015</v>
+        <v>0.151279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06737949999999999</v>
+        <v>0.07215009999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08526350000000001</v>
+        <v>0.0867911</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0886063</v>
+        <v>0.151833</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0691198</v>
+        <v>0.07435940000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09033480000000001</v>
+        <v>0.09099930000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0944919</v>
+        <v>0.154858</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0721253</v>
+        <v>0.07673430000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0959337</v>
+        <v>0.0974165</v>
       </c>
       <c r="C103" t="n">
-        <v>0.101245</v>
+        <v>0.158849</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0742758</v>
+        <v>0.0798262</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104266</v>
+        <v>0.104996</v>
       </c>
       <c r="C104" t="n">
-        <v>0.111088</v>
+        <v>0.166213</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0787511</v>
+        <v>0.08392959999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115303</v>
+        <v>0.116708</v>
       </c>
       <c r="C105" t="n">
-        <v>0.123062</v>
+        <v>0.171357</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0843145</v>
+        <v>0.0876844</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130738</v>
+        <v>0.132214</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139272</v>
+        <v>0.184411</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0918631</v>
+        <v>0.0978661</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152226</v>
+        <v>0.154036</v>
       </c>
       <c r="C107" t="n">
-        <v>0.162018</v>
+        <v>0.199853</v>
       </c>
       <c r="D107" t="n">
-        <v>0.103897</v>
+        <v>0.111437</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182491</v>
+        <v>0.184551</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196737</v>
+        <v>0.196843</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0644547</v>
+        <v>0.06873840000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229389</v>
+        <v>0.229724</v>
       </c>
       <c r="C109" t="n">
-        <v>0.251033</v>
+        <v>0.197549</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0659159</v>
+        <v>0.06988270000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0809539</v>
+        <v>0.08080089999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0855214</v>
+        <v>0.198742</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06710190000000001</v>
+        <v>0.07136430000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840514</v>
+        <v>0.0841136</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0885555</v>
+        <v>0.199256</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06840359999999999</v>
+        <v>0.0729833</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08758050000000001</v>
+        <v>0.0874492</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0915928</v>
+        <v>0.200847</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0699245</v>
+        <v>0.07478079999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0919291</v>
+        <v>0.09170159999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0949106</v>
+        <v>0.202596</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07261579999999999</v>
+        <v>0.07668270000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0961042</v>
+        <v>0.09634479999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09909519999999999</v>
+        <v>0.204456</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07481640000000001</v>
+        <v>0.0792844</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101551</v>
+        <v>0.100544</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103817</v>
+        <v>0.207357</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07799490000000001</v>
+        <v>0.0821674</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107614</v>
+        <v>0.106465</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109237</v>
+        <v>0.21115</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08153340000000001</v>
+        <v>0.0861536</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114639</v>
+        <v>0.114948</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116445</v>
+        <v>0.216656</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0863768</v>
+        <v>0.0910309</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122893</v>
+        <v>0.123237</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125535</v>
+        <v>0.223737</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09185169999999999</v>
+        <v>0.0962991</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13342</v>
+        <v>0.133948</v>
       </c>
       <c r="C119" t="n">
-        <v>0.13695</v>
+        <v>0.233748</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0987198</v>
+        <v>0.103993</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147025</v>
+        <v>0.147318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152229</v>
+        <v>0.245934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10755</v>
+        <v>0.11315</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165738</v>
+        <v>0.166173</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173284</v>
+        <v>0.266016</v>
       </c>
       <c r="D121" t="n">
-        <v>0.119611</v>
+        <v>0.126442</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192691</v>
+        <v>0.193241</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20507</v>
+        <v>0.211762</v>
       </c>
       <c r="D122" t="n">
-        <v>0.138812</v>
+        <v>0.145922</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233979</v>
+        <v>0.234209</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25319</v>
+        <v>0.215762</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0897954</v>
+        <v>0.0962127</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104294</v>
+        <v>0.103042</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10192</v>
+        <v>0.216838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0886686</v>
+        <v>0.0968917</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10515</v>
+        <v>0.105742</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106765</v>
+        <v>0.218387</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09335499999999999</v>
+        <v>0.0984778</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10889</v>
+        <v>0.108921</v>
       </c>
       <c r="C126" t="n">
-        <v>0.10879</v>
+        <v>0.220202</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0939497</v>
+        <v>0.099675</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111544</v>
+        <v>0.108894</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111614</v>
+        <v>0.218942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0942875</v>
+        <v>0.102705</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114686</v>
+        <v>0.115041</v>
       </c>
       <c r="C128" t="n">
-        <v>0.115389</v>
+        <v>0.224813</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0968575</v>
+        <v>0.104218</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118165</v>
+        <v>0.1181</v>
       </c>
       <c r="C129" t="n">
-        <v>0.120443</v>
+        <v>0.228419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0999872</v>
+        <v>0.107122</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122977</v>
+        <v>0.123137</v>
       </c>
       <c r="C130" t="n">
-        <v>0.124963</v>
+        <v>0.228919</v>
       </c>
       <c r="D130" t="n">
-        <v>0.102384</v>
+        <v>0.109763</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12657</v>
+        <v>0.127938</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13209</v>
+        <v>0.238316</v>
       </c>
       <c r="D131" t="n">
-        <v>0.106062</v>
+        <v>0.11371</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134342</v>
+        <v>0.135132</v>
       </c>
       <c r="C132" t="n">
-        <v>0.140824</v>
+        <v>0.245934</v>
       </c>
       <c r="D132" t="n">
-        <v>0.111078</v>
+        <v>0.119308</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14293</v>
+        <v>0.143343</v>
       </c>
       <c r="C133" t="n">
-        <v>0.150643</v>
+        <v>0.255619</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114897</v>
+        <v>0.123118</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155168</v>
+        <v>0.1578</v>
       </c>
       <c r="C134" t="n">
-        <v>0.164849</v>
+        <v>0.268919</v>
       </c>
       <c r="D134" t="n">
-        <v>0.121451</v>
+        <v>0.131927</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172594</v>
+        <v>0.172651</v>
       </c>
       <c r="C135" t="n">
-        <v>0.184973</v>
+        <v>0.288649</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132018</v>
+        <v>0.141444</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197901</v>
+        <v>0.198148</v>
       </c>
       <c r="C136" t="n">
-        <v>0.214233</v>
+        <v>0.222477</v>
       </c>
       <c r="D136" t="n">
-        <v>0.148509</v>
+        <v>0.159258</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236888</v>
+        <v>0.236965</v>
       </c>
       <c r="C137" t="n">
-        <v>0.258887</v>
+        <v>0.223244</v>
       </c>
       <c r="D137" t="n">
-        <v>0.172303</v>
+        <v>0.185279</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169019</v>
+        <v>0.165936</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164064</v>
+        <v>0.224761</v>
       </c>
       <c r="D138" t="n">
-        <v>0.173391</v>
+        <v>0.186978</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169317</v>
+        <v>0.171739</v>
       </c>
       <c r="C139" t="n">
-        <v>0.166407</v>
+        <v>0.227483</v>
       </c>
       <c r="D139" t="n">
-        <v>0.175806</v>
+        <v>0.187458</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171248</v>
+        <v>0.169358</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168385</v>
+        <v>0.228094</v>
       </c>
       <c r="D140" t="n">
-        <v>0.176556</v>
+        <v>0.190992</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173568</v>
+        <v>0.176893</v>
       </c>
       <c r="C141" t="n">
-        <v>0.17192</v>
+        <v>0.231744</v>
       </c>
       <c r="D141" t="n">
-        <v>0.178713</v>
+        <v>0.190864</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175426</v>
+        <v>0.178984</v>
       </c>
       <c r="C142" t="n">
-        <v>0.174575</v>
+        <v>0.234401</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18016</v>
+        <v>0.194448</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17834</v>
+        <v>0.180281</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17878</v>
+        <v>0.236657</v>
       </c>
       <c r="D143" t="n">
-        <v>0.182383</v>
+        <v>0.19518</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323061</v>
+        <v>0.0317005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0317329</v>
+        <v>0.0322989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0343084</v>
+        <v>0.0309808</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333591</v>
+        <v>0.0325583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0344655</v>
+        <v>0.0337904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0348741</v>
+        <v>0.0323063</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351653</v>
+        <v>0.0350097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0384096</v>
+        <v>0.0390643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0360307</v>
+        <v>0.0334373</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0411968</v>
+        <v>0.0411929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0474901</v>
+        <v>0.0482892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0371838</v>
+        <v>0.0350866</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0550138</v>
+        <v>0.0540753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06592870000000001</v>
+        <v>0.06510349999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0391954</v>
+        <v>0.037011</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0816395</v>
+        <v>0.080179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0902982</v>
+        <v>0.0895123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0445713</v>
+        <v>0.0424679</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121267</v>
+        <v>0.119664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117429</v>
+        <v>0.116607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0562107</v>
+        <v>0.0535434</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162825</v>
+        <v>0.160362</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162276</v>
+        <v>0.161033</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0317714</v>
+        <v>0.0287613</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317118</v>
+        <v>0.0314845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0292022</v>
+        <v>0.0297969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0320474</v>
+        <v>0.029001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0323037</v>
+        <v>0.0319143</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0297564</v>
+        <v>0.0303673</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0323312</v>
+        <v>0.0293615</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0326343</v>
+        <v>0.0321669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0304813</v>
+        <v>0.0311446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0326824</v>
+        <v>0.0297217</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333673</v>
+        <v>0.0324827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313444</v>
+        <v>0.0319079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0330323</v>
+        <v>0.0301411</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336744</v>
+        <v>0.0333199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0324781</v>
+        <v>0.0328922</v>
       </c>
       <c r="D14" t="n">
-        <v>0.033446</v>
+        <v>0.0306002</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343361</v>
+        <v>0.0342459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0339314</v>
+        <v>0.0342556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0341428</v>
+        <v>0.0314162</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355607</v>
+        <v>0.034973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0370676</v>
+        <v>0.0370518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0348188</v>
+        <v>0.0323012</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0375552</v>
+        <v>0.0368105</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0407537</v>
+        <v>0.0403996</v>
       </c>
       <c r="D17" t="n">
-        <v>0.035502</v>
+        <v>0.033059</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414826</v>
+        <v>0.0406895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0484283</v>
+        <v>0.0478221</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0369532</v>
+        <v>0.0346765</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491201</v>
+        <v>0.0482185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579308</v>
+        <v>0.0573878</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0385933</v>
+        <v>0.0362146</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.061711</v>
+        <v>0.061362</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07075919999999999</v>
+        <v>0.0696248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0415877</v>
+        <v>0.0392283</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08093110000000001</v>
+        <v>0.0798842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0910699</v>
+        <v>0.08965910000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0487282</v>
+        <v>0.0460877</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.109041</v>
+        <v>0.107122</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117325</v>
+        <v>0.11549</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0606819</v>
+        <v>0.0584105</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15016</v>
+        <v>0.147785</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159589</v>
+        <v>0.158266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.032276</v>
+        <v>0.0296411</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0334978</v>
+        <v>0.0333297</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0310139</v>
+        <v>0.0315793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0325989</v>
+        <v>0.0300955</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341667</v>
+        <v>0.0341702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0316599</v>
+        <v>0.0321834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0328156</v>
+        <v>0.0303401</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0348045</v>
+        <v>0.0346847</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0325951</v>
+        <v>0.0330959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0332277</v>
+        <v>0.0307747</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0355023</v>
+        <v>0.0354859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0337953</v>
+        <v>0.0341575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0338361</v>
+        <v>0.0312424</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0362116</v>
+        <v>0.0362954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0349184</v>
+        <v>0.0353359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0343895</v>
+        <v>0.0317407</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375407</v>
+        <v>0.0376215</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0368118</v>
+        <v>0.0371283</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0347988</v>
+        <v>0.0323568</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395867</v>
+        <v>0.0394276</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398806</v>
+        <v>0.0400914</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0353689</v>
+        <v>0.0330354</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0422115</v>
+        <v>0.0423553</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442528</v>
+        <v>0.0442553</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0364587</v>
+        <v>0.0341219</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468452</v>
+        <v>0.0469601</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0511078</v>
+        <v>0.0507417</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0378194</v>
+        <v>0.0355233</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0538109</v>
+        <v>0.0539145</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0597276</v>
+        <v>0.0590405</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0398897</v>
+        <v>0.0376874</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645699</v>
+        <v>0.06427090000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07099279999999999</v>
+        <v>0.0701248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0434561</v>
+        <v>0.041289</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07969909999999999</v>
+        <v>0.0791154</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08588079999999999</v>
+        <v>0.0844756</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0504816</v>
+        <v>0.0479429</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101294</v>
+        <v>0.10044</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113906</v>
+        <v>0.111471</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0615955</v>
+        <v>0.0591995</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136324</v>
+        <v>0.134972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151459</v>
+        <v>0.149756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0335781</v>
+        <v>0.0299336</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033588</v>
+        <v>0.0334963</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0322321</v>
+        <v>0.0321248</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0335751</v>
+        <v>0.0303225</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345621</v>
+        <v>0.0346922</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327595</v>
+        <v>0.0327538</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0337777</v>
+        <v>0.0306046</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352449</v>
+        <v>0.03537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0336993</v>
+        <v>0.0335211</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0340594</v>
+        <v>0.0309584</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0361664</v>
+        <v>0.0363674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0347161</v>
+        <v>0.0346532</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0345235</v>
+        <v>0.0313786</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370668</v>
+        <v>0.0372684</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0364207</v>
+        <v>0.036198</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0349905</v>
+        <v>0.0317763</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385808</v>
+        <v>0.0388942</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0387922</v>
+        <v>0.0384141</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0357418</v>
+        <v>0.0326663</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405787</v>
+        <v>0.0407464</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0414048</v>
+        <v>0.041275</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0364574</v>
+        <v>0.0332326</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432638</v>
+        <v>0.0434863</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0458597</v>
+        <v>0.045551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.037496</v>
+        <v>0.0343406</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472683</v>
+        <v>0.0475692</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0517568</v>
+        <v>0.0512095</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0390637</v>
+        <v>0.0361282</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.053799</v>
+        <v>0.0539178</v>
       </c>
       <c r="C47" t="n">
-        <v>0.058747</v>
+        <v>0.0580211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0415048</v>
+        <v>0.0383753</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.063321</v>
+        <v>0.06319470000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06914099999999999</v>
+        <v>0.0680888</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0453729</v>
+        <v>0.0423323</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07597089999999999</v>
+        <v>0.07559440000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08495510000000001</v>
+        <v>0.0834799</v>
       </c>
       <c r="D49" t="n">
-        <v>0.050811</v>
+        <v>0.0479932</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09554509999999999</v>
+        <v>0.0950305</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106938</v>
+        <v>0.104786</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0595671</v>
+        <v>0.0566328</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127942</v>
+        <v>0.126772</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141556</v>
+        <v>0.139794</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0353901</v>
+        <v>0.0324077</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174455</v>
+        <v>0.171984</v>
       </c>
       <c r="C52" t="n">
-        <v>0.189329</v>
+        <v>0.186159</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0356483</v>
+        <v>0.032667</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0365146</v>
+        <v>0.0367066</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0343793</v>
+        <v>0.0343568</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0359797</v>
+        <v>0.0329445</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0371252</v>
+        <v>0.0374309</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0351694</v>
+        <v>0.0350082</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0359729</v>
+        <v>0.0333448</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380104</v>
+        <v>0.03824</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0364197</v>
+        <v>0.0361405</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0367549</v>
+        <v>0.0337495</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0389824</v>
+        <v>0.0394204</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0376889</v>
+        <v>0.0375172</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0369227</v>
+        <v>0.0338324</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040442</v>
+        <v>0.0406766</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0398212</v>
+        <v>0.0395456</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0373983</v>
+        <v>0.0344946</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423471</v>
+        <v>0.0426896</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0425728</v>
+        <v>0.0423109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0385937</v>
+        <v>0.0352856</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0450049</v>
+        <v>0.0452642</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458837</v>
+        <v>0.0455041</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0395818</v>
+        <v>0.0364386</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0486044</v>
+        <v>0.0489126</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0504785</v>
+        <v>0.0500657</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0407621</v>
+        <v>0.0377456</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0539331</v>
+        <v>0.0541518</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0575941</v>
+        <v>0.0570639</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0430699</v>
+        <v>0.0399766</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0616323</v>
+        <v>0.0617142</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0674288</v>
+        <v>0.0666609</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0463743</v>
+        <v>0.0432181</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730888</v>
+        <v>0.0728174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0813281</v>
+        <v>0.0802739</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0513048</v>
+        <v>0.0483524</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.091304</v>
+        <v>0.09101330000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101264</v>
+        <v>0.09991999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0590831</v>
+        <v>0.0562754</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119258</v>
+        <v>0.118699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133174</v>
+        <v>0.132365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07313790000000001</v>
+        <v>0.06983590000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16183</v>
+        <v>0.16044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179162</v>
+        <v>0.177281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0419235</v>
+        <v>0.0369324</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411853</v>
+        <v>0.041745</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0392476</v>
+        <v>0.0378715</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0422329</v>
+        <v>0.0372984</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041795</v>
+        <v>0.0423624</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0402171</v>
+        <v>0.0387923</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0426299</v>
+        <v>0.0376777</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425284</v>
+        <v>0.0430761</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413687</v>
+        <v>0.0399686</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0430178</v>
+        <v>0.0380896</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435984</v>
+        <v>0.0441084</v>
       </c>
       <c r="C70" t="n">
-        <v>0.042686</v>
+        <v>0.0410065</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0435201</v>
+        <v>0.0385563</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450084</v>
+        <v>0.0455094</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0443708</v>
+        <v>0.0425811</v>
       </c>
       <c r="D71" t="n">
-        <v>0.044054</v>
+        <v>0.0391192</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466009</v>
+        <v>0.0470474</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0464185</v>
+        <v>0.0448926</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0447813</v>
+        <v>0.0398208</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048721</v>
+        <v>0.0492577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0496047</v>
+        <v>0.0485094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0458285</v>
+        <v>0.0408129</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520377</v>
+        <v>0.0524469</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0542617</v>
+        <v>0.0529884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0472985</v>
+        <v>0.0421077</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570303</v>
+        <v>0.05724</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0607795</v>
+        <v>0.0595808</v>
       </c>
       <c r="D75" t="n">
-        <v>0.049286</v>
+        <v>0.0441089</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0638691</v>
+        <v>0.06417340000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0698155</v>
+        <v>0.0685699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0521595</v>
+        <v>0.0468307</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07471709999999999</v>
+        <v>0.0747371</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08277320000000001</v>
+        <v>0.0811407</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0565084</v>
+        <v>0.0510203</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0902094</v>
+        <v>0.0906636</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100682</v>
+        <v>0.0984783</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06331630000000001</v>
+        <v>0.0576277</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114732</v>
+        <v>0.115136</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128593</v>
+        <v>0.125836</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07518519999999999</v>
+        <v>0.068956</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154912</v>
+        <v>0.15485</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170829</v>
+        <v>0.167971</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0472487</v>
+        <v>0.0437218</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476369</v>
+        <v>0.0478937</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0473374</v>
+        <v>0.047438</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0476408</v>
+        <v>0.044298</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487624</v>
+        <v>0.0491596</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0495688</v>
+        <v>0.0495509</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0482157</v>
+        <v>0.0448971</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504343</v>
+        <v>0.0509787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0520933</v>
+        <v>0.0522088</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0490295</v>
+        <v>0.0456929</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525563</v>
+        <v>0.0531582</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0550879</v>
+        <v>0.0552597</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0499131</v>
+        <v>0.0466169</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0551053</v>
+        <v>0.0559208</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0585052</v>
+        <v>0.0589221</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0509894</v>
+        <v>0.0477833</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0581019</v>
+        <v>0.0594295</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0623841</v>
+        <v>0.0629149</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0524169</v>
+        <v>0.0492892</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0622303</v>
+        <v>0.0638558</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0671895</v>
+        <v>0.0679351</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0541682</v>
+        <v>0.0512008</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0675709</v>
+        <v>0.0689622</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0733294</v>
+        <v>0.0739631</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0566473</v>
+        <v>0.0539225</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0745734</v>
+        <v>0.0754538</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0806486</v>
+        <v>0.08104989999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0596683</v>
+        <v>0.0570324</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0835042</v>
+        <v>0.08426500000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09047860000000001</v>
+        <v>0.09066689999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0639142</v>
+        <v>0.0614085</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0950477</v>
+        <v>0.0955404</v>
       </c>
       <c r="C91" t="n">
-        <v>0.102671</v>
+        <v>0.102517</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06975199999999999</v>
+        <v>0.06700010000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111341</v>
+        <v>0.111362</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119107</v>
+        <v>0.118916</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07793070000000001</v>
+        <v>0.0747732</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13434</v>
+        <v>0.133979</v>
       </c>
       <c r="C93" t="n">
-        <v>0.143883</v>
+        <v>0.143743</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0905996</v>
+        <v>0.0873921</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167937</v>
+        <v>0.168276</v>
       </c>
       <c r="C94" t="n">
-        <v>0.180314</v>
+        <v>0.1812</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0566791</v>
+        <v>0.0537789</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0673449</v>
+        <v>0.06743780000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0670053</v>
+        <v>0.06765350000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0583254</v>
+        <v>0.0550835</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07034269999999999</v>
+        <v>0.0698607</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06949660000000001</v>
+        <v>0.0702536</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0600953</v>
+        <v>0.0565433</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722439</v>
+        <v>0.07295980000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07246180000000001</v>
+        <v>0.0734279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0615721</v>
+        <v>0.0583759</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0755996</v>
+        <v>0.0755513</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0755589</v>
+        <v>0.0768334</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0631282</v>
+        <v>0.0601229</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788465</v>
+        <v>0.0788013</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07920720000000001</v>
+        <v>0.0805925</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0653845</v>
+        <v>0.0619227</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817944</v>
+        <v>0.081729</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0838015</v>
+        <v>0.0844072</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06737949999999999</v>
+        <v>0.0639919</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08526350000000001</v>
+        <v>0.0853945</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0886063</v>
+        <v>0.0894553</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0691198</v>
+        <v>0.06626410000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09033480000000001</v>
+        <v>0.09041349999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0944919</v>
+        <v>0.0950899</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0721253</v>
+        <v>0.0680071</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0959337</v>
+        <v>0.0966402</v>
       </c>
       <c r="C103" t="n">
-        <v>0.101245</v>
+        <v>0.102607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0742758</v>
+        <v>0.0709501</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104266</v>
+        <v>0.104585</v>
       </c>
       <c r="C104" t="n">
-        <v>0.111088</v>
+        <v>0.11218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0787511</v>
+        <v>0.0758408</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115303</v>
+        <v>0.116284</v>
       </c>
       <c r="C105" t="n">
-        <v>0.123062</v>
+        <v>0.124283</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0843145</v>
+        <v>0.0814579</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.130738</v>
+        <v>0.131756</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139272</v>
+        <v>0.138826</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0918631</v>
+        <v>0.0879746</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152226</v>
+        <v>0.153377</v>
       </c>
       <c r="C107" t="n">
-        <v>0.162018</v>
+        <v>0.161018</v>
       </c>
       <c r="D107" t="n">
-        <v>0.103897</v>
+        <v>0.100146</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182491</v>
+        <v>0.183671</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196737</v>
+        <v>0.195576</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0644547</v>
+        <v>0.0614969</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229389</v>
+        <v>0.230807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.251033</v>
+        <v>0.249633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0659159</v>
+        <v>0.0628978</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0809539</v>
+        <v>0.0798442</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0855214</v>
+        <v>0.0862388</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06710190000000001</v>
+        <v>0.0638818</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840514</v>
+        <v>0.0837928</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0885555</v>
+        <v>0.0890977</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06840359999999999</v>
+        <v>0.0649062</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08758050000000001</v>
+        <v>0.0880213</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0915928</v>
+        <v>0.0921395</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0699245</v>
+        <v>0.0666718</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0919291</v>
+        <v>0.0917398</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0949106</v>
+        <v>0.0953475</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07261579999999999</v>
+        <v>0.06906080000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0961042</v>
+        <v>0.0963971</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09909519999999999</v>
+        <v>0.0995943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07481640000000001</v>
+        <v>0.07140249999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101551</v>
+        <v>0.100266</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103817</v>
+        <v>0.104333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07799490000000001</v>
+        <v>0.07402830000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107614</v>
+        <v>0.107956</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109237</v>
+        <v>0.109712</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08153340000000001</v>
+        <v>0.0781321</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114639</v>
+        <v>0.114891</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116445</v>
+        <v>0.116864</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0863768</v>
+        <v>0.0826402</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122893</v>
+        <v>0.123298</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125535</v>
+        <v>0.125833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09185169999999999</v>
+        <v>0.0882402</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13342</v>
+        <v>0.13359</v>
       </c>
       <c r="C119" t="n">
-        <v>0.13695</v>
+        <v>0.136234</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0987198</v>
+        <v>0.0946292</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147025</v>
+        <v>0.145513</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152229</v>
+        <v>0.152322</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10755</v>
+        <v>0.103319</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165738</v>
+        <v>0.163827</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173284</v>
+        <v>0.173293</v>
       </c>
       <c r="D121" t="n">
-        <v>0.119611</v>
+        <v>0.115372</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192691</v>
+        <v>0.192733</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20507</v>
+        <v>0.205124</v>
       </c>
       <c r="D122" t="n">
-        <v>0.138812</v>
+        <v>0.133721</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233979</v>
+        <v>0.233582</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25319</v>
+        <v>0.254886</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0897954</v>
+        <v>0.08581179999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104294</v>
+        <v>0.10447</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10192</v>
+        <v>0.105765</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0886686</v>
+        <v>0.08865240000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10515</v>
+        <v>0.106212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106765</v>
+        <v>0.108039</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09335499999999999</v>
+        <v>0.0890903</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10889</v>
+        <v>0.109226</v>
       </c>
       <c r="C126" t="n">
-        <v>0.10879</v>
+        <v>0.111314</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0939497</v>
+        <v>0.09156060000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111544</v>
+        <v>0.111227</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111614</v>
+        <v>0.114766</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0942875</v>
+        <v>0.0937368</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114686</v>
+        <v>0.113934</v>
       </c>
       <c r="C128" t="n">
-        <v>0.115389</v>
+        <v>0.118971</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0968575</v>
+        <v>0.0971115</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118165</v>
+        <v>0.118202</v>
       </c>
       <c r="C129" t="n">
-        <v>0.120443</v>
+        <v>0.12279</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0999872</v>
+        <v>0.09799389999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122977</v>
+        <v>0.122973</v>
       </c>
       <c r="C130" t="n">
-        <v>0.124963</v>
+        <v>0.127587</v>
       </c>
       <c r="D130" t="n">
-        <v>0.102384</v>
+        <v>0.0999261</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12657</v>
+        <v>0.129198</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13209</v>
+        <v>0.134047</v>
       </c>
       <c r="D131" t="n">
-        <v>0.106062</v>
+        <v>0.10314</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134342</v>
+        <v>0.134665</v>
       </c>
       <c r="C132" t="n">
-        <v>0.140824</v>
+        <v>0.141309</v>
       </c>
       <c r="D132" t="n">
-        <v>0.111078</v>
+        <v>0.105724</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14293</v>
+        <v>0.143586</v>
       </c>
       <c r="C133" t="n">
-        <v>0.150643</v>
+        <v>0.154211</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114897</v>
+        <v>0.114406</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155168</v>
+        <v>0.155378</v>
       </c>
       <c r="C134" t="n">
-        <v>0.164849</v>
+        <v>0.166694</v>
       </c>
       <c r="D134" t="n">
-        <v>0.121451</v>
+        <v>0.118971</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172594</v>
+        <v>0.173485</v>
       </c>
       <c r="C135" t="n">
-        <v>0.184973</v>
+        <v>0.186938</v>
       </c>
       <c r="D135" t="n">
-        <v>0.132018</v>
+        <v>0.128893</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197901</v>
+        <v>0.198025</v>
       </c>
       <c r="C136" t="n">
-        <v>0.214233</v>
+        <v>0.21617</v>
       </c>
       <c r="D136" t="n">
-        <v>0.148509</v>
+        <v>0.144351</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236888</v>
+        <v>0.237169</v>
       </c>
       <c r="C137" t="n">
-        <v>0.258887</v>
+        <v>0.260657</v>
       </c>
       <c r="D137" t="n">
-        <v>0.172303</v>
+        <v>0.162778</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169019</v>
+        <v>0.169094</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164064</v>
+        <v>0.165736</v>
       </c>
       <c r="D138" t="n">
-        <v>0.173391</v>
+        <v>0.164918</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169317</v>
+        <v>0.17202</v>
       </c>
       <c r="C139" t="n">
-        <v>0.166407</v>
+        <v>0.168538</v>
       </c>
       <c r="D139" t="n">
-        <v>0.175806</v>
+        <v>0.167105</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171248</v>
+        <v>0.173151</v>
       </c>
       <c r="C140" t="n">
-        <v>0.168385</v>
+        <v>0.170549</v>
       </c>
       <c r="D140" t="n">
-        <v>0.176556</v>
+        <v>0.167501</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173568</v>
+        <v>0.176094</v>
       </c>
       <c r="C141" t="n">
-        <v>0.17192</v>
+        <v>0.173936</v>
       </c>
       <c r="D141" t="n">
-        <v>0.178713</v>
+        <v>0.169877</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175426</v>
+        <v>0.17102</v>
       </c>
       <c r="C142" t="n">
-        <v>0.174575</v>
+        <v>0.176792</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18016</v>
+        <v>0.171177</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17834</v>
+        <v>0.1722</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17878</v>
+        <v>0.180739</v>
       </c>
       <c r="D143" t="n">
-        <v>0.182383</v>
+        <v>0.174066</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0317005</v>
+        <v>0.0319027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0322989</v>
+        <v>0.0321011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0309808</v>
+        <v>0.031303</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0325583</v>
+        <v>0.0333693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0337904</v>
+        <v>0.0335134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0323063</v>
+        <v>0.0320595</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0350097</v>
+        <v>0.0347789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0390643</v>
+        <v>0.0385993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334373</v>
+        <v>0.0331314</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0411929</v>
+        <v>0.0409962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0482892</v>
+        <v>0.0485978</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0350866</v>
+        <v>0.0348059</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0540753</v>
+        <v>0.054108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06510349999999999</v>
+        <v>0.06597889999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037011</v>
+        <v>0.0367089</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.080179</v>
+        <v>0.0802499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0895123</v>
+        <v>0.0913674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0424679</v>
+        <v>0.0424711</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119664</v>
+        <v>0.120107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116607</v>
+        <v>0.11855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0535434</v>
+        <v>0.0544485</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160362</v>
+        <v>0.160849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161033</v>
+        <v>0.161905</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0287613</v>
+        <v>0.0289154</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0314845</v>
+        <v>0.0310455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0297969</v>
+        <v>0.0290626</v>
       </c>
       <c r="D10" t="n">
-        <v>0.029001</v>
+        <v>0.0291339</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0319143</v>
+        <v>0.031506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0303673</v>
+        <v>0.0295943</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0293615</v>
+        <v>0.0295218</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0321669</v>
+        <v>0.0318594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0311446</v>
+        <v>0.0307427</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0297217</v>
+        <v>0.02996</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324827</v>
+        <v>0.0324906</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0319079</v>
+        <v>0.0313851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0301411</v>
+        <v>0.030397</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0333199</v>
+        <v>0.033205</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0328922</v>
+        <v>0.0323219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0306002</v>
+        <v>0.0308341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342459</v>
+        <v>0.0341201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0342556</v>
+        <v>0.0335953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0314162</v>
+        <v>0.0313639</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.034973</v>
+        <v>0.0348312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0370518</v>
+        <v>0.036789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0323012</v>
+        <v>0.0321675</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0368105</v>
+        <v>0.0367176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0403996</v>
+        <v>0.0406176</v>
       </c>
       <c r="D17" t="n">
-        <v>0.033059</v>
+        <v>0.0329841</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0406895</v>
+        <v>0.040769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0478221</v>
+        <v>0.0483281</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0346765</v>
+        <v>0.0344151</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0482185</v>
+        <v>0.0491876</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0573878</v>
+        <v>0.0573676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0362146</v>
+        <v>0.0360047</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.061362</v>
+        <v>0.0614924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0696248</v>
+        <v>0.0705271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0392283</v>
+        <v>0.0387921</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0798842</v>
+        <v>0.080426</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08965910000000001</v>
+        <v>0.09108280000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0460877</v>
+        <v>0.0458937</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107122</v>
+        <v>0.107518</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11549</v>
+        <v>0.116994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0584105</v>
+        <v>0.0586577</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.147785</v>
+        <v>0.147689</v>
       </c>
       <c r="C23" t="n">
-        <v>0.158266</v>
+        <v>0.159634</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0296411</v>
+        <v>0.0299645</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333297</v>
+        <v>0.0327072</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0315793</v>
+        <v>0.0308864</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0300955</v>
+        <v>0.0303798</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341702</v>
+        <v>0.0336326</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0321834</v>
+        <v>0.0316474</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0303401</v>
+        <v>0.0305332</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346847</v>
+        <v>0.0342411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0330959</v>
+        <v>0.032517</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0307747</v>
+        <v>0.0310959</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0354859</v>
+        <v>0.035029</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0341575</v>
+        <v>0.0337243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0312424</v>
+        <v>0.0314844</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0362954</v>
+        <v>0.0355981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0353359</v>
+        <v>0.0350142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0317407</v>
+        <v>0.0320432</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0376215</v>
+        <v>0.0371534</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371283</v>
+        <v>0.0367298</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0323568</v>
+        <v>0.0325066</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394276</v>
+        <v>0.0391644</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0400914</v>
+        <v>0.0398852</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0330354</v>
+        <v>0.0332855</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0423553</v>
+        <v>0.0420258</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442553</v>
+        <v>0.04438</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0341219</v>
+        <v>0.0342807</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0469601</v>
+        <v>0.0465986</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0507417</v>
+        <v>0.0510438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0355233</v>
+        <v>0.035406</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539145</v>
+        <v>0.0537755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590405</v>
+        <v>0.0597983</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0376874</v>
+        <v>0.0377309</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06427090000000001</v>
+        <v>0.0641867</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0701248</v>
+        <v>0.0712426</v>
       </c>
       <c r="D34" t="n">
-        <v>0.041289</v>
+        <v>0.041126</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0791154</v>
+        <v>0.0793194</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0844756</v>
+        <v>0.08608150000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0479429</v>
+        <v>0.0482666</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10044</v>
+        <v>0.100596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111471</v>
+        <v>0.113747</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0591995</v>
+        <v>0.0595249</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.134972</v>
+        <v>0.135091</v>
       </c>
       <c r="C37" t="n">
-        <v>0.149756</v>
+        <v>0.152324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0299336</v>
+        <v>0.0302931</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334963</v>
+        <v>0.0332594</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0321248</v>
+        <v>0.0315741</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0303225</v>
+        <v>0.0307557</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0346922</v>
+        <v>0.0341964</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0327538</v>
+        <v>0.0323218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0306046</v>
+        <v>0.0310252</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03537</v>
+        <v>0.0348076</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0335211</v>
+        <v>0.0330971</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0309584</v>
+        <v>0.0313701</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0363674</v>
+        <v>0.0358816</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0346532</v>
+        <v>0.0341393</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0313786</v>
+        <v>0.0316773</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0372684</v>
+        <v>0.0368188</v>
       </c>
       <c r="C42" t="n">
-        <v>0.036198</v>
+        <v>0.0360944</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0317763</v>
+        <v>0.032231</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0388942</v>
+        <v>0.0384018</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0384141</v>
+        <v>0.0383577</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0326663</v>
+        <v>0.0329656</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0407464</v>
+        <v>0.0402694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.041275</v>
+        <v>0.0410605</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0332326</v>
+        <v>0.0336093</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0434863</v>
+        <v>0.0430334</v>
       </c>
       <c r="C45" t="n">
-        <v>0.045551</v>
+        <v>0.0455657</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0343406</v>
+        <v>0.0346955</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475692</v>
+        <v>0.0472873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0512095</v>
+        <v>0.0516254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0361282</v>
+        <v>0.0362482</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0539178</v>
+        <v>0.0536603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0580211</v>
+        <v>0.0587126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0383753</v>
+        <v>0.0386606</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06319470000000001</v>
+        <v>0.0631304</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0680888</v>
+        <v>0.0690669</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0423323</v>
+        <v>0.042558</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07559440000000001</v>
+        <v>0.0756006</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0834799</v>
+        <v>0.084828</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0479932</v>
+        <v>0.0481191</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0950305</v>
+        <v>0.0952249</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104786</v>
+        <v>0.106613</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0566328</v>
+        <v>0.0569437</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126772</v>
+        <v>0.126973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139794</v>
+        <v>0.14157</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0324077</v>
+        <v>0.0325529</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171984</v>
+        <v>0.173094</v>
       </c>
       <c r="C52" t="n">
-        <v>0.186159</v>
+        <v>0.187097</v>
       </c>
       <c r="D52" t="n">
-        <v>0.032667</v>
+        <v>0.0327875</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0367066</v>
+        <v>0.0354752</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0343568</v>
+        <v>0.033675</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0329445</v>
+        <v>0.0329691</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0374309</v>
+        <v>0.0361823</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0350082</v>
+        <v>0.0344902</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0333448</v>
+        <v>0.0333411</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03824</v>
+        <v>0.0370782</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0361405</v>
+        <v>0.0357537</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0337495</v>
+        <v>0.0337183</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0394204</v>
+        <v>0.038259</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0375172</v>
+        <v>0.037161</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0338324</v>
+        <v>0.0341183</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0406766</v>
+        <v>0.039693</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0395456</v>
+        <v>0.0393219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0344946</v>
+        <v>0.0347874</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0426896</v>
+        <v>0.0417018</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0423109</v>
+        <v>0.0422107</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0352856</v>
+        <v>0.0355902</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0452642</v>
+        <v>0.0443522</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0455041</v>
+        <v>0.0454449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0364386</v>
+        <v>0.0365281</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0489126</v>
+        <v>0.0482604</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0500657</v>
+        <v>0.0502385</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0377456</v>
+        <v>0.037948</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0541518</v>
+        <v>0.0535995</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0570639</v>
+        <v>0.0575088</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0399766</v>
+        <v>0.040065</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0617142</v>
+        <v>0.0611567</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0666609</v>
+        <v>0.0672862</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0432181</v>
+        <v>0.043343</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728174</v>
+        <v>0.0724901</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0802739</v>
+        <v>0.08134329999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0483524</v>
+        <v>0.0483883</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09101330000000001</v>
+        <v>0.09074210000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09991999999999999</v>
+        <v>0.10138</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0562754</v>
+        <v>0.0563228</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118699</v>
+        <v>0.118435</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132365</v>
+        <v>0.133555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06983590000000001</v>
+        <v>0.06998989999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16044</v>
+        <v>0.160511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.177281</v>
+        <v>0.179455</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0369324</v>
+        <v>0.0387962</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041745</v>
+        <v>0.0409179</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0378715</v>
+        <v>0.0388875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0372984</v>
+        <v>0.0391405</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0423624</v>
+        <v>0.04152</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0387923</v>
+        <v>0.0399038</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0376777</v>
+        <v>0.0394937</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0430761</v>
+        <v>0.042266</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0399686</v>
+        <v>0.0411028</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0380896</v>
+        <v>0.039942</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441084</v>
+        <v>0.0432944</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0410065</v>
+        <v>0.0424367</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0385563</v>
+        <v>0.0404079</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0455094</v>
+        <v>0.0446827</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0425811</v>
+        <v>0.0441678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0391192</v>
+        <v>0.041003</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470474</v>
+        <v>0.0463171</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0448926</v>
+        <v>0.0464835</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0398208</v>
+        <v>0.0416992</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492577</v>
+        <v>0.048584</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0485094</v>
+        <v>0.0498203</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0408129</v>
+        <v>0.0427069</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0524469</v>
+        <v>0.0517996</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0529884</v>
+        <v>0.0544939</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0421077</v>
+        <v>0.0440188</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05724</v>
+        <v>0.0566368</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0595808</v>
+        <v>0.0611269</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0441089</v>
+        <v>0.045949</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06417340000000001</v>
+        <v>0.0634369</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0685699</v>
+        <v>0.0703114</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0468307</v>
+        <v>0.0488759</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0747371</v>
+        <v>0.07409880000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0811407</v>
+        <v>0.0832973</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0510203</v>
+        <v>0.0531721</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0906636</v>
+        <v>0.0900135</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0984783</v>
+        <v>0.101098</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0576277</v>
+        <v>0.0600092</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115136</v>
+        <v>0.114216</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125836</v>
+        <v>0.128979</v>
       </c>
       <c r="D79" t="n">
-        <v>0.068956</v>
+        <v>0.071197</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15485</v>
+        <v>0.153909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.167971</v>
+        <v>0.171039</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0437218</v>
+        <v>0.0444141</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0478937</v>
+        <v>0.0473853</v>
       </c>
       <c r="C81" t="n">
-        <v>0.047438</v>
+        <v>0.0470571</v>
       </c>
       <c r="D81" t="n">
-        <v>0.044298</v>
+        <v>0.0448729</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491596</v>
+        <v>0.0485574</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0495509</v>
+        <v>0.0491389</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0448971</v>
+        <v>0.0453899</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0509787</v>
+        <v>0.0502479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0522088</v>
+        <v>0.0517532</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0456929</v>
+        <v>0.0461111</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0531582</v>
+        <v>0.0522256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0552597</v>
+        <v>0.0548692</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0466169</v>
+        <v>0.0470641</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0559208</v>
+        <v>0.0547338</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0589221</v>
+        <v>0.0586213</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0477833</v>
+        <v>0.0481235</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0594295</v>
+        <v>0.0581519</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0629149</v>
+        <v>0.0629247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0492892</v>
+        <v>0.0495241</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0638558</v>
+        <v>0.06270729999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0679351</v>
+        <v>0.0676908</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0512008</v>
+        <v>0.0514328</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0689622</v>
+        <v>0.0676833</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0739631</v>
+        <v>0.07377690000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0539225</v>
+        <v>0.0538843</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0754538</v>
+        <v>0.0743187</v>
       </c>
       <c r="C89" t="n">
-        <v>0.08104989999999999</v>
+        <v>0.0810014</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0570324</v>
+        <v>0.0569215</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08426500000000001</v>
+        <v>0.0831385</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09066689999999999</v>
+        <v>0.0909756</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0614085</v>
+        <v>0.0611319</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0955404</v>
+        <v>0.0943524</v>
       </c>
       <c r="C91" t="n">
-        <v>0.102517</v>
+        <v>0.103359</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06700010000000001</v>
+        <v>0.06707340000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111362</v>
+        <v>0.110236</v>
       </c>
       <c r="C92" t="n">
-        <v>0.118916</v>
+        <v>0.119939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0747732</v>
+        <v>0.07532519999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133979</v>
+        <v>0.133354</v>
       </c>
       <c r="C93" t="n">
-        <v>0.143743</v>
+        <v>0.144948</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0873921</v>
+        <v>0.0877643</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168276</v>
+        <v>0.166918</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1812</v>
+        <v>0.182326</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0537789</v>
+        <v>0.054094</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06743780000000001</v>
+        <v>0.0661409</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06765350000000001</v>
+        <v>0.06718830000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0550835</v>
+        <v>0.0554679</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0698607</v>
+        <v>0.0683053</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0702536</v>
+        <v>0.0697</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0565433</v>
+        <v>0.0573354</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07295980000000001</v>
+        <v>0.07156129999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0734279</v>
+        <v>0.07243040000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0583759</v>
+        <v>0.0592497</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0755513</v>
+        <v>0.0752101</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0768334</v>
+        <v>0.076042</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0601229</v>
+        <v>0.0604964</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788013</v>
+        <v>0.0783358</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0805925</v>
+        <v>0.07990419999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0619227</v>
+        <v>0.0611882</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.081729</v>
+        <v>0.08180949999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0844072</v>
+        <v>0.0847936</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0639919</v>
+        <v>0.0627699</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0853945</v>
+        <v>0.0855022</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0894553</v>
+        <v>0.0890381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06626410000000001</v>
+        <v>0.06550449999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09041349999999999</v>
+        <v>0.0895019</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0950899</v>
+        <v>0.0955978</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0680071</v>
+        <v>0.06901549999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0966402</v>
+        <v>0.09682010000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102607</v>
+        <v>0.102694</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0709501</v>
+        <v>0.0716097</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104585</v>
+        <v>0.104742</v>
       </c>
       <c r="C104" t="n">
-        <v>0.11218</v>
+        <v>0.11252</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0758408</v>
+        <v>0.0758987</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116284</v>
+        <v>0.115905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.124283</v>
+        <v>0.124552</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0814579</v>
+        <v>0.0794412</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131756</v>
+        <v>0.131652</v>
       </c>
       <c r="C106" t="n">
-        <v>0.138826</v>
+        <v>0.140594</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0879746</v>
+        <v>0.0887893</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153377</v>
+        <v>0.15327</v>
       </c>
       <c r="C107" t="n">
-        <v>0.161018</v>
+        <v>0.163697</v>
       </c>
       <c r="D107" t="n">
-        <v>0.100146</v>
+        <v>0.100761</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183671</v>
+        <v>0.18348</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195576</v>
+        <v>0.194471</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0614969</v>
+        <v>0.0616761</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230807</v>
+        <v>0.230753</v>
       </c>
       <c r="C109" t="n">
-        <v>0.249633</v>
+        <v>0.25331</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0628978</v>
+        <v>0.0627828</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0798442</v>
+        <v>0.0803702</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0862388</v>
+        <v>0.085843</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0638818</v>
+        <v>0.0643557</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0837928</v>
+        <v>0.0835429</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0890977</v>
+        <v>0.08856989999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0649062</v>
+        <v>0.0656038</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0880213</v>
+        <v>0.0861326</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0921395</v>
+        <v>0.09152349999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0666718</v>
+        <v>0.06729889999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0917398</v>
+        <v>0.09043710000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0953475</v>
+        <v>0.09490319999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06906080000000001</v>
+        <v>0.0693213</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0963971</v>
+        <v>0.0947592</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0995943</v>
+        <v>0.0992894</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07140249999999999</v>
+        <v>0.0717822</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100266</v>
+        <v>0.100164</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104333</v>
+        <v>0.103352</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07402830000000001</v>
+        <v>0.07419340000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107956</v>
+        <v>0.107159</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109712</v>
+        <v>0.109863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0781321</v>
+        <v>0.0787929</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114891</v>
+        <v>0.114293</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116864</v>
+        <v>0.116558</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0826402</v>
+        <v>0.0825336</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123298</v>
+        <v>0.121382</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125833</v>
+        <v>0.125732</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0882402</v>
+        <v>0.0882395</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13359</v>
+        <v>0.133096</v>
       </c>
       <c r="C119" t="n">
-        <v>0.136234</v>
+        <v>0.137007</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0946292</v>
+        <v>0.0946693</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145513</v>
+        <v>0.146558</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152322</v>
+        <v>0.152337</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103319</v>
+        <v>0.103024</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163827</v>
+        <v>0.165363</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173293</v>
+        <v>0.17345</v>
       </c>
       <c r="D121" t="n">
-        <v>0.115372</v>
+        <v>0.115062</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192733</v>
+        <v>0.192354</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205124</v>
+        <v>0.203693</v>
       </c>
       <c r="D122" t="n">
-        <v>0.133721</v>
+        <v>0.133371</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233582</v>
+        <v>0.230922</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254886</v>
+        <v>0.254664</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08581179999999999</v>
+        <v>0.083887</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10447</v>
+        <v>0.102282</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105765</v>
+        <v>0.104047</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08865240000000001</v>
+        <v>0.0865884</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106212</v>
+        <v>0.106765</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108039</v>
+        <v>0.108264</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0890903</v>
+        <v>0.0906704</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109226</v>
+        <v>0.107604</v>
       </c>
       <c r="C126" t="n">
-        <v>0.111314</v>
+        <v>0.109705</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09156060000000001</v>
+        <v>0.0900157</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111227</v>
+        <v>0.112415</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114766</v>
+        <v>0.11362</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0937368</v>
+        <v>0.0935955</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113934</v>
+        <v>0.113281</v>
       </c>
       <c r="C128" t="n">
-        <v>0.118971</v>
+        <v>0.117025</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0971115</v>
+        <v>0.0945797</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118202</v>
+        <v>0.118818</v>
       </c>
       <c r="C129" t="n">
-        <v>0.12279</v>
+        <v>0.121345</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09799389999999999</v>
+        <v>0.0964161</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122973</v>
+        <v>0.123223</v>
       </c>
       <c r="C130" t="n">
-        <v>0.127587</v>
+        <v>0.127208</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0999261</v>
+        <v>0.100221</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129198</v>
+        <v>0.127663</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134047</v>
+        <v>0.134431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.10314</v>
+        <v>0.104426</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134665</v>
+        <v>0.132061</v>
       </c>
       <c r="C132" t="n">
-        <v>0.141309</v>
+        <v>0.140664</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105724</v>
+        <v>0.104505</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143586</v>
+        <v>0.140073</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154211</v>
+        <v>0.153114</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114406</v>
+        <v>0.112983</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155378</v>
+        <v>0.153242</v>
       </c>
       <c r="C134" t="n">
-        <v>0.166694</v>
+        <v>0.165519</v>
       </c>
       <c r="D134" t="n">
-        <v>0.118971</v>
+        <v>0.116612</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173485</v>
+        <v>0.17116</v>
       </c>
       <c r="C135" t="n">
-        <v>0.186938</v>
+        <v>0.185411</v>
       </c>
       <c r="D135" t="n">
-        <v>0.128893</v>
+        <v>0.12611</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198025</v>
+        <v>0.193785</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21617</v>
+        <v>0.214067</v>
       </c>
       <c r="D136" t="n">
-        <v>0.144351</v>
+        <v>0.14132</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237169</v>
+        <v>0.236358</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260657</v>
+        <v>0.259886</v>
       </c>
       <c r="D137" t="n">
-        <v>0.162778</v>
+        <v>0.164944</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169094</v>
+        <v>0.174657</v>
       </c>
       <c r="C138" t="n">
-        <v>0.165736</v>
+        <v>0.16538</v>
       </c>
       <c r="D138" t="n">
-        <v>0.164918</v>
+        <v>0.164832</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17202</v>
+        <v>0.17049</v>
       </c>
       <c r="C139" t="n">
-        <v>0.168538</v>
+        <v>0.167457</v>
       </c>
       <c r="D139" t="n">
-        <v>0.167105</v>
+        <v>0.165923</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173151</v>
+        <v>0.170782</v>
       </c>
       <c r="C140" t="n">
-        <v>0.170549</v>
+        <v>0.170751</v>
       </c>
       <c r="D140" t="n">
-        <v>0.167501</v>
+        <v>0.168072</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176094</v>
+        <v>0.17479</v>
       </c>
       <c r="C141" t="n">
-        <v>0.173936</v>
+        <v>0.173861</v>
       </c>
       <c r="D141" t="n">
-        <v>0.169877</v>
+        <v>0.170436</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17102</v>
+        <v>0.172812</v>
       </c>
       <c r="C142" t="n">
-        <v>0.176792</v>
+        <v>0.177232</v>
       </c>
       <c r="D142" t="n">
-        <v>0.171177</v>
+        <v>0.172612</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1722</v>
+        <v>0.173417</v>
       </c>
       <c r="C143" t="n">
-        <v>0.180739</v>
+        <v>0.18109</v>
       </c>
       <c r="D143" t="n">
-        <v>0.174066</v>
+        <v>0.173918</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319027</v>
+        <v>0.0330115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0321011</v>
+        <v>0.0327528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.031303</v>
+        <v>0.0308272</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333693</v>
+        <v>0.0347347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0335134</v>
+        <v>0.0348146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0320595</v>
+        <v>0.0318177</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0347789</v>
+        <v>0.0360148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0385993</v>
+        <v>0.0395195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0331314</v>
+        <v>0.0331878</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0409962</v>
+        <v>0.0418307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0485978</v>
+        <v>0.0479482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0348059</v>
+        <v>0.0355506</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.054108</v>
+        <v>0.0535789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06597889999999999</v>
+        <v>0.0653098</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0367089</v>
+        <v>0.0383589</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0802499</v>
+        <v>0.07989159999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0913674</v>
+        <v>0.08892170000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0424711</v>
+        <v>0.0436786</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120107</v>
+        <v>0.117459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11855</v>
+        <v>0.1175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0544485</v>
+        <v>0.0546957</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160849</v>
+        <v>0.158288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161905</v>
+        <v>0.161941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0289154</v>
+        <v>0.0286386</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310455</v>
+        <v>0.0315793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0290626</v>
+        <v>0.030136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0291339</v>
+        <v>0.0289603</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031506</v>
+        <v>0.0322884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0295943</v>
+        <v>0.0306182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0295218</v>
+        <v>0.029337</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0318594</v>
+        <v>0.0329543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0307427</v>
+        <v>0.0315762</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02996</v>
+        <v>0.0297988</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324906</v>
+        <v>0.0335262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313851</v>
+        <v>0.0321891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.030397</v>
+        <v>0.0302341</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.033205</v>
+        <v>0.0339573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0323219</v>
+        <v>0.0332754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0308341</v>
+        <v>0.0307647</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341201</v>
+        <v>0.0348054</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0335953</v>
+        <v>0.0345599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0313639</v>
+        <v>0.0314877</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0348312</v>
+        <v>0.0362603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.036789</v>
+        <v>0.0372462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0321675</v>
+        <v>0.0323441</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0367176</v>
+        <v>0.0380702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406176</v>
+        <v>0.0409828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0329841</v>
+        <v>0.0331583</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.040769</v>
+        <v>0.0418821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0483281</v>
+        <v>0.0483936</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0344151</v>
+        <v>0.0349245</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0491876</v>
+        <v>0.0482431</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0573676</v>
+        <v>0.0575587</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0360047</v>
+        <v>0.0367906</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0614924</v>
+        <v>0.0617972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0705271</v>
+        <v>0.0694825</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0387921</v>
+        <v>0.0398704</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.080426</v>
+        <v>0.0802069</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09108280000000001</v>
+        <v>0.0899054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0458937</v>
+        <v>0.0463755</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107518</v>
+        <v>0.107335</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116994</v>
+        <v>0.115914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0586577</v>
+        <v>0.0577493</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.147689</v>
+        <v>0.145958</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159634</v>
+        <v>0.157392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0299645</v>
+        <v>0.0296316</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0327072</v>
+        <v>0.0330199</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0308864</v>
+        <v>0.031759</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0303798</v>
+        <v>0.0301782</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0336326</v>
+        <v>0.0339756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0316474</v>
+        <v>0.0323078</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0305332</v>
+        <v>0.0304443</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0342411</v>
+        <v>0.0345562</v>
       </c>
       <c r="C26" t="n">
-        <v>0.032517</v>
+        <v>0.0333079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0310959</v>
+        <v>0.0308573</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.035029</v>
+        <v>0.0353437</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0337243</v>
+        <v>0.0343045</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0314844</v>
+        <v>0.0313463</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0355981</v>
+        <v>0.0361937</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0350142</v>
+        <v>0.035544</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0320432</v>
+        <v>0.0319047</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0371534</v>
+        <v>0.0375763</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0367298</v>
+        <v>0.0371719</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0325066</v>
+        <v>0.0325601</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0391644</v>
+        <v>0.0396445</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0398852</v>
+        <v>0.0401988</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0332855</v>
+        <v>0.0332534</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420258</v>
+        <v>0.0422438</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04438</v>
+        <v>0.0442818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0342807</v>
+        <v>0.0344949</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465986</v>
+        <v>0.0472446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0510438</v>
+        <v>0.0507769</v>
       </c>
       <c r="D32" t="n">
-        <v>0.035406</v>
+        <v>0.0358325</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0537755</v>
+        <v>0.0537921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0597983</v>
+        <v>0.0590438</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0377309</v>
+        <v>0.0380557</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0641867</v>
+        <v>0.0648017</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0712426</v>
+        <v>0.0701946</v>
       </c>
       <c r="D34" t="n">
-        <v>0.041126</v>
+        <v>0.0415354</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0793194</v>
+        <v>0.079526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08608150000000001</v>
+        <v>0.0846515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0482666</v>
+        <v>0.0479688</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100596</v>
+        <v>0.09998509999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113747</v>
+        <v>0.112089</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0595249</v>
+        <v>0.0590825</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135091</v>
+        <v>0.135547</v>
       </c>
       <c r="C37" t="n">
-        <v>0.152324</v>
+        <v>0.150928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0302931</v>
+        <v>0.0301853</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332594</v>
+        <v>0.0338223</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0315741</v>
+        <v>0.0323674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0307557</v>
+        <v>0.0305631</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341964</v>
+        <v>0.0346588</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0323218</v>
+        <v>0.0328809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0310252</v>
+        <v>0.0308348</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0348076</v>
+        <v>0.0353276</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0330971</v>
+        <v>0.0338276</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0313701</v>
+        <v>0.0312066</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0358816</v>
+        <v>0.0362806</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0341393</v>
+        <v>0.0347895</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0316773</v>
+        <v>0.0316353</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0368188</v>
+        <v>0.0372803</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0360944</v>
+        <v>0.0363983</v>
       </c>
       <c r="D42" t="n">
-        <v>0.032231</v>
+        <v>0.0322283</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0384018</v>
+        <v>0.039049</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0383577</v>
+        <v>0.0386593</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0329656</v>
+        <v>0.0328488</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402694</v>
+        <v>0.0408683</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410605</v>
+        <v>0.0411008</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0336093</v>
+        <v>0.033577</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0430334</v>
+        <v>0.0435715</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455657</v>
+        <v>0.045495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0346955</v>
+        <v>0.0347276</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472873</v>
+        <v>0.0476752</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0516254</v>
+        <v>0.0510854</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0362482</v>
+        <v>0.0365023</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536603</v>
+        <v>0.0536275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0587126</v>
+        <v>0.0578872</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0386606</v>
+        <v>0.0387449</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631304</v>
+        <v>0.0631005</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0690669</v>
+        <v>0.0681952</v>
       </c>
       <c r="D48" t="n">
-        <v>0.042558</v>
+        <v>0.042313</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0756006</v>
+        <v>0.0751228</v>
       </c>
       <c r="C49" t="n">
-        <v>0.084828</v>
+        <v>0.0836433</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0481191</v>
+        <v>0.0476602</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0952249</v>
+        <v>0.09422129999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106613</v>
+        <v>0.104995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0569437</v>
+        <v>0.0566281</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126973</v>
+        <v>0.125944</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14157</v>
+        <v>0.140643</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0325529</v>
+        <v>0.0334787</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173094</v>
+        <v>0.171701</v>
       </c>
       <c r="C52" t="n">
-        <v>0.187097</v>
+        <v>0.186365</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0327875</v>
+        <v>0.033314</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354752</v>
+        <v>0.036455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.033675</v>
+        <v>0.0349058</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0329691</v>
+        <v>0.0336038</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0361823</v>
+        <v>0.0371824</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0344902</v>
+        <v>0.0355189</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0333411</v>
+        <v>0.0340128</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0370782</v>
+        <v>0.0380797</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0357537</v>
+        <v>0.0366999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0337183</v>
+        <v>0.0341846</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038259</v>
+        <v>0.0391604</v>
       </c>
       <c r="C56" t="n">
-        <v>0.037161</v>
+        <v>0.0379526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0341183</v>
+        <v>0.034947</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.039693</v>
+        <v>0.0405456</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0393219</v>
+        <v>0.0399151</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0347874</v>
+        <v>0.0355001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0417018</v>
+        <v>0.0425496</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0422107</v>
+        <v>0.0427417</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0355902</v>
+        <v>0.036331</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443522</v>
+        <v>0.0451552</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0454449</v>
+        <v>0.0458842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0365281</v>
+        <v>0.0372601</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482604</v>
+        <v>0.0490757</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0502385</v>
+        <v>0.0504719</v>
       </c>
       <c r="D60" t="n">
-        <v>0.037948</v>
+        <v>0.0384682</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535995</v>
+        <v>0.0542643</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0575088</v>
+        <v>0.057506</v>
       </c>
       <c r="D61" t="n">
-        <v>0.040065</v>
+        <v>0.0406016</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0611567</v>
+        <v>0.0620456</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0672862</v>
+        <v>0.0670996</v>
       </c>
       <c r="D62" t="n">
-        <v>0.043343</v>
+        <v>0.0437634</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0724901</v>
+        <v>0.0731989</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08134329999999999</v>
+        <v>0.0806444</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0483883</v>
+        <v>0.0488198</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09074210000000001</v>
+        <v>0.0915513</v>
       </c>
       <c r="C64" t="n">
-        <v>0.10138</v>
+        <v>0.100468</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0563228</v>
+        <v>0.0567119</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118435</v>
+        <v>0.118514</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133555</v>
+        <v>0.132838</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06998989999999999</v>
+        <v>0.0703554</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.160511</v>
+        <v>0.15882</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179455</v>
+        <v>0.178556</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0387962</v>
+        <v>0.0372201</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409179</v>
+        <v>0.041525</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0388875</v>
+        <v>0.0378772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0391405</v>
+        <v>0.0375448</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04152</v>
+        <v>0.0421585</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0399038</v>
+        <v>0.0387955</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0394937</v>
+        <v>0.0379267</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.042266</v>
+        <v>0.0429595</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0411028</v>
+        <v>0.039999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.039942</v>
+        <v>0.0384106</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0432944</v>
+        <v>0.0440907</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0424367</v>
+        <v>0.0412749</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0404079</v>
+        <v>0.0388867</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0446827</v>
+        <v>0.0454532</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0441678</v>
+        <v>0.0428471</v>
       </c>
       <c r="D71" t="n">
-        <v>0.041003</v>
+        <v>0.0394279</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463171</v>
+        <v>0.0470997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0464835</v>
+        <v>0.0452731</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0416992</v>
+        <v>0.0401414</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048584</v>
+        <v>0.0494657</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0498203</v>
+        <v>0.0484453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0427069</v>
+        <v>0.0411189</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517996</v>
+        <v>0.0529378</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0544939</v>
+        <v>0.0529433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0440188</v>
+        <v>0.0426295</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0566368</v>
+        <v>0.0577969</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0611269</v>
+        <v>0.0592826</v>
       </c>
       <c r="D75" t="n">
-        <v>0.045949</v>
+        <v>0.0445005</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0634369</v>
+        <v>0.0644964</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0703114</v>
+        <v>0.0683028</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0488759</v>
+        <v>0.047235</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07409880000000001</v>
+        <v>0.0752768</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0832973</v>
+        <v>0.0810157</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0531721</v>
+        <v>0.0513926</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0900135</v>
+        <v>0.091294</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101098</v>
+        <v>0.0984558</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0600092</v>
+        <v>0.0578918</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114216</v>
+        <v>0.115659</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128979</v>
+        <v>0.126153</v>
       </c>
       <c r="D79" t="n">
-        <v>0.071197</v>
+        <v>0.0692946</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153909</v>
+        <v>0.155021</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171039</v>
+        <v>0.168271</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0444141</v>
+        <v>0.0436222</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0473853</v>
+        <v>0.047402</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0470571</v>
+        <v>0.0471615</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0448729</v>
+        <v>0.0440581</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0485574</v>
+        <v>0.0485198</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0491389</v>
+        <v>0.0492992</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0453899</v>
+        <v>0.0446632</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502479</v>
+        <v>0.0502779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0517532</v>
+        <v>0.0518611</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0461111</v>
+        <v>0.0455424</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0522256</v>
+        <v>0.0523341</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0548692</v>
+        <v>0.0549357</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0470641</v>
+        <v>0.0465836</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547338</v>
+        <v>0.0547995</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0586213</v>
+        <v>0.0584862</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0481235</v>
+        <v>0.0478115</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0581519</v>
+        <v>0.0579042</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0629247</v>
+        <v>0.0622698</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0495241</v>
+        <v>0.0491713</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06270729999999999</v>
+        <v>0.0620534</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0676908</v>
+        <v>0.0670832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0514328</v>
+        <v>0.0510408</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0676833</v>
+        <v>0.0671107</v>
       </c>
       <c r="C88" t="n">
-        <v>0.07377690000000001</v>
+        <v>0.0731692</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0538843</v>
+        <v>0.0534659</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0743187</v>
+        <v>0.0740706</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0810014</v>
+        <v>0.0806023</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0569215</v>
+        <v>0.0567662</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0831385</v>
+        <v>0.08312</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0909756</v>
+        <v>0.09044480000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0611319</v>
+        <v>0.0610394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0943524</v>
+        <v>0.09459919999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.103359</v>
+        <v>0.102468</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06707340000000001</v>
+        <v>0.066664</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110236</v>
+        <v>0.110055</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119939</v>
+        <v>0.119106</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07532519999999999</v>
+        <v>0.074615</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133354</v>
+        <v>0.133128</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144948</v>
+        <v>0.143856</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0877643</v>
+        <v>0.0872344</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166918</v>
+        <v>0.167846</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182326</v>
+        <v>0.181087</v>
       </c>
       <c r="D94" t="n">
-        <v>0.054094</v>
+        <v>0.054267</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0661409</v>
+        <v>0.0669838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06718830000000001</v>
+        <v>0.06734610000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0554679</v>
+        <v>0.0559495</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0683053</v>
+        <v>0.0697179</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0697</v>
+        <v>0.0701883</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0573354</v>
+        <v>0.0571384</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07156129999999999</v>
+        <v>0.07245450000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07243040000000001</v>
+        <v>0.0729417</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0592497</v>
+        <v>0.059287</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0752101</v>
+        <v>0.0757408</v>
       </c>
       <c r="C98" t="n">
-        <v>0.076042</v>
+        <v>0.0763852</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0604964</v>
+        <v>0.0597638</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0783358</v>
+        <v>0.07834240000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07990419999999999</v>
+        <v>0.0798272</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0611882</v>
+        <v>0.0624428</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08180949999999999</v>
+        <v>0.082042</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0847936</v>
+        <v>0.0844578</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0627699</v>
+        <v>0.0647456</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0855022</v>
+        <v>0.0858539</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0890381</v>
+        <v>0.0893304</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06550449999999999</v>
+        <v>0.06690989999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0895019</v>
+        <v>0.0905908</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0955978</v>
+        <v>0.0949171</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06901549999999999</v>
+        <v>0.06924520000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09682010000000001</v>
+        <v>0.096819</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102694</v>
+        <v>0.101722</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0716097</v>
+        <v>0.0723496</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104742</v>
+        <v>0.104707</v>
       </c>
       <c r="C104" t="n">
-        <v>0.11252</v>
+        <v>0.111222</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0758987</v>
+        <v>0.0761082</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115905</v>
+        <v>0.115654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.124552</v>
+        <v>0.123973</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0794412</v>
+        <v>0.0816824</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131652</v>
+        <v>0.131084</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140594</v>
+        <v>0.140294</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0887893</v>
+        <v>0.0892249</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.15327</v>
+        <v>0.153003</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163697</v>
+        <v>0.163186</v>
       </c>
       <c r="D107" t="n">
-        <v>0.100761</v>
+        <v>0.10092</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18348</v>
+        <v>0.183142</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194471</v>
+        <v>0.195335</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0616761</v>
+        <v>0.0616563</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230753</v>
+        <v>0.23072</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25331</v>
+        <v>0.25298</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0627828</v>
+        <v>0.0629979</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803702</v>
+        <v>0.08073329999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.085843</v>
+        <v>0.0858556</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0643557</v>
+        <v>0.0639763</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0835429</v>
+        <v>0.0840881</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08856989999999999</v>
+        <v>0.0885934</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0656038</v>
+        <v>0.0660235</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0861326</v>
+        <v>0.0862188</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09152349999999999</v>
+        <v>0.0915913</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06729889999999999</v>
+        <v>0.0670815</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09043710000000001</v>
+        <v>0.0905951</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09490319999999999</v>
+        <v>0.09506249999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0693213</v>
+        <v>0.0693637</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0947592</v>
+        <v>0.095287</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0992894</v>
+        <v>0.0988262</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0717822</v>
+        <v>0.0718155</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100164</v>
+        <v>0.101632</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103352</v>
+        <v>0.103561</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07419340000000001</v>
+        <v>0.07472040000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107159</v>
+        <v>0.106454</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109863</v>
+        <v>0.109287</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0787929</v>
+        <v>0.0783203</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114293</v>
+        <v>0.113301</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116558</v>
+        <v>0.116481</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0825336</v>
+        <v>0.0829199</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121382</v>
+        <v>0.12309</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125732</v>
+        <v>0.125377</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0882395</v>
+        <v>0.0882397</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133096</v>
+        <v>0.133262</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137007</v>
+        <v>0.136672</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0946693</v>
+        <v>0.0949276</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146558</v>
+        <v>0.146691</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152337</v>
+        <v>0.15207</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103024</v>
+        <v>0.103272</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165363</v>
+        <v>0.165298</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17345</v>
+        <v>0.173055</v>
       </c>
       <c r="D121" t="n">
-        <v>0.115062</v>
+        <v>0.114137</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192354</v>
+        <v>0.189643</v>
       </c>
       <c r="C122" t="n">
-        <v>0.203693</v>
+        <v>0.204836</v>
       </c>
       <c r="D122" t="n">
-        <v>0.133371</v>
+        <v>0.132759</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230922</v>
+        <v>0.233174</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254664</v>
+        <v>0.254332</v>
       </c>
       <c r="D123" t="n">
-        <v>0.083887</v>
+        <v>0.0831303</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102282</v>
+        <v>0.102903</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104047</v>
+        <v>0.10318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0865884</v>
+        <v>0.0855605</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106765</v>
+        <v>0.105552</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108264</v>
+        <v>0.105747</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0906704</v>
+        <v>0.0872072</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107604</v>
+        <v>0.10804</v>
       </c>
       <c r="C126" t="n">
-        <v>0.109705</v>
+        <v>0.108837</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0900157</v>
+        <v>0.0896908</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112415</v>
+        <v>0.11297</v>
       </c>
       <c r="C127" t="n">
-        <v>0.11362</v>
+        <v>0.112599</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0935955</v>
+        <v>0.0909766</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113281</v>
+        <v>0.114858</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117025</v>
+        <v>0.115431</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0945797</v>
+        <v>0.09266969999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118818</v>
+        <v>0.118921</v>
       </c>
       <c r="C129" t="n">
-        <v>0.121345</v>
+        <v>0.120368</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0964161</v>
+        <v>0.09518740000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.123223</v>
+        <v>0.122711</v>
       </c>
       <c r="C130" t="n">
-        <v>0.127208</v>
+        <v>0.125647</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100221</v>
+        <v>0.098316</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127663</v>
+        <v>0.129623</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134431</v>
+        <v>0.132392</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104426</v>
+        <v>0.100889</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132061</v>
+        <v>0.134331</v>
       </c>
       <c r="C132" t="n">
-        <v>0.140664</v>
+        <v>0.141612</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104505</v>
+        <v>0.107108</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140073</v>
+        <v>0.14323</v>
       </c>
       <c r="C133" t="n">
-        <v>0.153114</v>
+        <v>0.152052</v>
       </c>
       <c r="D133" t="n">
-        <v>0.112983</v>
+        <v>0.111914</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153242</v>
+        <v>0.155566</v>
       </c>
       <c r="C134" t="n">
-        <v>0.165519</v>
+        <v>0.167123</v>
       </c>
       <c r="D134" t="n">
-        <v>0.116612</v>
+        <v>0.12063</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17116</v>
+        <v>0.173547</v>
       </c>
       <c r="C135" t="n">
-        <v>0.185411</v>
+        <v>0.186267</v>
       </c>
       <c r="D135" t="n">
-        <v>0.12611</v>
+        <v>0.127843</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.193785</v>
+        <v>0.197711</v>
       </c>
       <c r="C136" t="n">
-        <v>0.214067</v>
+        <v>0.214861</v>
       </c>
       <c r="D136" t="n">
-        <v>0.14132</v>
+        <v>0.142983</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236358</v>
+        <v>0.236959</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259886</v>
+        <v>0.260698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.164944</v>
+        <v>0.164344</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174657</v>
+        <v>0.168044</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16538</v>
+        <v>0.165641</v>
       </c>
       <c r="D138" t="n">
-        <v>0.164832</v>
+        <v>0.165344</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17049</v>
+        <v>0.171295</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167457</v>
+        <v>0.167712</v>
       </c>
       <c r="D139" t="n">
-        <v>0.165923</v>
+        <v>0.165895</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170782</v>
+        <v>0.169172</v>
       </c>
       <c r="C140" t="n">
-        <v>0.170751</v>
+        <v>0.170141</v>
       </c>
       <c r="D140" t="n">
-        <v>0.168072</v>
+        <v>0.167514</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17479</v>
+        <v>0.178081</v>
       </c>
       <c r="C141" t="n">
-        <v>0.173861</v>
+        <v>0.172746</v>
       </c>
       <c r="D141" t="n">
-        <v>0.170436</v>
+        <v>0.169152</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.172812</v>
+        <v>0.177753</v>
       </c>
       <c r="C142" t="n">
-        <v>0.177232</v>
+        <v>0.175382</v>
       </c>
       <c r="D142" t="n">
-        <v>0.172612</v>
+        <v>0.169812</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173417</v>
+        <v>0.180773</v>
       </c>
       <c r="C143" t="n">
-        <v>0.18109</v>
+        <v>0.179075</v>
       </c>
       <c r="D143" t="n">
-        <v>0.173918</v>
+        <v>0.172043</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0330115</v>
+        <v>0.0320657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0327528</v>
+        <v>0.032312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0308272</v>
+        <v>0.030989</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0347347</v>
+        <v>0.0333987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0348146</v>
+        <v>0.0341729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0318177</v>
+        <v>0.0321312</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0360148</v>
+        <v>0.0347313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0395195</v>
+        <v>0.0393801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0331878</v>
+        <v>0.033374</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0418307</v>
+        <v>0.0397714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0479482</v>
+        <v>0.0496699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355506</v>
+        <v>0.0355352</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0535789</v>
+        <v>0.0543675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0653098</v>
+        <v>0.0672785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0383589</v>
+        <v>0.037672</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07989159999999999</v>
+        <v>0.07990800000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08892170000000001</v>
+        <v>0.09266149999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0436786</v>
+        <v>0.043208</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117459</v>
+        <v>0.118909</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1175</v>
+        <v>0.119716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0546957</v>
+        <v>0.055255</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158288</v>
+        <v>0.160912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161941</v>
+        <v>0.165245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0286386</v>
+        <v>0.028342</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315793</v>
+        <v>0.0315118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.030136</v>
+        <v>0.0293566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0289603</v>
+        <v>0.0286116</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0322884</v>
+        <v>0.0322026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0306182</v>
+        <v>0.0297239</v>
       </c>
       <c r="D11" t="n">
-        <v>0.029337</v>
+        <v>0.0290358</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0329543</v>
+        <v>0.03278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0315762</v>
+        <v>0.0306611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0297988</v>
+        <v>0.029472</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0335262</v>
+        <v>0.0333398</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0321891</v>
+        <v>0.031465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0302341</v>
+        <v>0.0298613</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0339573</v>
+        <v>0.0337746</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0332754</v>
+        <v>0.0325347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0307647</v>
+        <v>0.0304352</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0348054</v>
+        <v>0.0344487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0345599</v>
+        <v>0.0343673</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0314877</v>
+        <v>0.0310526</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0362603</v>
+        <v>0.0357779</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0372462</v>
+        <v>0.0371888</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0323441</v>
+        <v>0.0318361</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380702</v>
+        <v>0.0373172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0409828</v>
+        <v>0.0408479</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0331583</v>
+        <v>0.0325729</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0418821</v>
+        <v>0.0412003</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0483936</v>
+        <v>0.0490581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0349245</v>
+        <v>0.0342511</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0482431</v>
+        <v>0.0482808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0575587</v>
+        <v>0.0583684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0367906</v>
+        <v>0.0360259</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0617972</v>
+        <v>0.0620875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0694825</v>
+        <v>0.07152119999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0398704</v>
+        <v>0.0390374</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0802069</v>
+        <v>0.0807191</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0899054</v>
+        <v>0.09239360000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0463755</v>
+        <v>0.0458885</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107335</v>
+        <v>0.108509</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115914</v>
+        <v>0.118693</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0577493</v>
+        <v>0.057547</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.145958</v>
+        <v>0.148022</v>
       </c>
       <c r="C23" t="n">
-        <v>0.157392</v>
+        <v>0.16123</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0296316</v>
+        <v>0.0291069</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330199</v>
+        <v>0.0330911</v>
       </c>
       <c r="C24" t="n">
-        <v>0.031759</v>
+        <v>0.0308287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0301782</v>
+        <v>0.0294393</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0339756</v>
+        <v>0.0338727</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0323078</v>
+        <v>0.0315097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0304443</v>
+        <v>0.0298403</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345562</v>
+        <v>0.0344101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0333079</v>
+        <v>0.0327144</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0308573</v>
+        <v>0.0302345</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0353437</v>
+        <v>0.0350769</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0343045</v>
+        <v>0.0336885</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0313463</v>
+        <v>0.0306494</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0361937</v>
+        <v>0.0358634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.035544</v>
+        <v>0.0349507</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0319047</v>
+        <v>0.0312617</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375763</v>
+        <v>0.0372449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371719</v>
+        <v>0.0368195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0325601</v>
+        <v>0.0318586</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0396445</v>
+        <v>0.0392282</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0401988</v>
+        <v>0.0399362</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0332534</v>
+        <v>0.0326014</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0422438</v>
+        <v>0.0419769</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442818</v>
+        <v>0.0442851</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0344949</v>
+        <v>0.0337287</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0472446</v>
+        <v>0.0470294</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0507769</v>
+        <v>0.0513427</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0358325</v>
+        <v>0.0351036</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0537921</v>
+        <v>0.0540846</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590438</v>
+        <v>0.0600987</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0380557</v>
+        <v>0.0372356</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0648017</v>
+        <v>0.06489209999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0701946</v>
+        <v>0.0718328</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0415354</v>
+        <v>0.0408353</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.079526</v>
+        <v>0.0799468</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0846515</v>
+        <v>0.0868843</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0479688</v>
+        <v>0.04743</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09998509999999999</v>
+        <v>0.100596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.112089</v>
+        <v>0.114731</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0590825</v>
+        <v>0.0586957</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135547</v>
+        <v>0.137067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.150928</v>
+        <v>0.153917</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0301853</v>
+        <v>0.0295327</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0338223</v>
+        <v>0.0334033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0323674</v>
+        <v>0.0318504</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0305631</v>
+        <v>0.0299032</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0346588</v>
+        <v>0.0343494</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0328809</v>
+        <v>0.0324012</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0308348</v>
+        <v>0.0300766</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0353276</v>
+        <v>0.0350259</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0338276</v>
+        <v>0.033316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0312066</v>
+        <v>0.030479</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0362806</v>
+        <v>0.035991</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0347895</v>
+        <v>0.034357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0316353</v>
+        <v>0.0308847</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0372803</v>
+        <v>0.037032</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0363983</v>
+        <v>0.03622</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0322283</v>
+        <v>0.0313845</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.039049</v>
+        <v>0.0386972</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0386593</v>
+        <v>0.0383164</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0328488</v>
+        <v>0.032087</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0408683</v>
+        <v>0.0405453</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0411008</v>
+        <v>0.0409676</v>
       </c>
       <c r="D44" t="n">
-        <v>0.033577</v>
+        <v>0.0327846</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0435715</v>
+        <v>0.0433253</v>
       </c>
       <c r="C45" t="n">
-        <v>0.045495</v>
+        <v>0.0457077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0347276</v>
+        <v>0.0339406</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0476752</v>
+        <v>0.0475392</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0510854</v>
+        <v>0.0518528</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0365023</v>
+        <v>0.0356683</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536275</v>
+        <v>0.0535405</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0578872</v>
+        <v>0.0590001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0387449</v>
+        <v>0.0380897</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631005</v>
+        <v>0.06293509999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0681952</v>
+        <v>0.0697093</v>
       </c>
       <c r="D48" t="n">
-        <v>0.042313</v>
+        <v>0.0418717</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0751228</v>
+        <v>0.07507519999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0836433</v>
+        <v>0.0858857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0476602</v>
+        <v>0.0475732</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09422129999999999</v>
+        <v>0.0946898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104995</v>
+        <v>0.108497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0566281</v>
+        <v>0.0563618</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125944</v>
+        <v>0.126938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140643</v>
+        <v>0.142586</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0334787</v>
+        <v>0.0319303</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.171701</v>
+        <v>0.173924</v>
       </c>
       <c r="C52" t="n">
-        <v>0.186365</v>
+        <v>0.191796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.033314</v>
+        <v>0.0320801</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.036455</v>
+        <v>0.0366059</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0349058</v>
+        <v>0.0342183</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0336038</v>
+        <v>0.0324061</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0371824</v>
+        <v>0.0372083</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0355189</v>
+        <v>0.0349645</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0340128</v>
+        <v>0.0328576</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0380797</v>
+        <v>0.0381847</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0366999</v>
+        <v>0.0361341</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0341846</v>
+        <v>0.0332463</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0391604</v>
+        <v>0.0390165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0379526</v>
+        <v>0.0374968</v>
       </c>
       <c r="D56" t="n">
-        <v>0.034947</v>
+        <v>0.0336805</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0405456</v>
+        <v>0.0404618</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0399151</v>
+        <v>0.0395814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0355001</v>
+        <v>0.0343482</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0425496</v>
+        <v>0.0424788</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0427417</v>
+        <v>0.0424576</v>
       </c>
       <c r="D58" t="n">
-        <v>0.036331</v>
+        <v>0.0349878</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0451552</v>
+        <v>0.0448964</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0458842</v>
+        <v>0.045752</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0372601</v>
+        <v>0.0361546</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0490757</v>
+        <v>0.048799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0504719</v>
+        <v>0.050468</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0384682</v>
+        <v>0.037437</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542643</v>
+        <v>0.0539283</v>
       </c>
       <c r="C61" t="n">
-        <v>0.057506</v>
+        <v>0.0578357</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0406016</v>
+        <v>0.0395959</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0620456</v>
+        <v>0.0616551</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0670996</v>
+        <v>0.06769260000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0437634</v>
+        <v>0.0429241</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0731989</v>
+        <v>0.0729366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0806444</v>
+        <v>0.0818435</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0488198</v>
+        <v>0.0482984</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0915513</v>
+        <v>0.0915097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100468</v>
+        <v>0.102261</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0567119</v>
+        <v>0.0562244</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118514</v>
+        <v>0.118962</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132838</v>
+        <v>0.134619</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0703554</v>
+        <v>0.06981279999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15882</v>
+        <v>0.160006</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178556</v>
+        <v>0.181525</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0372201</v>
+        <v>0.0384837</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041525</v>
+        <v>0.0411983</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0378772</v>
+        <v>0.0395093</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0375448</v>
+        <v>0.038785</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0421585</v>
+        <v>0.041811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0387955</v>
+        <v>0.0404289</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0379267</v>
+        <v>0.0392106</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0429595</v>
+        <v>0.0426494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.039999</v>
+        <v>0.0416541</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0384106</v>
+        <v>0.0396443</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0440907</v>
+        <v>0.0436434</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0412749</v>
+        <v>0.0429151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0388867</v>
+        <v>0.040095</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0454532</v>
+        <v>0.0449133</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0428471</v>
+        <v>0.0447743</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0394279</v>
+        <v>0.0406929</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470997</v>
+        <v>0.0465055</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0452731</v>
+        <v>0.0472285</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0401414</v>
+        <v>0.0413797</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0494657</v>
+        <v>0.0487316</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0484453</v>
+        <v>0.0506427</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0411189</v>
+        <v>0.0424232</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0529378</v>
+        <v>0.0518496</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0529433</v>
+        <v>0.0552923</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0426295</v>
+        <v>0.0438031</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0577969</v>
+        <v>0.0566818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0592826</v>
+        <v>0.0619774</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0445005</v>
+        <v>0.045895</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0644964</v>
+        <v>0.0636891</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0683028</v>
+        <v>0.0715196</v>
       </c>
       <c r="D76" t="n">
-        <v>0.047235</v>
+        <v>0.0488275</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0752768</v>
+        <v>0.07428360000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0810157</v>
+        <v>0.0847383</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0513926</v>
+        <v>0.0532651</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.091294</v>
+        <v>0.09059209999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0984558</v>
+        <v>0.102973</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0578918</v>
+        <v>0.060189</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115659</v>
+        <v>0.115083</v>
       </c>
       <c r="C79" t="n">
-        <v>0.126153</v>
+        <v>0.131312</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0692946</v>
+        <v>0.0717979</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155021</v>
+        <v>0.15461</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168271</v>
+        <v>0.173833</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0436222</v>
+        <v>0.0432803</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.047402</v>
+        <v>0.0481185</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0471615</v>
+        <v>0.0480067</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0440581</v>
+        <v>0.0437607</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0485198</v>
+        <v>0.0497609</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0492992</v>
+        <v>0.0503842</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0446632</v>
+        <v>0.0445503</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502779</v>
+        <v>0.0514773</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0518611</v>
+        <v>0.0529629</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0455424</v>
+        <v>0.045277</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523341</v>
+        <v>0.0536689</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0549357</v>
+        <v>0.0559384</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0465836</v>
+        <v>0.0463151</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547995</v>
+        <v>0.056166</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0584862</v>
+        <v>0.0593225</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0478115</v>
+        <v>0.0474901</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0579042</v>
+        <v>0.0590399</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0622698</v>
+        <v>0.06333660000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0491713</v>
+        <v>0.048976</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0620534</v>
+        <v>0.0628544</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0670832</v>
+        <v>0.068137</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0510408</v>
+        <v>0.0509175</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0671107</v>
+        <v>0.0678248</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0731692</v>
+        <v>0.0744635</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0534659</v>
+        <v>0.0534355</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0740706</v>
+        <v>0.07470739999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0806023</v>
+        <v>0.08176700000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0567662</v>
+        <v>0.0567493</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08312</v>
+        <v>0.0835679</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09044480000000001</v>
+        <v>0.0917157</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0610394</v>
+        <v>0.0609282</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09459919999999999</v>
+        <v>0.0953078</v>
       </c>
       <c r="C91" t="n">
-        <v>0.102468</v>
+        <v>0.10423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.066664</v>
+        <v>0.06660149999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110055</v>
+        <v>0.110933</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119106</v>
+        <v>0.121231</v>
       </c>
       <c r="D92" t="n">
-        <v>0.074615</v>
+        <v>0.0750996</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.133128</v>
+        <v>0.134181</v>
       </c>
       <c r="C93" t="n">
-        <v>0.143856</v>
+        <v>0.146173</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0872344</v>
+        <v>0.0875165</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167846</v>
+        <v>0.168129</v>
       </c>
       <c r="C94" t="n">
-        <v>0.181087</v>
+        <v>0.183126</v>
       </c>
       <c r="D94" t="n">
-        <v>0.054267</v>
+        <v>0.0530094</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0669838</v>
+        <v>0.0674573</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06734610000000001</v>
+        <v>0.0667464</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0559495</v>
+        <v>0.0548843</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0697179</v>
+        <v>0.07045800000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0701883</v>
+        <v>0.0698573</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0571384</v>
+        <v>0.056502</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07245450000000001</v>
+        <v>0.0732915</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0729417</v>
+        <v>0.0727038</v>
       </c>
       <c r="D97" t="n">
-        <v>0.059287</v>
+        <v>0.0582643</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0757408</v>
+        <v>0.0760517</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0763852</v>
+        <v>0.0761283</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0597638</v>
+        <v>0.0601447</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07834240000000001</v>
+        <v>0.0789281</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0798272</v>
+        <v>0.0799484</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0624428</v>
+        <v>0.0617667</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.082042</v>
+        <v>0.0823266</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0844578</v>
+        <v>0.084436</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0647456</v>
+        <v>0.06331150000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0858539</v>
+        <v>0.08593290000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0893304</v>
+        <v>0.08906219999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06690989999999999</v>
+        <v>0.0653981</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0905908</v>
+        <v>0.0904903</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0949171</v>
+        <v>0.0954202</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06924520000000001</v>
+        <v>0.06795900000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.096819</v>
+        <v>0.0969521</v>
       </c>
       <c r="C103" t="n">
-        <v>0.101722</v>
+        <v>0.102528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0723496</v>
+        <v>0.0709265</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104707</v>
+        <v>0.104511</v>
       </c>
       <c r="C104" t="n">
-        <v>0.111222</v>
+        <v>0.112058</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0761082</v>
+        <v>0.0747501</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115654</v>
+        <v>0.116253</v>
       </c>
       <c r="C105" t="n">
-        <v>0.123973</v>
+        <v>0.123349</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0816824</v>
+        <v>0.08007350000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131084</v>
+        <v>0.131685</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140294</v>
+        <v>0.140623</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0892249</v>
+        <v>0.0878041</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153003</v>
+        <v>0.153561</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163186</v>
+        <v>0.163628</v>
       </c>
       <c r="D107" t="n">
-        <v>0.10092</v>
+        <v>0.09991079999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183142</v>
+        <v>0.183991</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195335</v>
+        <v>0.199117</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0616563</v>
+        <v>0.0604797</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.23072</v>
+        <v>0.230763</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25298</v>
+        <v>0.250325</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0629979</v>
+        <v>0.0618791</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08073329999999999</v>
+        <v>0.07972899999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0858556</v>
+        <v>0.0856992</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0639763</v>
+        <v>0.0627771</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840881</v>
+        <v>0.08380410000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0885934</v>
+        <v>0.0882208</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0660235</v>
+        <v>0.06423769999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0862188</v>
+        <v>0.0873149</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0915913</v>
+        <v>0.09129080000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0670815</v>
+        <v>0.0665471</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0905951</v>
+        <v>0.09244620000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09506249999999999</v>
+        <v>0.0951906</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0693637</v>
+        <v>0.0689473</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.095287</v>
+        <v>0.098204</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0988262</v>
+        <v>0.0995327</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0718155</v>
+        <v>0.071993</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101632</v>
+        <v>0.103985</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103561</v>
+        <v>0.104644</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07472040000000001</v>
+        <v>0.075877</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106454</v>
+        <v>0.109973</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109287</v>
+        <v>0.110061</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0783203</v>
+        <v>0.0803714</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113301</v>
+        <v>0.116467</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116481</v>
+        <v>0.117498</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0829199</v>
+        <v>0.08523310000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12309</v>
+        <v>0.124508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125377</v>
+        <v>0.126318</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0882397</v>
+        <v>0.0901638</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133262</v>
+        <v>0.134397</v>
       </c>
       <c r="C119" t="n">
-        <v>0.136672</v>
+        <v>0.137921</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0949276</v>
+        <v>0.09631579999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146691</v>
+        <v>0.147557</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15207</v>
+        <v>0.152725</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103272</v>
+        <v>0.10314</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165298</v>
+        <v>0.166008</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173055</v>
+        <v>0.173788</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114137</v>
+        <v>0.114571</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189643</v>
+        <v>0.191043</v>
       </c>
       <c r="C122" t="n">
-        <v>0.204836</v>
+        <v>0.205551</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132759</v>
+        <v>0.1324</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233174</v>
+        <v>0.234027</v>
       </c>
       <c r="C123" t="n">
-        <v>0.254332</v>
+        <v>0.25336</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0831303</v>
+        <v>0.08421099999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102903</v>
+        <v>0.103402</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10318</v>
+        <v>0.105483</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0855605</v>
+        <v>0.0876145</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105552</v>
+        <v>0.10641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.105747</v>
+        <v>0.1078</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0872072</v>
+        <v>0.0887172</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10804</v>
+        <v>0.109508</v>
       </c>
       <c r="C126" t="n">
-        <v>0.108837</v>
+        <v>0.111174</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0896908</v>
+        <v>0.0909577</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11297</v>
+        <v>0.112625</v>
       </c>
       <c r="C127" t="n">
-        <v>0.112599</v>
+        <v>0.115366</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0909766</v>
+        <v>0.093634</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114858</v>
+        <v>0.115299</v>
       </c>
       <c r="C128" t="n">
-        <v>0.115431</v>
+        <v>0.117322</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09266969999999999</v>
+        <v>0.0930836</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118921</v>
+        <v>0.118782</v>
       </c>
       <c r="C129" t="n">
-        <v>0.120368</v>
+        <v>0.12246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09518740000000001</v>
+        <v>0.0972088</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122711</v>
+        <v>0.122819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.125647</v>
+        <v>0.126858</v>
       </c>
       <c r="D130" t="n">
-        <v>0.098316</v>
+        <v>0.098342</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129623</v>
+        <v>0.129461</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132392</v>
+        <v>0.13466</v>
       </c>
       <c r="D131" t="n">
-        <v>0.100889</v>
+        <v>0.103043</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134331</v>
+        <v>0.134923</v>
       </c>
       <c r="C132" t="n">
-        <v>0.141612</v>
+        <v>0.14195</v>
       </c>
       <c r="D132" t="n">
-        <v>0.107108</v>
+        <v>0.105809</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14323</v>
+        <v>0.143911</v>
       </c>
       <c r="C133" t="n">
-        <v>0.152052</v>
+        <v>0.153435</v>
       </c>
       <c r="D133" t="n">
-        <v>0.111914</v>
+        <v>0.111953</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155566</v>
+        <v>0.156307</v>
       </c>
       <c r="C134" t="n">
-        <v>0.167123</v>
+        <v>0.166965</v>
       </c>
       <c r="D134" t="n">
-        <v>0.12063</v>
+        <v>0.117467</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173547</v>
+        <v>0.172703</v>
       </c>
       <c r="C135" t="n">
-        <v>0.186267</v>
+        <v>0.187296</v>
       </c>
       <c r="D135" t="n">
-        <v>0.127843</v>
+        <v>0.12745</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197711</v>
+        <v>0.197548</v>
       </c>
       <c r="C136" t="n">
-        <v>0.214861</v>
+        <v>0.217154</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142983</v>
+        <v>0.142893</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236959</v>
+        <v>0.236666</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260698</v>
+        <v>0.261878</v>
       </c>
       <c r="D137" t="n">
-        <v>0.164344</v>
+        <v>0.163038</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168044</v>
+        <v>0.170998</v>
       </c>
       <c r="C138" t="n">
-        <v>0.165641</v>
+        <v>0.166267</v>
       </c>
       <c r="D138" t="n">
-        <v>0.165344</v>
+        <v>0.164667</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171295</v>
+        <v>0.164774</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167712</v>
+        <v>0.167368</v>
       </c>
       <c r="D139" t="n">
-        <v>0.165895</v>
+        <v>0.164783</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169172</v>
+        <v>0.175649</v>
       </c>
       <c r="C140" t="n">
-        <v>0.170141</v>
+        <v>0.170097</v>
       </c>
       <c r="D140" t="n">
-        <v>0.167514</v>
+        <v>0.166328</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.178081</v>
+        <v>0.174898</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172746</v>
+        <v>0.172374</v>
       </c>
       <c r="D141" t="n">
-        <v>0.169152</v>
+        <v>0.16761</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177753</v>
+        <v>0.177034</v>
       </c>
       <c r="C142" t="n">
-        <v>0.175382</v>
+        <v>0.176303</v>
       </c>
       <c r="D142" t="n">
-        <v>0.169812</v>
+        <v>0.170472</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.180773</v>
+        <v>0.178789</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179075</v>
+        <v>0.180089</v>
       </c>
       <c r="D143" t="n">
-        <v>0.172043</v>
+        <v>0.171772</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0320657</v>
+        <v>0.0321516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.032312</v>
+        <v>0.0320073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.030989</v>
+        <v>0.0309902</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333987</v>
+        <v>0.033237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0341729</v>
+        <v>0.0344381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0321312</v>
+        <v>0.0320639</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0347313</v>
+        <v>0.034553</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0393801</v>
+        <v>0.0391528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.033374</v>
+        <v>0.0334442</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0397714</v>
+        <v>0.03995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0496699</v>
+        <v>0.0496323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355352</v>
+        <v>0.0355142</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0543675</v>
+        <v>0.0542672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0672785</v>
+        <v>0.0676046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.037672</v>
+        <v>0.0377821</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07990800000000001</v>
+        <v>0.07999970000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09266149999999999</v>
+        <v>0.0929355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.043208</v>
+        <v>0.0431688</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118909</v>
+        <v>0.119223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119716</v>
+        <v>0.119728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.055255</v>
+        <v>0.0551404</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160912</v>
+        <v>0.160794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165245</v>
+        <v>0.164994</v>
       </c>
       <c r="D9" t="n">
-        <v>0.028342</v>
+        <v>0.08156529999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315118</v>
+        <v>0.0315575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0293566</v>
+        <v>0.0293846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0286116</v>
+        <v>0.0286046</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0322026</v>
+        <v>0.0321286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0297239</v>
+        <v>0.0298761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0290358</v>
+        <v>0.0290149</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03278</v>
+        <v>0.0327075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0306611</v>
+        <v>0.0307275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.029472</v>
+        <v>0.0294646</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333398</v>
+        <v>0.0333834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.031465</v>
+        <v>0.0314362</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298613</v>
+        <v>0.0298413</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0337746</v>
+        <v>0.0337547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0325347</v>
+        <v>0.0327302</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0304352</v>
+        <v>0.0303815</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0344487</v>
+        <v>0.0343925</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0343673</v>
+        <v>0.0342608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0310526</v>
+        <v>0.031126</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0357779</v>
+        <v>0.0358296</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0371888</v>
+        <v>0.0370959</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0318361</v>
+        <v>0.0318998</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373172</v>
+        <v>0.0373623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0408479</v>
+        <v>0.0408204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0325729</v>
+        <v>0.0326126</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0412003</v>
+        <v>0.0413844</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0490581</v>
+        <v>0.0487328</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0342511</v>
+        <v>0.0342569</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0482808</v>
+        <v>0.0484331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0583684</v>
+        <v>0.0584824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0360259</v>
+        <v>0.0360852</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0620875</v>
+        <v>0.0621023</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07152119999999999</v>
+        <v>0.07165009999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0390374</v>
+        <v>0.0391204</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0807191</v>
+        <v>0.08065659999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09239360000000001</v>
+        <v>0.0923775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0458885</v>
+        <v>0.0458145</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108509</v>
+        <v>0.108546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118693</v>
+        <v>0.118802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.057547</v>
+        <v>0.0576564</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.148022</v>
+        <v>0.147684</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16123</v>
+        <v>0.161549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0291069</v>
+        <v>0.0821032</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330911</v>
+        <v>0.0333095</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0308287</v>
+        <v>0.0311623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0294393</v>
+        <v>0.02958</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338727</v>
+        <v>0.0338278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0315097</v>
+        <v>0.0318683</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0298403</v>
+        <v>0.029885</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0344101</v>
+        <v>0.0343953</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0327144</v>
+        <v>0.032902</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0302345</v>
+        <v>0.0303031</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350769</v>
+        <v>0.0350854</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0336885</v>
+        <v>0.0337645</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0306494</v>
+        <v>0.0308522</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0358634</v>
+        <v>0.0358587</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0349507</v>
+        <v>0.035182</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0312617</v>
+        <v>0.0314032</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0372449</v>
+        <v>0.0372927</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0368195</v>
+        <v>0.0370085</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0318586</v>
+        <v>0.0321081</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0392282</v>
+        <v>0.0392526</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0399362</v>
+        <v>0.0399659</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0326014</v>
+        <v>0.0328012</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419769</v>
+        <v>0.0420608</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442851</v>
+        <v>0.044533</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0337287</v>
+        <v>0.0340212</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0470294</v>
+        <v>0.0471119</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0513427</v>
+        <v>0.0513554</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0351036</v>
+        <v>0.0352274</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0540846</v>
+        <v>0.0541439</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0600987</v>
+        <v>0.0600951</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0372356</v>
+        <v>0.0373101</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06489209999999999</v>
+        <v>0.0649337</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0718328</v>
+        <v>0.071824</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0408353</v>
+        <v>0.0409374</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0799468</v>
+        <v>0.0798685</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0868843</v>
+        <v>0.0865678</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04743</v>
+        <v>0.0476628</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100596</v>
+        <v>0.100639</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114731</v>
+        <v>0.114536</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0586957</v>
+        <v>0.0587736</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.137067</v>
+        <v>0.136895</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153917</v>
+        <v>0.153559</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0295327</v>
+        <v>0.0779731</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334033</v>
+        <v>0.0337493</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0318504</v>
+        <v>0.0318798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0299032</v>
+        <v>0.0299907</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343494</v>
+        <v>0.034452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0324012</v>
+        <v>0.0326152</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0300766</v>
+        <v>0.0302808</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350259</v>
+        <v>0.0351541</v>
       </c>
       <c r="C40" t="n">
-        <v>0.033316</v>
+        <v>0.0332996</v>
       </c>
       <c r="D40" t="n">
-        <v>0.030479</v>
+        <v>0.0309707</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035991</v>
+        <v>0.0360684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.034357</v>
+        <v>0.034535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0308847</v>
+        <v>0.0313834</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.037032</v>
+        <v>0.0371439</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03622</v>
+        <v>0.0361346</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0313845</v>
+        <v>0.0316061</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386972</v>
+        <v>0.0387667</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0383164</v>
+        <v>0.0385942</v>
       </c>
       <c r="D43" t="n">
-        <v>0.032087</v>
+        <v>0.0326146</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405453</v>
+        <v>0.0406171</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0409676</v>
+        <v>0.0411143</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0327846</v>
+        <v>0.0332571</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433253</v>
+        <v>0.0434576</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0457077</v>
+        <v>0.0457148</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0339406</v>
+        <v>0.0342659</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475392</v>
+        <v>0.0476465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0518528</v>
+        <v>0.051825</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0356683</v>
+        <v>0.0359688</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535405</v>
+        <v>0.0536134</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0590001</v>
+        <v>0.0589198</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0380897</v>
+        <v>0.0383155</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06293509999999999</v>
+        <v>0.0630713</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0697093</v>
+        <v>0.0695602</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0418717</v>
+        <v>0.0420259</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07507519999999999</v>
+        <v>0.075199</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0858857</v>
+        <v>0.0854116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0475732</v>
+        <v>0.0476641</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0946898</v>
+        <v>0.09479609999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.108497</v>
+        <v>0.107472</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0563618</v>
+        <v>0.0564029</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126938</v>
+        <v>0.126935</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142586</v>
+        <v>0.142174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0319303</v>
+        <v>0.0723095</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173924</v>
+        <v>0.173735</v>
       </c>
       <c r="C52" t="n">
-        <v>0.191796</v>
+        <v>0.190206</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0320801</v>
+        <v>0.101609</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0366059</v>
+        <v>0.0366071</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0342183</v>
+        <v>0.0347608</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0324061</v>
+        <v>0.0327159</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0372083</v>
+        <v>0.0373913</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0349645</v>
+        <v>0.0355104</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0328576</v>
+        <v>0.0331356</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0381847</v>
+        <v>0.0382694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0361341</v>
+        <v>0.0367534</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0332463</v>
+        <v>0.0335566</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0390165</v>
+        <v>0.0393747</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0374968</v>
+        <v>0.0380995</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0336805</v>
+        <v>0.0340113</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0404618</v>
+        <v>0.040679</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0395814</v>
+        <v>0.0401358</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0343482</v>
+        <v>0.034622</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424788</v>
+        <v>0.0426595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0424576</v>
+        <v>0.0430152</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0349878</v>
+        <v>0.035542</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0448964</v>
+        <v>0.0451192</v>
       </c>
       <c r="C59" t="n">
-        <v>0.045752</v>
+        <v>0.0462622</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0361546</v>
+        <v>0.0364562</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.048799</v>
+        <v>0.0489717</v>
       </c>
       <c r="C60" t="n">
-        <v>0.050468</v>
+        <v>0.0510318</v>
       </c>
       <c r="D60" t="n">
-        <v>0.037437</v>
+        <v>0.037988</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0539283</v>
+        <v>0.0540959</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0578357</v>
+        <v>0.0583596</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0395959</v>
+        <v>0.040036</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0616551</v>
+        <v>0.061768</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06769260000000001</v>
+        <v>0.0681981</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0429241</v>
+        <v>0.043434</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0729366</v>
+        <v>0.0730537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0818435</v>
+        <v>0.0824058</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0482984</v>
+        <v>0.0485934</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0915097</v>
+        <v>0.0916389</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102261</v>
+        <v>0.102874</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0562244</v>
+        <v>0.0566586</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118962</v>
+        <v>0.119073</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134619</v>
+        <v>0.135121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06981279999999999</v>
+        <v>0.07025679999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.160006</v>
+        <v>0.159946</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181525</v>
+        <v>0.182129</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0384837</v>
+        <v>0.09535879999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411983</v>
+        <v>0.0417874</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0395093</v>
+        <v>0.0393866</v>
       </c>
       <c r="D67" t="n">
-        <v>0.038785</v>
+        <v>0.0390602</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041811</v>
+        <v>0.0423421</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0404289</v>
+        <v>0.0402634</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0392106</v>
+        <v>0.0395137</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426494</v>
+        <v>0.0431243</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0416541</v>
+        <v>0.0414226</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0396443</v>
+        <v>0.0399606</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436434</v>
+        <v>0.0441791</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0429151</v>
+        <v>0.0427884</v>
       </c>
       <c r="D70" t="n">
-        <v>0.040095</v>
+        <v>0.040447</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449133</v>
+        <v>0.045537</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0447743</v>
+        <v>0.044567</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0406929</v>
+        <v>0.0410131</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465055</v>
+        <v>0.0470432</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0472285</v>
+        <v>0.0471381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0413797</v>
+        <v>0.041742</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487316</v>
+        <v>0.0492801</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0506427</v>
+        <v>0.0506358</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0424232</v>
+        <v>0.0427571</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518496</v>
+        <v>0.052366</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0552923</v>
+        <v>0.0552865</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0438031</v>
+        <v>0.0441292</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0566818</v>
+        <v>0.0571533</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0619774</v>
+        <v>0.0620095</v>
       </c>
       <c r="D75" t="n">
-        <v>0.045895</v>
+        <v>0.0462061</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0636891</v>
+        <v>0.06408750000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0715196</v>
+        <v>0.0715382</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0488275</v>
+        <v>0.0491887</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07428360000000001</v>
+        <v>0.07485849999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0847383</v>
+        <v>0.0849457</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0532651</v>
+        <v>0.0536654</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09059209999999999</v>
+        <v>0.09117459999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102973</v>
+        <v>0.103032</v>
       </c>
       <c r="D78" t="n">
-        <v>0.060189</v>
+        <v>0.0607066</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115083</v>
+        <v>0.115484</v>
       </c>
       <c r="C79" t="n">
-        <v>0.131312</v>
+        <v>0.131344</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0717979</v>
+        <v>0.07267999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15461</v>
+        <v>0.155344</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173833</v>
+        <v>0.174112</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0432803</v>
+        <v>0.0942921</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0481185</v>
+        <v>0.0476902</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0480067</v>
+        <v>0.047259</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0437607</v>
+        <v>0.0443688</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0497609</v>
+        <v>0.0485734</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0503842</v>
+        <v>0.0496164</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0445503</v>
+        <v>0.0450751</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0514773</v>
+        <v>0.0507644</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0529629</v>
+        <v>0.0522238</v>
       </c>
       <c r="D83" t="n">
-        <v>0.045277</v>
+        <v>0.0458012</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0536689</v>
+        <v>0.0519756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0559384</v>
+        <v>0.0551844</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0463151</v>
+        <v>0.0470079</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.056166</v>
+        <v>0.0550992</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0593225</v>
+        <v>0.0586516</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0474901</v>
+        <v>0.0480795</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0590399</v>
+        <v>0.0576962</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06333660000000001</v>
+        <v>0.0628975</v>
       </c>
       <c r="D86" t="n">
-        <v>0.048976</v>
+        <v>0.0501129</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0628544</v>
+        <v>0.0622821</v>
       </c>
       <c r="C87" t="n">
-        <v>0.068137</v>
+        <v>0.0678211</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0509175</v>
+        <v>0.0520247</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0678248</v>
+        <v>0.06737849999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0744635</v>
+        <v>0.0745798</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0534355</v>
+        <v>0.0552979</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07470739999999999</v>
+        <v>0.0745152</v>
       </c>
       <c r="C89" t="n">
-        <v>0.08176700000000001</v>
+        <v>0.0813516</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0567493</v>
+        <v>0.058535</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0835679</v>
+        <v>0.0833699</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0917157</v>
+        <v>0.09210740000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0609282</v>
+        <v>0.063092</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0953078</v>
+        <v>0.09537229999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.10423</v>
+        <v>0.103988</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06660149999999999</v>
+        <v>0.0691406</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110933</v>
+        <v>0.110891</v>
       </c>
       <c r="C92" t="n">
-        <v>0.121231</v>
+        <v>0.120979</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0750996</v>
+        <v>0.0776125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134181</v>
+        <v>0.13425</v>
       </c>
       <c r="C93" t="n">
-        <v>0.146173</v>
+        <v>0.145832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0875165</v>
+        <v>0.0898026</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168129</v>
+        <v>0.168067</v>
       </c>
       <c r="C94" t="n">
-        <v>0.183126</v>
+        <v>0.182793</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0530094</v>
+        <v>0.109844</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0674573</v>
+        <v>0.0675857</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0667464</v>
+        <v>0.067124</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0548843</v>
+        <v>0.0557356</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07045800000000001</v>
+        <v>0.070242</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0698573</v>
+        <v>0.0698471</v>
       </c>
       <c r="D96" t="n">
-        <v>0.056502</v>
+        <v>0.0575754</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0732915</v>
+        <v>0.0733452</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0727038</v>
+        <v>0.07303419999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0582643</v>
+        <v>0.0594776</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0760517</v>
+        <v>0.0760672</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0761283</v>
+        <v>0.07630430000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0601447</v>
+        <v>0.0609929</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0789281</v>
+        <v>0.0788595</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0799484</v>
+        <v>0.0800754</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0617667</v>
+        <v>0.0625197</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0823266</v>
+        <v>0.08246680000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.084436</v>
+        <v>0.0842773</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06331150000000001</v>
+        <v>0.06478449999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08593290000000001</v>
+        <v>0.0862782</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08906219999999999</v>
+        <v>0.08928949999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0653981</v>
+        <v>0.0667247</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0904903</v>
+        <v>0.0905807</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0954202</v>
+        <v>0.09529120000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06795900000000001</v>
+        <v>0.0694335</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0969521</v>
+        <v>0.0966905</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102528</v>
+        <v>0.102207</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0709265</v>
+        <v>0.0726168</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104511</v>
+        <v>0.104461</v>
       </c>
       <c r="C104" t="n">
-        <v>0.112058</v>
+        <v>0.111805</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0747501</v>
+        <v>0.07674</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116253</v>
+        <v>0.115805</v>
       </c>
       <c r="C105" t="n">
-        <v>0.123349</v>
+        <v>0.12397</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08007350000000001</v>
+        <v>0.08238379999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131685</v>
+        <v>0.131371</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140623</v>
+        <v>0.140215</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0878041</v>
+        <v>0.0902133</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153561</v>
+        <v>0.152914</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163628</v>
+        <v>0.16322</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09991079999999999</v>
+        <v>0.101529</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183991</v>
+        <v>0.18335</v>
       </c>
       <c r="C108" t="n">
-        <v>0.199117</v>
+        <v>0.198492</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0604797</v>
+        <v>0.121357</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230763</v>
+        <v>0.230344</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250325</v>
+        <v>0.253123</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0618791</v>
+        <v>0.159981</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07972899999999999</v>
+        <v>0.0806901</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0856992</v>
+        <v>0.0856562</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0627771</v>
+        <v>0.0650356</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08380410000000001</v>
+        <v>0.08366369999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0882208</v>
+        <v>0.08846080000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06423769999999999</v>
+        <v>0.0669178</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0873149</v>
+        <v>0.0868593</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09129080000000001</v>
+        <v>0.09149160000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0665471</v>
+        <v>0.0694297</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09244620000000001</v>
+        <v>0.0921579</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0951906</v>
+        <v>0.0950328</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0689473</v>
+        <v>0.0720702</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.098204</v>
+        <v>0.0971012</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0995327</v>
+        <v>0.0995844</v>
       </c>
       <c r="D114" t="n">
-        <v>0.071993</v>
+        <v>0.07512389999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.103985</v>
+        <v>0.102925</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104644</v>
+        <v>0.104582</v>
       </c>
       <c r="D115" t="n">
-        <v>0.075877</v>
+        <v>0.0778498</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109973</v>
+        <v>0.109229</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110061</v>
+        <v>0.110164</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0803714</v>
+        <v>0.08086110000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116467</v>
+        <v>0.115707</v>
       </c>
       <c r="C117" t="n">
-        <v>0.117498</v>
+        <v>0.117454</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08523310000000001</v>
+        <v>0.08421149999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.124508</v>
+        <v>0.123867</v>
       </c>
       <c r="C118" t="n">
-        <v>0.126318</v>
+        <v>0.12627</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0901638</v>
+        <v>0.0891076</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.134397</v>
+        <v>0.133908</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137921</v>
+        <v>0.137288</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09631579999999999</v>
+        <v>0.0953605</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147557</v>
+        <v>0.147033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152725</v>
+        <v>0.152617</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10314</v>
+        <v>0.103167</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.166008</v>
+        <v>0.165646</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173788</v>
+        <v>0.173834</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114571</v>
+        <v>0.114279</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.191043</v>
+        <v>0.192527</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205551</v>
+        <v>0.205512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1324</v>
+        <v>0.132218</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234027</v>
+        <v>0.233726</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25336</v>
+        <v>0.255422</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08421099999999999</v>
+        <v>0.165051</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103402</v>
+        <v>0.103225</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105483</v>
+        <v>0.104007</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0876145</v>
+        <v>0.08495419999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10641</v>
+        <v>0.108063</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1078</v>
+        <v>0.106993</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0887172</v>
+        <v>0.08789950000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109508</v>
+        <v>0.109914</v>
       </c>
       <c r="C126" t="n">
-        <v>0.111174</v>
+        <v>0.109927</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0909577</v>
+        <v>0.0890777</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.112625</v>
+        <v>0.113051</v>
       </c>
       <c r="C127" t="n">
-        <v>0.115366</v>
+        <v>0.11285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.093634</v>
+        <v>0.09046559999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115299</v>
+        <v>0.114213</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117322</v>
+        <v>0.116754</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0930836</v>
+        <v>0.0934323</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118782</v>
+        <v>0.118372</v>
       </c>
       <c r="C129" t="n">
-        <v>0.12246</v>
+        <v>0.121625</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0972088</v>
+        <v>0.0957456</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122819</v>
+        <v>0.121699</v>
       </c>
       <c r="C130" t="n">
-        <v>0.126858</v>
+        <v>0.127362</v>
       </c>
       <c r="D130" t="n">
-        <v>0.098342</v>
+        <v>0.0998877</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129461</v>
+        <v>0.126647</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13466</v>
+        <v>0.13346</v>
       </c>
       <c r="D131" t="n">
-        <v>0.103043</v>
+        <v>0.101709</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134923</v>
+        <v>0.135691</v>
       </c>
       <c r="C132" t="n">
-        <v>0.14195</v>
+        <v>0.141205</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105809</v>
+        <v>0.10488</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143911</v>
+        <v>0.142268</v>
       </c>
       <c r="C133" t="n">
-        <v>0.153435</v>
+        <v>0.152945</v>
       </c>
       <c r="D133" t="n">
-        <v>0.111953</v>
+        <v>0.11135</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156307</v>
+        <v>0.155055</v>
       </c>
       <c r="C134" t="n">
-        <v>0.166965</v>
+        <v>0.167246</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117467</v>
+        <v>0.118194</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.172703</v>
+        <v>0.173032</v>
       </c>
       <c r="C135" t="n">
-        <v>0.187296</v>
+        <v>0.186015</v>
       </c>
       <c r="D135" t="n">
-        <v>0.12745</v>
+        <v>0.126291</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197548</v>
+        <v>0.197347</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217154</v>
+        <v>0.215424</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142893</v>
+        <v>0.141332</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236666</v>
+        <v>0.235992</v>
       </c>
       <c r="C137" t="n">
-        <v>0.261878</v>
+        <v>0.261949</v>
       </c>
       <c r="D137" t="n">
-        <v>0.163038</v>
+        <v>0.169851</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170998</v>
+        <v>0.168811</v>
       </c>
       <c r="C138" t="n">
-        <v>0.166267</v>
+        <v>0.164679</v>
       </c>
       <c r="D138" t="n">
-        <v>0.164667</v>
+        <v>0.162179</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.164774</v>
+        <v>0.169937</v>
       </c>
       <c r="C139" t="n">
-        <v>0.167368</v>
+        <v>0.166645</v>
       </c>
       <c r="D139" t="n">
-        <v>0.164783</v>
+        <v>0.162981</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.175649</v>
+        <v>0.172074</v>
       </c>
       <c r="C140" t="n">
-        <v>0.170097</v>
+        <v>0.169018</v>
       </c>
       <c r="D140" t="n">
-        <v>0.166328</v>
+        <v>0.165446</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174898</v>
+        <v>0.173698</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172374</v>
+        <v>0.172011</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16761</v>
+        <v>0.167062</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177034</v>
+        <v>0.175374</v>
       </c>
       <c r="C142" t="n">
-        <v>0.176303</v>
+        <v>0.174663</v>
       </c>
       <c r="D142" t="n">
-        <v>0.170472</v>
+        <v>0.16818</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178789</v>
+        <v>0.178751</v>
       </c>
       <c r="C143" t="n">
-        <v>0.180089</v>
+        <v>0.179212</v>
       </c>
       <c r="D143" t="n">
-        <v>0.171772</v>
+        <v>0.170432</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0321516</v>
+        <v>0.0323274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0320073</v>
+        <v>0.0318616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0309902</v>
+        <v>0.0365311</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.033237</v>
+        <v>0.0331811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0344381</v>
+        <v>0.0337637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0320639</v>
+        <v>0.0370295</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.034553</v>
+        <v>0.0351812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0391528</v>
+        <v>0.0380821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0334442</v>
+        <v>0.037842</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03995</v>
+        <v>0.0409308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0496323</v>
+        <v>0.0470997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0355142</v>
+        <v>0.0396003</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0542672</v>
+        <v>0.0549117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0676046</v>
+        <v>0.0661944</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0377821</v>
+        <v>0.0427241</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07999970000000001</v>
+        <v>0.08096449999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0929355</v>
+        <v>0.0898489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0431688</v>
+        <v>0.0509571</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119223</v>
+        <v>0.121664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.119728</v>
+        <v>0.118176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0551404</v>
+        <v>0.06641080000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160794</v>
+        <v>0.162545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164994</v>
+        <v>0.16267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08156529999999999</v>
+        <v>0.0976809</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315575</v>
+        <v>0.0315085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0293846</v>
+        <v>0.0292106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0286046</v>
+        <v>0.0349119</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0321286</v>
+        <v>0.0321298</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0298761</v>
+        <v>0.0297957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0290149</v>
+        <v>0.0353499</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0327075</v>
+        <v>0.0324131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0307275</v>
+        <v>0.0305913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0294646</v>
+        <v>0.0357922</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333834</v>
+        <v>0.0331012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0314362</v>
+        <v>0.0313779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0298413</v>
+        <v>0.0362224</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0337547</v>
+        <v>0.0336696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0327302</v>
+        <v>0.0324413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0303815</v>
+        <v>0.0367286</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0343925</v>
+        <v>0.0341969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0342608</v>
+        <v>0.0338882</v>
       </c>
       <c r="D15" t="n">
-        <v>0.031126</v>
+        <v>0.0376687</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0358296</v>
+        <v>0.0353744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0370959</v>
+        <v>0.0369171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0318998</v>
+        <v>0.0386786</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373623</v>
+        <v>0.0374333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0408204</v>
+        <v>0.0408439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0326126</v>
+        <v>0.0395895</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413844</v>
+        <v>0.0415511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0487328</v>
+        <v>0.04872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0342569</v>
+        <v>0.0411107</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0484331</v>
+        <v>0.0493484</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0584824</v>
+        <v>0.0579535</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0360852</v>
+        <v>0.0434153</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0621023</v>
+        <v>0.0615172</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07165009999999999</v>
+        <v>0.0708293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0391204</v>
+        <v>0.0478977</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08065659999999999</v>
+        <v>0.080826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0923775</v>
+        <v>0.0909739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0458145</v>
+        <v>0.0563348</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108546</v>
+        <v>0.108603</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118802</v>
+        <v>0.117537</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0576564</v>
+        <v>0.0696153</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.147684</v>
+        <v>0.149738</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161549</v>
+        <v>0.159671</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0821032</v>
+        <v>0.0954633</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0333095</v>
+        <v>0.0334942</v>
       </c>
       <c r="C24" t="n">
         <v>0.0311623</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02958</v>
+        <v>0.0362737</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0338278</v>
+        <v>0.0341456</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0318683</v>
+        <v>0.0318922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.029885</v>
+        <v>0.0366657</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0343953</v>
+        <v>0.0346145</v>
       </c>
       <c r="C26" t="n">
-        <v>0.032902</v>
+        <v>0.0325834</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0303031</v>
+        <v>0.0372452</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0350854</v>
+        <v>0.0353886</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0337645</v>
+        <v>0.0338363</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0308522</v>
+        <v>0.0380366</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0358587</v>
+        <v>0.0360395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.035182</v>
+        <v>0.0350097</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0314032</v>
+        <v>0.0387457</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0372927</v>
+        <v>0.0374776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0370085</v>
+        <v>0.0369725</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0321081</v>
+        <v>0.039594</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0392526</v>
+        <v>0.0396148</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0399659</v>
+        <v>0.0400477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0328012</v>
+        <v>0.0405304</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420608</v>
+        <v>0.0421617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.044533</v>
+        <v>0.0442935</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0340212</v>
+        <v>0.041894</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0471119</v>
+        <v>0.0468943</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0513554</v>
+        <v>0.0512503</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0352274</v>
+        <v>0.0436173</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0541439</v>
+        <v>0.0538278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0600951</v>
+        <v>0.0597722</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0373101</v>
+        <v>0.046277</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0649337</v>
+        <v>0.0644059</v>
       </c>
       <c r="C34" t="n">
-        <v>0.071824</v>
+        <v>0.07098599999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0409374</v>
+        <v>0.0506568</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0798685</v>
+        <v>0.07943</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0865678</v>
+        <v>0.0857526</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0476628</v>
+        <v>0.0579489</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100639</v>
+        <v>0.101136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.114536</v>
+        <v>0.11358</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0587736</v>
+        <v>0.069754</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136895</v>
+        <v>0.136167</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153559</v>
+        <v>0.151507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0779731</v>
+        <v>0.08992559999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0337493</v>
+        <v>0.0339981</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0318798</v>
+        <v>0.0317678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0299907</v>
+        <v>0.0368224</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.034452</v>
+        <v>0.0345521</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0326152</v>
+        <v>0.0325663</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0302808</v>
+        <v>0.0372825</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351541</v>
+        <v>0.0352548</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0332996</v>
+        <v>0.0332858</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0309707</v>
+        <v>0.0378845</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360684</v>
+        <v>0.0361627</v>
       </c>
       <c r="C41" t="n">
-        <v>0.034535</v>
+        <v>0.0343062</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0313834</v>
+        <v>0.0385339</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0371439</v>
+        <v>0.0370656</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0361346</v>
+        <v>0.0360594</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0316061</v>
+        <v>0.0393126</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387667</v>
+        <v>0.0386213</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0385942</v>
+        <v>0.0383907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0326146</v>
+        <v>0.0403513</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406171</v>
+        <v>0.0406048</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0411143</v>
+        <v>0.0410338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0332571</v>
+        <v>0.0414169</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0434576</v>
+        <v>0.0433028</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0457148</v>
+        <v>0.0455782</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0342659</v>
+        <v>0.0428878</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0476465</v>
+        <v>0.0473725</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051825</v>
+        <v>0.051634</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0359688</v>
+        <v>0.0448745</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536134</v>
+        <v>0.0538721</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0589198</v>
+        <v>0.0585564</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0383155</v>
+        <v>0.0476789</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0630713</v>
+        <v>0.06323719999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0695602</v>
+        <v>0.0689593</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0420259</v>
+        <v>0.0519005</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.075199</v>
+        <v>0.0758871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0854116</v>
+        <v>0.0845197</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0476641</v>
+        <v>0.0577274</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09479609999999999</v>
+        <v>0.0955341</v>
       </c>
       <c r="C50" t="n">
-        <v>0.107472</v>
+        <v>0.106186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0564029</v>
+        <v>0.0669767</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126935</v>
+        <v>0.127938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142174</v>
+        <v>0.140405</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0723095</v>
+        <v>0.08343540000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173735</v>
+        <v>0.174323</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190206</v>
+        <v>0.187494</v>
       </c>
       <c r="D52" t="n">
-        <v>0.101609</v>
+        <v>0.114365</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0366071</v>
+        <v>0.0368587</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0347608</v>
+        <v>0.0338761</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0327159</v>
+        <v>0.0388298</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0373913</v>
+        <v>0.0375791</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0355104</v>
+        <v>0.0346959</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0331356</v>
+        <v>0.0395578</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382694</v>
+        <v>0.0384071</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0367534</v>
+        <v>0.0359265</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0335566</v>
+        <v>0.040328</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0393747</v>
+        <v>0.039473</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0380995</v>
+        <v>0.037291</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0340113</v>
+        <v>0.0410499</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040679</v>
+        <v>0.0408703</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0401358</v>
+        <v>0.0394424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.034622</v>
+        <v>0.0420214</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0426595</v>
+        <v>0.0427243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0430152</v>
+        <v>0.0423402</v>
       </c>
       <c r="D58" t="n">
-        <v>0.035542</v>
+        <v>0.0432151</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0451192</v>
+        <v>0.0453887</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0462622</v>
+        <v>0.0456751</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0364562</v>
+        <v>0.04465</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0489717</v>
+        <v>0.0490633</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0510318</v>
+        <v>0.0503293</v>
       </c>
       <c r="D60" t="n">
-        <v>0.037988</v>
+        <v>0.0464255</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0540959</v>
+        <v>0.0542175</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0583596</v>
+        <v>0.0575281</v>
       </c>
       <c r="D61" t="n">
-        <v>0.040036</v>
+        <v>0.0490507</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.061768</v>
+        <v>0.0617818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0681981</v>
+        <v>0.06723469999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.043434</v>
+        <v>0.0528233</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0730537</v>
+        <v>0.0731465</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0824058</v>
+        <v>0.0812797</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0485934</v>
+        <v>0.0584129</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0916389</v>
+        <v>0.0913761</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102874</v>
+        <v>0.101343</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0566586</v>
+        <v>0.0670549</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119073</v>
+        <v>0.1194</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135121</v>
+        <v>0.133345</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07025679999999999</v>
+        <v>0.0816153</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159946</v>
+        <v>0.162086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182129</v>
+        <v>0.179149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09535879999999999</v>
+        <v>0.108224</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0417874</v>
+        <v>0.0416038</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0393866</v>
+        <v>0.0391084</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0390602</v>
+        <v>0.0457422</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0423421</v>
+        <v>0.0422907</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0402634</v>
+        <v>0.040105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0395137</v>
+        <v>0.0465033</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0431243</v>
+        <v>0.0430044</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0414226</v>
+        <v>0.0413203</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0399606</v>
+        <v>0.0473064</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441791</v>
+        <v>0.0440172</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0427884</v>
+        <v>0.0428002</v>
       </c>
       <c r="D70" t="n">
-        <v>0.040447</v>
+        <v>0.0482458</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.045537</v>
+        <v>0.0454679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.044567</v>
+        <v>0.0446808</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0410131</v>
+        <v>0.049361</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470432</v>
+        <v>0.0470506</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0471381</v>
+        <v>0.0473036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.041742</v>
+        <v>0.0507643</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492801</v>
+        <v>0.0492897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0506358</v>
+        <v>0.050739</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0427571</v>
+        <v>0.0523263</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.052366</v>
+        <v>0.0525563</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0552865</v>
+        <v>0.0556352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0441292</v>
+        <v>0.0544269</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0571533</v>
+        <v>0.0574743</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0620095</v>
+        <v>0.0624222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0462061</v>
+        <v>0.0571397</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06408750000000001</v>
+        <v>0.0644777</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0715382</v>
+        <v>0.07191350000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0491887</v>
+        <v>0.0610032</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07485849999999999</v>
+        <v>0.0753143</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0849457</v>
+        <v>0.08512939999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0536654</v>
+        <v>0.0665092</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09117459999999999</v>
+        <v>0.0916382</v>
       </c>
       <c r="C78" t="n">
-        <v>0.103032</v>
+        <v>0.103127</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0607066</v>
+        <v>0.0746612</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115484</v>
+        <v>0.116616</v>
       </c>
       <c r="C79" t="n">
-        <v>0.131344</v>
+        <v>0.130817</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07267999999999999</v>
+        <v>0.087922</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155344</v>
+        <v>0.156818</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174112</v>
+        <v>0.17279</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0942921</v>
+        <v>0.111018</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0476902</v>
+        <v>0.0479732</v>
       </c>
       <c r="C81" t="n">
-        <v>0.047259</v>
+        <v>0.0482642</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0443688</v>
+        <v>0.0546964</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0485734</v>
+        <v>0.0491248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0496164</v>
+        <v>0.0502574</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0450751</v>
+        <v>0.0568006</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0507644</v>
+        <v>0.0511879</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0522238</v>
+        <v>0.0532033</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0458012</v>
+        <v>0.0589688</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519756</v>
+        <v>0.0534547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0551844</v>
+        <v>0.0557163</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0470079</v>
+        <v>0.0610264</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0550992</v>
+        <v>0.0564811</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0586516</v>
+        <v>0.0594497</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0480795</v>
+        <v>0.0638951</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0576962</v>
+        <v>0.0594006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0628975</v>
+        <v>0.0632032</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0501129</v>
+        <v>0.0666432</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0622821</v>
+        <v>0.0640419</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0678211</v>
+        <v>0.0684143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0520247</v>
+        <v>0.0698376</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06737849999999999</v>
+        <v>0.069341</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0745798</v>
+        <v>0.0744924</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0552979</v>
+        <v>0.0730715</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0745152</v>
+        <v>0.0756976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0813516</v>
+        <v>0.081801</v>
       </c>
       <c r="D89" t="n">
-        <v>0.058535</v>
+        <v>0.07752829999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0833699</v>
+        <v>0.0850481</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09210740000000001</v>
+        <v>0.09146459999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.063092</v>
+        <v>0.0819478</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09537229999999999</v>
+        <v>0.0963324</v>
       </c>
       <c r="C91" t="n">
-        <v>0.103988</v>
+        <v>0.1038</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0691406</v>
+        <v>0.08815720000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110891</v>
+        <v>0.111576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120979</v>
+        <v>0.120505</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0776125</v>
+        <v>0.09685290000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13425</v>
+        <v>0.134752</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145832</v>
+        <v>0.14515</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0898026</v>
+        <v>0.109502</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168067</v>
+        <v>0.169174</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182793</v>
+        <v>0.182262</v>
       </c>
       <c r="D94" t="n">
-        <v>0.109844</v>
+        <v>0.131629</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0675857</v>
+        <v>0.06696249999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.067124</v>
+        <v>0.0676186</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0557356</v>
+        <v>0.0745913</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.070242</v>
+        <v>0.06962989999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0698471</v>
+        <v>0.07037939999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0575754</v>
+        <v>0.0772301</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0733452</v>
+        <v>0.072766</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07303419999999999</v>
+        <v>0.0733603</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0594776</v>
+        <v>0.0799922</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0760672</v>
+        <v>0.0760729</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07630430000000001</v>
+        <v>0.07673919999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0609929</v>
+        <v>0.0826785</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788595</v>
+        <v>0.0786008</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0800754</v>
+        <v>0.0807119</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0625197</v>
+        <v>0.08643289999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08246680000000001</v>
+        <v>0.0826114</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0842773</v>
+        <v>0.0849259</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06478449999999999</v>
+        <v>0.0891537</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0862782</v>
+        <v>0.0864309</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08928949999999999</v>
+        <v>0.0900591</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0667247</v>
+        <v>0.0931179</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0905807</v>
+        <v>0.09078020000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09529120000000001</v>
+        <v>0.09583319999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0694335</v>
+        <v>0.0965476</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0966905</v>
+        <v>0.09684280000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102207</v>
+        <v>0.102807</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0726168</v>
+        <v>0.10092</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104461</v>
+        <v>0.105225</v>
       </c>
       <c r="C104" t="n">
-        <v>0.111805</v>
+        <v>0.112574</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07674</v>
+        <v>0.106126</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115805</v>
+        <v>0.116282</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12397</v>
+        <v>0.124508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08238379999999999</v>
+        <v>0.112861</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131371</v>
+        <v>0.132171</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140215</v>
+        <v>0.140868</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0902133</v>
+        <v>0.122149</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.152914</v>
+        <v>0.153767</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16322</v>
+        <v>0.163642</v>
       </c>
       <c r="D107" t="n">
-        <v>0.101529</v>
+        <v>0.135535</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.18335</v>
+        <v>0.184507</v>
       </c>
       <c r="C108" t="n">
-        <v>0.198492</v>
+        <v>0.198833</v>
       </c>
       <c r="D108" t="n">
-        <v>0.121357</v>
+        <v>0.156873</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230344</v>
+        <v>0.231974</v>
       </c>
       <c r="C109" t="n">
-        <v>0.253123</v>
+        <v>0.253698</v>
       </c>
       <c r="D109" t="n">
-        <v>0.159981</v>
+        <v>0.196265</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0806901</v>
+        <v>0.0810056</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0856562</v>
+        <v>0.0859699</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0650356</v>
+        <v>0.0945082</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08366369999999999</v>
+        <v>0.0842039</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08846080000000001</v>
+        <v>0.0887708</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0669178</v>
+        <v>0.09709959999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0868593</v>
+        <v>0.0877484</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09149160000000001</v>
+        <v>0.09181590000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0694297</v>
+        <v>0.0997704</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0921579</v>
+        <v>0.09174450000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0950328</v>
+        <v>0.09523230000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0720702</v>
+        <v>0.102429</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0971012</v>
+        <v>0.09592050000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0995844</v>
+        <v>0.0997533</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07512389999999999</v>
+        <v>0.106184</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102925</v>
+        <v>0.101241</v>
       </c>
       <c r="C115" t="n">
-        <v>0.104582</v>
+        <v>0.103912</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0778498</v>
+        <v>0.109532</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109229</v>
+        <v>0.107491</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110164</v>
+        <v>0.109684</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08086110000000001</v>
+        <v>0.113566</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115707</v>
+        <v>0.114367</v>
       </c>
       <c r="C117" t="n">
-        <v>0.117454</v>
+        <v>0.116959</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08421149999999999</v>
+        <v>0.117303</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123867</v>
+        <v>0.122736</v>
       </c>
       <c r="C118" t="n">
-        <v>0.12627</v>
+        <v>0.125916</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0891076</v>
+        <v>0.122995</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133908</v>
+        <v>0.133372</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137288</v>
+        <v>0.137272</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0953605</v>
+        <v>0.129472</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147033</v>
+        <v>0.14724</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152617</v>
+        <v>0.152846</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103167</v>
+        <v>0.138489</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165646</v>
+        <v>0.16612</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173834</v>
+        <v>0.173779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114279</v>
+        <v>0.150762</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192527</v>
+        <v>0.193191</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205512</v>
+        <v>0.205482</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132218</v>
+        <v>0.169926</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233726</v>
+        <v>0.23426</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255422</v>
+        <v>0.25615</v>
       </c>
       <c r="D123" t="n">
-        <v>0.165051</v>
+        <v>0.204411</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103225</v>
+        <v>0.104156</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104007</v>
+        <v>0.107526</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08495419999999999</v>
+        <v>0.118599</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.108063</v>
+        <v>0.106778</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106993</v>
+        <v>0.110653</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08789950000000001</v>
+        <v>0.12187</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109914</v>
+        <v>0.109927</v>
       </c>
       <c r="C126" t="n">
-        <v>0.109927</v>
+        <v>0.113141</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0890777</v>
+        <v>0.123882</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.113051</v>
+        <v>0.111911</v>
       </c>
       <c r="C127" t="n">
-        <v>0.11285</v>
+        <v>0.115268</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09046559999999999</v>
+        <v>0.125721</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114213</v>
+        <v>0.114335</v>
       </c>
       <c r="C128" t="n">
-        <v>0.116754</v>
+        <v>0.119803</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0934323</v>
+        <v>0.129123</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118372</v>
+        <v>0.118142</v>
       </c>
       <c r="C129" t="n">
-        <v>0.121625</v>
+        <v>0.124246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0957456</v>
+        <v>0.133521</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121699</v>
+        <v>0.124023</v>
       </c>
       <c r="C130" t="n">
-        <v>0.127362</v>
+        <v>0.128347</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0998877</v>
+        <v>0.13585</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126647</v>
+        <v>0.128042</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13346</v>
+        <v>0.13596</v>
       </c>
       <c r="D131" t="n">
-        <v>0.101709</v>
+        <v>0.141319</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135691</v>
+        <v>0.135139</v>
       </c>
       <c r="C132" t="n">
-        <v>0.141205</v>
+        <v>0.143338</v>
       </c>
       <c r="D132" t="n">
-        <v>0.10488</v>
+        <v>0.145834</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142268</v>
+        <v>0.143281</v>
       </c>
       <c r="C133" t="n">
-        <v>0.152945</v>
+        <v>0.154095</v>
       </c>
       <c r="D133" t="n">
-        <v>0.11135</v>
+        <v>0.15184</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155055</v>
+        <v>0.157306</v>
       </c>
       <c r="C134" t="n">
-        <v>0.167246</v>
+        <v>0.167789</v>
       </c>
       <c r="D134" t="n">
-        <v>0.118194</v>
+        <v>0.15923</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173032</v>
+        <v>0.173539</v>
       </c>
       <c r="C135" t="n">
-        <v>0.186015</v>
+        <v>0.187973</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126291</v>
+        <v>0.17095</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197347</v>
+        <v>0.19973</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215424</v>
+        <v>0.21629</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141332</v>
+        <v>0.186128</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235992</v>
+        <v>0.237732</v>
       </c>
       <c r="C137" t="n">
-        <v>0.261949</v>
+        <v>0.26042</v>
       </c>
       <c r="D137" t="n">
-        <v>0.169851</v>
+        <v>0.213576</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168811</v>
+        <v>0.170768</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164679</v>
+        <v>0.167365</v>
       </c>
       <c r="D138" t="n">
-        <v>0.162179</v>
+        <v>0.187322</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169937</v>
+        <v>0.171565</v>
       </c>
       <c r="C139" t="n">
-        <v>0.166645</v>
+        <v>0.169599</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162981</v>
+        <v>0.190121</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172074</v>
+        <v>0.173679</v>
       </c>
       <c r="C140" t="n">
-        <v>0.169018</v>
+        <v>0.172346</v>
       </c>
       <c r="D140" t="n">
-        <v>0.165446</v>
+        <v>0.192715</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173698</v>
+        <v>0.174859</v>
       </c>
       <c r="C141" t="n">
-        <v>0.172011</v>
+        <v>0.174706</v>
       </c>
       <c r="D141" t="n">
-        <v>0.167062</v>
+        <v>0.195033</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175374</v>
+        <v>0.178418</v>
       </c>
       <c r="C142" t="n">
-        <v>0.174663</v>
+        <v>0.1779</v>
       </c>
       <c r="D142" t="n">
-        <v>0.16818</v>
+        <v>0.197517</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178751</v>
+        <v>0.180143</v>
       </c>
       <c r="C143" t="n">
-        <v>0.179212</v>
+        <v>0.181945</v>
       </c>
       <c r="D143" t="n">
-        <v>0.170432</v>
+        <v>0.200938</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323274</v>
+        <v>0.0323947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0318616</v>
+        <v>0.0318887</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0365311</v>
+        <v>0.0360728</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331811</v>
+        <v>0.0333533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0337637</v>
+        <v>0.0339215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0370295</v>
+        <v>0.0362137</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351812</v>
+        <v>0.0349347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0380821</v>
+        <v>0.0379395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.037842</v>
+        <v>0.0368083</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0409308</v>
+        <v>0.0401823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0470997</v>
+        <v>0.0495804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0396003</v>
+        <v>0.0387834</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0549117</v>
+        <v>0.0546851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0661944</v>
+        <v>0.0649098</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0427241</v>
+        <v>0.042323</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08096449999999999</v>
+        <v>0.08144750000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0898489</v>
+        <v>0.0897042</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0509571</v>
+        <v>0.051137</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121664</v>
+        <v>0.12046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118176</v>
+        <v>0.116458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06641080000000001</v>
+        <v>0.0670843</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162545</v>
+        <v>0.161456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16267</v>
+        <v>0.161713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0976809</v>
+        <v>0.0968415</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0315085</v>
+        <v>0.0313508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0292106</v>
+        <v>0.0290968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0349119</v>
+        <v>0.0347029</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0321298</v>
+        <v>0.0318734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0297957</v>
+        <v>0.0294948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0353499</v>
+        <v>0.0352328</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0324131</v>
+        <v>0.0322414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305913</v>
+        <v>0.0305241</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0357922</v>
+        <v>0.0355037</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0331012</v>
+        <v>0.0329352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313779</v>
+        <v>0.031341</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0362224</v>
+        <v>0.0361572</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336696</v>
+        <v>0.0336513</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0324413</v>
+        <v>0.0322307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0367286</v>
+        <v>0.0364833</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341969</v>
+        <v>0.0341619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0338882</v>
+        <v>0.0338753</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0376687</v>
+        <v>0.0371192</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0353744</v>
+        <v>0.0352204</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0369171</v>
+        <v>0.0366132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0386786</v>
+        <v>0.038358</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0374333</v>
+        <v>0.0370517</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0408439</v>
+        <v>0.0402963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0395895</v>
+        <v>0.039135</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0415511</v>
+        <v>0.0412094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04872</v>
+        <v>0.0483946</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0411107</v>
+        <v>0.0411329</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0493484</v>
+        <v>0.0489545</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579535</v>
+        <v>0.0571281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0434153</v>
+        <v>0.0431262</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0615172</v>
+        <v>0.061585</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0708293</v>
+        <v>0.07000439999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0478977</v>
+        <v>0.0475578</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.080826</v>
+        <v>0.0806149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0909739</v>
+        <v>0.0899983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0563348</v>
+        <v>0.05658</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108603</v>
+        <v>0.10814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117537</v>
+        <v>0.115658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0696153</v>
+        <v>0.06989480000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149738</v>
+        <v>0.149031</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159671</v>
+        <v>0.157867</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0954633</v>
+        <v>0.09497070000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0334942</v>
+        <v>0.033339</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0311623</v>
+        <v>0.0307178</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0362737</v>
+        <v>0.0362975</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341456</v>
+        <v>0.0339866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0318922</v>
+        <v>0.0313355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0366657</v>
+        <v>0.0367018</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0346145</v>
+        <v>0.0345483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0325834</v>
+        <v>0.0321723</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0372452</v>
+        <v>0.0371901</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0353886</v>
+        <v>0.0353438</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0338363</v>
+        <v>0.0334361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0380366</v>
+        <v>0.0379959</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360395</v>
+        <v>0.0360953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0350097</v>
+        <v>0.034691</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0387457</v>
+        <v>0.0386608</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0374776</v>
+        <v>0.0375083</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0369725</v>
+        <v>0.0364573</v>
       </c>
       <c r="D29" t="n">
-        <v>0.039594</v>
+        <v>0.0394909</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0396148</v>
+        <v>0.0395007</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0400477</v>
+        <v>0.0394186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0405304</v>
+        <v>0.040324</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0421617</v>
+        <v>0.0422397</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0442935</v>
+        <v>0.0436448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.041894</v>
+        <v>0.0419455</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468943</v>
+        <v>0.0468926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0512503</v>
+        <v>0.0507684</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0436173</v>
+        <v>0.0436849</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0538278</v>
+        <v>0.054045</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0597722</v>
+        <v>0.059045</v>
       </c>
       <c r="D33" t="n">
-        <v>0.046277</v>
+        <v>0.0466534</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644059</v>
+        <v>0.0644831</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07098599999999999</v>
+        <v>0.0703162</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0506568</v>
+        <v>0.0508678</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07943</v>
+        <v>0.07947750000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0857526</v>
+        <v>0.0847431</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0579489</v>
+        <v>0.0581388</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101136</v>
+        <v>0.101042</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11358</v>
+        <v>0.111796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.069754</v>
+        <v>0.0695774</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.136167</v>
+        <v>0.135838</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151507</v>
+        <v>0.15012</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08992559999999999</v>
+        <v>0.089337</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0339981</v>
+        <v>0.0336792</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0317678</v>
+        <v>0.0312606</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0368224</v>
+        <v>0.0367762</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345521</v>
+        <v>0.0344952</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0325663</v>
+        <v>0.0319114</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0372825</v>
+        <v>0.0374161</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0352548</v>
+        <v>0.0350941</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0332858</v>
+        <v>0.0328557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0378845</v>
+        <v>0.0379704</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0361627</v>
+        <v>0.0360196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0343062</v>
+        <v>0.0336723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0385339</v>
+        <v>0.0386706</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370656</v>
+        <v>0.0369863</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0360594</v>
+        <v>0.0357125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0393126</v>
+        <v>0.039456</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386213</v>
+        <v>0.038518</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0383907</v>
+        <v>0.0375734</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0403513</v>
+        <v>0.0403784</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406048</v>
+        <v>0.0405324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0410338</v>
+        <v>0.0405124</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0414169</v>
+        <v>0.0413998</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433028</v>
+        <v>0.0433085</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0455782</v>
+        <v>0.045149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0428878</v>
+        <v>0.0429421</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473725</v>
+        <v>0.0473281</v>
       </c>
       <c r="C46" t="n">
-        <v>0.051634</v>
+        <v>0.0509073</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0448745</v>
+        <v>0.0450597</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538721</v>
+        <v>0.0536989</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0585564</v>
+        <v>0.0580098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0476789</v>
+        <v>0.0476638</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06323719999999999</v>
+        <v>0.0631346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0689593</v>
+        <v>0.0681262</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0519005</v>
+        <v>0.0520565</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0758871</v>
+        <v>0.07567309999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0845197</v>
+        <v>0.0834165</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0577274</v>
+        <v>0.0576564</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0955341</v>
+        <v>0.0953053</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106186</v>
+        <v>0.104471</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0669767</v>
+        <v>0.0668419</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127938</v>
+        <v>0.127641</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140405</v>
+        <v>0.139798</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08343540000000001</v>
+        <v>0.0831346</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174323</v>
+        <v>0.173904</v>
       </c>
       <c r="C52" t="n">
-        <v>0.187494</v>
+        <v>0.185749</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114365</v>
+        <v>0.11382</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0368587</v>
+        <v>0.0355931</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0338761</v>
+        <v>0.0337386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0388298</v>
+        <v>0.0400385</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0375791</v>
+        <v>0.0364782</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0346959</v>
+        <v>0.0345893</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0395578</v>
+        <v>0.040604</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0384071</v>
+        <v>0.0373022</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0359265</v>
+        <v>0.0356724</v>
       </c>
       <c r="D55" t="n">
-        <v>0.040328</v>
+        <v>0.0413279</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.039473</v>
+        <v>0.0384344</v>
       </c>
       <c r="C56" t="n">
-        <v>0.037291</v>
+        <v>0.0370061</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0410499</v>
+        <v>0.0420455</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0408703</v>
+        <v>0.0397358</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0394424</v>
+        <v>0.0391025</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0420214</v>
+        <v>0.0430568</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0427243</v>
+        <v>0.0418629</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0423402</v>
+        <v>0.0420101</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0432151</v>
+        <v>0.0443216</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0453887</v>
+        <v>0.0444315</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0456751</v>
+        <v>0.0452329</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04465</v>
+        <v>0.0457036</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0490633</v>
+        <v>0.0482411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0503293</v>
+        <v>0.049908</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0464255</v>
+        <v>0.0474281</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542175</v>
+        <v>0.0535658</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0575281</v>
+        <v>0.0569291</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0490507</v>
+        <v>0.049958</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0617818</v>
+        <v>0.0612395</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06723469999999999</v>
+        <v>0.0665669</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0528233</v>
+        <v>0.0534807</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0731465</v>
+        <v>0.0726005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0812797</v>
+        <v>0.0801766</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0584129</v>
+        <v>0.0590138</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0913761</v>
+        <v>0.090907</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101343</v>
+        <v>0.100444</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0670549</v>
+        <v>0.0675621</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1194</v>
+        <v>0.118834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133345</v>
+        <v>0.132934</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0816153</v>
+        <v>0.0820623</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162086</v>
+        <v>0.161101</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179149</v>
+        <v>0.178342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.108224</v>
+        <v>0.108758</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0416038</v>
+        <v>0.0420048</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0391084</v>
+        <v>0.0382876</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0457422</v>
+        <v>0.0457263</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0422907</v>
+        <v>0.0427087</v>
       </c>
       <c r="C68" t="n">
-        <v>0.040105</v>
+        <v>0.0391811</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0465033</v>
+        <v>0.046437</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0430044</v>
+        <v>0.0434579</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0413203</v>
+        <v>0.04036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0473064</v>
+        <v>0.0472252</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0440172</v>
+        <v>0.0444809</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0428002</v>
+        <v>0.0415503</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0482458</v>
+        <v>0.0479048</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0454679</v>
+        <v>0.0457241</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0446808</v>
+        <v>0.0431709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.049361</v>
+        <v>0.0489122</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470506</v>
+        <v>0.047303</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0473036</v>
+        <v>0.0458472</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0507643</v>
+        <v>0.0504596</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492897</v>
+        <v>0.0495532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.050739</v>
+        <v>0.0493874</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0523263</v>
+        <v>0.0519703</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0525563</v>
+        <v>0.0527663</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0556352</v>
+        <v>0.0540538</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0544269</v>
+        <v>0.0540028</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0574743</v>
+        <v>0.0576199</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0624222</v>
+        <v>0.0609696</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0571397</v>
+        <v>0.0566401</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0644777</v>
+        <v>0.06471540000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07191350000000001</v>
+        <v>0.07007099999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0610032</v>
+        <v>0.0602472</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0753143</v>
+        <v>0.07552639999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08512939999999999</v>
+        <v>0.0827772</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0665092</v>
+        <v>0.06561259999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0916382</v>
+        <v>0.0918518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.103127</v>
+        <v>0.100888</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0746612</v>
+        <v>0.0736866</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116616</v>
+        <v>0.116624</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130817</v>
+        <v>0.128301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.087922</v>
+        <v>0.0868131</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.156818</v>
+        <v>0.156645</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17279</v>
+        <v>0.17063</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111018</v>
+        <v>0.109287</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0479732</v>
+        <v>0.0485528</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0482642</v>
+        <v>0.0467077</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0546964</v>
+        <v>0.0544957</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491248</v>
+        <v>0.0494655</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0502574</v>
+        <v>0.048881</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0568006</v>
+        <v>0.0565417</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0511879</v>
+        <v>0.0511435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0532033</v>
+        <v>0.0509962</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0589688</v>
+        <v>0.0583929</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0534547</v>
+        <v>0.0534096</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0557163</v>
+        <v>0.0540208</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0610264</v>
+        <v>0.0608421</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0564811</v>
+        <v>0.0555601</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0594497</v>
+        <v>0.0576942</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0638951</v>
+        <v>0.0634458</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0594006</v>
+        <v>0.0589769</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0632032</v>
+        <v>0.0619147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0666432</v>
+        <v>0.0666578</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0640419</v>
+        <v>0.06309910000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0684143</v>
+        <v>0.0667355</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0698376</v>
+        <v>0.06924080000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.069341</v>
+        <v>0.06779</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0744924</v>
+        <v>0.0728799</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0730715</v>
+        <v>0.0728664</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0756976</v>
+        <v>0.07488309999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.081801</v>
+        <v>0.0802925</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07752829999999999</v>
+        <v>0.0766645</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0850481</v>
+        <v>0.0835935</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09146459999999999</v>
+        <v>0.09002019999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0819478</v>
+        <v>0.0816368</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0963324</v>
+        <v>0.0954653</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1038</v>
+        <v>0.102244</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08815720000000001</v>
+        <v>0.0875586</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111576</v>
+        <v>0.110978</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120505</v>
+        <v>0.118301</v>
       </c>
       <c r="D92" t="n">
-        <v>0.09685290000000001</v>
+        <v>0.0961269</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.134752</v>
+        <v>0.13428</v>
       </c>
       <c r="C93" t="n">
-        <v>0.14515</v>
+        <v>0.14288</v>
       </c>
       <c r="D93" t="n">
-        <v>0.109502</v>
+        <v>0.108733</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.169174</v>
+        <v>0.168109</v>
       </c>
       <c r="C94" t="n">
-        <v>0.182262</v>
+        <v>0.179547</v>
       </c>
       <c r="D94" t="n">
-        <v>0.131629</v>
+        <v>0.129821</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06696249999999999</v>
+        <v>0.0676182</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0676186</v>
+        <v>0.066417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0745913</v>
+        <v>0.0749315</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06962989999999999</v>
+        <v>0.0705032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07037939999999999</v>
+        <v>0.0691587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0772301</v>
+        <v>0.0774609</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.072766</v>
+        <v>0.0734138</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0733603</v>
+        <v>0.07234110000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0799922</v>
+        <v>0.0799643</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0760729</v>
+        <v>0.07617309999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07673919999999999</v>
+        <v>0.075055</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0826785</v>
+        <v>0.0832051</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0786008</v>
+        <v>0.0790708</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0807119</v>
+        <v>0.0792872</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08643289999999999</v>
+        <v>0.0856896</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0826114</v>
+        <v>0.08269600000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0849259</v>
+        <v>0.0834728</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0891537</v>
+        <v>0.08931210000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0864309</v>
+        <v>0.0862277</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0900591</v>
+        <v>0.0885422</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0931179</v>
+        <v>0.092955</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09078020000000001</v>
+        <v>0.09112140000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09583319999999999</v>
+        <v>0.0941583</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0965476</v>
+        <v>0.0958092</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09684280000000001</v>
+        <v>0.0968816</v>
       </c>
       <c r="C103" t="n">
-        <v>0.102807</v>
+        <v>0.101401</v>
       </c>
       <c r="D103" t="n">
-        <v>0.10092</v>
+        <v>0.100924</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.105225</v>
+        <v>0.104936</v>
       </c>
       <c r="C104" t="n">
-        <v>0.112574</v>
+        <v>0.110591</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106126</v>
+        <v>0.105445</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116282</v>
+        <v>0.116123</v>
       </c>
       <c r="C105" t="n">
-        <v>0.124508</v>
+        <v>0.122726</v>
       </c>
       <c r="D105" t="n">
-        <v>0.112861</v>
+        <v>0.112255</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.132171</v>
+        <v>0.13206</v>
       </c>
       <c r="C106" t="n">
-        <v>0.140868</v>
+        <v>0.13829</v>
       </c>
       <c r="D106" t="n">
-        <v>0.122149</v>
+        <v>0.121959</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153767</v>
+        <v>0.153547</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163642</v>
+        <v>0.160794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.135535</v>
+        <v>0.135561</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184507</v>
+        <v>0.184398</v>
       </c>
       <c r="C108" t="n">
-        <v>0.198833</v>
+        <v>0.192473</v>
       </c>
       <c r="D108" t="n">
-        <v>0.156873</v>
+        <v>0.153626</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231974</v>
+        <v>0.231366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.253698</v>
+        <v>0.249379</v>
       </c>
       <c r="D109" t="n">
-        <v>0.196265</v>
+        <v>0.194882</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0810056</v>
+        <v>0.08106960000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0859699</v>
+        <v>0.08458060000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0945082</v>
+        <v>0.0947022</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0842039</v>
+        <v>0.0843622</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0887708</v>
+        <v>0.0875527</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09709959999999999</v>
+        <v>0.097482</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0877484</v>
+        <v>0.0875165</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09181590000000001</v>
+        <v>0.0903535</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0997704</v>
+        <v>0.09995279999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09174450000000001</v>
+        <v>0.0917535</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09523230000000001</v>
+        <v>0.09376370000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102429</v>
+        <v>0.102439</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09592050000000001</v>
+        <v>0.0957908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0997533</v>
+        <v>0.0979652</v>
       </c>
       <c r="D114" t="n">
-        <v>0.106184</v>
+        <v>0.106441</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101241</v>
+        <v>0.100926</v>
       </c>
       <c r="C115" t="n">
-        <v>0.103912</v>
+        <v>0.102139</v>
       </c>
       <c r="D115" t="n">
-        <v>0.109532</v>
+        <v>0.108903</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107491</v>
+        <v>0.106887</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109684</v>
+        <v>0.108015</v>
       </c>
       <c r="D116" t="n">
-        <v>0.113566</v>
+        <v>0.113001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114367</v>
+        <v>0.114102</v>
       </c>
       <c r="C117" t="n">
-        <v>0.116959</v>
+        <v>0.11504</v>
       </c>
       <c r="D117" t="n">
-        <v>0.117303</v>
+        <v>0.117559</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122736</v>
+        <v>0.12284</v>
       </c>
       <c r="C118" t="n">
-        <v>0.125916</v>
+        <v>0.123917</v>
       </c>
       <c r="D118" t="n">
-        <v>0.122995</v>
+        <v>0.123137</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133372</v>
+        <v>0.133112</v>
       </c>
       <c r="C119" t="n">
-        <v>0.137272</v>
+        <v>0.134903</v>
       </c>
       <c r="D119" t="n">
-        <v>0.129472</v>
+        <v>0.129537</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14724</v>
+        <v>0.147096</v>
       </c>
       <c r="C120" t="n">
-        <v>0.152846</v>
+        <v>0.148987</v>
       </c>
       <c r="D120" t="n">
-        <v>0.138489</v>
+        <v>0.138514</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16612</v>
+        <v>0.165864</v>
       </c>
       <c r="C121" t="n">
-        <v>0.173779</v>
+        <v>0.169292</v>
       </c>
       <c r="D121" t="n">
-        <v>0.150762</v>
+        <v>0.150703</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.193191</v>
+        <v>0.192978</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205482</v>
+        <v>0.2001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169926</v>
+        <v>0.169699</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23426</v>
+        <v>0.234125</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25615</v>
+        <v>0.250324</v>
       </c>
       <c r="D123" t="n">
-        <v>0.204411</v>
+        <v>0.203564</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104156</v>
+        <v>0.10411</v>
       </c>
       <c r="C124" t="n">
-        <v>0.107526</v>
+        <v>0.104513</v>
       </c>
       <c r="D124" t="n">
-        <v>0.118599</v>
+        <v>0.117501</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106778</v>
+        <v>0.106355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.110653</v>
+        <v>0.107611</v>
       </c>
       <c r="D125" t="n">
-        <v>0.12187</v>
+        <v>0.120928</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109927</v>
+        <v>0.110549</v>
       </c>
       <c r="C126" t="n">
-        <v>0.113141</v>
+        <v>0.110847</v>
       </c>
       <c r="D126" t="n">
-        <v>0.123882</v>
+        <v>0.123943</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111911</v>
+        <v>0.114702</v>
       </c>
       <c r="C127" t="n">
-        <v>0.115268</v>
+        <v>0.114413</v>
       </c>
       <c r="D127" t="n">
-        <v>0.125721</v>
+        <v>0.12827</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114335</v>
+        <v>0.11459</v>
       </c>
       <c r="C128" t="n">
-        <v>0.119803</v>
+        <v>0.117174</v>
       </c>
       <c r="D128" t="n">
-        <v>0.129123</v>
+        <v>0.130129</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118142</v>
+        <v>0.119045</v>
       </c>
       <c r="C129" t="n">
-        <v>0.124246</v>
+        <v>0.122318</v>
       </c>
       <c r="D129" t="n">
-        <v>0.133521</v>
+        <v>0.133907</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.124023</v>
+        <v>0.123143</v>
       </c>
       <c r="C130" t="n">
-        <v>0.128347</v>
+        <v>0.126404</v>
       </c>
       <c r="D130" t="n">
-        <v>0.13585</v>
+        <v>0.136996</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128042</v>
+        <v>0.128383</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13596</v>
+        <v>0.132519</v>
       </c>
       <c r="D131" t="n">
-        <v>0.141319</v>
+        <v>0.140585</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135139</v>
+        <v>0.134222</v>
       </c>
       <c r="C132" t="n">
-        <v>0.143338</v>
+        <v>0.140476</v>
       </c>
       <c r="D132" t="n">
-        <v>0.145834</v>
+        <v>0.145117</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143281</v>
+        <v>0.144933</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154095</v>
+        <v>0.151172</v>
       </c>
       <c r="D133" t="n">
-        <v>0.15184</v>
+        <v>0.152222</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.157306</v>
+        <v>0.156093</v>
       </c>
       <c r="C134" t="n">
-        <v>0.167789</v>
+        <v>0.165085</v>
       </c>
       <c r="D134" t="n">
-        <v>0.15923</v>
+        <v>0.160313</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173539</v>
+        <v>0.173415</v>
       </c>
       <c r="C135" t="n">
-        <v>0.187973</v>
+        <v>0.184067</v>
       </c>
       <c r="D135" t="n">
-        <v>0.17095</v>
+        <v>0.170979</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.19973</v>
+        <v>0.19813</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21629</v>
+        <v>0.2134</v>
       </c>
       <c r="D136" t="n">
-        <v>0.186128</v>
+        <v>0.187511</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237732</v>
+        <v>0.236367</v>
       </c>
       <c r="C137" t="n">
-        <v>0.26042</v>
+        <v>0.256421</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213576</v>
+        <v>0.213463</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170768</v>
+        <v>0.170924</v>
       </c>
       <c r="C138" t="n">
-        <v>0.167365</v>
+        <v>0.158332</v>
       </c>
       <c r="D138" t="n">
-        <v>0.187322</v>
+        <v>0.186089</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171565</v>
+        <v>0.173505</v>
       </c>
       <c r="C139" t="n">
-        <v>0.169599</v>
+        <v>0.160073</v>
       </c>
       <c r="D139" t="n">
-        <v>0.190121</v>
+        <v>0.188068</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173679</v>
+        <v>0.174966</v>
       </c>
       <c r="C140" t="n">
-        <v>0.172346</v>
+        <v>0.16325</v>
       </c>
       <c r="D140" t="n">
-        <v>0.192715</v>
+        <v>0.19139</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174859</v>
+        <v>0.17706</v>
       </c>
       <c r="C141" t="n">
-        <v>0.174706</v>
+        <v>0.16599</v>
       </c>
       <c r="D141" t="n">
-        <v>0.195033</v>
+        <v>0.194068</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178418</v>
+        <v>0.179439</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1779</v>
+        <v>0.169522</v>
       </c>
       <c r="D142" t="n">
-        <v>0.197517</v>
+        <v>0.196758</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.180143</v>
+        <v>0.18131</v>
       </c>
       <c r="C143" t="n">
-        <v>0.181945</v>
+        <v>0.173592</v>
       </c>
       <c r="D143" t="n">
-        <v>0.200938</v>
+        <v>0.200113</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323947</v>
+        <v>0.0322104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0318887</v>
+        <v>0.0322145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0360728</v>
+        <v>0.0331861</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333533</v>
+        <v>0.0330379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0339215</v>
+        <v>0.0338997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0362137</v>
+        <v>0.0353345</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349347</v>
+        <v>0.0340568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0379395</v>
+        <v>0.0384048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0368083</v>
+        <v>0.0416019</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0401823</v>
+        <v>0.0402098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0495804</v>
+        <v>0.0480661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0387834</v>
+        <v>0.0521956</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0546851</v>
+        <v>0.0537536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0649098</v>
+        <v>0.0654013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.042323</v>
+        <v>0.0721721</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08144750000000001</v>
+        <v>0.0810211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0897042</v>
+        <v>0.0885745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.051137</v>
+        <v>0.100911</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12046</v>
+        <v>0.119975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116458</v>
+        <v>0.115732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0670843</v>
+        <v>0.138831</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161456</v>
+        <v>0.161245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161713</v>
+        <v>0.160002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0968415</v>
+        <v>0.188333</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0313508</v>
+        <v>0.0310372</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0290968</v>
+        <v>0.0294709</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0347029</v>
+        <v>0.0305892</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0318734</v>
+        <v>0.0316659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0294948</v>
+        <v>0.0300131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0352328</v>
+        <v>0.0311418</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0322414</v>
+        <v>0.0320008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305241</v>
+        <v>0.0309923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0355037</v>
+        <v>0.0317466</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0329352</v>
+        <v>0.0325847</v>
       </c>
       <c r="C13" t="n">
-        <v>0.031341</v>
+        <v>0.0316142</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0361572</v>
+        <v>0.0323659</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0336513</v>
+        <v>0.0333895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0322307</v>
+        <v>0.0326821</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0364833</v>
+        <v>0.0333592</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341619</v>
+        <v>0.0339076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0338753</v>
+        <v>0.0338331</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0371192</v>
+        <v>0.0347957</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0352204</v>
+        <v>0.0349154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0366132</v>
+        <v>0.0362651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.038358</v>
+        <v>0.0382925</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370517</v>
+        <v>0.0367418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0402963</v>
+        <v>0.0399366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.039135</v>
+        <v>0.0417926</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0412094</v>
+        <v>0.0404106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0483946</v>
+        <v>0.0472356</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0411329</v>
+        <v>0.0499899</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0489545</v>
+        <v>0.0492113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0571281</v>
+        <v>0.05611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0431262</v>
+        <v>0.0596664</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.061585</v>
+        <v>0.0613478</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07000439999999999</v>
+        <v>0.0685316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0475578</v>
+        <v>0.07571849999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0806149</v>
+        <v>0.0802388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0899983</v>
+        <v>0.088047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05658</v>
+        <v>0.09830700000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10814</v>
+        <v>0.107954</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115658</v>
+        <v>0.114124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06989480000000001</v>
+        <v>0.134881</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.149031</v>
+        <v>0.147977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.157867</v>
+        <v>0.156379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09497070000000001</v>
+        <v>0.184566</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.033339</v>
+        <v>0.0330214</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0307178</v>
+        <v>0.0313273</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0362975</v>
+        <v>0.0322256</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0339866</v>
+        <v>0.033741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0313355</v>
+        <v>0.0318584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0367018</v>
+        <v>0.0326969</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0345483</v>
+        <v>0.0343418</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0321723</v>
+        <v>0.0327657</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0371901</v>
+        <v>0.0334131</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0353438</v>
+        <v>0.035133</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0334361</v>
+        <v>0.0338821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0379959</v>
+        <v>0.0345084</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360953</v>
+        <v>0.0358993</v>
       </c>
       <c r="C28" t="n">
-        <v>0.034691</v>
+        <v>0.0350096</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0386608</v>
+        <v>0.0357283</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0375083</v>
+        <v>0.0371722</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0364573</v>
+        <v>0.0365837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0394909</v>
+        <v>0.0380937</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395007</v>
+        <v>0.0392259</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0394186</v>
+        <v>0.0394796</v>
       </c>
       <c r="D30" t="n">
-        <v>0.040324</v>
+        <v>0.0407477</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0422397</v>
+        <v>0.042223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0436448</v>
+        <v>0.0435243</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0419455</v>
+        <v>0.0449066</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468926</v>
+        <v>0.0468983</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0507684</v>
+        <v>0.0499983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0436849</v>
+        <v>0.0510376</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.054045</v>
+        <v>0.0539562</v>
       </c>
       <c r="C33" t="n">
-        <v>0.059045</v>
+        <v>0.058188</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0466534</v>
+        <v>0.0598059</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644831</v>
+        <v>0.0643373</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0703162</v>
+        <v>0.0690769</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0508678</v>
+        <v>0.0726126</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07947750000000001</v>
+        <v>0.07935200000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0847431</v>
+        <v>0.0831761</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0581388</v>
+        <v>0.0938662</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101042</v>
+        <v>0.10088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111796</v>
+        <v>0.110425</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0695774</v>
+        <v>0.126849</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135838</v>
+        <v>0.135365</v>
       </c>
       <c r="C37" t="n">
-        <v>0.15012</v>
+        <v>0.149378</v>
       </c>
       <c r="D37" t="n">
-        <v>0.089337</v>
+        <v>0.173826</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336792</v>
+        <v>0.0336764</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0312606</v>
+        <v>0.0318573</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0367762</v>
+        <v>0.0328311</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0344952</v>
+        <v>0.0343522</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0319114</v>
+        <v>0.0324653</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0374161</v>
+        <v>0.0334241</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350941</v>
+        <v>0.0350329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0328557</v>
+        <v>0.0332875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0379704</v>
+        <v>0.0343628</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360196</v>
+        <v>0.0360235</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0336723</v>
+        <v>0.0342751</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0386706</v>
+        <v>0.0353536</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369863</v>
+        <v>0.0369502</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0357125</v>
+        <v>0.0358481</v>
       </c>
       <c r="D42" t="n">
-        <v>0.039456</v>
+        <v>0.0370318</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.038518</v>
+        <v>0.0386321</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0375734</v>
+        <v>0.0380229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0403784</v>
+        <v>0.0390697</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405324</v>
+        <v>0.0406163</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0405124</v>
+        <v>0.040532</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0413998</v>
+        <v>0.0416342</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433085</v>
+        <v>0.0432746</v>
       </c>
       <c r="C45" t="n">
-        <v>0.045149</v>
+        <v>0.0447392</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0429421</v>
+        <v>0.0459114</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473281</v>
+        <v>0.0473494</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509073</v>
+        <v>0.0503456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0450597</v>
+        <v>0.0518004</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0536989</v>
+        <v>0.0537019</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0580098</v>
+        <v>0.0569954</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0476638</v>
+        <v>0.0599336</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0631346</v>
+        <v>0.06318319999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0681262</v>
+        <v>0.0670187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0520565</v>
+        <v>0.0711217</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07567309999999999</v>
+        <v>0.07575320000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0834165</v>
+        <v>0.0821379</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0576564</v>
+        <v>0.0889619</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0953053</v>
+        <v>0.0952991</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104471</v>
+        <v>0.103235</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0668419</v>
+        <v>0.116362</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127641</v>
+        <v>0.127354</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139798</v>
+        <v>0.137569</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0831346</v>
+        <v>0.161106</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173904</v>
+        <v>0.173027</v>
       </c>
       <c r="C52" t="n">
-        <v>0.185749</v>
+        <v>0.183794</v>
       </c>
       <c r="D52" t="n">
-        <v>0.11382</v>
+        <v>0.214279</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0355931</v>
+        <v>0.0359307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0337386</v>
+        <v>0.0341633</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0400385</v>
+        <v>0.0350178</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0364782</v>
+        <v>0.0367759</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0345893</v>
+        <v>0.0348885</v>
       </c>
       <c r="D54" t="n">
-        <v>0.040604</v>
+        <v>0.0359071</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0373022</v>
+        <v>0.0376804</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0356724</v>
+        <v>0.0359854</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0413279</v>
+        <v>0.0371596</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384344</v>
+        <v>0.0388712</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0370061</v>
+        <v>0.0372125</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0420455</v>
+        <v>0.0384018</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0397358</v>
+        <v>0.0401753</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0391025</v>
+        <v>0.0392277</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0430568</v>
+        <v>0.0403422</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418629</v>
+        <v>0.0421982</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0420101</v>
+        <v>0.0418963</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0443216</v>
+        <v>0.0430213</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0444315</v>
+        <v>0.0448123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0452329</v>
+        <v>0.0450312</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0457036</v>
+        <v>0.0463475</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482411</v>
+        <v>0.0485437</v>
       </c>
       <c r="C60" t="n">
-        <v>0.049908</v>
+        <v>0.0495133</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0474281</v>
+        <v>0.0511634</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535658</v>
+        <v>0.0538703</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0569291</v>
+        <v>0.0564262</v>
       </c>
       <c r="D61" t="n">
-        <v>0.049958</v>
+        <v>0.0587249</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0612395</v>
+        <v>0.0615925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0665669</v>
+        <v>0.0659115</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0534807</v>
+        <v>0.0692893</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0726005</v>
+        <v>0.0728246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0801766</v>
+        <v>0.0793605</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0590138</v>
+        <v>0.0859988</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.090907</v>
+        <v>0.0909899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100444</v>
+        <v>0.0987683</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0675621</v>
+        <v>0.111806</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118834</v>
+        <v>0.118782</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132934</v>
+        <v>0.130602</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0820623</v>
+        <v>0.15333</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161101</v>
+        <v>0.160813</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178342</v>
+        <v>0.176164</v>
       </c>
       <c r="D66" t="n">
-        <v>0.108758</v>
+        <v>0.207214</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0420048</v>
+        <v>0.042214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0382876</v>
+        <v>0.0387968</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0457263</v>
+        <v>0.0401744</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0427087</v>
+        <v>0.0428584</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0391811</v>
+        <v>0.0396861</v>
       </c>
       <c r="D68" t="n">
-        <v>0.046437</v>
+        <v>0.0411472</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0434579</v>
+        <v>0.0435733</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04036</v>
+        <v>0.0408429</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0472252</v>
+        <v>0.042152</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0444809</v>
+        <v>0.0446845</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0415503</v>
+        <v>0.0420791</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0479048</v>
+        <v>0.0435422</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0457241</v>
+        <v>0.0459256</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0431709</v>
+        <v>0.0436935</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0489122</v>
+        <v>0.0449467</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.047303</v>
+        <v>0.0474788</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0458472</v>
+        <v>0.0459545</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0504596</v>
+        <v>0.0473623</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0495532</v>
+        <v>0.0497017</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0493874</v>
+        <v>0.048841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0519703</v>
+        <v>0.0505665</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0527663</v>
+        <v>0.0529051</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0540538</v>
+        <v>0.0530616</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0540028</v>
+        <v>0.0550357</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0576199</v>
+        <v>0.0577812</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0609696</v>
+        <v>0.0597066</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0566401</v>
+        <v>0.0623655</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06471540000000001</v>
+        <v>0.06475019999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07007099999999999</v>
+        <v>0.0685398</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0602472</v>
+        <v>0.07179389999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07552639999999999</v>
+        <v>0.0754571</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0827772</v>
+        <v>0.0810613</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06561259999999999</v>
+        <v>0.08621180000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0918518</v>
+        <v>0.0908757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.100888</v>
+        <v>0.09848030000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0736866</v>
+        <v>0.108644</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.116624</v>
+        <v>0.115077</v>
       </c>
       <c r="C79" t="n">
-        <v>0.128301</v>
+        <v>0.12607</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0868131</v>
+        <v>0.146446</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.156645</v>
+        <v>0.154825</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17063</v>
+        <v>0.168866</v>
       </c>
       <c r="D80" t="n">
-        <v>0.109287</v>
+        <v>0.204335</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0485528</v>
+        <v>0.0489508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0467077</v>
+        <v>0.0486844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0544957</v>
+        <v>0.050209</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0494655</v>
+        <v>0.0507936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.048881</v>
+        <v>0.0504411</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0565417</v>
+        <v>0.0516806</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0511435</v>
+        <v>0.0526979</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0509962</v>
+        <v>0.0532776</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0583929</v>
+        <v>0.0547475</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0534096</v>
+        <v>0.0543969</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0540208</v>
+        <v>0.0555616</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0608421</v>
+        <v>0.0572369</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0555601</v>
+        <v>0.0572645</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0576942</v>
+        <v>0.0598786</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0634458</v>
+        <v>0.0617401</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0589769</v>
+        <v>0.0604964</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0619147</v>
+        <v>0.0632095</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0666578</v>
+        <v>0.06504989999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06309910000000001</v>
+        <v>0.06466040000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0667355</v>
+        <v>0.06823949999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06924080000000001</v>
+        <v>0.070741</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06779</v>
+        <v>0.06922789999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0728799</v>
+        <v>0.0743417</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0728664</v>
+        <v>0.0769079</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07488309999999999</v>
+        <v>0.0758775</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0802925</v>
+        <v>0.0816557</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0766645</v>
+        <v>0.0847879</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0835935</v>
+        <v>0.0848092</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09002019999999999</v>
+        <v>0.0913558</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0816368</v>
+        <v>0.0954031</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0954653</v>
+        <v>0.09600409999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.102244</v>
+        <v>0.103911</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0875586</v>
+        <v>0.109893</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110978</v>
+        <v>0.112376</v>
       </c>
       <c r="C92" t="n">
-        <v>0.118301</v>
+        <v>0.120733</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0961269</v>
+        <v>0.130912</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13428</v>
+        <v>0.135682</v>
       </c>
       <c r="C93" t="n">
-        <v>0.14288</v>
+        <v>0.145748</v>
       </c>
       <c r="D93" t="n">
-        <v>0.108733</v>
+        <v>0.164753</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168109</v>
+        <v>0.17029</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179547</v>
+        <v>0.18307</v>
       </c>
       <c r="D94" t="n">
-        <v>0.129821</v>
+        <v>0.21998</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0676182</v>
+        <v>0.06729060000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.066417</v>
+        <v>0.0655385</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0749315</v>
+        <v>0.067592</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0705032</v>
+        <v>0.0698034</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0691587</v>
+        <v>0.0687063</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0774609</v>
+        <v>0.0709719</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0734138</v>
+        <v>0.07296329999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.07155259999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0799643</v>
+        <v>0.0739462</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07617309999999999</v>
+        <v>0.0762212</v>
       </c>
       <c r="C98" t="n">
-        <v>0.075055</v>
+        <v>0.0748375</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0832051</v>
+        <v>0.0773756</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0790708</v>
+        <v>0.079206</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0792872</v>
+        <v>0.0788546</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0856896</v>
+        <v>0.08132590000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08269600000000001</v>
+        <v>0.0825364</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0834728</v>
+        <v>0.0827326</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08931210000000001</v>
+        <v>0.0855379</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0862277</v>
+        <v>0.085896</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0885422</v>
+        <v>0.0882119</v>
       </c>
       <c r="D101" t="n">
-        <v>0.092955</v>
+        <v>0.0908981</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09112140000000001</v>
+        <v>0.09080770000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0941583</v>
+        <v>0.0937723</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0958092</v>
+        <v>0.0969401</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0968816</v>
+        <v>0.09714009999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.101401</v>
+        <v>0.101065</v>
       </c>
       <c r="D103" t="n">
-        <v>0.100924</v>
+        <v>0.104692</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104936</v>
+        <v>0.104821</v>
       </c>
       <c r="C104" t="n">
-        <v>0.110591</v>
+        <v>0.110346</v>
       </c>
       <c r="D104" t="n">
-        <v>0.105445</v>
+        <v>0.114697</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116123</v>
+        <v>0.116125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.122726</v>
+        <v>0.122462</v>
       </c>
       <c r="D105" t="n">
-        <v>0.112255</v>
+        <v>0.12874</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.13206</v>
+        <v>0.131438</v>
       </c>
       <c r="C106" t="n">
-        <v>0.13829</v>
+        <v>0.138309</v>
       </c>
       <c r="D106" t="n">
-        <v>0.121959</v>
+        <v>0.14923</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153547</v>
+        <v>0.153039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.160794</v>
+        <v>0.160787</v>
       </c>
       <c r="D107" t="n">
-        <v>0.135561</v>
+        <v>0.180278</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184398</v>
+        <v>0.183724</v>
       </c>
       <c r="C108" t="n">
-        <v>0.192473</v>
+        <v>0.195687</v>
       </c>
       <c r="D108" t="n">
-        <v>0.153626</v>
+        <v>0.231227</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231366</v>
+        <v>0.231086</v>
       </c>
       <c r="C109" t="n">
-        <v>0.249379</v>
+        <v>0.249895</v>
       </c>
       <c r="D109" t="n">
-        <v>0.194882</v>
+        <v>0.337271</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08106960000000001</v>
+        <v>0.0815949</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08458060000000001</v>
+        <v>0.08463329999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0947022</v>
+        <v>0.0874472</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0843622</v>
+        <v>0.0850709</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0875527</v>
+        <v>0.0869138</v>
       </c>
       <c r="D111" t="n">
-        <v>0.097482</v>
+        <v>0.0895832</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0875165</v>
+        <v>0.08870450000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0903535</v>
+        <v>0.0898477</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09995279999999999</v>
+        <v>0.09255910000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0917535</v>
+        <v>0.0931539</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09376370000000001</v>
+        <v>0.0933354</v>
       </c>
       <c r="D113" t="n">
-        <v>0.102439</v>
+        <v>0.09614689999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0957908</v>
+        <v>0.09770330000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0979652</v>
+        <v>0.09739539999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.106441</v>
+        <v>0.100712</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100926</v>
+        <v>0.102567</v>
       </c>
       <c r="C115" t="n">
-        <v>0.102139</v>
+        <v>0.102285</v>
       </c>
       <c r="D115" t="n">
-        <v>0.108903</v>
+        <v>0.105603</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106887</v>
+        <v>0.108588</v>
       </c>
       <c r="C116" t="n">
-        <v>0.108015</v>
+        <v>0.107772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.113001</v>
+        <v>0.111309</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114102</v>
+        <v>0.115397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.11504</v>
+        <v>0.114578</v>
       </c>
       <c r="D117" t="n">
-        <v>0.117559</v>
+        <v>0.118594</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12284</v>
+        <v>0.123538</v>
       </c>
       <c r="C118" t="n">
-        <v>0.123917</v>
+        <v>0.12353</v>
       </c>
       <c r="D118" t="n">
-        <v>0.123137</v>
+        <v>0.128625</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133112</v>
+        <v>0.133822</v>
       </c>
       <c r="C119" t="n">
-        <v>0.134903</v>
+        <v>0.134526</v>
       </c>
       <c r="D119" t="n">
-        <v>0.129537</v>
+        <v>0.141519</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147096</v>
+        <v>0.147211</v>
       </c>
       <c r="C120" t="n">
-        <v>0.148987</v>
+        <v>0.149494</v>
       </c>
       <c r="D120" t="n">
-        <v>0.138514</v>
+        <v>0.158726</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165864</v>
+        <v>0.165774</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169292</v>
+        <v>0.169874</v>
       </c>
       <c r="D121" t="n">
-        <v>0.150703</v>
+        <v>0.188163</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192978</v>
+        <v>0.192653</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2001</v>
+        <v>0.201332</v>
       </c>
       <c r="D122" t="n">
-        <v>0.169699</v>
+        <v>0.234848</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234125</v>
+        <v>0.233526</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250324</v>
+        <v>0.250209</v>
       </c>
       <c r="D123" t="n">
-        <v>0.203564</v>
+        <v>0.336519</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10411</v>
+        <v>0.103965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104513</v>
+        <v>0.105589</v>
       </c>
       <c r="D124" t="n">
-        <v>0.117501</v>
+        <v>0.108807</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106355</v>
+        <v>0.109999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.107611</v>
+        <v>0.108575</v>
       </c>
       <c r="D125" t="n">
-        <v>0.120928</v>
+        <v>0.112281</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110549</v>
+        <v>0.109706</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110847</v>
+        <v>0.10884</v>
       </c>
       <c r="D126" t="n">
-        <v>0.123943</v>
+        <v>0.112538</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.114702</v>
+        <v>0.11276</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114413</v>
+        <v>0.112908</v>
       </c>
       <c r="D127" t="n">
-        <v>0.12827</v>
+        <v>0.117023</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.11459</v>
+        <v>0.116046</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117174</v>
+        <v>0.117874</v>
       </c>
       <c r="D128" t="n">
-        <v>0.130129</v>
+        <v>0.122114</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119045</v>
+        <v>0.119</v>
       </c>
       <c r="C129" t="n">
-        <v>0.122318</v>
+        <v>0.12257</v>
       </c>
       <c r="D129" t="n">
-        <v>0.133907</v>
+        <v>0.126492</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.123143</v>
+        <v>0.122675</v>
       </c>
       <c r="C130" t="n">
-        <v>0.126404</v>
+        <v>0.128013</v>
       </c>
       <c r="D130" t="n">
-        <v>0.136996</v>
+        <v>0.133018</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128383</v>
+        <v>0.13081</v>
       </c>
       <c r="C131" t="n">
-        <v>0.132519</v>
+        <v>0.134507</v>
       </c>
       <c r="D131" t="n">
-        <v>0.140585</v>
+        <v>0.139554</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134222</v>
+        <v>0.13592</v>
       </c>
       <c r="C132" t="n">
-        <v>0.140476</v>
+        <v>0.142499</v>
       </c>
       <c r="D132" t="n">
-        <v>0.145117</v>
+        <v>0.148569</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144933</v>
+        <v>0.144344</v>
       </c>
       <c r="C133" t="n">
-        <v>0.151172</v>
+        <v>0.151858</v>
       </c>
       <c r="D133" t="n">
-        <v>0.152222</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156093</v>
+        <v>0.156653</v>
       </c>
       <c r="C134" t="n">
-        <v>0.165085</v>
+        <v>0.164981</v>
       </c>
       <c r="D134" t="n">
-        <v>0.160313</v>
+        <v>0.175924</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173415</v>
+        <v>0.173915</v>
       </c>
       <c r="C135" t="n">
-        <v>0.184067</v>
+        <v>0.183528</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170979</v>
+        <v>0.200419</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.19813</v>
+        <v>0.197402</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2134</v>
+        <v>0.215537</v>
       </c>
       <c r="D136" t="n">
-        <v>0.187511</v>
+        <v>0.245758</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236367</v>
+        <v>0.237406</v>
       </c>
       <c r="C137" t="n">
-        <v>0.256421</v>
+        <v>0.257231</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213463</v>
+        <v>0.334227</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170924</v>
+        <v>0.171702</v>
       </c>
       <c r="C138" t="n">
-        <v>0.158332</v>
+        <v>0.164141</v>
       </c>
       <c r="D138" t="n">
-        <v>0.186089</v>
+        <v>0.173927</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173505</v>
+        <v>0.176231</v>
       </c>
       <c r="C139" t="n">
-        <v>0.160073</v>
+        <v>0.165603</v>
       </c>
       <c r="D139" t="n">
-        <v>0.188068</v>
+        <v>0.175509</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.174966</v>
+        <v>0.176653</v>
       </c>
       <c r="C140" t="n">
-        <v>0.16325</v>
+        <v>0.167469</v>
       </c>
       <c r="D140" t="n">
-        <v>0.19139</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17706</v>
+        <v>0.177981</v>
       </c>
       <c r="C141" t="n">
-        <v>0.16599</v>
+        <v>0.170184</v>
       </c>
       <c r="D141" t="n">
-        <v>0.194068</v>
+        <v>0.179822</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.179439</v>
+        <v>0.180488</v>
       </c>
       <c r="C142" t="n">
-        <v>0.169522</v>
+        <v>0.173129</v>
       </c>
       <c r="D142" t="n">
-        <v>0.196758</v>
+        <v>0.182999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.18131</v>
+        <v>0.183403</v>
       </c>
       <c r="C143" t="n">
-        <v>0.173592</v>
+        <v>0.176745</v>
       </c>
       <c r="D143" t="n">
-        <v>0.200113</v>
+        <v>0.186546</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322104</v>
+        <v>0.032263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0322145</v>
+        <v>0.0315689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0331861</v>
+        <v>0.0559275</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330379</v>
+        <v>0.0336302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0338997</v>
+        <v>0.0327033</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0353345</v>
+        <v>0.0567909</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0340568</v>
+        <v>0.0353207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0384048</v>
+        <v>0.0378259</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0416019</v>
+        <v>0.0593318</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0402098</v>
+        <v>0.0412905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0480661</v>
+        <v>0.0476411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0521956</v>
+        <v>0.0683892</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0537536</v>
+        <v>0.0542087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0654013</v>
+        <v>0.0647895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0721721</v>
+        <v>0.08476309999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0810211</v>
+        <v>0.08069270000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0885745</v>
+        <v>0.0886441</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100911</v>
+        <v>0.113948</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119975</v>
+        <v>0.118888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115732</v>
+        <v>0.116567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138831</v>
+        <v>0.142559</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161245</v>
+        <v>0.160844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160002</v>
+        <v>0.160789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.188333</v>
+        <v>0.0596812</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310372</v>
+        <v>0.0317407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0294709</v>
+        <v>0.0290176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0305892</v>
+        <v>0.0590038</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0316659</v>
+        <v>0.0323739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0300131</v>
+        <v>0.0294997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0311418</v>
+        <v>0.0595263</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0320008</v>
+        <v>0.0329916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0309923</v>
+        <v>0.030566</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0317466</v>
+        <v>0.0601915</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0325847</v>
+        <v>0.0336188</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0316142</v>
+        <v>0.0313639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0323659</v>
+        <v>0.0606453</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0333895</v>
+        <v>0.0341686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0326821</v>
+        <v>0.0322734</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0333592</v>
+        <v>0.0624739</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339076</v>
+        <v>0.0349468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0338331</v>
+        <v>0.0337548</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0347957</v>
+        <v>0.0623819</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349154</v>
+        <v>0.0361678</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0362651</v>
+        <v>0.0367474</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0382925</v>
+        <v>0.0643669</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0367418</v>
+        <v>0.0376698</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399366</v>
+        <v>0.0399996</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0417926</v>
+        <v>0.0665446</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0404106</v>
+        <v>0.041403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0472356</v>
+        <v>0.0473317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0499899</v>
+        <v>0.0742512</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0492113</v>
+        <v>0.0485024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05611</v>
+        <v>0.0566025</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0596664</v>
+        <v>0.0825675</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0613478</v>
+        <v>0.0619956</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0685316</v>
+        <v>0.06942180000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07571849999999999</v>
+        <v>0.09779549999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0802388</v>
+        <v>0.0806022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.088047</v>
+        <v>0.0895644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09830700000000001</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107954</v>
+        <v>0.108402</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114124</v>
+        <v>0.115998</v>
       </c>
       <c r="D22" t="n">
-        <v>0.134881</v>
+        <v>0.144826</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.147977</v>
+        <v>0.14733</v>
       </c>
       <c r="C23" t="n">
-        <v>0.156379</v>
+        <v>0.158266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.184566</v>
+        <v>0.0683464</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0330214</v>
+        <v>0.0335567</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0313273</v>
+        <v>0.030422</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0322256</v>
+        <v>0.06825340000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.033741</v>
+        <v>0.0341908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0318584</v>
+        <v>0.0312125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0326969</v>
+        <v>0.0687106</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0343418</v>
+        <v>0.0347563</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0327657</v>
+        <v>0.032218</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0334131</v>
+        <v>0.0695713</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.035133</v>
+        <v>0.0354542</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0338821</v>
+        <v>0.0332351</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0345084</v>
+        <v>0.0704702</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0358993</v>
+        <v>0.0360976</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0350096</v>
+        <v>0.0344586</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0357283</v>
+        <v>0.07132910000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0371722</v>
+        <v>0.037445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0365837</v>
+        <v>0.0362349</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0380937</v>
+        <v>0.0724906</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0392259</v>
+        <v>0.0391682</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0394796</v>
+        <v>0.0392585</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0407477</v>
+        <v>0.0746</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.042223</v>
+        <v>0.0419036</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0435243</v>
+        <v>0.0433684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0449066</v>
+        <v>0.0788896</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468983</v>
+        <v>0.0468058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499983</v>
+        <v>0.0501577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0510376</v>
+        <v>0.0837383</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0539562</v>
+        <v>0.0538635</v>
       </c>
       <c r="C33" t="n">
-        <v>0.058188</v>
+        <v>0.0585782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0598059</v>
+        <v>0.0953676</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0643373</v>
+        <v>0.0646779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0690769</v>
+        <v>0.0695634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0726126</v>
+        <v>0.104623</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07935200000000001</v>
+        <v>0.07979940000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0831761</v>
+        <v>0.08412219999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0938662</v>
+        <v>0.122116</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10088</v>
+        <v>0.100511</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110425</v>
+        <v>0.111387</v>
       </c>
       <c r="D36" t="n">
-        <v>0.126849</v>
+        <v>0.154336</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.135365</v>
+        <v>0.13637</v>
       </c>
       <c r="C37" t="n">
-        <v>0.149378</v>
+        <v>0.151175</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173826</v>
+        <v>0.07307130000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0336764</v>
+        <v>0.033916</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0318573</v>
+        <v>0.03116</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0328311</v>
+        <v>0.0734769</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0343522</v>
+        <v>0.0346931</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0324653</v>
+        <v>0.0317147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0334241</v>
+        <v>0.0737767</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350329</v>
+        <v>0.0354156</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0332875</v>
+        <v>0.0325246</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0343628</v>
+        <v>0.0743568</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0360235</v>
+        <v>0.0362932</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0342751</v>
+        <v>0.0335335</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0353536</v>
+        <v>0.0749451</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369502</v>
+        <v>0.0372363</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0358481</v>
+        <v>0.0353093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0370318</v>
+        <v>0.07578840000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386321</v>
+        <v>0.0387896</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0380229</v>
+        <v>0.0375766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0390697</v>
+        <v>0.0774078</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0406163</v>
+        <v>0.0405837</v>
       </c>
       <c r="C44" t="n">
-        <v>0.040532</v>
+        <v>0.0402514</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0416342</v>
+        <v>0.07952969999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432746</v>
+        <v>0.0434246</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0447392</v>
+        <v>0.0447371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0459114</v>
+        <v>0.0834683</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473494</v>
+        <v>0.0475444</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0503456</v>
+        <v>0.0503475</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0518004</v>
+        <v>0.0890875</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537019</v>
+        <v>0.0535108</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0569954</v>
+        <v>0.0573771</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0599336</v>
+        <v>0.0966751</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06318319999999999</v>
+        <v>0.0629509</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0670187</v>
+        <v>0.067507</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0711217</v>
+        <v>0.107203</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07575320000000001</v>
+        <v>0.07515090000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0821379</v>
+        <v>0.0828516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0889619</v>
+        <v>0.12815</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0952991</v>
+        <v>0.0946307</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103235</v>
+        <v>0.104338</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116362</v>
+        <v>0.142118</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.127354</v>
+        <v>0.126685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137569</v>
+        <v>0.139942</v>
       </c>
       <c r="D51" t="n">
-        <v>0.161106</v>
+        <v>0.08145289999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173027</v>
+        <v>0.173594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.183794</v>
+        <v>0.185413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.214279</v>
+        <v>0.0817209</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0359307</v>
+        <v>0.0365035</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0341633</v>
+        <v>0.0330252</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0350178</v>
+        <v>0.08138380000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0367759</v>
+        <v>0.0371498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0348885</v>
+        <v>0.0338306</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0359071</v>
+        <v>0.0826149</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0376804</v>
+        <v>0.0379971</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0359854</v>
+        <v>0.0349985</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0371596</v>
+        <v>0.0831997</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388712</v>
+        <v>0.0390176</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0372125</v>
+        <v>0.0363855</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0384018</v>
+        <v>0.0838637</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401753</v>
+        <v>0.0404281</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0392277</v>
+        <v>0.0384946</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0403422</v>
+        <v>0.0855021</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0421982</v>
+        <v>0.0423595</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0418963</v>
+        <v>0.0413159</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0430213</v>
+        <v>0.0880387</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0448123</v>
+        <v>0.0448758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0450312</v>
+        <v>0.0444481</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0463475</v>
+        <v>0.0916385</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485437</v>
+        <v>0.0486833</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0495133</v>
+        <v>0.0490985</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0511634</v>
+        <v>0.0959822</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538703</v>
+        <v>0.0538723</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0564262</v>
+        <v>0.0560937</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0587249</v>
+        <v>0.10301</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0615925</v>
+        <v>0.0615884</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0659115</v>
+        <v>0.0656461</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0692893</v>
+        <v>0.112614</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728246</v>
+        <v>0.0729527</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0793605</v>
+        <v>0.07938340000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0859988</v>
+        <v>0.132218</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0909899</v>
+        <v>0.0915889</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0987683</v>
+        <v>0.09905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.111806</v>
+        <v>0.146131</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118782</v>
+        <v>0.118867</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130602</v>
+        <v>0.131152</v>
       </c>
       <c r="D65" t="n">
-        <v>0.15333</v>
+        <v>0.179314</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.160813</v>
+        <v>0.159939</v>
       </c>
       <c r="C66" t="n">
-        <v>0.176164</v>
+        <v>0.176723</v>
       </c>
       <c r="D66" t="n">
-        <v>0.207214</v>
+        <v>0.102057</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.042214</v>
+        <v>0.0415643</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0387968</v>
+        <v>0.0370088</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0401744</v>
+        <v>0.102557</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0428584</v>
+        <v>0.0422209</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0396861</v>
+        <v>0.0379374</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0411472</v>
+        <v>0.103375</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0435733</v>
+        <v>0.0430125</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0408429</v>
+        <v>0.0390379</v>
       </c>
       <c r="D69" t="n">
-        <v>0.042152</v>
+        <v>0.104259</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0446845</v>
+        <v>0.0440622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0420791</v>
+        <v>0.0403448</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0435422</v>
+        <v>0.105451</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0459256</v>
+        <v>0.0453134</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0436935</v>
+        <v>0.0420105</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0449467</v>
+        <v>0.107544</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0474788</v>
+        <v>0.0468782</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0459545</v>
+        <v>0.0443292</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0473623</v>
+        <v>0.11007</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0497017</v>
+        <v>0.0490895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.048841</v>
+        <v>0.0476233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0505665</v>
+        <v>0.112485</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0529051</v>
+        <v>0.0522537</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0530616</v>
+        <v>0.0522195</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0550357</v>
+        <v>0.117906</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0577812</v>
+        <v>0.0571314</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0597066</v>
+        <v>0.0588334</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0623655</v>
+        <v>0.123209</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06475019999999999</v>
+        <v>0.0641882</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0685398</v>
+        <v>0.0680692</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07179389999999999</v>
+        <v>0.131728</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0754571</v>
+        <v>0.0751362</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0810613</v>
+        <v>0.08077719999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08621180000000001</v>
+        <v>0.143829</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0908757</v>
+        <v>0.0915078</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09848030000000001</v>
+        <v>0.0980496</v>
       </c>
       <c r="D78" t="n">
-        <v>0.108644</v>
+        <v>0.164548</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115077</v>
+        <v>0.11586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.12607</v>
+        <v>0.125476</v>
       </c>
       <c r="D79" t="n">
-        <v>0.146446</v>
+        <v>0.187429</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154825</v>
+        <v>0.155148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168866</v>
+        <v>0.166995</v>
       </c>
       <c r="D80" t="n">
-        <v>0.204335</v>
+        <v>0.142237</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0489508</v>
+        <v>0.0479352</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0486844</v>
+        <v>0.0460142</v>
       </c>
       <c r="D81" t="n">
-        <v>0.050209</v>
+        <v>0.142742</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0507936</v>
+        <v>0.0489682</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0504411</v>
+        <v>0.0480829</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0516806</v>
+        <v>0.143386</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0526979</v>
+        <v>0.0507536</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0532776</v>
+        <v>0.050894</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0547475</v>
+        <v>0.144215</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0543969</v>
+        <v>0.0527835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0555616</v>
+        <v>0.0539406</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0572369</v>
+        <v>0.14583</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0572645</v>
+        <v>0.0553753</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0598786</v>
+        <v>0.0576523</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0617401</v>
+        <v>0.147104</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0604964</v>
+        <v>0.0586042</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0632095</v>
+        <v>0.0616557</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06504989999999999</v>
+        <v>0.149303</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06466040000000001</v>
+        <v>0.0626898</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06823949999999999</v>
+        <v>0.0665558</v>
       </c>
       <c r="D87" t="n">
-        <v>0.070741</v>
+        <v>0.152164</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06922789999999999</v>
+        <v>0.0679116</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0743417</v>
+        <v>0.0727052</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0769079</v>
+        <v>0.156422</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0758775</v>
+        <v>0.0748824</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0816557</v>
+        <v>0.0798411</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0847879</v>
+        <v>0.162151</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0848092</v>
+        <v>0.0837657</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0913558</v>
+        <v>0.08946220000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0954031</v>
+        <v>0.170396</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09600409999999999</v>
+        <v>0.0957916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.103911</v>
+        <v>0.10135</v>
       </c>
       <c r="D91" t="n">
-        <v>0.109893</v>
+        <v>0.181462</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.112376</v>
+        <v>0.111522</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120733</v>
+        <v>0.117537</v>
       </c>
       <c r="D92" t="n">
-        <v>0.130912</v>
+        <v>0.196691</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.135682</v>
+        <v>0.134877</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145748</v>
+        <v>0.141866</v>
       </c>
       <c r="D93" t="n">
-        <v>0.164753</v>
+        <v>0.217129</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17029</v>
+        <v>0.168705</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18307</v>
+        <v>0.17854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21998</v>
+        <v>0.169295</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06729060000000001</v>
+        <v>0.066071</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0655385</v>
+        <v>0.0663509</v>
       </c>
       <c r="D95" t="n">
-        <v>0.067592</v>
+        <v>0.169876</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0698034</v>
+        <v>0.0699511</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0687063</v>
+        <v>0.0687803</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0709719</v>
+        <v>0.17054</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07296329999999999</v>
+        <v>0.0735647</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07155259999999999</v>
+        <v>0.0717602</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0739462</v>
+        <v>0.171491</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0762212</v>
+        <v>0.07491829999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0748375</v>
+        <v>0.075485</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0773756</v>
+        <v>0.17245</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.079206</v>
+        <v>0.0795372</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0788546</v>
+        <v>0.07911219999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08132590000000001</v>
+        <v>0.174068</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0825364</v>
+        <v>0.08280319999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0827326</v>
+        <v>0.08272789999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0855379</v>
+        <v>0.175933</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.085896</v>
+        <v>0.0867078</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0882119</v>
+        <v>0.0881957</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0908981</v>
+        <v>0.178758</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09080770000000001</v>
+        <v>0.0913486</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0937723</v>
+        <v>0.0940695</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0969401</v>
+        <v>0.1829</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09714009999999999</v>
+        <v>0.0971993</v>
       </c>
       <c r="C103" t="n">
-        <v>0.101065</v>
+        <v>0.101031</v>
       </c>
       <c r="D103" t="n">
-        <v>0.104692</v>
+        <v>0.187259</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104821</v>
+        <v>0.104682</v>
       </c>
       <c r="C104" t="n">
-        <v>0.110346</v>
+        <v>0.110691</v>
       </c>
       <c r="D104" t="n">
-        <v>0.114697</v>
+        <v>0.195366</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.116125</v>
+        <v>0.116597</v>
       </c>
       <c r="C105" t="n">
-        <v>0.122462</v>
+        <v>0.122511</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12874</v>
+        <v>0.205643</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131438</v>
+        <v>0.1319</v>
       </c>
       <c r="C106" t="n">
-        <v>0.138309</v>
+        <v>0.138228</v>
       </c>
       <c r="D106" t="n">
-        <v>0.14923</v>
+        <v>0.219445</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.153039</v>
+        <v>0.153745</v>
       </c>
       <c r="C107" t="n">
-        <v>0.160787</v>
+        <v>0.160784</v>
       </c>
       <c r="D107" t="n">
-        <v>0.180278</v>
+        <v>0.237311</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183724</v>
+        <v>0.183964</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195687</v>
+        <v>0.195395</v>
       </c>
       <c r="D108" t="n">
-        <v>0.231227</v>
+        <v>0.181461</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231086</v>
+        <v>0.231791</v>
       </c>
       <c r="C109" t="n">
-        <v>0.249895</v>
+        <v>0.24896</v>
       </c>
       <c r="D109" t="n">
-        <v>0.337271</v>
+        <v>0.181929</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0815949</v>
+        <v>0.0814163</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08463329999999999</v>
+        <v>0.0848897</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0874472</v>
+        <v>0.18466</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0850709</v>
+        <v>0.08406719999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0869138</v>
+        <v>0.0874849</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0895832</v>
+        <v>0.183448</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08870450000000001</v>
+        <v>0.0866745</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0898477</v>
+        <v>0.0905778</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09255910000000001</v>
+        <v>0.184553</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0931539</v>
+        <v>0.09225899999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0933354</v>
+        <v>0.09385979999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09614689999999999</v>
+        <v>0.188287</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09770330000000001</v>
+        <v>0.0953978</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09739539999999999</v>
+        <v>0.0977227</v>
       </c>
       <c r="D114" t="n">
-        <v>0.100712</v>
+        <v>0.188023</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102567</v>
+        <v>0.101979</v>
       </c>
       <c r="C115" t="n">
-        <v>0.102285</v>
+        <v>0.102485</v>
       </c>
       <c r="D115" t="n">
-        <v>0.105603</v>
+        <v>0.19283</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.108588</v>
+        <v>0.106899</v>
       </c>
       <c r="C116" t="n">
-        <v>0.107772</v>
+        <v>0.108086</v>
       </c>
       <c r="D116" t="n">
-        <v>0.111309</v>
+        <v>0.19643</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115397</v>
+        <v>0.114969</v>
       </c>
       <c r="C117" t="n">
-        <v>0.114578</v>
+        <v>0.11503</v>
       </c>
       <c r="D117" t="n">
-        <v>0.118594</v>
+        <v>0.199182</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123538</v>
+        <v>0.123322</v>
       </c>
       <c r="C118" t="n">
-        <v>0.12353</v>
+        <v>0.123769</v>
       </c>
       <c r="D118" t="n">
-        <v>0.128625</v>
+        <v>0.206192</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133822</v>
+        <v>0.133745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.134526</v>
+        <v>0.134918</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141519</v>
+        <v>0.215748</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.147211</v>
+        <v>0.147379</v>
       </c>
       <c r="C120" t="n">
-        <v>0.149494</v>
+        <v>0.149708</v>
       </c>
       <c r="D120" t="n">
-        <v>0.158726</v>
+        <v>0.22894</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.165774</v>
+        <v>0.1661</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169874</v>
+        <v>0.168661</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188163</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.192653</v>
+        <v>0.193075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201332</v>
+        <v>0.201376</v>
       </c>
       <c r="D122" t="n">
-        <v>0.234848</v>
+        <v>0.265992</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233526</v>
+        <v>0.231813</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250209</v>
+        <v>0.249832</v>
       </c>
       <c r="D123" t="n">
-        <v>0.336519</v>
+        <v>0.210398</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103965</v>
+        <v>0.104052</v>
       </c>
       <c r="C124" t="n">
-        <v>0.105589</v>
+        <v>0.101184</v>
       </c>
       <c r="D124" t="n">
-        <v>0.108807</v>
+        <v>0.206303</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.109999</v>
+        <v>0.105285</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108575</v>
+        <v>0.105888</v>
       </c>
       <c r="D125" t="n">
-        <v>0.112281</v>
+        <v>0.211115</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109706</v>
+        <v>0.110181</v>
       </c>
       <c r="C126" t="n">
-        <v>0.10884</v>
+        <v>0.107621</v>
       </c>
       <c r="D126" t="n">
-        <v>0.112538</v>
+        <v>0.211023</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11276</v>
+        <v>0.110588</v>
       </c>
       <c r="C127" t="n">
-        <v>0.112908</v>
+        <v>0.111355</v>
       </c>
       <c r="D127" t="n">
-        <v>0.117023</v>
+        <v>0.213327</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116046</v>
+        <v>0.114556</v>
       </c>
       <c r="C128" t="n">
-        <v>0.117874</v>
+        <v>0.114495</v>
       </c>
       <c r="D128" t="n">
-        <v>0.122114</v>
+        <v>0.214333</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119</v>
+        <v>0.119188</v>
       </c>
       <c r="C129" t="n">
-        <v>0.12257</v>
+        <v>0.118748</v>
       </c>
       <c r="D129" t="n">
-        <v>0.126492</v>
+        <v>0.216437</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122675</v>
+        <v>0.122791</v>
       </c>
       <c r="C130" t="n">
-        <v>0.128013</v>
+        <v>0.12392</v>
       </c>
       <c r="D130" t="n">
-        <v>0.133018</v>
+        <v>0.220483</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13081</v>
+        <v>0.128447</v>
       </c>
       <c r="C131" t="n">
-        <v>0.134507</v>
+        <v>0.130631</v>
       </c>
       <c r="D131" t="n">
-        <v>0.139554</v>
+        <v>0.225599</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13592</v>
+        <v>0.134661</v>
       </c>
       <c r="C132" t="n">
-        <v>0.142499</v>
+        <v>0.139403</v>
       </c>
       <c r="D132" t="n">
-        <v>0.148569</v>
+        <v>0.234188</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144344</v>
+        <v>0.143678</v>
       </c>
       <c r="C133" t="n">
-        <v>0.151858</v>
+        <v>0.149612</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1597</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156653</v>
+        <v>0.156398</v>
       </c>
       <c r="C134" t="n">
-        <v>0.164981</v>
+        <v>0.164344</v>
       </c>
       <c r="D134" t="n">
-        <v>0.175924</v>
+        <v>0.258403</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.173915</v>
+        <v>0.172768</v>
       </c>
       <c r="C135" t="n">
-        <v>0.183528</v>
+        <v>0.182616</v>
       </c>
       <c r="D135" t="n">
-        <v>0.200419</v>
+        <v>0.271957</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197402</v>
+        <v>0.19821</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215537</v>
+        <v>0.21126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245758</v>
+        <v>0.29261</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237406</v>
+        <v>0.237795</v>
       </c>
       <c r="C137" t="n">
-        <v>0.257231</v>
+        <v>0.255564</v>
       </c>
       <c r="D137" t="n">
-        <v>0.334227</v>
+        <v>0.434586</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171702</v>
+        <v>0.165264</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164141</v>
+        <v>0.159264</v>
       </c>
       <c r="D138" t="n">
-        <v>0.173927</v>
+        <v>0.433386</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.176231</v>
+        <v>0.167678</v>
       </c>
       <c r="C139" t="n">
-        <v>0.165603</v>
+        <v>0.161981</v>
       </c>
       <c r="D139" t="n">
-        <v>0.175509</v>
+        <v>0.440293</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.176653</v>
+        <v>0.174805</v>
       </c>
       <c r="C140" t="n">
-        <v>0.167469</v>
+        <v>0.163881</v>
       </c>
       <c r="D140" t="n">
-        <v>0.177359</v>
+        <v>0.437013</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.177981</v>
+        <v>0.176475</v>
       </c>
       <c r="C141" t="n">
-        <v>0.170184</v>
+        <v>0.16738</v>
       </c>
       <c r="D141" t="n">
-        <v>0.179822</v>
+        <v>0.447742</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.180488</v>
+        <v>0.178659</v>
       </c>
       <c r="C142" t="n">
-        <v>0.173129</v>
+        <v>0.169507</v>
       </c>
       <c r="D142" t="n">
-        <v>0.182999</v>
+        <v>0.443796</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.183403</v>
+        <v>0.182647</v>
       </c>
       <c r="C143" t="n">
-        <v>0.176745</v>
+        <v>0.174037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.186546</v>
+        <v>0.451863</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered unsuccessful looukp.xlsx
+++ b/clang-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032263</v>
+        <v>0.033579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0315689</v>
+        <v>0.0315213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0559275</v>
+        <v>0.0294544</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0336302</v>
+        <v>0.0345309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0327033</v>
+        <v>0.0327052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0567909</v>
+        <v>0.0299394</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0353207</v>
+        <v>0.037046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0378259</v>
+        <v>0.0379033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0593318</v>
+        <v>0.0309554</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412905</v>
+        <v>0.0426225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0476411</v>
+        <v>0.0471928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0683892</v>
+        <v>0.0329631</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0542087</v>
+        <v>0.056036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0647895</v>
+        <v>0.0648909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08476309999999999</v>
+        <v>0.0349997</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08069270000000001</v>
+        <v>0.081301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0886441</v>
+        <v>0.0881982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113948</v>
+        <v>0.0406772</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118888</v>
+        <v>0.117128</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116567</v>
+        <v>0.114815</v>
       </c>
       <c r="D8" t="n">
-        <v>0.142559</v>
+        <v>0.0524516</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.160844</v>
+        <v>0.166601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160789</v>
+        <v>0.160334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0596812</v>
+        <v>0.0268341</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0317407</v>
+        <v>0.0304952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0290176</v>
+        <v>0.0290416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0590038</v>
+        <v>0.0271436</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0323739</v>
+        <v>0.030973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0294997</v>
+        <v>0.0293583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0595263</v>
+        <v>0.0275697</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0329916</v>
+        <v>0.0314466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.030566</v>
+        <v>0.03016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0601915</v>
+        <v>0.0280795</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0336188</v>
+        <v>0.0322047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0313639</v>
+        <v>0.0307735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0606453</v>
+        <v>0.0285864</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0341686</v>
+        <v>0.0330724</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0322734</v>
+        <v>0.0319314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0624739</v>
+        <v>0.029017</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0349468</v>
+        <v>0.0340833</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0337548</v>
+        <v>0.0331789</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0623819</v>
+        <v>0.0296901</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0361678</v>
+        <v>0.035475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0367474</v>
+        <v>0.036152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0643669</v>
+        <v>0.0305574</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0376698</v>
+        <v>0.0379591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0399996</v>
+        <v>0.0396955</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0665446</v>
+        <v>0.0313113</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.041403</v>
+        <v>0.0421343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0473317</v>
+        <v>0.0477391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0742512</v>
+        <v>0.0329063</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0485024</v>
+        <v>0.0499043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0566025</v>
+        <v>0.0567823</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0825675</v>
+        <v>0.0345047</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0619956</v>
+        <v>0.0612741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06942180000000001</v>
+        <v>0.0693613</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09779549999999999</v>
+        <v>0.0374987</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0806022</v>
+        <v>0.078891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0895644</v>
+        <v>0.0893251</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1245</v>
+        <v>0.0445412</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.108402</v>
+        <v>0.105245</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115998</v>
+        <v>0.114501</v>
       </c>
       <c r="D22" t="n">
-        <v>0.144826</v>
+        <v>0.0572576</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14733</v>
+        <v>0.138732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.158266</v>
+        <v>0.157339</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0683464</v>
+        <v>0.0280059</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0335567</v>
+        <v>0.0329775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.030422</v>
+        <v>0.0305224</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06825340000000001</v>
+        <v>0.0284235</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341908</v>
+        <v>0.0336344</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0312125</v>
+        <v>0.0310422</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0687106</v>
+        <v>0.0286808</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0347563</v>
+        <v>0.0343825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.032218</v>
+        <v>0.0320444</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0695713</v>
+        <v>0.0291811</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0354542</v>
+        <v>0.0349911</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0332351</v>
+        <v>0.0331741</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0704702</v>
+        <v>0.0296806</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0360976</v>
+        <v>0.0360318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0344586</v>
+        <v>0.0342306</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07132910000000001</v>
+        <v>0.030195</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.037445</v>
+        <v>0.0372189</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0362349</v>
+        <v>0.0362848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0724906</v>
+        <v>0.0308183</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0391682</v>
+        <v>0.0388746</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0392585</v>
+        <v>0.0390465</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0746</v>
+        <v>0.0313948</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419036</v>
+        <v>0.0419168</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0433684</v>
+        <v>0.0433246</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0788896</v>
+        <v>0.0324515</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468058</v>
+        <v>0.0467566</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501577</v>
+        <v>0.0499736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0837383</v>
+        <v>0.033711</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0538635</v>
+        <v>0.053569</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0585782</v>
+        <v>0.0584753</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0953676</v>
+        <v>0.0359643</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0646779</v>
+        <v>0.0634982</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0695634</v>
+        <v>0.06962359999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.104623</v>
+        <v>0.0394716</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07979940000000001</v>
+        <v>0.07840709999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08412219999999999</v>
+        <v>0.08414770000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.122116</v>
+        <v>0.0465123</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100511</v>
+        <v>0.0998592</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111387</v>
+        <v>0.110509</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154336</v>
+        <v>0.0580868</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13637</v>
+        <v>0.134163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.151175</v>
+        <v>0.149863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07307130000000001</v>
+        <v>0.028391</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033916</v>
+        <v>0.0336998</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03116</v>
+        <v>0.0310914</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0734769</v>
+        <v>0.0286878</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0346931</v>
+        <v>0.0345748</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0317147</v>
+        <v>0.0318156</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0737767</v>
+        <v>0.0289632</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0354156</v>
+        <v>0.0354304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0325246</v>
+        <v>0.032766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0743568</v>
+        <v>0.0293662</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0362932</v>
+        <v>0.0362729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0335335</v>
+        <v>0.0335858</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0749451</v>
+        <v>0.0297392</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0372363</v>
+        <v>0.0375625</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0353093</v>
+        <v>0.0354344</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07578840000000001</v>
+        <v>0.030219</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387896</v>
+        <v>0.0388774</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0375766</v>
+        <v>0.0376827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0774078</v>
+        <v>0.0309741</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0405837</v>
+        <v>0.0409092</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0402514</v>
+        <v>0.0401396</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07952969999999999</v>
+        <v>0.0316911</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0434246</v>
+        <v>0.0444133</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0447371</v>
+        <v>0.0447122</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0834683</v>
+        <v>0.0326751</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0475444</v>
+        <v>0.0490615</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0503475</v>
+        <v>0.0505011</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0890875</v>
+        <v>0.0343014</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535108</v>
+        <v>0.0558856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0573771</v>
+        <v>0.0572786</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0966751</v>
+        <v>0.0367442</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0629509</v>
+        <v>0.0645115</v>
       </c>
       <c r="C48" t="n">
-        <v>0.067507</v>
+        <v>0.0674182</v>
       </c>
       <c r="D48" t="n">
-        <v>0.107203</v>
+        <v>0.0406726</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07515090000000001</v>
+        <v>0.07804460000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0828516</v>
+        <v>0.0828232</v>
       </c>
       <c r="D49" t="n">
-        <v>0.12815</v>
+  